--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD47BAB3-341D-4684-AC7C-5F7C858D61A5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9837C857-2C2D-4700-AB93-50A58303AC9F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="124">
   <si>
     <t>runname</t>
   </si>
@@ -153,9 +153,6 @@
     <t>wf_growth</t>
   </si>
   <si>
-    <t>no_entrance</t>
-  </si>
-  <si>
     <t>nyear.override</t>
   </si>
   <si>
@@ -333,9 +330,6 @@
     <t>EAN.CD</t>
   </si>
   <si>
-    <t>StartingSalgrowth</t>
-  </si>
-  <si>
     <t>Actuarial Methods and assumptions</t>
   </si>
   <si>
@@ -397,6 +391,51 @@
   </si>
   <si>
     <t>Model Assumptions</t>
+  </si>
+  <si>
+    <t>startingSalgrowth</t>
+  </si>
+  <si>
+    <t>no_entrants</t>
+  </si>
+  <si>
+    <t>t4a_LowYos_nUp</t>
+  </si>
+  <si>
+    <t>t4a_HighYos_nUp</t>
+  </si>
+  <si>
+    <t>t4a_LowYos_sUp</t>
+  </si>
+  <si>
+    <t>t4a_HighYos_sUp</t>
+  </si>
+  <si>
+    <t>scale_nact</t>
+  </si>
+  <si>
+    <t>scaleName_nact</t>
+  </si>
+  <si>
+    <t>scaleName_sal</t>
+  </si>
+  <si>
+    <t>scale_sal</t>
+  </si>
+  <si>
+    <t>scale_adj_factor</t>
+  </si>
+  <si>
+    <t>scale_nact_LowYosUp</t>
+  </si>
+  <si>
+    <t>scale_nact_HighYosUp</t>
+  </si>
+  <si>
+    <t>scale_sal_LowYosUp</t>
+  </si>
+  <si>
+    <t>scale_sal_HighYosUp</t>
   </si>
 </sst>
 </file>
@@ -1084,400 +1123,971 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:AU6"/>
+  <dimension ref="A3:AX11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="19" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="14.28515625" customWidth="1"/>
-    <col min="16" max="18" width="19.7109375" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.85546875" customWidth="1"/>
-    <col min="22" max="22" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" customWidth="1"/>
-    <col min="35" max="35" width="12" customWidth="1"/>
-    <col min="36" max="36" width="12.28515625" customWidth="1"/>
-    <col min="39" max="39" width="15.140625" customWidth="1"/>
-    <col min="40" max="41" width="16.5703125" customWidth="1"/>
-    <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.28515625" customWidth="1"/>
-    <col min="46" max="46" width="11.42578125" customWidth="1"/>
-    <col min="47" max="47" width="14.28515625" customWidth="1"/>
+    <col min="5" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="14.28515625" customWidth="1"/>
+    <col min="19" max="21" width="19.7109375" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.85546875" customWidth="1"/>
+    <col min="25" max="25" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" customWidth="1"/>
+    <col min="33" max="33" width="14.85546875" customWidth="1"/>
+    <col min="38" max="38" width="12" customWidth="1"/>
+    <col min="39" max="39" width="12.28515625" customWidth="1"/>
+    <col min="42" max="42" width="15.140625" customWidth="1"/>
+    <col min="43" max="44" width="16.5703125" customWidth="1"/>
+    <col min="45" max="45" width="12" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.28515625" customWidth="1"/>
+    <col min="49" max="49" width="11.42578125" customWidth="1"/>
+    <col min="50" max="50" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:47" s="39" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" s="39" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
-      <c r="F3" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31" t="s">
+        <v>100</v>
+      </c>
       <c r="J3" s="31"/>
       <c r="K3" s="31"/>
-      <c r="L3" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="33" t="s">
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="37" t="s">
+        <v>84</v>
+      </c>
       <c r="AG3" s="37"/>
       <c r="AH3" s="37"/>
-      <c r="AI3" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="33" t="s">
+        <v>95</v>
+      </c>
       <c r="AM3" s="33"/>
       <c r="AN3" s="33"/>
-      <c r="AO3" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="38"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="33"/>
+      <c r="AQ3" s="33"/>
+      <c r="AR3" s="38" t="s">
+        <v>108</v>
+      </c>
       <c r="AS3" s="38"/>
       <c r="AT3" s="38"/>
       <c r="AU3" s="38"/>
-    </row>
-    <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="38"/>
+    </row>
+    <row r="4" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="29" t="s">
+      <c r="L4" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="M4" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="K4" s="29" t="s">
+      <c r="O4" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="L4" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q4" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="25" t="s">
+      <c r="U4" s="23"/>
+      <c r="V4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="U4" s="25" t="s">
+      <c r="W4" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="25" t="s">
+      <c r="Y4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="24" t="s">
+      <c r="Z4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="24" t="s">
+      <c r="AA4" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB4" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC4" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="Y4" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z4" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA4" s="28" t="s">
+      <c r="AD4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AB4" s="28" t="s">
+      <c r="AE4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG4" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK4" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL4" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM4" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN4" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO4" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ4" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR4" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS4" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU4" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AC4" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD4" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE4" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF4" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG4" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH4" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI4" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ4" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK4" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM4" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN4" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO4" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP4" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ4" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR4" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="AS4" s="27" t="s">
+      <c r="AV4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AT4" s="27" t="s">
+      <c r="AW4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AU4" s="27" t="s">
+      <c r="AX4" s="27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5">
+      <c r="K5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5">
         <v>0.4</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>6</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>3</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>62</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>5</v>
       </c>
-      <c r="P5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q5">
+      <c r="S5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T5">
         <v>0.03</v>
       </c>
-      <c r="S5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T5" t="s">
-        <v>47</v>
-      </c>
-      <c r="U5">
+      <c r="V5" t="s">
+        <v>57</v>
+      </c>
+      <c r="W5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5">
         <v>14</v>
       </c>
-      <c r="V5">
+      <c r="Y5">
         <v>0.03</v>
       </c>
-      <c r="W5">
+      <c r="Z5">
         <v>6</v>
       </c>
-      <c r="X5">
+      <c r="AA5">
         <v>1.2</v>
       </c>
-      <c r="Y5">
+      <c r="AB5">
         <v>0.8</v>
       </c>
-      <c r="Z5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="b">
-        <v>0</v>
-      </c>
       <c r="AC5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" t="s">
         <v>21</v>
       </c>
-      <c r="AE5">
+      <c r="AH5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AF5">
+      <c r="AI5">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AG5" s="3">
+      <c r="AJ5" s="3">
         <v>0.12</v>
       </c>
-      <c r="AH5" s="10">
+      <c r="AK5" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AL5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN5">
+        <v>0.6</v>
+      </c>
+      <c r="AO5">
+        <v>0.6</v>
+      </c>
+      <c r="AR5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7">
+        <v>0.4</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Q7">
+        <v>62</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s">
+        <v>87</v>
+      </c>
+      <c r="T7">
+        <v>0.03</v>
+      </c>
+      <c r="V7" t="s">
+        <v>57</v>
+      </c>
+      <c r="W7" t="s">
+        <v>46</v>
+      </c>
+      <c r="X7">
+        <v>14</v>
+      </c>
+      <c r="Y7">
+        <v>0.03</v>
+      </c>
+      <c r="Z7">
+        <v>6</v>
+      </c>
+      <c r="AA7">
+        <v>1.2</v>
+      </c>
+      <c r="AB7">
+        <v>0.8</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="s">
         <v>35</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AG7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI7">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AK7" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN7">
+        <v>0.6</v>
+      </c>
+      <c r="AO7">
+        <v>0.6</v>
+      </c>
+      <c r="AR7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8">
+        <v>0.4</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Q8">
+        <v>62</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T8">
+        <v>0.03</v>
+      </c>
+      <c r="V8" t="s">
+        <v>57</v>
+      </c>
+      <c r="W8" t="s">
+        <v>46</v>
+      </c>
+      <c r="X8">
+        <v>14</v>
+      </c>
+      <c r="Y8">
+        <v>0.03</v>
+      </c>
+      <c r="Z8">
+        <v>6</v>
+      </c>
+      <c r="AA8">
+        <v>1.2</v>
+      </c>
+      <c r="AB8">
+        <v>0.8</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="s">
         <v>35</v>
       </c>
-      <c r="AK5">
+      <c r="AG8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI8">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AK8" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN8">
         <v>0.6</v>
       </c>
-      <c r="AL5">
+      <c r="AO8">
         <v>0.6</v>
       </c>
-      <c r="AO5" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="19">
+      <c r="AR8" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW8" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10">
+        <v>0.4</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>6</v>
       </c>
-      <c r="AS5" s="19" t="s">
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Q10">
+        <v>62</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s">
+        <v>87</v>
+      </c>
+      <c r="T10">
+        <v>0.03</v>
+      </c>
+      <c r="V10" t="s">
+        <v>57</v>
+      </c>
+      <c r="W10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X10">
+        <v>14</v>
+      </c>
+      <c r="Y10">
+        <v>0.03</v>
+      </c>
+      <c r="Z10">
+        <v>6</v>
+      </c>
+      <c r="AA10">
+        <v>1.2</v>
+      </c>
+      <c r="AB10">
+        <v>0.8</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI10">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AK10" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN10">
+        <v>0.6</v>
+      </c>
+      <c r="AO10">
+        <v>0.6</v>
+      </c>
+      <c r="AR10" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="19">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AT5" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
+      <c r="AW10" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11">
+        <v>0.4</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>6</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Q11">
+        <v>62</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s">
+        <v>87</v>
+      </c>
+      <c r="T11">
+        <v>0.03</v>
+      </c>
+      <c r="V11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W11" t="s">
+        <v>46</v>
+      </c>
+      <c r="X11">
+        <v>14</v>
+      </c>
+      <c r="Y11">
+        <v>0.03</v>
+      </c>
+      <c r="Z11">
+        <v>6</v>
+      </c>
+      <c r="AA11">
+        <v>1.2</v>
+      </c>
+      <c r="AB11">
+        <v>0.8</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI11">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AK11" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN11">
+        <v>0.6</v>
+      </c>
+      <c r="AO11">
+        <v>0.6</v>
+      </c>
+      <c r="AR11" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="19">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW11" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="40" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP5:AQ6 E5:F6" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS5:AT8 I10:I11 AS10:AT11 E5:E8 I5:I8 E10:E11" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC5:AC6" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF5:AF8 AF10:AF11" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1490,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:J4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,7 +2112,7 @@
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1514,22 +2124,22 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>79</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1537,10 +2147,10 @@
         <v>2016</v>
       </c>
       <c r="B4">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -1574,7 +2184,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,7 +2241,7 @@
         <v>7.2000000000000008E-2</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1656,7 +2266,7 @@
         <v>0.05</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1725,7 +2335,7 @@
         <v>7.1998000000000006E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1754,15 +2364,15 @@
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1771,31 +2381,31 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="12">
         <v>40.130000000000003</v>
@@ -1817,7 +2427,7 @@
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="12">
         <v>11.58</v>
@@ -1839,7 +2449,7 @@
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="12">
         <f>C7-C8</f>
@@ -1862,7 +2472,7 @@
     </row>
     <row r="10" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="12">
         <v>42.24</v>
@@ -1884,7 +2494,7 @@
     </row>
     <row r="11" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="12">
         <v>3.76</v>
@@ -1922,7 +2532,7 @@
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="12">
         <f>SUM(C9,C10,C11)</f>
@@ -1954,7 +2564,7 @@
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="12">
         <v>67.38</v>
@@ -1972,7 +2582,7 @@
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="12">
         <v>64.25</v>
@@ -1990,7 +2600,7 @@
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="12">
         <f>C14-C16</f>
@@ -2025,7 +2635,7 @@
     </row>
     <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="16">
         <f>11.582186/111.581756</f>
@@ -2048,7 +2658,7 @@
     </row>
     <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="6">
         <v>1.07</v>
@@ -2070,7 +2680,7 @@
     </row>
     <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="16">
         <v>7.4999999999999997E-2</v>
@@ -2090,7 +2700,7 @@
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="6">
         <v>6</v>
@@ -2118,7 +2728,7 @@
     </row>
     <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="12">
         <v>4.343</v>
@@ -2140,7 +2750,7 @@
     </row>
     <row r="27" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="6">
         <v>13.5</v>
@@ -2160,7 +2770,7 @@
     </row>
     <row r="28" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="6">
         <v>14.28</v>
@@ -2178,7 +2788,7 @@
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9837C857-2C2D-4700-AB93-50A58303AC9F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7157BD6E-E20E-459B-BE45-E7ECFC0E657C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -1125,11 +1125,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AX11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,7 +1542,7 @@
         <v>21</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0.3</v>
@@ -1679,7 +1679,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0.3</v>
@@ -1816,7 +1816,7 @@
         <v>21</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0.3</v>
@@ -1953,7 +1953,7 @@
         <v>21</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0.3</v>
@@ -2100,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2147,10 +2147,10 @@
         <v>2016</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>6</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7157BD6E-E20E-459B-BE45-E7ECFC0E657C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0BA844-6761-4D9C-8783-88339EF1C497}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,9 +646,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -670,6 +667,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1129,7 +1129,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,223 +1173,223 @@
     <col min="50" max="50" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:50" s="39" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31" t="s">
+    <row r="3" spans="1:50" s="38" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32" t="s">
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="33" t="s">
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="34" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="35" t="s">
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="36" t="s">
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="37" t="s">
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="33" t="s">
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="33"/>
-      <c r="AQ3" s="33"/>
-      <c r="AR3" s="38" t="s">
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="AS3" s="38"/>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="38"/>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="38"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="37"/>
+      <c r="AW3" s="37"/>
+      <c r="AX3" s="37"/>
     </row>
     <row r="4" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="N4" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="T4" s="23" t="s">
+      <c r="T4" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="U4" s="23"/>
-      <c r="V4" s="25" t="s">
+      <c r="U4" s="22"/>
+      <c r="V4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="25" t="s">
+      <c r="W4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="25" t="s">
+      <c r="X4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="25" t="s">
+      <c r="Y4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="24" t="s">
+      <c r="Z4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="24" t="s">
+      <c r="AA4" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="AB4" s="24" t="s">
+      <c r="AB4" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="24" t="s">
+      <c r="AC4" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="AD4" s="28" t="s">
+      <c r="AD4" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AE4" s="28" t="s">
+      <c r="AE4" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="AF4" s="22" t="s">
+      <c r="AF4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AG4" s="22" t="s">
+      <c r="AG4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AH4" s="22" t="s">
+      <c r="AH4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AI4" s="22" t="s">
+      <c r="AI4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AJ4" s="22" t="s">
+      <c r="AJ4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AK4" s="22" t="s">
+      <c r="AK4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="AL4" s="23" t="s">
+      <c r="AL4" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="AM4" s="23" t="s">
+      <c r="AM4" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="AN4" s="23" t="s">
+      <c r="AN4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AO4" s="23" t="s">
+      <c r="AO4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AP4" s="23" t="s">
+      <c r="AP4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AQ4" s="23" t="s">
+      <c r="AQ4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AR4" s="27" t="s">
+      <c r="AR4" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="AS4" s="27" t="s">
+      <c r="AS4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AT4" s="27" t="s">
+      <c r="AT4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AU4" s="27" t="s">
+      <c r="AU4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AV4" s="27" t="s">
+      <c r="AV4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AW4" s="27" t="s">
+      <c r="AW4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AX4" s="27" t="s">
+      <c r="AX4" s="26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       <c r="AW5" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AX5" s="40" t="b">
+      <c r="AX5" s="39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
         <v>21</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0.3</v>
@@ -1667,7 +1667,7 @@
       <c r="AW7" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AX7" s="40" t="b">
+      <c r="AX7" s="39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0.3</v>
@@ -1804,7 +1804,7 @@
       <c r="AW8" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AX8" s="40" t="b">
+      <c r="AX8" s="39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
         <v>21</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0.3</v>
@@ -1941,7 +1941,7 @@
       <c r="AW10" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AX10" s="40" t="b">
+      <c r="AX10" s="39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
         <v>21</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0.3</v>
@@ -2078,7 +2078,7 @@
       <c r="AW11" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AX11" s="40" t="b">
+      <c r="AX11" s="39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2380,10 +2380,10 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0BA844-6761-4D9C-8783-88339EF1C497}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8564F223-5AC3-469C-AC74-52B8CB51C82F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="125">
   <si>
     <t>runname</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>scale_sal_HighYosUp</t>
+  </si>
+  <si>
+    <t>Sensitivity test parameters</t>
   </si>
 </sst>
 </file>
@@ -1125,11 +1128,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AX11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10:E11"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,9 +1182,11 @@
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="F3" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="30" t="s">
         <v>100</v>
       </c>
@@ -1259,13 +1264,13 @@
       <c r="E4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="23" t="s">
         <v>116</v>
       </c>
       <c r="I4" s="28" t="s">
@@ -2100,7 +2105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8564F223-5AC3-469C-AC74-52B8CB51C82F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA26D8D-B1F3-40B7-86BD-4DC1E7E0290B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
   <si>
     <t>runname</t>
   </si>
@@ -1128,11 +1128,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AX11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,8 +2105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2152,7 +2152,7 @@
         <v>2016</v>
       </c>
       <c r="B4">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>30</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA26D8D-B1F3-40B7-86BD-4DC1E7E0290B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADE7372-670D-41A0-AFBB-589495D7D980}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
     <sheet name="GlobalParams" sheetId="3" r:id="rId2"/>
     <sheet name="returns" sheetId="2" r:id="rId3"/>
     <sheet name="Calibration_2016" sheetId="10" r:id="rId4"/>
+    <sheet name="DetectiveWork" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1129,10 +1130,10 @@
   <dimension ref="A3:AX11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,7 +2106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2873,4 +2874,16 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4FDDF8-106A-47EA-BD4C-5B4A1371B873}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADE7372-670D-41A0-AFBB-589495D7D980}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C85C9E-9C3A-4C48-839D-8BAC855B0189}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="133">
   <si>
     <t>runname</t>
   </si>
@@ -440,16 +440,42 @@
   </si>
   <si>
     <t>Sensitivity test parameters</t>
+  </si>
+  <si>
+    <t>CAFR2017 p63</t>
+  </si>
+  <si>
+    <t>FY2016 end</t>
+  </si>
+  <si>
+    <t>FY2017 end</t>
+  </si>
+  <si>
+    <t>Pension Liability</t>
+  </si>
+  <si>
+    <t>Fiduciary net position</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>TDA assets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -603,11 +629,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -675,8 +702,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1129,11 +1159,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AX11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="AC5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomRight" activeCell="AO15" sqref="AO15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,10 +1539,10 @@
         <v>34</v>
       </c>
       <c r="AN5">
-        <v>0.6</v>
+        <v>0.623</v>
       </c>
       <c r="AO5">
-        <v>0.6</v>
+        <v>0.623</v>
       </c>
       <c r="AR5" s="19" t="b">
         <v>1</v>
@@ -1650,10 +1680,10 @@
         <v>34</v>
       </c>
       <c r="AN7">
-        <v>0.6</v>
+        <v>0.623</v>
       </c>
       <c r="AO7">
-        <v>0.6</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AR7" s="19" t="b">
         <v>1</v>
@@ -1787,10 +1817,10 @@
         <v>34</v>
       </c>
       <c r="AN8">
-        <v>0.6</v>
+        <v>0.623</v>
       </c>
       <c r="AO8">
-        <v>0.6</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AR8" s="19" t="b">
         <v>1</v>
@@ -1924,10 +1954,10 @@
         <v>34</v>
       </c>
       <c r="AN10">
-        <v>0.6</v>
+        <v>0.623</v>
       </c>
       <c r="AO10">
-        <v>0.6</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AR10" s="19" t="b">
         <v>1</v>
@@ -2061,10 +2091,10 @@
         <v>34</v>
       </c>
       <c r="AN11">
-        <v>0.6</v>
+        <v>0.623</v>
       </c>
       <c r="AO11">
-        <v>0.6</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AR11" s="19" t="b">
         <v>1</v>
@@ -2107,7 +2137,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,7 +2183,7 @@
         <v>2016</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -2878,12 +2908,75 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4FDDF8-106A-47EA-BD4C-5B4A1371B873}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="41">
+        <v>70000777</v>
+      </c>
+      <c r="D4" s="41">
+        <v>43629545</v>
+      </c>
+      <c r="G4">
+        <v>20292733</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="41">
+        <v>73323430</v>
+      </c>
+      <c r="D5" s="41">
+        <v>50095723</v>
+      </c>
+      <c r="G5">
+        <v>22004183</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="42"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C85C9E-9C3A-4C48-839D-8BAC855B0189}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06846C6E-53CE-49F4-9F8E-18BA28AD989A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="144">
   <si>
     <t>runname</t>
   </si>
@@ -235,9 +235,6 @@
     <t>15 years of low returns</t>
   </si>
   <si>
-    <t>Assumption achived</t>
-  </si>
-  <si>
     <t>cd</t>
   </si>
   <si>
@@ -464,6 +461,42 @@
   </si>
   <si>
     <t>TDA assets</t>
+  </si>
+  <si>
+    <t>2016-2017</t>
+  </si>
+  <si>
+    <t>2017-2018</t>
+  </si>
+  <si>
+    <t>2018-2019</t>
+  </si>
+  <si>
+    <t>2020-2045</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t>TDA_type</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>TDA_smooth</t>
+  </si>
+  <si>
+    <t>TDA_amort</t>
+  </si>
+  <si>
+    <t>TDA_smooth_method</t>
+  </si>
+  <si>
+    <t>w.TDA</t>
+  </si>
+  <si>
+    <t>method2</t>
   </si>
 </sst>
 </file>
@@ -1157,13 +1190,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:AX11"/>
+  <dimension ref="A3:BC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="AC5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AO15" sqref="AO15"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,262 +1209,286 @@
     <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="29.140625" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="14.28515625" customWidth="1"/>
-    <col min="19" max="21" width="19.7109375" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.85546875" customWidth="1"/>
-    <col min="25" max="25" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" customWidth="1"/>
-    <col min="32" max="32" width="12.5703125" customWidth="1"/>
-    <col min="33" max="33" width="14.85546875" customWidth="1"/>
-    <col min="38" max="38" width="12" customWidth="1"/>
-    <col min="39" max="39" width="12.28515625" customWidth="1"/>
-    <col min="42" max="42" width="15.140625" customWidth="1"/>
-    <col min="43" max="44" width="16.5703125" customWidth="1"/>
-    <col min="45" max="45" width="12" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.28515625" customWidth="1"/>
-    <col min="49" max="49" width="11.42578125" customWidth="1"/>
-    <col min="50" max="50" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="14.28515625" customWidth="1"/>
+    <col min="24" max="26" width="19.7109375" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.85546875" customWidth="1"/>
+    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14" customWidth="1"/>
+    <col min="36" max="36" width="13.42578125" customWidth="1"/>
+    <col min="37" max="37" width="12.5703125" customWidth="1"/>
+    <col min="38" max="38" width="14.85546875" customWidth="1"/>
+    <col min="43" max="43" width="12" customWidth="1"/>
+    <col min="44" max="44" width="12.28515625" customWidth="1"/>
+    <col min="47" max="47" width="15.140625" customWidth="1"/>
+    <col min="48" max="49" width="16.5703125" customWidth="1"/>
+    <col min="50" max="50" width="12" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.28515625" customWidth="1"/>
+    <col min="54" max="54" width="11.42578125" customWidth="1"/>
+    <col min="55" max="55" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:50" s="38" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" s="38" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="F3" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
       <c r="I3" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
       <c r="M3" s="30"/>
       <c r="N3" s="30"/>
-      <c r="O3" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="32" t="s">
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="33" t="s">
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="37"/>
-      <c r="AW3" s="37"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="37" t="s">
+        <v>107</v>
+      </c>
       <c r="AX3" s="37"/>
-    </row>
-    <row r="4" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY3" s="37"/>
+      <c r="AZ3" s="37"/>
+      <c r="BA3" s="37"/>
+      <c r="BB3" s="37"/>
+      <c r="BC3" s="37"/>
+    </row>
+    <row r="4" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="M4" s="28" t="s">
         <v>106</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="U4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="W4" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="R4" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="S4" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="T4" s="22" t="s">
+      <c r="X4" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y4" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB4" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF4" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG4" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH4" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ4" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="U4" s="22"/>
-      <c r="V4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="W4" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA4" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB4" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC4" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE4" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF4" s="21" t="s">
+      <c r="AK4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AG4" s="21" t="s">
+      <c r="AL4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AH4" s="21" t="s">
+      <c r="AM4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AI4" s="21" t="s">
+      <c r="AN4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AJ4" s="21" t="s">
+      <c r="AO4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AK4" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL4" s="22" t="s">
+      <c r="AP4" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ4" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR4" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="AM4" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN4" s="22" t="s">
+      <c r="AS4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AO4" s="22" t="s">
+      <c r="AT4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AP4" s="22" t="s">
+      <c r="AU4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AQ4" s="22" t="s">
+      <c r="AV4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AR4" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS4" s="26" t="s">
+      <c r="AW4" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AT4" s="26" t="s">
+      <c r="AY4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AU4" s="26" t="s">
+      <c r="AZ4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AV4" s="26" t="s">
+      <c r="BA4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AW4" s="26" t="s">
+      <c r="BB4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AX4" s="26" t="s">
+      <c r="BC4" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -1443,136 +1500,151 @@
         <v>0.3</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L5">
+      <c r="Q5" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5">
         <v>0.4</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>6</v>
-      </c>
-      <c r="O5">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>3</v>
       </c>
-      <c r="P5">
+      <c r="U5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Q5">
+      <c r="V5">
         <v>62</v>
       </c>
-      <c r="R5">
+      <c r="W5">
         <v>5</v>
       </c>
-      <c r="S5" t="s">
-        <v>87</v>
-      </c>
-      <c r="T5">
-        <v>0.03</v>
-      </c>
-      <c r="V5" t="s">
-        <v>57</v>
-      </c>
-      <c r="W5" t="s">
-        <v>46</v>
-      </c>
-      <c r="X5">
-        <v>14</v>
+      <c r="X5" t="s">
+        <v>86</v>
       </c>
       <c r="Y5">
         <v>0.03</v>
       </c>
-      <c r="Z5">
+      <c r="AA5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC5">
+        <v>14</v>
+      </c>
+      <c r="AD5">
+        <v>0.03</v>
+      </c>
+      <c r="AE5">
         <v>6</v>
       </c>
-      <c r="AA5">
+      <c r="AF5">
         <v>1.2</v>
       </c>
-      <c r="AB5">
+      <c r="AG5">
         <v>0.8</v>
       </c>
-      <c r="AC5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL5" t="s">
         <v>21</v>
       </c>
-      <c r="AH5">
+      <c r="AM5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI5">
+      <c r="AN5">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ5" s="3">
+      <c r="AO5" s="3">
         <v>0.12</v>
       </c>
-      <c r="AK5" s="10">
+      <c r="AP5" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AQ5" t="s">
         <v>34</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AR5" t="s">
         <v>34</v>
       </c>
-      <c r="AN5">
+      <c r="AS5">
         <v>0.623</v>
       </c>
-      <c r="AO5">
-        <v>0.623</v>
-      </c>
-      <c r="AR5" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="19" t="s">
+      <c r="AT5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="19">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AW5" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="BB5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1584,132 +1656,132 @@
         <v>0.3</v>
       </c>
       <c r="G7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="P7">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7">
+      <c r="Q7" t="s">
+        <v>103</v>
+      </c>
+      <c r="R7">
         <v>0.4</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>6</v>
-      </c>
-      <c r="O7">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>3</v>
       </c>
-      <c r="P7">
+      <c r="U7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Q7">
+      <c r="V7">
         <v>62</v>
       </c>
-      <c r="R7">
+      <c r="W7">
         <v>5</v>
       </c>
-      <c r="S7" t="s">
-        <v>87</v>
-      </c>
-      <c r="T7">
-        <v>0.03</v>
-      </c>
-      <c r="V7" t="s">
-        <v>57</v>
-      </c>
-      <c r="W7" t="s">
-        <v>46</v>
-      </c>
-      <c r="X7">
-        <v>14</v>
+      <c r="X7" t="s">
+        <v>86</v>
       </c>
       <c r="Y7">
         <v>0.03</v>
       </c>
-      <c r="Z7">
+      <c r="AA7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC7">
+        <v>14</v>
+      </c>
+      <c r="AD7">
+        <v>0.03</v>
+      </c>
+      <c r="AE7">
         <v>6</v>
       </c>
-      <c r="AA7">
+      <c r="AF7">
         <v>1.2</v>
       </c>
-      <c r="AB7">
+      <c r="AG7">
         <v>0.8</v>
       </c>
-      <c r="AC7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="s">
         <v>35</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AL7" t="s">
         <v>21</v>
       </c>
-      <c r="AH7">
+      <c r="AM7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI7">
+      <c r="AN7">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ7" s="3">
+      <c r="AO7" s="3">
         <v>0.12</v>
       </c>
-      <c r="AK7" s="10">
+      <c r="AP7" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AQ7" t="s">
         <v>34</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AR7" t="s">
         <v>34</v>
       </c>
-      <c r="AN7">
+      <c r="AS7">
         <v>0.623</v>
       </c>
-      <c r="AO7">
+      <c r="AT7">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AR7" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="19" t="s">
+      <c r="AW7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="19">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AW7" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="BB7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1721,132 +1793,132 @@
         <v>0.3</v>
       </c>
       <c r="G8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="P8">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K8" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8">
+      <c r="Q8" t="s">
+        <v>103</v>
+      </c>
+      <c r="R8">
         <v>0.4</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>6</v>
-      </c>
-      <c r="O8">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>3</v>
       </c>
-      <c r="P8">
+      <c r="U8">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Q8">
+      <c r="V8">
         <v>62</v>
       </c>
-      <c r="R8">
+      <c r="W8">
         <v>5</v>
       </c>
-      <c r="S8" t="s">
-        <v>87</v>
-      </c>
-      <c r="T8">
-        <v>0.03</v>
-      </c>
-      <c r="V8" t="s">
-        <v>57</v>
-      </c>
-      <c r="W8" t="s">
-        <v>46</v>
-      </c>
-      <c r="X8">
-        <v>14</v>
+      <c r="X8" t="s">
+        <v>86</v>
       </c>
       <c r="Y8">
         <v>0.03</v>
       </c>
-      <c r="Z8">
+      <c r="AA8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC8">
+        <v>14</v>
+      </c>
+      <c r="AD8">
+        <v>0.03</v>
+      </c>
+      <c r="AE8">
         <v>6</v>
       </c>
-      <c r="AA8">
+      <c r="AF8">
         <v>1.2</v>
       </c>
-      <c r="AB8">
+      <c r="AG8">
         <v>0.8</v>
       </c>
-      <c r="AC8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="s">
         <v>35</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AL8" t="s">
         <v>21</v>
       </c>
-      <c r="AH8">
+      <c r="AM8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI8">
+      <c r="AN8">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ8" s="3">
+      <c r="AO8" s="3">
         <v>0.12</v>
       </c>
-      <c r="AK8" s="10">
+      <c r="AP8" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AQ8" t="s">
         <v>34</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AR8" t="s">
         <v>34</v>
       </c>
-      <c r="AN8">
+      <c r="AS8">
         <v>0.623</v>
       </c>
-      <c r="AO8">
+      <c r="AT8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AR8" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="19">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="19" t="s">
+      <c r="AW8" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="19">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AW8" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX8" s="39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="BB8" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -1858,132 +1930,132 @@
         <v>0.3</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="P10">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L10">
+      <c r="Q10" t="s">
+        <v>103</v>
+      </c>
+      <c r="R10">
         <v>0.4</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>6</v>
-      </c>
-      <c r="O10">
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>3</v>
       </c>
-      <c r="P10">
+      <c r="U10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Q10">
+      <c r="V10">
         <v>62</v>
       </c>
-      <c r="R10">
+      <c r="W10">
         <v>5</v>
       </c>
-      <c r="S10" t="s">
-        <v>87</v>
-      </c>
-      <c r="T10">
-        <v>0.03</v>
-      </c>
-      <c r="V10" t="s">
-        <v>57</v>
-      </c>
-      <c r="W10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X10">
-        <v>14</v>
+      <c r="X10" t="s">
+        <v>86</v>
       </c>
       <c r="Y10">
         <v>0.03</v>
       </c>
-      <c r="Z10">
+      <c r="AA10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC10">
+        <v>14</v>
+      </c>
+      <c r="AD10">
+        <v>0.03</v>
+      </c>
+      <c r="AE10">
         <v>6</v>
       </c>
-      <c r="AA10">
+      <c r="AF10">
         <v>1.2</v>
       </c>
-      <c r="AB10">
+      <c r="AG10">
         <v>0.8</v>
       </c>
-      <c r="AC10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="s">
         <v>35</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AL10" t="s">
         <v>21</v>
       </c>
-      <c r="AH10">
+      <c r="AM10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI10">
+      <c r="AN10">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ10" s="3">
+      <c r="AO10" s="3">
         <v>0.12</v>
       </c>
-      <c r="AK10" s="10">
+      <c r="AP10" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AQ10" t="s">
         <v>34</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AR10" t="s">
         <v>34</v>
       </c>
-      <c r="AN10">
+      <c r="AS10">
         <v>0.623</v>
       </c>
-      <c r="AO10">
+      <c r="AT10">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AR10" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS10" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT10" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU10" s="19">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="19" t="s">
+      <c r="AW10" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="19">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AW10" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX10" s="39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="BB10" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -1995,135 +2067,135 @@
         <v>0.3</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
-      <c r="J11">
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="P11">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K11" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11">
+      <c r="Q11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R11">
         <v>0.4</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>6</v>
-      </c>
-      <c r="O11">
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>3</v>
       </c>
-      <c r="P11">
+      <c r="U11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Q11">
+      <c r="V11">
         <v>62</v>
       </c>
-      <c r="R11">
+      <c r="W11">
         <v>5</v>
       </c>
-      <c r="S11" t="s">
-        <v>87</v>
-      </c>
-      <c r="T11">
-        <v>0.03</v>
-      </c>
-      <c r="V11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W11" t="s">
-        <v>46</v>
-      </c>
-      <c r="X11">
-        <v>14</v>
+      <c r="X11" t="s">
+        <v>86</v>
       </c>
       <c r="Y11">
         <v>0.03</v>
       </c>
-      <c r="Z11">
+      <c r="AA11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC11">
+        <v>14</v>
+      </c>
+      <c r="AD11">
+        <v>0.03</v>
+      </c>
+      <c r="AE11">
         <v>6</v>
       </c>
-      <c r="AA11">
+      <c r="AF11">
         <v>1.2</v>
       </c>
-      <c r="AB11">
+      <c r="AG11">
         <v>0.8</v>
       </c>
-      <c r="AC11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="s">
         <v>35</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AL11" t="s">
         <v>21</v>
       </c>
-      <c r="AH11">
+      <c r="AM11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI11">
+      <c r="AN11">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AO11" s="3">
         <v>0.12</v>
       </c>
-      <c r="AK11" s="10">
+      <c r="AP11" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AQ11" t="s">
         <v>34</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AR11" t="s">
         <v>34</v>
       </c>
-      <c r="AN11">
+      <c r="AS11">
         <v>0.623</v>
       </c>
-      <c r="AO11">
+      <c r="AT11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AR11" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS11" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="19">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="19" t="s">
+      <c r="AW11" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="19">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AW11" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX11" s="39" t="b">
+      <c r="BB11" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="39" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS5:AT8 I10:I11 AS10:AT11 E5:E8 I5:I8 E10:E11" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX5:AY8 I5:I8 AX10:AY11 E5:E8 E10:E11 I10:I11" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF5:AF8 AF10:AF11" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK5:AK8 AK10:AK11" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2137,7 +2209,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,7 +2220,7 @@
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -2160,22 +2232,22 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2217,10 +2289,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2261,121 +2333,203 @@
         <v>21</v>
       </c>
       <c r="B2" s="4">
-        <v>7.9200000000000007E-2</v>
+        <v>0.13</v>
       </c>
       <c r="C2" s="3">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4">
-        <v>7.1999999999999995E-2</v>
+        <f>F2</f>
+        <v>0.13</v>
       </c>
       <c r="F2" s="15">
         <f>B2 - C2^2/2</f>
-        <v>7.2000000000000008E-2</v>
+        <v>0.13</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>5.7200000000000001E-2</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.128</v>
       </c>
       <c r="C3" s="3">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4">
-        <f>B3-C3^2/2</f>
-        <v>0.05</v>
+        <f t="shared" ref="E3:E5" si="0">F3</f>
+        <v>0.128</v>
       </c>
       <c r="F3" s="15">
         <f>B3 - C3^2/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
+        <v>0.128</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>7.22E-2</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.05</v>
       </c>
       <c r="C4" s="3">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
-        <f>B4-C4^2/2</f>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
       <c r="F4" s="15">
         <f>B4 - C4^2/2</f>
-        <v>6.5000000000000002E-2</v>
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>7.9200000000000007E-2</v>
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7.7200000000000005E-2</v>
       </c>
       <c r="C5" s="3">
         <v>0.12</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E5" s="4">
-        <f>B5-C5^2/2</f>
-        <v>7.2000000000000008E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F5" s="15">
         <f>B5 - C5^2/2</f>
-        <v>7.2000000000000008E-2</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="9">
-        <v>8.6790000000000006E-2</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.17199999999999999</v>
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.12</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4">
         <f>B6-C6^2/2</f>
-        <v>7.1998000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F6" s="15">
         <f>B6 - C6^2/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>7.22E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <f>B7-C7^2/2</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F7" s="15">
+        <f>B7 - C7^2/2</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4">
+        <f>B8-C8^2/2</f>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="F8" s="15">
+        <f>B8 - C8^2/2</f>
+        <v>7.2000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="9">
+        <v>8.6790000000000006E-2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4">
+        <f>B9-C9^2/2</f>
         <v>7.1998000000000006E-2</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F9" s="15">
+        <f>B9 - C9^2/2</f>
+        <v>7.1998000000000006E-2</v>
+      </c>
+      <c r="G9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f>0.07+0.12^2/2</f>
+        <v>7.7200000000000005E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2404,11 +2558,11 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2417,14 +2571,14 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="40"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>42</v>
@@ -2463,7 +2617,7 @@
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="12">
         <v>11.58</v>
@@ -2508,7 +2662,7 @@
     </row>
     <row r="10" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="12">
         <v>42.24</v>
@@ -2530,7 +2684,7 @@
     </row>
     <row r="11" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="12">
         <v>3.76</v>
@@ -2764,7 +2918,7 @@
     </row>
     <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="12">
         <v>4.343</v>
@@ -2786,7 +2940,7 @@
     </row>
     <row r="27" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="6">
         <v>13.5</v>
@@ -2806,7 +2960,7 @@
     </row>
     <row r="28" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="6">
         <v>14.28</v>
@@ -2824,7 +2978,7 @@
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
@@ -2925,29 +3079,29 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
         <v>128</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" t="s">
         <v>129</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>131</v>
-      </c>
-      <c r="F3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="41">
         <v>70000777</v>
@@ -2961,7 +3115,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="41">
         <v>73323430</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06846C6E-53CE-49F4-9F8E-18BA28AD989A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AADF8DC-A5BB-42F0-8C03-905864A8FB13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="144">
   <si>
     <t>runname</t>
   </si>
@@ -280,9 +280,6 @@
     <t>calibration</t>
   </si>
   <si>
-    <t>t4a</t>
-  </si>
-  <si>
     <t>init_year</t>
   </si>
   <si>
@@ -484,19 +481,22 @@
     <t>income</t>
   </si>
   <si>
-    <t>TDA_smooth</t>
-  </si>
-  <si>
-    <t>TDA_amort</t>
-  </si>
-  <si>
-    <t>TDA_smooth_method</t>
-  </si>
-  <si>
-    <t>w.TDA</t>
-  </si>
-  <si>
-    <t>method2</t>
+    <t>TDA_smooth_on</t>
+  </si>
+  <si>
+    <t>t4a_noTDA</t>
+  </si>
+  <si>
+    <t>payout</t>
+  </si>
+  <si>
+    <t>t4a_TDApayout</t>
+  </si>
+  <si>
+    <t>t4a_TDAamort</t>
+  </si>
+  <si>
+    <t>off</t>
   </si>
 </sst>
 </file>
@@ -667,7 +667,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -737,6 +737,7 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1190,13 +1191,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:BC11"/>
+  <dimension ref="A3:AZ13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,53 +1211,51 @@
     <col min="8" max="8" width="29.140625" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="14.28515625" customWidth="1"/>
-    <col min="24" max="26" width="19.7109375" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.85546875" customWidth="1"/>
-    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14" customWidth="1"/>
-    <col min="36" max="36" width="13.42578125" customWidth="1"/>
-    <col min="37" max="37" width="12.5703125" customWidth="1"/>
-    <col min="38" max="38" width="14.85546875" customWidth="1"/>
-    <col min="43" max="43" width="12" customWidth="1"/>
-    <col min="44" max="44" width="12.28515625" customWidth="1"/>
-    <col min="47" max="47" width="15.140625" customWidth="1"/>
-    <col min="48" max="49" width="16.5703125" customWidth="1"/>
-    <col min="50" max="50" width="12" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.28515625" customWidth="1"/>
-    <col min="54" max="54" width="11.42578125" customWidth="1"/>
-    <col min="55" max="55" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="23" width="19.7109375" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.85546875" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14" customWidth="1"/>
+    <col min="33" max="33" width="13.42578125" customWidth="1"/>
+    <col min="34" max="34" width="12.5703125" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" customWidth="1"/>
+    <col min="40" max="40" width="12" customWidth="1"/>
+    <col min="41" max="41" width="12.28515625" customWidth="1"/>
+    <col min="44" max="44" width="15.140625" customWidth="1"/>
+    <col min="45" max="46" width="16.5703125" customWidth="1"/>
+    <col min="47" max="47" width="12" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.28515625" customWidth="1"/>
+    <col min="51" max="51" width="11.42578125" customWidth="1"/>
+    <col min="52" max="52" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:55" s="38" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" s="38" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="F3" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
       <c r="I3" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
@@ -1265,63 +1264,60 @@
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
       <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="32" t="s">
+      <c r="Q3" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="33" t="s">
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="36" t="s">
-        <v>83</v>
-      </c>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
       <c r="AL3" s="36"/>
       <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="32" t="s">
-        <v>94</v>
-      </c>
+      <c r="AN3" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
       <c r="AR3" s="32"/>
       <c r="AS3" s="32"/>
-      <c r="AT3" s="32"/>
-      <c r="AU3" s="32"/>
-      <c r="AV3" s="32"/>
-      <c r="AW3" s="37" t="s">
-        <v>107</v>
-      </c>
+      <c r="AT3" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="37"/>
+      <c r="AW3" s="37"/>
       <c r="AX3" s="37"/>
       <c r="AY3" s="37"/>
       <c r="AZ3" s="37"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="37"/>
-    </row>
-    <row r="4" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
@@ -1338,157 +1334,148 @@
         <v>14</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I4" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4" s="28" t="s">
+      <c r="N4" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="V4" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="W4" s="22"/>
+      <c r="X4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD4" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE4" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG4" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM4" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN4" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO4" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS4" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT4" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU4" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW4" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ4" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>139</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q4" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="R4" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="S4" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="T4" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="U4" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="V4" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="W4" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="X4" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y4" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB4" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF4" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG4" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH4" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ4" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK4" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN4" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP4" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ4" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR4" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS4" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AU4" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV4" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW4" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX4" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="AY4" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="AZ4" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="BA4" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="BB4" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="BC4" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -1500,425 +1487,565 @@
         <v>0.3</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>138</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" t="s">
         <v>143</v>
       </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
       <c r="M5">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5">
+        <v>0.45</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S5">
+        <v>62</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5" t="s">
+        <v>85</v>
+      </c>
+      <c r="V5">
+        <v>0.03</v>
+      </c>
+      <c r="X5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5">
+        <v>14</v>
+      </c>
+      <c r="AA5">
+        <v>0.03</v>
+      </c>
+      <c r="AB5">
         <v>6</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5">
+      <c r="AC5">
+        <v>1.2</v>
+      </c>
+      <c r="AD5">
+        <v>0.8</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK5">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AM5" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP5">
+        <v>0.623</v>
+      </c>
+      <c r="AQ5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AT5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>137</v>
+      </c>
+      <c r="K6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q5" t="s">
-        <v>103</v>
-      </c>
-      <c r="R5">
-        <v>0.4</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
+      <c r="N6" t="s">
+        <v>102</v>
+      </c>
+      <c r="O6">
+        <v>0.45</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>3</v>
       </c>
-      <c r="U5">
+      <c r="R6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V5">
+      <c r="S6">
         <v>62</v>
       </c>
-      <c r="W5">
+      <c r="T6">
         <v>5</v>
       </c>
-      <c r="X5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y5">
+      <c r="U6" t="s">
+        <v>85</v>
+      </c>
+      <c r="V6">
         <v>0.03</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="X6" t="s">
         <v>56</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="Y6" t="s">
         <v>46</v>
       </c>
-      <c r="AC5">
+      <c r="Z6">
         <v>14</v>
       </c>
-      <c r="AD5">
+      <c r="AA6">
         <v>0.03</v>
       </c>
-      <c r="AE5">
+      <c r="AB6">
         <v>6</v>
       </c>
-      <c r="AF5">
+      <c r="AC6">
         <v>1.2</v>
       </c>
-      <c r="AG5">
+      <c r="AD6">
         <v>0.8</v>
       </c>
-      <c r="AH5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL5" t="s">
+      <c r="AE6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI6" t="s">
         <v>21</v>
       </c>
-      <c r="AM5">
+      <c r="AJ6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN5">
+      <c r="AK6">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO5" s="3">
+      <c r="AL6" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP5" s="10">
+      <c r="AM6" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AN6" t="s">
         <v>34</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AO6" t="s">
         <v>34</v>
       </c>
-      <c r="AS5">
+      <c r="AP6">
         <v>0.623</v>
       </c>
-      <c r="AT5">
+      <c r="AQ6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW5" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY5" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="19">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="19" t="s">
+      <c r="AT6" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="BB5" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC5" s="39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AY6" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0.3</v>
       </c>
       <c r="G7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
+      <c r="J7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
       <c r="M7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O7">
+        <v>0.45</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S7">
+        <v>62</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="U7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V7">
+        <v>0.03</v>
+      </c>
+      <c r="X7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z7">
+        <v>14</v>
+      </c>
+      <c r="AA7">
+        <v>0.03</v>
+      </c>
+      <c r="AB7">
         <v>6</v>
       </c>
-      <c r="P7">
+      <c r="AC7">
+        <v>1.2</v>
+      </c>
+      <c r="AD7">
+        <v>0.8</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK7">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AM7" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP7">
+        <v>0.623</v>
+      </c>
+      <c r="AQ7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AT7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q7" t="s">
-        <v>103</v>
-      </c>
-      <c r="R7">
-        <v>0.4</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9">
+        <v>0.45</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>3</v>
       </c>
-      <c r="U7">
+      <c r="R9">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V7">
+      <c r="S9">
         <v>62</v>
       </c>
-      <c r="W7">
+      <c r="T9">
         <v>5</v>
       </c>
-      <c r="X7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y7">
+      <c r="U9" t="s">
+        <v>85</v>
+      </c>
+      <c r="V9">
         <v>0.03</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="X9" t="s">
         <v>56</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="Y9" t="s">
         <v>46</v>
       </c>
-      <c r="AC7">
+      <c r="Z9">
         <v>14</v>
       </c>
-      <c r="AD7">
+      <c r="AA9">
         <v>0.03</v>
       </c>
-      <c r="AE7">
+      <c r="AB9">
         <v>6</v>
       </c>
-      <c r="AF7">
+      <c r="AC9">
         <v>1.2</v>
       </c>
-      <c r="AG7">
+      <c r="AD9">
         <v>0.8</v>
       </c>
-      <c r="AH7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="s">
+      <c r="AE9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="s">
         <v>35</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AI9" t="s">
         <v>21</v>
       </c>
-      <c r="AM7">
+      <c r="AJ9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN7">
+      <c r="AK9">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO7" s="3">
+      <c r="AL9" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP7" s="10">
+      <c r="AM9" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AN9" t="s">
         <v>34</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AO9" t="s">
         <v>34</v>
       </c>
-      <c r="AS7">
+      <c r="AP9">
         <v>0.623</v>
       </c>
-      <c r="AT7">
+      <c r="AQ9">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW7" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY7" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="19">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="19" t="s">
+      <c r="AT9" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="BB7" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC7" s="39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>6</v>
-      </c>
-      <c r="P8">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>103</v>
-      </c>
-      <c r="R8">
-        <v>0.4</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>3</v>
-      </c>
-      <c r="U8">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V8">
-        <v>62</v>
-      </c>
-      <c r="W8">
-        <v>5</v>
-      </c>
-      <c r="X8" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y8">
-        <v>0.03</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC8">
-        <v>14</v>
-      </c>
-      <c r="AD8">
-        <v>0.03</v>
-      </c>
-      <c r="AE8">
-        <v>6</v>
-      </c>
-      <c r="AF8">
-        <v>1.2</v>
-      </c>
-      <c r="AG8">
-        <v>0.8</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AN8">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AO8" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AP8" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AS8">
-        <v>0.623</v>
-      </c>
-      <c r="AT8">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AW8" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX8" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY8" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ8" s="19">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB8" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC8" s="39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AY9" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -1930,272 +2057,409 @@
         <v>0.3</v>
       </c>
       <c r="G10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10">
+        <v>0.45</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S10">
+        <v>62</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10" t="s">
+        <v>85</v>
+      </c>
+      <c r="V10">
+        <v>0.03</v>
+      </c>
+      <c r="X10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z10">
+        <v>14</v>
+      </c>
+      <c r="AA10">
+        <v>0.03</v>
+      </c>
+      <c r="AB10">
+        <v>6</v>
+      </c>
+      <c r="AC10">
+        <v>1.2</v>
+      </c>
+      <c r="AD10">
+        <v>0.8</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK10">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AM10" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP10">
+        <v>0.623</v>
+      </c>
+      <c r="AQ10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AT10" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="19">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY10" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12">
+        <v>0.45</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S12">
+        <v>62</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12" t="s">
+        <v>85</v>
+      </c>
+      <c r="V12">
+        <v>0.03</v>
+      </c>
+      <c r="X12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z12">
+        <v>14</v>
+      </c>
+      <c r="AA12">
+        <v>0.03</v>
+      </c>
+      <c r="AB12">
+        <v>6</v>
+      </c>
+      <c r="AC12">
+        <v>1.2</v>
+      </c>
+      <c r="AD12">
+        <v>0.8</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK12">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AM12" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP12">
+        <v>0.623</v>
+      </c>
+      <c r="AQ12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AT12" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="19">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY12" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.3</v>
+      </c>
+      <c r="G13" t="s">
         <v>121</v>
       </c>
-      <c r="H10" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10">
+      <c r="H13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>6</v>
       </c>
-      <c r="P10">
+      <c r="M13">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q10" t="s">
-        <v>103</v>
-      </c>
-      <c r="R10">
-        <v>0.4</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
+      <c r="N13" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13">
+        <v>0.45</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>3</v>
       </c>
-      <c r="U10">
+      <c r="R13">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V10">
+      <c r="S13">
         <v>62</v>
       </c>
-      <c r="W10">
+      <c r="T13">
         <v>5</v>
       </c>
-      <c r="X10" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y10">
+      <c r="U13" t="s">
+        <v>85</v>
+      </c>
+      <c r="V13">
         <v>0.03</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="X13" t="s">
         <v>56</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="Y13" t="s">
         <v>46</v>
       </c>
-      <c r="AC10">
+      <c r="Z13">
         <v>14</v>
       </c>
-      <c r="AD10">
+      <c r="AA13">
         <v>0.03</v>
       </c>
-      <c r="AE10">
+      <c r="AB13">
         <v>6</v>
       </c>
-      <c r="AF10">
+      <c r="AC13">
         <v>1.2</v>
       </c>
-      <c r="AG10">
+      <c r="AD13">
         <v>0.8</v>
       </c>
-      <c r="AH10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="s">
+      <c r="AE13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="s">
         <v>35</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AI13" t="s">
         <v>21</v>
       </c>
-      <c r="AM10">
+      <c r="AJ13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN10">
+      <c r="AK13">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO10" s="3">
+      <c r="AL13" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP10" s="10">
+      <c r="AM13" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AN13" t="s">
         <v>34</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AO13" t="s">
         <v>34</v>
       </c>
-      <c r="AS10">
+      <c r="AP13">
         <v>0.623</v>
       </c>
-      <c r="AT10">
+      <c r="AQ13">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW10" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX10" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY10" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ10" s="19">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="19" t="s">
+      <c r="AT13" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="19">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="BB10" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC10" s="39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>6</v>
-      </c>
-      <c r="P11">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>103</v>
-      </c>
-      <c r="R11">
-        <v>0.4</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>3</v>
-      </c>
-      <c r="U11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V11">
-        <v>62</v>
-      </c>
-      <c r="W11">
-        <v>5</v>
-      </c>
-      <c r="X11" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y11">
-        <v>0.03</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC11">
-        <v>14</v>
-      </c>
-      <c r="AD11">
-        <v>0.03</v>
-      </c>
-      <c r="AE11">
-        <v>6</v>
-      </c>
-      <c r="AF11">
-        <v>1.2</v>
-      </c>
-      <c r="AG11">
-        <v>0.8</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AN11">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AO11" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AP11" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>34</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>34</v>
-      </c>
-      <c r="AS11">
-        <v>0.623</v>
-      </c>
-      <c r="AT11">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AW11" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX11" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY11" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ11" s="19">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB11" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC11" s="39" t="b">
+      <c r="AY13" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="39" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX5:AY8 I5:I8 AX10:AY11 E5:E8 E10:E11 I10:I11" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU12:AV13 I12:I13 E12:E13 AU5:AV10 I5:I10 E5:E10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK5:AK8 AK10:AK11" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH12:AH13 AH5:AH10" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2209,7 +2473,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2220,7 +2484,7 @@
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -2232,22 +2496,22 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2291,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,7 +2614,7 @@
         <v>0.13</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2375,7 +2639,7 @@
         <v>0.128</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2383,7 +2647,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="4">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -2393,14 +2657,14 @@
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F4" s="15">
         <f>B4 - C4^2/2</f>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2425,7 +2689,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3062,10 +3326,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4FDDF8-106A-47EA-BD4C-5B4A1371B873}">
-  <dimension ref="B2:G6"/>
+  <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3077,31 +3341,31 @@
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>125</v>
       </c>
       <c r="C4" s="41">
         <v>70000777</v>
@@ -3112,10 +3376,14 @@
       <c r="G4">
         <v>20292733</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="43">
+        <f>G4/D4</f>
+        <v>0.46511447689862456</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="41">
         <v>73323430</v>
@@ -3127,7 +3395,7 @@
         <v>22004183</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C6" s="42"/>
     </row>
   </sheetData>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AADF8DC-A5BB-42F0-8C03-905864A8FB13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5099673-8EE1-4C63-9E3F-BF821A02F86C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,7 @@
     <sheet name="DetectiveWork" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +31,41 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="AE4" authorId="0" shapeId="0" xr:uid="{D91F68BF-928B-4B3B-9F98-4B2FFAC0BBBC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+method2 = No smoothing
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -65,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="156">
   <si>
     <t>runname</t>
   </si>
@@ -229,9 +265,6 @@
     <t>High volatility</t>
   </si>
   <si>
-    <t>returnScn</t>
-  </si>
-  <si>
     <t>15 years of low returns</t>
   </si>
   <si>
@@ -497,6 +530,45 @@
   </si>
   <si>
     <t>off</t>
+  </si>
+  <si>
+    <t>TDA_policy</t>
+  </si>
+  <si>
+    <t>noTDA</t>
+  </si>
+  <si>
+    <t>TDAamort</t>
+  </si>
+  <si>
+    <t>TDApayout</t>
+  </si>
+  <si>
+    <t>t4a_O30pA6</t>
+  </si>
+  <si>
+    <t>method2</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>t4a_O15dA6</t>
+  </si>
+  <si>
+    <t>t4a_C30dA6</t>
+  </si>
+  <si>
+    <t>t4a_C15pA6</t>
+  </si>
+  <si>
+    <t>t4a_O15pA6</t>
+  </si>
+  <si>
+    <t>t4a_C15dA0</t>
   </si>
 </sst>
 </file>
@@ -508,9 +580,9 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,6 +625,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -732,12 +817,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1190,14 +1275,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:AZ13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:AZ20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,12 +1335,12 @@
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="F3" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
       <c r="I3" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
@@ -1265,34 +1350,34 @@
       <c r="O3" s="30"/>
       <c r="P3" s="30"/>
       <c r="Q3" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R3" s="31"/>
       <c r="S3" s="31"/>
       <c r="T3" s="31"/>
       <c r="U3" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V3" s="32"/>
       <c r="W3" s="32"/>
       <c r="X3" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y3" s="33"/>
       <c r="Z3" s="33"/>
       <c r="AA3" s="33"/>
       <c r="AB3" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC3" s="34"/>
       <c r="AD3" s="34"/>
       <c r="AE3" s="34"/>
       <c r="AF3" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG3" s="35"/>
       <c r="AH3" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AI3" s="36"/>
       <c r="AJ3" s="36"/>
@@ -1300,7 +1385,7 @@
       <c r="AL3" s="36"/>
       <c r="AM3" s="36"/>
       <c r="AN3" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AO3" s="32"/>
       <c r="AP3" s="32"/>
@@ -1308,7 +1393,7 @@
       <c r="AR3" s="32"/>
       <c r="AS3" s="32"/>
       <c r="AT3" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AU3" s="37"/>
       <c r="AV3" s="37"/>
@@ -1322,67 +1407,67 @@
         <v>0</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="J4" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="M4" s="28" t="s">
+      <c r="N4" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="N4" s="28" t="s">
-        <v>101</v>
-      </c>
       <c r="O4" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="P4" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="P4" s="28" t="s">
-        <v>104</v>
-      </c>
       <c r="Q4" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R4" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S4" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="T4" s="20" t="s">
-        <v>81</v>
-      </c>
       <c r="U4" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V4" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W4" s="22"/>
       <c r="X4" s="24" t="s">
@@ -1401,19 +1486,19 @@
         <v>13</v>
       </c>
       <c r="AC4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD4" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AD4" s="23" t="s">
+      <c r="AE4" s="23" t="s">
         <v>90</v>
-      </c>
-      <c r="AE4" s="23" t="s">
-        <v>91</v>
       </c>
       <c r="AF4" s="27" t="s">
         <v>28</v>
       </c>
       <c r="AG4" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AH4" s="21" t="s">
         <v>24</v>
@@ -1431,13 +1516,13 @@
         <v>9</v>
       </c>
       <c r="AM4" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN4" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO4" s="22" t="s">
         <v>94</v>
-      </c>
-      <c r="AO4" s="22" t="s">
-        <v>95</v>
       </c>
       <c r="AP4" s="22" t="s">
         <v>32</v>
@@ -1452,7 +1537,7 @@
         <v>44</v>
       </c>
       <c r="AT4" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU4" s="26" t="s">
         <v>30</v>
@@ -1475,31 +1560,31 @@
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0.3</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L5">
         <v>6</v>
@@ -1508,7 +1593,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="N5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O5">
         <v>0.45</v>
@@ -1529,13 +1614,13 @@
         <v>5</v>
       </c>
       <c r="U5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V5">
         <v>0.03</v>
       </c>
       <c r="X5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y5" t="s">
         <v>46</v>
@@ -1556,7 +1641,7 @@
         <v>0.8</v>
       </c>
       <c r="AE5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1565,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="AH5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AI5" t="s">
         <v>21</v>
@@ -1618,31 +1703,31 @@
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0.3</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L6">
         <v>6</v>
@@ -1651,7 +1736,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="N6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O6">
         <v>0.45</v>
@@ -1672,13 +1757,13 @@
         <v>5</v>
       </c>
       <c r="U6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V6">
         <v>0.03</v>
       </c>
       <c r="X6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y6" t="s">
         <v>46</v>
@@ -1699,7 +1784,7 @@
         <v>0.8</v>
       </c>
       <c r="AE6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1708,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="AH6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AI6" t="s">
         <v>21</v>
@@ -1761,31 +1846,31 @@
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0.3</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -1794,7 +1879,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O7">
         <v>0.45</v>
@@ -1815,13 +1900,13 @@
         <v>5</v>
       </c>
       <c r="U7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V7">
         <v>0.03</v>
       </c>
       <c r="X7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y7" t="s">
         <v>46</v>
@@ -1842,7 +1927,7 @@
         <v>0.8</v>
       </c>
       <c r="AE7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1851,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="AH7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AI7" t="s">
         <v>21</v>
@@ -1904,14 +1989,21 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
+      <c r="AM8" s="10"/>
+      <c r="AT8" s="19"/>
+      <c r="AU8" s="19"/>
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="19"/>
+      <c r="AX8" s="19"/>
+      <c r="AY8" s="19"/>
+      <c r="AZ8" s="39"/>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1920,13 +2012,19 @@
         <v>0.3</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" t="s">
+        <v>142</v>
       </c>
       <c r="L9">
         <v>6</v>
@@ -1935,7 +2033,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O9">
         <v>0.45</v>
@@ -1956,19 +2054,19 @@
         <v>5</v>
       </c>
       <c r="U9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V9">
         <v>0.03</v>
       </c>
       <c r="X9" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="Y9" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="Z9">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AA9">
         <v>0.03</v>
@@ -1983,7 +2081,7 @@
         <v>0.8</v>
       </c>
       <c r="AE9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1992,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="AH9" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="AI9" t="s">
         <v>21</v>
@@ -2045,25 +2143,31 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0.3</v>
       </c>
       <c r="G10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" t="s">
+        <v>142</v>
       </c>
       <c r="L10">
         <v>6</v>
@@ -2072,7 +2176,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O10">
         <v>0.45</v>
@@ -2093,13 +2197,13 @@
         <v>5</v>
       </c>
       <c r="U10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V10">
         <v>0.03</v>
       </c>
       <c r="X10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y10" t="s">
         <v>46</v>
@@ -2120,7 +2224,7 @@
         <v>0.8</v>
       </c>
       <c r="AE10" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -2129,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="AH10" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="AI10" t="s">
         <v>21</v>
@@ -2180,27 +2284,176 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" t="s">
+        <v>142</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11">
+        <v>0.45</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S11">
+        <v>62</v>
+      </c>
+      <c r="T11">
+        <v>5</v>
+      </c>
+      <c r="U11" t="s">
+        <v>84</v>
+      </c>
+      <c r="V11">
+        <v>0.03</v>
+      </c>
+      <c r="X11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z11">
+        <v>14</v>
+      </c>
+      <c r="AA11">
+        <v>0.03</v>
+      </c>
+      <c r="AB11">
+        <v>6</v>
+      </c>
+      <c r="AC11">
+        <v>1.2</v>
+      </c>
+      <c r="AD11">
+        <v>0.8</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK11">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AM11" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP11">
+        <v>0.623</v>
+      </c>
+      <c r="AQ11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AT11" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="19">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY11" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0.3</v>
       </c>
       <c r="G12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>142</v>
       </c>
       <c r="L12">
         <v>6</v>
@@ -2209,7 +2462,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="N12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O12">
         <v>0.45</v>
@@ -2230,16 +2483,16 @@
         <v>5</v>
       </c>
       <c r="U12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V12">
         <v>0.03</v>
       </c>
       <c r="X12" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="Y12" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="Z12">
         <v>14</v>
@@ -2257,7 +2510,7 @@
         <v>0.8</v>
       </c>
       <c r="AE12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2266,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="AH12" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="AI12" t="s">
         <v>21</v>
@@ -2319,10 +2572,10 @@
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -2331,13 +2584,19 @@
         <v>0.3</v>
       </c>
       <c r="G13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
       </c>
       <c r="L13">
         <v>6</v>
@@ -2346,7 +2605,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="N13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O13">
         <v>0.45</v>
@@ -2367,19 +2626,19 @@
         <v>5</v>
       </c>
       <c r="U13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V13">
         <v>0.03</v>
       </c>
       <c r="X13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y13" t="s">
         <v>46</v>
       </c>
       <c r="Z13">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AA13">
         <v>0.03</v>
@@ -2394,7 +2653,7 @@
         <v>0.8</v>
       </c>
       <c r="AE13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2403,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="AH13" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="AI13" t="s">
         <v>21</v>
@@ -2454,17 +2713,737 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14">
+        <v>0.45</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S14">
+        <v>62</v>
+      </c>
+      <c r="T14">
+        <v>5</v>
+      </c>
+      <c r="U14" t="s">
+        <v>84</v>
+      </c>
+      <c r="V14">
+        <v>0.03</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z14">
+        <v>14</v>
+      </c>
+      <c r="AA14">
+        <v>0.03</v>
+      </c>
+      <c r="AB14">
+        <v>6</v>
+      </c>
+      <c r="AC14">
+        <v>1.2</v>
+      </c>
+      <c r="AD14">
+        <v>0.8</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK14">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AL14" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AM14" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP14">
+        <v>0.623</v>
+      </c>
+      <c r="AQ14">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AT14" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="19">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY14" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>101</v>
+      </c>
+      <c r="O16">
+        <v>0.45</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S16">
+        <v>62</v>
+      </c>
+      <c r="T16">
+        <v>5</v>
+      </c>
+      <c r="U16" t="s">
+        <v>84</v>
+      </c>
+      <c r="V16">
+        <v>0.03</v>
+      </c>
+      <c r="X16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z16">
+        <v>14</v>
+      </c>
+      <c r="AA16">
+        <v>0.03</v>
+      </c>
+      <c r="AB16">
+        <v>6</v>
+      </c>
+      <c r="AC16">
+        <v>1.2</v>
+      </c>
+      <c r="AD16">
+        <v>0.8</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK16">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AM16" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP16">
+        <v>0.623</v>
+      </c>
+      <c r="AQ16">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AT16" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="19">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY16" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>101</v>
+      </c>
+      <c r="O17">
+        <v>0.45</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S17">
+        <v>62</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="U17" t="s">
+        <v>84</v>
+      </c>
+      <c r="V17">
+        <v>0.03</v>
+      </c>
+      <c r="X17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z17">
+        <v>14</v>
+      </c>
+      <c r="AA17">
+        <v>0.03</v>
+      </c>
+      <c r="AB17">
+        <v>6</v>
+      </c>
+      <c r="AC17">
+        <v>1.2</v>
+      </c>
+      <c r="AD17">
+        <v>0.8</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK17">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AM17" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP17">
+        <v>0.623</v>
+      </c>
+      <c r="AQ17">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AT17" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="19">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY17" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ17" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>101</v>
+      </c>
+      <c r="O19">
+        <v>0.45</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S19">
+        <v>62</v>
+      </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
+      <c r="U19" t="s">
+        <v>84</v>
+      </c>
+      <c r="V19">
+        <v>0.03</v>
+      </c>
+      <c r="X19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z19">
+        <v>14</v>
+      </c>
+      <c r="AA19">
+        <v>0.03</v>
+      </c>
+      <c r="AB19">
+        <v>6</v>
+      </c>
+      <c r="AC19">
+        <v>1.2</v>
+      </c>
+      <c r="AD19">
+        <v>0.8</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK19">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AM19" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP19">
+        <v>0.623</v>
+      </c>
+      <c r="AQ19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AT19" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="19">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY19" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" t="s">
+        <v>142</v>
+      </c>
+      <c r="L20">
+        <v>6</v>
+      </c>
+      <c r="M20">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O20">
+        <v>0.45</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S20">
+        <v>62</v>
+      </c>
+      <c r="T20">
+        <v>5</v>
+      </c>
+      <c r="U20" t="s">
+        <v>84</v>
+      </c>
+      <c r="V20">
+        <v>0.03</v>
+      </c>
+      <c r="X20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z20">
+        <v>14</v>
+      </c>
+      <c r="AA20">
+        <v>0.03</v>
+      </c>
+      <c r="AB20">
+        <v>6</v>
+      </c>
+      <c r="AC20">
+        <v>1.2</v>
+      </c>
+      <c r="AD20">
+        <v>0.8</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK20">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AL20" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AM20" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP20">
+        <v>0.623</v>
+      </c>
+      <c r="AQ20">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AT20" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="19">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY20" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ20" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU12:AV13 I12:I13 E12:E13 AU5:AV10 I5:I10 E5:E10" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU19:AV20 I19:I20 E19:E20 AU5:AV17 I5:I17 E5:E17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH12:AH13 AH5:AH10" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH19:AH20 AH5:AH17" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2484,7 +3463,7 @@
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -2496,22 +3475,22 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2610,11 +3589,11 @@
         <v>0.13</v>
       </c>
       <c r="F2" s="15">
-        <f>B2 - C2^2/2</f>
+        <f t="shared" ref="F2:F9" si="0">B2 - C2^2/2</f>
         <v>0.13</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2631,15 +3610,15 @@
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E5" si="0">F3</f>
+        <f t="shared" ref="E3:E5" si="1">F3</f>
         <v>0.128</v>
       </c>
       <c r="F3" s="15">
-        <f>B3 - C3^2/2</f>
+        <f t="shared" si="0"/>
         <v>0.128</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2656,15 +3635,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="15">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="F4" s="15">
-        <f>B4 - C4^2/2</f>
-        <v>0.02</v>
-      </c>
       <c r="G4" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2681,15 +3660,15 @@
         <v>27</v>
       </c>
       <c r="E5" s="4">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F5" s="15">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F5" s="15">
-        <f>B5 - C5^2/2</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="G5" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2710,11 +3689,11 @@
         <v>0.05</v>
       </c>
       <c r="F6" s="15">
-        <f>B6 - C6^2/2</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2735,7 +3714,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F7" s="15">
-        <f>B7 - C7^2/2</f>
+        <f t="shared" si="0"/>
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
@@ -2757,7 +3736,7 @@
         <v>7.2000000000000008E-2</v>
       </c>
       <c r="F8" s="15">
-        <f>B8 - C8^2/2</f>
+        <f t="shared" si="0"/>
         <v>7.2000000000000008E-2</v>
       </c>
     </row>
@@ -2779,7 +3758,7 @@
         <v>7.1998000000000006E-2</v>
       </c>
       <c r="F9" s="15">
-        <f>B9 - C9^2/2</f>
+        <f t="shared" si="0"/>
         <v>7.1998000000000006E-2</v>
       </c>
       <c r="G9" t="s">
@@ -2822,11 +3801,11 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2834,15 +3813,15 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="40"/>
+      <c r="F5" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="43"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>42</v>
@@ -2881,7 +3860,7 @@
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="12">
         <v>11.58</v>
@@ -2926,7 +3905,7 @@
     </row>
     <row r="10" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="12">
         <v>42.24</v>
@@ -2948,7 +3927,7 @@
     </row>
     <row r="11" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="12">
         <v>3.76</v>
@@ -3182,7 +4161,7 @@
     </row>
     <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="12">
         <v>4.343</v>
@@ -3204,7 +4183,7 @@
     </row>
     <row r="27" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="6">
         <v>13.5</v>
@@ -3224,7 +4203,7 @@
     </row>
     <row r="28" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="6">
         <v>14.28</v>
@@ -3242,7 +4221,7 @@
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
@@ -3343,52 +4322,52 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
         <v>126</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
         <v>127</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>129</v>
-      </c>
-      <c r="F3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="41">
+        <v>123</v>
+      </c>
+      <c r="C4" s="40">
         <v>70000777</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="40">
         <v>43629545</v>
       </c>
       <c r="G4">
         <v>20292733</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="42">
         <f>G4/D4</f>
         <v>0.46511447689862456</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="41">
+        <v>124</v>
+      </c>
+      <c r="C5" s="40">
         <v>73323430</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="40">
         <v>50095723</v>
       </c>
       <c r="G5">
@@ -3396,7 +4375,7 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="42"/>
+      <c r="C6" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5099673-8EE1-4C63-9E3F-BF821A02F86C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6179D73-C37E-443E-AAFA-8972FA93B9BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="AE4" authorId="0" shapeId="0" xr:uid="{D91F68BF-928B-4B3B-9F98-4B2FFAC0BBBC}">
+    <comment ref="AF4" authorId="0" shapeId="0" xr:uid="{D91F68BF-928B-4B3B-9F98-4B2FFAC0BBBC}">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="156">
   <si>
     <t>runname</t>
   </si>
@@ -208,9 +208,6 @@
     <t>AL_pct</t>
   </si>
   <si>
-    <t>simple</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
@@ -569,6 +566,9 @@
   </si>
   <si>
     <t>t4a_C15dA0</t>
+  </si>
+  <si>
+    <t>sensitivity_on</t>
   </si>
 </sst>
 </file>
@@ -1276,13 +1276,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:AZ20"/>
+  <dimension ref="A3:BA20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AA24" sqref="AA24"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,276 +1294,281 @@
     <col min="5" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="29.140625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="14.28515625" customWidth="1"/>
-    <col min="21" max="23" width="19.7109375" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.85546875" customWidth="1"/>
-    <col min="27" max="27" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14" customWidth="1"/>
-    <col min="33" max="33" width="13.42578125" customWidth="1"/>
-    <col min="34" max="34" width="12.5703125" customWidth="1"/>
-    <col min="35" max="35" width="14.85546875" customWidth="1"/>
-    <col min="40" max="40" width="12" customWidth="1"/>
-    <col min="41" max="41" width="12.28515625" customWidth="1"/>
-    <col min="44" max="44" width="15.140625" customWidth="1"/>
-    <col min="45" max="46" width="16.5703125" customWidth="1"/>
-    <col min="47" max="47" width="12" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.28515625" customWidth="1"/>
-    <col min="51" max="51" width="11.42578125" customWidth="1"/>
-    <col min="52" max="52" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="24" width="19.7109375" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.85546875" customWidth="1"/>
+    <col min="28" max="28" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14" customWidth="1"/>
+    <col min="34" max="34" width="13.42578125" customWidth="1"/>
+    <col min="35" max="35" width="12.5703125" customWidth="1"/>
+    <col min="36" max="36" width="14.85546875" customWidth="1"/>
+    <col min="41" max="41" width="12" customWidth="1"/>
+    <col min="42" max="42" width="12.28515625" customWidth="1"/>
+    <col min="45" max="45" width="15.140625" customWidth="1"/>
+    <col min="46" max="47" width="16.5703125" customWidth="1"/>
+    <col min="48" max="48" width="12" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.28515625" customWidth="1"/>
+    <col min="52" max="52" width="11.42578125" customWidth="1"/>
+    <col min="53" max="53" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:52" s="38" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="38" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="F3" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
-      <c r="I3" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="30"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="30" t="s">
+        <v>96</v>
+      </c>
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
       <c r="M3" s="30"/>
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
       <c r="P3" s="30"/>
-      <c r="Q3" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="R3" s="31"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="31" t="s">
+        <v>77</v>
+      </c>
       <c r="S3" s="31"/>
       <c r="T3" s="31"/>
-      <c r="U3" s="32" t="s">
+      <c r="U3" s="31"/>
+      <c r="V3" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y3" s="33"/>
       <c r="Z3" s="33"/>
       <c r="AA3" s="33"/>
-      <c r="AB3" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC3" s="34"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="34" t="s">
+        <v>86</v>
+      </c>
       <c r="AD3" s="34"/>
       <c r="AE3" s="34"/>
-      <c r="AF3" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI3" s="36"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="36" t="s">
+        <v>80</v>
+      </c>
       <c r="AJ3" s="36"/>
       <c r="AK3" s="36"/>
       <c r="AL3" s="36"/>
       <c r="AM3" s="36"/>
-      <c r="AN3" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO3" s="32"/>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="32" t="s">
+        <v>91</v>
+      </c>
       <c r="AP3" s="32"/>
       <c r="AQ3" s="32"/>
       <c r="AR3" s="32"/>
       <c r="AS3" s="32"/>
-      <c r="AT3" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU3" s="37"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="37" t="s">
+        <v>104</v>
+      </c>
       <c r="AV3" s="37"/>
       <c r="AW3" s="37"/>
       <c r="AX3" s="37"/>
       <c r="AY3" s="37"/>
       <c r="AZ3" s="37"/>
-    </row>
-    <row r="4" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BA3" s="37"/>
+    </row>
+    <row r="4" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J4" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="K4" s="28" t="s">
+      <c r="O4" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="U4" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="V4" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="W4" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF4" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH4" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN4" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO4" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP4" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS4" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU4" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV4" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX4" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA4" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>137</v>
       </c>
-      <c r="L4" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="T4" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="U4" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="V4" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="W4" s="22"/>
-      <c r="X4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y4" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC4" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD4" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE4" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG4" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH4" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK4" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM4" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN4" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO4" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP4" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AR4" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS4" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT4" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="AU4" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV4" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW4" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="AX4" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY4" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ4" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>138</v>
-      </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -1572,141 +1577,144 @@
         <v>0.3</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>136</v>
+      <c r="J5" t="b">
+        <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L5">
+        <v>135</v>
+      </c>
+      <c r="L5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5">
         <v>6</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="N5" t="s">
-        <v>101</v>
-      </c>
-      <c r="O5">
+      <c r="O5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5">
         <v>0.45</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>3</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>62</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>5</v>
       </c>
-      <c r="U5" t="s">
-        <v>84</v>
-      </c>
-      <c r="V5">
+      <c r="V5" t="s">
+        <v>83</v>
+      </c>
+      <c r="W5">
         <v>0.03</v>
       </c>
-      <c r="X5" t="s">
-        <v>55</v>
-      </c>
       <c r="Y5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z5">
+        <v>54</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA5">
         <v>14</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>0.03</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>6</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>1.2</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>0.8</v>
       </c>
-      <c r="AE5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>134</v>
+      <c r="AF5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="b">
+        <v>0</v>
       </c>
       <c r="AI5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>21</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AL5" s="3">
+      <c r="AM5" s="3">
         <v>0.12</v>
       </c>
-      <c r="AM5" s="10">
+      <c r="AN5" s="10">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>34</v>
       </c>
       <c r="AO5" t="s">
         <v>34</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ5">
         <v>0.623</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AT5" s="19" t="b">
-        <v>1</v>
-      </c>
       <c r="AU5" s="19" t="b">
         <v>1</v>
       </c>
       <c r="AV5" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AW5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="19" t="s">
+      <c r="AW5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AY5" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AZ5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -1715,141 +1723,144 @@
         <v>0.3</v>
       </c>
       <c r="G6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>136</v>
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6">
+        <v>135</v>
+      </c>
+      <c r="L6" t="s">
+        <v>141</v>
+      </c>
+      <c r="M6">
         <v>6</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="N6" t="s">
-        <v>101</v>
-      </c>
-      <c r="O6">
+      <c r="O6" t="s">
+        <v>100</v>
+      </c>
+      <c r="P6">
         <v>0.45</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>3</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>62</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>5</v>
       </c>
-      <c r="U6" t="s">
-        <v>84</v>
-      </c>
-      <c r="V6">
+      <c r="V6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W6">
         <v>0.03</v>
       </c>
-      <c r="X6" t="s">
-        <v>55</v>
-      </c>
       <c r="Y6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6">
+        <v>54</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA6">
         <v>14</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>0.03</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>6</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>1.2</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>0.8</v>
       </c>
-      <c r="AE6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>134</v>
+      <c r="AF6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="b">
+        <v>0</v>
       </c>
       <c r="AI6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>21</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AL6" s="3">
+      <c r="AM6" s="3">
         <v>0.12</v>
       </c>
-      <c r="AM6" s="10">
+      <c r="AN6" s="10">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>34</v>
       </c>
       <c r="AO6" t="s">
         <v>34</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ6">
         <v>0.623</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AT6" s="19" t="b">
-        <v>1</v>
-      </c>
       <c r="AU6" s="19" t="b">
         <v>1</v>
       </c>
       <c r="AV6" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AW6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="19" t="s">
+      <c r="AW6" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AY6" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AZ6" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1858,152 +1869,155 @@
         <v>0.3</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>139</v>
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L7">
+        <v>138</v>
+      </c>
+      <c r="L7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7">
         <v>6</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="N7" t="s">
-        <v>101</v>
-      </c>
-      <c r="O7">
+      <c r="O7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7">
         <v>0.45</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>3</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>62</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>5</v>
       </c>
-      <c r="U7" t="s">
-        <v>84</v>
-      </c>
-      <c r="V7">
+      <c r="V7" t="s">
+        <v>83</v>
+      </c>
+      <c r="W7">
         <v>0.03</v>
       </c>
-      <c r="X7" t="s">
-        <v>55</v>
-      </c>
       <c r="Y7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z7">
+        <v>54</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA7">
         <v>14</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>0.03</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>6</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>1.2</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>0.8</v>
       </c>
-      <c r="AE7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>134</v>
+      <c r="AF7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="b">
+        <v>0</v>
       </c>
       <c r="AI7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>21</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AL7" s="3">
+      <c r="AM7" s="3">
         <v>0.12</v>
       </c>
-      <c r="AM7" s="10">
+      <c r="AN7" s="10">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>34</v>
       </c>
       <c r="AO7" t="s">
         <v>34</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ7">
         <v>0.623</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AT7" s="19" t="b">
-        <v>1</v>
-      </c>
       <c r="AU7" s="19" t="b">
         <v>1</v>
       </c>
       <c r="AV7" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AW7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="19" t="s">
+      <c r="AW7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AY7" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="10"/>
-      <c r="AT8" s="19"/>
+      <c r="AZ7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="10"/>
       <c r="AU8" s="19"/>
       <c r="AV8" s="19"/>
       <c r="AW8" s="19"/>
       <c r="AX8" s="19"/>
       <c r="AY8" s="19"/>
-      <c r="AZ8" s="39"/>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AZ8" s="19"/>
+      <c r="BA8" s="39"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -2012,284 +2026,290 @@
         <v>0.3</v>
       </c>
       <c r="G9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>136</v>
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>142</v>
-      </c>
-      <c r="L9">
+        <v>135</v>
+      </c>
+      <c r="L9" t="s">
+        <v>141</v>
+      </c>
+      <c r="M9">
         <v>6</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="N9" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9">
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9">
         <v>0.45</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>3</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>62</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>5</v>
       </c>
-      <c r="U9" t="s">
-        <v>84</v>
-      </c>
-      <c r="V9">
+      <c r="V9" t="s">
+        <v>83</v>
+      </c>
+      <c r="W9">
         <v>0.03</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z9" t="s">
         <v>149</v>
       </c>
-      <c r="Y9" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>29</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>0.03</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>6</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>1.2</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>0.8</v>
       </c>
-      <c r="AE9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>134</v>
+      <c r="AF9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="b">
+        <v>0</v>
       </c>
       <c r="AI9" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>21</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AL9" s="3">
+      <c r="AM9" s="3">
         <v>0.12</v>
       </c>
-      <c r="AM9" s="10">
+      <c r="AN9" s="10">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>34</v>
       </c>
       <c r="AO9" t="s">
         <v>34</v>
       </c>
-      <c r="AP9">
+      <c r="AP9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ9">
         <v>0.623</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AT9" s="19" t="b">
-        <v>1</v>
-      </c>
       <c r="AU9" s="19" t="b">
         <v>1</v>
       </c>
       <c r="AV9" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AW9" s="19">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="19" t="s">
+      <c r="AW9" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AY9" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ9" s="39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AZ9" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0.3</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>136</v>
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L10">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10">
         <v>6</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="N10" t="s">
-        <v>101</v>
-      </c>
-      <c r="O10">
+      <c r="O10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10">
         <v>0.45</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>3</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>62</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>5</v>
       </c>
-      <c r="U10" t="s">
-        <v>84</v>
-      </c>
-      <c r="V10">
+      <c r="V10" t="s">
+        <v>83</v>
+      </c>
+      <c r="W10">
         <v>0.03</v>
       </c>
-      <c r="X10" t="s">
-        <v>55</v>
-      </c>
       <c r="Y10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z10">
+        <v>54</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA10">
         <v>14</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>0.03</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>6</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>1.2</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>0.8</v>
       </c>
-      <c r="AE10" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>134</v>
+      <c r="AF10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="b">
+        <v>0</v>
       </c>
       <c r="AI10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>21</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AL10" s="3">
+      <c r="AM10" s="3">
         <v>0.12</v>
       </c>
-      <c r="AM10" s="10">
+      <c r="AN10" s="10">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>34</v>
       </c>
       <c r="AO10" t="s">
         <v>34</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ10">
         <v>0.623</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AT10" s="19" t="b">
-        <v>1</v>
-      </c>
       <c r="AU10" s="19" t="b">
         <v>1</v>
       </c>
       <c r="AV10" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AW10" s="19">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="19" t="s">
+      <c r="AW10" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="19">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AY10" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ10" s="39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AZ10" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -2298,284 +2318,290 @@
         <v>0.3</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>136</v>
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>142</v>
-      </c>
-      <c r="L11">
+        <v>135</v>
+      </c>
+      <c r="L11" t="s">
+        <v>141</v>
+      </c>
+      <c r="M11">
         <v>6</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="N11" t="s">
-        <v>101</v>
-      </c>
-      <c r="O11">
+      <c r="O11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11">
         <v>0.45</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>3</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>62</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>5</v>
       </c>
-      <c r="U11" t="s">
-        <v>84</v>
-      </c>
-      <c r="V11">
+      <c r="V11" t="s">
+        <v>83</v>
+      </c>
+      <c r="W11">
         <v>0.03</v>
       </c>
-      <c r="X11" t="s">
-        <v>55</v>
-      </c>
       <c r="Y11" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z11">
+        <v>54</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA11">
         <v>14</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>0.03</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>6</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>1.2</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>0.8</v>
       </c>
-      <c r="AE11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>134</v>
+      <c r="AF11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="b">
+        <v>0</v>
       </c>
       <c r="AI11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>21</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AL11" s="3">
+      <c r="AM11" s="3">
         <v>0.12</v>
       </c>
-      <c r="AM11" s="10">
+      <c r="AN11" s="10">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>34</v>
       </c>
       <c r="AO11" t="s">
         <v>34</v>
       </c>
-      <c r="AP11">
+      <c r="AP11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ11">
         <v>0.623</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AT11" s="19" t="b">
-        <v>1</v>
-      </c>
       <c r="AU11" s="19" t="b">
         <v>1</v>
       </c>
       <c r="AV11" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AW11" s="19">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="19" t="s">
+      <c r="AW11" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="19">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AY11" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ11" s="39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AZ11" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0.3</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>136</v>
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>142</v>
-      </c>
-      <c r="L12">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12">
         <v>6</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="N12" t="s">
-        <v>101</v>
-      </c>
-      <c r="O12">
+      <c r="O12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12">
         <v>0.45</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>3</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>62</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>5</v>
       </c>
-      <c r="U12" t="s">
-        <v>84</v>
-      </c>
-      <c r="V12">
+      <c r="V12" t="s">
+        <v>83</v>
+      </c>
+      <c r="W12">
         <v>0.03</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z12" t="s">
         <v>149</v>
       </c>
-      <c r="Y12" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>14</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>0.03</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>6</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>1.2</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>0.8</v>
       </c>
-      <c r="AE12" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>134</v>
+      <c r="AF12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="b">
+        <v>0</v>
       </c>
       <c r="AI12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>21</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AL12" s="3">
+      <c r="AM12" s="3">
         <v>0.12</v>
       </c>
-      <c r="AM12" s="10">
+      <c r="AN12" s="10">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>34</v>
       </c>
       <c r="AO12" t="s">
         <v>34</v>
       </c>
-      <c r="AP12">
+      <c r="AP12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ12">
         <v>0.623</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AT12" s="19" t="b">
-        <v>1</v>
-      </c>
       <c r="AU12" s="19" t="b">
         <v>1</v>
       </c>
       <c r="AV12" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AW12" s="19">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="19" t="s">
+      <c r="AW12" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="19">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AY12" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ12" s="39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AZ12" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -2584,141 +2610,144 @@
         <v>0.3</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>136</v>
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
-      </c>
-      <c r="L13">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13">
         <v>6</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="N13" t="s">
-        <v>101</v>
-      </c>
-      <c r="O13">
+      <c r="O13" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13">
         <v>0.45</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>3</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>62</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>5</v>
       </c>
-      <c r="U13" t="s">
-        <v>84</v>
-      </c>
-      <c r="V13">
+      <c r="V13" t="s">
+        <v>83</v>
+      </c>
+      <c r="W13">
         <v>0.03</v>
       </c>
-      <c r="X13" t="s">
-        <v>55</v>
-      </c>
       <c r="Y13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z13">
+        <v>54</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA13">
         <v>29</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>0.03</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>6</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>1.2</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>0.8</v>
       </c>
-      <c r="AE13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>134</v>
+      <c r="AF13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="b">
+        <v>0</v>
       </c>
       <c r="AI13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>21</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AL13" s="3">
+      <c r="AM13" s="3">
         <v>0.12</v>
       </c>
-      <c r="AM13" s="10">
+      <c r="AN13" s="10">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>34</v>
       </c>
       <c r="AO13" t="s">
         <v>34</v>
       </c>
-      <c r="AP13">
+      <c r="AP13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ13">
         <v>0.623</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AT13" s="19" t="b">
-        <v>1</v>
-      </c>
       <c r="AU13" s="19" t="b">
         <v>1</v>
       </c>
       <c r="AV13" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AW13" s="19">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="19" t="s">
+      <c r="AW13" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="19">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AY13" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ13" s="39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AZ13" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -2727,142 +2756,145 @@
         <v>0.3</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>136</v>
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14">
         <v>6</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="N14" t="s">
-        <v>101</v>
-      </c>
-      <c r="O14">
+      <c r="O14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14">
         <v>0.45</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
       <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>3</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>62</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>5</v>
       </c>
-      <c r="U14" t="s">
-        <v>84</v>
-      </c>
-      <c r="V14">
+      <c r="V14" t="s">
+        <v>83</v>
+      </c>
+      <c r="W14">
         <v>0.03</v>
       </c>
-      <c r="X14" t="s">
-        <v>149</v>
-      </c>
       <c r="Y14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z14">
+        <v>148</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA14">
         <v>14</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>0.03</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>6</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>1.2</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>0.8</v>
       </c>
-      <c r="AE14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>134</v>
+      <c r="AF14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="b">
+        <v>0</v>
       </c>
       <c r="AI14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>21</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AL14" s="3">
+      <c r="AM14" s="3">
         <v>0.12</v>
       </c>
-      <c r="AM14" s="10">
+      <c r="AN14" s="10">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>34</v>
       </c>
       <c r="AO14" t="s">
         <v>34</v>
       </c>
-      <c r="AP14">
+      <c r="AP14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ14">
         <v>0.623</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AT14" s="19" t="b">
-        <v>1</v>
-      </c>
       <c r="AU14" s="19" t="b">
         <v>1</v>
       </c>
       <c r="AV14" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AW14" s="19">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="19" t="s">
+      <c r="AW14" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="19">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AY14" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ14" s="39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="AL15" s="3"/>
+      <c r="AZ14" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA14" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="AM15" s="3"/>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AN15" s="3"/>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -2874,570 +2906,582 @@
         <v>0.3</v>
       </c>
       <c r="G16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
       </c>
-      <c r="J16" t="s">
-        <v>136</v>
+      <c r="J16" t="b">
+        <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
-      </c>
-      <c r="L16">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16">
         <v>6</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="N16" t="s">
-        <v>101</v>
-      </c>
-      <c r="O16">
+      <c r="O16" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16">
         <v>0.45</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
       <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>3</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>62</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>5</v>
       </c>
-      <c r="U16" t="s">
-        <v>84</v>
-      </c>
-      <c r="V16">
+      <c r="V16" t="s">
+        <v>83</v>
+      </c>
+      <c r="W16">
         <v>0.03</v>
       </c>
-      <c r="X16" t="s">
-        <v>55</v>
-      </c>
       <c r="Y16" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z16">
+        <v>54</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA16">
         <v>14</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>0.03</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>6</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>1.2</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>0.8</v>
       </c>
-      <c r="AE16" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>35</v>
+      <c r="AF16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="b">
+        <v>0</v>
       </c>
       <c r="AI16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>21</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AL16" s="3">
+      <c r="AM16" s="3">
         <v>0.12</v>
       </c>
-      <c r="AM16" s="10">
+      <c r="AN16" s="10">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>34</v>
       </c>
       <c r="AO16" t="s">
         <v>34</v>
       </c>
-      <c r="AP16">
+      <c r="AP16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ16">
         <v>0.623</v>
       </c>
-      <c r="AQ16">
+      <c r="AR16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AT16" s="19" t="b">
-        <v>1</v>
-      </c>
       <c r="AU16" s="19" t="b">
         <v>1</v>
       </c>
       <c r="AV16" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AW16" s="19">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="19" t="s">
+      <c r="AW16" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX16" s="19">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AY16" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ16" s="39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AZ16" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA16" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0.3</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
-      <c r="J17" t="s">
-        <v>136</v>
+      <c r="J17" t="b">
+        <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>142</v>
-      </c>
-      <c r="L17">
+        <v>135</v>
+      </c>
+      <c r="L17" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17">
         <v>6</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="N17" t="s">
-        <v>101</v>
-      </c>
-      <c r="O17">
+      <c r="O17" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17">
         <v>0.45</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
       <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>3</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>62</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>5</v>
       </c>
-      <c r="U17" t="s">
-        <v>84</v>
-      </c>
-      <c r="V17">
+      <c r="V17" t="s">
+        <v>83</v>
+      </c>
+      <c r="W17">
         <v>0.03</v>
       </c>
-      <c r="X17" t="s">
-        <v>55</v>
-      </c>
       <c r="Y17" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z17">
+        <v>54</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA17">
         <v>14</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>0.03</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>6</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>1.2</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>0.8</v>
       </c>
-      <c r="AE17" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>35</v>
+      <c r="AF17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="b">
+        <v>0</v>
       </c>
       <c r="AI17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>21</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AL17" s="3">
+      <c r="AM17" s="3">
         <v>0.12</v>
       </c>
-      <c r="AM17" s="10">
+      <c r="AN17" s="10">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>34</v>
       </c>
       <c r="AO17" t="s">
         <v>34</v>
       </c>
-      <c r="AP17">
+      <c r="AP17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ17">
         <v>0.623</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AT17" s="19" t="b">
-        <v>1</v>
-      </c>
       <c r="AU17" s="19" t="b">
         <v>1</v>
       </c>
       <c r="AV17" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AW17" s="19">
-        <v>0</v>
-      </c>
-      <c r="AX17" s="19" t="s">
+      <c r="AW17" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX17" s="19">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AY17" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ17" s="39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AZ17" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA17" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0.3</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
       </c>
-      <c r="J19" t="s">
-        <v>136</v>
+      <c r="J19" t="b">
+        <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>142</v>
-      </c>
-      <c r="L19">
+        <v>135</v>
+      </c>
+      <c r="L19" t="s">
+        <v>141</v>
+      </c>
+      <c r="M19">
         <v>6</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="N19" t="s">
-        <v>101</v>
-      </c>
-      <c r="O19">
+      <c r="O19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19">
         <v>0.45</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
       <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>3</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>62</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>5</v>
       </c>
-      <c r="U19" t="s">
-        <v>84</v>
-      </c>
-      <c r="V19">
+      <c r="V19" t="s">
+        <v>83</v>
+      </c>
+      <c r="W19">
         <v>0.03</v>
       </c>
-      <c r="X19" t="s">
-        <v>55</v>
-      </c>
       <c r="Y19" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z19">
+        <v>54</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA19">
         <v>14</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0.03</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>6</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>1.2</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>0.8</v>
       </c>
-      <c r="AE19" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>35</v>
+      <c r="AF19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="b">
+        <v>0</v>
       </c>
       <c r="AI19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>21</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AL19" s="3">
+      <c r="AM19" s="3">
         <v>0.12</v>
       </c>
-      <c r="AM19" s="10">
+      <c r="AN19" s="10">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>34</v>
       </c>
       <c r="AO19" t="s">
         <v>34</v>
       </c>
-      <c r="AP19">
+      <c r="AP19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ19">
         <v>0.623</v>
       </c>
-      <c r="AQ19">
+      <c r="AR19">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AT19" s="19" t="b">
-        <v>1</v>
-      </c>
       <c r="AU19" s="19" t="b">
         <v>1</v>
       </c>
       <c r="AV19" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AW19" s="19">
-        <v>0</v>
-      </c>
-      <c r="AX19" s="19" t="s">
+      <c r="AW19" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX19" s="19">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AY19" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ19" s="39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AZ19" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA19" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>0.3</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
       </c>
-      <c r="J20" t="s">
-        <v>136</v>
+      <c r="J20" t="b">
+        <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>142</v>
-      </c>
-      <c r="L20">
+        <v>135</v>
+      </c>
+      <c r="L20" t="s">
+        <v>141</v>
+      </c>
+      <c r="M20">
         <v>6</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="N20" t="s">
-        <v>101</v>
-      </c>
-      <c r="O20">
+      <c r="O20" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20">
         <v>0.45</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
       <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>3</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>62</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>5</v>
       </c>
-      <c r="U20" t="s">
-        <v>84</v>
-      </c>
-      <c r="V20">
+      <c r="V20" t="s">
+        <v>83</v>
+      </c>
+      <c r="W20">
         <v>0.03</v>
       </c>
-      <c r="X20" t="s">
-        <v>55</v>
-      </c>
       <c r="Y20" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z20">
+        <v>54</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA20">
         <v>14</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.03</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>6</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>1.2</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.8</v>
       </c>
-      <c r="AE20" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>35</v>
+      <c r="AF20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="b">
+        <v>0</v>
       </c>
       <c r="AI20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>21</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AL20" s="3">
+      <c r="AM20" s="3">
         <v>0.12</v>
       </c>
-      <c r="AM20" s="10">
+      <c r="AN20" s="10">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>34</v>
       </c>
       <c r="AO20" t="s">
         <v>34</v>
       </c>
-      <c r="AP20">
+      <c r="AP20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ20">
         <v>0.623</v>
       </c>
-      <c r="AQ20">
+      <c r="AR20">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AT20" s="19" t="b">
-        <v>1</v>
-      </c>
       <c r="AU20" s="19" t="b">
         <v>1</v>
       </c>
       <c r="AV20" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AW20" s="19">
-        <v>0</v>
-      </c>
-      <c r="AX20" s="19" t="s">
+      <c r="AW20" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX20" s="19">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AY20" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ20" s="39" t="b">
+      <c r="AZ20" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA20" s="39" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU19:AV20 I19:I20 E19:E20 AU5:AV17 I5:I17 E5:E17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV19:AW20 J19:J20 E5:E17 AV5:AW17 J5:J17 E19:E20" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH19:AH20 AH5:AH17" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI5:AI17 AI19:AI20" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3463,7 +3507,7 @@
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -3475,22 +3519,22 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3593,7 +3637,7 @@
         <v>0.13</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3618,7 +3662,7 @@
         <v>0.128</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3643,7 +3687,7 @@
         <v>0.02</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3668,7 +3712,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3693,7 +3737,7 @@
         <v>0.05</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3762,7 +3806,7 @@
         <v>7.1998000000000006E-2</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3797,15 +3841,15 @@
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3814,31 +3858,31 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="43"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="12">
         <v>40.130000000000003</v>
@@ -3860,7 +3904,7 @@
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="12">
         <v>11.58</v>
@@ -3882,7 +3926,7 @@
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="12">
         <f>C7-C8</f>
@@ -3905,7 +3949,7 @@
     </row>
     <row r="10" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="12">
         <v>42.24</v>
@@ -3927,7 +3971,7 @@
     </row>
     <row r="11" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="12">
         <v>3.76</v>
@@ -3965,7 +4009,7 @@
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="12">
         <f>SUM(C9,C10,C11)</f>
@@ -3997,7 +4041,7 @@
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="12">
         <v>67.38</v>
@@ -4015,7 +4059,7 @@
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="12">
         <v>64.25</v>
@@ -4033,7 +4077,7 @@
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="12">
         <f>C14-C16</f>
@@ -4068,7 +4112,7 @@
     </row>
     <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="16">
         <f>11.582186/111.581756</f>
@@ -4091,7 +4135,7 @@
     </row>
     <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="6">
         <v>1.07</v>
@@ -4113,7 +4157,7 @@
     </row>
     <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="16">
         <v>7.4999999999999997E-2</v>
@@ -4133,7 +4177,7 @@
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="6">
         <v>6</v>
@@ -4161,7 +4205,7 @@
     </row>
     <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="12">
         <v>4.343</v>
@@ -4183,7 +4227,7 @@
     </row>
     <row r="27" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="6">
         <v>13.5</v>
@@ -4203,7 +4247,7 @@
     </row>
     <row r="28" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="6">
         <v>14.28</v>
@@ -4221,7 +4265,7 @@
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
@@ -4322,29 +4366,29 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
         <v>125</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" t="s">
         <v>126</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>128</v>
-      </c>
-      <c r="F3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="40">
         <v>70000777</v>
@@ -4362,7 +4406,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="40">
         <v>73323430</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6179D73-C37E-443E-AAFA-8972FA93B9BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20507E7-291B-4381-AB7E-42A9F57A4463}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="DetectiveWork" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +43,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -53,7 +52,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 method2 = No smoothing
@@ -101,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="158">
   <si>
     <t>runname</t>
   </si>
@@ -169,12 +168,6 @@
     <t>RS1</t>
   </si>
   <si>
-    <t>RS2</t>
-  </si>
-  <si>
-    <t>RS3</t>
-  </si>
-  <si>
     <t>return_type</t>
   </si>
   <si>
@@ -259,12 +252,6 @@
     <t>UAAL</t>
   </si>
   <si>
-    <t>High volatility</t>
-  </si>
-  <si>
-    <t>15 years of low returns</t>
-  </si>
-  <si>
     <t>cd</t>
   </si>
   <si>
@@ -499,9 +486,6 @@
     <t>2018-2019</t>
   </si>
   <si>
-    <t>2020-2045</t>
-  </si>
-  <si>
     <t>internal</t>
   </si>
   <si>
@@ -569,20 +553,40 @@
   </si>
   <si>
     <t>sensitivity_on</t>
+  </si>
+  <si>
+    <t>RS_15low</t>
+  </si>
+  <si>
+    <t>2020-2024</t>
+  </si>
+  <si>
+    <t>2025-2034</t>
+  </si>
+  <si>
+    <t>RS_30low</t>
+  </si>
+  <si>
+    <t>2020-2049</t>
+  </si>
+  <si>
+    <t>2034-2049</t>
+  </si>
+  <si>
+    <t>2025-2049</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,19 +629,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -752,7 +743,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -772,7 +763,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -793,7 +783,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -817,8 +806,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1278,17 +1267,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:BA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="17" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="6" width="14.28515625" customWidth="1"/>
@@ -1329,246 +1318,246 @@
     <col min="53" max="53" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:53" s="38" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="31" t="s">
+    <row r="3" spans="1:53" s="36" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP3" s="30"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="30"/>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV3" s="35"/>
+      <c r="AW3" s="35"/>
+      <c r="AX3" s="35"/>
+      <c r="AY3" s="35"/>
+      <c r="AZ3" s="35"/>
+      <c r="BA3" s="35"/>
+    </row>
+    <row r="4" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE4" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF4" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH4" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN4" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="32" t="s">
+      <c r="AO4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU4" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="32"/>
-      <c r="AT3" s="32"/>
-      <c r="AU3" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="AV3" s="37"/>
-      <c r="AW3" s="37"/>
-      <c r="AX3" s="37"/>
-      <c r="AY3" s="37"/>
-      <c r="AZ3" s="37"/>
-      <c r="BA3" s="37"/>
-    </row>
-    <row r="4" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q4" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="S4" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="T4" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="U4" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="V4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="W4" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD4" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE4" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF4" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG4" s="27" t="s">
+      <c r="AV4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AH4" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI4" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL4" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN4" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO4" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP4" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ4" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS4" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT4" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU4" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV4" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="AW4" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX4" s="26" t="s">
+      <c r="AW4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AY4" s="26" t="s">
+      <c r="AX4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AZ4" s="26" t="s">
+      <c r="AZ4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BA4" s="26" t="s">
+      <c r="BA4" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -1577,10 +1566,10 @@
         <v>0.3</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -1589,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M5">
         <v>6</v>
@@ -1601,7 +1590,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="O5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P5">
         <v>0.45</v>
@@ -1622,16 +1611,16 @@
         <v>5</v>
       </c>
       <c r="V5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="W5">
         <v>0.03</v>
       </c>
       <c r="Y5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Z5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AA5">
         <v>14</v>
@@ -1649,7 +1638,7 @@
         <v>0.8</v>
       </c>
       <c r="AF5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1658,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="AI5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AJ5" t="s">
         <v>21</v>
@@ -1672,14 +1661,14 @@
       <c r="AM5" s="3">
         <v>0.12</v>
       </c>
-      <c r="AN5" s="10">
+      <c r="AN5" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AO5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AP5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AQ5">
         <v>0.623</v>
@@ -1687,34 +1676,34 @@
       <c r="AR5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AU5" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="19" t="s">
+      <c r="AU5" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AZ5" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA5" s="39" t="b">
+      <c r="AZ5" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="37" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -1723,10 +1712,10 @@
         <v>0.3</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -1735,10 +1724,10 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M6">
         <v>6</v>
@@ -1747,7 +1736,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="O6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P6">
         <v>0.45</v>
@@ -1768,16 +1757,16 @@
         <v>5</v>
       </c>
       <c r="V6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="W6">
         <v>0.03</v>
       </c>
       <c r="Y6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Z6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AA6">
         <v>14</v>
@@ -1795,7 +1784,7 @@
         <v>0.8</v>
       </c>
       <c r="AF6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1804,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="AI6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AJ6" t="s">
         <v>21</v>
@@ -1818,14 +1807,14 @@
       <c r="AM6" s="3">
         <v>0.12</v>
       </c>
-      <c r="AN6" s="10">
+      <c r="AN6" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AO6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AP6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AQ6">
         <v>0.623</v>
@@ -1833,34 +1822,34 @@
       <c r="AR6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AU6" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="19" t="s">
+      <c r="AU6" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AZ6" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="39" t="b">
+      <c r="AZ6" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="37" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1869,10 +1858,10 @@
         <v>0.3</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -1881,10 +1870,10 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M7">
         <v>6</v>
@@ -1893,7 +1882,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="O7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P7">
         <v>0.45</v>
@@ -1914,16 +1903,16 @@
         <v>5</v>
       </c>
       <c r="V7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="W7">
         <v>0.03</v>
       </c>
       <c r="Y7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Z7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AA7">
         <v>14</v>
@@ -1941,7 +1930,7 @@
         <v>0.8</v>
       </c>
       <c r="AF7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1950,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="AI7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AJ7" t="s">
         <v>21</v>
@@ -1964,14 +1953,14 @@
       <c r="AM7" s="3">
         <v>0.12</v>
       </c>
-      <c r="AN7" s="10">
+      <c r="AN7" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AO7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AP7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AQ7">
         <v>0.623</v>
@@ -1979,45 +1968,45 @@
       <c r="AR7">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AU7" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="19" t="s">
+      <c r="AU7" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AZ7" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA7" s="39" t="b">
+      <c r="AZ7" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="37" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="AM8" s="3"/>
-      <c r="AN8" s="10"/>
-      <c r="AU8" s="19"/>
-      <c r="AV8" s="19"/>
-      <c r="AW8" s="19"/>
-      <c r="AX8" s="19"/>
-      <c r="AY8" s="19"/>
-      <c r="AZ8" s="19"/>
-      <c r="BA8" s="39"/>
+      <c r="AN8" s="9"/>
+      <c r="AU8" s="17"/>
+      <c r="AV8" s="17"/>
+      <c r="AW8" s="17"/>
+      <c r="AX8" s="17"/>
+      <c r="AY8" s="17"/>
+      <c r="AZ8" s="17"/>
+      <c r="BA8" s="37"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -2026,10 +2015,10 @@
         <v>0.3</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -2038,10 +2027,10 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M9">
         <v>6</v>
@@ -2050,7 +2039,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P9">
         <v>0.45</v>
@@ -2071,16 +2060,16 @@
         <v>5</v>
       </c>
       <c r="V9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="W9">
         <v>0.03</v>
       </c>
       <c r="Y9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Z9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AA9">
         <v>29</v>
@@ -2098,7 +2087,7 @@
         <v>0.8</v>
       </c>
       <c r="AF9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -2107,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="AI9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AJ9" t="s">
         <v>21</v>
@@ -2121,14 +2110,14 @@
       <c r="AM9" s="3">
         <v>0.12</v>
       </c>
-      <c r="AN9" s="10">
+      <c r="AN9" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AO9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AP9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AQ9">
         <v>0.623</v>
@@ -2136,34 +2125,34 @@
       <c r="AR9">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AU9" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW9" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX9" s="19">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="19" t="s">
+      <c r="AU9" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AZ9" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA9" s="39" t="b">
+      <c r="AZ9" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="37" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -2172,10 +2161,10 @@
         <v>0.3</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -2184,10 +2173,10 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M10">
         <v>6</v>
@@ -2196,7 +2185,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="O10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P10">
         <v>0.45</v>
@@ -2217,16 +2206,16 @@
         <v>5</v>
       </c>
       <c r="V10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="W10">
         <v>0.03</v>
       </c>
       <c r="Y10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Z10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AA10">
         <v>14</v>
@@ -2244,7 +2233,7 @@
         <v>0.8</v>
       </c>
       <c r="AF10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -2253,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="AI10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AJ10" t="s">
         <v>21</v>
@@ -2267,14 +2256,14 @@
       <c r="AM10" s="3">
         <v>0.12</v>
       </c>
-      <c r="AN10" s="10">
+      <c r="AN10" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AO10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AP10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AQ10">
         <v>0.623</v>
@@ -2282,34 +2271,34 @@
       <c r="AR10">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AU10" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV10" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW10" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX10" s="19">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="19" t="s">
+      <c r="AU10" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AZ10" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA10" s="39" t="b">
+      <c r="AZ10" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="37" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -2318,10 +2307,10 @@
         <v>0.3</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -2330,10 +2319,10 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M11">
         <v>6</v>
@@ -2342,7 +2331,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="O11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P11">
         <v>0.45</v>
@@ -2363,16 +2352,16 @@
         <v>5</v>
       </c>
       <c r="V11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="W11">
         <v>0.03</v>
       </c>
       <c r="Y11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Z11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AA11">
         <v>14</v>
@@ -2390,7 +2379,7 @@
         <v>0.8</v>
       </c>
       <c r="AF11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -2399,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="AI11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AJ11" t="s">
         <v>21</v>
@@ -2413,14 +2402,14 @@
       <c r="AM11" s="3">
         <v>0.12</v>
       </c>
-      <c r="AN11" s="10">
+      <c r="AN11" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AO11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AP11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AQ11">
         <v>0.623</v>
@@ -2428,34 +2417,34 @@
       <c r="AR11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AU11" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW11" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX11" s="19">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="19" t="s">
+      <c r="AU11" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AZ11" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA11" s="39" t="b">
+      <c r="AZ11" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="37" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -2464,10 +2453,10 @@
         <v>0.3</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -2476,10 +2465,10 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M12">
         <v>6</v>
@@ -2488,7 +2477,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="O12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P12">
         <v>0.45</v>
@@ -2509,16 +2498,16 @@
         <v>5</v>
       </c>
       <c r="V12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="W12">
         <v>0.03</v>
       </c>
       <c r="Y12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Z12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AA12">
         <v>14</v>
@@ -2536,7 +2525,7 @@
         <v>0.8</v>
       </c>
       <c r="AF12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AG12">
         <v>0</v>
@@ -2545,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="AI12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AJ12" t="s">
         <v>21</v>
@@ -2559,14 +2548,14 @@
       <c r="AM12" s="3">
         <v>0.12</v>
       </c>
-      <c r="AN12" s="10">
+      <c r="AN12" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AO12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AP12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AQ12">
         <v>0.623</v>
@@ -2574,34 +2563,34 @@
       <c r="AR12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AU12" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX12" s="19">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="19" t="s">
+      <c r="AU12" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AZ12" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA12" s="39" t="b">
+      <c r="AZ12" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="37" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -2610,10 +2599,10 @@
         <v>0.3</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -2622,10 +2611,10 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M13">
         <v>6</v>
@@ -2634,7 +2623,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P13">
         <v>0.45</v>
@@ -2655,16 +2644,16 @@
         <v>5</v>
       </c>
       <c r="V13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="W13">
         <v>0.03</v>
       </c>
       <c r="Y13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Z13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AA13">
         <v>29</v>
@@ -2682,7 +2671,7 @@
         <v>0.8</v>
       </c>
       <c r="AF13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -2691,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="AI13" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AJ13" t="s">
         <v>21</v>
@@ -2705,14 +2694,14 @@
       <c r="AM13" s="3">
         <v>0.12</v>
       </c>
-      <c r="AN13" s="10">
+      <c r="AN13" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AO13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AP13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AQ13">
         <v>0.623</v>
@@ -2720,34 +2709,34 @@
       <c r="AR13">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AU13" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="19">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="19" t="s">
+      <c r="AU13" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AZ13" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA13" s="39" t="b">
+      <c r="AZ13" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="37" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -2756,10 +2745,10 @@
         <v>0.3</v>
       </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -2768,10 +2757,10 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M14">
         <v>6</v>
@@ -2780,7 +2769,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="O14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P14">
         <v>0.45</v>
@@ -2801,16 +2790,16 @@
         <v>5</v>
       </c>
       <c r="V14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="W14">
         <v>0.03</v>
       </c>
       <c r="Y14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Z14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AA14">
         <v>14</v>
@@ -2828,7 +2817,7 @@
         <v>0.8</v>
       </c>
       <c r="AF14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AG14">
         <v>0</v>
@@ -2837,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="AI14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AJ14" t="s">
         <v>21</v>
@@ -2851,14 +2840,14 @@
       <c r="AM14" s="3">
         <v>0.12</v>
       </c>
-      <c r="AN14" s="10">
+      <c r="AN14" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AO14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AP14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AQ14">
         <v>0.623</v>
@@ -2866,25 +2855,25 @@
       <c r="AR14">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AU14" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV14" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW14" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX14" s="19">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="19" t="s">
+      <c r="AU14" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AZ14" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA14" s="39" t="b">
+      <c r="AZ14" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA14" s="37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2894,7 +2883,7 @@
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -2906,10 +2895,10 @@
         <v>0.3</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -2918,10 +2907,10 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M16">
         <v>6</v>
@@ -2930,7 +2919,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="O16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P16">
         <v>0.45</v>
@@ -2951,16 +2940,16 @@
         <v>5</v>
       </c>
       <c r="V16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="W16">
         <v>0.03</v>
       </c>
       <c r="Y16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Z16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AA16">
         <v>14</v>
@@ -2978,7 +2967,7 @@
         <v>0.8</v>
       </c>
       <c r="AF16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -2987,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="AI16" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AJ16" t="s">
         <v>21</v>
@@ -3001,14 +2990,14 @@
       <c r="AM16" s="3">
         <v>0.12</v>
       </c>
-      <c r="AN16" s="10">
+      <c r="AN16" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AO16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AP16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AQ16">
         <v>0.623</v>
@@ -3016,31 +3005,31 @@
       <c r="AR16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AU16" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV16" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW16" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX16" s="19">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="19" t="s">
+      <c r="AU16" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AZ16" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA16" s="39" t="b">
+      <c r="AZ16" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA16" s="37" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -3052,10 +3041,10 @@
         <v>0.3</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -3064,10 +3053,10 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M17">
         <v>6</v>
@@ -3076,7 +3065,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="O17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P17">
         <v>0.45</v>
@@ -3097,16 +3086,16 @@
         <v>5</v>
       </c>
       <c r="V17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="W17">
         <v>0.03</v>
       </c>
       <c r="Y17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Z17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AA17">
         <v>14</v>
@@ -3124,7 +3113,7 @@
         <v>0.8</v>
       </c>
       <c r="AF17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AG17">
         <v>0</v>
@@ -3133,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="AI17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AJ17" t="s">
         <v>21</v>
@@ -3147,14 +3136,14 @@
       <c r="AM17" s="3">
         <v>0.12</v>
       </c>
-      <c r="AN17" s="10">
+      <c r="AN17" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AO17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AP17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AQ17">
         <v>0.623</v>
@@ -3162,31 +3151,31 @@
       <c r="AR17">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AU17" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV17" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW17" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX17" s="19">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="19" t="s">
+      <c r="AU17" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AZ17" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA17" s="39" t="b">
+      <c r="AZ17" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA17" s="37" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -3198,10 +3187,10 @@
         <v>0.3</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -3210,10 +3199,10 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L19" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M19">
         <v>6</v>
@@ -3222,7 +3211,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="O19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P19">
         <v>0.45</v>
@@ -3243,16 +3232,16 @@
         <v>5</v>
       </c>
       <c r="V19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="W19">
         <v>0.03</v>
       </c>
       <c r="Y19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Z19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AA19">
         <v>14</v>
@@ -3270,7 +3259,7 @@
         <v>0.8</v>
       </c>
       <c r="AF19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AG19">
         <v>0</v>
@@ -3279,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="AI19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AJ19" t="s">
         <v>21</v>
@@ -3293,14 +3282,14 @@
       <c r="AM19" s="3">
         <v>0.12</v>
       </c>
-      <c r="AN19" s="10">
+      <c r="AN19" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AO19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AP19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AQ19">
         <v>0.623</v>
@@ -3308,31 +3297,31 @@
       <c r="AR19">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AU19" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV19" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW19" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX19" s="19">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="19" t="s">
+      <c r="AU19" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AZ19" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA19" s="39" t="b">
+      <c r="AZ19" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA19" s="37" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -3344,10 +3333,10 @@
         <v>0.3</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -3356,10 +3345,10 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M20">
         <v>6</v>
@@ -3368,7 +3357,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="O20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P20">
         <v>0.45</v>
@@ -3389,16 +3378,16 @@
         <v>5</v>
       </c>
       <c r="V20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="W20">
         <v>0.03</v>
       </c>
       <c r="Y20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Z20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AA20">
         <v>14</v>
@@ -3416,7 +3405,7 @@
         <v>0.8</v>
       </c>
       <c r="AF20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AG20">
         <v>0</v>
@@ -3425,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="AI20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AJ20" t="s">
         <v>21</v>
@@ -3439,14 +3428,14 @@
       <c r="AM20" s="3">
         <v>0.12</v>
       </c>
-      <c r="AN20" s="10">
+      <c r="AN20" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AO20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AP20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AQ20">
         <v>0.623</v>
@@ -3454,25 +3443,25 @@
       <c r="AR20">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AU20" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV20" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW20" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX20" s="19">
-        <v>0</v>
-      </c>
-      <c r="AY20" s="19" t="s">
+      <c r="AU20" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AZ20" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA20" s="39" t="b">
+      <c r="AZ20" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA20" s="37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3496,7 +3485,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3507,7 +3496,7 @@
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -3519,22 +3508,22 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3545,7 +3534,7 @@
         <v>2000</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -3576,10 +3565,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3594,7 +3583,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
@@ -3609,7 +3598,7 @@
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3632,12 +3621,12 @@
         <f>F2</f>
         <v>0.13</v>
       </c>
-      <c r="F2" s="15">
-        <f t="shared" ref="F2:F9" si="0">B2 - C2^2/2</f>
+      <c r="F2" s="14">
+        <f t="shared" ref="F2:F5" si="0">B2 - C2^2/2</f>
         <v>0.13</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>129</v>
+      <c r="G2" s="13" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3657,12 +3646,12 @@
         <f t="shared" ref="E3:E5" si="1">F3</f>
         <v>0.128</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <f t="shared" si="0"/>
         <v>0.128</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>130</v>
+      <c r="G3" s="13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3682,12 +3671,12 @@
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>131</v>
+      <c r="G4" s="13" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3701,121 +3690,293 @@
         <v>0.12</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>132</v>
+      <c r="G5" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6">
-        <v>5.7200000000000001E-2</v>
+        <v>151</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.13</v>
       </c>
       <c r="C6" s="3">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4">
-        <f>B6-C6^2/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="F6" s="15">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
+        <f>F6</f>
+        <v>0.13</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" ref="F6:F9" si="2">B6 - C6^2/2</f>
+        <v>0.13</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7">
-        <v>7.22E-2</v>
+        <v>151</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.128</v>
       </c>
       <c r="C7" s="3">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4">
-        <f>B7-C7^2/2</f>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F7" s="15">
-        <f t="shared" si="0"/>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" ref="E7:E9" si="3">F7</f>
+        <v>0.128</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="2"/>
+        <v>0.128</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>7.9200000000000007E-2</v>
+        <v>151</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.02</v>
       </c>
       <c r="C8" s="3">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4">
-        <f>B8-C8^2/2</f>
-        <v>7.2000000000000008E-2</v>
-      </c>
-      <c r="F8" s="15">
-        <f t="shared" si="0"/>
-        <v>7.2000000000000008E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="9">
-        <v>8.6790000000000006E-2</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.17199999999999999</v>
+        <v>151</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.12</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4">
-        <f>B9-C9^2/2</f>
-        <v>7.1998000000000006E-2</v>
-      </c>
-      <c r="F9" s="15">
-        <f t="shared" si="0"/>
-        <v>7.1998000000000006E-2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="4">
+        <v>7.22E-2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" ref="E10" si="4">F10</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" ref="F10" si="5">B10 - C10^2/2</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" ref="E11" si="6">F11</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" ref="F11:F16" si="7">B11 - C11^2/2</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18">
-        <f>0.07+0.12^2/2</f>
-        <v>7.7200000000000005E-2</v>
+      <c r="A12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <f>F12</f>
+        <v>0.13</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="7"/>
+        <v>0.13</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.128</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" ref="E13:E16" si="8">F13</f>
+        <v>0.128</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="7"/>
+        <v>0.128</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="8"/>
+        <v>0.02</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="7"/>
+        <v>0.02</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="4">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="4">
+        <v>7.22E-2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="8"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="7"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3841,15 +4002,15 @@
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3857,176 +4018,176 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="43"/>
+      <c r="F5" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="11">
         <v>40.130000000000003</v>
       </c>
       <c r="D7">
         <v>34.4</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <f>D7/C7</f>
         <v>0.85721405432344866</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>41.59</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <f>F7/C7</f>
         <v>1.0363817592823323</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="B8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="11">
         <v>11.58</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>8.69</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <f>D8/C8</f>
         <v>0.75043177892918822</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>11.47</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <f>F8/C8</f>
         <v>0.99050086355785838</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="B9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="11">
         <f>C7-C8</f>
         <v>28.550000000000004</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>25.73</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <f>D9/C9</f>
         <v>0.90122591943957953</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>30.12</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <f>F9/C9</f>
         <v>1.0549912434325743</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="B10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="11">
         <v>42.24</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>48.16</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <f>D10/C10</f>
         <v>1.1401515151515149</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>46.15</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <f>F10/C10</f>
         <v>1.0925662878787878</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="B11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="11">
         <v>3.76</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>3.8</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <f>D11/C11</f>
         <v>1.0106382978723405</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>3.8</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <f>F11/C11</f>
         <v>1.0106382978723405</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="B14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="11">
         <f>SUM(C9,C10,C11)</f>
         <v>74.550000000000011</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <f>SUM(D9,D10,D11)</f>
         <v>77.69</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <f>D14/C14</f>
         <v>1.0421193829644533</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>76.12</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <f>F14/C14</f>
         <v>1.0210596914822265</v>
       </c>
@@ -4034,108 +4195,108 @@
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="7"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="12">
+      <c r="B16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="11">
         <v>67.38</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <f>D16/C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13">
+      <c r="F16" s="11"/>
+      <c r="G16" s="12">
         <f>F16/C16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="12">
+      <c r="B17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="11">
         <v>64.25</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13">
+      <c r="D17" s="11"/>
+      <c r="E17" s="12">
         <f>D17/C17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13">
+      <c r="F17" s="11"/>
+      <c r="G17" s="12">
         <f>F17/C17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="B18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="11">
         <f>C14-C16</f>
         <v>7.1700000000000159</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13">
+      <c r="D18" s="11"/>
+      <c r="E18" s="12">
         <f>D18/C18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13">
+      <c r="F18" s="11"/>
+      <c r="G18" s="12">
         <f>F18/C18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="16">
+        <v>46</v>
+      </c>
+      <c r="C21" s="15">
         <f>11.582186/111.581756</f>
         <v>0.10379999755515588</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <f>D21/C21</f>
         <v>0.74181119280937113</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="15">
         <v>9.5699999999999993E-2</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <f>F21/C21</f>
         <v>0.92196533963450411</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="6">
         <v>1.07</v>
@@ -4143,41 +4304,41 @@
       <c r="D22" s="6">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <f>D22/C22</f>
         <v>1.0747663551401867</v>
       </c>
       <c r="F22" s="6">
         <v>1.135</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="12">
         <f>F22/C22</f>
         <v>1.0607476635514017</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="16">
+        <v>48</v>
+      </c>
+      <c r="C23" s="15">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="16">
         <v>8.5900000000000004E-2</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <f>D23/C23</f>
         <v>1.1453333333333335</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="13">
+      <c r="G23" s="12">
         <f>F23/C23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="6">
         <v>6</v>
@@ -4185,12 +4346,12 @@
       <c r="D24" s="6">
         <v>6</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <f>D24/C24</f>
         <v>1</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="13">
+      <c r="G24" s="12">
         <f>F24/C24</f>
         <v>0</v>
       </c>
@@ -4204,68 +4365,68 @@
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="12">
+      <c r="B26" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="11">
         <v>4.343</v>
       </c>
       <c r="D26" s="6">
         <v>4.32</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="12">
         <f>D26/C26</f>
         <v>0.99470412157494825</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="11">
         <v>4.34</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="12">
         <f>F26/C26</f>
         <v>0.9993092332489063</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C27" s="6">
         <v>13.5</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13">
+      <c r="D27" s="11"/>
+      <c r="E27" s="12">
         <f>D27/C27</f>
         <v>0</v>
       </c>
       <c r="F27" s="6">
         <v>13.49</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="12">
         <f>F27/C27</f>
         <v>0.99925925925925929</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C28" s="6">
         <v>14.28</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="13">
+      <c r="E28" s="12">
         <f>D28/C28</f>
         <v>0</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="13">
+      <c r="G28" s="12">
         <f>F28/C28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
@@ -4366,52 +4527,52 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" t="s">
         <v>124</v>
-      </c>
-      <c r="D3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="40">
+        <v>118</v>
+      </c>
+      <c r="C4" s="38">
         <v>70000777</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="38">
         <v>43629545</v>
       </c>
       <c r="G4">
         <v>20292733</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="40">
         <f>G4/D4</f>
         <v>0.46511447689862456</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="40">
+        <v>119</v>
+      </c>
+      <c r="C5" s="38">
         <v>73323430</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="38">
         <v>50095723</v>
       </c>
       <c r="G5">
@@ -4419,7 +4580,7 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="41"/>
+      <c r="C6" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20507E7-291B-4381-AB7E-42A9F57A4463}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0815F2-033A-4ABA-B34B-127B84A52317}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1271,7 +1271,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,7 +1706,7 @@
         <v>139</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0.3</v>
@@ -3035,7 +3035,7 @@
         <v>21</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0.3</v>
@@ -3181,7 +3181,7 @@
         <v>21</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0.3</v>
@@ -3327,7 +3327,7 @@
         <v>21</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0.3</v>
@@ -3568,7 +3568,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0815F2-033A-4ABA-B34B-127B84A52317}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8BEF5E-EE0D-4A30-A766-728E1FF98258}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="AF4" authorId="0" shapeId="0" xr:uid="{D91F68BF-928B-4B3B-9F98-4B2FFAC0BBBC}">
+    <comment ref="AH4" authorId="0" shapeId="0" xr:uid="{D91F68BF-928B-4B3B-9F98-4B2FFAC0BBBC}">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="180">
   <si>
     <t>runname</t>
   </si>
@@ -574,6 +574,72 @@
   </si>
   <si>
     <t>2025-2049</t>
+  </si>
+  <si>
+    <t>OYLM</t>
+  </si>
+  <si>
+    <t>OYLM_on</t>
+  </si>
+  <si>
+    <t>t4a_TDAamortAS</t>
+  </si>
+  <si>
+    <t>TDAamortAS</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>t4a_noTDA_OYLM</t>
+  </si>
+  <si>
+    <t>t4a_TDAamortAS_OYLM</t>
+  </si>
+  <si>
+    <t>t4a_TDAamort_OYLM</t>
+  </si>
+  <si>
+    <t>t4a_noTDA_OYLM_low15</t>
+  </si>
+  <si>
+    <t>t4a_TDAamortAS_OYLM_low15</t>
+  </si>
+  <si>
+    <t>t4a_noTDA_OYLM_low30</t>
+  </si>
+  <si>
+    <t>t4a_TDAamortAS_OYLM_low30</t>
+  </si>
+  <si>
+    <t>2020-2021</t>
+  </si>
+  <si>
+    <t>2021-2022</t>
+  </si>
+  <si>
+    <t>2022-2023</t>
+  </si>
+  <si>
+    <t>2023-2024</t>
+  </si>
+  <si>
+    <t>RS_DF1</t>
+  </si>
+  <si>
+    <t>RS_DF2</t>
+  </si>
+  <si>
+    <t>t4a_noTDA_OYLM_DF1</t>
+  </si>
+  <si>
+    <t>t4a_TDAamortAS_OYLM_DF1</t>
+  </si>
+  <si>
+    <t>t4a_noTDA_OYLM_DF2</t>
+  </si>
+  <si>
+    <t>t4a_TDAamortAS_OYLM_DF2</t>
   </si>
 </sst>
 </file>
@@ -631,7 +697,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,6 +770,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -743,7 +815,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -809,6 +881,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1265,135 +1338,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:BA20"/>
+  <dimension ref="A3:BC40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="14.28515625" customWidth="1"/>
-    <col min="22" max="24" width="19.7109375" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.85546875" customWidth="1"/>
-    <col min="28" max="28" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14" customWidth="1"/>
-    <col min="34" max="34" width="13.42578125" customWidth="1"/>
-    <col min="35" max="35" width="12.5703125" customWidth="1"/>
-    <col min="36" max="36" width="14.85546875" customWidth="1"/>
-    <col min="41" max="41" width="12" customWidth="1"/>
-    <col min="42" max="42" width="12.28515625" customWidth="1"/>
-    <col min="45" max="45" width="15.140625" customWidth="1"/>
-    <col min="46" max="47" width="16.5703125" customWidth="1"/>
-    <col min="48" max="48" width="12" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="18" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.28515625" customWidth="1"/>
-    <col min="52" max="52" width="11.42578125" customWidth="1"/>
-    <col min="53" max="53" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="10" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="10" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="14.28515625" customWidth="1"/>
+    <col min="24" max="26" width="19.7109375" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.85546875" customWidth="1"/>
+    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14" customWidth="1"/>
+    <col min="36" max="36" width="13.42578125" customWidth="1"/>
+    <col min="37" max="37" width="12.5703125" customWidth="1"/>
+    <col min="38" max="38" width="14.85546875" customWidth="1"/>
+    <col min="43" max="43" width="12" customWidth="1"/>
+    <col min="44" max="44" width="12.28515625" customWidth="1"/>
+    <col min="47" max="47" width="15.140625" customWidth="1"/>
+    <col min="48" max="49" width="16.5703125" customWidth="1"/>
+    <col min="50" max="50" width="12" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.28515625" customWidth="1"/>
+    <col min="54" max="54" width="11.42578125" customWidth="1"/>
+    <col min="55" max="55" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:53" s="36" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" s="36" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="32"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
       <c r="M3" s="28"/>
       <c r="N3" s="28"/>
       <c r="O3" s="28"/>
       <c r="P3" s="28"/>
       <c r="Q3" s="28"/>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
       <c r="U3" s="29"/>
-      <c r="V3" s="30" t="s">
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="31" t="s">
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
       <c r="AB3" s="31"/>
-      <c r="AC3" s="32" t="s">
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
       <c r="AF3" s="32"/>
-      <c r="AG3" s="33" t="s">
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="34" t="s">
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
       <c r="AL3" s="34"/>
       <c r="AM3" s="34"/>
       <c r="AN3" s="34"/>
-      <c r="AO3" s="30" t="s">
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="30"/>
       <c r="AR3" s="30"/>
       <c r="AS3" s="30"/>
       <c r="AT3" s="30"/>
-      <c r="AU3" s="35" t="s">
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="AV3" s="35"/>
-      <c r="AW3" s="35"/>
       <c r="AX3" s="35"/>
       <c r="AY3" s="35"/>
       <c r="AZ3" s="35"/>
       <c r="BA3" s="35"/>
-    </row>
-    <row r="4" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BB3" s="35"/>
+      <c r="BC3" s="35"/>
+    </row>
+    <row r="4" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
@@ -1401,2076 +1479,4014 @@
         <v>62</v>
       </c>
       <c r="C4" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="E4" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="F4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="G4" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="H4" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="I4" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="J4" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="K4" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L4" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="M4" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="N4" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="O4" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="P4" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="Q4" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="R4" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="S4" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="T4" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="U4" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="18" t="s">
+      <c r="V4" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="W4" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="20" t="s">
+      <c r="X4" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="W4" s="20" t="s">
+      <c r="Y4" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="22" t="s">
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="22" t="s">
+      <c r="AB4" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AA4" s="22" t="s">
+      <c r="AC4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="22" t="s">
+      <c r="AD4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="21" t="s">
+      <c r="AE4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AD4" s="21" t="s">
+      <c r="AF4" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="AE4" s="21" t="s">
+      <c r="AG4" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="AF4" s="21" t="s">
+      <c r="AH4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="AG4" s="25" t="s">
+      <c r="AI4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="AH4" s="25" t="s">
+      <c r="AJ4" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="AI4" s="19" t="s">
+      <c r="AK4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AJ4" s="19" t="s">
+      <c r="AL4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AK4" s="19" t="s">
+      <c r="AM4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AL4" s="19" t="s">
+      <c r="AN4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AM4" s="19" t="s">
+      <c r="AO4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="19" t="s">
+      <c r="AP4" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="AO4" s="20" t="s">
+      <c r="AQ4" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="AP4" s="20" t="s">
+      <c r="AR4" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="AQ4" s="20" t="s">
+      <c r="AS4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="AR4" s="20" t="s">
+      <c r="AT4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AS4" s="20" t="s">
+      <c r="AU4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AT4" s="20" t="s">
+      <c r="AV4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AU4" s="24" t="s">
+      <c r="AW4" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="AV4" s="24" t="s">
+      <c r="AX4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AW4" s="24" t="s">
+      <c r="AY4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AX4" s="24" t="s">
+      <c r="AZ4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AY4" s="24" t="s">
+      <c r="BA4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AZ4" s="24" t="s">
+      <c r="BB4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BA4" s="24" t="s">
+      <c r="BC4" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>132</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>138</v>
       </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0.3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>110</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>107</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
         <v>130</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>136</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>6</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>96</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.45</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>3</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>62</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>5</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>79</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>0.03</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AA5" t="s">
         <v>50</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AB5" t="s">
         <v>43</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>14</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>0.03</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>6</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>1.2</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>0.8</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>86</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="s">
         <v>128</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AL5" t="s">
         <v>21</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AL5">
+      <c r="AN5">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AM5" s="3">
+      <c r="AO5" s="3">
         <v>0.12</v>
       </c>
-      <c r="AN5" s="9">
+      <c r="AP5" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AQ5" t="s">
         <v>32</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AR5" t="s">
         <v>32</v>
       </c>
-      <c r="AQ5">
+      <c r="AS5">
         <v>0.623</v>
       </c>
-      <c r="AR5">
+      <c r="AT5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AU5" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AW5" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AX5" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="17" t="s">
+      <c r="AX5" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AZ5" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA5" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB5" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6" t="s">
+        <v>136</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>96</v>
+      </c>
+      <c r="R6">
+        <v>0.45</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V6">
+        <v>62</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6">
+        <v>0.03</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC6">
+        <v>14</v>
+      </c>
+      <c r="AD6">
+        <v>0.03</v>
+      </c>
+      <c r="AE6">
+        <v>6</v>
+      </c>
+      <c r="AF6">
+        <v>1.2</v>
+      </c>
+      <c r="AG6">
+        <v>0.8</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN6">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO6" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS6">
+        <v>0.623</v>
+      </c>
+      <c r="AT6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW6" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB6" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="9"/>
+      <c r="AW7" s="17"/>
+      <c r="AX7" s="17"/>
+      <c r="AY7" s="17"/>
+      <c r="AZ7" s="17"/>
+      <c r="BA7" s="17"/>
+      <c r="BB7" s="17"/>
+      <c r="BC7" s="37"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N8" t="s">
+        <v>162</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8">
+        <v>0.45</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V8">
+        <v>62</v>
+      </c>
+      <c r="W8">
+        <v>5</v>
+      </c>
+      <c r="X8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y8">
+        <v>0.03</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC8">
+        <v>14</v>
+      </c>
+      <c r="AD8">
+        <v>0.03</v>
+      </c>
+      <c r="AE8">
+        <v>6</v>
+      </c>
+      <c r="AF8">
+        <v>1.2</v>
+      </c>
+      <c r="AG8">
+        <v>0.8</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN8">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP8" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS8">
+        <v>0.623</v>
+      </c>
+      <c r="AT8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW8" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB8" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>130</v>
+      </c>
+      <c r="N9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>96</v>
+      </c>
+      <c r="R9">
+        <v>0.45</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V9">
+        <v>62</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="X9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y9">
+        <v>0.03</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC9">
+        <v>14</v>
+      </c>
+      <c r="AD9">
+        <v>0.03</v>
+      </c>
+      <c r="AE9">
+        <v>6</v>
+      </c>
+      <c r="AF9">
+        <v>1.2</v>
+      </c>
+      <c r="AG9">
+        <v>0.8</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN9">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP9" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS9">
+        <v>0.623</v>
+      </c>
+      <c r="AT9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW9" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB9" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="9"/>
+      <c r="AW10" s="17"/>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="17"/>
+      <c r="BA10" s="17"/>
+      <c r="BB10" s="17"/>
+      <c r="BC10" s="37"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>130</v>
+      </c>
+      <c r="N11" t="s">
+        <v>162</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11">
+        <v>0.45</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V11">
+        <v>62</v>
+      </c>
+      <c r="W11">
+        <v>5</v>
+      </c>
+      <c r="X11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y11">
+        <v>0.03</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC11">
+        <v>29</v>
+      </c>
+      <c r="AD11">
+        <v>0.03</v>
+      </c>
+      <c r="AE11">
+        <v>6</v>
+      </c>
+      <c r="AF11">
+        <v>1.2</v>
+      </c>
+      <c r="AG11">
+        <v>0.8</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN11">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO11" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP11" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS11">
+        <v>0.623</v>
+      </c>
+      <c r="AT11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW11" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB11" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N12" t="s">
+        <v>162</v>
+      </c>
+      <c r="O12">
+        <v>6</v>
+      </c>
+      <c r="P12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>96</v>
+      </c>
+      <c r="R12">
+        <v>0.45</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V12">
+        <v>62</v>
+      </c>
+      <c r="W12">
+        <v>5</v>
+      </c>
+      <c r="X12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y12">
+        <v>0.03</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC12">
+        <v>14</v>
+      </c>
+      <c r="AD12">
+        <v>0.03</v>
+      </c>
+      <c r="AE12">
+        <v>6</v>
+      </c>
+      <c r="AF12">
+        <v>1.2</v>
+      </c>
+      <c r="AG12">
+        <v>0.8</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN12">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO12" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP12" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS12">
+        <v>0.623</v>
+      </c>
+      <c r="AT12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW12" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB12" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>130</v>
+      </c>
+      <c r="N13" t="s">
+        <v>162</v>
+      </c>
+      <c r="O13">
+        <v>6</v>
+      </c>
+      <c r="P13">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>96</v>
+      </c>
+      <c r="R13">
+        <v>0.45</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V13">
+        <v>62</v>
+      </c>
+      <c r="W13">
+        <v>5</v>
+      </c>
+      <c r="X13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y13">
+        <v>0.03</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC13">
+        <v>14</v>
+      </c>
+      <c r="AD13">
+        <v>0.03</v>
+      </c>
+      <c r="AE13">
+        <v>6</v>
+      </c>
+      <c r="AF13">
+        <v>1.2</v>
+      </c>
+      <c r="AG13">
+        <v>0.8</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN13">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO13" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP13" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS13">
+        <v>0.623</v>
+      </c>
+      <c r="AT13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW13" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB13" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>130</v>
+      </c>
+      <c r="N14" t="s">
+        <v>162</v>
+      </c>
+      <c r="O14">
+        <v>6</v>
+      </c>
+      <c r="P14">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>96</v>
+      </c>
+      <c r="R14">
+        <v>0.45</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V14">
+        <v>62</v>
+      </c>
+      <c r="W14">
+        <v>5</v>
+      </c>
+      <c r="X14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y14">
+        <v>0.03</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC14">
+        <v>14</v>
+      </c>
+      <c r="AD14">
+        <v>0.03</v>
+      </c>
+      <c r="AE14">
+        <v>6</v>
+      </c>
+      <c r="AF14">
+        <v>1.2</v>
+      </c>
+      <c r="AG14">
+        <v>0.8</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN14">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO14" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP14" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS14">
+        <v>0.623</v>
+      </c>
+      <c r="AT14">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW14" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB14" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC14" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>130</v>
+      </c>
+      <c r="N15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
+      <c r="P15">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>96</v>
+      </c>
+      <c r="R15">
+        <v>0.45</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V15">
+        <v>62</v>
+      </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
+      <c r="X15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y15">
+        <v>0.03</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC15">
+        <v>29</v>
+      </c>
+      <c r="AD15">
+        <v>0.03</v>
+      </c>
+      <c r="AE15">
+        <v>6</v>
+      </c>
+      <c r="AF15">
+        <v>1.2</v>
+      </c>
+      <c r="AG15">
+        <v>0.8</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN15">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO15" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP15" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS15">
+        <v>0.623</v>
+      </c>
+      <c r="AT15">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW15" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY15" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ15" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB15" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC15" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>130</v>
+      </c>
+      <c r="N16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+      <c r="P16">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>96</v>
+      </c>
+      <c r="R16">
+        <v>0.45</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V16">
+        <v>62</v>
+      </c>
+      <c r="W16">
+        <v>5</v>
+      </c>
+      <c r="X16" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y16">
+        <v>0.03</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC16">
+        <v>14</v>
+      </c>
+      <c r="AD16">
+        <v>0.03</v>
+      </c>
+      <c r="AE16">
+        <v>6</v>
+      </c>
+      <c r="AF16">
+        <v>1.2</v>
+      </c>
+      <c r="AG16">
+        <v>0.8</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN16">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO16" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP16" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS16">
+        <v>0.623</v>
+      </c>
+      <c r="AT16">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW16" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX16" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY16" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB16" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC16" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0.3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
+      <c r="P18">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>96</v>
+      </c>
+      <c r="R18">
+        <v>0.45</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V18">
+        <v>62</v>
+      </c>
+      <c r="W18">
+        <v>5</v>
+      </c>
+      <c r="X18" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y18">
+        <v>0.03</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC18">
+        <v>14</v>
+      </c>
+      <c r="AD18">
+        <v>0.03</v>
+      </c>
+      <c r="AE18">
+        <v>6</v>
+      </c>
+      <c r="AF18">
+        <v>1.2</v>
+      </c>
+      <c r="AG18">
+        <v>0.8</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN18">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO18" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP18" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS18">
+        <v>0.623</v>
+      </c>
+      <c r="AT18">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW18" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY18" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB18" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC18" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0.3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19">
+        <v>6</v>
+      </c>
+      <c r="P19">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R19">
+        <v>0.45</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V19">
+        <v>62</v>
+      </c>
+      <c r="W19">
+        <v>5</v>
+      </c>
+      <c r="X19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y19">
+        <v>0.03</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC19">
+        <v>14</v>
+      </c>
+      <c r="AD19">
+        <v>0.03</v>
+      </c>
+      <c r="AE19">
+        <v>6</v>
+      </c>
+      <c r="AF19">
+        <v>1.2</v>
+      </c>
+      <c r="AG19">
+        <v>0.8</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN19">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO19" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP19" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS19">
+        <v>0.623</v>
+      </c>
+      <c r="AT19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW19" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX19" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY19" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB19" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC19" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" t="s">
+        <v>107</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>130</v>
+      </c>
+      <c r="N21" t="s">
+        <v>136</v>
+      </c>
+      <c r="O21">
+        <v>6</v>
+      </c>
+      <c r="P21">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>96</v>
+      </c>
+      <c r="R21">
+        <v>0.45</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V21">
+        <v>62</v>
+      </c>
+      <c r="W21">
+        <v>5</v>
+      </c>
+      <c r="X21" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y21">
+        <v>0.03</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC21">
+        <v>14</v>
+      </c>
+      <c r="AD21">
+        <v>0.03</v>
+      </c>
+      <c r="AE21">
+        <v>6</v>
+      </c>
+      <c r="AF21">
+        <v>1.2</v>
+      </c>
+      <c r="AG21">
+        <v>0.8</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN21">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO21" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP21" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS21">
+        <v>0.623</v>
+      </c>
+      <c r="AT21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW21" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX21" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY21" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ21" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB21" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC21" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0.3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>130</v>
+      </c>
+      <c r="N22" t="s">
+        <v>162</v>
+      </c>
+      <c r="O22">
+        <v>6</v>
+      </c>
+      <c r="P22">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>96</v>
+      </c>
+      <c r="R22">
+        <v>0.45</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V22">
+        <v>62</v>
+      </c>
+      <c r="W22">
+        <v>5</v>
+      </c>
+      <c r="X22" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y22">
+        <v>0.03</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC22">
+        <v>14</v>
+      </c>
+      <c r="AD22">
+        <v>0.03</v>
+      </c>
+      <c r="AE22">
+        <v>6</v>
+      </c>
+      <c r="AF22">
+        <v>1.2</v>
+      </c>
+      <c r="AG22">
+        <v>0.8</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN22">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO22" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP22" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS22">
+        <v>0.623</v>
+      </c>
+      <c r="AT22">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW22" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX22" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY22" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ22" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB22" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC22" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>130</v>
+      </c>
+      <c r="N24" t="s">
+        <v>136</v>
+      </c>
+      <c r="O24">
+        <v>6</v>
+      </c>
+      <c r="P24">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>96</v>
+      </c>
+      <c r="R24">
+        <v>0.45</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V24">
+        <v>62</v>
+      </c>
+      <c r="W24">
+        <v>5</v>
+      </c>
+      <c r="X24" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y24">
+        <v>0.03</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC24">
+        <v>14</v>
+      </c>
+      <c r="AD24">
+        <v>0.03</v>
+      </c>
+      <c r="AE24">
+        <v>6</v>
+      </c>
+      <c r="AF24">
+        <v>1.2</v>
+      </c>
+      <c r="AG24">
+        <v>0.8</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN24">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO24" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP24" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS24">
+        <v>0.623</v>
+      </c>
+      <c r="AT24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW24" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX24" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY24" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB24" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC24" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3</v>
+      </c>
+      <c r="H25" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>130</v>
+      </c>
+      <c r="N25" t="s">
+        <v>162</v>
+      </c>
+      <c r="O25">
+        <v>6</v>
+      </c>
+      <c r="P25">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>96</v>
+      </c>
+      <c r="R25">
+        <v>0.45</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V25">
+        <v>62</v>
+      </c>
+      <c r="W25">
+        <v>5</v>
+      </c>
+      <c r="X25" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y25">
+        <v>0.03</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC25">
+        <v>14</v>
+      </c>
+      <c r="AD25">
+        <v>0.03</v>
+      </c>
+      <c r="AE25">
+        <v>6</v>
+      </c>
+      <c r="AF25">
+        <v>1.2</v>
+      </c>
+      <c r="AG25">
+        <v>0.8</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN25">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO25" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP25" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS25">
+        <v>0.623</v>
+      </c>
+      <c r="AT25">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW25" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX25" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY25" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ25" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB25" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC25" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0.3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" t="s">
+        <v>107</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>130</v>
+      </c>
+      <c r="N26" t="s">
+        <v>136</v>
+      </c>
+      <c r="O26">
+        <v>6</v>
+      </c>
+      <c r="P26">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>96</v>
+      </c>
+      <c r="R26">
+        <v>0.45</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V26">
+        <v>62</v>
+      </c>
+      <c r="W26">
+        <v>5</v>
+      </c>
+      <c r="X26" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y26">
+        <v>0.03</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC26">
+        <v>14</v>
+      </c>
+      <c r="AD26">
+        <v>0.03</v>
+      </c>
+      <c r="AE26">
+        <v>6</v>
+      </c>
+      <c r="AF26">
+        <v>1.2</v>
+      </c>
+      <c r="AG26">
+        <v>0.8</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN26">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO26" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP26" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS26">
+        <v>0.623</v>
+      </c>
+      <c r="AT26">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW26" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX26" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY26" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ26" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB26" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC26" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0.3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" t="s">
+        <v>107</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>130</v>
+      </c>
+      <c r="N27" t="s">
+        <v>162</v>
+      </c>
+      <c r="O27">
+        <v>6</v>
+      </c>
+      <c r="P27">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>96</v>
+      </c>
+      <c r="R27">
+        <v>0.45</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V27">
+        <v>62</v>
+      </c>
+      <c r="W27">
+        <v>5</v>
+      </c>
+      <c r="X27" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y27">
+        <v>0.03</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC27">
+        <v>14</v>
+      </c>
+      <c r="AD27">
+        <v>0.03</v>
+      </c>
+      <c r="AE27">
+        <v>6</v>
+      </c>
+      <c r="AF27">
+        <v>1.2</v>
+      </c>
+      <c r="AG27">
+        <v>0.8</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN27">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO27" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP27" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS27">
+        <v>0.623</v>
+      </c>
+      <c r="AT27">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW27" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX27" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY27" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ27" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB27" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC27" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="9"/>
+      <c r="AW28" s="17"/>
+      <c r="AX28" s="17"/>
+      <c r="AY28" s="17"/>
+      <c r="AZ28" s="17"/>
+      <c r="BA28" s="17"/>
+      <c r="BB28" s="17"/>
+      <c r="BC28" s="37"/>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0.3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" t="s">
+        <v>112</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>130</v>
+      </c>
+      <c r="N30" t="s">
+        <v>136</v>
+      </c>
+      <c r="O30">
+        <v>6</v>
+      </c>
+      <c r="P30">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>96</v>
+      </c>
+      <c r="R30">
+        <v>0.45</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V30">
+        <v>62</v>
+      </c>
+      <c r="W30">
+        <v>5</v>
+      </c>
+      <c r="X30" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y30">
+        <v>0.03</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC30">
+        <v>14</v>
+      </c>
+      <c r="AD30">
+        <v>0.03</v>
+      </c>
+      <c r="AE30">
+        <v>6</v>
+      </c>
+      <c r="AF30">
+        <v>1.2</v>
+      </c>
+      <c r="AG30">
+        <v>0.8</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN30">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO30" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP30" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS30">
+        <v>0.623</v>
+      </c>
+      <c r="AT30">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW30" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX30" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY30" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ30" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB30" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC30" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0.3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>130</v>
+      </c>
+      <c r="N31" t="s">
+        <v>136</v>
+      </c>
+      <c r="O31">
+        <v>6</v>
+      </c>
+      <c r="P31">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>96</v>
+      </c>
+      <c r="R31">
+        <v>0.45</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V31">
+        <v>62</v>
+      </c>
+      <c r="W31">
+        <v>5</v>
+      </c>
+      <c r="X31" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y31">
+        <v>0.03</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC31">
+        <v>14</v>
+      </c>
+      <c r="AD31">
+        <v>0.03</v>
+      </c>
+      <c r="AE31">
+        <v>6</v>
+      </c>
+      <c r="AF31">
+        <v>1.2</v>
+      </c>
+      <c r="AG31">
+        <v>0.8</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN31">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO31" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP31" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS31">
+        <v>0.623</v>
+      </c>
+      <c r="AT31">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW31" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX31" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY31" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ31" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA31" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB31" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC31" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0.3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>114</v>
+      </c>
+      <c r="I33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>130</v>
+      </c>
+      <c r="N33" t="s">
+        <v>136</v>
+      </c>
+      <c r="O33">
+        <v>6</v>
+      </c>
+      <c r="P33">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>96</v>
+      </c>
+      <c r="R33">
+        <v>0.45</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>3</v>
+      </c>
+      <c r="U33">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V33">
+        <v>62</v>
+      </c>
+      <c r="W33">
+        <v>5</v>
+      </c>
+      <c r="X33" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y33">
+        <v>0.03</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC33">
+        <v>14</v>
+      </c>
+      <c r="AD33">
+        <v>0.03</v>
+      </c>
+      <c r="AE33">
+        <v>6</v>
+      </c>
+      <c r="AF33">
+        <v>1.2</v>
+      </c>
+      <c r="AG33">
+        <v>0.8</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN33">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO33" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP33" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS33">
+        <v>0.623</v>
+      </c>
+      <c r="AT33">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW33" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX33" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY33" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ33" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA33" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB33" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC33" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0.3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>130</v>
+      </c>
+      <c r="N34" t="s">
+        <v>136</v>
+      </c>
+      <c r="O34">
+        <v>6</v>
+      </c>
+      <c r="P34">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>96</v>
+      </c>
+      <c r="R34">
+        <v>0.45</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V34">
+        <v>62</v>
+      </c>
+      <c r="W34">
+        <v>5</v>
+      </c>
+      <c r="X34" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y34">
+        <v>0.03</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC34">
+        <v>14</v>
+      </c>
+      <c r="AD34">
+        <v>0.03</v>
+      </c>
+      <c r="AE34">
+        <v>6</v>
+      </c>
+      <c r="AF34">
+        <v>1.2</v>
+      </c>
+      <c r="AG34">
+        <v>0.8</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM34">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN34">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO34" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP34" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS34">
+        <v>0.623</v>
+      </c>
+      <c r="AT34">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW34" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX34" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY34" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ34" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA34" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB34" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC34" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A38" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C38" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
         <v>139</v>
       </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>0.3</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H38" t="s">
         <v>110</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I38" t="s">
         <v>107</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
         <v>130</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N38" t="s">
         <v>136</v>
       </c>
-      <c r="M6">
+      <c r="O38">
         <v>6</v>
       </c>
-      <c r="N6">
+      <c r="P38">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q38" t="s">
         <v>96</v>
       </c>
-      <c r="P6">
+      <c r="R38">
         <v>0.45</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
         <v>3</v>
       </c>
-      <c r="S6">
+      <c r="U38">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="T6">
+      <c r="V38">
         <v>62</v>
       </c>
-      <c r="U6">
+      <c r="W38">
         <v>5</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X38" t="s">
         <v>79</v>
       </c>
-      <c r="W6">
+      <c r="Y38">
         <v>0.03</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AA38" t="s">
         <v>50</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AB38" t="s">
         <v>43</v>
       </c>
-      <c r="AA6">
+      <c r="AC38">
         <v>14</v>
       </c>
-      <c r="AB6">
+      <c r="AD38">
         <v>0.03</v>
       </c>
-      <c r="AC6">
+      <c r="AE38">
         <v>6</v>
       </c>
-      <c r="AD6">
+      <c r="AF38">
         <v>1.2</v>
       </c>
-      <c r="AE6">
+      <c r="AG38">
         <v>0.8</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH38" t="s">
         <v>86</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="s">
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="s">
         <v>128</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AL38" t="s">
         <v>21</v>
       </c>
-      <c r="AK6">
+      <c r="AM38">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AL6">
+      <c r="AN38">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AM6" s="3">
+      <c r="AO38" s="3">
         <v>0.12</v>
       </c>
-      <c r="AN6" s="9">
+      <c r="AP38" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AQ38" t="s">
         <v>32</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AR38" t="s">
         <v>32</v>
       </c>
-      <c r="AQ6">
+      <c r="AS38">
         <v>0.623</v>
       </c>
-      <c r="AR6">
+      <c r="AT38">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AU6" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="17" t="s">
+      <c r="AW38" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX38" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY38" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ38" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA38" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AZ6" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="BB38" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC38" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A39" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0.3</v>
+      </c>
+      <c r="H39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" t="s">
+        <v>107</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>130</v>
+      </c>
+      <c r="N39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O39">
+        <v>6</v>
+      </c>
+      <c r="P39">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>96</v>
+      </c>
+      <c r="R39">
+        <v>0.45</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V39">
+        <v>62</v>
+      </c>
+      <c r="W39">
+        <v>5</v>
+      </c>
+      <c r="X39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y39">
+        <v>0.03</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC39">
+        <v>14</v>
+      </c>
+      <c r="AD39">
+        <v>0.03</v>
+      </c>
+      <c r="AE39">
+        <v>6</v>
+      </c>
+      <c r="AF39">
+        <v>1.2</v>
+      </c>
+      <c r="AG39">
+        <v>0.8</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM39">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN39">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AO39" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AP39" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS39">
+        <v>0.623</v>
+      </c>
+      <c r="AT39">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AW39" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX39" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY39" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ39" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA39" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB39" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC39" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A40" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C40" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
         <v>140</v>
       </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>0.3</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H40" t="s">
         <v>110</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I40" t="s">
         <v>107</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
         <v>133</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N40" t="s">
         <v>136</v>
       </c>
-      <c r="M7">
+      <c r="O40">
         <v>6</v>
       </c>
-      <c r="N7">
+      <c r="P40">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q40" t="s">
         <v>96</v>
       </c>
-      <c r="P7">
+      <c r="R40">
         <v>0.45</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
         <v>3</v>
       </c>
-      <c r="S7">
+      <c r="U40">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="T7">
+      <c r="V40">
         <v>62</v>
       </c>
-      <c r="U7">
+      <c r="W40">
         <v>5</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X40" t="s">
         <v>79</v>
       </c>
-      <c r="W7">
+      <c r="Y40">
         <v>0.03</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AA40" t="s">
         <v>50</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AB40" t="s">
         <v>43</v>
       </c>
-      <c r="AA7">
+      <c r="AC40">
         <v>14</v>
       </c>
-      <c r="AB7">
+      <c r="AD40">
         <v>0.03</v>
       </c>
-      <c r="AC7">
+      <c r="AE40">
         <v>6</v>
       </c>
-      <c r="AD7">
+      <c r="AF40">
         <v>1.2</v>
       </c>
-      <c r="AE7">
+      <c r="AG40">
         <v>0.8</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH40" t="s">
         <v>86</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="s">
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="s">
         <v>128</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AL40" t="s">
         <v>21</v>
       </c>
-      <c r="AK7">
+      <c r="AM40">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AL7">
+      <c r="AN40">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AM7" s="3">
+      <c r="AO40" s="3">
         <v>0.12</v>
       </c>
-      <c r="AN7" s="9">
+      <c r="AP40" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AQ40" t="s">
         <v>32</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AR40" t="s">
         <v>32</v>
       </c>
-      <c r="AQ7">
+      <c r="AS40">
         <v>0.623</v>
       </c>
-      <c r="AR7">
+      <c r="AT40">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AU7" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="17" t="s">
+      <c r="AW40" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX40" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY40" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ40" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA40" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AZ7" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA7" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="9"/>
-      <c r="AU8" s="17"/>
-      <c r="AV8" s="17"/>
-      <c r="AW8" s="17"/>
-      <c r="AX8" s="17"/>
-      <c r="AY8" s="17"/>
-      <c r="AZ8" s="17"/>
-      <c r="BA8" s="37"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>130</v>
-      </c>
-      <c r="L9" t="s">
-        <v>136</v>
-      </c>
-      <c r="M9">
-        <v>6</v>
-      </c>
-      <c r="N9">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="O9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P9">
-        <v>0.45</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>3</v>
-      </c>
-      <c r="S9">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="T9">
-        <v>62</v>
-      </c>
-      <c r="U9">
-        <v>5</v>
-      </c>
-      <c r="V9" t="s">
-        <v>79</v>
-      </c>
-      <c r="W9">
-        <v>0.03</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA9">
-        <v>29</v>
-      </c>
-      <c r="AB9">
-        <v>0.03</v>
-      </c>
-      <c r="AC9">
-        <v>6</v>
-      </c>
-      <c r="AD9">
-        <v>1.2</v>
-      </c>
-      <c r="AE9">
-        <v>0.8</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AL9">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AM9" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AN9" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ9">
-        <v>0.623</v>
-      </c>
-      <c r="AR9">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AU9" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW9" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX9" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ9" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA9" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L10" t="s">
-        <v>136</v>
-      </c>
-      <c r="M10">
-        <v>6</v>
-      </c>
-      <c r="N10">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="O10" t="s">
-        <v>96</v>
-      </c>
-      <c r="P10">
-        <v>0.45</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>3</v>
-      </c>
-      <c r="S10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="T10">
-        <v>62</v>
-      </c>
-      <c r="U10">
-        <v>5</v>
-      </c>
-      <c r="V10" t="s">
-        <v>79</v>
-      </c>
-      <c r="W10">
-        <v>0.03</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA10">
-        <v>14</v>
-      </c>
-      <c r="AB10">
-        <v>0.03</v>
-      </c>
-      <c r="AC10">
-        <v>6</v>
-      </c>
-      <c r="AD10">
-        <v>1.2</v>
-      </c>
-      <c r="AE10">
-        <v>0.8</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AL10">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AM10" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AN10" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ10">
-        <v>0.623</v>
-      </c>
-      <c r="AR10">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AU10" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV10" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW10" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ10" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA10" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>130</v>
-      </c>
-      <c r="L11" t="s">
-        <v>136</v>
-      </c>
-      <c r="M11">
-        <v>6</v>
-      </c>
-      <c r="N11">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="O11" t="s">
-        <v>96</v>
-      </c>
-      <c r="P11">
-        <v>0.45</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>3</v>
-      </c>
-      <c r="S11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="T11">
-        <v>62</v>
-      </c>
-      <c r="U11">
-        <v>5</v>
-      </c>
-      <c r="V11" t="s">
-        <v>79</v>
-      </c>
-      <c r="W11">
-        <v>0.03</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA11">
-        <v>14</v>
-      </c>
-      <c r="AB11">
-        <v>0.03</v>
-      </c>
-      <c r="AC11">
-        <v>6</v>
-      </c>
-      <c r="AD11">
-        <v>1.2</v>
-      </c>
-      <c r="AE11">
-        <v>0.8</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AL11">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AM11" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AN11" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ11">
-        <v>0.623</v>
-      </c>
-      <c r="AR11">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AU11" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW11" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ11" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA11" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0.3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>130</v>
-      </c>
-      <c r="L12" t="s">
-        <v>136</v>
-      </c>
-      <c r="M12">
-        <v>6</v>
-      </c>
-      <c r="N12">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="O12" t="s">
-        <v>96</v>
-      </c>
-      <c r="P12">
-        <v>0.45</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>3</v>
-      </c>
-      <c r="S12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="T12">
-        <v>62</v>
-      </c>
-      <c r="U12">
-        <v>5</v>
-      </c>
-      <c r="V12" t="s">
-        <v>79</v>
-      </c>
-      <c r="W12">
-        <v>0.03</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA12">
-        <v>14</v>
-      </c>
-      <c r="AB12">
-        <v>0.03</v>
-      </c>
-      <c r="AC12">
-        <v>6</v>
-      </c>
-      <c r="AD12">
-        <v>1.2</v>
-      </c>
-      <c r="AE12">
-        <v>0.8</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AL12">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AM12" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AN12" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ12">
-        <v>0.623</v>
-      </c>
-      <c r="AR12">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AU12" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ12" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA12" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0.3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>130</v>
-      </c>
-      <c r="L13" t="s">
-        <v>136</v>
-      </c>
-      <c r="M13">
-        <v>6</v>
-      </c>
-      <c r="N13">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="O13" t="s">
-        <v>96</v>
-      </c>
-      <c r="P13">
-        <v>0.45</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>3</v>
-      </c>
-      <c r="S13">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="T13">
-        <v>62</v>
-      </c>
-      <c r="U13">
-        <v>5</v>
-      </c>
-      <c r="V13" t="s">
-        <v>79</v>
-      </c>
-      <c r="W13">
-        <v>0.03</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA13">
-        <v>29</v>
-      </c>
-      <c r="AB13">
-        <v>0.03</v>
-      </c>
-      <c r="AC13">
-        <v>6</v>
-      </c>
-      <c r="AD13">
-        <v>1.2</v>
-      </c>
-      <c r="AE13">
-        <v>0.8</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK13">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AL13">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AM13" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AN13" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ13">
-        <v>0.623</v>
-      </c>
-      <c r="AR13">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AU13" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ13" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA13" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0.3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" t="s">
-        <v>107</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>130</v>
-      </c>
-      <c r="L14" t="s">
-        <v>136</v>
-      </c>
-      <c r="M14">
-        <v>6</v>
-      </c>
-      <c r="N14">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="O14" t="s">
-        <v>96</v>
-      </c>
-      <c r="P14">
-        <v>0.45</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>3</v>
-      </c>
-      <c r="S14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="T14">
-        <v>62</v>
-      </c>
-      <c r="U14">
-        <v>5</v>
-      </c>
-      <c r="V14" t="s">
-        <v>79</v>
-      </c>
-      <c r="W14">
-        <v>0.03</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA14">
-        <v>14</v>
-      </c>
-      <c r="AB14">
-        <v>0.03</v>
-      </c>
-      <c r="AC14">
-        <v>6</v>
-      </c>
-      <c r="AD14">
-        <v>1.2</v>
-      </c>
-      <c r="AE14">
-        <v>0.8</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK14">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AL14">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AM14" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AN14" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ14">
-        <v>0.623</v>
-      </c>
-      <c r="AR14">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AU14" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV14" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW14" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ14" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA14" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0.3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" t="s">
-        <v>112</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L16" t="s">
-        <v>136</v>
-      </c>
-      <c r="M16">
-        <v>6</v>
-      </c>
-      <c r="N16">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="O16" t="s">
-        <v>96</v>
-      </c>
-      <c r="P16">
-        <v>0.45</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>3</v>
-      </c>
-      <c r="S16">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="T16">
-        <v>62</v>
-      </c>
-      <c r="U16">
-        <v>5</v>
-      </c>
-      <c r="V16" t="s">
-        <v>79</v>
-      </c>
-      <c r="W16">
-        <v>0.03</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA16">
-        <v>14</v>
-      </c>
-      <c r="AB16">
-        <v>0.03</v>
-      </c>
-      <c r="AC16">
-        <v>6</v>
-      </c>
-      <c r="AD16">
-        <v>1.2</v>
-      </c>
-      <c r="AE16">
-        <v>0.8</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AL16">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AM16" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AN16" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ16">
-        <v>0.623</v>
-      </c>
-      <c r="AR16">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AU16" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV16" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW16" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ16" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA16" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0.3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>130</v>
-      </c>
-      <c r="L17" t="s">
-        <v>136</v>
-      </c>
-      <c r="M17">
-        <v>6</v>
-      </c>
-      <c r="N17">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="O17" t="s">
-        <v>96</v>
-      </c>
-      <c r="P17">
-        <v>0.45</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>3</v>
-      </c>
-      <c r="S17">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="T17">
-        <v>62</v>
-      </c>
-      <c r="U17">
-        <v>5</v>
-      </c>
-      <c r="V17" t="s">
-        <v>79</v>
-      </c>
-      <c r="W17">
-        <v>0.03</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA17">
-        <v>14</v>
-      </c>
-      <c r="AB17">
-        <v>0.03</v>
-      </c>
-      <c r="AC17">
-        <v>6</v>
-      </c>
-      <c r="AD17">
-        <v>1.2</v>
-      </c>
-      <c r="AE17">
-        <v>0.8</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AL17">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AM17" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AN17" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ17">
-        <v>0.623</v>
-      </c>
-      <c r="AR17">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AU17" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV17" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW17" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX17" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ17" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA17" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0.3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" t="s">
-        <v>136</v>
-      </c>
-      <c r="M19">
-        <v>6</v>
-      </c>
-      <c r="N19">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="O19" t="s">
-        <v>96</v>
-      </c>
-      <c r="P19">
-        <v>0.45</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>3</v>
-      </c>
-      <c r="S19">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="T19">
-        <v>62</v>
-      </c>
-      <c r="U19">
-        <v>5</v>
-      </c>
-      <c r="V19" t="s">
-        <v>79</v>
-      </c>
-      <c r="W19">
-        <v>0.03</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA19">
-        <v>14</v>
-      </c>
-      <c r="AB19">
-        <v>0.03</v>
-      </c>
-      <c r="AC19">
-        <v>6</v>
-      </c>
-      <c r="AD19">
-        <v>1.2</v>
-      </c>
-      <c r="AE19">
-        <v>0.8</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AL19">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AM19" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AN19" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ19">
-        <v>0.623</v>
-      </c>
-      <c r="AR19">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AU19" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV19" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW19" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX19" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ19" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA19" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0.3</v>
-      </c>
-      <c r="G20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
-        <v>130</v>
-      </c>
-      <c r="L20" t="s">
-        <v>136</v>
-      </c>
-      <c r="M20">
-        <v>6</v>
-      </c>
-      <c r="N20">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="O20" t="s">
-        <v>96</v>
-      </c>
-      <c r="P20">
-        <v>0.45</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>3</v>
-      </c>
-      <c r="S20">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="T20">
-        <v>62</v>
-      </c>
-      <c r="U20">
-        <v>5</v>
-      </c>
-      <c r="V20" t="s">
-        <v>79</v>
-      </c>
-      <c r="W20">
-        <v>0.03</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA20">
-        <v>14</v>
-      </c>
-      <c r="AB20">
-        <v>0.03</v>
-      </c>
-      <c r="AC20">
-        <v>6</v>
-      </c>
-      <c r="AD20">
-        <v>1.2</v>
-      </c>
-      <c r="AE20">
-        <v>0.8</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK20">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AL20">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AM20" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AN20" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ20">
-        <v>0.623</v>
-      </c>
-      <c r="AR20">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AU20" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV20" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW20" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY20" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ20" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA20" s="37" t="b">
+      <c r="BB40" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC40" s="37" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV19:AW20 J19:J20 E5:E17 AV5:AW17 J5:J17 E19:E20" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX33:AY34 L33:L34 F33:F34 F38:F40 AX38:AY40 K38:L40 K26:K34 L26:L31 AX5:AY31 K5:L28 F5:F31" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI5:AI17 AI19:AI20" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK33:AK34 AK38:AK40 AK5:AK31" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3485,7 +5501,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3565,10 +5581,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3847,7 +5863,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F11" s="14">
-        <f t="shared" ref="F11:F16" si="7">B11 - C11^2/2</f>
+        <f t="shared" ref="F11:F20" si="7">B11 - C11^2/2</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G11" s="13" t="s">
@@ -3976,6 +5992,406 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="G16" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <f>F17</f>
+        <v>0.13</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="7"/>
+        <v>0.13</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.128</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" ref="E18:E20" si="9">F18</f>
+        <v>0.128</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="7"/>
+        <v>0.128</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="9"/>
+        <v>0.02</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="7"/>
+        <v>0.02</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="4">
+        <v>-0.24</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="9"/>
+        <v>-0.24</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="7"/>
+        <v>-0.24</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" ref="E21:E24" si="10">F21</f>
+        <v>0.12</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" ref="F21:F28" si="11">B21 - C21^2/2</f>
+        <v>0.12</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="10"/>
+        <v>0.13</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="11"/>
+        <v>0.13</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="10"/>
+        <v>0.11</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="11"/>
+        <v>0.11</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>26</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="F24" s="14">
+        <f t="shared" si="11"/>
+        <v>0.05</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <f>F25</f>
+        <v>0.13</v>
+      </c>
+      <c r="F25" s="14">
+        <f t="shared" si="11"/>
+        <v>0.13</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.128</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" ref="E26:E32" si="12">F26</f>
+        <v>0.128</v>
+      </c>
+      <c r="F26" s="14">
+        <f t="shared" si="11"/>
+        <v>0.128</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="F27" s="14">
+        <f t="shared" si="11"/>
+        <v>0.02</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="4">
+        <v>-0.24</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="12"/>
+        <v>-0.24</v>
+      </c>
+      <c r="F28" s="14">
+        <f t="shared" si="11"/>
+        <v>-0.24</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="12"/>
+        <v>0.12</v>
+      </c>
+      <c r="F29" s="14">
+        <f t="shared" ref="F29:F32" si="13">B29 - C29^2/2</f>
+        <v>0.12</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="12"/>
+        <v>0.13</v>
+      </c>
+      <c r="F30" s="14">
+        <f t="shared" si="13"/>
+        <v>0.13</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="12"/>
+        <v>0.11</v>
+      </c>
+      <c r="F31" s="14">
+        <f t="shared" si="13"/>
+        <v>0.11</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>26</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="12"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F32" s="14">
+        <f t="shared" si="13"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G32" s="13" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3990,7 +6406,7 @@
   <dimension ref="B4:J40"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4018,10 +6434,10 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="41"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8BEF5E-EE0D-4A30-A766-728E1FF98258}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E94FBB-F326-4E04-AA4C-A802FB697A88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,7 +697,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -776,6 +776,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -815,7 +821,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -885,6 +891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1344,7 +1351,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3496,8 +3503,8 @@
       <c r="D21" t="s">
         <v>138</v>
       </c>
-      <c r="F21" t="b">
-        <v>0</v>
+      <c r="F21" s="43" t="b">
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0.3</v>
@@ -3648,8 +3655,8 @@
       <c r="D22" t="s">
         <v>161</v>
       </c>
-      <c r="F22" t="b">
-        <v>0</v>
+      <c r="F22" s="43" t="b">
+        <v>1</v>
       </c>
       <c r="G22">
         <v>0.3</v>
@@ -3805,7 +3812,7 @@
         <v>138</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0.3</v>
@@ -3957,7 +3964,7 @@
         <v>161</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0.3</v>
@@ -4427,8 +4434,8 @@
       <c r="D30" t="s">
         <v>21</v>
       </c>
-      <c r="F30" t="b">
-        <v>0</v>
+      <c r="F30" s="43" t="b">
+        <v>1</v>
       </c>
       <c r="G30">
         <v>0.3</v>
@@ -4579,8 +4586,8 @@
       <c r="D31" t="s">
         <v>21</v>
       </c>
-      <c r="F31" t="b">
-        <v>0</v>
+      <c r="F31" s="43" t="b">
+        <v>1</v>
       </c>
       <c r="G31">
         <v>0.3</v>
@@ -4731,8 +4738,8 @@
       <c r="D33" t="s">
         <v>21</v>
       </c>
-      <c r="F33" t="b">
-        <v>0</v>
+      <c r="F33" s="43" t="b">
+        <v>1</v>
       </c>
       <c r="G33">
         <v>0.3</v>
@@ -4883,8 +4890,8 @@
       <c r="D34" t="s">
         <v>21</v>
       </c>
-      <c r="F34" t="b">
-        <v>0</v>
+      <c r="F34" s="43" t="b">
+        <v>1</v>
       </c>
       <c r="G34">
         <v>0.3</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E94FBB-F326-4E04-AA4C-A802FB697A88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE867CDC-F114-457A-845C-A168DAC2384D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1351,7 +1351,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomRight" activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3504,7 +3504,7 @@
         <v>138</v>
       </c>
       <c r="F21" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0.3</v>
@@ -3656,7 +3656,7 @@
         <v>161</v>
       </c>
       <c r="F22" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0.3</v>
@@ -3836,7 +3836,7 @@
         <v>130</v>
       </c>
       <c r="N24" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="O24">
         <v>6</v>
@@ -4116,7 +4116,7 @@
         <v>138</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0.3</v>
@@ -4140,7 +4140,7 @@
         <v>130</v>
       </c>
       <c r="N26" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="O26">
         <v>6</v>
@@ -4268,7 +4268,7 @@
         <v>161</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>0.3</v>
@@ -4435,7 +4435,7 @@
         <v>21</v>
       </c>
       <c r="F30" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0.3</v>
@@ -4459,7 +4459,7 @@
         <v>130</v>
       </c>
       <c r="N30" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="O30">
         <v>6</v>
@@ -4587,7 +4587,7 @@
         <v>21</v>
       </c>
       <c r="F31" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0.3</v>
@@ -4611,7 +4611,7 @@
         <v>130</v>
       </c>
       <c r="N31" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="O31">
         <v>6</v>
@@ -4739,7 +4739,7 @@
         <v>21</v>
       </c>
       <c r="F33" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0.3</v>
@@ -4763,7 +4763,7 @@
         <v>130</v>
       </c>
       <c r="N33" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="O33">
         <v>6</v>
@@ -4891,7 +4891,7 @@
         <v>21</v>
       </c>
       <c r="F34" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0.3</v>
@@ -4915,7 +4915,7 @@
         <v>130</v>
       </c>
       <c r="N34" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="O34">
         <v>6</v>
@@ -5490,7 +5490,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX33:AY34 L33:L34 F33:F34 F38:F40 AX38:AY40 K38:L40 K26:K34 L26:L31 AX5:AY31 K5:L28 F5:F31" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX33:AY34 L33:L34 F5:F31 F38:F40 AX38:AY40 K38:L40 K26:K34 L26:L31 AX5:AY31 K5:L28 F33:F34" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK33:AK34 AK38:AK40 AK5:AK31" xr:uid="{00000000-0002-0000-0000-000001000000}">
@@ -5591,7 +5591,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE867CDC-F114-457A-845C-A168DAC2384D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274CF2EF-4361-4A9F-8F2A-00CB6F41487D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="181">
   <si>
     <t>runname</t>
   </si>
@@ -640,6 +640,9 @@
   </si>
   <si>
     <t>t4a_TDAamortAS_OYLM_DF2</t>
+  </si>
+  <si>
+    <t>corridor</t>
   </si>
 </sst>
 </file>
@@ -888,10 +891,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1345,13 +1348,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:BC40"/>
+  <dimension ref="A3:BD40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N36" sqref="N36"/>
+      <selection pane="bottomRight" activeCell="F33" sqref="F33:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,23 +1386,24 @@
     <col min="32" max="32" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14" customWidth="1"/>
-    <col min="36" max="36" width="13.42578125" customWidth="1"/>
-    <col min="37" max="37" width="12.5703125" customWidth="1"/>
-    <col min="38" max="38" width="14.85546875" customWidth="1"/>
-    <col min="43" max="43" width="12" customWidth="1"/>
-    <col min="44" max="44" width="12.28515625" customWidth="1"/>
-    <col min="47" max="47" width="15.140625" customWidth="1"/>
-    <col min="48" max="49" width="16.5703125" customWidth="1"/>
-    <col min="50" max="50" width="12" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.28515625" customWidth="1"/>
-    <col min="54" max="54" width="11.42578125" customWidth="1"/>
-    <col min="55" max="55" width="14.28515625" customWidth="1"/>
+    <col min="35" max="35" width="8.7109375" customWidth="1"/>
+    <col min="36" max="36" width="14" customWidth="1"/>
+    <col min="37" max="37" width="13.42578125" customWidth="1"/>
+    <col min="38" max="38" width="12.5703125" customWidth="1"/>
+    <col min="39" max="39" width="14.85546875" customWidth="1"/>
+    <col min="44" max="44" width="12" customWidth="1"/>
+    <col min="45" max="45" width="12.28515625" customWidth="1"/>
+    <col min="48" max="48" width="15.140625" customWidth="1"/>
+    <col min="49" max="50" width="16.5703125" customWidth="1"/>
+    <col min="51" max="51" width="12" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="18" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.28515625" customWidth="1"/>
+    <col min="55" max="55" width="11.42578125" customWidth="1"/>
+    <col min="56" max="56" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:55" s="36" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" s="36" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -1448,37 +1452,38 @@
       <c r="AF3" s="32"/>
       <c r="AG3" s="32"/>
       <c r="AH3" s="32"/>
-      <c r="AI3" s="33" t="s">
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="34" t="s">
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="AL3" s="34"/>
       <c r="AM3" s="34"/>
       <c r="AN3" s="34"/>
       <c r="AO3" s="34"/>
       <c r="AP3" s="34"/>
-      <c r="AQ3" s="30" t="s">
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="AR3" s="30"/>
       <c r="AS3" s="30"/>
       <c r="AT3" s="30"/>
       <c r="AU3" s="30"/>
       <c r="AV3" s="30"/>
-      <c r="AW3" s="35" t="s">
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="AX3" s="35"/>
       <c r="AY3" s="35"/>
       <c r="AZ3" s="35"/>
       <c r="BA3" s="35"/>
       <c r="BB3" s="35"/>
       <c r="BC3" s="35"/>
-    </row>
-    <row r="4" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BD3" s="35"/>
+    </row>
+    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
@@ -1579,71 +1584,74 @@
       <c r="AH4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="AI4" s="25" t="s">
+      <c r="AI4" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="AJ4" s="25" t="s">
+      <c r="AK4" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="AK4" s="19" t="s">
+      <c r="AL4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AL4" s="19" t="s">
+      <c r="AM4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AM4" s="19" t="s">
+      <c r="AN4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AN4" s="19" t="s">
+      <c r="AO4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AO4" s="19" t="s">
+      <c r="AP4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AP4" s="19" t="s">
+      <c r="AQ4" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="AQ4" s="20" t="s">
+      <c r="AR4" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="AR4" s="20" t="s">
+      <c r="AS4" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="AS4" s="20" t="s">
+      <c r="AT4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="AT4" s="20" t="s">
+      <c r="AU4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AU4" s="20" t="s">
+      <c r="AV4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AV4" s="20" t="s">
+      <c r="AW4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AW4" s="24" t="s">
+      <c r="AX4" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="AX4" s="24" t="s">
+      <c r="AY4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AY4" s="24" t="s">
+      <c r="AZ4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AZ4" s="24" t="s">
+      <c r="BA4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="BA4" s="24" t="s">
+      <c r="BB4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="BB4" s="24" t="s">
+      <c r="BC4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BC4" s="24" t="s">
+      <c r="BD4" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>132</v>
       </c>
@@ -1737,65 +1745,65 @@
       <c r="AH5" t="s">
         <v>86</v>
       </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="s">
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="s">
         <v>128</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>21</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO5" s="3">
+      <c r="AP5" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP5" s="9">
+      <c r="AQ5" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>32</v>
       </c>
       <c r="AR5" t="s">
         <v>32</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT5">
         <v>0.623</v>
       </c>
-      <c r="AT5">
+      <c r="AU5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW5" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX5" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY5" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ5" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="17" t="s">
+      <c r="AZ5" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB5" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC5" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC5" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -1889,76 +1897,76 @@
       <c r="AH6" t="s">
         <v>86</v>
       </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="s">
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="s">
         <v>128</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>21</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO6" s="3">
+      <c r="AP6" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP6" s="9">
+      <c r="AQ6" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>32</v>
       </c>
       <c r="AR6" t="s">
         <v>32</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT6">
         <v>0.623</v>
       </c>
-      <c r="AT6">
+      <c r="AU6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW6" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX6" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY6" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ6" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="17" t="s">
+      <c r="AZ6" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB6" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="9"/>
-      <c r="AW7" s="17"/>
+      <c r="BC6" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="9"/>
       <c r="AX7" s="17"/>
       <c r="AY7" s="17"/>
       <c r="AZ7" s="17"/>
       <c r="BA7" s="17"/>
       <c r="BB7" s="17"/>
-      <c r="BC7" s="37"/>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC7" s="17"/>
+      <c r="BD7" s="37"/>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -2052,65 +2060,65 @@
       <c r="AH8" t="s">
         <v>86</v>
       </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="s">
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="s">
         <v>128</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>21</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO8" s="3">
+      <c r="AP8" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP8" s="9">
+      <c r="AQ8" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>32</v>
       </c>
       <c r="AR8" t="s">
         <v>32</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT8">
         <v>0.623</v>
       </c>
-      <c r="AT8">
+      <c r="AU8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW8" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX8" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY8" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ8" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="17" t="s">
+      <c r="AZ8" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB8" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC8" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC8" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -2204,76 +2212,76 @@
       <c r="AH9" t="s">
         <v>86</v>
       </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="s">
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="s">
         <v>128</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>21</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO9" s="3">
+      <c r="AP9" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP9" s="9">
+      <c r="AQ9" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>32</v>
       </c>
       <c r="AR9" t="s">
         <v>32</v>
       </c>
-      <c r="AS9">
+      <c r="AS9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT9">
         <v>0.623</v>
       </c>
-      <c r="AT9">
+      <c r="AU9">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW9" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX9" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY9" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ9" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="17" t="s">
+      <c r="AZ9" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB9" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC9" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="9"/>
-      <c r="AW10" s="17"/>
+      <c r="BC9" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="9"/>
       <c r="AX10" s="17"/>
       <c r="AY10" s="17"/>
       <c r="AZ10" s="17"/>
       <c r="BA10" s="17"/>
       <c r="BB10" s="17"/>
-      <c r="BC10" s="37"/>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC10" s="17"/>
+      <c r="BD10" s="37"/>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>141</v>
       </c>
@@ -2283,7 +2291,7 @@
       <c r="D11" t="s">
         <v>139</v>
       </c>
-      <c r="F11" t="b">
+      <c r="F11" s="42" t="b">
         <v>0</v>
       </c>
       <c r="G11">
@@ -2367,65 +2375,65 @@
       <c r="AH11" t="s">
         <v>86</v>
       </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="s">
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="s">
         <v>128</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>21</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO11" s="3">
+      <c r="AP11" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP11" s="9">
+      <c r="AQ11" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>32</v>
       </c>
       <c r="AR11" t="s">
         <v>32</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT11">
         <v>0.623</v>
       </c>
-      <c r="AT11">
+      <c r="AU11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW11" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX11" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY11" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ11" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="17" t="s">
+      <c r="AZ11" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB11" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC11" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC11" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>149</v>
       </c>
@@ -2435,7 +2443,7 @@
       <c r="D12" t="s">
         <v>139</v>
       </c>
-      <c r="F12" t="b">
+      <c r="F12" s="42" t="b">
         <v>0</v>
       </c>
       <c r="G12">
@@ -2519,65 +2527,65 @@
       <c r="AH12" t="s">
         <v>142</v>
       </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="s">
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="s">
         <v>128</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
         <v>21</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO12" s="3">
+      <c r="AP12" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP12" s="9">
+      <c r="AQ12" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>32</v>
       </c>
       <c r="AR12" t="s">
         <v>32</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT12">
         <v>0.623</v>
       </c>
-      <c r="AT12">
+      <c r="AU12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW12" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX12" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY12" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ12" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="17" t="s">
+      <c r="AZ12" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB12" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC12" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC12" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>145</v>
       </c>
@@ -2587,7 +2595,7 @@
       <c r="D13" t="s">
         <v>139</v>
       </c>
-      <c r="F13" t="b">
+      <c r="F13" s="42" t="b">
         <v>0</v>
       </c>
       <c r="G13">
@@ -2671,65 +2679,65 @@
       <c r="AH13" t="s">
         <v>86</v>
       </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="s">
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="s">
         <v>128</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
         <v>21</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO13" s="3">
+      <c r="AP13" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP13" s="9">
+      <c r="AQ13" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>32</v>
       </c>
       <c r="AR13" t="s">
         <v>32</v>
       </c>
-      <c r="AS13">
+      <c r="AS13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT13">
         <v>0.623</v>
       </c>
-      <c r="AT13">
+      <c r="AU13">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW13" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX13" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY13" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ13" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="17" t="s">
+      <c r="AZ13" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB13" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC13" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC13" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD13" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>148</v>
       </c>
@@ -2739,7 +2747,7 @@
       <c r="D14" t="s">
         <v>139</v>
       </c>
-      <c r="F14" t="b">
+      <c r="F14" s="42" t="b">
         <v>0</v>
       </c>
       <c r="G14">
@@ -2823,65 +2831,65 @@
       <c r="AH14" t="s">
         <v>86</v>
       </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="s">
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="s">
         <v>128</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>21</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO14" s="3">
+      <c r="AP14" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP14" s="9">
+      <c r="AQ14" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>32</v>
       </c>
       <c r="AR14" t="s">
         <v>32</v>
       </c>
-      <c r="AS14">
+      <c r="AS14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT14">
         <v>0.623</v>
       </c>
-      <c r="AT14">
+      <c r="AU14">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW14" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX14" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY14" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ14" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="17" t="s">
+      <c r="AZ14" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA14" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB14" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC14" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC14" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD14" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>146</v>
       </c>
@@ -2891,7 +2899,7 @@
       <c r="D15" t="s">
         <v>139</v>
       </c>
-      <c r="F15" t="b">
+      <c r="F15" s="42" t="b">
         <v>0</v>
       </c>
       <c r="G15">
@@ -2975,65 +2983,65 @@
       <c r="AH15" t="s">
         <v>86</v>
       </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="s">
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="s">
         <v>128</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AM15" t="s">
         <v>21</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO15" s="3">
+      <c r="AP15" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP15" s="9">
+      <c r="AQ15" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>32</v>
       </c>
       <c r="AR15" t="s">
         <v>32</v>
       </c>
-      <c r="AS15">
+      <c r="AS15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT15">
         <v>0.623</v>
       </c>
-      <c r="AT15">
+      <c r="AU15">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW15" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX15" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY15" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ15" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA15" s="17" t="s">
+      <c r="AZ15" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA15" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB15" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC15" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC15" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD15" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>147</v>
       </c>
@@ -3043,7 +3051,7 @@
       <c r="D16" t="s">
         <v>139</v>
       </c>
-      <c r="F16" t="b">
+      <c r="F16" s="42" t="b">
         <v>0</v>
       </c>
       <c r="G16">
@@ -3127,69 +3135,69 @@
       <c r="AH16" t="s">
         <v>86</v>
       </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="s">
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="s">
         <v>128</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AM16" t="s">
         <v>21</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO16" s="3">
+      <c r="AP16" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP16" s="9">
+      <c r="AQ16" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>32</v>
       </c>
       <c r="AR16" t="s">
         <v>32</v>
       </c>
-      <c r="AS16">
+      <c r="AS16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT16">
         <v>0.623</v>
       </c>
-      <c r="AT16">
+      <c r="AU16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW16" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX16" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY16" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ16" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="17" t="s">
+      <c r="AZ16" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA16" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB16" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC16" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AO17" s="3"/>
+      <c r="BC16" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD16" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="AP17" s="3"/>
-    </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AQ17" s="3"/>
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -3283,65 +3291,65 @@
       <c r="AH18" t="s">
         <v>86</v>
       </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="s">
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="s">
         <v>128</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AM18" t="s">
         <v>151</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO18" s="3">
+      <c r="AP18" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP18" s="9">
+      <c r="AQ18" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>32</v>
       </c>
       <c r="AR18" t="s">
         <v>32</v>
       </c>
-      <c r="AS18">
+      <c r="AS18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT18">
         <v>0.623</v>
       </c>
-      <c r="AT18">
+      <c r="AU18">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW18" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX18" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY18" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ18" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA18" s="17" t="s">
+      <c r="AZ18" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB18" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC18" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC18" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD18" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -3435,65 +3443,65 @@
       <c r="AH19" t="s">
         <v>86</v>
       </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="s">
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="s">
         <v>128</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AM19" t="s">
         <v>151</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO19" s="3">
+      <c r="AP19" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP19" s="9">
+      <c r="AQ19" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>32</v>
       </c>
       <c r="AR19" t="s">
         <v>32</v>
       </c>
-      <c r="AS19">
+      <c r="AS19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT19">
         <v>0.623</v>
       </c>
-      <c r="AT19">
+      <c r="AU19">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW19" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX19" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY19" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ19" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA19" s="17" t="s">
+      <c r="AZ19" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA19" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB19" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC19" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC19" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD19" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -3503,8 +3511,8 @@
       <c r="D21" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="43" t="b">
-        <v>0</v>
+      <c r="F21" s="42" t="b">
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0.3</v>
@@ -3587,65 +3595,65 @@
       <c r="AH21" t="s">
         <v>86</v>
       </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="s">
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="s">
         <v>128</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AM21" t="s">
         <v>154</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO21" s="3">
+      <c r="AP21" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP21" s="9">
+      <c r="AQ21" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>32</v>
       </c>
       <c r="AR21" t="s">
         <v>32</v>
       </c>
-      <c r="AS21">
+      <c r="AS21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT21">
         <v>0.623</v>
       </c>
-      <c r="AT21">
+      <c r="AU21">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW21" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX21" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY21" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ21" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA21" s="17" t="s">
+      <c r="AZ21" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA21" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB21" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC21" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC21" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD21" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>169</v>
       </c>
@@ -3655,8 +3663,8 @@
       <c r="D22" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="43" t="b">
-        <v>0</v>
+      <c r="F22" s="42" t="b">
+        <v>1</v>
       </c>
       <c r="G22">
         <v>0.3</v>
@@ -3739,69 +3747,69 @@
       <c r="AH22" t="s">
         <v>86</v>
       </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="s">
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="s">
         <v>128</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AM22" t="s">
         <v>154</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO22" s="3">
+      <c r="AP22" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP22" s="9">
+      <c r="AQ22" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>32</v>
       </c>
       <c r="AR22" t="s">
         <v>32</v>
       </c>
-      <c r="AS22">
+      <c r="AS22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT22">
         <v>0.623</v>
       </c>
-      <c r="AT22">
+      <c r="AU22">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW22" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX22" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY22" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ22" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA22" s="17" t="s">
+      <c r="AZ22" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA22" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB22" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC22" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AO23" s="3"/>
+      <c r="BC22" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD22" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="AP23" s="3"/>
-    </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AQ23" s="3"/>
+    </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -3895,65 +3903,65 @@
       <c r="AH24" t="s">
         <v>86</v>
       </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="s">
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="s">
         <v>128</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AM24" t="s">
         <v>174</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO24" s="3">
+      <c r="AP24" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP24" s="9">
+      <c r="AQ24" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>32</v>
       </c>
       <c r="AR24" t="s">
         <v>32</v>
       </c>
-      <c r="AS24">
+      <c r="AS24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT24">
         <v>0.623</v>
       </c>
-      <c r="AT24">
+      <c r="AU24">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW24" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX24" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY24" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ24" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA24" s="17" t="s">
+      <c r="AZ24" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA24" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB24" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC24" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC24" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD24" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>177</v>
       </c>
@@ -4047,65 +4055,65 @@
       <c r="AH25" t="s">
         <v>86</v>
       </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="s">
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="s">
         <v>128</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AM25" t="s">
         <v>174</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO25" s="3">
+      <c r="AP25" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP25" s="9">
+      <c r="AQ25" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>32</v>
       </c>
       <c r="AR25" t="s">
         <v>32</v>
       </c>
-      <c r="AS25">
+      <c r="AS25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT25">
         <v>0.623</v>
       </c>
-      <c r="AT25">
+      <c r="AU25">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW25" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX25" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY25" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ25" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA25" s="17" t="s">
+      <c r="AZ25" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA25" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB25" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC25" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC25" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD25" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>178</v>
       </c>
@@ -4115,7 +4123,7 @@
       <c r="D26" t="s">
         <v>138</v>
       </c>
-      <c r="F26" t="b">
+      <c r="F26" s="42" t="b">
         <v>1</v>
       </c>
       <c r="G26">
@@ -4199,65 +4207,65 @@
       <c r="AH26" t="s">
         <v>86</v>
       </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="s">
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="s">
         <v>128</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AM26" t="s">
         <v>175</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO26" s="3">
+      <c r="AP26" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP26" s="9">
+      <c r="AQ26" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>32</v>
       </c>
       <c r="AR26" t="s">
         <v>32</v>
       </c>
-      <c r="AS26">
+      <c r="AS26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT26">
         <v>0.623</v>
       </c>
-      <c r="AT26">
+      <c r="AU26">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW26" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX26" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY26" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ26" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA26" s="17" t="s">
+      <c r="AZ26" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA26" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB26" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC26" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC26" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD26" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>179</v>
       </c>
@@ -4267,7 +4275,7 @@
       <c r="D27" t="s">
         <v>161</v>
       </c>
-      <c r="F27" t="b">
+      <c r="F27" s="42" t="b">
         <v>1</v>
       </c>
       <c r="G27">
@@ -4351,80 +4359,80 @@
       <c r="AH27" t="s">
         <v>86</v>
       </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="s">
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="s">
         <v>128</v>
       </c>
-      <c r="AL27" t="s">
+      <c r="AM27" t="s">
         <v>175</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO27" s="3">
+      <c r="AP27" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP27" s="9">
+      <c r="AQ27" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>32</v>
       </c>
       <c r="AR27" t="s">
         <v>32</v>
       </c>
-      <c r="AS27">
+      <c r="AS27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT27">
         <v>0.623</v>
       </c>
-      <c r="AT27">
+      <c r="AU27">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW27" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX27" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY27" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ27" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA27" s="17" t="s">
+      <c r="AZ27" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA27" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB27" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC27" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="9"/>
-      <c r="AW28" s="17"/>
+      <c r="BC27" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD27" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="9"/>
       <c r="AX28" s="17"/>
       <c r="AY28" s="17"/>
       <c r="AZ28" s="17"/>
       <c r="BA28" s="17"/>
       <c r="BB28" s="17"/>
-      <c r="BC28" s="37"/>
-    </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AO29" s="3"/>
+      <c r="BC28" s="17"/>
+      <c r="BD28" s="37"/>
+    </row>
+    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="AP29" s="3"/>
-    </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AQ29" s="3"/>
+    </row>
+    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -4434,7 +4442,7 @@
       <c r="D30" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="43" t="b">
+      <c r="F30" s="42" t="b">
         <v>0</v>
       </c>
       <c r="G30">
@@ -4518,65 +4526,65 @@
       <c r="AH30" t="s">
         <v>86</v>
       </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="s">
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="s">
         <v>128</v>
       </c>
-      <c r="AL30" t="s">
+      <c r="AM30" t="s">
         <v>21</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO30" s="3">
+      <c r="AP30" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP30" s="9">
+      <c r="AQ30" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>32</v>
       </c>
       <c r="AR30" t="s">
         <v>32</v>
       </c>
-      <c r="AS30">
+      <c r="AS30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT30">
         <v>0.623</v>
       </c>
-      <c r="AT30">
+      <c r="AU30">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW30" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX30" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY30" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ30" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA30" s="17" t="s">
+      <c r="AZ30" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA30" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB30" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC30" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC30" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD30" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -4586,7 +4594,7 @@
       <c r="D31" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="43" t="b">
+      <c r="F31" s="42" t="b">
         <v>0</v>
       </c>
       <c r="G31">
@@ -4670,65 +4678,65 @@
       <c r="AH31" t="s">
         <v>86</v>
       </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="s">
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="s">
         <v>128</v>
       </c>
-      <c r="AL31" t="s">
+      <c r="AM31" t="s">
         <v>21</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO31" s="3">
+      <c r="AP31" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP31" s="9">
+      <c r="AQ31" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>32</v>
       </c>
       <c r="AR31" t="s">
         <v>32</v>
       </c>
-      <c r="AS31">
+      <c r="AS31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT31">
         <v>0.623</v>
       </c>
-      <c r="AT31">
+      <c r="AU31">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW31" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX31" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY31" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ31" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA31" s="17" t="s">
+      <c r="AZ31" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA31" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB31" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC31" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC31" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD31" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -4738,7 +4746,7 @@
       <c r="D33" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="43" t="b">
+      <c r="F33" s="42" t="b">
         <v>0</v>
       </c>
       <c r="G33">
@@ -4822,65 +4830,65 @@
       <c r="AH33" t="s">
         <v>86</v>
       </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="s">
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="s">
         <v>128</v>
       </c>
-      <c r="AL33" t="s">
+      <c r="AM33" t="s">
         <v>21</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO33" s="3">
+      <c r="AP33" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP33" s="9">
+      <c r="AQ33" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>32</v>
       </c>
       <c r="AR33" t="s">
         <v>32</v>
       </c>
-      <c r="AS33">
+      <c r="AS33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT33">
         <v>0.623</v>
       </c>
-      <c r="AT33">
+      <c r="AU33">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW33" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX33" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY33" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ33" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA33" s="17" t="s">
+      <c r="AZ33" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA33" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB33" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB33" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC33" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC33" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD33" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -4890,7 +4898,7 @@
       <c r="D34" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="43" t="b">
+      <c r="F34" s="42" t="b">
         <v>0</v>
       </c>
       <c r="G34">
@@ -4974,65 +4982,65 @@
       <c r="AH34" t="s">
         <v>86</v>
       </c>
-      <c r="AI34">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="s">
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="s">
         <v>128</v>
       </c>
-      <c r="AL34" t="s">
+      <c r="AM34" t="s">
         <v>21</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO34" s="3">
+      <c r="AP34" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP34" s="9">
+      <c r="AQ34" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>32</v>
       </c>
       <c r="AR34" t="s">
         <v>32</v>
       </c>
-      <c r="AS34">
+      <c r="AS34" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT34">
         <v>0.623</v>
       </c>
-      <c r="AT34">
+      <c r="AU34">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW34" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX34" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY34" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ34" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA34" s="17" t="s">
+      <c r="AZ34" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA34" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB34" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB34" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC34" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC34" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD34" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
         <v>135</v>
       </c>
@@ -5126,65 +5134,65 @@
       <c r="AH38" t="s">
         <v>86</v>
       </c>
-      <c r="AI38">
-        <v>0</v>
-      </c>
-      <c r="AJ38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK38" t="s">
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="s">
         <v>128</v>
       </c>
-      <c r="AL38" t="s">
+      <c r="AM38" t="s">
         <v>21</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO38" s="3">
+      <c r="AP38" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP38" s="9">
+      <c r="AQ38" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ38" t="s">
-        <v>32</v>
       </c>
       <c r="AR38" t="s">
         <v>32</v>
       </c>
-      <c r="AS38">
+      <c r="AS38" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT38">
         <v>0.623</v>
       </c>
-      <c r="AT38">
+      <c r="AU38">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW38" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX38" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY38" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ38" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA38" s="17" t="s">
+      <c r="AZ38" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA38" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB38" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB38" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC38" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC38" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD38" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>165</v>
       </c>
@@ -5278,65 +5286,65 @@
       <c r="AH39" t="s">
         <v>86</v>
       </c>
-      <c r="AI39">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK39" t="s">
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="s">
         <v>128</v>
       </c>
-      <c r="AL39" t="s">
+      <c r="AM39" t="s">
         <v>21</v>
       </c>
-      <c r="AM39">
+      <c r="AN39">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN39">
+      <c r="AO39">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO39" s="3">
+      <c r="AP39" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP39" s="9">
+      <c r="AQ39" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ39" t="s">
-        <v>32</v>
       </c>
       <c r="AR39" t="s">
         <v>32</v>
       </c>
-      <c r="AS39">
+      <c r="AS39" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT39">
         <v>0.623</v>
       </c>
-      <c r="AT39">
+      <c r="AU39">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW39" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX39" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY39" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ39" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA39" s="17" t="s">
+      <c r="AZ39" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA39" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB39" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB39" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC39" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BC39" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD39" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>134</v>
       </c>
@@ -5430,70 +5438,70 @@
       <c r="AH40" t="s">
         <v>86</v>
       </c>
-      <c r="AI40">
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK40" t="s">
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="s">
         <v>128</v>
       </c>
-      <c r="AL40" t="s">
+      <c r="AM40" t="s">
         <v>21</v>
       </c>
-      <c r="AM40">
+      <c r="AN40">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN40">
+      <c r="AO40">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AO40" s="3">
+      <c r="AP40" s="3">
         <v>0.12</v>
       </c>
-      <c r="AP40" s="9">
+      <c r="AQ40" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ40" t="s">
-        <v>32</v>
       </c>
       <c r="AR40" t="s">
         <v>32</v>
       </c>
-      <c r="AS40">
+      <c r="AS40" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT40">
         <v>0.623</v>
       </c>
-      <c r="AT40">
+      <c r="AU40">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AW40" s="17" t="b">
-        <v>1</v>
-      </c>
       <c r="AX40" s="17" t="b">
         <v>1</v>
       </c>
       <c r="AY40" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="AZ40" s="17">
-        <v>0</v>
-      </c>
-      <c r="BA40" s="17" t="s">
+      <c r="AZ40" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA40" s="17">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BB40" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC40" s="37" t="b">
+      <c r="BC40" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD40" s="37" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX33:AY34 L33:L34 F5:F31 F38:F40 AX38:AY40 K38:L40 K26:K34 L26:L31 AX5:AY31 K5:L28 F33:F34" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY33:AZ34 L33:L34 F5:F31 F38:F40 AY38:AZ40 K38:L40 K26:K34 L26:L31 AY5:AZ31 K5:L28 F33:F34" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK33:AK34 AK38:AK40 AK5:AK31" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL33:AL34 AL38:AL40 AL5:AL31" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6441,10 +6449,10 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="42"/>
+      <c r="G5" s="43"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274CF2EF-4361-4A9F-8F2A-00CB6F41487D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA41110D-0FD9-42A8-A711-C935D994F452}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -824,11 +824,11 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -844,7 +844,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -856,7 +856,6 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -864,7 +863,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -884,7 +882,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -1354,14 +1352,14 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F33" sqref="F33:F34"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="10" style="17" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="7" width="14.28515625" customWidth="1"/>
@@ -1403,251 +1401,251 @@
     <col min="56" max="56" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:56" s="36" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="32" t="s">
+    <row r="3" spans="1:56" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="30" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="29" t="s">
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="30" t="s">
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="31" t="s">
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="32" t="s">
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="33" t="s">
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="34" t="s">
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="34"/>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="34"/>
-      <c r="AR3" s="30" t="s">
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="35" t="s">
+      <c r="AS3" s="28"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="28"/>
+      <c r="AX3" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="AY3" s="35"/>
-      <c r="AZ3" s="35"/>
-      <c r="BA3" s="35"/>
-      <c r="BB3" s="35"/>
-      <c r="BC3" s="35"/>
-      <c r="BD3" s="35"/>
+      <c r="AY3" s="33"/>
+      <c r="AZ3" s="33"/>
+      <c r="BA3" s="33"/>
+      <c r="BB3" s="33"/>
+      <c r="BC3" s="33"/>
+      <c r="BD3" s="33"/>
     </row>
     <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="Q4" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="S4" s="26" t="s">
+      <c r="S4" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="T4" s="18" t="s">
+      <c r="T4" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="U4" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="V4" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="W4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="X4" s="20" t="s">
+      <c r="X4" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="Y4" s="20" t="s">
+      <c r="Y4" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="22" t="s">
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="22" t="s">
+      <c r="AB4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AC4" s="22" t="s">
+      <c r="AC4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="22" t="s">
+      <c r="AD4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="21" t="s">
+      <c r="AE4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AF4" s="21" t="s">
+      <c r="AF4" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="AG4" s="21" t="s">
+      <c r="AG4" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="AH4" s="21" t="s">
+      <c r="AH4" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AI4" s="21" t="s">
+      <c r="AI4" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="AJ4" s="25" t="s">
+      <c r="AJ4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AK4" s="25" t="s">
+      <c r="AK4" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="AL4" s="19" t="s">
+      <c r="AL4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="AM4" s="19" t="s">
+      <c r="AM4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AN4" s="19" t="s">
+      <c r="AN4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AO4" s="19" t="s">
+      <c r="AO4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AP4" s="19" t="s">
+      <c r="AP4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AQ4" s="19" t="s">
+      <c r="AQ4" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="AR4" s="20" t="s">
+      <c r="AR4" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="AS4" s="20" t="s">
+      <c r="AS4" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="AT4" s="20" t="s">
+      <c r="AT4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AU4" s="20" t="s">
+      <c r="AU4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AV4" s="20" t="s">
+      <c r="AV4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AW4" s="20" t="s">
+      <c r="AW4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AX4" s="24" t="s">
+      <c r="AX4" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="AY4" s="24" t="s">
+      <c r="AY4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AZ4" s="24" t="s">
+      <c r="AZ4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="BA4" s="24" t="s">
+      <c r="BA4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="BB4" s="24" t="s">
+      <c r="BB4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="BC4" s="24" t="s">
+      <c r="BC4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BD4" s="24" t="s">
+      <c r="BD4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1655,7 +1653,7 @@
       <c r="A5" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="17" t="b">
+      <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="s">
@@ -1781,25 +1779,25 @@
       <c r="AU5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX5" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY5" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA5" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="17" t="s">
+      <c r="AX5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="s">
         <v>4</v>
       </c>
-      <c r="BC5" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD5" s="37" t="b">
+      <c r="BC5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1807,7 +1805,7 @@
       <c r="A6" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="17" t="b">
+      <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="s">
@@ -1933,44 +1931,38 @@
       <c r="AU6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX6" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="17" t="s">
+      <c r="AX6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="s">
         <v>4</v>
       </c>
-      <c r="BC6" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="37" t="b">
+      <c r="BC6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="35" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="AP7" s="3"/>
       <c r="AQ7" s="9"/>
-      <c r="AX7" s="17"/>
-      <c r="AY7" s="17"/>
-      <c r="AZ7" s="17"/>
-      <c r="BA7" s="17"/>
-      <c r="BB7" s="17"/>
-      <c r="BC7" s="17"/>
-      <c r="BD7" s="37"/>
+      <c r="BD7" s="35"/>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="17" t="b">
+      <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="D8" t="s">
@@ -2096,25 +2088,25 @@
       <c r="AU8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX8" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY8" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ8" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA8" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="17" t="s">
+      <c r="AX8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="s">
         <v>4</v>
       </c>
-      <c r="BC8" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD8" s="37" t="b">
+      <c r="BC8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2122,14 +2114,14 @@
       <c r="A9" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="17" t="b">
+      <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>161</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0.3</v>
@@ -2248,50 +2240,44 @@
       <c r="AU9">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX9" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY9" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ9" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA9" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="17" t="s">
+      <c r="AX9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="s">
         <v>4</v>
       </c>
-      <c r="BC9" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD9" s="37" t="b">
+      <c r="BC9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="35" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="AP10" s="3"/>
       <c r="AQ10" s="9"/>
-      <c r="AX10" s="17"/>
-      <c r="AY10" s="17"/>
-      <c r="AZ10" s="17"/>
-      <c r="BA10" s="17"/>
-      <c r="BB10" s="17"/>
-      <c r="BC10" s="17"/>
-      <c r="BD10" s="37"/>
+      <c r="BD10" s="35"/>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="17" t="b">
+      <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="42" t="b">
+      <c r="F11" s="40" t="b">
         <v>0</v>
       </c>
       <c r="G11">
@@ -2411,25 +2397,25 @@
       <c r="AU11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX11" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY11" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ11" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA11" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="17" t="s">
+      <c r="AX11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="s">
         <v>4</v>
       </c>
-      <c r="BC11" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD11" s="37" t="b">
+      <c r="BC11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2437,13 +2423,13 @@
       <c r="A12" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="17" t="b">
+      <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="42" t="b">
+      <c r="F12" s="40" t="b">
         <v>0</v>
       </c>
       <c r="G12">
@@ -2563,25 +2549,25 @@
       <c r="AU12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX12" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY12" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ12" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA12" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="17" t="s">
+      <c r="AX12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="s">
         <v>4</v>
       </c>
-      <c r="BC12" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD12" s="37" t="b">
+      <c r="BC12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2589,13 +2575,13 @@
       <c r="A13" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="17" t="b">
+      <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="42" t="b">
+      <c r="F13" s="40" t="b">
         <v>0</v>
       </c>
       <c r="G13">
@@ -2715,25 +2701,25 @@
       <c r="AU13">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX13" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY13" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ13" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA13" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="17" t="s">
+      <c r="AX13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="s">
         <v>4</v>
       </c>
-      <c r="BC13" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD13" s="37" t="b">
+      <c r="BC13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD13" s="35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2741,13 +2727,13 @@
       <c r="A14" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="17" t="b">
+      <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="42" t="b">
+      <c r="F14" s="40" t="b">
         <v>0</v>
       </c>
       <c r="G14">
@@ -2867,25 +2853,25 @@
       <c r="AU14">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX14" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY14" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ14" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA14" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="17" t="s">
+      <c r="AX14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ14" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="s">
         <v>4</v>
       </c>
-      <c r="BC14" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD14" s="37" t="b">
+      <c r="BC14" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD14" s="35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2893,13 +2879,13 @@
       <c r="A15" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="17" t="b">
+      <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="42" t="b">
+      <c r="F15" s="40" t="b">
         <v>0</v>
       </c>
       <c r="G15">
@@ -3019,25 +3005,25 @@
       <c r="AU15">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX15" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY15" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ15" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA15" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB15" s="17" t="s">
+      <c r="AX15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="s">
         <v>4</v>
       </c>
-      <c r="BC15" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD15" s="37" t="b">
+      <c r="BC15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD15" s="35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3045,13 +3031,13 @@
       <c r="A16" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="17" t="b">
+      <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="42" t="b">
+      <c r="F16" s="40" t="b">
         <v>0</v>
       </c>
       <c r="G16">
@@ -3171,25 +3157,25 @@
       <c r="AU16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX16" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY16" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ16" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA16" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB16" s="17" t="s">
+      <c r="AX16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ16" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="s">
         <v>4</v>
       </c>
-      <c r="BC16" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD16" s="37" t="b">
+      <c r="BC16" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD16" s="35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3201,7 +3187,7 @@
       <c r="A18" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="17" t="b">
+      <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" t="s">
@@ -3327,25 +3313,25 @@
       <c r="AU18">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX18" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY18" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ18" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA18" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="17" t="s">
+      <c r="AX18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="s">
         <v>4</v>
       </c>
-      <c r="BC18" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD18" s="37" t="b">
+      <c r="BC18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD18" s="35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3353,7 +3339,7 @@
       <c r="A19" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="17" t="b">
+      <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="s">
@@ -3479,25 +3465,25 @@
       <c r="AU19">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX19" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY19" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ19" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA19" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB19" s="17" t="s">
+      <c r="AX19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="s">
         <v>4</v>
       </c>
-      <c r="BC19" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD19" s="37" t="b">
+      <c r="BC19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD19" s="35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3505,14 +3491,14 @@
       <c r="A21" t="s">
         <v>168</v>
       </c>
-      <c r="C21" s="17" t="b">
+      <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="42" t="b">
-        <v>1</v>
+      <c r="F21" s="40" t="b">
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0.3</v>
@@ -3631,25 +3617,25 @@
       <c r="AU21">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX21" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY21" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ21" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA21" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB21" s="17" t="s">
+      <c r="AX21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="s">
         <v>4</v>
       </c>
-      <c r="BC21" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD21" s="37" t="b">
+      <c r="BC21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD21" s="35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3657,14 +3643,14 @@
       <c r="A22" t="s">
         <v>169</v>
       </c>
-      <c r="C22" s="17" t="b">
+      <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="42" t="b">
-        <v>1</v>
+      <c r="F22" s="40" t="b">
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0.3</v>
@@ -3783,25 +3769,25 @@
       <c r="AU22">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX22" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY22" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ22" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA22" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB22" s="17" t="s">
+      <c r="AX22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="s">
         <v>4</v>
       </c>
-      <c r="BC22" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD22" s="37" t="b">
+      <c r="BC22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD22" s="35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3813,7 +3799,7 @@
       <c r="A24" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="17" t="b">
+      <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" t="s">
@@ -3939,25 +3925,25 @@
       <c r="AU24">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX24" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY24" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ24" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA24" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="17" t="s">
+      <c r="AX24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="s">
         <v>4</v>
       </c>
-      <c r="BC24" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD24" s="37" t="b">
+      <c r="BC24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD24" s="35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3965,7 +3951,7 @@
       <c r="A25" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="17" t="b">
+      <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" t="s">
@@ -4091,25 +4077,25 @@
       <c r="AU25">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX25" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY25" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ25" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA25" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB25" s="17" t="s">
+      <c r="AX25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ25" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="s">
         <v>4</v>
       </c>
-      <c r="BC25" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD25" s="37" t="b">
+      <c r="BC25" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD25" s="35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4117,14 +4103,14 @@
       <c r="A26" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="17" t="b">
+      <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="42" t="b">
-        <v>1</v>
+      <c r="F26" s="40" t="b">
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0.3</v>
@@ -4243,25 +4229,25 @@
       <c r="AU26">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX26" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY26" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ26" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA26" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB26" s="17" t="s">
+      <c r="AX26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="s">
         <v>4</v>
       </c>
-      <c r="BC26" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD26" s="37" t="b">
+      <c r="BC26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD26" s="35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4269,14 +4255,14 @@
       <c r="A27" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="17" t="b">
+      <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="42" t="b">
-        <v>1</v>
+      <c r="F27" s="40" t="b">
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0.3</v>
@@ -4395,38 +4381,32 @@
       <c r="AU27">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX27" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY27" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ27" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA27" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB27" s="17" t="s">
+      <c r="AX27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ27" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="s">
         <v>4</v>
       </c>
-      <c r="BC27" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD27" s="37" t="b">
+      <c r="BC27" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD27" s="35" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="AP28" s="3"/>
       <c r="AQ28" s="9"/>
-      <c r="AX28" s="17"/>
-      <c r="AY28" s="17"/>
-      <c r="AZ28" s="17"/>
-      <c r="BA28" s="17"/>
-      <c r="BB28" s="17"/>
-      <c r="BC28" s="17"/>
-      <c r="BD28" s="37"/>
+      <c r="BD28" s="35"/>
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="AP29" s="3"/>
@@ -4436,13 +4416,13 @@
       <c r="A30" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="17" t="b">
+      <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="42" t="b">
+      <c r="F30" s="40" t="b">
         <v>0</v>
       </c>
       <c r="G30">
@@ -4562,25 +4542,25 @@
       <c r="AU30">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX30" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY30" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ30" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA30" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB30" s="17" t="s">
+      <c r="AX30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ30" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="s">
         <v>4</v>
       </c>
-      <c r="BC30" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD30" s="37" t="b">
+      <c r="BC30" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD30" s="35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4588,13 +4568,13 @@
       <c r="A31" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="17" t="b">
+      <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="42" t="b">
+      <c r="F31" s="40" t="b">
         <v>0</v>
       </c>
       <c r="G31">
@@ -4714,25 +4694,25 @@
       <c r="AU31">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX31" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY31" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ31" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA31" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB31" s="17" t="s">
+      <c r="AX31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ31" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="s">
         <v>4</v>
       </c>
-      <c r="BC31" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD31" s="37" t="b">
+      <c r="BC31" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD31" s="35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4740,13 +4720,13 @@
       <c r="A33" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="17" t="b">
+      <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="42" t="b">
+      <c r="F33" s="40" t="b">
         <v>0</v>
       </c>
       <c r="G33">
@@ -4866,25 +4846,25 @@
       <c r="AU33">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX33" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY33" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ33" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA33" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB33" s="17" t="s">
+      <c r="AX33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33" t="s">
         <v>4</v>
       </c>
-      <c r="BC33" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD33" s="37" t="b">
+      <c r="BC33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD33" s="35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4892,13 +4872,13 @@
       <c r="A34" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="17" t="b">
+      <c r="C34" t="b">
         <v>1</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="42" t="b">
+      <c r="F34" s="40" t="b">
         <v>0</v>
       </c>
       <c r="G34">
@@ -5018,33 +4998,33 @@
       <c r="AU34">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX34" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY34" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ34" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA34" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB34" s="17" t="s">
+      <c r="AX34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34" t="s">
         <v>4</v>
       </c>
-      <c r="BC34" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD34" s="37" t="b">
+      <c r="BC34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD34" s="35" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="C38" s="17" t="b">
+      <c r="C38" t="b">
         <v>0</v>
       </c>
       <c r="D38" t="s">
@@ -5170,33 +5150,33 @@
       <c r="AU38">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX38" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY38" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ38" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA38" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB38" s="17" t="s">
+      <c r="AX38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ38" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38" t="s">
         <v>4</v>
       </c>
-      <c r="BC38" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD38" s="37" t="b">
+      <c r="BC38" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD38" s="35" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="17" t="b">
+      <c r="C39" t="b">
         <v>1</v>
       </c>
       <c r="D39" t="s">
@@ -5322,33 +5302,33 @@
       <c r="AU39">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX39" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY39" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ39" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA39" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB39" s="17" t="s">
+      <c r="AX39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ39" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39" t="s">
         <v>4</v>
       </c>
-      <c r="BC39" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD39" s="37" t="b">
+      <c r="BC39" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD39" s="35" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="17" t="b">
+      <c r="C40" t="b">
         <v>0</v>
       </c>
       <c r="D40" t="s">
@@ -5474,25 +5454,25 @@
       <c r="AU40">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX40" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY40" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ40" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA40" s="17">
-        <v>0</v>
-      </c>
-      <c r="BB40" s="17" t="s">
+      <c r="AX40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ40" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40" t="s">
         <v>4</v>
       </c>
-      <c r="BC40" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD40" s="37" t="b">
+      <c r="BC40" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD40" s="35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5652,11 +5632,11 @@
         <f>F2</f>
         <v>0.13</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <f t="shared" ref="F2:F5" si="0">B2 - C2^2/2</f>
         <v>0.13</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5677,11 +5657,11 @@
         <f t="shared" ref="E3:E5" si="1">F3</f>
         <v>0.128</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <f t="shared" si="0"/>
         <v>0.128</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5702,11 +5682,11 @@
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5727,11 +5707,11 @@
         <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5752,11 +5732,11 @@
         <f>F6</f>
         <v>0.13</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <f t="shared" ref="F6:F9" si="2">B6 - C6^2/2</f>
         <v>0.13</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5777,11 +5757,11 @@
         <f t="shared" ref="E7:E9" si="3">F7</f>
         <v>0.128</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <f t="shared" si="2"/>
         <v>0.128</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5802,11 +5782,11 @@
         <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5827,11 +5807,11 @@
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5852,11 +5832,11 @@
         <f t="shared" ref="E10" si="4">F10</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <f t="shared" ref="F10" si="5">B10 - C10^2/2</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5877,11 +5857,11 @@
         <f t="shared" ref="E11" si="6">F11</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <f t="shared" ref="F11:F20" si="7">B11 - C11^2/2</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5902,11 +5882,11 @@
         <f>F12</f>
         <v>0.13</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <f t="shared" si="7"/>
         <v>0.13</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5927,11 +5907,11 @@
         <f t="shared" ref="E13:E16" si="8">F13</f>
         <v>0.128</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <f t="shared" si="7"/>
         <v>0.128</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5952,11 +5932,11 @@
         <f t="shared" si="8"/>
         <v>0.02</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <f t="shared" si="7"/>
         <v>0.02</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5977,11 +5957,11 @@
         <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <f t="shared" si="7"/>
         <v>0.05</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6002,11 +5982,11 @@
         <f t="shared" si="8"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <f t="shared" si="7"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6027,11 +6007,11 @@
         <f>F17</f>
         <v>0.13</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <f t="shared" si="7"/>
         <v>0.13</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6052,11 +6032,11 @@
         <f t="shared" ref="E18:E20" si="9">F18</f>
         <v>0.128</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <f t="shared" si="7"/>
         <v>0.128</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6077,11 +6057,11 @@
         <f t="shared" si="9"/>
         <v>0.02</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <f t="shared" si="7"/>
         <v>0.02</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6102,11 +6082,11 @@
         <f t="shared" si="9"/>
         <v>-0.24</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <f t="shared" si="7"/>
         <v>-0.24</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" t="s">
         <v>170</v>
       </c>
     </row>
@@ -6127,11 +6107,11 @@
         <f t="shared" ref="E21:E24" si="10">F21</f>
         <v>0.12</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="13">
         <f t="shared" ref="F21:F28" si="11">B21 - C21^2/2</f>
         <v>0.12</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6152,11 +6132,11 @@
         <f t="shared" si="10"/>
         <v>0.13</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="13">
         <f t="shared" si="11"/>
         <v>0.13</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" t="s">
         <v>172</v>
       </c>
     </row>
@@ -6177,11 +6157,11 @@
         <f t="shared" si="10"/>
         <v>0.11</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="13">
         <f t="shared" si="11"/>
         <v>0.11</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6202,11 +6182,11 @@
         <f t="shared" si="10"/>
         <v>0.05</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="13">
         <f t="shared" si="11"/>
         <v>0.05</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6227,11 +6207,11 @@
         <f>F25</f>
         <v>0.13</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="13">
         <f t="shared" si="11"/>
         <v>0.13</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6252,11 +6232,11 @@
         <f t="shared" ref="E26:E32" si="12">F26</f>
         <v>0.128</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="13">
         <f t="shared" si="11"/>
         <v>0.128</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6277,11 +6257,11 @@
         <f t="shared" si="12"/>
         <v>0.02</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="13">
         <f t="shared" si="11"/>
         <v>0.02</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6302,11 +6282,11 @@
         <f t="shared" si="12"/>
         <v>-0.24</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="13">
         <f t="shared" si="11"/>
         <v>-0.24</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" t="s">
         <v>170</v>
       </c>
     </row>
@@ -6327,11 +6307,11 @@
         <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="13">
         <f t="shared" ref="F29:F32" si="13">B29 - C29^2/2</f>
         <v>0.12</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6352,11 +6332,11 @@
         <f t="shared" si="12"/>
         <v>0.13</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="13">
         <f t="shared" si="13"/>
         <v>0.13</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" t="s">
         <v>172</v>
       </c>
     </row>
@@ -6377,11 +6357,11 @@
         <f t="shared" si="12"/>
         <v>0.11</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="13">
         <f t="shared" si="13"/>
         <v>0.11</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6402,11 +6382,11 @@
         <f t="shared" si="12"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="13">
         <f t="shared" si="13"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6449,10 +6429,10 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="43"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
@@ -6706,18 +6686,18 @@
       <c r="B21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <f>11.582186/111.581756</f>
         <v>0.10379999755515588</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="E21" s="12">
         <f>D21/C21</f>
         <v>0.74181119280937113</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <v>9.5699999999999993E-2</v>
       </c>
       <c r="G21" s="12">
@@ -6751,10 +6731,10 @@
       <c r="B23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <v>8.5900000000000004E-2</v>
       </c>
       <c r="E23" s="12">
@@ -6982,16 +6962,16 @@
       <c r="B4" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="36">
         <v>70000777</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="36">
         <v>43629545</v>
       </c>
       <c r="G4">
         <v>20292733</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="38">
         <f>G4/D4</f>
         <v>0.46511447689862456</v>
       </c>
@@ -7000,10 +6980,10 @@
       <c r="B5" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="36">
         <v>73323430</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="36">
         <v>50095723</v>
       </c>
       <c r="G5">
@@ -7011,7 +6991,7 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
+      <c r="C6" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA41110D-0FD9-42A8-A711-C935D994F452}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82882B18-D6A4-45DC-A4EF-6DCC7FB80AB4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -1352,7 +1352,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,7 +1362,8 @@
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="19.140625" customWidth="1"/>
     <col min="9" max="9" width="29.140625" customWidth="1"/>
     <col min="10" max="11" width="18.28515625" customWidth="1"/>
@@ -1660,7 +1661,7 @@
         <v>138</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0.3</v>
@@ -1812,7 +1813,7 @@
         <v>138</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0.3</v>
@@ -1969,7 +1970,7 @@
         <v>161</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0.3</v>
@@ -2278,7 +2279,7 @@
         <v>139</v>
       </c>
       <c r="F11" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0.3</v>
@@ -2430,7 +2431,7 @@
         <v>139</v>
       </c>
       <c r="F12" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0.3</v>
@@ -2582,7 +2583,7 @@
         <v>139</v>
       </c>
       <c r="F13" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0.3</v>
@@ -2734,7 +2735,7 @@
         <v>139</v>
       </c>
       <c r="F14" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0.3</v>
@@ -2886,7 +2887,7 @@
         <v>139</v>
       </c>
       <c r="F15" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0.3</v>
@@ -3038,7 +3039,7 @@
         <v>139</v>
       </c>
       <c r="F16" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0.3</v>
@@ -3180,6 +3181,7 @@
       </c>
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="F17" s="40"/>
       <c r="AP17" s="3"/>
       <c r="AQ17" s="3"/>
     </row>
@@ -3193,8 +3195,8 @@
       <c r="D18" t="s">
         <v>138</v>
       </c>
-      <c r="F18" t="b">
-        <v>0</v>
+      <c r="F18" s="40" t="b">
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0.3</v>
@@ -3345,8 +3347,8 @@
       <c r="D19" t="s">
         <v>161</v>
       </c>
-      <c r="F19" t="b">
-        <v>0</v>
+      <c r="F19" s="40" t="b">
+        <v>1</v>
       </c>
       <c r="G19">
         <v>0.3</v>
@@ -3486,6 +3488,9 @@
       <c r="BD19" s="35" t="b">
         <v>1</v>
       </c>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -3498,7 +3503,7 @@
         <v>138</v>
       </c>
       <c r="F21" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0.3</v>
@@ -3650,7 +3655,7 @@
         <v>161</v>
       </c>
       <c r="F22" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>0.3</v>
@@ -3792,6 +3797,7 @@
       </c>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="F23" s="40"/>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
     </row>
@@ -3805,8 +3811,8 @@
       <c r="D24" t="s">
         <v>138</v>
       </c>
-      <c r="F24" t="b">
-        <v>0</v>
+      <c r="F24" s="40" t="b">
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0.3</v>
@@ -3957,8 +3963,8 @@
       <c r="D25" t="s">
         <v>161</v>
       </c>
-      <c r="F25" t="b">
-        <v>0</v>
+      <c r="F25" s="40" t="b">
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0.3</v>
@@ -4110,7 +4116,7 @@
         <v>138</v>
       </c>
       <c r="F26" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0.3</v>
@@ -4262,7 +4268,7 @@
         <v>161</v>
       </c>
       <c r="F27" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>0.3</v>
@@ -4404,11 +4410,13 @@
       </c>
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="F28" s="40"/>
       <c r="AP28" s="3"/>
       <c r="AQ28" s="9"/>
       <c r="BD28" s="35"/>
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="F29" s="40"/>
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3"/>
     </row>
@@ -4423,7 +4431,7 @@
         <v>21</v>
       </c>
       <c r="F30" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>0.3</v>
@@ -4575,7 +4583,7 @@
         <v>21</v>
       </c>
       <c r="F31" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>0.3</v>
@@ -4715,6 +4723,9 @@
       <c r="BD31" s="35" t="b">
         <v>1</v>
       </c>
+    </row>
+    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="F32" s="40"/>
     </row>
     <row r="33" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -4727,7 +4738,7 @@
         <v>21</v>
       </c>
       <c r="F33" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>0.3</v>
@@ -4879,7 +4890,7 @@
         <v>21</v>
       </c>
       <c r="F34" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>0.3</v>
@@ -5478,7 +5489,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY33:AZ34 L33:L34 F5:F31 F38:F40 AY38:AZ40 K38:L40 K26:K34 L26:L31 AY5:AZ31 K5:L28 F33:F34" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY33:AZ34 L33:L34 K5:L28 F38:F40 AY38:AZ40 K38:L40 K26:K34 L26:L31 AY5:AZ31 F5:F34" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL33:AL34 AL38:AL40 AL5:AL31" xr:uid="{00000000-0002-0000-0000-000001000000}">

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82882B18-D6A4-45DC-A4EF-6DCC7FB80AB4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEF885B-209B-4D9B-8BC0-3CDC77C32003}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -700,7 +700,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,12 +779,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -824,7 +818,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -889,7 +883,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1352,7 +1345,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1356,7 @@
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="19.140625" customWidth="1"/>
     <col min="9" max="9" width="29.140625" customWidth="1"/>
     <col min="10" max="11" width="18.28515625" customWidth="1"/>
@@ -1661,7 +1654,7 @@
         <v>138</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0.3</v>
@@ -1813,7 +1806,7 @@
         <v>138</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0.3</v>
@@ -1970,7 +1963,7 @@
         <v>161</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0.3</v>
@@ -2278,8 +2271,8 @@
       <c r="D11" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="40" t="b">
-        <v>1</v>
+      <c r="F11" t="b">
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0.3</v>
@@ -2430,8 +2423,8 @@
       <c r="D12" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="40" t="b">
-        <v>1</v>
+      <c r="F12" t="b">
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0.3</v>
@@ -2582,8 +2575,8 @@
       <c r="D13" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="40" t="b">
-        <v>1</v>
+      <c r="F13" t="b">
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0.3</v>
@@ -2734,8 +2727,8 @@
       <c r="D14" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="40" t="b">
-        <v>1</v>
+      <c r="F14" t="b">
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0.3</v>
@@ -2886,8 +2879,8 @@
       <c r="D15" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="40" t="b">
-        <v>1</v>
+      <c r="F15" t="b">
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0.3</v>
@@ -3038,8 +3031,8 @@
       <c r="D16" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="40" t="b">
-        <v>1</v>
+      <c r="F16" t="b">
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0.3</v>
@@ -3181,7 +3174,6 @@
       </c>
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="F17" s="40"/>
       <c r="AP17" s="3"/>
       <c r="AQ17" s="3"/>
     </row>
@@ -3195,8 +3187,8 @@
       <c r="D18" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="40" t="b">
-        <v>1</v>
+      <c r="F18" t="b">
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0.3</v>
@@ -3347,8 +3339,8 @@
       <c r="D19" t="s">
         <v>161</v>
       </c>
-      <c r="F19" s="40" t="b">
-        <v>1</v>
+      <c r="F19" t="b">
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0.3</v>
@@ -3488,9 +3480,6 @@
       <c r="BD19" s="35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -3502,8 +3491,8 @@
       <c r="D21" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="40" t="b">
-        <v>1</v>
+      <c r="F21" t="b">
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0.3</v>
@@ -3654,8 +3643,8 @@
       <c r="D22" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="40" t="b">
-        <v>1</v>
+      <c r="F22" t="b">
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0.3</v>
@@ -3797,7 +3786,6 @@
       </c>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="F23" s="40"/>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
     </row>
@@ -3811,8 +3799,8 @@
       <c r="D24" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="40" t="b">
-        <v>1</v>
+      <c r="F24" t="b">
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0.3</v>
@@ -3963,8 +3951,8 @@
       <c r="D25" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="40" t="b">
-        <v>1</v>
+      <c r="F25" t="b">
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0.3</v>
@@ -4115,8 +4103,8 @@
       <c r="D26" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="40" t="b">
-        <v>1</v>
+      <c r="F26" t="b">
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0.3</v>
@@ -4267,8 +4255,8 @@
       <c r="D27" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="40" t="b">
-        <v>1</v>
+      <c r="F27" t="b">
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0.3</v>
@@ -4410,13 +4398,11 @@
       </c>
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="F28" s="40"/>
       <c r="AP28" s="3"/>
       <c r="AQ28" s="9"/>
       <c r="BD28" s="35"/>
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="F29" s="40"/>
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3"/>
     </row>
@@ -4430,8 +4416,8 @@
       <c r="D30" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="40" t="b">
-        <v>1</v>
+      <c r="F30" t="b">
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0.3</v>
@@ -4582,8 +4568,8 @@
       <c r="D31" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="40" t="b">
-        <v>1</v>
+      <c r="F31" t="b">
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0.3</v>
@@ -4723,9 +4709,6 @@
       <c r="BD31" s="35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="F32" s="40"/>
     </row>
     <row r="33" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -4737,8 +4720,8 @@
       <c r="D33" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="40" t="b">
-        <v>1</v>
+      <c r="F33" t="b">
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0.3</v>
@@ -4889,8 +4872,8 @@
       <c r="D34" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="40" t="b">
-        <v>1</v>
+      <c r="F34" t="b">
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0.3</v>
@@ -6440,10 +6423,10 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="41"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEF885B-209B-4D9B-8BC0-3CDC77C32003}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66202EF9-B349-4FFE-8D19-D0ED9FE3D4B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1530" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -700,7 +700,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,6 +779,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -818,7 +836,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -886,6 +904,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1339,13 +1360,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:BD40"/>
+  <dimension ref="A3:BD41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,7 +2136,7 @@
         <v>161</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0.3</v>
@@ -3188,7 +3209,7 @@
         <v>138</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0.3</v>
@@ -3340,7 +3361,7 @@
         <v>161</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>0.3</v>
@@ -3492,7 +3513,7 @@
         <v>138</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0.3</v>
@@ -3644,7 +3665,7 @@
         <v>161</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>0.3</v>
@@ -3800,7 +3821,7 @@
         <v>138</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0.3</v>
@@ -3952,7 +3973,7 @@
         <v>161</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0.3</v>
@@ -4094,625 +4115,483 @@
       </c>
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="9"/>
+      <c r="BD26" s="35"/>
+    </row>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="9"/>
+      <c r="BD27" s="35"/>
+    </row>
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
         <v>138</v>
       </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26">
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>0.3</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H28" t="s">
         <v>110</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I28" t="s">
         <v>107</v>
       </c>
-      <c r="J26" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
         <v>130</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N28" t="s">
         <v>162</v>
       </c>
-      <c r="O26">
+      <c r="O28">
         <v>6</v>
       </c>
-      <c r="P26">
+      <c r="P28">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="Q28" t="s">
         <v>96</v>
       </c>
-      <c r="R26">
+      <c r="R28">
         <v>0.45</v>
       </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <v>3</v>
       </c>
-      <c r="U26">
+      <c r="U28">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V26">
+      <c r="V28">
         <v>62</v>
       </c>
-      <c r="W26">
+      <c r="W28">
         <v>5</v>
       </c>
-      <c r="X26" t="s">
+      <c r="X28" t="s">
         <v>79</v>
       </c>
-      <c r="Y26">
+      <c r="Y28">
         <v>0.03</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AA28" t="s">
         <v>50</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AB28" t="s">
         <v>43</v>
       </c>
-      <c r="AC26">
+      <c r="AC28">
         <v>14</v>
       </c>
-      <c r="AD26">
+      <c r="AD28">
         <v>0.03</v>
       </c>
-      <c r="AE26">
+      <c r="AE28">
         <v>6</v>
       </c>
-      <c r="AF26">
+      <c r="AF28">
         <v>1.2</v>
       </c>
-      <c r="AG26">
+      <c r="AG28">
         <v>0.8</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="AH28" t="s">
         <v>86</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="s">
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="s">
         <v>128</v>
       </c>
-      <c r="AM26" t="s">
+      <c r="AM28" t="s">
         <v>175</v>
       </c>
-      <c r="AN26">
+      <c r="AN28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO26">
+      <c r="AO28">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP26" s="3">
+      <c r="AP28" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ26" s="9">
+      <c r="AQ28" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR26" t="s">
+      <c r="AR28" t="s">
         <v>32</v>
       </c>
-      <c r="AS26" t="s">
+      <c r="AS28" t="s">
         <v>32</v>
       </c>
-      <c r="AT26">
+      <c r="AT28">
         <v>0.623</v>
       </c>
-      <c r="AU26">
+      <c r="AU28">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA26">
-        <v>0</v>
-      </c>
-      <c r="BB26" t="s">
+      <c r="AX28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="s">
         <v>4</v>
       </c>
-      <c r="BC26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD26" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="BC28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD28" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="C27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
         <v>161</v>
       </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27">
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>0.3</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H29" t="s">
         <v>110</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I29" t="s">
         <v>107</v>
       </c>
-      <c r="J27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
         <v>130</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N29" t="s">
         <v>162</v>
       </c>
-      <c r="O27">
+      <c r="O29">
         <v>6</v>
       </c>
-      <c r="P27">
+      <c r="P29">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="Q29" t="s">
         <v>96</v>
       </c>
-      <c r="R27">
+      <c r="R29">
         <v>0.45</v>
       </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <v>3</v>
       </c>
-      <c r="U27">
+      <c r="U29">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V27">
+      <c r="V29">
         <v>62</v>
       </c>
-      <c r="W27">
+      <c r="W29">
         <v>5</v>
       </c>
-      <c r="X27" t="s">
+      <c r="X29" t="s">
         <v>79</v>
       </c>
-      <c r="Y27">
+      <c r="Y29">
         <v>0.03</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AA29" t="s">
         <v>50</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AB29" t="s">
         <v>43</v>
       </c>
-      <c r="AC27">
+      <c r="AC29">
         <v>14</v>
       </c>
-      <c r="AD27">
+      <c r="AD29">
         <v>0.03</v>
       </c>
-      <c r="AE27">
+      <c r="AE29">
         <v>6</v>
       </c>
-      <c r="AF27">
+      <c r="AF29">
         <v>1.2</v>
       </c>
-      <c r="AG27">
+      <c r="AG29">
         <v>0.8</v>
       </c>
-      <c r="AH27" t="s">
+      <c r="AH29" t="s">
         <v>86</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="s">
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="s">
         <v>128</v>
       </c>
-      <c r="AM27" t="s">
+      <c r="AM29" t="s">
         <v>175</v>
       </c>
-      <c r="AN27">
+      <c r="AN29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO27">
+      <c r="AO29">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP27" s="3">
+      <c r="AP29" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ27" s="9">
+      <c r="AQ29" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR27" t="s">
+      <c r="AR29" t="s">
         <v>32</v>
       </c>
-      <c r="AS27" t="s">
+      <c r="AS29" t="s">
         <v>32</v>
       </c>
-      <c r="AT27">
+      <c r="AT29">
         <v>0.623</v>
       </c>
-      <c r="AU27">
+      <c r="AU29">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ27" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA27">
-        <v>0</v>
-      </c>
-      <c r="BB27" t="s">
+      <c r="AX29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ29" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="s">
         <v>4</v>
       </c>
-      <c r="BC27" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD27" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="9"/>
-      <c r="BD28" s="35"/>
-    </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AP29" s="3"/>
-      <c r="AQ29" s="3"/>
+      <c r="BC29" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD29" s="35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="9"/>
+      <c r="BD30" s="35"/>
+    </row>
+    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+    </row>
+    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A32" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C30" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>21</v>
       </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>0.3</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H32" t="s">
         <v>110</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I32" t="s">
         <v>112</v>
       </c>
-      <c r="J30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="b">
-        <v>1</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
         <v>130</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N32" t="s">
         <v>162</v>
       </c>
-      <c r="O30">
+      <c r="O32">
         <v>6</v>
       </c>
-      <c r="P30">
+      <c r="P32">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q32" t="s">
         <v>96</v>
       </c>
-      <c r="R30">
+      <c r="R32">
         <v>0.45</v>
       </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
         <v>3</v>
       </c>
-      <c r="U30">
+      <c r="U32">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V30">
+      <c r="V32">
         <v>62</v>
       </c>
-      <c r="W30">
+      <c r="W32">
         <v>5</v>
       </c>
-      <c r="X30" t="s">
+      <c r="X32" t="s">
         <v>79</v>
       </c>
-      <c r="Y30">
+      <c r="Y32">
         <v>0.03</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AA32" t="s">
         <v>50</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AB32" t="s">
         <v>43</v>
       </c>
-      <c r="AC30">
+      <c r="AC32">
         <v>14</v>
       </c>
-      <c r="AD30">
+      <c r="AD32">
         <v>0.03</v>
       </c>
-      <c r="AE30">
+      <c r="AE32">
         <v>6</v>
       </c>
-      <c r="AF30">
+      <c r="AF32">
         <v>1.2</v>
       </c>
-      <c r="AG30">
+      <c r="AG32">
         <v>0.8</v>
       </c>
-      <c r="AH30" t="s">
+      <c r="AH32" t="s">
         <v>86</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="s">
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="s">
         <v>128</v>
       </c>
-      <c r="AM30" t="s">
+      <c r="AM32" t="s">
         <v>21</v>
       </c>
-      <c r="AN30">
+      <c r="AN32">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO30">
+      <c r="AO32">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP30" s="3">
+      <c r="AP32" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ30" s="9">
+      <c r="AQ32" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR30" t="s">
+      <c r="AR32" t="s">
         <v>32</v>
       </c>
-      <c r="AS30" t="s">
+      <c r="AS32" t="s">
         <v>32</v>
       </c>
-      <c r="AT30">
+      <c r="AT32">
         <v>0.623</v>
       </c>
-      <c r="AU30">
+      <c r="AU32">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ30" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA30">
-        <v>0</v>
-      </c>
-      <c r="BB30" t="s">
+      <c r="AX32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ32" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="s">
         <v>4</v>
       </c>
-      <c r="BC30" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD30" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="BC32" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD32" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A33" s="41" t="s">
         <v>104</v>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0.3</v>
-      </c>
-      <c r="H31" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" t="s">
-        <v>113</v>
-      </c>
-      <c r="J31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="b">
-        <v>1</v>
-      </c>
-      <c r="M31" t="s">
-        <v>130</v>
-      </c>
-      <c r="N31" t="s">
-        <v>162</v>
-      </c>
-      <c r="O31">
-        <v>6</v>
-      </c>
-      <c r="P31">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>96</v>
-      </c>
-      <c r="R31">
-        <v>0.45</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>3</v>
-      </c>
-      <c r="U31">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V31">
-        <v>62</v>
-      </c>
-      <c r="W31">
-        <v>5</v>
-      </c>
-      <c r="X31" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y31">
-        <v>0.03</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC31">
-        <v>14</v>
-      </c>
-      <c r="AD31">
-        <v>0.03</v>
-      </c>
-      <c r="AE31">
-        <v>6</v>
-      </c>
-      <c r="AF31">
-        <v>1.2</v>
-      </c>
-      <c r="AG31">
-        <v>0.8</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN31">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AO31">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AP31" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AQ31" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT31">
-        <v>0.623</v>
-      </c>
-      <c r="AU31">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AX31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ31" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA31">
-        <v>0</v>
-      </c>
-      <c r="BB31" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC31" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD31" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>105</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -4727,10 +4606,10 @@
         <v>0.3</v>
       </c>
       <c r="H33" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I33" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J33" t="b">
         <v>1</v>
@@ -4863,315 +4742,318 @@
       </c>
     </row>
     <row r="34" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="42"/>
+    </row>
+    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A35" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0.3</v>
+      </c>
+      <c r="H35" t="s">
+        <v>114</v>
+      </c>
+      <c r="I35" t="s">
+        <v>107</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>130</v>
+      </c>
+      <c r="N35" t="s">
+        <v>162</v>
+      </c>
+      <c r="O35">
+        <v>6</v>
+      </c>
+      <c r="P35">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>96</v>
+      </c>
+      <c r="R35">
+        <v>0.45</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V35">
+        <v>62</v>
+      </c>
+      <c r="W35">
+        <v>5</v>
+      </c>
+      <c r="X35" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y35">
+        <v>0.03</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC35">
+        <v>14</v>
+      </c>
+      <c r="AD35">
+        <v>0.03</v>
+      </c>
+      <c r="AE35">
+        <v>6</v>
+      </c>
+      <c r="AF35">
+        <v>1.2</v>
+      </c>
+      <c r="AG35">
+        <v>0.8</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO35">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP35" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AQ35" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT35">
+        <v>0.623</v>
+      </c>
+      <c r="AU35">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AX35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ35" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC35" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD35" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A36" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
         <v>21</v>
       </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34">
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>0.3</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H36" t="s">
         <v>115</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I36" t="s">
         <v>107</v>
       </c>
-      <c r="J34" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="b">
-        <v>1</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
         <v>130</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N36" t="s">
         <v>162</v>
       </c>
-      <c r="O34">
+      <c r="O36">
         <v>6</v>
       </c>
-      <c r="P34">
+      <c r="P36">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="Q36" t="s">
         <v>96</v>
       </c>
-      <c r="R34">
+      <c r="R36">
         <v>0.45</v>
       </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
         <v>3</v>
       </c>
-      <c r="U34">
+      <c r="U36">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V34">
+      <c r="V36">
         <v>62</v>
       </c>
-      <c r="W34">
+      <c r="W36">
         <v>5</v>
       </c>
-      <c r="X34" t="s">
+      <c r="X36" t="s">
         <v>79</v>
       </c>
-      <c r="Y34">
+      <c r="Y36">
         <v>0.03</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AA36" t="s">
         <v>50</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AB36" t="s">
         <v>43</v>
       </c>
-      <c r="AC34">
+      <c r="AC36">
         <v>14</v>
       </c>
-      <c r="AD34">
+      <c r="AD36">
         <v>0.03</v>
       </c>
-      <c r="AE34">
+      <c r="AE36">
         <v>6</v>
       </c>
-      <c r="AF34">
+      <c r="AF36">
         <v>1.2</v>
       </c>
-      <c r="AG34">
+      <c r="AG36">
         <v>0.8</v>
       </c>
-      <c r="AH34" t="s">
+      <c r="AH36" t="s">
         <v>86</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="s">
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="s">
         <v>128</v>
       </c>
-      <c r="AM34" t="s">
+      <c r="AM36" t="s">
         <v>21</v>
       </c>
-      <c r="AN34">
+      <c r="AN36">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO34">
+      <c r="AO36">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP34" s="3">
+      <c r="AP36" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ34" s="9">
+      <c r="AQ36" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR34" t="s">
+      <c r="AR36" t="s">
         <v>32</v>
       </c>
-      <c r="AS34" t="s">
+      <c r="AS36" t="s">
         <v>32</v>
       </c>
-      <c r="AT34">
+      <c r="AT36">
         <v>0.623</v>
       </c>
-      <c r="AU34">
+      <c r="AU36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ34" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA34">
-        <v>0</v>
-      </c>
-      <c r="BB34" t="s">
+      <c r="AX36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ36" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36" t="s">
         <v>4</v>
       </c>
-      <c r="BC34" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD34" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0.3</v>
-      </c>
-      <c r="H38" t="s">
-        <v>110</v>
-      </c>
-      <c r="I38" t="s">
-        <v>107</v>
-      </c>
-      <c r="J38" t="b">
-        <v>0</v>
-      </c>
-      <c r="K38" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" t="b">
-        <v>1</v>
-      </c>
-      <c r="M38" t="s">
-        <v>130</v>
-      </c>
-      <c r="N38" t="s">
-        <v>136</v>
-      </c>
-      <c r="O38">
-        <v>6</v>
-      </c>
-      <c r="P38">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>96</v>
-      </c>
-      <c r="R38">
-        <v>0.45</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>3</v>
-      </c>
-      <c r="U38">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V38">
-        <v>62</v>
-      </c>
-      <c r="W38">
-        <v>5</v>
-      </c>
-      <c r="X38" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y38">
-        <v>0.03</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC38">
-        <v>14</v>
-      </c>
-      <c r="AD38">
-        <v>0.03</v>
-      </c>
-      <c r="AE38">
-        <v>6</v>
-      </c>
-      <c r="AF38">
-        <v>1.2</v>
-      </c>
-      <c r="AG38">
-        <v>0.8</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
-      <c r="AK38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN38">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AO38">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AP38" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AQ38" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR38" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS38" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT38">
-        <v>0.623</v>
-      </c>
-      <c r="AU38">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AX38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ38" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA38">
-        <v>0</v>
-      </c>
-      <c r="BB38" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC38" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD38" s="35" t="b">
+      <c r="BC36" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD36" s="35" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="C39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>139</v>
@@ -5192,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="b">
         <v>1</v>
@@ -5320,13 +5202,13 @@
     </row>
     <row r="40" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A40" s="39" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="C40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -5344,13 +5226,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="b">
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N40" t="s">
         <v>136</v>
@@ -5470,12 +5352,164 @@
         <v>1</v>
       </c>
     </row>
+    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0.3</v>
+      </c>
+      <c r="H41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" t="s">
+        <v>107</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>133</v>
+      </c>
+      <c r="N41" t="s">
+        <v>136</v>
+      </c>
+      <c r="O41">
+        <v>6</v>
+      </c>
+      <c r="P41">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>96</v>
+      </c>
+      <c r="R41">
+        <v>0.45</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>3</v>
+      </c>
+      <c r="U41">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V41">
+        <v>62</v>
+      </c>
+      <c r="W41">
+        <v>5</v>
+      </c>
+      <c r="X41" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y41">
+        <v>0.03</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC41">
+        <v>14</v>
+      </c>
+      <c r="AD41">
+        <v>0.03</v>
+      </c>
+      <c r="AE41">
+        <v>6</v>
+      </c>
+      <c r="AF41">
+        <v>1.2</v>
+      </c>
+      <c r="AG41">
+        <v>0.8</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN41">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO41">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AP41" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AQ41" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT41">
+        <v>0.623</v>
+      </c>
+      <c r="AU41">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AX41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ41" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC41" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD41" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY33:AZ34 L33:L34 K5:L28 F38:F40 AY38:AZ40 K38:L40 K26:K34 L26:L31 AY5:AZ31 F5:F34" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY35:AZ36 L35:L36 F39:F41 AY39:AZ41 K39:L41 K28:K36 L28:L33 K5:L30 AY5:AZ33 F5:F36" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL33:AL34 AL38:AL40 AL5:AL31" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL35:AL36 AL39:AL41 AL5:AL33" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66202EF9-B349-4FFE-8D19-D0ED9FE3D4B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E51038-C58A-47FC-A536-E34EC7F230D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1530" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,57 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="AH4" authorId="0" shapeId="0" xr:uid="{D91F68BF-928B-4B3B-9F98-4B2FFAC0BBBC}">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{0293D194-19C9-42F4-94A3-B37793CAC8F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Skip the year-1 amort. payment for new amortization basis. 
+Does not affect existing amort. basis
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R4" authorId="0" shapeId="0" xr:uid="{D29CD304-2CDF-417F-9E02-63FF8702FBB5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+20292733/43629545 = 46.5%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI4" authorId="0" shapeId="0" xr:uid="{D91F68BF-928B-4B3B-9F98-4B2FFAC0BBBC}">
       <text>
         <r>
           <rPr>
@@ -57,6 +107,30 @@
           <t xml:space="preserve">
 method2 = No smoothing
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT4" authorId="0" shapeId="0" xr:uid="{D8DF56B1-E0DB-40EC-9DAC-B2E600541C22}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+AL_pct; AA0, noSmoothing</t>
         </r>
       </text>
     </comment>
@@ -100,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="186">
   <si>
     <t>runname</t>
   </si>
@@ -643,6 +717,21 @@
   </si>
   <si>
     <t>corridor</t>
+  </si>
+  <si>
+    <t>OYLM_skipY1</t>
+  </si>
+  <si>
+    <t>t4a_C15dA6noCorridor</t>
+  </si>
+  <si>
+    <t>share_UFT</t>
+  </si>
+  <si>
+    <t>EAN.CP</t>
+  </si>
+  <si>
+    <t>noSmoothing</t>
   </si>
 </sst>
 </file>
@@ -655,7 +744,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,6 +787,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="17">
@@ -901,12 +1003,12 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1360,27 +1462,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:BD41"/>
+  <dimension ref="A3:BE43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
-    <col min="10" max="11" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" customWidth="1"/>
+    <col min="9" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
     <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" customWidth="1"/>
     <col min="14" max="14" width="17.28515625" customWidth="1"/>
@@ -1389,49 +1491,50 @@
     <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="14.28515625" customWidth="1"/>
-    <col min="24" max="26" width="19.7109375" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.85546875" customWidth="1"/>
-    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.7109375" customWidth="1"/>
-    <col min="36" max="36" width="14" customWidth="1"/>
-    <col min="37" max="37" width="13.42578125" customWidth="1"/>
-    <col min="38" max="38" width="12.5703125" customWidth="1"/>
-    <col min="39" max="39" width="14.85546875" customWidth="1"/>
-    <col min="44" max="44" width="12" customWidth="1"/>
-    <col min="45" max="45" width="12.28515625" customWidth="1"/>
-    <col min="48" max="48" width="15.140625" customWidth="1"/>
-    <col min="49" max="50" width="16.5703125" customWidth="1"/>
-    <col min="51" max="51" width="12" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="18" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.28515625" customWidth="1"/>
-    <col min="55" max="55" width="11.42578125" customWidth="1"/>
-    <col min="56" max="56" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" customWidth="1"/>
+    <col min="21" max="24" width="14.28515625" customWidth="1"/>
+    <col min="25" max="27" width="19.7109375" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.85546875" customWidth="1"/>
+    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.7109375" customWidth="1"/>
+    <col min="37" max="37" width="14" customWidth="1"/>
+    <col min="38" max="38" width="13.42578125" customWidth="1"/>
+    <col min="39" max="39" width="12.5703125" customWidth="1"/>
+    <col min="40" max="40" width="14.85546875" customWidth="1"/>
+    <col min="45" max="45" width="12" customWidth="1"/>
+    <col min="46" max="46" width="13.7109375" customWidth="1"/>
+    <col min="49" max="49" width="15.140625" customWidth="1"/>
+    <col min="50" max="51" width="16.5703125" customWidth="1"/>
+    <col min="52" max="52" width="12" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.28515625" customWidth="1"/>
+    <col min="56" max="56" width="11.42578125" customWidth="1"/>
+    <col min="57" max="57" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:56" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="30" t="s">
+      <c r="F3" s="30" t="s">
         <v>116</v>
       </c>
+      <c r="G3" s="30"/>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="28" t="s">
+      <c r="J3" s="28" t="s">
         <v>158</v>
       </c>
+      <c r="K3" s="18"/>
       <c r="L3" s="26" t="s">
         <v>92</v>
       </c>
@@ -1442,61 +1545,62 @@
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
       <c r="S3" s="26"/>
-      <c r="T3" s="27" t="s">
+      <c r="T3" s="26"/>
+      <c r="U3" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="U3" s="27"/>
       <c r="V3" s="27"/>
       <c r="W3" s="27"/>
-      <c r="X3" s="28" t="s">
+      <c r="X3" s="27"/>
+      <c r="Y3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="Y3" s="28"/>
       <c r="Z3" s="28"/>
-      <c r="AA3" s="29" t="s">
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="AB3" s="29"/>
       <c r="AC3" s="29"/>
       <c r="AD3" s="29"/>
-      <c r="AE3" s="30" t="s">
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="AF3" s="30"/>
       <c r="AG3" s="30"/>
       <c r="AH3" s="30"/>
       <c r="AI3" s="30"/>
-      <c r="AJ3" s="31" t="s">
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="32" t="s">
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="AM3" s="32"/>
       <c r="AN3" s="32"/>
       <c r="AO3" s="32"/>
       <c r="AP3" s="32"/>
       <c r="AQ3" s="32"/>
-      <c r="AR3" s="28" t="s">
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="AS3" s="28"/>
       <c r="AT3" s="28"/>
       <c r="AU3" s="28"/>
       <c r="AV3" s="28"/>
       <c r="AW3" s="28"/>
-      <c r="AX3" s="33" t="s">
+      <c r="AX3" s="28"/>
+      <c r="AY3" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="AY3" s="33"/>
       <c r="AZ3" s="33"/>
       <c r="BA3" s="33"/>
       <c r="BB3" s="33"/>
       <c r="BC3" s="33"/>
       <c r="BD3" s="33"/>
-    </row>
-    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BE3" s="33"/>
+    </row>
+    <row r="4" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
@@ -1504,31 +1608,31 @@
         <v>62</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="21" t="s">
         <v>14</v>
       </c>
+      <c r="F4" s="19" t="s">
+        <v>111</v>
+      </c>
       <c r="G4" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="J4" s="19" t="s">
         <v>150</v>
       </c>
+      <c r="J4" s="18" t="s">
+        <v>159</v>
+      </c>
       <c r="K4" s="18" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="L4" s="24" t="s">
         <v>93</v>
@@ -1554,137 +1658,140 @@
       <c r="S4" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="T4" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="U4" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="V4" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="V4" s="16" t="s">
+      <c r="W4" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="W4" s="16" t="s">
+      <c r="X4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="X4" s="18" t="s">
+      <c r="Y4" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="Y4" s="18" t="s">
+      <c r="Z4" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="20" t="s">
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="20" t="s">
+      <c r="AC4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AC4" s="20" t="s">
+      <c r="AD4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="20" t="s">
+      <c r="AE4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="19" t="s">
+      <c r="AF4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AF4" s="19" t="s">
+      <c r="AG4" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="AG4" s="19" t="s">
+      <c r="AH4" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="AH4" s="19" t="s">
+      <c r="AI4" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AI4" s="19" t="s">
+      <c r="AJ4" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="AJ4" s="23" t="s">
+      <c r="AK4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AK4" s="23" t="s">
+      <c r="AL4" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="AL4" s="17" t="s">
+      <c r="AM4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="AM4" s="17" t="s">
+      <c r="AN4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AN4" s="17" t="s">
+      <c r="AO4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AO4" s="17" t="s">
+      <c r="AP4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AP4" s="17" t="s">
+      <c r="AQ4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AQ4" s="17" t="s">
+      <c r="AR4" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="AR4" s="18" t="s">
+      <c r="AS4" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="AS4" s="18" t="s">
+      <c r="AT4" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="AT4" s="18" t="s">
+      <c r="AU4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AU4" s="18" t="s">
+      <c r="AV4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AV4" s="18" t="s">
+      <c r="AW4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AW4" s="18" t="s">
+      <c r="AX4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AX4" s="22" t="s">
+      <c r="AY4" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="AY4" s="22" t="s">
+      <c r="AZ4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AZ4" s="22" t="s">
+      <c r="BA4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="BA4" s="22" t="s">
+      <c r="BB4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="BB4" s="22" t="s">
+      <c r="BC4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="BC4" s="22" t="s">
+      <c r="BD4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BD4" s="22" t="s">
+      <c r="BE4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>132</v>
       </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>138</v>
       </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.3</v>
       </c>
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
       <c r="H5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" t="s">
         <v>107</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -1705,138 +1812,144 @@
         <v>6</v>
       </c>
       <c r="P5">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q5" t="s">
         <v>96</v>
       </c>
       <c r="R5">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
+        <v>0.15</v>
+      </c>
+      <c r="U5">
         <v>3</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>62</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>5</v>
       </c>
-      <c r="X5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y5">
+      <c r="Y5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z5">
         <v>0.03</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>50</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>43</v>
       </c>
-      <c r="AC5">
-        <v>14</v>
-      </c>
       <c r="AD5">
+        <v>15</v>
+      </c>
+      <c r="AE5">
         <v>0.03</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>6</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>1.2</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>0.8</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>86</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="s">
+      <c r="AJ5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="s">
         <v>128</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>21</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP5" s="3">
+      <c r="AQ5" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ5" s="9">
+      <c r="AR5" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>32</v>
       </c>
       <c r="AS5" t="s">
         <v>32</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU5">
         <v>0.623</v>
       </c>
-      <c r="AU5">
+      <c r="AV5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX5" t="b">
-        <v>1</v>
-      </c>
       <c r="AY5" t="b">
         <v>1</v>
       </c>
       <c r="AZ5" t="b">
         <v>1</v>
       </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="s">
+      <c r="BA5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="s">
         <v>4</v>
       </c>
-      <c r="BC5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD5" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>163</v>
       </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>138</v>
       </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.3</v>
       </c>
+      <c r="G6" t="s">
+        <v>110</v>
+      </c>
       <c r="H6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" t="s">
         <v>107</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -1857,143 +1970,149 @@
         <v>6</v>
       </c>
       <c r="P6">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q6" t="s">
         <v>96</v>
       </c>
       <c r="R6">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
+        <v>0.15</v>
+      </c>
+      <c r="U6">
         <v>3</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>62</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>5</v>
       </c>
-      <c r="X6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y6">
+      <c r="Y6" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z6">
         <v>0.03</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>50</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>43</v>
       </c>
-      <c r="AC6">
-        <v>14</v>
-      </c>
       <c r="AD6">
+        <v>15</v>
+      </c>
+      <c r="AE6">
         <v>0.03</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>6</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>1.2</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>0.8</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>86</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="s">
+      <c r="AJ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="s">
         <v>128</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>21</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP6" s="3">
+      <c r="AQ6" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ6" s="9">
+      <c r="AR6" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>32</v>
       </c>
       <c r="AS6" t="s">
         <v>32</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU6">
         <v>0.623</v>
       </c>
-      <c r="AU6">
+      <c r="AV6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX6" t="b">
-        <v>1</v>
-      </c>
       <c r="AY6" t="b">
         <v>1</v>
       </c>
       <c r="AZ6" t="b">
         <v>1</v>
       </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6" t="s">
+      <c r="BA6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="s">
         <v>4</v>
       </c>
-      <c r="BC6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="9"/>
-      <c r="BD7" s="35"/>
-    </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="9"/>
+      <c r="BE7" s="35"/>
+    </row>
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>160</v>
       </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
         <v>161</v>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0.3</v>
       </c>
+      <c r="G8" t="s">
+        <v>110</v>
+      </c>
       <c r="H8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" t="s">
         <v>107</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -2014,138 +2133,144 @@
         <v>6</v>
       </c>
       <c r="P8">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q8" t="s">
         <v>96</v>
       </c>
       <c r="R8">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
+        <v>0.15</v>
+      </c>
+      <c r="U8">
         <v>3</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>62</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>5</v>
       </c>
-      <c r="X8" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y8">
+      <c r="Y8" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z8">
         <v>0.03</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>50</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>43</v>
       </c>
-      <c r="AC8">
-        <v>14</v>
-      </c>
       <c r="AD8">
+        <v>15</v>
+      </c>
+      <c r="AE8">
         <v>0.03</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>6</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>1.2</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>0.8</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>86</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="s">
+      <c r="AJ8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="s">
         <v>128</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>21</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP8" s="3">
+      <c r="AQ8" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ8" s="9">
+      <c r="AR8" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>32</v>
       </c>
       <c r="AS8" t="s">
         <v>32</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU8">
         <v>0.623</v>
       </c>
-      <c r="AU8">
+      <c r="AV8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX8" t="b">
-        <v>1</v>
-      </c>
       <c r="AY8" t="b">
         <v>1</v>
       </c>
       <c r="AZ8" t="b">
         <v>1</v>
       </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="s">
+      <c r="BA8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="s">
         <v>4</v>
       </c>
-      <c r="BC8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD8" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>164</v>
       </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s">
         <v>161</v>
       </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>0.3</v>
       </c>
+      <c r="G9" t="s">
+        <v>110</v>
+      </c>
       <c r="H9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I9" t="s">
         <v>107</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -2166,144 +2291,150 @@
         <v>6</v>
       </c>
       <c r="P9">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q9" t="s">
         <v>96</v>
       </c>
       <c r="R9">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
+        <v>0.15</v>
+      </c>
+      <c r="U9">
         <v>3</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>62</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>5</v>
       </c>
-      <c r="X9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y9">
+      <c r="Y9" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z9">
         <v>0.03</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>50</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>43</v>
       </c>
-      <c r="AC9">
-        <v>14</v>
-      </c>
       <c r="AD9">
+        <v>15</v>
+      </c>
+      <c r="AE9">
         <v>0.03</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>6</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>1.2</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>0.8</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>86</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="s">
+      <c r="AJ9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="s">
         <v>128</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AN9" t="s">
         <v>21</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP9" s="3">
+      <c r="AQ9" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ9" s="9">
+      <c r="AR9" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>32</v>
       </c>
       <c r="AS9" t="s">
         <v>32</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU9">
         <v>0.623</v>
       </c>
-      <c r="AU9">
+      <c r="AV9">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX9" t="b">
-        <v>1</v>
-      </c>
       <c r="AY9" t="b">
         <v>1</v>
       </c>
       <c r="AZ9" t="b">
         <v>1</v>
       </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9" t="s">
+      <c r="BA9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="s">
         <v>4</v>
       </c>
-      <c r="BC9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD9" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="9"/>
-      <c r="BD10" s="35"/>
-    </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="9"/>
+      <c r="BE10" s="35"/>
+    </row>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11">
+        <v>166</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>0.3</v>
       </c>
+      <c r="G11" t="s">
+        <v>110</v>
+      </c>
       <c r="H11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" t="s">
         <v>107</v>
       </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
@@ -2311,150 +2442,156 @@
         <v>1</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="s">
         <v>130</v>
       </c>
       <c r="N11" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="O11">
         <v>6</v>
       </c>
       <c r="P11">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q11" t="s">
         <v>96</v>
       </c>
       <c r="R11">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
+        <v>0.15</v>
+      </c>
+      <c r="U11">
         <v>3</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>62</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>5</v>
       </c>
-      <c r="X11" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y11">
+      <c r="Y11" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z11">
         <v>0.03</v>
       </c>
-      <c r="AA11" t="s">
-        <v>143</v>
-      </c>
       <c r="AB11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC11">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>43</v>
       </c>
       <c r="AD11">
+        <v>14</v>
+      </c>
+      <c r="AE11">
         <v>0.03</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>6</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>1.2</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>0.8</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>86</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="s">
+      <c r="AJ11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="s">
         <v>128</v>
       </c>
-      <c r="AM11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN11">
+      <c r="AN11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP11" s="3">
+      <c r="AQ11" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ11" s="9">
+      <c r="AR11" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>32</v>
       </c>
       <c r="AS11" t="s">
         <v>32</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU11">
         <v>0.623</v>
       </c>
-      <c r="AU11">
+      <c r="AV11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX11" t="b">
-        <v>1</v>
-      </c>
       <c r="AY11" t="b">
         <v>1</v>
       </c>
       <c r="AZ11" t="b">
         <v>1</v>
       </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11" t="s">
+      <c r="BA11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="s">
         <v>4</v>
       </c>
-      <c r="BC11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD11" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12">
+        <v>167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>0.3</v>
       </c>
+      <c r="G12" t="s">
+        <v>110</v>
+      </c>
       <c r="H12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" t="s">
         <v>107</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -2475,290 +2612,149 @@
         <v>6</v>
       </c>
       <c r="P12">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q12" t="s">
         <v>96</v>
       </c>
       <c r="R12">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
+        <v>0.15</v>
+      </c>
+      <c r="U12">
         <v>3</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>62</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>5</v>
       </c>
-      <c r="X12" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y12">
+      <c r="Y12" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z12">
         <v>0.03</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>50</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>43</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>14</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>0.03</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>6</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>1.2</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>0.8</v>
       </c>
-      <c r="AH12" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="s">
+      <c r="AI12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="s">
         <v>128</v>
       </c>
-      <c r="AM12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN12">
+      <c r="AN12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP12" s="3">
+      <c r="AQ12" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ12" s="9">
+      <c r="AR12" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>32</v>
       </c>
       <c r="AS12" t="s">
         <v>32</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU12">
         <v>0.623</v>
       </c>
-      <c r="AU12">
+      <c r="AV12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX12" t="b">
-        <v>1</v>
-      </c>
       <c r="AY12" t="b">
         <v>1</v>
       </c>
       <c r="AZ12" t="b">
         <v>1</v>
       </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BB12" t="s">
+      <c r="BA12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="s">
         <v>4</v>
       </c>
-      <c r="BC12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD12" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="BD12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="9"/>
+      <c r="BE13" s="35"/>
+    </row>
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s">
         <v>139</v>
       </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>0.3</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G14" t="s">
         <v>110</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H14" t="s">
         <v>107</v>
       </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>130</v>
-      </c>
-      <c r="N13" t="s">
-        <v>162</v>
-      </c>
-      <c r="O13">
-        <v>6</v>
-      </c>
-      <c r="P13">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>96</v>
-      </c>
-      <c r="R13">
-        <v>0.45</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
-      <c r="U13">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V13">
-        <v>62</v>
-      </c>
-      <c r="W13">
-        <v>5</v>
-      </c>
-      <c r="X13" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y13">
-        <v>0.03</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC13">
-        <v>14</v>
-      </c>
-      <c r="AD13">
-        <v>0.03</v>
-      </c>
-      <c r="AE13">
-        <v>6</v>
-      </c>
-      <c r="AF13">
-        <v>1.2</v>
-      </c>
-      <c r="AG13">
-        <v>0.8</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN13">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AO13">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AP13" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AQ13" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT13">
-        <v>0.623</v>
-      </c>
-      <c r="AU13">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AX13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ13" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC13" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD13" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0.3</v>
-      </c>
-      <c r="H14" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" t="s">
-        <v>107</v>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
@@ -2779,138 +2775,144 @@
         <v>6</v>
       </c>
       <c r="P14">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q14" t="s">
         <v>96</v>
       </c>
       <c r="R14">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
+        <v>0.15</v>
+      </c>
+      <c r="U14">
         <v>3</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>62</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>5</v>
       </c>
-      <c r="X14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y14">
+      <c r="Y14" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z14">
         <v>0.03</v>
       </c>
-      <c r="AA14" t="s">
-        <v>143</v>
-      </c>
       <c r="AB14" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC14">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>43</v>
       </c>
       <c r="AD14">
+        <v>15</v>
+      </c>
+      <c r="AE14">
         <v>0.03</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>6</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>1.2</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>0.8</v>
       </c>
-      <c r="AH14" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="s">
+      <c r="AI14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="s">
         <v>128</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AN14" t="s">
         <v>21</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO14">
+      <c r="AP14">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP14" s="3">
+      <c r="AQ14" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ14" s="9">
+      <c r="AR14" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>32</v>
       </c>
       <c r="AS14" t="s">
         <v>32</v>
       </c>
-      <c r="AT14">
+      <c r="AT14" t="s">
+        <v>185</v>
+      </c>
+      <c r="AU14">
         <v>0.623</v>
       </c>
-      <c r="AU14">
+      <c r="AV14">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX14" t="b">
-        <v>1</v>
-      </c>
       <c r="AY14" t="b">
         <v>1</v>
       </c>
       <c r="AZ14" t="b">
         <v>1</v>
       </c>
-      <c r="BA14">
-        <v>0</v>
-      </c>
-      <c r="BB14" t="s">
+      <c r="BA14" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="s">
         <v>4</v>
       </c>
-      <c r="BC14" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD14" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD14" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE14" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" t="s">
         <v>139</v>
       </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>0.3</v>
       </c>
+      <c r="G15" t="s">
+        <v>110</v>
+      </c>
       <c r="H15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" t="s">
         <v>107</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -2931,138 +2933,144 @@
         <v>6</v>
       </c>
       <c r="P15">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q15" t="s">
         <v>96</v>
       </c>
       <c r="R15">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
+        <v>0.15</v>
+      </c>
+      <c r="U15">
         <v>3</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>62</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>5</v>
       </c>
-      <c r="X15" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y15">
+      <c r="Y15" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z15">
         <v>0.03</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>50</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>43</v>
       </c>
-      <c r="AC15">
-        <v>29</v>
-      </c>
       <c r="AD15">
+        <v>15</v>
+      </c>
+      <c r="AE15">
         <v>0.03</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>6</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>1.2</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>0.8</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>86</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="s">
+      <c r="AJ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="s">
         <v>128</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AN15" t="s">
         <v>21</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO15">
+      <c r="AP15">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP15" s="3">
+      <c r="AQ15" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ15" s="9">
+      <c r="AR15" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>32</v>
       </c>
       <c r="AS15" t="s">
         <v>32</v>
       </c>
-      <c r="AT15">
+      <c r="AT15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU15">
         <v>0.623</v>
       </c>
-      <c r="AU15">
+      <c r="AV15">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX15" t="b">
-        <v>1</v>
-      </c>
       <c r="AY15" t="b">
         <v>1</v>
       </c>
       <c r="AZ15" t="b">
         <v>1</v>
       </c>
-      <c r="BA15">
-        <v>0</v>
-      </c>
-      <c r="BB15" t="s">
+      <c r="BA15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="s">
         <v>4</v>
       </c>
-      <c r="BC15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD15" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE15" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="s">
         <v>139</v>
       </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>0.3</v>
       </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
       <c r="H16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" t="s">
         <v>107</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -3083,143 +3091,303 @@
         <v>6</v>
       </c>
       <c r="P16">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q16" t="s">
         <v>96</v>
       </c>
       <c r="R16">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
+        <v>0.15</v>
+      </c>
+      <c r="U16">
         <v>3</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>62</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>5</v>
       </c>
-      <c r="X16" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y16">
+      <c r="Y16" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z16">
         <v>0.03</v>
       </c>
-      <c r="AA16" t="s">
-        <v>143</v>
-      </c>
       <c r="AB16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC16">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>144</v>
       </c>
       <c r="AD16">
+        <v>15</v>
+      </c>
+      <c r="AE16">
         <v>0.03</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>6</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>1.2</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>0.8</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>86</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="s">
+      <c r="AJ16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="s">
         <v>128</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AN16" t="s">
         <v>21</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO16">
+      <c r="AP16">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP16" s="3">
+      <c r="AQ16" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ16" s="9">
+      <c r="AR16" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>32</v>
       </c>
       <c r="AS16" t="s">
         <v>32</v>
       </c>
-      <c r="AT16">
+      <c r="AT16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU16">
         <v>0.623</v>
       </c>
-      <c r="AU16">
+      <c r="AV16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX16" t="b">
-        <v>1</v>
-      </c>
       <c r="AY16" t="b">
         <v>1</v>
       </c>
       <c r="AZ16" t="b">
         <v>1</v>
       </c>
-      <c r="BA16">
-        <v>0</v>
-      </c>
-      <c r="BB16" t="s">
+      <c r="BA16" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="s">
         <v>4</v>
       </c>
-      <c r="BC16" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD16" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-    </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD16" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE16" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>130</v>
+      </c>
+      <c r="N17" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>96</v>
+      </c>
+      <c r="R17">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0.15</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W17">
+        <v>62</v>
+      </c>
+      <c r="X17">
+        <v>5</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z17">
+        <v>0.03</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD17">
+        <v>15</v>
+      </c>
+      <c r="AE17">
+        <v>0.03</v>
+      </c>
+      <c r="AF17">
+        <v>6</v>
+      </c>
+      <c r="AG17">
+        <v>1.2</v>
+      </c>
+      <c r="AH17">
+        <v>0.8</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP17">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AQ17" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AR17" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU17">
+        <v>0.623</v>
+      </c>
+      <c r="AV17">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE17" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18">
+        <v>141</v>
+      </c>
+      <c r="C18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>0.3</v>
       </c>
+      <c r="G18" t="s">
+        <v>110</v>
+      </c>
       <c r="H18" t="s">
-        <v>110</v>
-      </c>
-      <c r="I18" t="s">
         <v>107</v>
       </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
@@ -3227,302 +3395,318 @@
         <v>1</v>
       </c>
       <c r="L18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="s">
         <v>130</v>
       </c>
       <c r="N18" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="O18">
         <v>6</v>
       </c>
       <c r="P18">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q18" t="s">
         <v>96</v>
       </c>
       <c r="R18">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
+        <v>0.15</v>
+      </c>
+      <c r="U18">
         <v>3</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>62</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>5</v>
       </c>
-      <c r="X18" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y18">
+      <c r="Y18" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z18">
         <v>0.03</v>
       </c>
-      <c r="AA18" t="s">
-        <v>50</v>
-      </c>
       <c r="AB18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC18">
-        <v>14</v>
+        <v>143</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>144</v>
       </c>
       <c r="AD18">
+        <v>30</v>
+      </c>
+      <c r="AE18">
         <v>0.03</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>6</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>1.2</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0.8</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AI18" t="s">
         <v>86</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="s">
+      <c r="AJ18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="s">
         <v>128</v>
       </c>
-      <c r="AM18" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN18">
+      <c r="AN18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO18">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO18">
+      <c r="AP18">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP18" s="3">
+      <c r="AQ18" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ18" s="9">
+      <c r="AR18" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>32</v>
       </c>
       <c r="AS18" t="s">
         <v>32</v>
       </c>
-      <c r="AT18">
+      <c r="AT18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU18">
         <v>0.623</v>
       </c>
-      <c r="AU18">
+      <c r="AV18">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX18" t="b">
-        <v>1</v>
-      </c>
       <c r="AY18" t="b">
         <v>1</v>
       </c>
       <c r="AZ18" t="b">
         <v>1</v>
       </c>
-      <c r="BA18">
-        <v>0</v>
-      </c>
-      <c r="BB18" t="s">
+      <c r="BA18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="s">
         <v>4</v>
       </c>
-      <c r="BC18" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD18" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="BD18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE18" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+    </row>
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>130</v>
+      </c>
+      <c r="N20" t="s">
+        <v>162</v>
+      </c>
+      <c r="O20">
+        <v>6</v>
+      </c>
+      <c r="P20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>96</v>
+      </c>
+      <c r="R20">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0.15</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W20">
+        <v>62</v>
+      </c>
+      <c r="X20">
+        <v>5</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z20">
+        <v>0.03</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD20">
+        <v>14</v>
+      </c>
+      <c r="AE20">
+        <v>0.03</v>
+      </c>
+      <c r="AF20">
+        <v>6</v>
+      </c>
+      <c r="AG20">
+        <v>1.2</v>
+      </c>
+      <c r="AH20">
+        <v>0.8</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP20">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AQ20" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AR20" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU20">
+        <v>0.623</v>
+      </c>
+      <c r="AV20">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ20" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA20" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD20" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE20" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" t="s">
         <v>161</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19">
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>0.3</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G21" t="s">
         <v>110</v>
       </c>
-      <c r="I19" t="s">
+      <c r="H21" t="s">
         <v>107</v>
       </c>
-      <c r="J19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" t="s">
-        <v>130</v>
-      </c>
-      <c r="N19" t="s">
-        <v>162</v>
-      </c>
-      <c r="O19">
-        <v>6</v>
-      </c>
-      <c r="P19">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>96</v>
-      </c>
-      <c r="R19">
-        <v>0.45</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>3</v>
-      </c>
-      <c r="U19">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V19">
-        <v>62</v>
-      </c>
-      <c r="W19">
-        <v>5</v>
-      </c>
-      <c r="X19" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y19">
-        <v>0.03</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC19">
-        <v>14</v>
-      </c>
-      <c r="AD19">
-        <v>0.03</v>
-      </c>
-      <c r="AE19">
-        <v>6</v>
-      </c>
-      <c r="AF19">
-        <v>1.2</v>
-      </c>
-      <c r="AG19">
-        <v>0.8</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AO19">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AP19" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AQ19" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT19">
-        <v>0.623</v>
-      </c>
-      <c r="AU19">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AX19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA19">
-        <v>0</v>
-      </c>
-      <c r="BB19" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD19" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.3</v>
-      </c>
-      <c r="H21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I21" t="s">
-        <v>107</v>
+      <c r="I21" t="b">
+        <v>0</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
@@ -3531,307 +3715,320 @@
         <v>1</v>
       </c>
       <c r="L21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="s">
         <v>130</v>
       </c>
       <c r="N21" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="O21">
         <v>6</v>
       </c>
       <c r="P21">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q21" t="s">
         <v>96</v>
       </c>
       <c r="R21">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
+        <v>0.15</v>
+      </c>
+      <c r="U21">
         <v>3</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>62</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>5</v>
       </c>
-      <c r="X21" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y21">
+      <c r="Y21" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z21">
         <v>0.03</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>50</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>43</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>14</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.03</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>6</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>1.2</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.8</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AI21" t="s">
         <v>86</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="s">
+      <c r="AJ21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="s">
         <v>128</v>
       </c>
-      <c r="AM21" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN21">
+      <c r="AN21" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO21">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO21">
+      <c r="AP21">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP21" s="3">
+      <c r="AQ21" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ21" s="9">
+      <c r="AR21" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>32</v>
       </c>
       <c r="AS21" t="s">
         <v>32</v>
       </c>
-      <c r="AT21">
+      <c r="AT21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU21">
         <v>0.623</v>
       </c>
-      <c r="AU21">
+      <c r="AV21">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX21" t="b">
-        <v>1</v>
-      </c>
       <c r="AY21" t="b">
         <v>1</v>
       </c>
       <c r="AZ21" t="b">
         <v>1</v>
       </c>
-      <c r="BA21">
-        <v>0</v>
-      </c>
-      <c r="BB21" t="s">
+      <c r="BA21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="s">
         <v>4</v>
       </c>
-      <c r="BC21" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD21" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22">
+      <c r="BD21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE21" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="9"/>
+      <c r="BE22" s="35"/>
+    </row>
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>0.3</v>
       </c>
-      <c r="H22" t="s">
+      <c r="G23" t="s">
         <v>110</v>
       </c>
-      <c r="I22" t="s">
+      <c r="H23" t="s">
         <v>107</v>
       </c>
-      <c r="J22" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="b">
-        <v>1</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
         <v>130</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N23" t="s">
         <v>162</v>
       </c>
-      <c r="O22">
+      <c r="O23">
         <v>6</v>
       </c>
-      <c r="P22">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="P23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q23" t="s">
         <v>96</v>
       </c>
-      <c r="R22">
-        <v>0.45</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
+      <c r="R23">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0.15</v>
+      </c>
+      <c r="U23">
         <v>3</v>
       </c>
-      <c r="U22">
+      <c r="V23">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V22">
+      <c r="W23">
         <v>62</v>
       </c>
-      <c r="W22">
+      <c r="X23">
         <v>5</v>
       </c>
-      <c r="X22" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y22">
+      <c r="Y23" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z23">
         <v>0.03</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB23" t="s">
         <v>50</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC23" t="s">
         <v>43</v>
       </c>
-      <c r="AC22">
-        <v>14</v>
-      </c>
-      <c r="AD22">
+      <c r="AD23">
+        <v>30</v>
+      </c>
+      <c r="AE23">
         <v>0.03</v>
       </c>
-      <c r="AE22">
+      <c r="AF23">
         <v>6</v>
       </c>
-      <c r="AF22">
+      <c r="AG23">
         <v>1.2</v>
       </c>
-      <c r="AG22">
+      <c r="AH23">
         <v>0.8</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AI23" t="s">
         <v>86</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="s">
+      <c r="AJ23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="s">
         <v>128</v>
       </c>
-      <c r="AM22" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN22">
+      <c r="AN23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO22">
+      <c r="AP23">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP22" s="3">
+      <c r="AQ23" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ22" s="9">
+      <c r="AR23" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR22" t="s">
+      <c r="AS23" t="s">
         <v>32</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AT23" t="s">
         <v>32</v>
       </c>
-      <c r="AT22">
+      <c r="AU23">
         <v>0.623</v>
       </c>
-      <c r="AU22">
+      <c r="AV23">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA22">
-        <v>0</v>
-      </c>
-      <c r="BB22" t="s">
+      <c r="AY23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ23" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA23" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23" t="s">
         <v>4</v>
       </c>
-      <c r="BC22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD22" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AP23" s="3"/>
-      <c r="AQ23" s="3"/>
-    </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD23" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE23" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24">
+        <v>147</v>
+      </c>
+      <c r="C24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>0.3</v>
       </c>
+      <c r="G24" t="s">
+        <v>110</v>
+      </c>
       <c r="H24" t="s">
-        <v>110</v>
-      </c>
-      <c r="I24" t="s">
         <v>107</v>
       </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
@@ -3839,7 +4036,7 @@
         <v>1</v>
       </c>
       <c r="L24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="s">
         <v>130</v>
@@ -3851,925 +4048,933 @@
         <v>6</v>
       </c>
       <c r="P24">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q24" t="s">
         <v>96</v>
       </c>
       <c r="R24">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
+        <v>0.15</v>
+      </c>
+      <c r="U24">
         <v>3</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>62</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>5</v>
       </c>
-      <c r="X24" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y24">
+      <c r="Y24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z24">
         <v>0.03</v>
       </c>
-      <c r="AA24" t="s">
-        <v>50</v>
-      </c>
       <c r="AB24" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC24" t="s">
         <v>43</v>
       </c>
-      <c r="AC24">
-        <v>14</v>
-      </c>
       <c r="AD24">
+        <v>15</v>
+      </c>
+      <c r="AE24">
         <v>0.03</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>6</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>1.2</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.8</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AI24" t="s">
         <v>86</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="s">
+      <c r="AJ24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="s">
         <v>128</v>
       </c>
-      <c r="AM24" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN24">
+      <c r="AN24" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO24">
+      <c r="AP24">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP24" s="3">
+      <c r="AQ24" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ24" s="9">
+      <c r="AR24" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>32</v>
       </c>
       <c r="AS24" t="s">
         <v>32</v>
       </c>
-      <c r="AT24">
+      <c r="AT24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU24">
         <v>0.623</v>
       </c>
-      <c r="AU24">
+      <c r="AV24">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX24" t="b">
-        <v>1</v>
-      </c>
       <c r="AY24" t="b">
         <v>1</v>
       </c>
       <c r="AZ24" t="b">
         <v>1</v>
       </c>
-      <c r="BA24">
-        <v>0</v>
-      </c>
-      <c r="BB24" t="s">
+      <c r="BA24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="s">
         <v>4</v>
       </c>
-      <c r="BC24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD24" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="BD24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE24" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="9"/>
+      <c r="BE25" s="35"/>
+    </row>
+    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0.3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>130</v>
+      </c>
+      <c r="N26" t="s">
+        <v>136</v>
+      </c>
+      <c r="O26">
+        <v>6</v>
+      </c>
+      <c r="P26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>96</v>
+      </c>
+      <c r="R26">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0.15</v>
+      </c>
+      <c r="U26">
+        <v>3</v>
+      </c>
+      <c r="V26">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W26">
+        <v>62</v>
+      </c>
+      <c r="X26">
+        <v>5</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z26">
+        <v>0.03</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD26">
+        <v>14</v>
+      </c>
+      <c r="AE26">
+        <v>0.03</v>
+      </c>
+      <c r="AF26">
+        <v>6</v>
+      </c>
+      <c r="AG26">
+        <v>1.2</v>
+      </c>
+      <c r="AH26">
+        <v>0.8</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP26">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AQ26" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AR26" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU26">
+        <v>0.623</v>
+      </c>
+      <c r="AV26">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE26" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" t="s">
         <v>161</v>
       </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25">
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>0.3</v>
       </c>
-      <c r="H25" t="s">
+      <c r="G27" t="s">
         <v>110</v>
       </c>
-      <c r="I25" t="s">
+      <c r="H27" t="s">
         <v>107</v>
       </c>
-      <c r="J25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M25" t="s">
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
         <v>130</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N27" t="s">
         <v>162</v>
       </c>
-      <c r="O25">
+      <c r="O27">
         <v>6</v>
       </c>
-      <c r="P25">
+      <c r="P27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>96</v>
+      </c>
+      <c r="R27">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0.15</v>
+      </c>
+      <c r="U27">
+        <v>3</v>
+      </c>
+      <c r="V27">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W27">
+        <v>62</v>
+      </c>
+      <c r="X27">
+        <v>5</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z27">
+        <v>0.03</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD27">
+        <v>14</v>
+      </c>
+      <c r="AE27">
+        <v>0.03</v>
+      </c>
+      <c r="AF27">
+        <v>6</v>
+      </c>
+      <c r="AG27">
+        <v>1.2</v>
+      </c>
+      <c r="AH27">
+        <v>0.8</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP27">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AQ27" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AR27" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU27">
+        <v>0.623</v>
+      </c>
+      <c r="AV27">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ27" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA27" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD27" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE27" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="9"/>
+      <c r="BE28" s="35"/>
+    </row>
+    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="9"/>
+      <c r="BE29" s="35"/>
+    </row>
+    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A30" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>130</v>
+      </c>
+      <c r="N30" t="s">
+        <v>162</v>
+      </c>
+      <c r="O30">
+        <v>6</v>
+      </c>
+      <c r="P30">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q30" t="s">
         <v>96</v>
       </c>
-      <c r="R25">
+      <c r="R30">
         <v>0.45</v>
       </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="U30">
         <v>3</v>
       </c>
-      <c r="U25">
+      <c r="V30">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V25">
+      <c r="W30">
         <v>62</v>
       </c>
-      <c r="W25">
+      <c r="X30">
         <v>5</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y30" t="s">
         <v>79</v>
       </c>
-      <c r="Y25">
+      <c r="Z30">
         <v>0.03</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AB30" t="s">
         <v>50</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC30" t="s">
         <v>43</v>
       </c>
-      <c r="AC25">
+      <c r="AD30">
         <v>14</v>
       </c>
-      <c r="AD25">
+      <c r="AE30">
         <v>0.03</v>
       </c>
-      <c r="AE25">
+      <c r="AF30">
         <v>6</v>
       </c>
-      <c r="AF25">
+      <c r="AG30">
         <v>1.2</v>
       </c>
-      <c r="AG25">
+      <c r="AH30">
         <v>0.8</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AI30" t="s">
         <v>86</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="s">
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="s">
         <v>128</v>
       </c>
-      <c r="AM25" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN25">
+      <c r="AN30" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO25">
+      <c r="AP30">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP25" s="3">
+      <c r="AQ30" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ25" s="9">
+      <c r="AR30" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR25" t="s">
+      <c r="AS30" t="s">
         <v>32</v>
       </c>
-      <c r="AS25" t="s">
+      <c r="AT30" t="s">
         <v>32</v>
       </c>
-      <c r="AT25">
+      <c r="AU30">
         <v>0.623</v>
       </c>
-      <c r="AU25">
+      <c r="AV30">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ25" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA25">
-        <v>0</v>
-      </c>
-      <c r="BB25" t="s">
+      <c r="AY30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ30" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA30" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30" t="s">
         <v>4</v>
       </c>
-      <c r="BC25" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD25" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="9"/>
-      <c r="BD26" s="35"/>
-    </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AP27" s="3"/>
-      <c r="AQ27" s="9"/>
-      <c r="BD27" s="35"/>
-    </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="C28" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28">
+      <c r="BD30" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE30" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>0.3</v>
       </c>
-      <c r="H28" t="s">
+      <c r="G31" t="s">
         <v>110</v>
       </c>
-      <c r="I28" t="s">
+      <c r="H31" t="s">
         <v>107</v>
       </c>
-      <c r="J28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
         <v>130</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N31" t="s">
         <v>162</v>
       </c>
-      <c r="O28">
+      <c r="O31">
         <v>6</v>
       </c>
-      <c r="P28">
+      <c r="P31">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q31" t="s">
         <v>96</v>
       </c>
-      <c r="R28">
+      <c r="R31">
         <v>0.45</v>
       </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="U31">
         <v>3</v>
       </c>
-      <c r="U28">
+      <c r="V31">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V28">
+      <c r="W31">
         <v>62</v>
       </c>
-      <c r="W28">
+      <c r="X31">
         <v>5</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y31" t="s">
         <v>79</v>
       </c>
-      <c r="Y28">
+      <c r="Z31">
         <v>0.03</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AB31" t="s">
         <v>50</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC31" t="s">
         <v>43</v>
       </c>
-      <c r="AC28">
+      <c r="AD31">
         <v>14</v>
       </c>
-      <c r="AD28">
+      <c r="AE31">
         <v>0.03</v>
       </c>
-      <c r="AE28">
+      <c r="AF31">
         <v>6</v>
       </c>
-      <c r="AF28">
+      <c r="AG31">
         <v>1.2</v>
       </c>
-      <c r="AG28">
+      <c r="AH31">
         <v>0.8</v>
       </c>
-      <c r="AH28" t="s">
+      <c r="AI31" t="s">
         <v>86</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="s">
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="s">
         <v>128</v>
       </c>
-      <c r="AM28" t="s">
+      <c r="AN31" t="s">
         <v>175</v>
       </c>
-      <c r="AN28">
+      <c r="AO31">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO28">
+      <c r="AP31">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP28" s="3">
+      <c r="AQ31" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ28" s="9">
+      <c r="AR31" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR28" t="s">
+      <c r="AS31" t="s">
         <v>32</v>
       </c>
-      <c r="AS28" t="s">
+      <c r="AT31" t="s">
         <v>32</v>
       </c>
-      <c r="AT28">
+      <c r="AU31">
         <v>0.623</v>
       </c>
-      <c r="AU28">
+      <c r="AV31">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA28">
-        <v>0</v>
-      </c>
-      <c r="BB28" t="s">
+      <c r="AY31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ31" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA31" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="s">
         <v>4</v>
       </c>
-      <c r="BC28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD28" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="C29" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>161</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29">
+      <c r="BD31" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE31" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="9"/>
+      <c r="BE32" s="35"/>
+    </row>
+    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+    </row>
+    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A34" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <v>0.3</v>
       </c>
-      <c r="H29" t="s">
+      <c r="G34" t="s">
         <v>110</v>
       </c>
-      <c r="I29" t="s">
-        <v>107</v>
-      </c>
-      <c r="J29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="b">
-        <v>1</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="H34" t="s">
+        <v>112</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
         <v>130</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N34" t="s">
         <v>162</v>
       </c>
-      <c r="O29">
+      <c r="O34">
         <v>6</v>
       </c>
-      <c r="P29">
+      <c r="P34">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q34" t="s">
         <v>96</v>
       </c>
-      <c r="R29">
+      <c r="R34">
         <v>0.45</v>
       </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="U34">
         <v>3</v>
       </c>
-      <c r="U29">
+      <c r="V34">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V29">
+      <c r="W34">
         <v>62</v>
       </c>
-      <c r="W29">
+      <c r="X34">
         <v>5</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y34" t="s">
         <v>79</v>
       </c>
-      <c r="Y29">
+      <c r="Z34">
         <v>0.03</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AB34" t="s">
         <v>50</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC34" t="s">
         <v>43</v>
       </c>
-      <c r="AC29">
+      <c r="AD34">
         <v>14</v>
       </c>
-      <c r="AD29">
+      <c r="AE34">
         <v>0.03</v>
       </c>
-      <c r="AE29">
+      <c r="AF34">
         <v>6</v>
       </c>
-      <c r="AF29">
+      <c r="AG34">
         <v>1.2</v>
       </c>
-      <c r="AG29">
+      <c r="AH34">
         <v>0.8</v>
       </c>
-      <c r="AH29" t="s">
+      <c r="AI34" t="s">
         <v>86</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL29" t="s">
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="s">
         <v>128</v>
       </c>
-      <c r="AM29" t="s">
-        <v>175</v>
-      </c>
-      <c r="AN29">
+      <c r="AN34" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO34">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO29">
+      <c r="AP34">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP29" s="3">
+      <c r="AQ34" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ29" s="9">
+      <c r="AR34" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR29" t="s">
+      <c r="AS34" t="s">
         <v>32</v>
       </c>
-      <c r="AS29" t="s">
+      <c r="AT34" t="s">
         <v>32</v>
       </c>
-      <c r="AT29">
+      <c r="AU34">
         <v>0.623</v>
       </c>
-      <c r="AU29">
+      <c r="AV34">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ29" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA29">
-        <v>0</v>
-      </c>
-      <c r="BB29" t="s">
+      <c r="AY34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34" t="s">
         <v>4</v>
       </c>
-      <c r="BC29" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD29" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AP30" s="3"/>
-      <c r="AQ30" s="9"/>
-      <c r="BD30" s="35"/>
-    </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AP31" s="3"/>
-      <c r="AQ31" s="3"/>
-    </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="BD34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE34" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A35" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
         <v>21</v>
       </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>0.3</v>
       </c>
-      <c r="H32" t="s">
+      <c r="G35" t="s">
         <v>110</v>
       </c>
-      <c r="I32" t="s">
-        <v>112</v>
-      </c>
-      <c r="J32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" t="b">
-        <v>1</v>
-      </c>
-      <c r="M32" t="s">
-        <v>130</v>
-      </c>
-      <c r="N32" t="s">
-        <v>162</v>
-      </c>
-      <c r="O32">
-        <v>6</v>
-      </c>
-      <c r="P32">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>96</v>
-      </c>
-      <c r="R32">
-        <v>0.45</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>3</v>
-      </c>
-      <c r="U32">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V32">
-        <v>62</v>
-      </c>
-      <c r="W32">
-        <v>5</v>
-      </c>
-      <c r="X32" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y32">
-        <v>0.03</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC32">
-        <v>14</v>
-      </c>
-      <c r="AD32">
-        <v>0.03</v>
-      </c>
-      <c r="AE32">
-        <v>6</v>
-      </c>
-      <c r="AF32">
-        <v>1.2</v>
-      </c>
-      <c r="AG32">
-        <v>0.8</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-      <c r="AK32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN32">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AO32">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AP32" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AQ32" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT32">
-        <v>0.623</v>
-      </c>
-      <c r="AU32">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AX32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ32" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA32">
-        <v>0</v>
-      </c>
-      <c r="BB32" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC32" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD32" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0.3</v>
-      </c>
-      <c r="H33" t="s">
-        <v>110</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="H35" t="s">
         <v>113</v>
       </c>
-      <c r="J33" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33" t="b">
-        <v>1</v>
-      </c>
-      <c r="M33" t="s">
-        <v>130</v>
-      </c>
-      <c r="N33" t="s">
-        <v>162</v>
-      </c>
-      <c r="O33">
-        <v>6</v>
-      </c>
-      <c r="P33">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>96</v>
-      </c>
-      <c r="R33">
-        <v>0.45</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>3</v>
-      </c>
-      <c r="U33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V33">
-        <v>62</v>
-      </c>
-      <c r="W33">
-        <v>5</v>
-      </c>
-      <c r="X33" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y33">
-        <v>0.03</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC33">
-        <v>14</v>
-      </c>
-      <c r="AD33">
-        <v>0.03</v>
-      </c>
-      <c r="AE33">
-        <v>6</v>
-      </c>
-      <c r="AF33">
-        <v>1.2</v>
-      </c>
-      <c r="AG33">
-        <v>0.8</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN33">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AO33">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AP33" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AQ33" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT33">
-        <v>0.623</v>
-      </c>
-      <c r="AU33">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AX33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ33" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA33">
-        <v>0</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC33" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD33" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-    </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0.3</v>
-      </c>
-      <c r="H35" t="s">
-        <v>114</v>
-      </c>
-      <c r="I35" t="s">
-        <v>107</v>
+      <c r="I35" t="b">
+        <v>1</v>
       </c>
       <c r="J35" t="b">
-        <v>1</v>
-      </c>
-      <c r="K35" t="b">
         <v>1</v>
       </c>
       <c r="L35" t="b">
@@ -4796,595 +5001,437 @@
       <c r="S35">
         <v>0</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>3</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>62</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>5</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>79</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>0.03</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="AB35" t="s">
         <v>50</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AC35" t="s">
         <v>43</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>14</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>0.03</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>6</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>1.2</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>0.8</v>
       </c>
-      <c r="AH35" t="s">
+      <c r="AI35" t="s">
         <v>86</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
-      <c r="AK35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="s">
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="s">
         <v>128</v>
       </c>
-      <c r="AM35" t="s">
+      <c r="AN35" t="s">
         <v>21</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO35">
+      <c r="AP35">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP35" s="3">
+      <c r="AQ35" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ35" s="9">
+      <c r="AR35" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR35" t="s">
-        <v>32</v>
       </c>
       <c r="AS35" t="s">
         <v>32</v>
       </c>
-      <c r="AT35">
+      <c r="AT35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU35">
         <v>0.623</v>
       </c>
-      <c r="AU35">
+      <c r="AV35">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX35" t="b">
-        <v>1</v>
-      </c>
       <c r="AY35" t="b">
         <v>1</v>
       </c>
       <c r="AZ35" t="b">
         <v>1</v>
       </c>
-      <c r="BA35">
-        <v>0</v>
-      </c>
-      <c r="BB35" t="s">
+      <c r="BA35" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35" t="s">
         <v>4</v>
       </c>
-      <c r="BC35" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD35" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
+      <c r="BD35" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE35" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+    </row>
+    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A37" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0.3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>130</v>
+      </c>
+      <c r="N37" t="s">
+        <v>162</v>
+      </c>
+      <c r="O37">
+        <v>6</v>
+      </c>
+      <c r="P37">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>96</v>
+      </c>
+      <c r="R37">
+        <v>0.45</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>3</v>
+      </c>
+      <c r="V37">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W37">
+        <v>62</v>
+      </c>
+      <c r="X37">
+        <v>5</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z37">
+        <v>0.03</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD37">
+        <v>14</v>
+      </c>
+      <c r="AE37">
+        <v>0.03</v>
+      </c>
+      <c r="AF37">
+        <v>6</v>
+      </c>
+      <c r="AG37">
+        <v>1.2</v>
+      </c>
+      <c r="AH37">
+        <v>0.8</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP37">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AQ37" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AR37" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU37">
+        <v>0.623</v>
+      </c>
+      <c r="AV37">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ37" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA37" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD37" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE37" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A38" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C38" t="s">
         <v>21</v>
       </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36">
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38">
         <v>0.3</v>
       </c>
-      <c r="H36" t="s">
+      <c r="G38" t="s">
         <v>115</v>
       </c>
-      <c r="I36" t="s">
+      <c r="H38" t="s">
         <v>107</v>
       </c>
-      <c r="J36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="b">
-        <v>1</v>
-      </c>
-      <c r="M36" t="s">
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
         <v>130</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N38" t="s">
         <v>162</v>
       </c>
-      <c r="O36">
+      <c r="O38">
         <v>6</v>
       </c>
-      <c r="P36">
+      <c r="P38">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="Q38" t="s">
         <v>96</v>
       </c>
-      <c r="R36">
+      <c r="R38">
         <v>0.45</v>
       </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="U38">
         <v>3</v>
       </c>
-      <c r="U36">
+      <c r="V38">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V36">
+      <c r="W38">
         <v>62</v>
       </c>
-      <c r="W36">
+      <c r="X38">
         <v>5</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y38" t="s">
         <v>79</v>
       </c>
-      <c r="Y36">
+      <c r="Z38">
         <v>0.03</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="AB38" t="s">
         <v>50</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AC38" t="s">
         <v>43</v>
       </c>
-      <c r="AC36">
+      <c r="AD38">
         <v>14</v>
       </c>
-      <c r="AD36">
+      <c r="AE38">
         <v>0.03</v>
       </c>
-      <c r="AE36">
+      <c r="AF38">
         <v>6</v>
       </c>
-      <c r="AF36">
+      <c r="AG38">
         <v>1.2</v>
       </c>
-      <c r="AG36">
+      <c r="AH38">
         <v>0.8</v>
       </c>
-      <c r="AH36" t="s">
+      <c r="AI38" t="s">
         <v>86</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
-      <c r="AK36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="s">
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="s">
         <v>128</v>
       </c>
-      <c r="AM36" t="s">
+      <c r="AN38" t="s">
         <v>21</v>
       </c>
-      <c r="AN36">
+      <c r="AO38">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO36">
+      <c r="AP38">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP36" s="3">
+      <c r="AQ38" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ36" s="9">
+      <c r="AR38" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR36" t="s">
+      <c r="AS38" t="s">
         <v>32</v>
       </c>
-      <c r="AS36" t="s">
+      <c r="AT38" t="s">
         <v>32</v>
       </c>
-      <c r="AT36">
+      <c r="AU38">
         <v>0.623</v>
       </c>
-      <c r="AU36">
+      <c r="AV38">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ36" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA36">
-        <v>0</v>
-      </c>
-      <c r="BB36" t="s">
+      <c r="AY38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ38" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA38" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38" t="s">
         <v>4</v>
       </c>
-      <c r="BC36" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD36" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
+      <c r="BD38" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE38" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="C39" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C41" t="s">
         <v>139</v>
       </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39">
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <v>0.3</v>
       </c>
-      <c r="H39" t="s">
+      <c r="G41" t="s">
         <v>110</v>
       </c>
-      <c r="I39" t="s">
+      <c r="H41" t="s">
         <v>107</v>
       </c>
-      <c r="J39" t="b">
-        <v>0</v>
-      </c>
-      <c r="K39" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" t="b">
-        <v>1</v>
-      </c>
-      <c r="M39" t="s">
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
         <v>130</v>
-      </c>
-      <c r="N39" t="s">
-        <v>136</v>
-      </c>
-      <c r="O39">
-        <v>6</v>
-      </c>
-      <c r="P39">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>96</v>
-      </c>
-      <c r="R39">
-        <v>0.45</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>3</v>
-      </c>
-      <c r="U39">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V39">
-        <v>62</v>
-      </c>
-      <c r="W39">
-        <v>5</v>
-      </c>
-      <c r="X39" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y39">
-        <v>0.03</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC39">
-        <v>14</v>
-      </c>
-      <c r="AD39">
-        <v>0.03</v>
-      </c>
-      <c r="AE39">
-        <v>6</v>
-      </c>
-      <c r="AF39">
-        <v>1.2</v>
-      </c>
-      <c r="AG39">
-        <v>0.8</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
-      <c r="AK39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN39">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AO39">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AP39" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AQ39" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS39" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT39">
-        <v>0.623</v>
-      </c>
-      <c r="AU39">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AX39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ39" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA39">
-        <v>0</v>
-      </c>
-      <c r="BB39" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC39" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD39" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="C40" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0.3</v>
-      </c>
-      <c r="H40" t="s">
-        <v>110</v>
-      </c>
-      <c r="I40" t="s">
-        <v>107</v>
-      </c>
-      <c r="J40" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="b">
-        <v>1</v>
-      </c>
-      <c r="M40" t="s">
-        <v>130</v>
-      </c>
-      <c r="N40" t="s">
-        <v>136</v>
-      </c>
-      <c r="O40">
-        <v>6</v>
-      </c>
-      <c r="P40">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>96</v>
-      </c>
-      <c r="R40">
-        <v>0.45</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>3</v>
-      </c>
-      <c r="U40">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V40">
-        <v>62</v>
-      </c>
-      <c r="W40">
-        <v>5</v>
-      </c>
-      <c r="X40" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y40">
-        <v>0.03</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC40">
-        <v>14</v>
-      </c>
-      <c r="AD40">
-        <v>0.03</v>
-      </c>
-      <c r="AE40">
-        <v>6</v>
-      </c>
-      <c r="AF40">
-        <v>1.2</v>
-      </c>
-      <c r="AG40">
-        <v>0.8</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
-      <c r="AK40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL40" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM40" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN40">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AO40">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AP40" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AQ40" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR40" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS40" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT40">
-        <v>0.623</v>
-      </c>
-      <c r="AU40">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AX40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ40" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA40">
-        <v>0</v>
-      </c>
-      <c r="BB40" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC40" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD40" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" t="s">
-        <v>140</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0.3</v>
-      </c>
-      <c r="H41" t="s">
-        <v>110</v>
-      </c>
-      <c r="I41" t="s">
-        <v>107</v>
-      </c>
-      <c r="J41" t="b">
-        <v>0</v>
-      </c>
-      <c r="K41" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" t="b">
-        <v>1</v>
-      </c>
-      <c r="M41" t="s">
-        <v>133</v>
       </c>
       <c r="N41" t="s">
         <v>136</v>
@@ -5404,112 +5451,410 @@
       <c r="S41">
         <v>0</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>3</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>62</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>5</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>79</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>0.03</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>50</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AC41" t="s">
         <v>43</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <v>14</v>
       </c>
-      <c r="AD41">
+      <c r="AE41">
         <v>0.03</v>
       </c>
-      <c r="AE41">
+      <c r="AF41">
         <v>6</v>
       </c>
-      <c r="AF41">
+      <c r="AG41">
         <v>1.2</v>
       </c>
-      <c r="AG41">
+      <c r="AH41">
         <v>0.8</v>
       </c>
-      <c r="AH41" t="s">
+      <c r="AI41" t="s">
         <v>86</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
-      <c r="AK41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="s">
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="s">
         <v>128</v>
       </c>
-      <c r="AM41" t="s">
+      <c r="AN41" t="s">
         <v>21</v>
       </c>
-      <c r="AN41">
+      <c r="AO41">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO41">
+      <c r="AP41">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP41" s="3">
+      <c r="AQ41" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ41" s="9">
+      <c r="AR41" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR41" t="s">
-        <v>32</v>
       </c>
       <c r="AS41" t="s">
         <v>32</v>
       </c>
-      <c r="AT41">
+      <c r="AT41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU41">
         <v>0.623</v>
       </c>
-      <c r="AU41">
+      <c r="AV41">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX41" t="b">
-        <v>1</v>
-      </c>
       <c r="AY41" t="b">
         <v>1</v>
       </c>
       <c r="AZ41" t="b">
         <v>1</v>
       </c>
-      <c r="BA41">
-        <v>0</v>
-      </c>
-      <c r="BB41" t="s">
+      <c r="BA41" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41" t="s">
         <v>4</v>
       </c>
-      <c r="BC41" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD41" s="35" t="b">
+      <c r="BD41" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE41" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0.3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" t="s">
+        <v>107</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>130</v>
+      </c>
+      <c r="N42" t="s">
+        <v>136</v>
+      </c>
+      <c r="O42">
+        <v>6</v>
+      </c>
+      <c r="P42">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>96</v>
+      </c>
+      <c r="R42">
+        <v>0.45</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>3</v>
+      </c>
+      <c r="V42">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W42">
+        <v>62</v>
+      </c>
+      <c r="X42">
+        <v>5</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z42">
+        <v>0.03</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD42">
+        <v>14</v>
+      </c>
+      <c r="AE42">
+        <v>0.03</v>
+      </c>
+      <c r="AF42">
+        <v>6</v>
+      </c>
+      <c r="AG42">
+        <v>1.2</v>
+      </c>
+      <c r="AH42">
+        <v>0.8</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP42">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AQ42" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AR42" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU42">
+        <v>0.623</v>
+      </c>
+      <c r="AV42">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ42" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA42" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD42" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE42" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0.3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>133</v>
+      </c>
+      <c r="N43" t="s">
+        <v>136</v>
+      </c>
+      <c r="O43">
+        <v>6</v>
+      </c>
+      <c r="P43">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>96</v>
+      </c>
+      <c r="R43">
+        <v>0.45</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>3</v>
+      </c>
+      <c r="V43">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W43">
+        <v>62</v>
+      </c>
+      <c r="X43">
+        <v>5</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z43">
+        <v>0.03</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD43">
+        <v>14</v>
+      </c>
+      <c r="AE43">
+        <v>0.03</v>
+      </c>
+      <c r="AF43">
+        <v>6</v>
+      </c>
+      <c r="AG43">
+        <v>1.2</v>
+      </c>
+      <c r="AH43">
+        <v>0.8</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO43">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP43">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AQ43" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AR43" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU43">
+        <v>0.623</v>
+      </c>
+      <c r="AV43">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ43" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA43" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD43" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE43" s="35" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY35:AZ36 L35:L36 F39:F41 AY39:AZ41 K39:L41 K28:K36 L28:L33 K5:L30 AY5:AZ33 F5:F36" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ37:BA38 L37:L38 E41:E43 AZ41:BA43 J41:L43 J30:K38 L30:L35 AZ5:BA35 J5:L32 E5:E38" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL35:AL36 AL39:AL41 AL5:AL33" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM37:AM38 AM41:AM43 AM5:AM35" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6457,10 +6802,10 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="43"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E51038-C58A-47FC-A536-E34EC7F230D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F848F634-7442-4BD6-AAD6-7CDC3F3FE7BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1530" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -1468,7 +1468,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2258,7 +2258,7 @@
         <v>161</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0.3</v>
@@ -3536,7 +3536,7 @@
         <v>138</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0.3</v>
@@ -3694,7 +3694,7 @@
         <v>161</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0.3</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F848F634-7442-4BD6-AAD6-7CDC3F3FE7BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A1DE19-0AFF-40A5-B8F0-673ED460A1CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1530" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="187">
   <si>
     <t>runname</t>
   </si>
@@ -732,6 +732,9 @@
   </si>
   <si>
     <t>noSmoothing</t>
+  </si>
+  <si>
+    <t>t4a_O30pA6_noTDA</t>
   </si>
 </sst>
 </file>
@@ -1462,13 +1465,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:BE43"/>
+  <dimension ref="A3:BE44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2258,7 +2261,7 @@
         <v>161</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0.3</v>
@@ -3525,173 +3528,173 @@
       </c>
     </row>
     <row r="19" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
+      <c r="A19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O19">
+        <v>6</v>
+      </c>
+      <c r="P19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R19">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0.15</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W19">
+        <v>62</v>
+      </c>
+      <c r="X19">
+        <v>5</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z19">
+        <v>0.03</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD19">
+        <v>30</v>
+      </c>
+      <c r="AE19">
+        <v>0.03</v>
+      </c>
+      <c r="AF19">
+        <v>6</v>
+      </c>
+      <c r="AG19">
+        <v>1.2</v>
+      </c>
+      <c r="AH19">
+        <v>0.8</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP19">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AQ19" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AR19" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU19">
+        <v>0.623</v>
+      </c>
+      <c r="AV19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE19" s="35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0.3</v>
-      </c>
-      <c r="G20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>130</v>
-      </c>
-      <c r="N20" t="s">
-        <v>162</v>
-      </c>
-      <c r="O20">
-        <v>6</v>
-      </c>
-      <c r="P20">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>96</v>
-      </c>
-      <c r="R20">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0.15</v>
-      </c>
-      <c r="U20">
-        <v>3</v>
-      </c>
-      <c r="V20">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="W20">
-        <v>62</v>
-      </c>
-      <c r="X20">
-        <v>5</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z20">
-        <v>0.03</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD20">
-        <v>14</v>
-      </c>
-      <c r="AE20">
-        <v>0.03</v>
-      </c>
-      <c r="AF20">
-        <v>6</v>
-      </c>
-      <c r="AG20">
-        <v>1.2</v>
-      </c>
-      <c r="AH20">
-        <v>0.8</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>174</v>
-      </c>
-      <c r="AO20">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AP20">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AQ20" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AR20" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU20">
-        <v>0.623</v>
-      </c>
-      <c r="AV20">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AY20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ20" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA20" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB20">
-        <v>0</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD20" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE20" s="35" t="b">
-        <v>1</v>
-      </c>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -3715,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="L21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="s">
         <v>130</v>
@@ -3845,171 +3848,171 @@
       </c>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="9"/>
-      <c r="BE22" s="35"/>
+      <c r="A22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>130</v>
+      </c>
+      <c r="N22" t="s">
+        <v>162</v>
+      </c>
+      <c r="O22">
+        <v>6</v>
+      </c>
+      <c r="P22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>96</v>
+      </c>
+      <c r="R22">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0.15</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W22">
+        <v>62</v>
+      </c>
+      <c r="X22">
+        <v>5</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z22">
+        <v>0.03</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD22">
+        <v>14</v>
+      </c>
+      <c r="AE22">
+        <v>0.03</v>
+      </c>
+      <c r="AF22">
+        <v>6</v>
+      </c>
+      <c r="AG22">
+        <v>1.2</v>
+      </c>
+      <c r="AH22">
+        <v>0.8</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP22">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AQ22" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AR22" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU22">
+        <v>0.623</v>
+      </c>
+      <c r="AV22">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE22" s="35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0.3</v>
-      </c>
-      <c r="G23" t="s">
-        <v>110</v>
-      </c>
-      <c r="H23" t="s">
-        <v>107</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="b">
-        <v>1</v>
-      </c>
-      <c r="M23" t="s">
-        <v>130</v>
-      </c>
-      <c r="N23" t="s">
-        <v>162</v>
-      </c>
-      <c r="O23">
-        <v>6</v>
-      </c>
-      <c r="P23">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>96</v>
-      </c>
-      <c r="R23">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0.15</v>
-      </c>
-      <c r="U23">
-        <v>3</v>
-      </c>
-      <c r="V23">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="W23">
-        <v>62</v>
-      </c>
-      <c r="X23">
-        <v>5</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z23">
-        <v>0.03</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD23">
-        <v>30</v>
-      </c>
-      <c r="AE23">
-        <v>0.03</v>
-      </c>
-      <c r="AF23">
-        <v>6</v>
-      </c>
-      <c r="AG23">
-        <v>1.2</v>
-      </c>
-      <c r="AH23">
-        <v>0.8</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO23">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AP23">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AQ23" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AR23" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU23">
-        <v>0.623</v>
-      </c>
-      <c r="AV23">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AY23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ23" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA23" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB23">
-        <v>0</v>
-      </c>
-      <c r="BC23" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD23" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE23" s="35" t="b">
-        <v>1</v>
-      </c>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="9"/>
+      <c r="BE23" s="35"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C24" t="s">
         <v>139</v>
@@ -4081,13 +4084,13 @@
         <v>0.03</v>
       </c>
       <c r="AB24" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="AC24" t="s">
         <v>43</v>
       </c>
       <c r="AD24">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AE24">
         <v>0.03</v>
@@ -4166,174 +4169,174 @@
       </c>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="AQ25" s="3"/>
-      <c r="AR25" s="9"/>
-      <c r="BE25" s="35"/>
+      <c r="A25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0.3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>130</v>
+      </c>
+      <c r="N25" t="s">
+        <v>162</v>
+      </c>
+      <c r="O25">
+        <v>6</v>
+      </c>
+      <c r="P25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>96</v>
+      </c>
+      <c r="R25">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0.15</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="V25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W25">
+        <v>62</v>
+      </c>
+      <c r="X25">
+        <v>5</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z25">
+        <v>0.03</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD25">
+        <v>15</v>
+      </c>
+      <c r="AE25">
+        <v>0.03</v>
+      </c>
+      <c r="AF25">
+        <v>6</v>
+      </c>
+      <c r="AG25">
+        <v>1.2</v>
+      </c>
+      <c r="AH25">
+        <v>0.8</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP25">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AQ25" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AR25" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU25">
+        <v>0.623</v>
+      </c>
+      <c r="AV25">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ25" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA25" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD25" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE25" s="35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0.3</v>
-      </c>
-      <c r="G26" t="s">
-        <v>110</v>
-      </c>
-      <c r="H26" t="s">
-        <v>107</v>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
-        <v>130</v>
-      </c>
-      <c r="N26" t="s">
-        <v>136</v>
-      </c>
-      <c r="O26">
-        <v>6</v>
-      </c>
-      <c r="P26">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>96</v>
-      </c>
-      <c r="R26">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0.15</v>
-      </c>
-      <c r="U26">
-        <v>3</v>
-      </c>
-      <c r="V26">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="W26">
-        <v>62</v>
-      </c>
-      <c r="X26">
-        <v>5</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z26">
-        <v>0.03</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD26">
-        <v>14</v>
-      </c>
-      <c r="AE26">
-        <v>0.03</v>
-      </c>
-      <c r="AF26">
-        <v>6</v>
-      </c>
-      <c r="AG26">
-        <v>1.2</v>
-      </c>
-      <c r="AH26">
-        <v>0.8</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO26">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AP26">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AQ26" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AR26" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU26">
-        <v>0.623</v>
-      </c>
-      <c r="AV26">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AY26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB26">
-        <v>0</v>
-      </c>
-      <c r="BC26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE26" s="35" t="b">
-        <v>1</v>
-      </c>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="9"/>
+      <c r="BE26" s="35"/>
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C27" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4357,13 +4360,13 @@
         <v>1</v>
       </c>
       <c r="L27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="s">
         <v>130</v>
       </c>
       <c r="N27" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="O27">
         <v>6</v>
@@ -4487,9 +4490,162 @@
       </c>
     </row>
     <row r="28" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="9"/>
-      <c r="BE28" s="35"/>
+      <c r="A28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>130</v>
+      </c>
+      <c r="N28" t="s">
+        <v>162</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>96</v>
+      </c>
+      <c r="R28">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0.15</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W28">
+        <v>62</v>
+      </c>
+      <c r="X28">
+        <v>5</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z28">
+        <v>0.03</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD28">
+        <v>14</v>
+      </c>
+      <c r="AE28">
+        <v>0.03</v>
+      </c>
+      <c r="AF28">
+        <v>6</v>
+      </c>
+      <c r="AG28">
+        <v>1.2</v>
+      </c>
+      <c r="AH28">
+        <v>0.8</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP28">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AQ28" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AR28" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU28">
+        <v>0.623</v>
+      </c>
+      <c r="AV28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE28" s="35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:57" x14ac:dyDescent="0.25">
       <c r="AQ29" s="3"/>
@@ -4497,160 +4653,16 @@
       <c r="BE29" s="35"/>
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="C30" t="s">
-        <v>138</v>
-      </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0.3</v>
-      </c>
-      <c r="G30" t="s">
-        <v>110</v>
-      </c>
-      <c r="H30" t="s">
-        <v>107</v>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30" t="s">
-        <v>130</v>
-      </c>
-      <c r="N30" t="s">
-        <v>162</v>
-      </c>
-      <c r="O30">
-        <v>6</v>
-      </c>
-      <c r="P30">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>96</v>
-      </c>
-      <c r="R30">
-        <v>0.45</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>3</v>
-      </c>
-      <c r="V30">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="W30">
-        <v>62</v>
-      </c>
-      <c r="X30">
-        <v>5</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z30">
-        <v>0.03</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD30">
-        <v>14</v>
-      </c>
-      <c r="AE30">
-        <v>0.03</v>
-      </c>
-      <c r="AF30">
-        <v>6</v>
-      </c>
-      <c r="AG30">
-        <v>1.2</v>
-      </c>
-      <c r="AH30">
-        <v>0.8</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>175</v>
-      </c>
-      <c r="AO30">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AP30">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AQ30" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AR30" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU30">
-        <v>0.623</v>
-      </c>
-      <c r="AV30">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AY30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ30" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA30" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB30">
-        <v>0</v>
-      </c>
-      <c r="BC30" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD30" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE30" s="35" t="b">
-        <v>1</v>
-      </c>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="9"/>
+      <c r="BE30" s="35"/>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C31" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -4671,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="L31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="s">
         <v>130</v>
@@ -4795,166 +4807,166 @@
       </c>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="AQ32" s="3"/>
-      <c r="AR32" s="9"/>
-      <c r="BE32" s="35"/>
+      <c r="A32" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0.3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>130</v>
+      </c>
+      <c r="N32" t="s">
+        <v>162</v>
+      </c>
+      <c r="O32">
+        <v>6</v>
+      </c>
+      <c r="P32">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>96</v>
+      </c>
+      <c r="R32">
+        <v>0.45</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>3</v>
+      </c>
+      <c r="V32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W32">
+        <v>62</v>
+      </c>
+      <c r="X32">
+        <v>5</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z32">
+        <v>0.03</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD32">
+        <v>14</v>
+      </c>
+      <c r="AE32">
+        <v>0.03</v>
+      </c>
+      <c r="AF32">
+        <v>6</v>
+      </c>
+      <c r="AG32">
+        <v>1.2</v>
+      </c>
+      <c r="AH32">
+        <v>0.8</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO32">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP32">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AQ32" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AR32" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU32">
+        <v>0.623</v>
+      </c>
+      <c r="AV32">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ32" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA32" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD32" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE32" s="35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:57" x14ac:dyDescent="0.25">
       <c r="AQ33" s="3"/>
-      <c r="AR33" s="3"/>
+      <c r="AR33" s="9"/>
+      <c r="BE33" s="35"/>
     </row>
     <row r="34" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0.3</v>
-      </c>
-      <c r="G34" t="s">
-        <v>110</v>
-      </c>
-      <c r="H34" t="s">
-        <v>112</v>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="b">
-        <v>1</v>
-      </c>
-      <c r="M34" t="s">
-        <v>130</v>
-      </c>
-      <c r="N34" t="s">
-        <v>162</v>
-      </c>
-      <c r="O34">
-        <v>6</v>
-      </c>
-      <c r="P34">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>96</v>
-      </c>
-      <c r="R34">
-        <v>0.45</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>3</v>
-      </c>
-      <c r="V34">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="W34">
-        <v>62</v>
-      </c>
-      <c r="X34">
-        <v>5</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z34">
-        <v>0.03</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD34">
-        <v>14</v>
-      </c>
-      <c r="AE34">
-        <v>0.03</v>
-      </c>
-      <c r="AF34">
-        <v>6</v>
-      </c>
-      <c r="AG34">
-        <v>1.2</v>
-      </c>
-      <c r="AH34">
-        <v>0.8</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK34">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO34">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AP34">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AQ34" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AR34" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU34">
-        <v>0.623</v>
-      </c>
-      <c r="AV34">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AY34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ34" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA34" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB34">
-        <v>0</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD34" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE34" s="35" t="b">
-        <v>1</v>
-      </c>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
         <v>21</v>
@@ -4969,7 +4981,7 @@
         <v>110</v>
       </c>
       <c r="H35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
@@ -5102,160 +5114,160 @@
       </c>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+      <c r="A36" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0.3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" t="s">
+        <v>113</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>130</v>
+      </c>
+      <c r="N36" t="s">
+        <v>162</v>
+      </c>
+      <c r="O36">
+        <v>6</v>
+      </c>
+      <c r="P36">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>96</v>
+      </c>
+      <c r="R36">
+        <v>0.45</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>3</v>
+      </c>
+      <c r="V36">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W36">
+        <v>62</v>
+      </c>
+      <c r="X36">
+        <v>5</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z36">
+        <v>0.03</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD36">
+        <v>14</v>
+      </c>
+      <c r="AE36">
+        <v>0.03</v>
+      </c>
+      <c r="AF36">
+        <v>6</v>
+      </c>
+      <c r="AG36">
+        <v>1.2</v>
+      </c>
+      <c r="AH36">
+        <v>0.8</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO36">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP36">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AQ36" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AR36" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU36">
+        <v>0.623</v>
+      </c>
+      <c r="AV36">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ36" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA36" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD36" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE36" s="35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0.3</v>
-      </c>
-      <c r="G37" t="s">
-        <v>114</v>
-      </c>
-      <c r="H37" t="s">
-        <v>107</v>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" t="b">
-        <v>1</v>
-      </c>
-      <c r="L37" t="b">
-        <v>1</v>
-      </c>
-      <c r="M37" t="s">
-        <v>130</v>
-      </c>
-      <c r="N37" t="s">
-        <v>162</v>
-      </c>
-      <c r="O37">
-        <v>6</v>
-      </c>
-      <c r="P37">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>96</v>
-      </c>
-      <c r="R37">
-        <v>0.45</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>3</v>
-      </c>
-      <c r="V37">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="W37">
-        <v>62</v>
-      </c>
-      <c r="X37">
-        <v>5</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z37">
-        <v>0.03</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD37">
-        <v>14</v>
-      </c>
-      <c r="AE37">
-        <v>0.03</v>
-      </c>
-      <c r="AF37">
-        <v>6</v>
-      </c>
-      <c r="AG37">
-        <v>1.2</v>
-      </c>
-      <c r="AH37">
-        <v>0.8</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK37">
-        <v>0</v>
-      </c>
-      <c r="AL37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO37">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AP37">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AQ37" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AR37" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AS37" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT37" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU37">
-        <v>0.623</v>
-      </c>
-      <c r="AV37">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AY37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ37" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA37" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB37">
-        <v>0</v>
-      </c>
-      <c r="BC37" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD37" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE37" s="35" t="b">
-        <v>1</v>
-      </c>
+      <c r="A37" s="41"/>
     </row>
     <row r="38" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
         <v>21</v>
@@ -5267,7 +5279,7 @@
         <v>0.3</v>
       </c>
       <c r="G38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H38" t="s">
         <v>107</v>
@@ -5402,158 +5414,158 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" t="s">
-        <v>139</v>
-      </c>
-      <c r="E41" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A39" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>0.3</v>
       </c>
-      <c r="G41" t="s">
-        <v>110</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="G39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39" t="s">
         <v>107</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" t="b">
-        <v>1</v>
-      </c>
-      <c r="M41" t="s">
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
         <v>130</v>
       </c>
-      <c r="N41" t="s">
-        <v>136</v>
-      </c>
-      <c r="O41">
+      <c r="N39" t="s">
+        <v>162</v>
+      </c>
+      <c r="O39">
         <v>6</v>
       </c>
-      <c r="P41">
+      <c r="P39">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="Q39" t="s">
         <v>96</v>
       </c>
-      <c r="R41">
+      <c r="R39">
         <v>0.45</v>
       </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="U41">
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="U39">
         <v>3</v>
       </c>
-      <c r="V41">
+      <c r="V39">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W41">
+      <c r="W39">
         <v>62</v>
       </c>
-      <c r="X41">
+      <c r="X39">
         <v>5</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Y39" t="s">
         <v>79</v>
       </c>
-      <c r="Z41">
+      <c r="Z39">
         <v>0.03</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AB39" t="s">
         <v>50</v>
       </c>
-      <c r="AC41" t="s">
+      <c r="AC39" t="s">
         <v>43</v>
       </c>
-      <c r="AD41">
+      <c r="AD39">
         <v>14</v>
       </c>
-      <c r="AE41">
+      <c r="AE39">
         <v>0.03</v>
       </c>
-      <c r="AF41">
+      <c r="AF39">
         <v>6</v>
       </c>
-      <c r="AG41">
+      <c r="AG39">
         <v>1.2</v>
       </c>
-      <c r="AH41">
+      <c r="AH39">
         <v>0.8</v>
       </c>
-      <c r="AI41" t="s">
+      <c r="AI39" t="s">
         <v>86</v>
       </c>
-      <c r="AK41">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM41" t="s">
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="s">
         <v>128</v>
       </c>
-      <c r="AN41" t="s">
+      <c r="AN39" t="s">
         <v>21</v>
       </c>
-      <c r="AO41">
+      <c r="AO39">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP41">
+      <c r="AP39">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ41" s="3">
+      <c r="AQ39" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR41" s="9">
+      <c r="AR39" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS41" t="s">
+      <c r="AS39" t="s">
         <v>32</v>
       </c>
-      <c r="AT41" t="s">
+      <c r="AT39" t="s">
         <v>32</v>
       </c>
-      <c r="AU41">
+      <c r="AU39">
         <v>0.623</v>
       </c>
-      <c r="AV41">
+      <c r="AV39">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ41" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA41" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB41">
-        <v>0</v>
-      </c>
-      <c r="BC41" t="s">
+      <c r="AY39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ39" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA39" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39" t="s">
         <v>4</v>
       </c>
-      <c r="BD41" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE41" s="35" t="b">
+      <c r="BD39" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE39" s="35" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
         <v>139</v>
@@ -5574,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="b">
         <v>1</v>
@@ -5702,10 +5714,10 @@
     </row>
     <row r="43" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A43" s="39" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -5723,13 +5735,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="b">
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N43" t="s">
         <v>136</v>
@@ -5849,12 +5861,161 @@
         <v>1</v>
       </c>
     </row>
+    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0.3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>110</v>
+      </c>
+      <c r="H44" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>133</v>
+      </c>
+      <c r="N44" t="s">
+        <v>136</v>
+      </c>
+      <c r="O44">
+        <v>6</v>
+      </c>
+      <c r="P44">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>96</v>
+      </c>
+      <c r="R44">
+        <v>0.45</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>3</v>
+      </c>
+      <c r="V44">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W44">
+        <v>62</v>
+      </c>
+      <c r="X44">
+        <v>5</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z44">
+        <v>0.03</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD44">
+        <v>14</v>
+      </c>
+      <c r="AE44">
+        <v>0.03</v>
+      </c>
+      <c r="AF44">
+        <v>6</v>
+      </c>
+      <c r="AG44">
+        <v>1.2</v>
+      </c>
+      <c r="AH44">
+        <v>0.8</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP44">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AQ44" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AR44" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU44">
+        <v>0.623</v>
+      </c>
+      <c r="AV44">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ44" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA44" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
+      <c r="BC44" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD44" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE44" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ37:BA38 L37:L38 E41:E43 AZ41:BA43 J41:L43 J30:K38 L30:L35 AZ5:BA35 J5:L32 E5:E38" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ38:BA39 L38:L39 E42:E44 AZ42:BA44 J42:L44 J31:K39 L31:L36 AZ5:BA36 J5:L33 E5:E39" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM37:AM38 AM41:AM43 AM5:AM35" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM38:AM39 AM42:AM44 AM5:AM36" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A1DE19-0AFF-40A5-B8F0-673ED460A1CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6BFA98-EF50-4033-B508-BA1482AA768F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1530" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1471,7 +1471,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2261,7 +2261,7 @@
         <v>161</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0.3</v>
@@ -3535,7 +3535,7 @@
         <v>138</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0.3</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA41110D-0FD9-42A8-A711-C935D994F452}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6BFA98-EF50-4033-B508-BA1482AA768F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1530" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,57 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="AH4" authorId="0" shapeId="0" xr:uid="{D91F68BF-928B-4B3B-9F98-4B2FFAC0BBBC}">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{0293D194-19C9-42F4-94A3-B37793CAC8F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Skip the year-1 amort. payment for new amortization basis. 
+Does not affect existing amort. basis
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R4" authorId="0" shapeId="0" xr:uid="{D29CD304-2CDF-417F-9E02-63FF8702FBB5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+20292733/43629545 = 46.5%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI4" authorId="0" shapeId="0" xr:uid="{D91F68BF-928B-4B3B-9F98-4B2FFAC0BBBC}">
       <text>
         <r>
           <rPr>
@@ -57,6 +107,30 @@
           <t xml:space="preserve">
 method2 = No smoothing
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT4" authorId="0" shapeId="0" xr:uid="{D8DF56B1-E0DB-40EC-9DAC-B2E600541C22}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+AL_pct; AA0, noSmoothing</t>
         </r>
       </text>
     </comment>
@@ -100,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="187">
   <si>
     <t>runname</t>
   </si>
@@ -643,6 +717,24 @@
   </si>
   <si>
     <t>corridor</t>
+  </si>
+  <si>
+    <t>OYLM_skipY1</t>
+  </si>
+  <si>
+    <t>t4a_C15dA6noCorridor</t>
+  </si>
+  <si>
+    <t>share_UFT</t>
+  </si>
+  <si>
+    <t>EAN.CP</t>
+  </si>
+  <si>
+    <t>noSmoothing</t>
+  </si>
+  <si>
+    <t>t4a_O30pA6_noTDA</t>
   </si>
 </sst>
 </file>
@@ -655,7 +747,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,8 +791,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -781,7 +886,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,7 +941,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -890,6 +1007,8 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1346,26 +1465,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:BD40"/>
+  <dimension ref="A3:BE44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" customWidth="1"/>
-    <col min="10" max="11" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" customWidth="1"/>
+    <col min="9" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
     <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" customWidth="1"/>
     <col min="14" max="14" width="17.28515625" customWidth="1"/>
@@ -1374,49 +1494,50 @@
     <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="14.28515625" customWidth="1"/>
-    <col min="24" max="26" width="19.7109375" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.85546875" customWidth="1"/>
-    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.7109375" customWidth="1"/>
-    <col min="36" max="36" width="14" customWidth="1"/>
-    <col min="37" max="37" width="13.42578125" customWidth="1"/>
-    <col min="38" max="38" width="12.5703125" customWidth="1"/>
-    <col min="39" max="39" width="14.85546875" customWidth="1"/>
-    <col min="44" max="44" width="12" customWidth="1"/>
-    <col min="45" max="45" width="12.28515625" customWidth="1"/>
-    <col min="48" max="48" width="15.140625" customWidth="1"/>
-    <col min="49" max="50" width="16.5703125" customWidth="1"/>
-    <col min="51" max="51" width="12" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="18" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.28515625" customWidth="1"/>
-    <col min="55" max="55" width="11.42578125" customWidth="1"/>
-    <col min="56" max="56" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" customWidth="1"/>
+    <col min="21" max="24" width="14.28515625" customWidth="1"/>
+    <col min="25" max="27" width="19.7109375" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.85546875" customWidth="1"/>
+    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.7109375" customWidth="1"/>
+    <col min="37" max="37" width="14" customWidth="1"/>
+    <col min="38" max="38" width="13.42578125" customWidth="1"/>
+    <col min="39" max="39" width="12.5703125" customWidth="1"/>
+    <col min="40" max="40" width="14.85546875" customWidth="1"/>
+    <col min="45" max="45" width="12" customWidth="1"/>
+    <col min="46" max="46" width="13.7109375" customWidth="1"/>
+    <col min="49" max="49" width="15.140625" customWidth="1"/>
+    <col min="50" max="51" width="16.5703125" customWidth="1"/>
+    <col min="52" max="52" width="12" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.28515625" customWidth="1"/>
+    <col min="56" max="56" width="11.42578125" customWidth="1"/>
+    <col min="57" max="57" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:56" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="30" t="s">
+      <c r="F3" s="30" t="s">
         <v>116</v>
       </c>
+      <c r="G3" s="30"/>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="28" t="s">
+      <c r="J3" s="28" t="s">
         <v>158</v>
       </c>
+      <c r="K3" s="18"/>
       <c r="L3" s="26" t="s">
         <v>92</v>
       </c>
@@ -1427,61 +1548,62 @@
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
       <c r="S3" s="26"/>
-      <c r="T3" s="27" t="s">
+      <c r="T3" s="26"/>
+      <c r="U3" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="U3" s="27"/>
       <c r="V3" s="27"/>
       <c r="W3" s="27"/>
-      <c r="X3" s="28" t="s">
+      <c r="X3" s="27"/>
+      <c r="Y3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="Y3" s="28"/>
       <c r="Z3" s="28"/>
-      <c r="AA3" s="29" t="s">
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="AB3" s="29"/>
       <c r="AC3" s="29"/>
       <c r="AD3" s="29"/>
-      <c r="AE3" s="30" t="s">
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="AF3" s="30"/>
       <c r="AG3" s="30"/>
       <c r="AH3" s="30"/>
       <c r="AI3" s="30"/>
-      <c r="AJ3" s="31" t="s">
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="32" t="s">
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="AM3" s="32"/>
       <c r="AN3" s="32"/>
       <c r="AO3" s="32"/>
       <c r="AP3" s="32"/>
       <c r="AQ3" s="32"/>
-      <c r="AR3" s="28" t="s">
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="AS3" s="28"/>
       <c r="AT3" s="28"/>
       <c r="AU3" s="28"/>
       <c r="AV3" s="28"/>
       <c r="AW3" s="28"/>
-      <c r="AX3" s="33" t="s">
+      <c r="AX3" s="28"/>
+      <c r="AY3" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="AY3" s="33"/>
       <c r="AZ3" s="33"/>
       <c r="BA3" s="33"/>
       <c r="BB3" s="33"/>
       <c r="BC3" s="33"/>
       <c r="BD3" s="33"/>
-    </row>
-    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BE3" s="33"/>
+    </row>
+    <row r="4" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
@@ -1489,31 +1611,31 @@
         <v>62</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="21" t="s">
         <v>14</v>
       </c>
+      <c r="F4" s="19" t="s">
+        <v>111</v>
+      </c>
       <c r="G4" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="J4" s="19" t="s">
         <v>150</v>
       </c>
+      <c r="J4" s="18" t="s">
+        <v>159</v>
+      </c>
       <c r="K4" s="18" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="L4" s="24" t="s">
         <v>93</v>
@@ -1539,137 +1661,140 @@
       <c r="S4" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="T4" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="U4" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="V4" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="V4" s="16" t="s">
+      <c r="W4" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="W4" s="16" t="s">
+      <c r="X4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="X4" s="18" t="s">
+      <c r="Y4" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="Y4" s="18" t="s">
+      <c r="Z4" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="20" t="s">
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="20" t="s">
+      <c r="AC4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AC4" s="20" t="s">
+      <c r="AD4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="20" t="s">
+      <c r="AE4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="19" t="s">
+      <c r="AF4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AF4" s="19" t="s">
+      <c r="AG4" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="AG4" s="19" t="s">
+      <c r="AH4" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="AH4" s="19" t="s">
+      <c r="AI4" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AI4" s="19" t="s">
+      <c r="AJ4" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="AJ4" s="23" t="s">
+      <c r="AK4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AK4" s="23" t="s">
+      <c r="AL4" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="AL4" s="17" t="s">
+      <c r="AM4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="AM4" s="17" t="s">
+      <c r="AN4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AN4" s="17" t="s">
+      <c r="AO4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AO4" s="17" t="s">
+      <c r="AP4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AP4" s="17" t="s">
+      <c r="AQ4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AQ4" s="17" t="s">
+      <c r="AR4" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="AR4" s="18" t="s">
+      <c r="AS4" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="AS4" s="18" t="s">
+      <c r="AT4" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="AT4" s="18" t="s">
+      <c r="AU4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AU4" s="18" t="s">
+      <c r="AV4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AV4" s="18" t="s">
+      <c r="AW4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AW4" s="18" t="s">
+      <c r="AX4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AX4" s="22" t="s">
+      <c r="AY4" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="AY4" s="22" t="s">
+      <c r="AZ4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AZ4" s="22" t="s">
+      <c r="BA4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="BA4" s="22" t="s">
+      <c r="BB4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="BB4" s="22" t="s">
+      <c r="BC4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="BC4" s="22" t="s">
+      <c r="BD4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BD4" s="22" t="s">
+      <c r="BE4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>132</v>
       </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>138</v>
       </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.3</v>
       </c>
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
       <c r="H5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" t="s">
         <v>107</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -1690,138 +1815,144 @@
         <v>6</v>
       </c>
       <c r="P5">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q5" t="s">
         <v>96</v>
       </c>
       <c r="R5">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
+        <v>0.15</v>
+      </c>
+      <c r="U5">
         <v>3</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>62</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>5</v>
       </c>
-      <c r="X5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y5">
+      <c r="Y5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z5">
         <v>0.03</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>50</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>43</v>
       </c>
-      <c r="AC5">
-        <v>14</v>
-      </c>
       <c r="AD5">
+        <v>15</v>
+      </c>
+      <c r="AE5">
         <v>0.03</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>6</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>1.2</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>0.8</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>86</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="s">
+      <c r="AJ5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="s">
         <v>128</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>21</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP5" s="3">
+      <c r="AQ5" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ5" s="9">
+      <c r="AR5" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>32</v>
       </c>
       <c r="AS5" t="s">
         <v>32</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU5">
         <v>0.623</v>
       </c>
-      <c r="AU5">
+      <c r="AV5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX5" t="b">
-        <v>1</v>
-      </c>
       <c r="AY5" t="b">
         <v>1</v>
       </c>
       <c r="AZ5" t="b">
         <v>1</v>
       </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="s">
+      <c r="BA5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="s">
         <v>4</v>
       </c>
-      <c r="BC5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD5" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>163</v>
       </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>138</v>
       </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.3</v>
       </c>
+      <c r="G6" t="s">
+        <v>110</v>
+      </c>
       <c r="H6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" t="s">
         <v>107</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -1842,143 +1973,149 @@
         <v>6</v>
       </c>
       <c r="P6">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q6" t="s">
         <v>96</v>
       </c>
       <c r="R6">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
+        <v>0.15</v>
+      </c>
+      <c r="U6">
         <v>3</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>62</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>5</v>
       </c>
-      <c r="X6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y6">
+      <c r="Y6" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z6">
         <v>0.03</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>50</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>43</v>
       </c>
-      <c r="AC6">
-        <v>14</v>
-      </c>
       <c r="AD6">
+        <v>15</v>
+      </c>
+      <c r="AE6">
         <v>0.03</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>6</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>1.2</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>0.8</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>86</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="s">
+      <c r="AJ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="s">
         <v>128</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>21</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP6" s="3">
+      <c r="AQ6" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ6" s="9">
+      <c r="AR6" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>32</v>
       </c>
       <c r="AS6" t="s">
         <v>32</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU6">
         <v>0.623</v>
       </c>
-      <c r="AU6">
+      <c r="AV6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX6" t="b">
-        <v>1</v>
-      </c>
       <c r="AY6" t="b">
         <v>1</v>
       </c>
       <c r="AZ6" t="b">
         <v>1</v>
       </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6" t="s">
+      <c r="BA6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="s">
         <v>4</v>
       </c>
-      <c r="BC6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="9"/>
-      <c r="BD7" s="35"/>
-    </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="9"/>
+      <c r="BE7" s="35"/>
+    </row>
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>160</v>
       </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
         <v>161</v>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0.3</v>
       </c>
+      <c r="G8" t="s">
+        <v>110</v>
+      </c>
       <c r="H8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" t="s">
         <v>107</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -1999,138 +2136,144 @@
         <v>6</v>
       </c>
       <c r="P8">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q8" t="s">
         <v>96</v>
       </c>
       <c r="R8">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
+        <v>0.15</v>
+      </c>
+      <c r="U8">
         <v>3</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>62</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>5</v>
       </c>
-      <c r="X8" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y8">
+      <c r="Y8" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z8">
         <v>0.03</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>50</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>43</v>
       </c>
-      <c r="AC8">
-        <v>14</v>
-      </c>
       <c r="AD8">
+        <v>15</v>
+      </c>
+      <c r="AE8">
         <v>0.03</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>6</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>1.2</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>0.8</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>86</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="s">
+      <c r="AJ8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="s">
         <v>128</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>21</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP8" s="3">
+      <c r="AQ8" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ8" s="9">
+      <c r="AR8" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>32</v>
       </c>
       <c r="AS8" t="s">
         <v>32</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU8">
         <v>0.623</v>
       </c>
-      <c r="AU8">
+      <c r="AV8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX8" t="b">
-        <v>1</v>
-      </c>
       <c r="AY8" t="b">
         <v>1</v>
       </c>
       <c r="AZ8" t="b">
         <v>1</v>
       </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="s">
+      <c r="BA8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="s">
         <v>4</v>
       </c>
-      <c r="BC8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD8" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>164</v>
       </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s">
         <v>161</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>0.3</v>
       </c>
+      <c r="G9" t="s">
+        <v>110</v>
+      </c>
       <c r="H9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I9" t="s">
         <v>107</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -2151,144 +2294,150 @@
         <v>6</v>
       </c>
       <c r="P9">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q9" t="s">
         <v>96</v>
       </c>
       <c r="R9">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
+        <v>0.15</v>
+      </c>
+      <c r="U9">
         <v>3</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>62</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>5</v>
       </c>
-      <c r="X9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y9">
+      <c r="Y9" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z9">
         <v>0.03</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>50</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>43</v>
       </c>
-      <c r="AC9">
-        <v>14</v>
-      </c>
       <c r="AD9">
+        <v>15</v>
+      </c>
+      <c r="AE9">
         <v>0.03</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>6</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>1.2</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>0.8</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>86</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="s">
+      <c r="AJ9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="s">
         <v>128</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AN9" t="s">
         <v>21</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP9" s="3">
+      <c r="AQ9" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ9" s="9">
+      <c r="AR9" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>32</v>
       </c>
       <c r="AS9" t="s">
         <v>32</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU9">
         <v>0.623</v>
       </c>
-      <c r="AU9">
+      <c r="AV9">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX9" t="b">
-        <v>1</v>
-      </c>
       <c r="AY9" t="b">
         <v>1</v>
       </c>
       <c r="AZ9" t="b">
         <v>1</v>
       </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9" t="s">
+      <c r="BA9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="s">
         <v>4</v>
       </c>
-      <c r="BC9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD9" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="9"/>
-      <c r="BD10" s="35"/>
-    </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="9"/>
+      <c r="BE10" s="35"/>
+    </row>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11">
+        <v>166</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>0.3</v>
       </c>
+      <c r="G11" t="s">
+        <v>110</v>
+      </c>
       <c r="H11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" t="s">
         <v>107</v>
       </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
@@ -2296,150 +2445,156 @@
         <v>1</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="s">
         <v>130</v>
       </c>
       <c r="N11" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="O11">
         <v>6</v>
       </c>
       <c r="P11">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q11" t="s">
         <v>96</v>
       </c>
       <c r="R11">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
+        <v>0.15</v>
+      </c>
+      <c r="U11">
         <v>3</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>62</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>5</v>
       </c>
-      <c r="X11" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y11">
+      <c r="Y11" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z11">
         <v>0.03</v>
       </c>
-      <c r="AA11" t="s">
-        <v>143</v>
-      </c>
       <c r="AB11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC11">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>43</v>
       </c>
       <c r="AD11">
+        <v>14</v>
+      </c>
+      <c r="AE11">
         <v>0.03</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>6</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>1.2</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>0.8</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>86</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="s">
+      <c r="AJ11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="s">
         <v>128</v>
       </c>
-      <c r="AM11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN11">
+      <c r="AN11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP11" s="3">
+      <c r="AQ11" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ11" s="9">
+      <c r="AR11" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>32</v>
       </c>
       <c r="AS11" t="s">
         <v>32</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU11">
         <v>0.623</v>
       </c>
-      <c r="AU11">
+      <c r="AV11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX11" t="b">
-        <v>1</v>
-      </c>
       <c r="AY11" t="b">
         <v>1</v>
       </c>
       <c r="AZ11" t="b">
         <v>1</v>
       </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11" t="s">
+      <c r="BA11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="s">
         <v>4</v>
       </c>
-      <c r="BC11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD11" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12">
+        <v>167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>0.3</v>
       </c>
+      <c r="G12" t="s">
+        <v>110</v>
+      </c>
       <c r="H12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" t="s">
         <v>107</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -2460,290 +2615,149 @@
         <v>6</v>
       </c>
       <c r="P12">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q12" t="s">
         <v>96</v>
       </c>
       <c r="R12">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
+        <v>0.15</v>
+      </c>
+      <c r="U12">
         <v>3</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>62</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>5</v>
       </c>
-      <c r="X12" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y12">
+      <c r="Y12" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z12">
         <v>0.03</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>50</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>43</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>14</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>0.03</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>6</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>1.2</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>0.8</v>
       </c>
-      <c r="AH12" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="s">
+      <c r="AI12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="s">
         <v>128</v>
       </c>
-      <c r="AM12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN12">
+      <c r="AN12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP12" s="3">
+      <c r="AQ12" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ12" s="9">
+      <c r="AR12" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>32</v>
       </c>
       <c r="AS12" t="s">
         <v>32</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU12">
         <v>0.623</v>
       </c>
-      <c r="AU12">
+      <c r="AV12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX12" t="b">
-        <v>1</v>
-      </c>
       <c r="AY12" t="b">
         <v>1</v>
       </c>
       <c r="AZ12" t="b">
         <v>1</v>
       </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BB12" t="s">
+      <c r="BA12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="s">
         <v>4</v>
       </c>
-      <c r="BC12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD12" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="BD12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="9"/>
+      <c r="BE13" s="35"/>
+    </row>
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>0.3</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G14" t="s">
         <v>110</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H14" t="s">
         <v>107</v>
       </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>130</v>
-      </c>
-      <c r="N13" t="s">
-        <v>162</v>
-      </c>
-      <c r="O13">
-        <v>6</v>
-      </c>
-      <c r="P13">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>96</v>
-      </c>
-      <c r="R13">
-        <v>0.45</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
-      <c r="U13">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V13">
-        <v>62</v>
-      </c>
-      <c r="W13">
-        <v>5</v>
-      </c>
-      <c r="X13" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y13">
-        <v>0.03</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC13">
-        <v>14</v>
-      </c>
-      <c r="AD13">
-        <v>0.03</v>
-      </c>
-      <c r="AE13">
-        <v>6</v>
-      </c>
-      <c r="AF13">
-        <v>1.2</v>
-      </c>
-      <c r="AG13">
-        <v>0.8</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN13">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AO13">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AP13" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AQ13" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT13">
-        <v>0.623</v>
-      </c>
-      <c r="AU13">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AX13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ13" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC13" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD13" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0.3</v>
-      </c>
-      <c r="H14" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" t="s">
-        <v>107</v>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
@@ -2764,138 +2778,144 @@
         <v>6</v>
       </c>
       <c r="P14">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q14" t="s">
         <v>96</v>
       </c>
       <c r="R14">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
+        <v>0.15</v>
+      </c>
+      <c r="U14">
         <v>3</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>62</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>5</v>
       </c>
-      <c r="X14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y14">
+      <c r="Y14" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z14">
         <v>0.03</v>
       </c>
-      <c r="AA14" t="s">
-        <v>143</v>
-      </c>
       <c r="AB14" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC14">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>43</v>
       </c>
       <c r="AD14">
+        <v>15</v>
+      </c>
+      <c r="AE14">
         <v>0.03</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>6</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>1.2</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>0.8</v>
       </c>
-      <c r="AH14" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="s">
+      <c r="AI14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="s">
         <v>128</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AN14" t="s">
         <v>21</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO14">
+      <c r="AP14">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP14" s="3">
+      <c r="AQ14" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ14" s="9">
+      <c r="AR14" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>32</v>
       </c>
       <c r="AS14" t="s">
         <v>32</v>
       </c>
-      <c r="AT14">
+      <c r="AT14" t="s">
+        <v>185</v>
+      </c>
+      <c r="AU14">
         <v>0.623</v>
       </c>
-      <c r="AU14">
+      <c r="AV14">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX14" t="b">
-        <v>1</v>
-      </c>
       <c r="AY14" t="b">
         <v>1</v>
       </c>
       <c r="AZ14" t="b">
         <v>1</v>
       </c>
-      <c r="BA14">
-        <v>0</v>
-      </c>
-      <c r="BB14" t="s">
+      <c r="BA14" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="s">
         <v>4</v>
       </c>
-      <c r="BC14" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD14" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD14" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE14" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>0.3</v>
       </c>
+      <c r="G15" t="s">
+        <v>110</v>
+      </c>
       <c r="H15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" t="s">
         <v>107</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -2916,138 +2936,144 @@
         <v>6</v>
       </c>
       <c r="P15">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q15" t="s">
         <v>96</v>
       </c>
       <c r="R15">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
+        <v>0.15</v>
+      </c>
+      <c r="U15">
         <v>3</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>62</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>5</v>
       </c>
-      <c r="X15" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y15">
+      <c r="Y15" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z15">
         <v>0.03</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>50</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>43</v>
       </c>
-      <c r="AC15">
-        <v>29</v>
-      </c>
       <c r="AD15">
+        <v>15</v>
+      </c>
+      <c r="AE15">
         <v>0.03</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>6</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>1.2</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>0.8</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>86</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="s">
+      <c r="AJ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="s">
         <v>128</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AN15" t="s">
         <v>21</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO15">
+      <c r="AP15">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP15" s="3">
+      <c r="AQ15" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ15" s="9">
+      <c r="AR15" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>32</v>
       </c>
       <c r="AS15" t="s">
         <v>32</v>
       </c>
-      <c r="AT15">
+      <c r="AT15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU15">
         <v>0.623</v>
       </c>
-      <c r="AU15">
+      <c r="AV15">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX15" t="b">
-        <v>1</v>
-      </c>
       <c r="AY15" t="b">
         <v>1</v>
       </c>
       <c r="AZ15" t="b">
         <v>1</v>
       </c>
-      <c r="BA15">
-        <v>0</v>
-      </c>
-      <c r="BB15" t="s">
+      <c r="BA15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="s">
         <v>4</v>
       </c>
-      <c r="BC15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD15" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE15" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>0.3</v>
       </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
       <c r="H16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" t="s">
         <v>107</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -3068,143 +3094,303 @@
         <v>6</v>
       </c>
       <c r="P16">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q16" t="s">
         <v>96</v>
       </c>
       <c r="R16">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
+        <v>0.15</v>
+      </c>
+      <c r="U16">
         <v>3</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>62</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>5</v>
       </c>
-      <c r="X16" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y16">
+      <c r="Y16" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z16">
         <v>0.03</v>
       </c>
-      <c r="AA16" t="s">
-        <v>143</v>
-      </c>
       <c r="AB16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC16">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>144</v>
       </c>
       <c r="AD16">
+        <v>15</v>
+      </c>
+      <c r="AE16">
         <v>0.03</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>6</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>1.2</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>0.8</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>86</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="s">
+      <c r="AJ16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="s">
         <v>128</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AN16" t="s">
         <v>21</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO16">
+      <c r="AP16">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP16" s="3">
+      <c r="AQ16" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ16" s="9">
+      <c r="AR16" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>32</v>
       </c>
       <c r="AS16" t="s">
         <v>32</v>
       </c>
-      <c r="AT16">
+      <c r="AT16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU16">
         <v>0.623</v>
       </c>
-      <c r="AU16">
+      <c r="AV16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX16" t="b">
-        <v>1</v>
-      </c>
       <c r="AY16" t="b">
         <v>1</v>
       </c>
       <c r="AZ16" t="b">
         <v>1</v>
       </c>
-      <c r="BA16">
-        <v>0</v>
-      </c>
-      <c r="BB16" t="s">
+      <c r="BA16" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="s">
         <v>4</v>
       </c>
-      <c r="BC16" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD16" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-    </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD16" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE16" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>130</v>
+      </c>
+      <c r="N17" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>96</v>
+      </c>
+      <c r="R17">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0.15</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W17">
+        <v>62</v>
+      </c>
+      <c r="X17">
+        <v>5</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z17">
+        <v>0.03</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD17">
+        <v>15</v>
+      </c>
+      <c r="AE17">
+        <v>0.03</v>
+      </c>
+      <c r="AF17">
+        <v>6</v>
+      </c>
+      <c r="AG17">
+        <v>1.2</v>
+      </c>
+      <c r="AH17">
+        <v>0.8</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP17">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AQ17" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AR17" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU17">
+        <v>0.623</v>
+      </c>
+      <c r="AV17">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE17" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18">
+        <v>141</v>
+      </c>
+      <c r="C18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>0.3</v>
       </c>
+      <c r="G18" t="s">
+        <v>110</v>
+      </c>
       <c r="H18" t="s">
-        <v>110</v>
-      </c>
-      <c r="I18" t="s">
         <v>107</v>
       </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
@@ -3212,151 +3398,157 @@
         <v>1</v>
       </c>
       <c r="L18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="s">
         <v>130</v>
       </c>
       <c r="N18" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="O18">
         <v>6</v>
       </c>
       <c r="P18">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q18" t="s">
         <v>96</v>
       </c>
       <c r="R18">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
+        <v>0.15</v>
+      </c>
+      <c r="U18">
         <v>3</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>62</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>5</v>
       </c>
-      <c r="X18" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y18">
+      <c r="Y18" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z18">
         <v>0.03</v>
       </c>
-      <c r="AA18" t="s">
-        <v>50</v>
-      </c>
       <c r="AB18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC18">
-        <v>14</v>
+        <v>143</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>144</v>
       </c>
       <c r="AD18">
+        <v>30</v>
+      </c>
+      <c r="AE18">
         <v>0.03</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>6</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>1.2</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0.8</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AI18" t="s">
         <v>86</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="s">
+      <c r="AJ18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="s">
         <v>128</v>
       </c>
-      <c r="AM18" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN18">
+      <c r="AN18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO18">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO18">
+      <c r="AP18">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP18" s="3">
+      <c r="AQ18" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ18" s="9">
+      <c r="AR18" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>32</v>
       </c>
       <c r="AS18" t="s">
         <v>32</v>
       </c>
-      <c r="AT18">
+      <c r="AT18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU18">
         <v>0.623</v>
       </c>
-      <c r="AU18">
+      <c r="AV18">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX18" t="b">
-        <v>1</v>
-      </c>
       <c r="AY18" t="b">
         <v>1</v>
       </c>
       <c r="AZ18" t="b">
         <v>1</v>
       </c>
-      <c r="BA18">
-        <v>0</v>
-      </c>
-      <c r="BB18" t="s">
+      <c r="BA18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="s">
         <v>4</v>
       </c>
-      <c r="BC18" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD18" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE18" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>161</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19">
+        <v>186</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>0.3</v>
       </c>
+      <c r="G19" t="s">
+        <v>110</v>
+      </c>
       <c r="H19" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" t="s">
         <v>107</v>
       </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
@@ -3364,150 +3556,160 @@
         <v>1</v>
       </c>
       <c r="L19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="s">
         <v>130</v>
       </c>
       <c r="N19" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="O19">
         <v>6</v>
       </c>
       <c r="P19">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q19" t="s">
         <v>96</v>
       </c>
       <c r="R19">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
+        <v>0.15</v>
+      </c>
+      <c r="U19">
         <v>3</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>62</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>5</v>
       </c>
-      <c r="X19" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y19">
+      <c r="Y19" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z19">
         <v>0.03</v>
       </c>
-      <c r="AA19" t="s">
-        <v>50</v>
-      </c>
       <c r="AB19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC19">
-        <v>14</v>
+        <v>143</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>144</v>
       </c>
       <c r="AD19">
+        <v>30</v>
+      </c>
+      <c r="AE19">
         <v>0.03</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>6</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>1.2</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0.8</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AI19" t="s">
         <v>86</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="s">
+      <c r="AJ19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="s">
         <v>128</v>
       </c>
-      <c r="AM19" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN19">
+      <c r="AN19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO19">
+      <c r="AP19">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP19" s="3">
+      <c r="AQ19" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ19" s="9">
+      <c r="AR19" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>32</v>
       </c>
       <c r="AS19" t="s">
         <v>32</v>
       </c>
-      <c r="AT19">
+      <c r="AT19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU19">
         <v>0.623</v>
       </c>
-      <c r="AU19">
+      <c r="AV19">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX19" t="b">
-        <v>1</v>
-      </c>
       <c r="AY19" t="b">
         <v>1</v>
       </c>
       <c r="AZ19" t="b">
         <v>1</v>
       </c>
-      <c r="BA19">
-        <v>0</v>
-      </c>
-      <c r="BB19" t="s">
+      <c r="BA19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="s">
         <v>4</v>
       </c>
-      <c r="BC19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD19" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE19" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+    </row>
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>0.3</v>
       </c>
+      <c r="G21" t="s">
+        <v>110</v>
+      </c>
       <c r="H21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I21" t="s">
         <v>107</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
@@ -3522,144 +3724,150 @@
         <v>130</v>
       </c>
       <c r="N21" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="O21">
         <v>6</v>
       </c>
       <c r="P21">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q21" t="s">
         <v>96</v>
       </c>
       <c r="R21">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
+        <v>0.15</v>
+      </c>
+      <c r="U21">
         <v>3</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>62</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>5</v>
       </c>
-      <c r="X21" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y21">
+      <c r="Y21" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z21">
         <v>0.03</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>50</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>43</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>14</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.03</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>6</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>1.2</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.8</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AI21" t="s">
         <v>86</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="s">
+      <c r="AJ21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="s">
         <v>128</v>
       </c>
-      <c r="AM21" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN21">
+      <c r="AN21" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO21">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO21">
+      <c r="AP21">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP21" s="3">
+      <c r="AQ21" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ21" s="9">
+      <c r="AR21" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>32</v>
       </c>
       <c r="AS21" t="s">
         <v>32</v>
       </c>
-      <c r="AT21">
+      <c r="AT21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU21">
         <v>0.623</v>
       </c>
-      <c r="AU21">
+      <c r="AV21">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX21" t="b">
-        <v>1</v>
-      </c>
       <c r="AY21" t="b">
         <v>1</v>
       </c>
       <c r="AZ21" t="b">
         <v>1</v>
       </c>
-      <c r="BA21">
-        <v>0</v>
-      </c>
-      <c r="BB21" t="s">
+      <c r="BA21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="s">
         <v>4</v>
       </c>
-      <c r="BC21" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD21" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE21" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>0.3</v>
       </c>
+      <c r="G22" t="s">
+        <v>110</v>
+      </c>
       <c r="H22" t="s">
-        <v>110</v>
-      </c>
-      <c r="I22" t="s">
         <v>107</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -3680,143 +3888,150 @@
         <v>6</v>
       </c>
       <c r="P22">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q22" t="s">
         <v>96</v>
       </c>
       <c r="R22">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
+        <v>0.15</v>
+      </c>
+      <c r="U22">
         <v>3</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>62</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>5</v>
       </c>
-      <c r="X22" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y22">
+      <c r="Y22" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z22">
         <v>0.03</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>50</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>43</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>14</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.03</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>6</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>1.2</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.8</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AI22" t="s">
         <v>86</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="s">
+      <c r="AJ22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="s">
         <v>128</v>
       </c>
-      <c r="AM22" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN22">
+      <c r="AN22" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO22">
+      <c r="AP22">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP22" s="3">
+      <c r="AQ22" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ22" s="9">
+      <c r="AR22" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>32</v>
       </c>
       <c r="AS22" t="s">
         <v>32</v>
       </c>
-      <c r="AT22">
+      <c r="AT22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU22">
         <v>0.623</v>
       </c>
-      <c r="AU22">
+      <c r="AV22">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX22" t="b">
-        <v>1</v>
-      </c>
       <c r="AY22" t="b">
         <v>1</v>
       </c>
       <c r="AZ22" t="b">
         <v>1</v>
       </c>
-      <c r="BA22">
-        <v>0</v>
-      </c>
-      <c r="BB22" t="s">
+      <c r="BA22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="s">
         <v>4</v>
       </c>
-      <c r="BC22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD22" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AP23" s="3"/>
+      <c r="BD22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE22" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="AQ23" s="3"/>
-    </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AR23" s="9"/>
+      <c r="BE23" s="35"/>
+    </row>
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24">
+        <v>146</v>
+      </c>
+      <c r="C24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>0.3</v>
       </c>
+      <c r="G24" t="s">
+        <v>110</v>
+      </c>
       <c r="H24" t="s">
-        <v>110</v>
-      </c>
-      <c r="I24" t="s">
         <v>107</v>
       </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
@@ -3824,7 +4039,7 @@
         <v>1</v>
       </c>
       <c r="L24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="s">
         <v>130</v>
@@ -3836,138 +4051,144 @@
         <v>6</v>
       </c>
       <c r="P24">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q24" t="s">
         <v>96</v>
       </c>
       <c r="R24">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
+        <v>0.15</v>
+      </c>
+      <c r="U24">
         <v>3</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>62</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>5</v>
       </c>
-      <c r="X24" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y24">
+      <c r="Y24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z24">
         <v>0.03</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>50</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>43</v>
       </c>
-      <c r="AC24">
-        <v>14</v>
-      </c>
       <c r="AD24">
+        <v>30</v>
+      </c>
+      <c r="AE24">
         <v>0.03</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>6</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>1.2</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.8</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AI24" t="s">
         <v>86</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="s">
+      <c r="AJ24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="s">
         <v>128</v>
       </c>
-      <c r="AM24" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN24">
+      <c r="AN24" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO24">
+      <c r="AP24">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP24" s="3">
+      <c r="AQ24" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ24" s="9">
+      <c r="AR24" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>32</v>
       </c>
       <c r="AS24" t="s">
         <v>32</v>
       </c>
-      <c r="AT24">
+      <c r="AT24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU24">
         <v>0.623</v>
       </c>
-      <c r="AU24">
+      <c r="AV24">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX24" t="b">
-        <v>1</v>
-      </c>
       <c r="AY24" t="b">
         <v>1</v>
       </c>
       <c r="AZ24" t="b">
         <v>1</v>
       </c>
-      <c r="BA24">
-        <v>0</v>
-      </c>
-      <c r="BB24" t="s">
+      <c r="BA24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="s">
         <v>4</v>
       </c>
-      <c r="BC24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD24" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE24" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25">
+        <v>147</v>
+      </c>
+      <c r="C25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>0.3</v>
       </c>
+      <c r="G25" t="s">
+        <v>110</v>
+      </c>
       <c r="H25" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" t="s">
         <v>107</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -3988,290 +4209,149 @@
         <v>6</v>
       </c>
       <c r="P25">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q25" t="s">
         <v>96</v>
       </c>
       <c r="R25">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
+        <v>0.15</v>
+      </c>
+      <c r="U25">
         <v>3</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>62</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>5</v>
       </c>
-      <c r="X25" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y25">
+      <c r="Y25" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z25">
         <v>0.03</v>
       </c>
-      <c r="AA25" t="s">
-        <v>50</v>
-      </c>
       <c r="AB25" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC25" t="s">
         <v>43</v>
       </c>
-      <c r="AC25">
-        <v>14</v>
-      </c>
       <c r="AD25">
+        <v>15</v>
+      </c>
+      <c r="AE25">
         <v>0.03</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>6</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>1.2</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>0.8</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AI25" t="s">
         <v>86</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="s">
+      <c r="AJ25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="s">
         <v>128</v>
       </c>
-      <c r="AM25" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN25">
+      <c r="AN25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO25">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO25">
+      <c r="AP25">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP25" s="3">
+      <c r="AQ25" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ25" s="9">
+      <c r="AR25" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>32</v>
       </c>
       <c r="AS25" t="s">
         <v>32</v>
       </c>
-      <c r="AT25">
+      <c r="AT25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU25">
         <v>0.623</v>
       </c>
-      <c r="AU25">
+      <c r="AV25">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX25" t="b">
-        <v>1</v>
-      </c>
       <c r="AY25" t="b">
         <v>1</v>
       </c>
       <c r="AZ25" t="b">
         <v>1</v>
       </c>
-      <c r="BA25">
-        <v>0</v>
-      </c>
-      <c r="BB25" t="s">
+      <c r="BA25" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="s">
         <v>4</v>
       </c>
-      <c r="BC25" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD25" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>178</v>
-      </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="BD25" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE25" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="9"/>
+      <c r="BE26" s="35"/>
+    </row>
+    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26">
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>0.3</v>
       </c>
-      <c r="H26" t="s">
+      <c r="G27" t="s">
         <v>110</v>
       </c>
-      <c r="I26" t="s">
+      <c r="H27" t="s">
         <v>107</v>
       </c>
-      <c r="J26" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
-        <v>130</v>
-      </c>
-      <c r="N26" t="s">
-        <v>162</v>
-      </c>
-      <c r="O26">
-        <v>6</v>
-      </c>
-      <c r="P26">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>96</v>
-      </c>
-      <c r="R26">
-        <v>0.45</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>3</v>
-      </c>
-      <c r="U26">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V26">
-        <v>62</v>
-      </c>
-      <c r="W26">
-        <v>5</v>
-      </c>
-      <c r="X26" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y26">
-        <v>0.03</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC26">
-        <v>14</v>
-      </c>
-      <c r="AD26">
-        <v>0.03</v>
-      </c>
-      <c r="AE26">
-        <v>6</v>
-      </c>
-      <c r="AF26">
-        <v>1.2</v>
-      </c>
-      <c r="AG26">
-        <v>0.8</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>175</v>
-      </c>
-      <c r="AN26">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AO26">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AP26" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AQ26" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT26">
-        <v>0.623</v>
-      </c>
-      <c r="AU26">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AX26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA26">
-        <v>0</v>
-      </c>
-      <c r="BB26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD26" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>161</v>
-      </c>
-      <c r="F27" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0.3</v>
-      </c>
-      <c r="H27" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" t="s">
-        <v>107</v>
+      <c r="I27" t="b">
+        <v>0</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
@@ -4280,320 +4360,330 @@
         <v>1</v>
       </c>
       <c r="L27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="s">
         <v>130</v>
       </c>
       <c r="N27" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="O27">
         <v>6</v>
       </c>
       <c r="P27">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q27" t="s">
         <v>96</v>
       </c>
       <c r="R27">
-        <v>0.45</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
+        <v>0.15</v>
+      </c>
+      <c r="U27">
         <v>3</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>62</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>5</v>
       </c>
-      <c r="X27" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y27">
+      <c r="Y27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z27">
         <v>0.03</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>50</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>43</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>14</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>0.03</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>6</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>1.2</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>0.8</v>
       </c>
-      <c r="AH27" t="s">
+      <c r="AI27" t="s">
         <v>86</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="s">
+      <c r="AJ27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="s">
         <v>128</v>
       </c>
-      <c r="AM27" t="s">
-        <v>175</v>
-      </c>
-      <c r="AN27">
+      <c r="AN27" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO27">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO27">
+      <c r="AP27">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP27" s="3">
+      <c r="AQ27" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ27" s="9">
+      <c r="AR27" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>32</v>
       </c>
       <c r="AS27" t="s">
         <v>32</v>
       </c>
-      <c r="AT27">
+      <c r="AT27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU27">
         <v>0.623</v>
       </c>
-      <c r="AU27">
+      <c r="AV27">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX27" t="b">
-        <v>1</v>
-      </c>
       <c r="AY27" t="b">
         <v>1</v>
       </c>
       <c r="AZ27" t="b">
         <v>1</v>
       </c>
-      <c r="BA27">
-        <v>0</v>
-      </c>
-      <c r="BB27" t="s">
+      <c r="BA27" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="s">
         <v>4</v>
       </c>
-      <c r="BC27" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD27" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="9"/>
-      <c r="BD28" s="35"/>
-    </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AP29" s="3"/>
+      <c r="BD27" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE27" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>130</v>
+      </c>
+      <c r="N28" t="s">
+        <v>162</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>96</v>
+      </c>
+      <c r="R28">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0.15</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W28">
+        <v>62</v>
+      </c>
+      <c r="X28">
+        <v>5</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z28">
+        <v>0.03</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD28">
+        <v>14</v>
+      </c>
+      <c r="AE28">
+        <v>0.03</v>
+      </c>
+      <c r="AF28">
+        <v>6</v>
+      </c>
+      <c r="AG28">
+        <v>1.2</v>
+      </c>
+      <c r="AH28">
+        <v>0.8</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP28">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AQ28" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AR28" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU28">
+        <v>0.623</v>
+      </c>
+      <c r="AV28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE28" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
       <c r="AQ29" s="3"/>
-    </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="AR29" s="9"/>
+      <c r="BE29" s="35"/>
+    </row>
+    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="9"/>
+      <c r="BE30" s="35"/>
+    </row>
+    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>0.3</v>
       </c>
-      <c r="H30" t="s">
+      <c r="G31" t="s">
         <v>110</v>
       </c>
-      <c r="I30" t="s">
-        <v>112</v>
-      </c>
-      <c r="J30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="b">
-        <v>1</v>
-      </c>
-      <c r="M30" t="s">
-        <v>130</v>
-      </c>
-      <c r="N30" t="s">
-        <v>162</v>
-      </c>
-      <c r="O30">
-        <v>6</v>
-      </c>
-      <c r="P30">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>96</v>
-      </c>
-      <c r="R30">
-        <v>0.45</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>3</v>
-      </c>
-      <c r="U30">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V30">
-        <v>62</v>
-      </c>
-      <c r="W30">
-        <v>5</v>
-      </c>
-      <c r="X30" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y30">
-        <v>0.03</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC30">
-        <v>14</v>
-      </c>
-      <c r="AD30">
-        <v>0.03</v>
-      </c>
-      <c r="AE30">
-        <v>6</v>
-      </c>
-      <c r="AF30">
-        <v>1.2</v>
-      </c>
-      <c r="AG30">
-        <v>0.8</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN30">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AO30">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AP30" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AQ30" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR30" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT30">
-        <v>0.623</v>
-      </c>
-      <c r="AU30">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AX30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ30" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA30">
-        <v>0</v>
-      </c>
-      <c r="BB30" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC30" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD30" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0.3</v>
-      </c>
       <c r="H31" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" t="s">
-        <v>113</v>
+        <v>107</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
       </c>
       <c r="J31" t="b">
         <v>1</v>
       </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
       <c r="L31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="s">
         <v>130</v>
@@ -4616,437 +4706,589 @@
       <c r="S31">
         <v>0</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>3</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>62</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>5</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>79</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>0.03</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AB31" t="s">
         <v>50</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AC31" t="s">
         <v>43</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>14</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.03</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>6</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>1.2</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>0.8</v>
       </c>
-      <c r="AH31" t="s">
+      <c r="AI31" t="s">
         <v>86</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="s">
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="s">
         <v>128</v>
       </c>
-      <c r="AM31" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN31">
+      <c r="AN31" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO31">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO31">
+      <c r="AP31">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP31" s="3">
+      <c r="AQ31" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ31" s="9">
+      <c r="AR31" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>32</v>
       </c>
       <c r="AS31" t="s">
         <v>32</v>
       </c>
-      <c r="AT31">
+      <c r="AT31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU31">
         <v>0.623</v>
       </c>
-      <c r="AU31">
+      <c r="AV31">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX31" t="b">
-        <v>1</v>
-      </c>
       <c r="AY31" t="b">
         <v>1</v>
       </c>
       <c r="AZ31" t="b">
         <v>1</v>
       </c>
-      <c r="BA31">
-        <v>0</v>
-      </c>
-      <c r="BB31" t="s">
+      <c r="BA31" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="s">
         <v>4</v>
       </c>
-      <c r="BC31" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD31" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="BD31" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE31" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0.3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>130</v>
+      </c>
+      <c r="N32" t="s">
+        <v>162</v>
+      </c>
+      <c r="O32">
+        <v>6</v>
+      </c>
+      <c r="P32">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>96</v>
+      </c>
+      <c r="R32">
+        <v>0.45</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>3</v>
+      </c>
+      <c r="V32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W32">
+        <v>62</v>
+      </c>
+      <c r="X32">
+        <v>5</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z32">
+        <v>0.03</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD32">
+        <v>14</v>
+      </c>
+      <c r="AE32">
+        <v>0.03</v>
+      </c>
+      <c r="AF32">
+        <v>6</v>
+      </c>
+      <c r="AG32">
+        <v>1.2</v>
+      </c>
+      <c r="AH32">
+        <v>0.8</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO32">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP32">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AQ32" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AR32" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU32">
+        <v>0.623</v>
+      </c>
+      <c r="AV32">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ32" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA32" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD32" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE32" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="9"/>
+      <c r="BE33" s="35"/>
+    </row>
+    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+    </row>
+    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A35" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0.3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" t="s">
+        <v>112</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>130</v>
+      </c>
+      <c r="N35" t="s">
+        <v>162</v>
+      </c>
+      <c r="O35">
+        <v>6</v>
+      </c>
+      <c r="P35">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>96</v>
+      </c>
+      <c r="R35">
+        <v>0.45</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>3</v>
+      </c>
+      <c r="V35">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W35">
+        <v>62</v>
+      </c>
+      <c r="X35">
+        <v>5</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z35">
+        <v>0.03</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD35">
+        <v>14</v>
+      </c>
+      <c r="AE35">
+        <v>0.03</v>
+      </c>
+      <c r="AF35">
+        <v>6</v>
+      </c>
+      <c r="AG35">
+        <v>1.2</v>
+      </c>
+      <c r="AH35">
+        <v>0.8</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP35">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AQ35" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AR35" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU35">
+        <v>0.623</v>
+      </c>
+      <c r="AV35">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ35" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA35" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD35" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE35" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A36" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0.3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" t="s">
+        <v>113</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>130</v>
+      </c>
+      <c r="N36" t="s">
+        <v>162</v>
+      </c>
+      <c r="O36">
+        <v>6</v>
+      </c>
+      <c r="P36">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>96</v>
+      </c>
+      <c r="R36">
+        <v>0.45</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>3</v>
+      </c>
+      <c r="V36">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W36">
+        <v>62</v>
+      </c>
+      <c r="X36">
+        <v>5</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z36">
+        <v>0.03</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD36">
+        <v>14</v>
+      </c>
+      <c r="AE36">
+        <v>0.03</v>
+      </c>
+      <c r="AF36">
+        <v>6</v>
+      </c>
+      <c r="AG36">
+        <v>1.2</v>
+      </c>
+      <c r="AH36">
+        <v>0.8</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO36">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP36">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AQ36" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AR36" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU36">
+        <v>0.623</v>
+      </c>
+      <c r="AV36">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ36" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA36" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD36" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE36" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+    </row>
+    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A38" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C38" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33">
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38">
         <v>0.3</v>
       </c>
-      <c r="H33" t="s">
+      <c r="G38" t="s">
         <v>114</v>
       </c>
-      <c r="I33" t="s">
+      <c r="H38" t="s">
         <v>107</v>
       </c>
-      <c r="J33" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33" t="b">
-        <v>1</v>
-      </c>
-      <c r="M33" t="s">
-        <v>130</v>
-      </c>
-      <c r="N33" t="s">
-        <v>162</v>
-      </c>
-      <c r="O33">
-        <v>6</v>
-      </c>
-      <c r="P33">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>96</v>
-      </c>
-      <c r="R33">
-        <v>0.45</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>3</v>
-      </c>
-      <c r="U33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V33">
-        <v>62</v>
-      </c>
-      <c r="W33">
-        <v>5</v>
-      </c>
-      <c r="X33" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y33">
-        <v>0.03</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC33">
-        <v>14</v>
-      </c>
-      <c r="AD33">
-        <v>0.03</v>
-      </c>
-      <c r="AE33">
-        <v>6</v>
-      </c>
-      <c r="AF33">
-        <v>1.2</v>
-      </c>
-      <c r="AG33">
-        <v>0.8</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN33">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AO33">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AP33" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AQ33" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT33">
-        <v>0.623</v>
-      </c>
-      <c r="AU33">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AX33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ33" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA33">
-        <v>0</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC33" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD33" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0.3</v>
-      </c>
-      <c r="H34" t="s">
-        <v>115</v>
-      </c>
-      <c r="I34" t="s">
-        <v>107</v>
-      </c>
-      <c r="J34" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="b">
-        <v>1</v>
-      </c>
-      <c r="M34" t="s">
-        <v>130</v>
-      </c>
-      <c r="N34" t="s">
-        <v>162</v>
-      </c>
-      <c r="O34">
-        <v>6</v>
-      </c>
-      <c r="P34">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>96</v>
-      </c>
-      <c r="R34">
-        <v>0.45</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>3</v>
-      </c>
-      <c r="U34">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V34">
-        <v>62</v>
-      </c>
-      <c r="W34">
-        <v>5</v>
-      </c>
-      <c r="X34" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y34">
-        <v>0.03</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC34">
-        <v>14</v>
-      </c>
-      <c r="AD34">
-        <v>0.03</v>
-      </c>
-      <c r="AE34">
-        <v>6</v>
-      </c>
-      <c r="AF34">
-        <v>1.2</v>
-      </c>
-      <c r="AG34">
-        <v>0.8</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN34">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AO34">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AP34" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AQ34" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT34">
-        <v>0.623</v>
-      </c>
-      <c r="AU34">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AX34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ34" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA34">
-        <v>0</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC34" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD34" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0.3</v>
-      </c>
-      <c r="H38" t="s">
-        <v>110</v>
-      </c>
-      <c r="I38" t="s">
-        <v>107</v>
+      <c r="I38" t="b">
+        <v>1</v>
       </c>
       <c r="J38" t="b">
-        <v>0</v>
-      </c>
-      <c r="K38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="b">
         <v>1</v>
@@ -5055,7 +5297,7 @@
         <v>130</v>
       </c>
       <c r="N38" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="O38">
         <v>6</v>
@@ -5072,132 +5314,129 @@
       <c r="S38">
         <v>0</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>3</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>62</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>5</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>79</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>0.03</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AB38" t="s">
         <v>50</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AC38" t="s">
         <v>43</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>14</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>0.03</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>6</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>1.2</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>0.8</v>
       </c>
-      <c r="AH38" t="s">
+      <c r="AI38" t="s">
         <v>86</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
-      <c r="AK38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL38" t="s">
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="s">
         <v>128</v>
       </c>
-      <c r="AM38" t="s">
+      <c r="AN38" t="s">
         <v>21</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO38">
+      <c r="AP38">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP38" s="3">
+      <c r="AQ38" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ38" s="9">
+      <c r="AR38" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR38" t="s">
-        <v>32</v>
       </c>
       <c r="AS38" t="s">
         <v>32</v>
       </c>
-      <c r="AT38">
+      <c r="AT38" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU38">
         <v>0.623</v>
       </c>
-      <c r="AU38">
+      <c r="AV38">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX38" t="b">
-        <v>1</v>
-      </c>
       <c r="AY38" t="b">
         <v>1</v>
       </c>
       <c r="AZ38" t="b">
         <v>1</v>
       </c>
-      <c r="BA38">
-        <v>0</v>
-      </c>
-      <c r="BB38" t="s">
+      <c r="BA38" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38" t="s">
         <v>4</v>
       </c>
-      <c r="BC38" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD38" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39">
+      <c r="BD38" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE38" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A39" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>0.3</v>
       </c>
+      <c r="G39" t="s">
+        <v>115</v>
+      </c>
       <c r="H39" t="s">
-        <v>110</v>
-      </c>
-      <c r="I39" t="s">
         <v>107</v>
       </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
       <c r="J39" t="b">
-        <v>0</v>
-      </c>
-      <c r="K39" t="b">
         <v>1</v>
       </c>
       <c r="L39" t="b">
@@ -5207,7 +5446,7 @@
         <v>130</v>
       </c>
       <c r="N39" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="O39">
         <v>6</v>
@@ -5224,264 +5463,559 @@
       <c r="S39">
         <v>0</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>3</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>62</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>5</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>79</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>0.03</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>50</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AC39" t="s">
         <v>43</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>14</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>0.03</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>6</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>1.2</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>0.8</v>
       </c>
-      <c r="AH39" t="s">
+      <c r="AI39" t="s">
         <v>86</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
-      <c r="AK39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="s">
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="s">
         <v>128</v>
       </c>
-      <c r="AM39" t="s">
+      <c r="AN39" t="s">
         <v>21</v>
       </c>
-      <c r="AN39">
+      <c r="AO39">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO39">
+      <c r="AP39">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP39" s="3">
+      <c r="AQ39" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ39" s="9">
+      <c r="AR39" s="9">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>32</v>
       </c>
       <c r="AS39" t="s">
         <v>32</v>
       </c>
-      <c r="AT39">
+      <c r="AT39" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU39">
         <v>0.623</v>
       </c>
-      <c r="AU39">
+      <c r="AV39">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX39" t="b">
-        <v>1</v>
-      </c>
       <c r="AY39" t="b">
         <v>1</v>
       </c>
       <c r="AZ39" t="b">
         <v>1</v>
       </c>
-      <c r="BA39">
-        <v>0</v>
-      </c>
-      <c r="BB39" t="s">
+      <c r="BA39" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39" t="s">
         <v>4</v>
       </c>
-      <c r="BC39" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD39" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
+      <c r="BD39" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE39" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0.3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" t="s">
+        <v>107</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>130</v>
+      </c>
+      <c r="N42" t="s">
+        <v>136</v>
+      </c>
+      <c r="O42">
+        <v>6</v>
+      </c>
+      <c r="P42">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>96</v>
+      </c>
+      <c r="R42">
+        <v>0.45</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>3</v>
+      </c>
+      <c r="V42">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W42">
+        <v>62</v>
+      </c>
+      <c r="X42">
+        <v>5</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z42">
+        <v>0.03</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD42">
+        <v>14</v>
+      </c>
+      <c r="AE42">
+        <v>0.03</v>
+      </c>
+      <c r="AF42">
+        <v>6</v>
+      </c>
+      <c r="AG42">
+        <v>1.2</v>
+      </c>
+      <c r="AH42">
+        <v>0.8</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP42">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AQ42" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AR42" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU42">
+        <v>0.623</v>
+      </c>
+      <c r="AV42">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ42" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA42" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD42" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE42" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0.3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>130</v>
+      </c>
+      <c r="N43" t="s">
+        <v>136</v>
+      </c>
+      <c r="O43">
+        <v>6</v>
+      </c>
+      <c r="P43">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>96</v>
+      </c>
+      <c r="R43">
+        <v>0.45</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>3</v>
+      </c>
+      <c r="V43">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W43">
+        <v>62</v>
+      </c>
+      <c r="X43">
+        <v>5</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z43">
+        <v>0.03</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD43">
+        <v>14</v>
+      </c>
+      <c r="AE43">
+        <v>0.03</v>
+      </c>
+      <c r="AF43">
+        <v>6</v>
+      </c>
+      <c r="AG43">
+        <v>1.2</v>
+      </c>
+      <c r="AH43">
+        <v>0.8</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO43">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP43">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AQ43" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AR43" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU43">
+        <v>0.623</v>
+      </c>
+      <c r="AV43">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ43" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA43" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD43" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE43" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="C40" t="b">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C44" t="s">
         <v>140</v>
       </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40">
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44">
         <v>0.3</v>
       </c>
-      <c r="H40" t="s">
+      <c r="G44" t="s">
         <v>110</v>
       </c>
-      <c r="I40" t="s">
+      <c r="H44" t="s">
         <v>107</v>
       </c>
-      <c r="J40" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" t="b">
-        <v>1</v>
-      </c>
-      <c r="M40" t="s">
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
         <v>133</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N44" t="s">
         <v>136</v>
       </c>
-      <c r="O40">
+      <c r="O44">
         <v>6</v>
       </c>
-      <c r="P40">
+      <c r="P44">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="Q44" t="s">
         <v>96</v>
       </c>
-      <c r="R40">
+      <c r="R44">
         <v>0.45</v>
       </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="U44">
         <v>3</v>
       </c>
-      <c r="U40">
+      <c r="V44">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V40">
+      <c r="W44">
         <v>62</v>
       </c>
-      <c r="W40">
+      <c r="X44">
         <v>5</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y44" t="s">
         <v>79</v>
       </c>
-      <c r="Y40">
+      <c r="Z44">
         <v>0.03</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB44" t="s">
         <v>50</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AC44" t="s">
         <v>43</v>
       </c>
-      <c r="AC40">
+      <c r="AD44">
         <v>14</v>
       </c>
-      <c r="AD40">
+      <c r="AE44">
         <v>0.03</v>
       </c>
-      <c r="AE40">
+      <c r="AF44">
         <v>6</v>
       </c>
-      <c r="AF40">
+      <c r="AG44">
         <v>1.2</v>
       </c>
-      <c r="AG40">
+      <c r="AH44">
         <v>0.8</v>
       </c>
-      <c r="AH40" t="s">
+      <c r="AI44" t="s">
         <v>86</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
-      <c r="AK40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL40" t="s">
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="s">
         <v>128</v>
       </c>
-      <c r="AM40" t="s">
+      <c r="AN44" t="s">
         <v>21</v>
       </c>
-      <c r="AN40">
+      <c r="AO44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO40">
+      <c r="AP44">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AP40" s="3">
+      <c r="AQ44" s="3">
         <v>0.12</v>
       </c>
-      <c r="AQ40" s="9">
+      <c r="AR44" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AR40" t="s">
+      <c r="AS44" t="s">
         <v>32</v>
       </c>
-      <c r="AS40" t="s">
+      <c r="AT44" t="s">
         <v>32</v>
       </c>
-      <c r="AT40">
+      <c r="AU44">
         <v>0.623</v>
       </c>
-      <c r="AU40">
+      <c r="AV44">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AX40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ40" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA40">
-        <v>0</v>
-      </c>
-      <c r="BB40" t="s">
+      <c r="AY44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ44" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA44" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
+      <c r="BC44" t="s">
         <v>4</v>
       </c>
-      <c r="BC40" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD40" s="35" t="b">
+      <c r="BD44" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE44" s="35" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY33:AZ34 L33:L34 F5:F31 F38:F40 AY38:AZ40 K38:L40 K26:K34 L26:L31 AY5:AZ31 K5:L28 F33:F34" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ38:BA39 L38:L39 E42:E44 AZ42:BA44 J42:L44 J31:K39 L31:L36 AZ5:BA36 J5:L33 E5:E39" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL33:AL34 AL38:AL40 AL5:AL31" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM38:AM39 AM42:AM44 AM5:AM36" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6429,10 +6963,10 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="41"/>
+      <c r="G5" s="43"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6BFA98-EF50-4033-B508-BA1482AA768F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF9F61D-596F-4F98-866E-D28F1908DBEF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1530" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1530" windowWidth="29040" windowHeight="15840" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,31 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{0293D194-19C9-42F4-94A3-B37793CAC8F6}">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{E6AA1FA0-BFAB-4875-9A5C-50F9685507C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Values: SingleTier; MultiTier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{0293D194-19C9-42F4-94A3-B37793CAC8F6}">
       <text>
         <r>
           <rPr>
@@ -61,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R4" authorId="0" shapeId="0" xr:uid="{D29CD304-2CDF-417F-9E02-63FF8702FBB5}">
+    <comment ref="T4" authorId="0" shapeId="0" xr:uid="{D29CD304-2CDF-417F-9E02-63FF8702FBB5}">
       <text>
         <r>
           <rPr>
@@ -85,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI4" authorId="0" shapeId="0" xr:uid="{D91F68BF-928B-4B3B-9F98-4B2FFAC0BBBC}">
+    <comment ref="AK4" authorId="0" shapeId="0" xr:uid="{D91F68BF-928B-4B3B-9F98-4B2FFAC0BBBC}">
       <text>
         <r>
           <rPr>
@@ -110,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT4" authorId="0" shapeId="0" xr:uid="{D8DF56B1-E0DB-40EC-9DAC-B2E600541C22}">
+    <comment ref="AV4" authorId="0" shapeId="0" xr:uid="{D8DF56B1-E0DB-40EC-9DAC-B2E600541C22}">
       <text>
         <r>
           <rPr>
@@ -174,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="192">
   <si>
     <t>runname</t>
   </si>
@@ -735,6 +759,21 @@
   </si>
   <si>
     <t>t4a_O30pA6_noTDA</t>
+  </si>
+  <si>
+    <t>Tiers</t>
+  </si>
+  <si>
+    <t>tier_Mode</t>
+  </si>
+  <si>
+    <t>singleTier_select</t>
+  </si>
+  <si>
+    <t>singleTier</t>
+  </si>
+  <si>
+    <t>t4a</t>
   </si>
 </sst>
 </file>
@@ -1465,13 +1504,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:BE44"/>
+  <dimension ref="A3:BG44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,45 +1523,48 @@
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="29.140625" customWidth="1"/>
-    <col min="9" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" customWidth="1"/>
-    <col min="21" max="24" width="14.28515625" customWidth="1"/>
-    <col min="25" max="27" width="19.7109375" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.85546875" customWidth="1"/>
-    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.7109375" customWidth="1"/>
-    <col min="37" max="37" width="14" customWidth="1"/>
-    <col min="38" max="38" width="13.42578125" customWidth="1"/>
-    <col min="39" max="39" width="12.5703125" customWidth="1"/>
-    <col min="40" max="40" width="14.85546875" customWidth="1"/>
-    <col min="45" max="45" width="12" customWidth="1"/>
-    <col min="46" max="46" width="13.7109375" customWidth="1"/>
-    <col min="49" max="49" width="15.140625" customWidth="1"/>
-    <col min="50" max="51" width="16.5703125" customWidth="1"/>
-    <col min="52" max="52" width="12" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="18" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.28515625" customWidth="1"/>
-    <col min="56" max="56" width="11.42578125" customWidth="1"/>
-    <col min="57" max="57" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" customWidth="1"/>
+    <col min="23" max="26" width="14.28515625" customWidth="1"/>
+    <col min="27" max="29" width="19.7109375" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.85546875" customWidth="1"/>
+    <col min="33" max="33" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.7109375" customWidth="1"/>
+    <col min="39" max="39" width="14" customWidth="1"/>
+    <col min="40" max="40" width="13.42578125" customWidth="1"/>
+    <col min="41" max="41" width="12.5703125" customWidth="1"/>
+    <col min="42" max="42" width="14.85546875" customWidth="1"/>
+    <col min="47" max="47" width="12" customWidth="1"/>
+    <col min="48" max="48" width="13.7109375" customWidth="1"/>
+    <col min="51" max="51" width="15.140625" customWidth="1"/>
+    <col min="52" max="53" width="16.5703125" customWidth="1"/>
+    <col min="54" max="54" width="12" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.28515625" customWidth="1"/>
+    <col min="58" max="58" width="11.42578125" customWidth="1"/>
+    <col min="59" max="59" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:57" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -1534,76 +1576,80 @@
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" s="32"/>
+      <c r="L3" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="26" t="s">
+      <c r="M3" s="18"/>
+      <c r="N3" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
       <c r="S3" s="26"/>
       <c r="T3" s="26"/>
-      <c r="U3" s="27" t="s">
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
       <c r="X3" s="27"/>
-      <c r="Y3" s="28" t="s">
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="29" t="s">
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
       <c r="AE3" s="29"/>
-      <c r="AF3" s="30" t="s">
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
       <c r="AI3" s="30"/>
       <c r="AJ3" s="30"/>
-      <c r="AK3" s="31" t="s">
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="32" t="s">
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="32"/>
       <c r="AP3" s="32"/>
       <c r="AQ3" s="32"/>
       <c r="AR3" s="32"/>
-      <c r="AS3" s="28" t="s">
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="28"/>
       <c r="AV3" s="28"/>
       <c r="AW3" s="28"/>
       <c r="AX3" s="28"/>
-      <c r="AY3" s="33" t="s">
+      <c r="AY3" s="28"/>
+      <c r="AZ3" s="28"/>
+      <c r="BA3" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="AZ3" s="33"/>
-      <c r="BA3" s="33"/>
       <c r="BB3" s="33"/>
       <c r="BC3" s="33"/>
       <c r="BD3" s="33"/>
       <c r="BE3" s="33"/>
-    </row>
-    <row r="4" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BF3" s="33"/>
+      <c r="BG3" s="33"/>
+    </row>
+    <row r="4" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
@@ -1631,150 +1677,156 @@
       <c r="I4" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="M4" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="N4" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="O4" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="P4" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="Q4" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="R4" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="S4" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="T4" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="U4" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="T4" s="24" t="s">
+      <c r="V4" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="W4" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="V4" s="16" t="s">
+      <c r="X4" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="W4" s="16" t="s">
+      <c r="Y4" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="X4" s="16" t="s">
+      <c r="Z4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y4" s="18" t="s">
+      <c r="AA4" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="Z4" s="18" t="s">
+      <c r="AB4" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="20" t="s">
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="20" t="s">
+      <c r="AE4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AD4" s="20" t="s">
+      <c r="AF4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AE4" s="20" t="s">
+      <c r="AG4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AF4" s="19" t="s">
+      <c r="AH4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AG4" s="19" t="s">
+      <c r="AI4" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="AH4" s="19" t="s">
+      <c r="AJ4" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="AI4" s="19" t="s">
+      <c r="AK4" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AJ4" s="19" t="s">
+      <c r="AL4" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="AK4" s="23" t="s">
+      <c r="AM4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AL4" s="23" t="s">
+      <c r="AN4" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="AM4" s="17" t="s">
+      <c r="AO4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="AN4" s="17" t="s">
+      <c r="AP4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AO4" s="17" t="s">
+      <c r="AQ4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AP4" s="17" t="s">
+      <c r="AR4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AQ4" s="17" t="s">
+      <c r="AS4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AR4" s="17" t="s">
+      <c r="AT4" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="AS4" s="18" t="s">
+      <c r="AU4" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="AT4" s="18" t="s">
+      <c r="AV4" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="AU4" s="18" t="s">
+      <c r="AW4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AV4" s="18" t="s">
+      <c r="AX4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AW4" s="18" t="s">
+      <c r="AY4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AX4" s="18" t="s">
+      <c r="AZ4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AY4" s="22" t="s">
+      <c r="BA4" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="AZ4" s="22" t="s">
+      <c r="BB4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="BA4" s="22" t="s">
+      <c r="BC4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="BB4" s="22" t="s">
+      <c r="BD4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="BC4" s="22" t="s">
+      <c r="BE4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="BD4" s="22" t="s">
+      <c r="BF4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BE4" s="22" t="s">
+      <c r="BG4" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>132</v>
       </c>
@@ -1796,143 +1848,143 @@
       <c r="I5" t="b">
         <v>0</v>
       </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
       <c r="L5" t="b">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
         <v>130</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>136</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>6</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>96</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>0.46500000000000002</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <v>0.15</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>3</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>62</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>5</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AA5" t="s">
         <v>184</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>0.03</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>50</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
         <v>43</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>15</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>0.03</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>6</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>1.2</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <v>0.8</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AK5" t="s">
         <v>86</v>
       </c>
-      <c r="AJ5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
       <c r="AL5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="s">
         <v>128</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AP5" t="s">
         <v>21</v>
       </c>
-      <c r="AO5">
+      <c r="AQ5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP5">
+      <c r="AR5">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ5" s="3">
+      <c r="AS5" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR5" s="9">
+      <c r="AT5" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AU5" t="s">
         <v>32</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AV5" t="s">
         <v>32</v>
       </c>
-      <c r="AU5">
+      <c r="AW5">
         <v>0.623</v>
       </c>
-      <c r="AV5">
+      <c r="AX5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ5" t="b">
-        <v>1</v>
-      </c>
       <c r="BA5" t="b">
         <v>1</v>
       </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="s">
+      <c r="BB5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="s">
         <v>4</v>
       </c>
-      <c r="BD5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE5" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -1954,148 +2006,148 @@
       <c r="I6" t="b">
         <v>0</v>
       </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
       <c r="L6" t="b">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
         <v>130</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>136</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>6</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>96</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>0.46500000000000002</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
         <v>0.15</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>3</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>62</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>5</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AA6" t="s">
         <v>184</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>0.03</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>50</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AE6" t="s">
         <v>43</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>15</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>0.03</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>6</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>1.2</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <v>0.8</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AK6" t="s">
         <v>86</v>
       </c>
-      <c r="AJ6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
       <c r="AL6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="s">
         <v>128</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AP6" t="s">
         <v>21</v>
       </c>
-      <c r="AO6">
+      <c r="AQ6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP6">
+      <c r="AR6">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ6" s="3">
+      <c r="AS6" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR6" s="9">
+      <c r="AT6" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AU6" t="s">
         <v>32</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AV6" t="s">
         <v>32</v>
       </c>
-      <c r="AU6">
+      <c r="AW6">
         <v>0.623</v>
       </c>
-      <c r="AV6">
+      <c r="AX6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ6" t="b">
-        <v>1</v>
-      </c>
       <c r="BA6" t="b">
         <v>1</v>
       </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6" t="s">
+      <c r="BB6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="s">
         <v>4</v>
       </c>
-      <c r="BD6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="9"/>
-      <c r="BE7" s="35"/>
-    </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="9"/>
+      <c r="BG7" s="35"/>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -2117,143 +2169,143 @@
       <c r="I8" t="b">
         <v>0</v>
       </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
       <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
         <v>130</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>162</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>6</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>96</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>0.46500000000000002</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
         <v>0.15</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>3</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>62</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>5</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AA8" t="s">
         <v>184</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>0.03</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AD8" t="s">
         <v>50</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AE8" t="s">
         <v>43</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>15</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>0.03</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>6</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <v>1.2</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <v>0.8</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AK8" t="s">
         <v>86</v>
       </c>
-      <c r="AJ8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
       <c r="AL8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="s">
         <v>128</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AP8" t="s">
         <v>21</v>
       </c>
-      <c r="AO8">
+      <c r="AQ8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP8">
+      <c r="AR8">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ8" s="3">
+      <c r="AS8" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR8" s="9">
+      <c r="AT8" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AU8" t="s">
         <v>32</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AV8" t="s">
         <v>32</v>
       </c>
-      <c r="AU8">
+      <c r="AW8">
         <v>0.623</v>
       </c>
-      <c r="AV8">
+      <c r="AX8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ8" t="b">
-        <v>1</v>
-      </c>
       <c r="BA8" t="b">
         <v>1</v>
       </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="s">
+      <c r="BB8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="s">
         <v>4</v>
       </c>
-      <c r="BD8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE8" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -2275,148 +2327,154 @@
       <c r="I9" t="b">
         <v>0</v>
       </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
+      <c r="J9" t="s">
+        <v>190</v>
+      </c>
+      <c r="K9" t="s">
+        <v>191</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
         <v>130</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>162</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>6</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>96</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>0.46500000000000002</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>0.15</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>3</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>62</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>5</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="AA9" t="s">
         <v>184</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>0.03</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AD9" t="s">
         <v>50</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AE9" t="s">
         <v>43</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>15</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>0.03</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>6</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <v>1.2</v>
       </c>
-      <c r="AH9">
+      <c r="AJ9">
         <v>0.8</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AK9" t="s">
         <v>86</v>
       </c>
-      <c r="AJ9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
       <c r="AL9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="s">
         <v>128</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AP9" t="s">
         <v>21</v>
       </c>
-      <c r="AO9">
+      <c r="AQ9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP9">
+      <c r="AR9">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ9" s="3">
+      <c r="AS9" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR9" s="9">
+      <c r="AT9" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AU9" t="s">
         <v>32</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AV9" t="s">
         <v>32</v>
       </c>
-      <c r="AU9">
+      <c r="AW9">
         <v>0.623</v>
       </c>
-      <c r="AV9">
+      <c r="AX9">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ9" t="b">
-        <v>1</v>
-      </c>
       <c r="BA9" t="b">
         <v>1</v>
       </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
-      <c r="BC9" t="s">
+      <c r="BB9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="s">
         <v>4</v>
       </c>
-      <c r="BD9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE9" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="9"/>
-      <c r="BE10" s="35"/>
-    </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG9" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="9"/>
+      <c r="BG10" s="35"/>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>166</v>
       </c>
@@ -2438,143 +2496,143 @@
       <c r="I11" t="b">
         <v>0</v>
       </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
         <v>130</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>136</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>6</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>96</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>0.46500000000000002</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>0.15</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>3</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>62</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>5</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="AA11" t="s">
         <v>184</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>0.03</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AD11" t="s">
         <v>50</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AE11" t="s">
         <v>43</v>
       </c>
-      <c r="AD11">
+      <c r="AF11">
         <v>14</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>0.03</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>6</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <v>1.2</v>
       </c>
-      <c r="AH11">
+      <c r="AJ11">
         <v>0.8</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AK11" t="s">
         <v>86</v>
       </c>
-      <c r="AJ11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
       <c r="AL11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="s">
         <v>128</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AP11" t="s">
         <v>151</v>
       </c>
-      <c r="AO11">
+      <c r="AQ11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP11">
+      <c r="AR11">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ11" s="3">
+      <c r="AS11" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR11" s="9">
+      <c r="AT11" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AU11" t="s">
         <v>32</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AV11" t="s">
         <v>32</v>
       </c>
-      <c r="AU11">
+      <c r="AW11">
         <v>0.623</v>
       </c>
-      <c r="AV11">
+      <c r="AX11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ11" t="b">
-        <v>1</v>
-      </c>
       <c r="BA11" t="b">
         <v>1</v>
       </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
-      <c r="BC11" t="s">
+      <c r="BB11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="s">
         <v>4</v>
       </c>
-      <c r="BD11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE11" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>167</v>
       </c>
@@ -2596,148 +2654,148 @@
       <c r="I12" t="b">
         <v>0</v>
       </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
       <c r="L12" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
         <v>130</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
         <v>162</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>6</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>96</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>0.46500000000000002</v>
       </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
         <v>0.15</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>3</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>62</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>5</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AA12" t="s">
         <v>184</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>0.03</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AD12" t="s">
         <v>50</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AE12" t="s">
         <v>43</v>
       </c>
-      <c r="AD12">
+      <c r="AF12">
         <v>14</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
         <v>0.03</v>
       </c>
-      <c r="AF12">
+      <c r="AH12">
         <v>6</v>
       </c>
-      <c r="AG12">
+      <c r="AI12">
         <v>1.2</v>
       </c>
-      <c r="AH12">
+      <c r="AJ12">
         <v>0.8</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AK12" t="s">
         <v>86</v>
       </c>
-      <c r="AJ12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
       <c r="AL12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="s">
         <v>128</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AP12" t="s">
         <v>151</v>
       </c>
-      <c r="AO12">
+      <c r="AQ12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP12">
+      <c r="AR12">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ12" s="3">
+      <c r="AS12" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR12" s="9">
+      <c r="AT12" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AU12" t="s">
         <v>32</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AV12" t="s">
         <v>32</v>
       </c>
-      <c r="AU12">
+      <c r="AW12">
         <v>0.623</v>
       </c>
-      <c r="AV12">
+      <c r="AX12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ12" t="b">
-        <v>1</v>
-      </c>
       <c r="BA12" t="b">
         <v>1</v>
       </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12" t="s">
+      <c r="BB12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="s">
         <v>4</v>
       </c>
-      <c r="BD12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE12" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="9"/>
-      <c r="BE13" s="35"/>
-    </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="9"/>
+      <c r="BG13" s="35"/>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -2759,143 +2817,143 @@
       <c r="I14" t="b">
         <v>0</v>
       </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
       <c r="L14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
         <v>130</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>162</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>6</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>96</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>0.46500000000000002</v>
       </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
         <v>0.15</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>3</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>62</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>5</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="AA14" t="s">
         <v>184</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <v>0.03</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AD14" t="s">
         <v>50</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AE14" t="s">
         <v>43</v>
       </c>
-      <c r="AD14">
+      <c r="AF14">
         <v>15</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <v>0.03</v>
       </c>
-      <c r="AF14">
+      <c r="AH14">
         <v>6</v>
       </c>
-      <c r="AG14">
+      <c r="AI14">
         <v>1.2</v>
       </c>
-      <c r="AH14">
+      <c r="AJ14">
         <v>0.8</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AK14" t="s">
         <v>142</v>
       </c>
-      <c r="AJ14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
       <c r="AL14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="s">
         <v>128</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AP14" t="s">
         <v>21</v>
       </c>
-      <c r="AO14">
+      <c r="AQ14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP14">
+      <c r="AR14">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ14" s="3">
+      <c r="AS14" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR14" s="9">
+      <c r="AT14" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AU14" t="s">
         <v>32</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AV14" t="s">
         <v>185</v>
       </c>
-      <c r="AU14">
+      <c r="AW14">
         <v>0.623</v>
       </c>
-      <c r="AV14">
+      <c r="AX14">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ14" t="b">
-        <v>1</v>
-      </c>
       <c r="BA14" t="b">
         <v>1</v>
       </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="s">
+      <c r="BB14" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC14" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="s">
         <v>4</v>
       </c>
-      <c r="BD14" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE14" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BF14" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG14" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>182</v>
       </c>
@@ -2917,143 +2975,143 @@
       <c r="I15" t="b">
         <v>0</v>
       </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
       <c r="L15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
         <v>130</v>
       </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
         <v>162</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>6</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>96</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>0.46500000000000002</v>
       </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
         <v>0.15</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>3</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>62</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>5</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="AA15" t="s">
         <v>184</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <v>0.03</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AD15" t="s">
         <v>50</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AE15" t="s">
         <v>43</v>
       </c>
-      <c r="AD15">
+      <c r="AF15">
         <v>15</v>
       </c>
-      <c r="AE15">
+      <c r="AG15">
         <v>0.03</v>
       </c>
-      <c r="AF15">
+      <c r="AH15">
         <v>6</v>
       </c>
-      <c r="AG15">
+      <c r="AI15">
         <v>1.2</v>
       </c>
-      <c r="AH15">
+      <c r="AJ15">
         <v>0.8</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AK15" t="s">
         <v>86</v>
       </c>
-      <c r="AJ15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
       <c r="AL15" t="b">
         <v>0</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="s">
         <v>128</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AP15" t="s">
         <v>21</v>
       </c>
-      <c r="AO15">
+      <c r="AQ15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP15">
+      <c r="AR15">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ15" s="3">
+      <c r="AS15" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR15" s="9">
+      <c r="AT15" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AU15" t="s">
         <v>32</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="AV15" t="s">
         <v>32</v>
       </c>
-      <c r="AU15">
+      <c r="AW15">
         <v>0.623</v>
       </c>
-      <c r="AV15">
+      <c r="AX15">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ15" t="b">
-        <v>1</v>
-      </c>
       <c r="BA15" t="b">
         <v>1</v>
       </c>
-      <c r="BB15">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="s">
+      <c r="BB15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="s">
         <v>4</v>
       </c>
-      <c r="BD15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE15" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG15" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>145</v>
       </c>
@@ -3075,143 +3133,143 @@
       <c r="I16" t="b">
         <v>0</v>
       </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
       <c r="L16" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
         <v>130</v>
       </c>
-      <c r="N16" t="s">
+      <c r="P16" t="s">
         <v>162</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>6</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>96</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>0.46500000000000002</v>
       </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
         <v>0.15</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>3</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>62</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>5</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="AA16" t="s">
         <v>184</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <v>0.03</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AD16" t="s">
         <v>50</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AE16" t="s">
         <v>144</v>
       </c>
-      <c r="AD16">
+      <c r="AF16">
         <v>15</v>
       </c>
-      <c r="AE16">
+      <c r="AG16">
         <v>0.03</v>
       </c>
-      <c r="AF16">
+      <c r="AH16">
         <v>6</v>
       </c>
-      <c r="AG16">
+      <c r="AI16">
         <v>1.2</v>
       </c>
-      <c r="AH16">
+      <c r="AJ16">
         <v>0.8</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AK16" t="s">
         <v>86</v>
       </c>
-      <c r="AJ16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
       <c r="AL16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="s">
         <v>128</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AP16" t="s">
         <v>21</v>
       </c>
-      <c r="AO16">
+      <c r="AQ16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP16">
+      <c r="AR16">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ16" s="3">
+      <c r="AS16" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR16" s="9">
+      <c r="AT16" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AU16" t="s">
         <v>32</v>
       </c>
-      <c r="AT16" t="s">
+      <c r="AV16" t="s">
         <v>32</v>
       </c>
-      <c r="AU16">
+      <c r="AW16">
         <v>0.623</v>
       </c>
-      <c r="AV16">
+      <c r="AX16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ16" t="b">
-        <v>1</v>
-      </c>
       <c r="BA16" t="b">
         <v>1</v>
       </c>
-      <c r="BB16">
-        <v>0</v>
-      </c>
-      <c r="BC16" t="s">
+      <c r="BB16" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC16" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="s">
         <v>4</v>
       </c>
-      <c r="BD16" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE16" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF16" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG16" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>148</v>
       </c>
@@ -3233,143 +3291,143 @@
       <c r="I17" t="b">
         <v>0</v>
       </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
       <c r="L17" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
         <v>130</v>
       </c>
-      <c r="N17" t="s">
+      <c r="P17" t="s">
         <v>162</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>6</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="S17" t="s">
         <v>96</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>0.46500000000000002</v>
       </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
         <v>0.15</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>3</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>62</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>5</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="AA17" t="s">
         <v>184</v>
       </c>
-      <c r="Z17">
+      <c r="AB17">
         <v>0.03</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AD17" t="s">
         <v>143</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AE17" t="s">
         <v>144</v>
       </c>
-      <c r="AD17">
+      <c r="AF17">
         <v>15</v>
       </c>
-      <c r="AE17">
+      <c r="AG17">
         <v>0.03</v>
       </c>
-      <c r="AF17">
+      <c r="AH17">
         <v>6</v>
       </c>
-      <c r="AG17">
+      <c r="AI17">
         <v>1.2</v>
       </c>
-      <c r="AH17">
+      <c r="AJ17">
         <v>0.8</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AK17" t="s">
         <v>86</v>
       </c>
-      <c r="AJ17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
       <c r="AL17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="s">
         <v>128</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AP17" t="s">
         <v>21</v>
       </c>
-      <c r="AO17">
+      <c r="AQ17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP17">
+      <c r="AR17">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ17" s="3">
+      <c r="AS17" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR17" s="9">
+      <c r="AT17" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AU17" t="s">
         <v>32</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AV17" t="s">
         <v>32</v>
       </c>
-      <c r="AU17">
+      <c r="AW17">
         <v>0.623</v>
       </c>
-      <c r="AV17">
+      <c r="AX17">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ17" t="b">
-        <v>1</v>
-      </c>
       <c r="BA17" t="b">
         <v>1</v>
       </c>
-      <c r="BB17">
-        <v>0</v>
-      </c>
-      <c r="BC17" t="s">
+      <c r="BB17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="s">
         <v>4</v>
       </c>
-      <c r="BD17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE17" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG17" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -3391,143 +3449,143 @@
       <c r="I18" t="b">
         <v>0</v>
       </c>
-      <c r="J18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
       <c r="L18" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
         <v>130</v>
       </c>
-      <c r="N18" t="s">
+      <c r="P18" t="s">
         <v>162</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>6</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="S18" t="s">
         <v>96</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>0.46500000000000002</v>
       </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
         <v>0.15</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>3</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>62</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>5</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="AA18" t="s">
         <v>184</v>
       </c>
-      <c r="Z18">
+      <c r="AB18">
         <v>0.03</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AD18" t="s">
         <v>143</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AE18" t="s">
         <v>144</v>
       </c>
-      <c r="AD18">
+      <c r="AF18">
         <v>30</v>
       </c>
-      <c r="AE18">
+      <c r="AG18">
         <v>0.03</v>
       </c>
-      <c r="AF18">
+      <c r="AH18">
         <v>6</v>
       </c>
-      <c r="AG18">
+      <c r="AI18">
         <v>1.2</v>
       </c>
-      <c r="AH18">
+      <c r="AJ18">
         <v>0.8</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AK18" t="s">
         <v>86</v>
       </c>
-      <c r="AJ18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
       <c r="AL18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="s">
         <v>128</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AP18" t="s">
         <v>21</v>
       </c>
-      <c r="AO18">
+      <c r="AQ18">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP18">
+      <c r="AR18">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ18" s="3">
+      <c r="AS18" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR18" s="9">
+      <c r="AT18" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS18" t="s">
+      <c r="AU18" t="s">
         <v>32</v>
       </c>
-      <c r="AT18" t="s">
+      <c r="AV18" t="s">
         <v>32</v>
       </c>
-      <c r="AU18">
+      <c r="AW18">
         <v>0.623</v>
       </c>
-      <c r="AV18">
+      <c r="AX18">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ18" t="b">
-        <v>1</v>
-      </c>
       <c r="BA18" t="b">
         <v>1</v>
       </c>
-      <c r="BB18">
-        <v>0</v>
-      </c>
-      <c r="BC18" t="s">
+      <c r="BB18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="s">
         <v>4</v>
       </c>
-      <c r="BD18" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE18" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG18" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>186</v>
       </c>
@@ -3549,147 +3607,147 @@
       <c r="I19" t="b">
         <v>0</v>
       </c>
-      <c r="J19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
       <c r="L19" t="b">
         <v>0</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
         <v>130</v>
       </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
         <v>136</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>6</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="S19" t="s">
         <v>96</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>0.46500000000000002</v>
       </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
         <v>0.15</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>3</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>62</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>5</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="AA19" t="s">
         <v>184</v>
       </c>
-      <c r="Z19">
+      <c r="AB19">
         <v>0.03</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AD19" t="s">
         <v>143</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AE19" t="s">
         <v>144</v>
       </c>
-      <c r="AD19">
+      <c r="AF19">
         <v>30</v>
       </c>
-      <c r="AE19">
+      <c r="AG19">
         <v>0.03</v>
       </c>
-      <c r="AF19">
+      <c r="AH19">
         <v>6</v>
       </c>
-      <c r="AG19">
+      <c r="AI19">
         <v>1.2</v>
       </c>
-      <c r="AH19">
+      <c r="AJ19">
         <v>0.8</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AK19" t="s">
         <v>86</v>
       </c>
-      <c r="AJ19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
       <c r="AL19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="s">
         <v>128</v>
       </c>
-      <c r="AN19" t="s">
+      <c r="AP19" t="s">
         <v>21</v>
       </c>
-      <c r="AO19">
+      <c r="AQ19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP19">
+      <c r="AR19">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ19" s="3">
+      <c r="AS19" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR19" s="9">
+      <c r="AT19" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="AU19" t="s">
         <v>32</v>
       </c>
-      <c r="AT19" t="s">
+      <c r="AV19" t="s">
         <v>32</v>
       </c>
-      <c r="AU19">
+      <c r="AW19">
         <v>0.623</v>
       </c>
-      <c r="AV19">
+      <c r="AX19">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ19" t="b">
-        <v>1</v>
-      </c>
       <c r="BA19" t="b">
         <v>1</v>
       </c>
-      <c r="BB19">
-        <v>0</v>
-      </c>
-      <c r="BC19" t="s">
+      <c r="BB19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="s">
         <v>4</v>
       </c>
-      <c r="BD19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE19" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-    </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG19" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+    </row>
+    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>176</v>
       </c>
@@ -3711,143 +3769,143 @@
       <c r="I21" t="b">
         <v>0</v>
       </c>
-      <c r="J21" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
       <c r="L21" t="b">
         <v>0</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
         <v>130</v>
       </c>
-      <c r="N21" t="s">
+      <c r="P21" t="s">
         <v>162</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>6</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="S21" t="s">
         <v>96</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>0.46500000000000002</v>
       </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
         <v>0.15</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>3</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <v>62</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <v>5</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="AA21" t="s">
         <v>184</v>
       </c>
-      <c r="Z21">
+      <c r="AB21">
         <v>0.03</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AD21" t="s">
         <v>50</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AE21" t="s">
         <v>43</v>
       </c>
-      <c r="AD21">
+      <c r="AF21">
         <v>14</v>
       </c>
-      <c r="AE21">
+      <c r="AG21">
         <v>0.03</v>
       </c>
-      <c r="AF21">
+      <c r="AH21">
         <v>6</v>
       </c>
-      <c r="AG21">
+      <c r="AI21">
         <v>1.2</v>
       </c>
-      <c r="AH21">
+      <c r="AJ21">
         <v>0.8</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AK21" t="s">
         <v>86</v>
       </c>
-      <c r="AJ21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
       <c r="AL21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="s">
         <v>128</v>
       </c>
-      <c r="AN21" t="s">
+      <c r="AP21" t="s">
         <v>174</v>
       </c>
-      <c r="AO21">
+      <c r="AQ21">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP21">
+      <c r="AR21">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ21" s="3">
+      <c r="AS21" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR21" s="9">
+      <c r="AT21" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AU21" t="s">
         <v>32</v>
       </c>
-      <c r="AT21" t="s">
+      <c r="AV21" t="s">
         <v>32</v>
       </c>
-      <c r="AU21">
+      <c r="AW21">
         <v>0.623</v>
       </c>
-      <c r="AV21">
+      <c r="AX21">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ21" t="b">
-        <v>1</v>
-      </c>
       <c r="BA21" t="b">
         <v>1</v>
       </c>
-      <c r="BB21">
-        <v>0</v>
-      </c>
-      <c r="BC21" t="s">
+      <c r="BB21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="s">
         <v>4</v>
       </c>
-      <c r="BD21" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE21" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG21" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -3869,148 +3927,148 @@
       <c r="I22" t="b">
         <v>0</v>
       </c>
-      <c r="J22" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
       <c r="L22" t="b">
-        <v>1</v>
-      </c>
-      <c r="M22" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
         <v>130</v>
       </c>
-      <c r="N22" t="s">
+      <c r="P22" t="s">
         <v>162</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>6</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="S22" t="s">
         <v>96</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>0.46500000000000002</v>
       </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>0.15</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>3</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <v>62</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <v>5</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="AA22" t="s">
         <v>184</v>
       </c>
-      <c r="Z22">
+      <c r="AB22">
         <v>0.03</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AD22" t="s">
         <v>50</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AE22" t="s">
         <v>43</v>
       </c>
-      <c r="AD22">
+      <c r="AF22">
         <v>14</v>
       </c>
-      <c r="AE22">
+      <c r="AG22">
         <v>0.03</v>
       </c>
-      <c r="AF22">
+      <c r="AH22">
         <v>6</v>
       </c>
-      <c r="AG22">
+      <c r="AI22">
         <v>1.2</v>
       </c>
-      <c r="AH22">
+      <c r="AJ22">
         <v>0.8</v>
       </c>
-      <c r="AI22" t="s">
+      <c r="AK22" t="s">
         <v>86</v>
       </c>
-      <c r="AJ22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
       <c r="AL22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="s">
         <v>128</v>
       </c>
-      <c r="AN22" t="s">
+      <c r="AP22" t="s">
         <v>174</v>
       </c>
-      <c r="AO22">
+      <c r="AQ22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP22">
+      <c r="AR22">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ22" s="3">
+      <c r="AS22" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR22" s="9">
+      <c r="AT22" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AU22" t="s">
         <v>32</v>
       </c>
-      <c r="AT22" t="s">
+      <c r="AV22" t="s">
         <v>32</v>
       </c>
-      <c r="AU22">
+      <c r="AW22">
         <v>0.623</v>
       </c>
-      <c r="AV22">
+      <c r="AX22">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ22" t="b">
-        <v>1</v>
-      </c>
       <c r="BA22" t="b">
         <v>1</v>
       </c>
-      <c r="BB22">
-        <v>0</v>
-      </c>
-      <c r="BC22" t="s">
+      <c r="BB22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="s">
         <v>4</v>
       </c>
-      <c r="BD22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE22" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="AQ23" s="3"/>
-      <c r="AR23" s="9"/>
-      <c r="BE23" s="35"/>
-    </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG22" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="9"/>
+      <c r="BG23" s="35"/>
+    </row>
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>146</v>
       </c>
@@ -4032,143 +4090,143 @@
       <c r="I24" t="b">
         <v>0</v>
       </c>
-      <c r="J24" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
       <c r="L24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
         <v>130</v>
       </c>
-      <c r="N24" t="s">
+      <c r="P24" t="s">
         <v>162</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>6</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="S24" t="s">
         <v>96</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <v>0.46500000000000002</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
         <v>0.15</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <v>3</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
         <v>62</v>
       </c>
-      <c r="X24">
+      <c r="Z24">
         <v>5</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="AA24" t="s">
         <v>184</v>
       </c>
-      <c r="Z24">
+      <c r="AB24">
         <v>0.03</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AD24" t="s">
         <v>50</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AE24" t="s">
         <v>43</v>
       </c>
-      <c r="AD24">
+      <c r="AF24">
         <v>30</v>
       </c>
-      <c r="AE24">
+      <c r="AG24">
         <v>0.03</v>
       </c>
-      <c r="AF24">
+      <c r="AH24">
         <v>6</v>
       </c>
-      <c r="AG24">
+      <c r="AI24">
         <v>1.2</v>
       </c>
-      <c r="AH24">
+      <c r="AJ24">
         <v>0.8</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AK24" t="s">
         <v>86</v>
       </c>
-      <c r="AJ24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
       <c r="AL24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="s">
         <v>128</v>
       </c>
-      <c r="AN24" t="s">
+      <c r="AP24" t="s">
         <v>21</v>
       </c>
-      <c r="AO24">
+      <c r="AQ24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP24">
+      <c r="AR24">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ24" s="3">
+      <c r="AS24" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR24" s="9">
+      <c r="AT24" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AU24" t="s">
         <v>32</v>
       </c>
-      <c r="AT24" t="s">
+      <c r="AV24" t="s">
         <v>32</v>
       </c>
-      <c r="AU24">
+      <c r="AW24">
         <v>0.623</v>
       </c>
-      <c r="AV24">
+      <c r="AX24">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ24" t="b">
-        <v>1</v>
-      </c>
       <c r="BA24" t="b">
         <v>1</v>
       </c>
-      <c r="BB24">
-        <v>0</v>
-      </c>
-      <c r="BC24" t="s">
+      <c r="BB24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="s">
         <v>4</v>
       </c>
-      <c r="BD24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE24" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG24" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>147</v>
       </c>
@@ -4190,148 +4248,148 @@
       <c r="I25" t="b">
         <v>0</v>
       </c>
-      <c r="J25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
       <c r="L25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M25" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
         <v>130</v>
       </c>
-      <c r="N25" t="s">
+      <c r="P25" t="s">
         <v>162</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>6</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="S25" t="s">
         <v>96</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>0.46500000000000002</v>
       </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
         <v>0.15</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <v>3</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
         <v>62</v>
       </c>
-      <c r="X25">
+      <c r="Z25">
         <v>5</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="AA25" t="s">
         <v>184</v>
       </c>
-      <c r="Z25">
+      <c r="AB25">
         <v>0.03</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AD25" t="s">
         <v>143</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AE25" t="s">
         <v>43</v>
       </c>
-      <c r="AD25">
+      <c r="AF25">
         <v>15</v>
       </c>
-      <c r="AE25">
+      <c r="AG25">
         <v>0.03</v>
       </c>
-      <c r="AF25">
+      <c r="AH25">
         <v>6</v>
       </c>
-      <c r="AG25">
+      <c r="AI25">
         <v>1.2</v>
       </c>
-      <c r="AH25">
+      <c r="AJ25">
         <v>0.8</v>
       </c>
-      <c r="AI25" t="s">
+      <c r="AK25" t="s">
         <v>86</v>
       </c>
-      <c r="AJ25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
       <c r="AL25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="s">
         <v>128</v>
       </c>
-      <c r="AN25" t="s">
+      <c r="AP25" t="s">
         <v>21</v>
       </c>
-      <c r="AO25">
+      <c r="AQ25">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP25">
+      <c r="AR25">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ25" s="3">
+      <c r="AS25" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR25" s="9">
+      <c r="AT25" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS25" t="s">
+      <c r="AU25" t="s">
         <v>32</v>
       </c>
-      <c r="AT25" t="s">
+      <c r="AV25" t="s">
         <v>32</v>
       </c>
-      <c r="AU25">
+      <c r="AW25">
         <v>0.623</v>
       </c>
-      <c r="AV25">
+      <c r="AX25">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ25" t="b">
-        <v>1</v>
-      </c>
       <c r="BA25" t="b">
         <v>1</v>
       </c>
-      <c r="BB25">
-        <v>0</v>
-      </c>
-      <c r="BC25" t="s">
+      <c r="BB25" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC25" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="s">
         <v>4</v>
       </c>
-      <c r="BD25" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE25" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="9"/>
-      <c r="BE26" s="35"/>
-    </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF25" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG25" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="9"/>
+      <c r="BG26" s="35"/>
+    </row>
+    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>168</v>
       </c>
@@ -4353,143 +4411,143 @@
       <c r="I27" t="b">
         <v>0</v>
       </c>
-      <c r="J27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
       <c r="L27" t="b">
         <v>0</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
         <v>130</v>
       </c>
-      <c r="N27" t="s">
+      <c r="P27" t="s">
         <v>136</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>6</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="S27" t="s">
         <v>96</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>0.46500000000000002</v>
       </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
         <v>0.15</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <v>3</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
         <v>62</v>
       </c>
-      <c r="X27">
+      <c r="Z27">
         <v>5</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="AA27" t="s">
         <v>184</v>
       </c>
-      <c r="Z27">
+      <c r="AB27">
         <v>0.03</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AD27" t="s">
         <v>50</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AE27" t="s">
         <v>43</v>
       </c>
-      <c r="AD27">
+      <c r="AF27">
         <v>14</v>
       </c>
-      <c r="AE27">
+      <c r="AG27">
         <v>0.03</v>
       </c>
-      <c r="AF27">
+      <c r="AH27">
         <v>6</v>
       </c>
-      <c r="AG27">
+      <c r="AI27">
         <v>1.2</v>
       </c>
-      <c r="AH27">
+      <c r="AJ27">
         <v>0.8</v>
       </c>
-      <c r="AI27" t="s">
+      <c r="AK27" t="s">
         <v>86</v>
       </c>
-      <c r="AJ27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
       <c r="AL27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="s">
         <v>128</v>
       </c>
-      <c r="AN27" t="s">
+      <c r="AP27" t="s">
         <v>154</v>
       </c>
-      <c r="AO27">
+      <c r="AQ27">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP27">
+      <c r="AR27">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ27" s="3">
+      <c r="AS27" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR27" s="9">
+      <c r="AT27" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS27" t="s">
+      <c r="AU27" t="s">
         <v>32</v>
       </c>
-      <c r="AT27" t="s">
+      <c r="AV27" t="s">
         <v>32</v>
       </c>
-      <c r="AU27">
+      <c r="AW27">
         <v>0.623</v>
       </c>
-      <c r="AV27">
+      <c r="AX27">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ27" t="b">
-        <v>1</v>
-      </c>
       <c r="BA27" t="b">
         <v>1</v>
       </c>
-      <c r="BB27">
-        <v>0</v>
-      </c>
-      <c r="BC27" t="s">
+      <c r="BB27" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC27" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="s">
         <v>4</v>
       </c>
-      <c r="BD27" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE27" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF27" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG27" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>169</v>
       </c>
@@ -4511,153 +4569,153 @@
       <c r="I28" t="b">
         <v>0</v>
       </c>
-      <c r="J28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
       <c r="L28" t="b">
-        <v>1</v>
-      </c>
-      <c r="M28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
         <v>130</v>
       </c>
-      <c r="N28" t="s">
+      <c r="P28" t="s">
         <v>162</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>6</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="S28" t="s">
         <v>96</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <v>0.46500000000000002</v>
       </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
         <v>0.15</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <v>3</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
         <v>62</v>
       </c>
-      <c r="X28">
+      <c r="Z28">
         <v>5</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="AA28" t="s">
         <v>184</v>
       </c>
-      <c r="Z28">
+      <c r="AB28">
         <v>0.03</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AD28" t="s">
         <v>50</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AE28" t="s">
         <v>43</v>
       </c>
-      <c r="AD28">
+      <c r="AF28">
         <v>14</v>
       </c>
-      <c r="AE28">
+      <c r="AG28">
         <v>0.03</v>
       </c>
-      <c r="AF28">
+      <c r="AH28">
         <v>6</v>
       </c>
-      <c r="AG28">
+      <c r="AI28">
         <v>1.2</v>
       </c>
-      <c r="AH28">
+      <c r="AJ28">
         <v>0.8</v>
       </c>
-      <c r="AI28" t="s">
+      <c r="AK28" t="s">
         <v>86</v>
       </c>
-      <c r="AJ28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
       <c r="AL28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="s">
         <v>128</v>
       </c>
-      <c r="AN28" t="s">
+      <c r="AP28" t="s">
         <v>154</v>
       </c>
-      <c r="AO28">
+      <c r="AQ28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP28">
+      <c r="AR28">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ28" s="3">
+      <c r="AS28" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR28" s="9">
+      <c r="AT28" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS28" t="s">
+      <c r="AU28" t="s">
         <v>32</v>
       </c>
-      <c r="AT28" t="s">
+      <c r="AV28" t="s">
         <v>32</v>
       </c>
-      <c r="AU28">
+      <c r="AW28">
         <v>0.623</v>
       </c>
-      <c r="AV28">
+      <c r="AX28">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ28" t="b">
-        <v>1</v>
-      </c>
       <c r="BA28" t="b">
         <v>1</v>
       </c>
-      <c r="BB28">
-        <v>0</v>
-      </c>
-      <c r="BC28" t="s">
+      <c r="BB28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="s">
         <v>4</v>
       </c>
-      <c r="BD28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE28" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="AQ29" s="3"/>
-      <c r="AR29" s="9"/>
-      <c r="BE29" s="35"/>
-    </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="AQ30" s="3"/>
-      <c r="AR30" s="9"/>
-      <c r="BE30" s="35"/>
-    </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG28" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="9"/>
+      <c r="BG29" s="35"/>
+    </row>
+    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="9"/>
+      <c r="BG30" s="35"/>
+    </row>
+    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>178</v>
       </c>
@@ -4679,134 +4737,134 @@
       <c r="I31" t="b">
         <v>0</v>
       </c>
-      <c r="J31" t="b">
-        <v>1</v>
-      </c>
       <c r="L31" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
         <v>130</v>
       </c>
-      <c r="N31" t="s">
+      <c r="P31" t="s">
         <v>162</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>6</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="S31" t="s">
         <v>96</v>
       </c>
-      <c r="R31">
+      <c r="T31">
         <v>0.45</v>
       </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
       <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="W31">
         <v>3</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
         <v>62</v>
       </c>
-      <c r="X31">
+      <c r="Z31">
         <v>5</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="AA31" t="s">
         <v>79</v>
       </c>
-      <c r="Z31">
+      <c r="AB31">
         <v>0.03</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AD31" t="s">
         <v>50</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AE31" t="s">
         <v>43</v>
       </c>
-      <c r="AD31">
+      <c r="AF31">
         <v>14</v>
       </c>
-      <c r="AE31">
+      <c r="AG31">
         <v>0.03</v>
       </c>
-      <c r="AF31">
+      <c r="AH31">
         <v>6</v>
       </c>
-      <c r="AG31">
+      <c r="AI31">
         <v>1.2</v>
       </c>
-      <c r="AH31">
+      <c r="AJ31">
         <v>0.8</v>
       </c>
-      <c r="AI31" t="s">
+      <c r="AK31" t="s">
         <v>86</v>
       </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM31" t="s">
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="s">
         <v>128</v>
       </c>
-      <c r="AN31" t="s">
+      <c r="AP31" t="s">
         <v>175</v>
       </c>
-      <c r="AO31">
+      <c r="AQ31">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP31">
+      <c r="AR31">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ31" s="3">
+      <c r="AS31" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR31" s="9">
+      <c r="AT31" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS31" t="s">
+      <c r="AU31" t="s">
         <v>32</v>
       </c>
-      <c r="AT31" t="s">
+      <c r="AV31" t="s">
         <v>32</v>
       </c>
-      <c r="AU31">
+      <c r="AW31">
         <v>0.623</v>
       </c>
-      <c r="AV31">
+      <c r="AX31">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ31" t="b">
-        <v>1</v>
-      </c>
       <c r="BA31" t="b">
         <v>1</v>
       </c>
-      <c r="BB31">
-        <v>0</v>
-      </c>
-      <c r="BC31" t="s">
+      <c r="BB31" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC31" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="s">
         <v>4</v>
       </c>
-      <c r="BD31" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE31" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF31" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG31" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
         <v>179</v>
       </c>
@@ -4828,143 +4886,143 @@
       <c r="I32" t="b">
         <v>0</v>
       </c>
-      <c r="J32" t="b">
-        <v>1</v>
-      </c>
       <c r="L32" t="b">
         <v>1</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
         <v>130</v>
       </c>
-      <c r="N32" t="s">
+      <c r="P32" t="s">
         <v>162</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>6</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="S32" t="s">
         <v>96</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <v>0.45</v>
       </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
       <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="W32">
         <v>3</v>
       </c>
-      <c r="V32">
+      <c r="X32">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W32">
+      <c r="Y32">
         <v>62</v>
       </c>
-      <c r="X32">
+      <c r="Z32">
         <v>5</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="AA32" t="s">
         <v>79</v>
       </c>
-      <c r="Z32">
+      <c r="AB32">
         <v>0.03</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AD32" t="s">
         <v>50</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AE32" t="s">
         <v>43</v>
       </c>
-      <c r="AD32">
+      <c r="AF32">
         <v>14</v>
       </c>
-      <c r="AE32">
+      <c r="AG32">
         <v>0.03</v>
       </c>
-      <c r="AF32">
+      <c r="AH32">
         <v>6</v>
       </c>
-      <c r="AG32">
+      <c r="AI32">
         <v>1.2</v>
       </c>
-      <c r="AH32">
+      <c r="AJ32">
         <v>0.8</v>
       </c>
-      <c r="AI32" t="s">
+      <c r="AK32" t="s">
         <v>86</v>
       </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
-      <c r="AL32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM32" t="s">
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="s">
         <v>128</v>
       </c>
-      <c r="AN32" t="s">
+      <c r="AP32" t="s">
         <v>175</v>
       </c>
-      <c r="AO32">
+      <c r="AQ32">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP32">
+      <c r="AR32">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ32" s="3">
+      <c r="AS32" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR32" s="9">
+      <c r="AT32" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS32" t="s">
+      <c r="AU32" t="s">
         <v>32</v>
       </c>
-      <c r="AT32" t="s">
+      <c r="AV32" t="s">
         <v>32</v>
       </c>
-      <c r="AU32">
+      <c r="AW32">
         <v>0.623</v>
       </c>
-      <c r="AV32">
+      <c r="AX32">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ32" t="b">
-        <v>1</v>
-      </c>
       <c r="BA32" t="b">
         <v>1</v>
       </c>
-      <c r="BB32">
-        <v>0</v>
-      </c>
-      <c r="BC32" t="s">
+      <c r="BB32" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC32" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32" t="s">
         <v>4</v>
       </c>
-      <c r="BD32" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE32" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="AQ33" s="3"/>
-      <c r="AR33" s="9"/>
-      <c r="BE33" s="35"/>
-    </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="AQ34" s="3"/>
-      <c r="AR34" s="3"/>
-    </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF32" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG32" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="9"/>
+      <c r="BG33" s="35"/>
+    </row>
+    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+    </row>
+    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>103</v>
       </c>
@@ -4986,134 +5044,134 @@
       <c r="I35" t="b">
         <v>1</v>
       </c>
-      <c r="J35" t="b">
-        <v>1</v>
-      </c>
       <c r="L35" t="b">
         <v>1</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
         <v>130</v>
       </c>
-      <c r="N35" t="s">
+      <c r="P35" t="s">
         <v>162</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <v>6</v>
       </c>
-      <c r="P35">
+      <c r="R35">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="S35" t="s">
         <v>96</v>
       </c>
-      <c r="R35">
+      <c r="T35">
         <v>0.45</v>
       </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
       <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="W35">
         <v>3</v>
       </c>
-      <c r="V35">
+      <c r="X35">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W35">
+      <c r="Y35">
         <v>62</v>
       </c>
-      <c r="X35">
+      <c r="Z35">
         <v>5</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="AA35" t="s">
         <v>79</v>
       </c>
-      <c r="Z35">
+      <c r="AB35">
         <v>0.03</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AD35" t="s">
         <v>50</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AE35" t="s">
         <v>43</v>
       </c>
-      <c r="AD35">
+      <c r="AF35">
         <v>14</v>
       </c>
-      <c r="AE35">
+      <c r="AG35">
         <v>0.03</v>
       </c>
-      <c r="AF35">
+      <c r="AH35">
         <v>6</v>
       </c>
-      <c r="AG35">
+      <c r="AI35">
         <v>1.2</v>
       </c>
-      <c r="AH35">
+      <c r="AJ35">
         <v>0.8</v>
       </c>
-      <c r="AI35" t="s">
+      <c r="AK35" t="s">
         <v>86</v>
       </c>
-      <c r="AK35">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM35" t="s">
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="s">
         <v>128</v>
       </c>
-      <c r="AN35" t="s">
+      <c r="AP35" t="s">
         <v>21</v>
       </c>
-      <c r="AO35">
+      <c r="AQ35">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP35">
+      <c r="AR35">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ35" s="3">
+      <c r="AS35" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR35" s="9">
+      <c r="AT35" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS35" t="s">
+      <c r="AU35" t="s">
         <v>32</v>
       </c>
-      <c r="AT35" t="s">
+      <c r="AV35" t="s">
         <v>32</v>
       </c>
-      <c r="AU35">
+      <c r="AW35">
         <v>0.623</v>
       </c>
-      <c r="AV35">
+      <c r="AX35">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ35" t="b">
-        <v>1</v>
-      </c>
       <c r="BA35" t="b">
         <v>1</v>
       </c>
-      <c r="BB35">
-        <v>0</v>
-      </c>
-      <c r="BC35" t="s">
+      <c r="BB35" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC35" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35" t="s">
         <v>4</v>
       </c>
-      <c r="BD35" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE35" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF35" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG35" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>104</v>
       </c>
@@ -5135,137 +5193,137 @@
       <c r="I36" t="b">
         <v>1</v>
       </c>
-      <c r="J36" t="b">
-        <v>1</v>
-      </c>
       <c r="L36" t="b">
         <v>1</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
         <v>130</v>
       </c>
-      <c r="N36" t="s">
+      <c r="P36" t="s">
         <v>162</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <v>6</v>
       </c>
-      <c r="P36">
+      <c r="R36">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="S36" t="s">
         <v>96</v>
       </c>
-      <c r="R36">
+      <c r="T36">
         <v>0.45</v>
       </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
       <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="W36">
         <v>3</v>
       </c>
-      <c r="V36">
+      <c r="X36">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W36">
+      <c r="Y36">
         <v>62</v>
       </c>
-      <c r="X36">
+      <c r="Z36">
         <v>5</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="AA36" t="s">
         <v>79</v>
       </c>
-      <c r="Z36">
+      <c r="AB36">
         <v>0.03</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AD36" t="s">
         <v>50</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AE36" t="s">
         <v>43</v>
       </c>
-      <c r="AD36">
+      <c r="AF36">
         <v>14</v>
       </c>
-      <c r="AE36">
+      <c r="AG36">
         <v>0.03</v>
       </c>
-      <c r="AF36">
+      <c r="AH36">
         <v>6</v>
       </c>
-      <c r="AG36">
+      <c r="AI36">
         <v>1.2</v>
       </c>
-      <c r="AH36">
+      <c r="AJ36">
         <v>0.8</v>
       </c>
-      <c r="AI36" t="s">
+      <c r="AK36" t="s">
         <v>86</v>
       </c>
-      <c r="AK36">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM36" t="s">
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="s">
         <v>128</v>
       </c>
-      <c r="AN36" t="s">
+      <c r="AP36" t="s">
         <v>21</v>
       </c>
-      <c r="AO36">
+      <c r="AQ36">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP36">
+      <c r="AR36">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ36" s="3">
+      <c r="AS36" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR36" s="9">
+      <c r="AT36" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS36" t="s">
+      <c r="AU36" t="s">
         <v>32</v>
       </c>
-      <c r="AT36" t="s">
+      <c r="AV36" t="s">
         <v>32</v>
       </c>
-      <c r="AU36">
+      <c r="AW36">
         <v>0.623</v>
       </c>
-      <c r="AV36">
+      <c r="AX36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ36" t="b">
-        <v>1</v>
-      </c>
       <c r="BA36" t="b">
         <v>1</v>
       </c>
-      <c r="BB36">
-        <v>0</v>
-      </c>
-      <c r="BC36" t="s">
+      <c r="BB36" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC36" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36" t="s">
         <v>4</v>
       </c>
-      <c r="BD36" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE36" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF36" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG36" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>105</v>
       </c>
@@ -5287,134 +5345,134 @@
       <c r="I38" t="b">
         <v>1</v>
       </c>
-      <c r="J38" t="b">
-        <v>1</v>
-      </c>
       <c r="L38" t="b">
         <v>1</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
         <v>130</v>
       </c>
-      <c r="N38" t="s">
+      <c r="P38" t="s">
         <v>162</v>
       </c>
-      <c r="O38">
+      <c r="Q38">
         <v>6</v>
       </c>
-      <c r="P38">
+      <c r="R38">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="S38" t="s">
         <v>96</v>
       </c>
-      <c r="R38">
+      <c r="T38">
         <v>0.45</v>
       </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
       <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="W38">
         <v>3</v>
       </c>
-      <c r="V38">
+      <c r="X38">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W38">
+      <c r="Y38">
         <v>62</v>
       </c>
-      <c r="X38">
+      <c r="Z38">
         <v>5</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="AA38" t="s">
         <v>79</v>
       </c>
-      <c r="Z38">
+      <c r="AB38">
         <v>0.03</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AD38" t="s">
         <v>50</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AE38" t="s">
         <v>43</v>
       </c>
-      <c r="AD38">
+      <c r="AF38">
         <v>14</v>
       </c>
-      <c r="AE38">
+      <c r="AG38">
         <v>0.03</v>
       </c>
-      <c r="AF38">
+      <c r="AH38">
         <v>6</v>
       </c>
-      <c r="AG38">
+      <c r="AI38">
         <v>1.2</v>
       </c>
-      <c r="AH38">
+      <c r="AJ38">
         <v>0.8</v>
       </c>
-      <c r="AI38" t="s">
+      <c r="AK38" t="s">
         <v>86</v>
       </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
-      <c r="AL38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM38" t="s">
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="s">
         <v>128</v>
       </c>
-      <c r="AN38" t="s">
+      <c r="AP38" t="s">
         <v>21</v>
       </c>
-      <c r="AO38">
+      <c r="AQ38">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP38">
+      <c r="AR38">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ38" s="3">
+      <c r="AS38" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR38" s="9">
+      <c r="AT38" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS38" t="s">
+      <c r="AU38" t="s">
         <v>32</v>
       </c>
-      <c r="AT38" t="s">
+      <c r="AV38" t="s">
         <v>32</v>
       </c>
-      <c r="AU38">
+      <c r="AW38">
         <v>0.623</v>
       </c>
-      <c r="AV38">
+      <c r="AX38">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ38" t="b">
-        <v>1</v>
-      </c>
       <c r="BA38" t="b">
         <v>1</v>
       </c>
-      <c r="BB38">
-        <v>0</v>
-      </c>
-      <c r="BC38" t="s">
+      <c r="BB38" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC38" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38" t="s">
         <v>4</v>
       </c>
-      <c r="BD38" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE38" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF38" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG38" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A39" s="40" t="s">
         <v>106</v>
       </c>
@@ -5436,134 +5494,134 @@
       <c r="I39" t="b">
         <v>1</v>
       </c>
-      <c r="J39" t="b">
-        <v>1</v>
-      </c>
       <c r="L39" t="b">
         <v>1</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
         <v>130</v>
       </c>
-      <c r="N39" t="s">
+      <c r="P39" t="s">
         <v>162</v>
       </c>
-      <c r="O39">
+      <c r="Q39">
         <v>6</v>
       </c>
-      <c r="P39">
+      <c r="R39">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="S39" t="s">
         <v>96</v>
       </c>
-      <c r="R39">
+      <c r="T39">
         <v>0.45</v>
       </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
       <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="W39">
         <v>3</v>
       </c>
-      <c r="V39">
+      <c r="X39">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W39">
+      <c r="Y39">
         <v>62</v>
       </c>
-      <c r="X39">
+      <c r="Z39">
         <v>5</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="AA39" t="s">
         <v>79</v>
       </c>
-      <c r="Z39">
+      <c r="AB39">
         <v>0.03</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AD39" t="s">
         <v>50</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AE39" t="s">
         <v>43</v>
       </c>
-      <c r="AD39">
+      <c r="AF39">
         <v>14</v>
       </c>
-      <c r="AE39">
+      <c r="AG39">
         <v>0.03</v>
       </c>
-      <c r="AF39">
+      <c r="AH39">
         <v>6</v>
       </c>
-      <c r="AG39">
+      <c r="AI39">
         <v>1.2</v>
       </c>
-      <c r="AH39">
+      <c r="AJ39">
         <v>0.8</v>
       </c>
-      <c r="AI39" t="s">
+      <c r="AK39" t="s">
         <v>86</v>
       </c>
-      <c r="AK39">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM39" t="s">
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="s">
         <v>128</v>
       </c>
-      <c r="AN39" t="s">
+      <c r="AP39" t="s">
         <v>21</v>
       </c>
-      <c r="AO39">
+      <c r="AQ39">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP39">
+      <c r="AR39">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ39" s="3">
+      <c r="AS39" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR39" s="9">
+      <c r="AT39" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS39" t="s">
+      <c r="AU39" t="s">
         <v>32</v>
       </c>
-      <c r="AT39" t="s">
+      <c r="AV39" t="s">
         <v>32</v>
       </c>
-      <c r="AU39">
+      <c r="AW39">
         <v>0.623</v>
       </c>
-      <c r="AV39">
+      <c r="AX39">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ39" t="b">
-        <v>1</v>
-      </c>
       <c r="BA39" t="b">
         <v>1</v>
       </c>
-      <c r="BB39">
-        <v>0</v>
-      </c>
-      <c r="BC39" t="s">
+      <c r="BB39" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC39" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39" t="s">
         <v>4</v>
       </c>
-      <c r="BD39" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE39" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF39" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG39" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
         <v>135</v>
       </c>
@@ -5585,134 +5643,134 @@
       <c r="I42" t="b">
         <v>0</v>
       </c>
-      <c r="J42" t="b">
-        <v>0</v>
-      </c>
       <c r="L42" t="b">
-        <v>1</v>
-      </c>
-      <c r="M42" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
         <v>130</v>
       </c>
-      <c r="N42" t="s">
+      <c r="P42" t="s">
         <v>136</v>
       </c>
-      <c r="O42">
+      <c r="Q42">
         <v>6</v>
       </c>
-      <c r="P42">
+      <c r="R42">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="S42" t="s">
         <v>96</v>
       </c>
-      <c r="R42">
+      <c r="T42">
         <v>0.45</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
       <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="W42">
         <v>3</v>
       </c>
-      <c r="V42">
+      <c r="X42">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W42">
+      <c r="Y42">
         <v>62</v>
       </c>
-      <c r="X42">
+      <c r="Z42">
         <v>5</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="AA42" t="s">
         <v>79</v>
       </c>
-      <c r="Z42">
+      <c r="AB42">
         <v>0.03</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AD42" t="s">
         <v>50</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="AE42" t="s">
         <v>43</v>
       </c>
-      <c r="AD42">
+      <c r="AF42">
         <v>14</v>
       </c>
-      <c r="AE42">
+      <c r="AG42">
         <v>0.03</v>
       </c>
-      <c r="AF42">
+      <c r="AH42">
         <v>6</v>
       </c>
-      <c r="AG42">
+      <c r="AI42">
         <v>1.2</v>
       </c>
-      <c r="AH42">
+      <c r="AJ42">
         <v>0.8</v>
       </c>
-      <c r="AI42" t="s">
+      <c r="AK42" t="s">
         <v>86</v>
       </c>
-      <c r="AK42">
-        <v>0</v>
-      </c>
-      <c r="AL42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM42" t="s">
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="s">
         <v>128</v>
       </c>
-      <c r="AN42" t="s">
+      <c r="AP42" t="s">
         <v>21</v>
       </c>
-      <c r="AO42">
+      <c r="AQ42">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP42">
+      <c r="AR42">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ42" s="3">
+      <c r="AS42" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR42" s="9">
+      <c r="AT42" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS42" t="s">
+      <c r="AU42" t="s">
         <v>32</v>
       </c>
-      <c r="AT42" t="s">
+      <c r="AV42" t="s">
         <v>32</v>
       </c>
-      <c r="AU42">
+      <c r="AW42">
         <v>0.623</v>
       </c>
-      <c r="AV42">
+      <c r="AX42">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ42" t="b">
-        <v>1</v>
-      </c>
       <c r="BA42" t="b">
         <v>1</v>
       </c>
-      <c r="BB42">
-        <v>0</v>
-      </c>
-      <c r="BC42" t="s">
+      <c r="BB42" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC42" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD42">
+        <v>0</v>
+      </c>
+      <c r="BE42" t="s">
         <v>4</v>
       </c>
-      <c r="BD42" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE42" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF42" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG42" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A43" s="39" t="s">
         <v>165</v>
       </c>
@@ -5734,134 +5792,134 @@
       <c r="I43" t="b">
         <v>0</v>
       </c>
-      <c r="J43" t="b">
-        <v>1</v>
-      </c>
       <c r="L43" t="b">
         <v>1</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
         <v>130</v>
       </c>
-      <c r="N43" t="s">
+      <c r="P43" t="s">
         <v>136</v>
       </c>
-      <c r="O43">
+      <c r="Q43">
         <v>6</v>
       </c>
-      <c r="P43">
+      <c r="R43">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="S43" t="s">
         <v>96</v>
       </c>
-      <c r="R43">
+      <c r="T43">
         <v>0.45</v>
       </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
       <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="W43">
         <v>3</v>
       </c>
-      <c r="V43">
+      <c r="X43">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W43">
+      <c r="Y43">
         <v>62</v>
       </c>
-      <c r="X43">
+      <c r="Z43">
         <v>5</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="AA43" t="s">
         <v>79</v>
       </c>
-      <c r="Z43">
+      <c r="AB43">
         <v>0.03</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AD43" t="s">
         <v>50</v>
       </c>
-      <c r="AC43" t="s">
+      <c r="AE43" t="s">
         <v>43</v>
       </c>
-      <c r="AD43">
+      <c r="AF43">
         <v>14</v>
       </c>
-      <c r="AE43">
+      <c r="AG43">
         <v>0.03</v>
       </c>
-      <c r="AF43">
+      <c r="AH43">
         <v>6</v>
       </c>
-      <c r="AG43">
+      <c r="AI43">
         <v>1.2</v>
       </c>
-      <c r="AH43">
+      <c r="AJ43">
         <v>0.8</v>
       </c>
-      <c r="AI43" t="s">
+      <c r="AK43" t="s">
         <v>86</v>
       </c>
-      <c r="AK43">
-        <v>0</v>
-      </c>
-      <c r="AL43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM43" t="s">
+      <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="s">
         <v>128</v>
       </c>
-      <c r="AN43" t="s">
+      <c r="AP43" t="s">
         <v>21</v>
       </c>
-      <c r="AO43">
+      <c r="AQ43">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP43">
+      <c r="AR43">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ43" s="3">
+      <c r="AS43" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR43" s="9">
+      <c r="AT43" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS43" t="s">
+      <c r="AU43" t="s">
         <v>32</v>
       </c>
-      <c r="AT43" t="s">
+      <c r="AV43" t="s">
         <v>32</v>
       </c>
-      <c r="AU43">
+      <c r="AW43">
         <v>0.623</v>
       </c>
-      <c r="AV43">
+      <c r="AX43">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ43" t="b">
-        <v>1</v>
-      </c>
       <c r="BA43" t="b">
         <v>1</v>
       </c>
-      <c r="BB43">
-        <v>0</v>
-      </c>
-      <c r="BC43" t="s">
+      <c r="BB43" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC43" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BE43" t="s">
         <v>4</v>
       </c>
-      <c r="BD43" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE43" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF43" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG43" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
         <v>134</v>
       </c>
@@ -5883,144 +5941,144 @@
       <c r="I44" t="b">
         <v>0</v>
       </c>
-      <c r="J44" t="b">
-        <v>0</v>
-      </c>
       <c r="L44" t="b">
-        <v>1</v>
-      </c>
-      <c r="M44" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
         <v>133</v>
       </c>
-      <c r="N44" t="s">
+      <c r="P44" t="s">
         <v>136</v>
       </c>
-      <c r="O44">
+      <c r="Q44">
         <v>6</v>
       </c>
-      <c r="P44">
+      <c r="R44">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="S44" t="s">
         <v>96</v>
       </c>
-      <c r="R44">
+      <c r="T44">
         <v>0.45</v>
       </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
       <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="W44">
         <v>3</v>
       </c>
-      <c r="V44">
+      <c r="X44">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W44">
+      <c r="Y44">
         <v>62</v>
       </c>
-      <c r="X44">
+      <c r="Z44">
         <v>5</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="AA44" t="s">
         <v>79</v>
       </c>
-      <c r="Z44">
+      <c r="AB44">
         <v>0.03</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AD44" t="s">
         <v>50</v>
       </c>
-      <c r="AC44" t="s">
+      <c r="AE44" t="s">
         <v>43</v>
       </c>
-      <c r="AD44">
+      <c r="AF44">
         <v>14</v>
       </c>
-      <c r="AE44">
+      <c r="AG44">
         <v>0.03</v>
       </c>
-      <c r="AF44">
+      <c r="AH44">
         <v>6</v>
       </c>
-      <c r="AG44">
+      <c r="AI44">
         <v>1.2</v>
       </c>
-      <c r="AH44">
+      <c r="AJ44">
         <v>0.8</v>
       </c>
-      <c r="AI44" t="s">
+      <c r="AK44" t="s">
         <v>86</v>
       </c>
-      <c r="AK44">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM44" t="s">
+      <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="s">
         <v>128</v>
       </c>
-      <c r="AN44" t="s">
+      <c r="AP44" t="s">
         <v>21</v>
       </c>
-      <c r="AO44">
+      <c r="AQ44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP44">
+      <c r="AR44">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AQ44" s="3">
+      <c r="AS44" s="3">
         <v>0.12</v>
       </c>
-      <c r="AR44" s="9">
+      <c r="AT44" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AS44" t="s">
+      <c r="AU44" t="s">
         <v>32</v>
       </c>
-      <c r="AT44" t="s">
+      <c r="AV44" t="s">
         <v>32</v>
       </c>
-      <c r="AU44">
+      <c r="AW44">
         <v>0.623</v>
       </c>
-      <c r="AV44">
+      <c r="AX44">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AY44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ44" t="b">
-        <v>1</v>
-      </c>
       <c r="BA44" t="b">
         <v>1</v>
       </c>
-      <c r="BB44">
-        <v>0</v>
-      </c>
-      <c r="BC44" t="s">
+      <c r="BB44" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC44" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD44">
+        <v>0</v>
+      </c>
+      <c r="BE44" t="s">
         <v>4</v>
       </c>
-      <c r="BD44" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE44" s="35" t="b">
+      <c r="BF44" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG44" s="35" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ38:BA39 L38:L39 E42:E44 AZ42:BA44 J42:L44 J31:K39 L31:L36 AZ5:BA36 J5:L33 E5:E39" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB38:BC39 N38:N39 E42:E44 BB42:BC44 L42:N44 L31:M39 N31:N36 BB5:BC36 L5:N33 E5:E39" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM38:AM39 AM42:AM44 AM5:AM36" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO38:AO39 AO42:AO44 AO5:AO36" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6029,8 +6087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6076,10 +6134,10 @@
         <v>2016</v>
       </c>
       <c r="B4">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>6</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF9F61D-596F-4F98-866E-D28F1908DBEF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07974A8-8FF8-45AA-BC6A-94DD54E87149}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1530" windowWidth="29040" windowHeight="15840" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="193">
   <si>
     <t>runname</t>
   </si>
@@ -770,10 +770,13 @@
     <t>singleTier_select</t>
   </si>
   <si>
-    <t>singleTier</t>
-  </si>
-  <si>
     <t>t4a</t>
+  </si>
+  <si>
+    <t>multiTier</t>
+  </si>
+  <si>
+    <t>simple</t>
   </si>
 </sst>
 </file>
@@ -1504,13 +1507,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:BG44"/>
+  <dimension ref="A3:BG46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="AI5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="AP8" sqref="AP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,13 +1831,13 @@
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0.3</v>
@@ -1848,20 +1851,26 @@
       <c r="I5" t="b">
         <v>0</v>
       </c>
+      <c r="J5" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" t="s">
+        <v>190</v>
+      </c>
       <c r="L5" t="b">
         <v>0</v>
       </c>
       <c r="M5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="s">
         <v>130</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1933,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="AO5" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="AP5" t="s">
         <v>21</v>
@@ -1985,174 +1994,174 @@
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="9"/>
+      <c r="BG6" s="35"/>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" t="s">
         <v>138</v>
       </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>0.3</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>110</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>107</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
         <v>130</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P7" t="s">
         <v>136</v>
       </c>
-      <c r="Q6">
+      <c r="Q7">
         <v>6</v>
       </c>
-      <c r="R6">
+      <c r="R7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S7" t="s">
         <v>96</v>
       </c>
-      <c r="T6">
+      <c r="T7">
         <v>0.46500000000000002</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
         <v>0.15</v>
       </c>
-      <c r="W6">
+      <c r="W7">
         <v>3</v>
       </c>
-      <c r="X6">
+      <c r="X7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <v>62</v>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <v>5</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AA7" t="s">
         <v>184</v>
       </c>
-      <c r="AB6">
+      <c r="AB7">
         <v>0.03</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AD7" t="s">
         <v>50</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AE7" t="s">
         <v>43</v>
       </c>
-      <c r="AF6">
+      <c r="AF7">
         <v>15</v>
       </c>
-      <c r="AG6">
+      <c r="AG7">
         <v>0.03</v>
       </c>
-      <c r="AH6">
+      <c r="AH7">
         <v>6</v>
       </c>
-      <c r="AI6">
+      <c r="AI7">
         <v>1.2</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ7">
         <v>0.8</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AK7" t="s">
         <v>86</v>
       </c>
-      <c r="AL6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="s">
+      <c r="AL7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="s">
         <v>128</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AP7" t="s">
         <v>21</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR6">
+      <c r="AR7">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS6" s="3">
+      <c r="AS7" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT6" s="9">
+      <c r="AT7" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AU7" t="s">
         <v>32</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AV7" t="s">
         <v>32</v>
       </c>
-      <c r="AW6">
+      <c r="AW7">
         <v>0.623</v>
       </c>
-      <c r="AX6">
+      <c r="AX7">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BA6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6" t="s">
+      <c r="BA7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="s">
         <v>4</v>
       </c>
-      <c r="BF6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG6" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="9"/>
-      <c r="BG7" s="35"/>
+      <c r="BF7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -2173,16 +2182,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="s">
         <v>130</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2306,180 +2315,174 @@
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="9"/>
+      <c r="BG9" s="35"/>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" t="s">
         <v>161</v>
       </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>0.3</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>110</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>107</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>190</v>
-      </c>
-      <c r="K9" t="s">
-        <v>191</v>
-      </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
         <v>130</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P10" t="s">
         <v>162</v>
       </c>
-      <c r="Q9">
+      <c r="Q10">
         <v>6</v>
       </c>
-      <c r="R9">
+      <c r="R10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S10" t="s">
         <v>96</v>
       </c>
-      <c r="T9">
+      <c r="T10">
         <v>0.46500000000000002</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <v>0.15</v>
       </c>
-      <c r="W9">
+      <c r="W10">
         <v>3</v>
       </c>
-      <c r="X9">
+      <c r="X10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <v>62</v>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <v>5</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AA10" t="s">
         <v>184</v>
       </c>
-      <c r="AB9">
+      <c r="AB10">
         <v>0.03</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AD10" t="s">
         <v>50</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AE10" t="s">
         <v>43</v>
       </c>
-      <c r="AF9">
+      <c r="AF10">
         <v>15</v>
       </c>
-      <c r="AG9">
+      <c r="AG10">
         <v>0.03</v>
       </c>
-      <c r="AH9">
+      <c r="AH10">
         <v>6</v>
       </c>
-      <c r="AI9">
+      <c r="AI10">
         <v>1.2</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ10">
         <v>0.8</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AK10" t="s">
         <v>86</v>
       </c>
-      <c r="AL9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="s">
+      <c r="AL10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="s">
         <v>128</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AP10" t="s">
         <v>21</v>
       </c>
-      <c r="AQ9">
+      <c r="AQ10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR9">
+      <c r="AR10">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS9" s="3">
+      <c r="AS10" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT9" s="9">
+      <c r="AT10" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AU9" t="s">
+      <c r="AU10" t="s">
         <v>32</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AV10" t="s">
         <v>32</v>
       </c>
-      <c r="AW9">
+      <c r="AW10">
         <v>0.623</v>
       </c>
-      <c r="AX9">
+      <c r="AX10">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BA9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD9">
-        <v>0</v>
-      </c>
-      <c r="BE9" t="s">
+      <c r="BA10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="s">
         <v>4</v>
       </c>
-      <c r="BF9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG9" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="9"/>
-      <c r="BG10" s="35"/>
+      <c r="BF10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG10" s="35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -2496,6 +2499,12 @@
       <c r="I11" t="b">
         <v>0</v>
       </c>
+      <c r="J11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" t="s">
+        <v>190</v>
+      </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
@@ -2503,13 +2512,13 @@
         <v>1</v>
       </c>
       <c r="N11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="s">
         <v>130</v>
       </c>
       <c r="P11" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -2554,7 +2563,7 @@
         <v>43</v>
       </c>
       <c r="AF11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG11">
         <v>0.03</v>
@@ -2584,7 +2593,7 @@
         <v>128</v>
       </c>
       <c r="AP11" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="AQ11">
         <v>7.0000000000000007E-2</v>
@@ -2633,174 +2642,174 @@
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="9"/>
+      <c r="BG12" s="35"/>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>0.3</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>110</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>107</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
         <v>130</v>
       </c>
-      <c r="P12" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q12">
+      <c r="P13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q13">
         <v>6</v>
       </c>
-      <c r="R12">
+      <c r="R13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S13" t="s">
         <v>96</v>
       </c>
-      <c r="T12">
+      <c r="T13">
         <v>0.46500000000000002</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
         <v>0.15</v>
       </c>
-      <c r="W12">
+      <c r="W13">
         <v>3</v>
       </c>
-      <c r="X12">
+      <c r="X13">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <v>62</v>
       </c>
-      <c r="Z12">
+      <c r="Z13">
         <v>5</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AA13" t="s">
         <v>184</v>
       </c>
-      <c r="AB12">
+      <c r="AB13">
         <v>0.03</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AD13" t="s">
         <v>50</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AE13" t="s">
         <v>43</v>
       </c>
-      <c r="AF12">
+      <c r="AF13">
         <v>14</v>
       </c>
-      <c r="AG12">
+      <c r="AG13">
         <v>0.03</v>
       </c>
-      <c r="AH12">
+      <c r="AH13">
         <v>6</v>
       </c>
-      <c r="AI12">
+      <c r="AI13">
         <v>1.2</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ13">
         <v>0.8</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AK13" t="s">
         <v>86</v>
       </c>
-      <c r="AL12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="s">
+      <c r="AL13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="s">
         <v>128</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AP13" t="s">
         <v>151</v>
       </c>
-      <c r="AQ12">
+      <c r="AQ13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR12">
+      <c r="AR13">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS12" s="3">
+      <c r="AS13" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT12" s="9">
+      <c r="AT13" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AU13" t="s">
         <v>32</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AV13" t="s">
         <v>32</v>
       </c>
-      <c r="AW12">
+      <c r="AW13">
         <v>0.623</v>
       </c>
-      <c r="AX12">
+      <c r="AX13">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BA12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD12">
-        <v>0</v>
-      </c>
-      <c r="BE12" t="s">
+      <c r="BA13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="s">
         <v>4</v>
       </c>
-      <c r="BF12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG12" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="9"/>
-      <c r="BG13" s="35"/>
+      <c r="BF13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG13" s="35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -2875,7 +2884,7 @@
         <v>43</v>
       </c>
       <c r="AF14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG14">
         <v>0.03</v>
@@ -2890,7 +2899,7 @@
         <v>0.8</v>
       </c>
       <c r="AK14" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="AL14" t="b">
         <v>1</v>
@@ -2905,7 +2914,7 @@
         <v>128</v>
       </c>
       <c r="AP14" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="AQ14">
         <v>7.0000000000000007E-2</v>
@@ -2923,7 +2932,7 @@
         <v>32</v>
       </c>
       <c r="AV14" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="AW14">
         <v>0.623</v>
@@ -2953,167 +2962,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:59" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0.3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" t="b">
-        <v>1</v>
-      </c>
-      <c r="N15" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" t="s">
-        <v>130</v>
-      </c>
-      <c r="P15" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q15">
-        <v>6</v>
-      </c>
-      <c r="R15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="S15" t="s">
-        <v>96</v>
-      </c>
-      <c r="T15">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0.15</v>
-      </c>
-      <c r="W15">
-        <v>3</v>
-      </c>
-      <c r="X15">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y15">
-        <v>62</v>
-      </c>
-      <c r="Z15">
-        <v>5</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB15">
-        <v>0.03</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF15">
-        <v>15</v>
-      </c>
-      <c r="AG15">
-        <v>0.03</v>
-      </c>
-      <c r="AH15">
-        <v>6</v>
-      </c>
-      <c r="AI15">
-        <v>1.2</v>
-      </c>
-      <c r="AJ15">
-        <v>0.8</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AR15">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AS15" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AT15" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW15">
-        <v>0.623</v>
-      </c>
-      <c r="AX15">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="BA15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD15">
-        <v>0</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>4</v>
-      </c>
-      <c r="BF15" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG15" s="35" t="b">
-        <v>1</v>
-      </c>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="9"/>
+      <c r="BG15" s="35"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
         <v>139</v>
@@ -3188,7 +3044,7 @@
         <v>50</v>
       </c>
       <c r="AE16" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="AF16">
         <v>15</v>
@@ -3206,7 +3062,7 @@
         <v>0.8</v>
       </c>
       <c r="AK16" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="AL16" t="b">
         <v>1</v>
@@ -3239,7 +3095,7 @@
         <v>32</v>
       </c>
       <c r="AV16" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="AW16">
         <v>0.623</v>
@@ -3269,9 +3125,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
         <v>139</v>
@@ -3343,10 +3199,10 @@
         <v>0.03</v>
       </c>
       <c r="AD17" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="AE17" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="AF17">
         <v>15</v>
@@ -3367,7 +3223,7 @@
         <v>86</v>
       </c>
       <c r="AL17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -3429,7 +3285,7 @@
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
         <v>139</v>
@@ -3501,13 +3357,13 @@
         <v>0.03</v>
       </c>
       <c r="AD18" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="AE18" t="s">
         <v>144</v>
       </c>
       <c r="AF18">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AG18">
         <v>0.03</v>
@@ -3587,10 +3443,10 @@
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -3614,13 +3470,13 @@
         <v>1</v>
       </c>
       <c r="N19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="s">
         <v>130</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -3665,7 +3521,7 @@
         <v>144</v>
       </c>
       <c r="AF19">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AG19">
         <v>0.03</v>
@@ -3744,12 +3600,166 @@
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+      <c r="R20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S20" t="s">
+        <v>96</v>
+      </c>
+      <c r="T20">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0.15</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="X20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Y20">
+        <v>62</v>
+      </c>
+      <c r="Z20">
+        <v>5</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB20">
+        <v>0.03</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF20">
+        <v>30</v>
+      </c>
+      <c r="AG20">
+        <v>0.03</v>
+      </c>
+      <c r="AH20">
+        <v>6</v>
+      </c>
+      <c r="AI20">
+        <v>1.2</v>
+      </c>
+      <c r="AJ20">
+        <v>0.8</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AR20">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AS20" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AT20" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW20">
+        <v>0.623</v>
+      </c>
+      <c r="AX20">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="BA20" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB20" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC20" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF20" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG20" s="35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C21" t="s">
         <v>138</v>
@@ -3782,7 +3792,7 @@
         <v>130</v>
       </c>
       <c r="P21" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -3821,13 +3831,13 @@
         <v>0.03</v>
       </c>
       <c r="AD21" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="AE21" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="AF21">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AG21">
         <v>0.03</v>
@@ -3857,7 +3867,7 @@
         <v>128</v>
       </c>
       <c r="AP21" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="AQ21">
         <v>7.0000000000000007E-2</v>
@@ -3906,174 +3916,173 @@
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+    </row>
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>0.3</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>110</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H23" t="s">
         <v>107</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" t="b">
-        <v>1</v>
-      </c>
-      <c r="N22" t="b">
-        <v>1</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
         <v>130</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P23" t="s">
         <v>162</v>
       </c>
-      <c r="Q22">
+      <c r="Q23">
         <v>6</v>
       </c>
-      <c r="R22">
+      <c r="R23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S23" t="s">
         <v>96</v>
       </c>
-      <c r="T22">
+      <c r="T23">
         <v>0.46500000000000002</v>
       </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
         <v>0.15</v>
       </c>
-      <c r="W22">
+      <c r="W23">
         <v>3</v>
       </c>
-      <c r="X22">
+      <c r="X23">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <v>62</v>
       </c>
-      <c r="Z22">
+      <c r="Z23">
         <v>5</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AA23" t="s">
         <v>184</v>
       </c>
-      <c r="AB22">
+      <c r="AB23">
         <v>0.03</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AD23" t="s">
         <v>50</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AE23" t="s">
         <v>43</v>
       </c>
-      <c r="AF22">
+      <c r="AF23">
         <v>14</v>
       </c>
-      <c r="AG22">
+      <c r="AG23">
         <v>0.03</v>
       </c>
-      <c r="AH22">
+      <c r="AH23">
         <v>6</v>
       </c>
-      <c r="AI22">
+      <c r="AI23">
         <v>1.2</v>
       </c>
-      <c r="AJ22">
+      <c r="AJ23">
         <v>0.8</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AK23" t="s">
         <v>86</v>
       </c>
-      <c r="AL22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="s">
+      <c r="AL23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="s">
         <v>128</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AP23" t="s">
         <v>174</v>
       </c>
-      <c r="AQ22">
+      <c r="AQ23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR22">
+      <c r="AR23">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS22" s="3">
+      <c r="AS23" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT22" s="9">
+      <c r="AT23" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AU22" t="s">
+      <c r="AU23" t="s">
         <v>32</v>
       </c>
-      <c r="AV22" t="s">
+      <c r="AV23" t="s">
         <v>32</v>
       </c>
-      <c r="AW22">
+      <c r="AW23">
         <v>0.623</v>
       </c>
-      <c r="AX22">
+      <c r="AX23">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BA22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD22">
-        <v>0</v>
-      </c>
-      <c r="BE22" t="s">
+      <c r="BA23" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB23" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC23" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="s">
         <v>4</v>
       </c>
-      <c r="BF22" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG22" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AS23" s="3"/>
-      <c r="AT23" s="9"/>
-      <c r="BG23" s="35"/>
+      <c r="BF23" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG23" s="35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -4148,7 +4157,7 @@
         <v>43</v>
       </c>
       <c r="AF24">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="AG24">
         <v>0.03</v>
@@ -4178,7 +4187,7 @@
         <v>128</v>
       </c>
       <c r="AP24" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="AQ24">
         <v>7.0000000000000007E-2</v>
@@ -4227,174 +4236,174 @@
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="9"/>
+      <c r="BG25" s="35"/>
+    </row>
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" t="s">
         <v>139</v>
       </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>0.3</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>110</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H26" t="s">
         <v>107</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" t="b">
-        <v>1</v>
-      </c>
-      <c r="N25" t="b">
-        <v>1</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
         <v>130</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P26" t="s">
         <v>162</v>
       </c>
-      <c r="Q25">
+      <c r="Q26">
         <v>6</v>
       </c>
-      <c r="R25">
+      <c r="R26">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S25" t="s">
+      <c r="S26" t="s">
         <v>96</v>
       </c>
-      <c r="T25">
+      <c r="T26">
         <v>0.46500000000000002</v>
       </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
         <v>0.15</v>
       </c>
-      <c r="W25">
+      <c r="W26">
         <v>3</v>
       </c>
-      <c r="X25">
+      <c r="X26">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y25">
+      <c r="Y26">
         <v>62</v>
       </c>
-      <c r="Z25">
+      <c r="Z26">
         <v>5</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AA26" t="s">
         <v>184</v>
       </c>
-      <c r="AB25">
+      <c r="AB26">
         <v>0.03</v>
       </c>
-      <c r="AD25" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE25" t="s">
+      <c r="AD26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE26" t="s">
         <v>43</v>
       </c>
-      <c r="AF25">
-        <v>15</v>
-      </c>
-      <c r="AG25">
+      <c r="AF26">
+        <v>30</v>
+      </c>
+      <c r="AG26">
         <v>0.03</v>
       </c>
-      <c r="AH25">
+      <c r="AH26">
         <v>6</v>
       </c>
-      <c r="AI25">
+      <c r="AI26">
         <v>1.2</v>
       </c>
-      <c r="AJ25">
+      <c r="AJ26">
         <v>0.8</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AK26" t="s">
         <v>86</v>
       </c>
-      <c r="AL25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="s">
+      <c r="AL26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="s">
         <v>128</v>
       </c>
-      <c r="AP25" t="s">
+      <c r="AP26" t="s">
         <v>21</v>
       </c>
-      <c r="AQ25">
+      <c r="AQ26">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR25">
+      <c r="AR26">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS25" s="3">
+      <c r="AS26" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT25" s="9">
+      <c r="AT26" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AU25" t="s">
+      <c r="AU26" t="s">
         <v>32</v>
       </c>
-      <c r="AV25" t="s">
+      <c r="AV26" t="s">
         <v>32</v>
       </c>
-      <c r="AW25">
+      <c r="AW26">
         <v>0.623</v>
       </c>
-      <c r="AX25">
+      <c r="AX26">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BA25" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB25" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC25" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD25">
-        <v>0</v>
-      </c>
-      <c r="BE25" t="s">
+      <c r="BA26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="s">
         <v>4</v>
       </c>
-      <c r="BF25" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG25" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AS26" s="3"/>
-      <c r="AT26" s="9"/>
-      <c r="BG26" s="35"/>
+      <c r="BF26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG26" s="35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4418,13 +4427,13 @@
         <v>1</v>
       </c>
       <c r="N27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="s">
         <v>130</v>
       </c>
       <c r="P27" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -4463,13 +4472,13 @@
         <v>0.03</v>
       </c>
       <c r="AD27" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="AE27" t="s">
         <v>43</v>
       </c>
       <c r="AF27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG27">
         <v>0.03</v>
@@ -4499,7 +4508,7 @@
         <v>128</v>
       </c>
       <c r="AP27" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="AQ27">
         <v>7.0000000000000007E-2</v>
@@ -4548,784 +4557,795 @@
       </c>
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="9"/>
+      <c r="BG28" s="35"/>
+    </row>
+    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
+        <v>130</v>
+      </c>
+      <c r="P29" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S29" t="s">
+        <v>96</v>
+      </c>
+      <c r="T29">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0.15</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+      <c r="X29">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Y29">
+        <v>62</v>
+      </c>
+      <c r="Z29">
+        <v>5</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB29">
+        <v>0.03</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF29">
+        <v>14</v>
+      </c>
+      <c r="AG29">
+        <v>0.03</v>
+      </c>
+      <c r="AH29">
+        <v>6</v>
+      </c>
+      <c r="AI29">
+        <v>1.2</v>
+      </c>
+      <c r="AJ29">
+        <v>0.8</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AR29">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AS29" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AT29" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW29">
+        <v>0.623</v>
+      </c>
+      <c r="AX29">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="BA29" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB29" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC29" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF29" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG29" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>169</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>161</v>
       </c>
-      <c r="E28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28">
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>0.3</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G30" t="s">
         <v>110</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H30" t="s">
         <v>107</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28" t="b">
-        <v>1</v>
-      </c>
-      <c r="N28" t="b">
-        <v>1</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
         <v>130</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P30" t="s">
         <v>162</v>
       </c>
-      <c r="Q28">
+      <c r="Q30">
         <v>6</v>
       </c>
-      <c r="R28">
+      <c r="R30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S28" t="s">
+      <c r="S30" t="s">
         <v>96</v>
       </c>
-      <c r="T28">
+      <c r="T30">
         <v>0.46500000000000002</v>
       </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
         <v>0.15</v>
       </c>
-      <c r="W28">
+      <c r="W30">
         <v>3</v>
       </c>
-      <c r="X28">
+      <c r="X30">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y28">
+      <c r="Y30">
         <v>62</v>
       </c>
-      <c r="Z28">
+      <c r="Z30">
         <v>5</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AA30" t="s">
         <v>184</v>
       </c>
-      <c r="AB28">
+      <c r="AB30">
         <v>0.03</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AD30" t="s">
         <v>50</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AE30" t="s">
         <v>43</v>
       </c>
-      <c r="AF28">
+      <c r="AF30">
         <v>14</v>
       </c>
-      <c r="AG28">
+      <c r="AG30">
         <v>0.03</v>
       </c>
-      <c r="AH28">
+      <c r="AH30">
         <v>6</v>
       </c>
-      <c r="AI28">
+      <c r="AI30">
         <v>1.2</v>
       </c>
-      <c r="AJ28">
+      <c r="AJ30">
         <v>0.8</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AK30" t="s">
         <v>86</v>
       </c>
-      <c r="AL28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="s">
+      <c r="AL30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="s">
         <v>128</v>
       </c>
-      <c r="AP28" t="s">
+      <c r="AP30" t="s">
         <v>154</v>
       </c>
-      <c r="AQ28">
+      <c r="AQ30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR28">
+      <c r="AR30">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS28" s="3">
+      <c r="AS30" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT28" s="9">
+      <c r="AT30" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AU28" t="s">
+      <c r="AU30" t="s">
         <v>32</v>
       </c>
-      <c r="AV28" t="s">
+      <c r="AV30" t="s">
         <v>32</v>
       </c>
-      <c r="AW28">
+      <c r="AW30">
         <v>0.623</v>
       </c>
-      <c r="AX28">
+      <c r="AX30">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BA28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD28">
-        <v>0</v>
-      </c>
-      <c r="BE28" t="s">
+      <c r="BA30" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB30" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC30" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30" t="s">
         <v>4</v>
       </c>
-      <c r="BF28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG28" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AS29" s="3"/>
-      <c r="AT29" s="9"/>
-      <c r="BG29" s="35"/>
-    </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AS30" s="3"/>
-      <c r="AT30" s="9"/>
-      <c r="BG30" s="35"/>
+      <c r="BF30" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG30" s="35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="9"/>
+      <c r="BG31" s="35"/>
+    </row>
+    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="9"/>
+      <c r="BG32" s="35"/>
+    </row>
+    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>138</v>
       </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31">
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <v>0.3</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G33" t="s">
         <v>110</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H33" t="s">
         <v>107</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" t="b">
-        <v>1</v>
-      </c>
-      <c r="N31" t="b">
-        <v>0</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
         <v>130</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P33" t="s">
         <v>162</v>
       </c>
-      <c r="Q31">
+      <c r="Q33">
         <v>6</v>
       </c>
-      <c r="R31">
+      <c r="R33">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="S31" t="s">
+      <c r="S33" t="s">
         <v>96</v>
       </c>
-      <c r="T31">
+      <c r="T33">
         <v>0.45</v>
       </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="W31">
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="W33">
         <v>3</v>
       </c>
-      <c r="X31">
+      <c r="X33">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y31">
+      <c r="Y33">
         <v>62</v>
       </c>
-      <c r="Z31">
+      <c r="Z33">
         <v>5</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AA33" t="s">
         <v>79</v>
       </c>
-      <c r="AB31">
+      <c r="AB33">
         <v>0.03</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AD33" t="s">
         <v>50</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="AE33" t="s">
         <v>43</v>
       </c>
-      <c r="AF31">
+      <c r="AF33">
         <v>14</v>
       </c>
-      <c r="AG31">
+      <c r="AG33">
         <v>0.03</v>
       </c>
-      <c r="AH31">
+      <c r="AH33">
         <v>6</v>
       </c>
-      <c r="AI31">
+      <c r="AI33">
         <v>1.2</v>
       </c>
-      <c r="AJ31">
+      <c r="AJ33">
         <v>0.8</v>
       </c>
-      <c r="AK31" t="s">
+      <c r="AK33" t="s">
         <v>86</v>
       </c>
-      <c r="AM31">
-        <v>0</v>
-      </c>
-      <c r="AN31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO31" t="s">
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="s">
         <v>128</v>
       </c>
-      <c r="AP31" t="s">
+      <c r="AP33" t="s">
         <v>175</v>
       </c>
-      <c r="AQ31">
+      <c r="AQ33">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR31">
+      <c r="AR33">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS31" s="3">
+      <c r="AS33" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT31" s="9">
+      <c r="AT33" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AU31" t="s">
+      <c r="AU33" t="s">
         <v>32</v>
       </c>
-      <c r="AV31" t="s">
+      <c r="AV33" t="s">
         <v>32</v>
       </c>
-      <c r="AW31">
+      <c r="AW33">
         <v>0.623</v>
       </c>
-      <c r="AX31">
+      <c r="AX33">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BA31" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB31" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC31" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD31">
-        <v>0</v>
-      </c>
-      <c r="BE31" t="s">
+      <c r="BA33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33" t="s">
         <v>4</v>
       </c>
-      <c r="BF31" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG31" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+      <c r="BF33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG33" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>161</v>
       </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32">
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <v>0.3</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G34" t="s">
         <v>110</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H34" t="s">
         <v>107</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" t="b">
-        <v>1</v>
-      </c>
-      <c r="N32" t="b">
-        <v>1</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
         <v>130</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P34" t="s">
         <v>162</v>
       </c>
-      <c r="Q32">
+      <c r="Q34">
         <v>6</v>
       </c>
-      <c r="R32">
+      <c r="R34">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="S32" t="s">
+      <c r="S34" t="s">
         <v>96</v>
       </c>
-      <c r="T32">
+      <c r="T34">
         <v>0.45</v>
       </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="W32">
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="W34">
         <v>3</v>
       </c>
-      <c r="X32">
+      <c r="X34">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y32">
+      <c r="Y34">
         <v>62</v>
       </c>
-      <c r="Z32">
+      <c r="Z34">
         <v>5</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AA34" t="s">
         <v>79</v>
       </c>
-      <c r="AB32">
+      <c r="AB34">
         <v>0.03</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AD34" t="s">
         <v>50</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="AE34" t="s">
         <v>43</v>
       </c>
-      <c r="AF32">
+      <c r="AF34">
         <v>14</v>
       </c>
-      <c r="AG32">
+      <c r="AG34">
         <v>0.03</v>
       </c>
-      <c r="AH32">
+      <c r="AH34">
         <v>6</v>
       </c>
-      <c r="AI32">
+      <c r="AI34">
         <v>1.2</v>
       </c>
-      <c r="AJ32">
+      <c r="AJ34">
         <v>0.8</v>
       </c>
-      <c r="AK32" t="s">
+      <c r="AK34" t="s">
         <v>86</v>
       </c>
-      <c r="AM32">
-        <v>0</v>
-      </c>
-      <c r="AN32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO32" t="s">
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="s">
         <v>128</v>
       </c>
-      <c r="AP32" t="s">
+      <c r="AP34" t="s">
         <v>175</v>
       </c>
-      <c r="AQ32">
+      <c r="AQ34">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR32">
+      <c r="AR34">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS32" s="3">
+      <c r="AS34" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT32" s="9">
+      <c r="AT34" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AU32" t="s">
+      <c r="AU34" t="s">
         <v>32</v>
       </c>
-      <c r="AV32" t="s">
+      <c r="AV34" t="s">
         <v>32</v>
       </c>
-      <c r="AW32">
+      <c r="AW34">
         <v>0.623</v>
       </c>
-      <c r="AX32">
+      <c r="AX34">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BA32" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB32" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC32" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD32">
-        <v>0</v>
-      </c>
-      <c r="BE32" t="s">
+      <c r="BA34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34" t="s">
         <v>4</v>
       </c>
-      <c r="BF32" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG32" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AS33" s="3"/>
-      <c r="AT33" s="9"/>
-      <c r="BG33" s="35"/>
-    </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AS34" s="3"/>
-      <c r="AT34" s="3"/>
+      <c r="BF34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG34" s="35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="9"/>
+      <c r="BG35" s="35"/>
+    </row>
+    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+    </row>
+    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A37" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>21</v>
       </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35">
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <v>0.3</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G37" t="s">
         <v>110</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H37" t="s">
         <v>112</v>
       </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="L35" t="b">
-        <v>1</v>
-      </c>
-      <c r="N35" t="b">
-        <v>1</v>
-      </c>
-      <c r="O35" t="s">
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" t="b">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
         <v>130</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P37" t="s">
         <v>162</v>
       </c>
-      <c r="Q35">
+      <c r="Q37">
         <v>6</v>
       </c>
-      <c r="R35">
+      <c r="R37">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="S35" t="s">
+      <c r="S37" t="s">
         <v>96</v>
       </c>
-      <c r="T35">
+      <c r="T37">
         <v>0.45</v>
       </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="W35">
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="W37">
         <v>3</v>
       </c>
-      <c r="X35">
+      <c r="X37">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y35">
+      <c r="Y37">
         <v>62</v>
       </c>
-      <c r="Z35">
+      <c r="Z37">
         <v>5</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="AA37" t="s">
         <v>79</v>
       </c>
-      <c r="AB35">
+      <c r="AB37">
         <v>0.03</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AD37" t="s">
         <v>50</v>
       </c>
-      <c r="AE35" t="s">
+      <c r="AE37" t="s">
         <v>43</v>
       </c>
-      <c r="AF35">
+      <c r="AF37">
         <v>14</v>
       </c>
-      <c r="AG35">
+      <c r="AG37">
         <v>0.03</v>
       </c>
-      <c r="AH35">
+      <c r="AH37">
         <v>6</v>
       </c>
-      <c r="AI35">
+      <c r="AI37">
         <v>1.2</v>
       </c>
-      <c r="AJ35">
+      <c r="AJ37">
         <v>0.8</v>
       </c>
-      <c r="AK35" t="s">
+      <c r="AK37" t="s">
         <v>86</v>
       </c>
-      <c r="AM35">
-        <v>0</v>
-      </c>
-      <c r="AN35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO35" t="s">
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="s">
         <v>128</v>
       </c>
-      <c r="AP35" t="s">
+      <c r="AP37" t="s">
         <v>21</v>
       </c>
-      <c r="AQ35">
+      <c r="AQ37">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR35">
+      <c r="AR37">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS35" s="3">
+      <c r="AS37" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT35" s="9">
+      <c r="AT37" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AU35" t="s">
+      <c r="AU37" t="s">
         <v>32</v>
       </c>
-      <c r="AV35" t="s">
+      <c r="AV37" t="s">
         <v>32</v>
       </c>
-      <c r="AW35">
+      <c r="AW37">
         <v>0.623</v>
       </c>
-      <c r="AX35">
+      <c r="AX37">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BA35" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB35" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC35" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD35">
-        <v>0</v>
-      </c>
-      <c r="BE35" t="s">
+      <c r="BA37" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB37" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC37" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37" t="s">
         <v>4</v>
       </c>
-      <c r="BF35" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG35" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0.3</v>
-      </c>
-      <c r="G36" t="s">
-        <v>110</v>
-      </c>
-      <c r="H36" t="s">
-        <v>113</v>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="b">
-        <v>1</v>
-      </c>
-      <c r="N36" t="b">
-        <v>1</v>
-      </c>
-      <c r="O36" t="s">
-        <v>130</v>
-      </c>
-      <c r="P36" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q36">
-        <v>6</v>
-      </c>
-      <c r="R36">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="S36" t="s">
-        <v>96</v>
-      </c>
-      <c r="T36">
-        <v>0.45</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>3</v>
-      </c>
-      <c r="X36">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y36">
-        <v>62</v>
-      </c>
-      <c r="Z36">
-        <v>5</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB36">
-        <v>0.03</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF36">
-        <v>14</v>
-      </c>
-      <c r="AG36">
-        <v>0.03</v>
-      </c>
-      <c r="AH36">
-        <v>6</v>
-      </c>
-      <c r="AI36">
-        <v>1.2</v>
-      </c>
-      <c r="AJ36">
-        <v>0.8</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM36">
-        <v>0</v>
-      </c>
-      <c r="AN36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ36">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AR36">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AS36" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AT36" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU36" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV36" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW36">
-        <v>0.623</v>
-      </c>
-      <c r="AX36">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="BA36" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB36" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC36" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD36">
-        <v>0</v>
-      </c>
-      <c r="BE36" t="s">
-        <v>4</v>
-      </c>
-      <c r="BF36" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG36" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
+      <c r="BF37" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG37" s="35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
         <v>21</v>
@@ -5337,10 +5357,10 @@
         <v>0.3</v>
       </c>
       <c r="G38" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H38" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I38" t="b">
         <v>1</v>
@@ -5473,458 +5493,312 @@
       </c>
     </row>
     <row r="39" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="41"/>
+    </row>
+    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A40" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0.3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H40" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>130</v>
+      </c>
+      <c r="P40" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q40">
+        <v>6</v>
+      </c>
+      <c r="R40">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S40" t="s">
+        <v>96</v>
+      </c>
+      <c r="T40">
+        <v>0.45</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>3</v>
+      </c>
+      <c r="X40">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Y40">
+        <v>62</v>
+      </c>
+      <c r="Z40">
+        <v>5</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB40">
+        <v>0.03</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF40">
+        <v>14</v>
+      </c>
+      <c r="AG40">
+        <v>0.03</v>
+      </c>
+      <c r="AH40">
+        <v>6</v>
+      </c>
+      <c r="AI40">
+        <v>1.2</v>
+      </c>
+      <c r="AJ40">
+        <v>0.8</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ40">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AR40">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AS40" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AT40" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW40">
+        <v>0.623</v>
+      </c>
+      <c r="AX40">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="BA40" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB40" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC40" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF40" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG40" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A41" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>21</v>
       </c>
-      <c r="E39" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39">
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <v>0.3</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G41" t="s">
         <v>115</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H41" t="s">
         <v>107</v>
       </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="b">
-        <v>1</v>
-      </c>
-      <c r="N39" t="b">
-        <v>1</v>
-      </c>
-      <c r="O39" t="s">
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
         <v>130</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P41" t="s">
         <v>162</v>
       </c>
-      <c r="Q39">
+      <c r="Q41">
         <v>6</v>
       </c>
-      <c r="R39">
+      <c r="R41">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="S39" t="s">
+      <c r="S41" t="s">
         <v>96</v>
       </c>
-      <c r="T39">
+      <c r="T41">
         <v>0.45</v>
       </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="W39">
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="W41">
         <v>3</v>
       </c>
-      <c r="X39">
+      <c r="X41">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y39">
+      <c r="Y41">
         <v>62</v>
       </c>
-      <c r="Z39">
+      <c r="Z41">
         <v>5</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AA41" t="s">
         <v>79</v>
       </c>
-      <c r="AB39">
+      <c r="AB41">
         <v>0.03</v>
       </c>
-      <c r="AD39" t="s">
+      <c r="AD41" t="s">
         <v>50</v>
       </c>
-      <c r="AE39" t="s">
+      <c r="AE41" t="s">
         <v>43</v>
       </c>
-      <c r="AF39">
+      <c r="AF41">
         <v>14</v>
       </c>
-      <c r="AG39">
+      <c r="AG41">
         <v>0.03</v>
       </c>
-      <c r="AH39">
+      <c r="AH41">
         <v>6</v>
       </c>
-      <c r="AI39">
+      <c r="AI41">
         <v>1.2</v>
       </c>
-      <c r="AJ39">
+      <c r="AJ41">
         <v>0.8</v>
       </c>
-      <c r="AK39" t="s">
+      <c r="AK41" t="s">
         <v>86</v>
       </c>
-      <c r="AM39">
-        <v>0</v>
-      </c>
-      <c r="AN39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO39" t="s">
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="s">
         <v>128</v>
       </c>
-      <c r="AP39" t="s">
+      <c r="AP41" t="s">
         <v>21</v>
       </c>
-      <c r="AQ39">
+      <c r="AQ41">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR39">
+      <c r="AR41">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS39" s="3">
+      <c r="AS41" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT39" s="9">
+      <c r="AT41" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AU39" t="s">
+      <c r="AU41" t="s">
         <v>32</v>
       </c>
-      <c r="AV39" t="s">
+      <c r="AV41" t="s">
         <v>32</v>
       </c>
-      <c r="AW39">
+      <c r="AW41">
         <v>0.623</v>
       </c>
-      <c r="AX39">
+      <c r="AX41">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BA39" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB39" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC39" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD39">
-        <v>0</v>
-      </c>
-      <c r="BE39" t="s">
+      <c r="BA41" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB41" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC41" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BE41" t="s">
         <v>4</v>
       </c>
-      <c r="BF39" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG39" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" t="s">
-        <v>139</v>
-      </c>
-      <c r="E42" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0.3</v>
-      </c>
-      <c r="G42" t="s">
-        <v>110</v>
-      </c>
-      <c r="H42" t="s">
-        <v>107</v>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" t="b">
-        <v>0</v>
-      </c>
-      <c r="N42" t="b">
-        <v>1</v>
-      </c>
-      <c r="O42" t="s">
-        <v>130</v>
-      </c>
-      <c r="P42" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q42">
-        <v>6</v>
-      </c>
-      <c r="R42">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="S42" t="s">
-        <v>96</v>
-      </c>
-      <c r="T42">
-        <v>0.45</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>3</v>
-      </c>
-      <c r="X42">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y42">
-        <v>62</v>
-      </c>
-      <c r="Z42">
-        <v>5</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB42">
-        <v>0.03</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF42">
-        <v>14</v>
-      </c>
-      <c r="AG42">
-        <v>0.03</v>
-      </c>
-      <c r="AH42">
-        <v>6</v>
-      </c>
-      <c r="AI42">
-        <v>1.2</v>
-      </c>
-      <c r="AJ42">
-        <v>0.8</v>
-      </c>
-      <c r="AK42" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM42">
-        <v>0</v>
-      </c>
-      <c r="AN42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO42" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP42" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ42">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AR42">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AS42" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AT42" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU42" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV42" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW42">
-        <v>0.623</v>
-      </c>
-      <c r="AX42">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="BA42" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB42" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC42" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD42">
-        <v>0</v>
-      </c>
-      <c r="BE42" t="s">
-        <v>4</v>
-      </c>
-      <c r="BF42" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG42" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="C43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0.3</v>
-      </c>
-      <c r="G43" t="s">
-        <v>110</v>
-      </c>
-      <c r="H43" t="s">
-        <v>107</v>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" t="b">
-        <v>1</v>
-      </c>
-      <c r="N43" t="b">
-        <v>1</v>
-      </c>
-      <c r="O43" t="s">
-        <v>130</v>
-      </c>
-      <c r="P43" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q43">
-        <v>6</v>
-      </c>
-      <c r="R43">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="S43" t="s">
-        <v>96</v>
-      </c>
-      <c r="T43">
-        <v>0.45</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>3</v>
-      </c>
-      <c r="X43">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y43">
-        <v>62</v>
-      </c>
-      <c r="Z43">
-        <v>5</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB43">
-        <v>0.03</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF43">
-        <v>14</v>
-      </c>
-      <c r="AG43">
-        <v>0.03</v>
-      </c>
-      <c r="AH43">
-        <v>6</v>
-      </c>
-      <c r="AI43">
-        <v>1.2</v>
-      </c>
-      <c r="AJ43">
-        <v>0.8</v>
-      </c>
-      <c r="AK43" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM43">
-        <v>0</v>
-      </c>
-      <c r="AN43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO43" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP43" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ43">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AR43">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="AS43" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="AT43" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU43" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV43" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW43">
-        <v>0.623</v>
-      </c>
-      <c r="AX43">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="BA43" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB43" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC43" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD43">
-        <v>0</v>
-      </c>
-      <c r="BE43" t="s">
-        <v>4</v>
-      </c>
-      <c r="BF43" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG43" s="35" t="b">
+      <c r="BF41" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG41" s="35" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -5948,7 +5822,7 @@
         <v>1</v>
       </c>
       <c r="O44" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P44" t="s">
         <v>136</v>
@@ -6068,12 +5942,310 @@
         <v>1</v>
       </c>
     </row>
+    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0.3</v>
+      </c>
+      <c r="G45" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="N45" t="b">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>130</v>
+      </c>
+      <c r="P45" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q45">
+        <v>6</v>
+      </c>
+      <c r="R45">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S45" t="s">
+        <v>96</v>
+      </c>
+      <c r="T45">
+        <v>0.45</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>3</v>
+      </c>
+      <c r="X45">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Y45">
+        <v>62</v>
+      </c>
+      <c r="Z45">
+        <v>5</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB45">
+        <v>0.03</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF45">
+        <v>14</v>
+      </c>
+      <c r="AG45">
+        <v>0.03</v>
+      </c>
+      <c r="AH45">
+        <v>6</v>
+      </c>
+      <c r="AI45">
+        <v>1.2</v>
+      </c>
+      <c r="AJ45">
+        <v>0.8</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AR45">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AS45" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AT45" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW45">
+        <v>0.623</v>
+      </c>
+      <c r="AX45">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="BA45" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB45" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC45" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD45">
+        <v>0</v>
+      </c>
+      <c r="BE45" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF45" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG45" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A46" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0.3</v>
+      </c>
+      <c r="G46" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46" t="s">
+        <v>107</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="b">
+        <v>1</v>
+      </c>
+      <c r="O46" t="s">
+        <v>133</v>
+      </c>
+      <c r="P46" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q46">
+        <v>6</v>
+      </c>
+      <c r="R46">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S46" t="s">
+        <v>96</v>
+      </c>
+      <c r="T46">
+        <v>0.45</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>3</v>
+      </c>
+      <c r="X46">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Y46">
+        <v>62</v>
+      </c>
+      <c r="Z46">
+        <v>5</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB46">
+        <v>0.03</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF46">
+        <v>14</v>
+      </c>
+      <c r="AG46">
+        <v>0.03</v>
+      </c>
+      <c r="AH46">
+        <v>6</v>
+      </c>
+      <c r="AI46">
+        <v>1.2</v>
+      </c>
+      <c r="AJ46">
+        <v>0.8</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ46">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AR46">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AS46" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AT46" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW46">
+        <v>0.623</v>
+      </c>
+      <c r="AX46">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="BA46" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB46" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC46" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF46" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG46" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB38:BC39 N38:N39 E42:E44 BB42:BC44 L42:N44 L31:M39 N31:N36 BB5:BC36 L5:N33 E5:E39" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB40:BC41 N40:N41 E44:E46 BB44:BC46 L44:N46 L33:M41 N33:N38 BB7:BC38 L7:N35 E7:E41 BB5:BC6 L5:N6 E5:E6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO38:AO39 AO42:AO44 AO5:AO36" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO40:AO41 AO44:AO46 AO7:AO38 AO5:AO6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6088,7 +6260,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07974A8-8FF8-45AA-BC6A-94DD54E87149}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4C45C0-D389-4DA0-96B6-D418F6614A69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1530" windowWidth="29040" windowHeight="15840" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="193">
   <si>
     <t>runname</t>
   </si>
@@ -1509,11 +1509,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:BG46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="AI5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AP8" sqref="AP8"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,7 +1837,7 @@
         <v>161</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0.3</v>
@@ -2006,7 +2006,7 @@
         <v>138</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0.3</v>
@@ -2019,6 +2019,12 @@
       </c>
       <c r="I7" t="b">
         <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7" t="s">
+        <v>190</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -2164,7 +2170,7 @@
         <v>138</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0.3</v>
@@ -2177,6 +2183,12 @@
       </c>
       <c r="I8" t="b">
         <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" t="s">
+        <v>190</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -2327,7 +2339,7 @@
         <v>161</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0.3</v>
@@ -2340,6 +2352,12 @@
       </c>
       <c r="I10" t="b">
         <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" t="s">
+        <v>190</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -2485,7 +2503,7 @@
         <v>161</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0.3</v>
@@ -2654,7 +2672,7 @@
         <v>138</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0.3</v>
@@ -2667,6 +2685,12 @@
       </c>
       <c r="I13" t="b">
         <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>191</v>
+      </c>
+      <c r="K13" t="s">
+        <v>190</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -2812,7 +2836,7 @@
         <v>161</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0.3</v>
@@ -2825,6 +2849,12 @@
       </c>
       <c r="I14" t="b">
         <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14" t="s">
+        <v>190</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -6242,10 +6272,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB40:BC41 N40:N41 E44:E46 BB44:BC46 L44:N46 L33:M41 N33:N38 BB7:BC38 L7:N35 E7:E41 BB5:BC6 L5:N6 E5:E6" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB40:BC41 N40:N41 E44:E46 BB44:BC46 L44:N46 L33:M41 N33:N38 BB5:BC38 L5:N35 E5:E41" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO40:AO41 AO44:AO46 AO7:AO38 AO5:AO6" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO40:AO41 AO44:AO46 AO5:AO38" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6259,8 +6289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6306,10 +6336,10 @@
         <v>2016</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -6343,7 +6373,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4C45C0-D389-4DA0-96B6-D418F6614A69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E1098A-38ED-45D3-B665-165C7C12FD91}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,8 +11,10 @@
     <sheet name="params" sheetId="1" r:id="rId1"/>
     <sheet name="GlobalParams" sheetId="3" r:id="rId2"/>
     <sheet name="returns" sheetId="2" r:id="rId3"/>
-    <sheet name="Calibration_2016" sheetId="10" r:id="rId4"/>
-    <sheet name="DetectiveWork" sheetId="11" r:id="rId5"/>
+    <sheet name="Calibration_AV2016lag" sheetId="10" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId6"/>
+    <sheet name="DetectiveWork" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +69,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -76,7 +78,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Skip the year-1 amort. payment for new amortization basis. 
@@ -93,7 +95,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -102,7 +104,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 20292733/43629545 = 46.5%</t>
@@ -142,7 +144,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -151,7 +153,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 AL_pct; AA0, noSmoothing</t>
@@ -168,7 +170,31 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{0DA958DB-FCE2-4693-9EC3-E2BA5499F8F5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+adj because using tier results not obl results</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -197,8 +223,104 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{DDF1CF52-8DCF-4669-8381-8CDAA6ABBE43}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+adj because using tier results not obl results</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{8AADE9C7-BF21-4EA9-9AF8-43A6970E0EBE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+adj because using tier results not obl results</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{51E3EAE5-48C8-40AB-8952-20588FED2828}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Corrected from 481,464,604</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D40" authorId="0" shapeId="0" xr:uid="{39FE136E-08B9-44E9-8A9B-D0144F0AC925}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Updated from 3,954,653,716 due to rounding</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="297">
   <si>
     <t>runname</t>
   </si>
@@ -302,15 +424,9 @@
     <t>diff</t>
   </si>
   <si>
-    <t>PVFB for actives</t>
-  </si>
-  <si>
     <t>AL total</t>
   </si>
   <si>
-    <t>AL for actives</t>
-  </si>
-  <si>
     <t>VVA</t>
   </si>
   <si>
@@ -332,9 +448,6 @@
     <t>closed</t>
   </si>
   <si>
-    <t>$billion</t>
-  </si>
-  <si>
     <t>SC $b</t>
   </si>
   <si>
@@ -371,12 +484,6 @@
     <t>PV Future salary</t>
   </si>
   <si>
-    <t>No calibration</t>
-  </si>
-  <si>
-    <t>Calibrated</t>
-  </si>
-  <si>
     <t>benefit factor * 1.125; sal.growth + 0.75%; 96% init benefit; post/sur mortality * 1.025</t>
   </si>
   <si>
@@ -596,9 +703,6 @@
     <t>TDA_smooth_on</t>
   </si>
   <si>
-    <t>t4a_noTDA</t>
-  </si>
-  <si>
     <t>payout</t>
   </si>
   <si>
@@ -623,9 +727,6 @@
     <t>TDApayout</t>
   </si>
   <si>
-    <t>t4a_O30pA6</t>
-  </si>
-  <si>
     <t>method2</t>
   </si>
   <si>
@@ -635,21 +736,6 @@
     <t>open</t>
   </si>
   <si>
-    <t>t4a_O15dA6</t>
-  </si>
-  <si>
-    <t>t4a_C30dA6</t>
-  </si>
-  <si>
-    <t>t4a_C15pA6</t>
-  </si>
-  <si>
-    <t>t4a_O15pA6</t>
-  </si>
-  <si>
-    <t>t4a_C15dA0</t>
-  </si>
-  <si>
     <t>sensitivity_on</t>
   </si>
   <si>
@@ -680,36 +766,15 @@
     <t>OYLM_on</t>
   </si>
   <si>
-    <t>t4a_TDAamortAS</t>
-  </si>
-  <si>
     <t>TDAamortAS</t>
   </si>
   <si>
     <t>on</t>
   </si>
   <si>
-    <t>t4a_noTDA_OYLM</t>
-  </si>
-  <si>
-    <t>t4a_TDAamortAS_OYLM</t>
-  </si>
-  <si>
     <t>t4a_TDAamort_OYLM</t>
   </si>
   <si>
-    <t>t4a_noTDA_OYLM_low15</t>
-  </si>
-  <si>
-    <t>t4a_TDAamortAS_OYLM_low15</t>
-  </si>
-  <si>
-    <t>t4a_noTDA_OYLM_low30</t>
-  </si>
-  <si>
-    <t>t4a_TDAamortAS_OYLM_low30</t>
-  </si>
-  <si>
     <t>2020-2021</t>
   </si>
   <si>
@@ -728,12 +793,6 @@
     <t>RS_DF2</t>
   </si>
   <si>
-    <t>t4a_noTDA_OYLM_DF1</t>
-  </si>
-  <si>
-    <t>t4a_TDAamortAS_OYLM_DF1</t>
-  </si>
-  <si>
     <t>t4a_noTDA_OYLM_DF2</t>
   </si>
   <si>
@@ -746,9 +805,6 @@
     <t>OYLM_skipY1</t>
   </si>
   <si>
-    <t>t4a_C15dA6noCorridor</t>
-  </si>
-  <si>
     <t>share_UFT</t>
   </si>
   <si>
@@ -758,9 +814,6 @@
     <t>noSmoothing</t>
   </si>
   <si>
-    <t>t4a_O30pA6_noTDA</t>
-  </si>
-  <si>
     <t>Tiers</t>
   </si>
   <si>
@@ -777,19 +830,453 @@
   </si>
   <si>
     <t>simple</t>
+  </si>
+  <si>
+    <t>PVFB_disbRet</t>
+  </si>
+  <si>
+    <t>PVFB_total</t>
+  </si>
+  <si>
+    <t>AL_actives</t>
+  </si>
+  <si>
+    <t>PVFB_other</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>PVFB_servRet</t>
+  </si>
+  <si>
+    <t>Service retirement + Beneficiaries</t>
+  </si>
+  <si>
+    <t>Supplemental + designated annnuity</t>
+  </si>
+  <si>
+    <t>Ordinary + accidental disability</t>
+  </si>
+  <si>
+    <t>PVFB_nonActives</t>
+  </si>
+  <si>
+    <t>Present Value of Benefits</t>
+  </si>
+  <si>
+    <t>inc/dec %</t>
+  </si>
+  <si>
+    <r>
+      <t>Active Participants</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Service retirement</t>
+  </si>
+  <si>
+    <t>Ordinary disability retirement</t>
+  </si>
+  <si>
+    <t>Accidental disability retirement</t>
+  </si>
+  <si>
+    <t>Ordinary death benefits</t>
+  </si>
+  <si>
+    <t>Accidental death benefits</t>
+  </si>
+  <si>
+    <t>Return of contributions</t>
+  </si>
+  <si>
+    <t>Vested benefits</t>
+  </si>
+  <si>
+    <r>
+      <t>Variable funds</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Total Active Participant PVB</t>
+  </si>
+  <si>
+    <r>
+      <t>Non-active Participants</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>Service Retirements</t>
+  </si>
+  <si>
+    <t>Ordinary Disability Retirements</t>
+  </si>
+  <si>
+    <t>Beneficiaries</t>
+  </si>
+  <si>
+    <t>Accidental Disabilities</t>
+  </si>
+  <si>
+    <t>Accidental Deaths</t>
+  </si>
+  <si>
+    <t>Supplemental Benefits</t>
+  </si>
+  <si>
+    <t>Designated Annuitants</t>
+  </si>
+  <si>
+    <t>Total Non-active Participant PVB</t>
+  </si>
+  <si>
+    <t>Total Present Value of Benefits</t>
+  </si>
+  <si>
+    <r>
+      <t>Accumulated Employee Contributions</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>Includes members not on active payroll and not currently receiving retirement benefits.</t>
+  </si>
+  <si>
+    <t>Includes loads for annuitization factors for Variable Funds.</t>
+  </si>
+  <si>
+    <t>Includes only members and beneficiaries currently receiving retirement benefits.</t>
+  </si>
+  <si>
+    <t>Included in the Present Value of Benefits of Active Participants.</t>
+  </si>
+  <si>
+    <t>NEW YORK CITY TEACHERS' RETIREMENT SYSTEM</t>
+  </si>
+  <si>
+    <t>ACTUARIAL VALUATION AS OF JUNE 30, 2016 (Lag)</t>
+  </si>
+  <si>
+    <t>TO COMPUTE PENSION EXPENSE FOR FISCAL YEAR 2018</t>
+  </si>
+  <si>
+    <t>UNDER 2016 A&amp;M</t>
+  </si>
+  <si>
+    <t>FINAL</t>
+  </si>
+  <si>
+    <t>Valuation Date</t>
+  </si>
+  <si>
+    <t>Fiscal Year</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>Summary of Data</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Actives</t>
+  </si>
+  <si>
+    <t>a.</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>b.</t>
+  </si>
+  <si>
+    <t>Total Salary</t>
+  </si>
+  <si>
+    <t>c.</t>
+  </si>
+  <si>
+    <t>Average Salary</t>
+  </si>
+  <si>
+    <t>d.</t>
+  </si>
+  <si>
+    <t>Average Age</t>
+  </si>
+  <si>
+    <t>e.</t>
+  </si>
+  <si>
+    <t>Average Service</t>
+  </si>
+  <si>
+    <t>f.</t>
+  </si>
+  <si>
+    <t>Salary Time = 0.5</t>
+  </si>
+  <si>
+    <t>g.</t>
+  </si>
+  <si>
+    <t>Salary Time = 1.0</t>
+  </si>
+  <si>
+    <t>h.</t>
+  </si>
+  <si>
+    <t>Salary Time = 1.5</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Inactives</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Terminated Vested</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>Retirees</t>
+  </si>
+  <si>
+    <t>Total Benefits</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>d1.</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>Loads</t>
+  </si>
+  <si>
+    <t>Actuarial Accrued Liability</t>
+  </si>
+  <si>
+    <t>servRet + beneficiaries</t>
+  </si>
+  <si>
+    <t>disbRet</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>PVFB_actives1_servRet</t>
+  </si>
+  <si>
+    <t>PVFB_actives1_disbRet</t>
+  </si>
+  <si>
+    <t>PVFB for actives1</t>
+  </si>
+  <si>
+    <t>PVFB_actives1_deathBen</t>
+  </si>
+  <si>
+    <t>PVFB_actives1_vested</t>
+  </si>
+  <si>
+    <t>PVFB_actives1_returnCon</t>
+  </si>
+  <si>
+    <t>AL for actives1</t>
+  </si>
+  <si>
+    <t>PVFB_actives1_variable</t>
+  </si>
+  <si>
+    <t>PVFB_actives</t>
+  </si>
+  <si>
+    <t>PVFB_actives2</t>
+  </si>
+  <si>
+    <t>PVFB_inactives</t>
+  </si>
+  <si>
+    <t>PVFB_terminated</t>
+  </si>
+  <si>
+    <t>PVFB_loads</t>
+  </si>
+  <si>
+    <t>AL_total</t>
+  </si>
+  <si>
+    <t>AL actives+PVB inactives+PVB terms + loads +PVB nonactives</t>
+  </si>
+  <si>
+    <t>EEC</t>
+  </si>
+  <si>
+    <t>employer NC</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>AVA</t>
+  </si>
+  <si>
+    <t>payroll</t>
+  </si>
+  <si>
+    <t>SC+ employer NC + admin cost</t>
+  </si>
+  <si>
+    <t>AV2016lag report table I-1, np2</t>
+  </si>
+  <si>
+    <t>Funded ratio AVA</t>
+  </si>
+  <si>
+    <t>Funded ratio MVA</t>
+  </si>
+  <si>
+    <t>AV2016lag report table II-2, np7</t>
+  </si>
+  <si>
+    <t>FY2016 value</t>
+  </si>
+  <si>
+    <t>multiTier_TDAamortAS_OYLM</t>
+  </si>
+  <si>
+    <t>multiTier_noTDA</t>
+  </si>
+  <si>
+    <t>multiTier_noTDA_OYLM</t>
+  </si>
+  <si>
+    <t>multiTier_TDAamortAS</t>
+  </si>
+  <si>
+    <t>multiTier_noTDA_OYLM_low15</t>
+  </si>
+  <si>
+    <t>multiTier_TDAamortAS_OYLM_low15</t>
+  </si>
+  <si>
+    <t>multiTier_C15dA0</t>
+  </si>
+  <si>
+    <t>multiTier_C15dA6noCorridor</t>
+  </si>
+  <si>
+    <t>multiTier_O15dA6</t>
+  </si>
+  <si>
+    <t>multiTier_O15pA6</t>
+  </si>
+  <si>
+    <t>multiTier_O30pA6</t>
+  </si>
+  <si>
+    <t>multiTier_O30pA6_noTDA</t>
+  </si>
+  <si>
+    <t>multiTier_noTDA_OYLM_DF1</t>
+  </si>
+  <si>
+    <t>multiTier_TDAamortAS_OYLM_DF1</t>
+  </si>
+  <si>
+    <t>multiTier_C30dA6</t>
+  </si>
+  <si>
+    <t>multiTier_C15pA6</t>
+  </si>
+  <si>
+    <t>multiTier_noTDA_OYLM_low30</t>
+  </si>
+  <si>
+    <t>multiTier_TDAamortAS_OYLM_low30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="13">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="m/dd/yyyy"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="0.0_);\(0.0\)"/>
+    <numFmt numFmtId="171" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="172" formatCode="0.000%"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -834,20 +1321,117 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial MT"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial MT"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="57"/>
+      <name val="Arial MT"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial MT"/>
+    </font>
+    <font>
+      <u val="singleAccounting"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="48"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="48"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -944,8 +1528,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -977,13 +1573,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1054,13 +1712,242 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="39" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="17" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="8" fillId="17" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="24" fillId="17" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="24" fillId="18" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency 2" xfId="5" xr:uid="{E1CC2806-A2AF-4747-949B-C94DA1D813F1}"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{FA7D1D9A-352E-4AEA-A1C2-E11916AE8568}"/>
+    <cellStyle name="NumericGeneral" xfId="4" xr:uid="{BFC01E0A-97D3-4746-B68A-574A32152576}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1071,143 +1958,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>523214</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>18623</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3FAA3CA-141D-46EC-BDDB-1ACA210663C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11772900" y="533400"/>
-          <a:ext cx="5285714" cy="3419048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>123048</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>74532</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7E25ED-A5E8-4A9C-BCC8-5399AB61F2C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11658600" y="3924300"/>
-          <a:ext cx="6219048" cy="13342857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>443987</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>75101</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C8602B-635B-4C03-A05B-DBD5273019A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7448550" y="990600"/>
-          <a:ext cx="4615937" cy="7514126"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1513,10 +2263,10 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
@@ -1567,28 +2317,28 @@
     <col min="59" max="59" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:59" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" s="34" customFormat="1" ht="18.75">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="30" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
       <c r="J3" s="32" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="28" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="M3" s="18"/>
       <c r="N3" s="26" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
@@ -1599,35 +2349,35 @@
       <c r="U3" s="26"/>
       <c r="V3" s="26"/>
       <c r="W3" s="27" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="X3" s="27"/>
       <c r="Y3" s="27"/>
       <c r="Z3" s="27"/>
       <c r="AA3" s="28" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB3" s="28"/>
       <c r="AC3" s="28"/>
       <c r="AD3" s="29" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AE3" s="29"/>
       <c r="AF3" s="29"/>
       <c r="AG3" s="29"/>
       <c r="AH3" s="30" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AI3" s="30"/>
       <c r="AJ3" s="30"/>
       <c r="AK3" s="30"/>
       <c r="AL3" s="30"/>
       <c r="AM3" s="31" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN3" s="31"/>
       <c r="AO3" s="32" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AP3" s="32"/>
       <c r="AQ3" s="32"/>
@@ -1635,7 +2385,7 @@
       <c r="AS3" s="32"/>
       <c r="AT3" s="32"/>
       <c r="AU3" s="28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AV3" s="28"/>
       <c r="AW3" s="28"/>
@@ -1643,7 +2393,7 @@
       <c r="AY3" s="28"/>
       <c r="AZ3" s="28"/>
       <c r="BA3" s="33" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BB3" s="33"/>
       <c r="BC3" s="33"/>
@@ -1652,97 +2402,97 @@
       <c r="BF3" s="33"/>
       <c r="BG3" s="33"/>
     </row>
-    <row r="4" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" s="1" customFormat="1">
       <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="N4" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="T4" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="U4" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="O4" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="S4" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="T4" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="U4" s="24" t="s">
-        <v>98</v>
-      </c>
       <c r="V4" s="24" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="W4" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="X4" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Y4" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="Z4" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA4" s="18" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AB4" s="18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AC4" s="18"/>
       <c r="AD4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="AE4" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF4" s="20" t="s">
         <v>10</v>
@@ -1754,22 +2504,22 @@
         <v>13</v>
       </c>
       <c r="AI4" s="19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ4" s="19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AK4" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL4" s="19" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="AM4" s="23" t="s">
         <v>26</v>
       </c>
       <c r="AN4" s="23" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AO4" s="17" t="s">
         <v>22</v>
@@ -1787,13 +2537,13 @@
         <v>9</v>
       </c>
       <c r="AT4" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AU4" s="18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AV4" s="18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AW4" s="18" t="s">
         <v>30</v>
@@ -1802,13 +2552,13 @@
         <v>31</v>
       </c>
       <c r="AY4" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AZ4" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BA4" s="22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="BB4" s="22" t="s">
         <v>28</v>
@@ -1829,12 +2579,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>279</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -1843,19 +2593,19 @@
         <v>0.3</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="K5" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -1867,10 +2617,10 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P5" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1879,7 +2629,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T5">
         <v>0.46500000000000002</v>
@@ -1903,16 +2653,16 @@
         <v>5</v>
       </c>
       <c r="AA5" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="AB5">
         <v>0.03</v>
       </c>
       <c r="AD5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF5">
         <v>15</v>
@@ -1930,7 +2680,7 @@
         <v>0.8</v>
       </c>
       <c r="AK5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="b">
         <v>1</v>
@@ -1942,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="AO5" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="AP5" t="s">
         <v>21</v>
@@ -1993,38 +2743,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59">
       <c r="AS6" s="3"/>
       <c r="AT6" s="9"/>
       <c r="BG6" s="35"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59">
       <c r="A7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" t="s">
         <v>132</v>
       </c>
-      <c r="C7" t="s">
-        <v>138</v>
-      </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0.3</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="K7" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -2036,10 +2786,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P7" t="s">
         <v>130</v>
-      </c>
-      <c r="P7" t="s">
-        <v>136</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2048,7 +2798,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T7">
         <v>0.46500000000000002</v>
@@ -2072,16 +2822,16 @@
         <v>5</v>
       </c>
       <c r="AA7" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="AB7">
         <v>0.03</v>
       </c>
       <c r="AD7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF7">
         <v>15</v>
@@ -2099,7 +2849,7 @@
         <v>0.8</v>
       </c>
       <c r="AK7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="b">
         <v>1</v>
@@ -2111,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="AO7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP7" t="s">
         <v>21</v>
@@ -2162,33 +2912,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>281</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0.3</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="K8" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -2200,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P8" t="s">
         <v>130</v>
-      </c>
-      <c r="P8" t="s">
-        <v>136</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2212,7 +2962,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T8">
         <v>0.46500000000000002</v>
@@ -2236,16 +2986,16 @@
         <v>5</v>
       </c>
       <c r="AA8" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="AB8">
         <v>0.03</v>
       </c>
       <c r="AD8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF8">
         <v>15</v>
@@ -2263,7 +3013,7 @@
         <v>0.8</v>
       </c>
       <c r="AK8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="b">
         <v>1</v>
@@ -2275,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="AO8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP8" t="s">
         <v>21</v>
@@ -2326,38 +3076,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59">
       <c r="AS9" s="3"/>
       <c r="AT9" s="9"/>
       <c r="BG9" s="35"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>282</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="F10">
         <v>0.3</v>
       </c>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="K10" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -2369,10 +3116,10 @@
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2381,7 +3128,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T10">
         <v>0.46500000000000002</v>
@@ -2405,16 +3152,16 @@
         <v>5</v>
       </c>
       <c r="AA10" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="AB10">
         <v>0.03</v>
       </c>
       <c r="AD10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF10">
         <v>15</v>
@@ -2432,7 +3179,7 @@
         <v>0.8</v>
       </c>
       <c r="AK10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="b">
         <v>1</v>
@@ -2444,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="AO10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP10" t="s">
         <v>21</v>
@@ -2495,33 +3242,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>279</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0.3</v>
       </c>
       <c r="G11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="K11" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -2533,10 +3280,10 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -2545,7 +3292,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T11">
         <v>0.46500000000000002</v>
@@ -2569,16 +3316,16 @@
         <v>5</v>
       </c>
       <c r="AA11" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="AB11">
         <v>0.03</v>
       </c>
       <c r="AD11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF11">
         <v>15</v>
@@ -2596,7 +3343,7 @@
         <v>0.8</v>
       </c>
       <c r="AK11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="b">
         <v>1</v>
@@ -2608,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="AO11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP11" t="s">
         <v>21</v>
@@ -2659,38 +3406,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59">
       <c r="AS12" s="3"/>
       <c r="AT12" s="9"/>
       <c r="BG12" s="35"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>283</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0.3</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="K13" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -2702,10 +3449,10 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
+        <v>125</v>
+      </c>
+      <c r="P13" t="s">
         <v>130</v>
-      </c>
-      <c r="P13" t="s">
-        <v>136</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -2714,7 +3461,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T13">
         <v>0.46500000000000002</v>
@@ -2738,16 +3485,16 @@
         <v>5</v>
       </c>
       <c r="AA13" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="AB13">
         <v>0.03</v>
       </c>
       <c r="AD13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF13">
         <v>14</v>
@@ -2765,7 +3512,7 @@
         <v>0.8</v>
       </c>
       <c r="AK13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL13" t="b">
         <v>1</v>
@@ -2777,10 +3524,10 @@
         <v>0</v>
       </c>
       <c r="AO13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP13" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="AQ13">
         <v>7.0000000000000007E-2</v>
@@ -2828,33 +3575,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0.3</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="K14" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -2866,10 +3613,10 @@
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P14" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -2878,7 +3625,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T14">
         <v>0.46500000000000002</v>
@@ -2902,16 +3649,16 @@
         <v>5</v>
       </c>
       <c r="AA14" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="AB14">
         <v>0.03</v>
       </c>
       <c r="AD14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF14">
         <v>14</v>
@@ -2929,7 +3676,7 @@
         <v>0.8</v>
       </c>
       <c r="AK14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="b">
         <v>1</v>
@@ -2941,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="AO14" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP14" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="AQ14">
         <v>7.0000000000000007E-2</v>
@@ -2992,33 +3739,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59">
       <c r="AS15" s="3"/>
       <c r="AT15" s="9"/>
       <c r="BG15" s="35"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>285</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0.3</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H16" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
+      <c r="J16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
+      </c>
       <c r="L16" t="b">
         <v>0</v>
       </c>
@@ -3029,10 +3782,10 @@
         <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P16" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -3041,7 +3794,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T16">
         <v>0.46500000000000002</v>
@@ -3065,16 +3818,16 @@
         <v>5</v>
       </c>
       <c r="AA16" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="AB16">
         <v>0.03</v>
       </c>
       <c r="AD16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF16">
         <v>15</v>
@@ -3092,7 +3845,7 @@
         <v>0.8</v>
       </c>
       <c r="AK16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AL16" t="b">
         <v>1</v>
@@ -3104,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="AO16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP16" t="s">
         <v>21</v>
@@ -3125,7 +3878,7 @@
         <v>32</v>
       </c>
       <c r="AV16" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="AW16">
         <v>0.623</v>
@@ -3155,28 +3908,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:59" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" ht="13.5" customHeight="1">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>286</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0.3</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H17" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s">
+        <v>167</v>
+      </c>
       <c r="L17" t="b">
         <v>0</v>
       </c>
@@ -3187,10 +3946,10 @@
         <v>1</v>
       </c>
       <c r="O17" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P17" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -3199,7 +3958,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T17">
         <v>0.46500000000000002</v>
@@ -3223,16 +3982,16 @@
         <v>5</v>
       </c>
       <c r="AA17" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="AB17">
         <v>0.03</v>
       </c>
       <c r="AD17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF17">
         <v>15</v>
@@ -3250,7 +4009,7 @@
         <v>0.8</v>
       </c>
       <c r="AK17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="b">
         <v>0</v>
@@ -3262,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="AO17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP17" t="s">
         <v>21</v>
@@ -3313,28 +4072,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>287</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0.3</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
+      <c r="J18" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" t="s">
+        <v>167</v>
+      </c>
       <c r="L18" t="b">
         <v>0</v>
       </c>
@@ -3345,10 +4110,10 @@
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -3357,7 +4122,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T18">
         <v>0.46500000000000002</v>
@@ -3381,16 +4146,16 @@
         <v>5</v>
       </c>
       <c r="AA18" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="AB18">
         <v>0.03</v>
       </c>
       <c r="AD18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE18" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AF18">
         <v>15</v>
@@ -3408,7 +4173,7 @@
         <v>0.8</v>
       </c>
       <c r="AK18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="b">
         <v>1</v>
@@ -3420,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="AO18" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP18" t="s">
         <v>21</v>
@@ -3471,28 +4236,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:59">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>288</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0.3</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
       </c>
+      <c r="J19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
       <c r="L19" t="b">
         <v>0</v>
       </c>
@@ -3503,10 +4274,10 @@
         <v>1</v>
       </c>
       <c r="O19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P19" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -3515,7 +4286,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T19">
         <v>0.46500000000000002</v>
@@ -3539,16 +4310,16 @@
         <v>5</v>
       </c>
       <c r="AA19" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="AB19">
         <v>0.03</v>
       </c>
       <c r="AD19" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AE19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AF19">
         <v>15</v>
@@ -3566,7 +4337,7 @@
         <v>0.8</v>
       </c>
       <c r="AK19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL19" t="b">
         <v>1</v>
@@ -3578,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="AO19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP19" t="s">
         <v>21</v>
@@ -3629,28 +4400,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:59">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>289</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>0.3</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
       </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>167</v>
+      </c>
       <c r="L20" t="b">
         <v>0</v>
       </c>
@@ -3661,10 +4438,10 @@
         <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P20" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -3673,7 +4450,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T20">
         <v>0.46500000000000002</v>
@@ -3697,16 +4474,16 @@
         <v>5</v>
       </c>
       <c r="AA20" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="AB20">
         <v>0.03</v>
       </c>
       <c r="AD20" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AE20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AF20">
         <v>30</v>
@@ -3724,7 +4501,7 @@
         <v>0.8</v>
       </c>
       <c r="AK20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL20" t="b">
         <v>1</v>
@@ -3736,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="AO20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP20" t="s">
         <v>21</v>
@@ -3787,28 +4564,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:59">
       <c r="A21" t="s">
-        <v>186</v>
+        <v>290</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0.3</v>
       </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
       </c>
+      <c r="J21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" t="s">
+        <v>167</v>
+      </c>
       <c r="L21" t="b">
         <v>0</v>
       </c>
@@ -3819,10 +4602,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
+        <v>125</v>
+      </c>
+      <c r="P21" t="s">
         <v>130</v>
-      </c>
-      <c r="P21" t="s">
-        <v>136</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -3831,7 +4614,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S21" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T21">
         <v>0.46500000000000002</v>
@@ -3855,16 +4638,16 @@
         <v>5</v>
       </c>
       <c r="AA21" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="AB21">
         <v>0.03</v>
       </c>
       <c r="AD21" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AE21" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AF21">
         <v>30</v>
@@ -3882,7 +4665,7 @@
         <v>0.8</v>
       </c>
       <c r="AK21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="b">
         <v>1</v>
@@ -3894,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="AO21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP21" t="s">
         <v>21</v>
@@ -3945,32 +4728,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:59">
       <c r="AS22" s="3"/>
       <c r="AT22" s="3"/>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:59">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>291</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>0.3</v>
       </c>
       <c r="G23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
       </c>
+      <c r="J23" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" t="s">
+        <v>167</v>
+      </c>
       <c r="L23" t="b">
         <v>0</v>
       </c>
@@ -3981,10 +4770,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P23" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -3993,7 +4782,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T23">
         <v>0.46500000000000002</v>
@@ -4017,16 +4806,16 @@
         <v>5</v>
       </c>
       <c r="AA23" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="AB23">
         <v>0.03</v>
       </c>
       <c r="AD23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF23">
         <v>14</v>
@@ -4044,7 +4833,7 @@
         <v>0.8</v>
       </c>
       <c r="AK23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="b">
         <v>1</v>
@@ -4056,10 +4845,10 @@
         <v>0</v>
       </c>
       <c r="AO23" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP23" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="AQ23">
         <v>7.0000000000000007E-2</v>
@@ -4107,28 +4896,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:59">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>292</v>
       </c>
       <c r="C24" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0.3</v>
       </c>
       <c r="G24" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H24" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
       </c>
+      <c r="J24" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" t="s">
+        <v>167</v>
+      </c>
       <c r="L24" t="b">
         <v>0</v>
       </c>
@@ -4139,10 +4934,10 @@
         <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -4151,7 +4946,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T24">
         <v>0.46500000000000002</v>
@@ -4175,16 +4970,16 @@
         <v>5</v>
       </c>
       <c r="AA24" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="AB24">
         <v>0.03</v>
       </c>
       <c r="AD24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF24">
         <v>14</v>
@@ -4202,7 +4997,7 @@
         <v>0.8</v>
       </c>
       <c r="AK24" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="b">
         <v>1</v>
@@ -4214,10 +5009,10 @@
         <v>0</v>
       </c>
       <c r="AO24" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP24" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="AQ24">
         <v>7.0000000000000007E-2</v>
@@ -4265,17 +5060,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:59">
       <c r="AS25" s="3"/>
       <c r="AT25" s="9"/>
       <c r="BG25" s="35"/>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:59">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>293</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -4284,10 +5079,10 @@
         <v>0.3</v>
       </c>
       <c r="G26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -4302,10 +5097,10 @@
         <v>1</v>
       </c>
       <c r="O26" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -4314,7 +5109,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S26" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T26">
         <v>0.46500000000000002</v>
@@ -4338,16 +5133,16 @@
         <v>5</v>
       </c>
       <c r="AA26" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="AB26">
         <v>0.03</v>
       </c>
       <c r="AD26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF26">
         <v>30</v>
@@ -4365,7 +5160,7 @@
         <v>0.8</v>
       </c>
       <c r="AK26" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="b">
         <v>1</v>
@@ -4377,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="AO26" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP26" t="s">
         <v>21</v>
@@ -4428,12 +5223,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:59">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>294</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4442,10 +5237,10 @@
         <v>0.3</v>
       </c>
       <c r="G27" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H27" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -4460,10 +5255,10 @@
         <v>1</v>
       </c>
       <c r="O27" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -4472,7 +5267,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S27" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T27">
         <v>0.46500000000000002</v>
@@ -4496,16 +5291,16 @@
         <v>5</v>
       </c>
       <c r="AA27" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="AB27">
         <v>0.03</v>
       </c>
       <c r="AD27" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AE27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF27">
         <v>15</v>
@@ -4523,7 +5318,7 @@
         <v>0.8</v>
       </c>
       <c r="AK27" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="b">
         <v>1</v>
@@ -4535,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="AO27" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP27" t="s">
         <v>21</v>
@@ -4586,17 +5381,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:59">
       <c r="AS28" s="3"/>
       <c r="AT28" s="9"/>
       <c r="BG28" s="35"/>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:59">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -4605,10 +5400,10 @@
         <v>0.3</v>
       </c>
       <c r="G29" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -4623,10 +5418,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="s">
+        <v>125</v>
+      </c>
+      <c r="P29" t="s">
         <v>130</v>
-      </c>
-      <c r="P29" t="s">
-        <v>136</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -4635,7 +5430,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S29" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T29">
         <v>0.46500000000000002</v>
@@ -4659,16 +5454,16 @@
         <v>5</v>
       </c>
       <c r="AA29" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="AB29">
         <v>0.03</v>
       </c>
       <c r="AD29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF29">
         <v>14</v>
@@ -4686,7 +5481,7 @@
         <v>0.8</v>
       </c>
       <c r="AK29" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="b">
         <v>1</v>
@@ -4698,10 +5493,10 @@
         <v>0</v>
       </c>
       <c r="AO29" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP29" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="AQ29">
         <v>7.0000000000000007E-2</v>
@@ -4749,12 +5544,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:59">
       <c r="A30" t="s">
-        <v>169</v>
+        <v>296</v>
       </c>
       <c r="C30" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -4763,10 +5558,10 @@
         <v>0.3</v>
       </c>
       <c r="G30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H30" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -4781,10 +5576,10 @@
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -4793,7 +5588,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S30" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T30">
         <v>0.46500000000000002</v>
@@ -4817,16 +5612,16 @@
         <v>5</v>
       </c>
       <c r="AA30" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="AB30">
         <v>0.03</v>
       </c>
       <c r="AD30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF30">
         <v>14</v>
@@ -4844,7 +5639,7 @@
         <v>0.8</v>
       </c>
       <c r="AK30" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="b">
         <v>1</v>
@@ -4856,10 +5651,10 @@
         <v>0</v>
       </c>
       <c r="AO30" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP30" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="AQ30">
         <v>7.0000000000000007E-2</v>
@@ -4907,22 +5702,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:59">
       <c r="AS31" s="3"/>
       <c r="AT31" s="9"/>
       <c r="BG31" s="35"/>
     </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:59">
       <c r="AS32" s="3"/>
       <c r="AT32" s="9"/>
       <c r="BG32" s="35"/>
     </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:59">
       <c r="A33" s="42" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -4931,10 +5726,10 @@
         <v>0.3</v>
       </c>
       <c r="G33" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H33" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -4946,10 +5741,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P33" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -4958,7 +5753,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="S33" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T33">
         <v>0.45</v>
@@ -4979,16 +5774,16 @@
         <v>5</v>
       </c>
       <c r="AA33" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AB33">
         <v>0.03</v>
       </c>
       <c r="AD33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF33">
         <v>14</v>
@@ -5006,7 +5801,7 @@
         <v>0.8</v>
       </c>
       <c r="AK33" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AM33">
         <v>0</v>
@@ -5015,10 +5810,10 @@
         <v>0</v>
       </c>
       <c r="AO33" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP33" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="AQ33">
         <v>7.0000000000000007E-2</v>
@@ -5066,12 +5861,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:59">
       <c r="A34" s="42" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -5080,10 +5875,10 @@
         <v>0.3</v>
       </c>
       <c r="G34" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H34" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -5095,10 +5890,10 @@
         <v>1</v>
       </c>
       <c r="O34" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -5107,7 +5902,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="S34" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T34">
         <v>0.45</v>
@@ -5128,16 +5923,16 @@
         <v>5</v>
       </c>
       <c r="AA34" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AB34">
         <v>0.03</v>
       </c>
       <c r="AD34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF34">
         <v>14</v>
@@ -5155,7 +5950,7 @@
         <v>0.8</v>
       </c>
       <c r="AK34" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AM34">
         <v>0</v>
@@ -5164,10 +5959,10 @@
         <v>0</v>
       </c>
       <c r="AO34" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP34" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="AQ34">
         <v>7.0000000000000007E-2</v>
@@ -5215,18 +6010,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:59">
       <c r="AS35" s="3"/>
       <c r="AT35" s="9"/>
       <c r="BG35" s="35"/>
     </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:59">
       <c r="AS36" s="3"/>
       <c r="AT36" s="3"/>
     </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:59">
       <c r="A37" s="40" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
         <v>21</v>
@@ -5238,10 +6033,10 @@
         <v>0.3</v>
       </c>
       <c r="G37" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H37" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -5253,10 +6048,10 @@
         <v>1</v>
       </c>
       <c r="O37" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -5265,7 +6060,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="S37" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T37">
         <v>0.45</v>
@@ -5286,16 +6081,16 @@
         <v>5</v>
       </c>
       <c r="AA37" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AB37">
         <v>0.03</v>
       </c>
       <c r="AD37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF37">
         <v>14</v>
@@ -5313,7 +6108,7 @@
         <v>0.8</v>
       </c>
       <c r="AK37" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AM37">
         <v>0</v>
@@ -5322,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="AO37" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP37" t="s">
         <v>21</v>
@@ -5373,9 +6168,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:59">
       <c r="A38" s="40" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
         <v>21</v>
@@ -5387,10 +6182,10 @@
         <v>0.3</v>
       </c>
       <c r="G38" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H38" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I38" t="b">
         <v>1</v>
@@ -5402,10 +6197,10 @@
         <v>1</v>
       </c>
       <c r="O38" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -5414,7 +6209,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="S38" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T38">
         <v>0.45</v>
@@ -5435,16 +6230,16 @@
         <v>5</v>
       </c>
       <c r="AA38" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AB38">
         <v>0.03</v>
       </c>
       <c r="AD38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF38">
         <v>14</v>
@@ -5462,7 +6257,7 @@
         <v>0.8</v>
       </c>
       <c r="AK38" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AM38">
         <v>0</v>
@@ -5471,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="AO38" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP38" t="s">
         <v>21</v>
@@ -5522,12 +6317,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:59">
       <c r="A39" s="41"/>
     </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:59">
       <c r="A40" s="40" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
         <v>21</v>
@@ -5539,10 +6334,10 @@
         <v>0.3</v>
       </c>
       <c r="G40" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H40" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
@@ -5554,10 +6349,10 @@
         <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P40" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -5566,7 +6361,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="S40" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T40">
         <v>0.45</v>
@@ -5587,16 +6382,16 @@
         <v>5</v>
       </c>
       <c r="AA40" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AB40">
         <v>0.03</v>
       </c>
       <c r="AD40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF40">
         <v>14</v>
@@ -5614,7 +6409,7 @@
         <v>0.8</v>
       </c>
       <c r="AK40" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AM40">
         <v>0</v>
@@ -5623,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="AO40" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP40" t="s">
         <v>21</v>
@@ -5674,9 +6469,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:59">
       <c r="A41" s="40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
         <v>21</v>
@@ -5688,10 +6483,10 @@
         <v>0.3</v>
       </c>
       <c r="G41" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H41" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
@@ -5703,10 +6498,10 @@
         <v>1</v>
       </c>
       <c r="O41" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -5715,7 +6510,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="S41" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T41">
         <v>0.45</v>
@@ -5736,16 +6531,16 @@
         <v>5</v>
       </c>
       <c r="AA41" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AB41">
         <v>0.03</v>
       </c>
       <c r="AD41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF41">
         <v>14</v>
@@ -5763,7 +6558,7 @@
         <v>0.8</v>
       </c>
       <c r="AK41" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AM41">
         <v>0</v>
@@ -5772,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="AO41" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP41" t="s">
         <v>21</v>
@@ -5823,12 +6618,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:59">
       <c r="A44" s="39" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -5837,10 +6632,10 @@
         <v>0.3</v>
       </c>
       <c r="G44" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H44" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -5852,10 +6647,10 @@
         <v>1</v>
       </c>
       <c r="O44" t="s">
+        <v>125</v>
+      </c>
+      <c r="P44" t="s">
         <v>130</v>
-      </c>
-      <c r="P44" t="s">
-        <v>136</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -5864,7 +6659,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="S44" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T44">
         <v>0.45</v>
@@ -5885,16 +6680,16 @@
         <v>5</v>
       </c>
       <c r="AA44" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AB44">
         <v>0.03</v>
       </c>
       <c r="AD44" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF44">
         <v>14</v>
@@ -5912,7 +6707,7 @@
         <v>0.8</v>
       </c>
       <c r="AK44" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AM44">
         <v>0</v>
@@ -5921,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="AO44" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP44" t="s">
         <v>21</v>
@@ -5972,12 +6767,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:59">
       <c r="A45" s="39" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
@@ -5986,10 +6781,10 @@
         <v>0.3</v>
       </c>
       <c r="G45" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H45" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -6001,10 +6796,10 @@
         <v>1</v>
       </c>
       <c r="O45" t="s">
+        <v>125</v>
+      </c>
+      <c r="P45" t="s">
         <v>130</v>
-      </c>
-      <c r="P45" t="s">
-        <v>136</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -6013,7 +6808,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="S45" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T45">
         <v>0.45</v>
@@ -6034,16 +6829,16 @@
         <v>5</v>
       </c>
       <c r="AA45" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AB45">
         <v>0.03</v>
       </c>
       <c r="AD45" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF45">
         <v>14</v>
@@ -6061,7 +6856,7 @@
         <v>0.8</v>
       </c>
       <c r="AK45" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AM45">
         <v>0</v>
@@ -6070,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="AO45" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP45" t="s">
         <v>21</v>
@@ -6121,12 +6916,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:59">
       <c r="A46" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" t="s">
         <v>134</v>
-      </c>
-      <c r="C46" t="s">
-        <v>140</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -6135,10 +6930,10 @@
         <v>0.3</v>
       </c>
       <c r="G46" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -6150,10 +6945,10 @@
         <v>1</v>
       </c>
       <c r="O46" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="P46" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -6162,7 +6957,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="S46" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T46">
         <v>0.45</v>
@@ -6183,16 +6978,16 @@
         <v>5</v>
       </c>
       <c r="AA46" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AB46">
         <v>0.03</v>
       </c>
       <c r="AD46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AF46">
         <v>14</v>
@@ -6210,7 +7005,7 @@
         <v>0.8</v>
       </c>
       <c r="AK46" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AM46">
         <v>0</v>
@@ -6219,7 +7014,7 @@
         <v>0</v>
       </c>
       <c r="AO46" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AP46" t="s">
         <v>21</v>
@@ -6293,15 +7088,15 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -6313,25 +7108,25 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -6376,7 +7171,7 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
@@ -6386,7 +7181,7 @@
     <col min="7" max="7" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -6409,7 +7204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -6431,10 +7226,10 @@
         <v>0.13</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -6456,10 +7251,10 @@
         <v>0.128</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -6481,10 +7276,10 @@
         <v>0.02</v>
       </c>
       <c r="G4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -6506,12 +7301,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B6" s="4">
         <v>0.13</v>
@@ -6531,12 +7326,12 @@
         <v>0.13</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B7" s="4">
         <v>0.128</v>
@@ -6556,12 +7351,12 @@
         <v>0.128</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B8" s="4">
         <v>0.02</v>
@@ -6581,12 +7376,12 @@
         <v>0.02</v>
       </c>
       <c r="G8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B9" s="4">
         <v>5.7200000000000001E-2</v>
@@ -6606,12 +7401,12 @@
         <v>0.05</v>
       </c>
       <c r="G9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B10" s="4">
         <v>7.22E-2</v>
@@ -6631,12 +7426,12 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="G10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B11" s="4">
         <v>7.7200000000000005E-2</v>
@@ -6656,12 +7451,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B12" s="4">
         <v>0.13</v>
@@ -6681,12 +7476,12 @@
         <v>0.13</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B13" s="4">
         <v>0.128</v>
@@ -6706,12 +7501,12 @@
         <v>0.128</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B14" s="4">
         <v>0.02</v>
@@ -6731,12 +7526,12 @@
         <v>0.02</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B15" s="4">
         <v>5.7200000000000001E-2</v>
@@ -6756,12 +7551,12 @@
         <v>0.05</v>
       </c>
       <c r="G15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B16" s="4">
         <v>7.22E-2</v>
@@ -6781,12 +7576,12 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="G16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B17" s="4">
         <v>0.13</v>
@@ -6806,12 +7601,12 @@
         <v>0.13</v>
       </c>
       <c r="G17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B18" s="4">
         <v>0.128</v>
@@ -6831,12 +7626,12 @@
         <v>0.128</v>
       </c>
       <c r="G18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B19" s="4">
         <v>0.02</v>
@@ -6856,12 +7651,12 @@
         <v>0.02</v>
       </c>
       <c r="G19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B20" s="4">
         <v>-0.24</v>
@@ -6881,12 +7676,12 @@
         <v>-0.24</v>
       </c>
       <c r="G20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B21" s="4">
         <v>0.12</v>
@@ -6906,12 +7701,12 @@
         <v>0.12</v>
       </c>
       <c r="G21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B22" s="4">
         <v>0.13</v>
@@ -6931,12 +7726,12 @@
         <v>0.13</v>
       </c>
       <c r="G22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B23" s="4">
         <v>0.11</v>
@@ -6956,12 +7751,12 @@
         <v>0.11</v>
       </c>
       <c r="G23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B24" s="4">
         <v>0.05</v>
@@ -6981,12 +7776,12 @@
         <v>0.05</v>
       </c>
       <c r="G24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B25" s="4">
         <v>0.13</v>
@@ -7006,12 +7801,12 @@
         <v>0.13</v>
       </c>
       <c r="G25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B26" s="4">
         <v>0.128</v>
@@ -7031,12 +7826,12 @@
         <v>0.128</v>
       </c>
       <c r="G26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B27" s="4">
         <v>0.02</v>
@@ -7056,12 +7851,12 @@
         <v>0.02</v>
       </c>
       <c r="G27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B28" s="4">
         <v>-0.24</v>
@@ -7081,12 +7876,12 @@
         <v>-0.24</v>
       </c>
       <c r="G28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B29" s="4">
         <v>0.12</v>
@@ -7106,12 +7901,12 @@
         <v>0.12</v>
       </c>
       <c r="G29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B30" s="4">
         <v>0.13</v>
@@ -7131,12 +7926,12 @@
         <v>0.13</v>
       </c>
       <c r="G30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B31" s="4">
         <v>0.11</v>
@@ -7156,12 +7951,12 @@
         <v>0.11</v>
       </c>
       <c r="G31" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B32" s="4">
         <v>7.0000000000000007E-2</v>
@@ -7181,7 +7976,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G32" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -7192,528 +7987,3621 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B4:J40"/>
+  <dimension ref="B2:Q46"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="120" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="121" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="121" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="121" customWidth="1"/>
+    <col min="6" max="6" width="36" style="120" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+    <col min="12" max="12" width="43.140625" customWidth="1"/>
+    <col min="13" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" t="s">
+    <row r="2" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="F2" s="120" t="s">
+        <v>174</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="43"/>
+    </row>
+    <row r="3" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B3" s="120" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="122">
+        <v>37667162029</v>
+      </c>
+      <c r="D3" s="129">
+        <f>C3/1000000000</f>
+        <v>37.667162029000004</v>
+      </c>
+      <c r="E3" s="129"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="43"/>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="N3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="P3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+    <row r="4" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B4" s="120" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="123">
+        <v>1062059552</v>
+      </c>
+      <c r="D4" s="129">
+        <f t="shared" ref="D4:D27" si="0">C4/1000000000</f>
+        <v>1.062059552</v>
+      </c>
+      <c r="E4" s="129"/>
+      <c r="F4" s="120" t="s">
+        <v>178</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="M4" s="11">
+        <v>40.130000000000003</v>
+      </c>
+      <c r="N4">
+        <v>34.4</v>
+      </c>
+      <c r="O4" s="12">
+        <f>N4/M4</f>
+        <v>0.85721405432344866</v>
+      </c>
+      <c r="P4" s="11">
+        <v>41.59</v>
+      </c>
+      <c r="Q4" s="12">
+        <f>P4/M4</f>
+        <v>1.0363817592823323</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B5" s="120" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="124">
+        <v>405896494</v>
+      </c>
+      <c r="D5" s="129">
+        <f t="shared" si="0"/>
+        <v>0.405896494</v>
+      </c>
+      <c r="E5" s="129"/>
+      <c r="L5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="11">
+        <v>11.58</v>
+      </c>
+      <c r="N5" s="11">
+        <v>8.69</v>
+      </c>
+      <c r="O5" s="12">
+        <f>N5/M5</f>
+        <v>0.75043177892918822</v>
+      </c>
+      <c r="P5" s="11">
+        <v>11.47</v>
+      </c>
+      <c r="Q5" s="12">
+        <f>P5/M5</f>
+        <v>0.99050086355785838</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B6" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="124">
+        <v>2190015114</v>
+      </c>
+      <c r="D6" s="129">
+        <f t="shared" si="0"/>
+        <v>2.1900151139999999</v>
+      </c>
+      <c r="E6" s="129"/>
+      <c r="L6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="11">
+        <v>42.24</v>
+      </c>
+      <c r="N6" s="11">
+        <v>48.16</v>
+      </c>
+      <c r="O6" s="12">
+        <f>N6/M6</f>
+        <v>1.1401515151515149</v>
+      </c>
+      <c r="P6" s="11">
+        <v>46.15</v>
+      </c>
+      <c r="Q6" s="12">
+        <f>P6/M6</f>
+        <v>1.0925662878787878</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B7" s="120" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="124">
+        <v>125975786</v>
+      </c>
+      <c r="D7" s="129">
+        <f t="shared" si="0"/>
+        <v>0.12597578600000001</v>
+      </c>
+      <c r="E7" s="129"/>
+      <c r="L7" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="M7" s="11">
+        <f>M4-M5</f>
+        <v>28.550000000000004</v>
+      </c>
+      <c r="N7" s="11">
+        <v>25.73</v>
+      </c>
+      <c r="O7" s="12">
+        <f>N7/M7</f>
+        <v>0.90122591943957953</v>
+      </c>
+      <c r="P7" s="11">
+        <v>30.12</v>
+      </c>
+      <c r="Q7" s="12">
+        <f>P7/M7</f>
+        <v>1.0549912434325743</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B8" s="120" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="124">
+        <v>2659607405</v>
+      </c>
+      <c r="D8" s="129">
+        <f t="shared" si="0"/>
+        <v>2.659607405</v>
+      </c>
+      <c r="E8" s="129"/>
+      <c r="L8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="11">
+        <v>3.76</v>
+      </c>
+      <c r="N8" s="11">
+        <v>3.8</v>
+      </c>
+      <c r="O8" s="12">
+        <f>N8/M8</f>
+        <v>1.0106382978723405</v>
+      </c>
+      <c r="P8" s="11">
+        <v>3.8</v>
+      </c>
+      <c r="Q8" s="12">
+        <f>P8/M8</f>
+        <v>1.0106382978723405</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B10" s="120" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="121">
+        <v>39535995292</v>
+      </c>
+      <c r="D10" s="129">
+        <f t="shared" si="0"/>
+        <v>39.535995292000003</v>
+      </c>
+      <c r="E10" s="129"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B11" s="120" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="126">
+        <v>535870232</v>
+      </c>
+      <c r="D11" s="129">
+        <f t="shared" si="0"/>
+        <v>0.53587023199999995</v>
+      </c>
+      <c r="E11" s="129"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="12"/>
+    </row>
+    <row r="12" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B12" s="120" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="125">
+        <v>972023664</v>
+      </c>
+      <c r="D12" s="129">
+        <f t="shared" si="0"/>
+        <v>0.97202366399999995</v>
+      </c>
+      <c r="E12" s="129"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="12"/>
+    </row>
+    <row r="13" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B13" s="120" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="125">
+        <v>3066827192</v>
+      </c>
+      <c r="D13" s="129">
+        <f t="shared" si="0"/>
+        <v>3.0668271919999999</v>
+      </c>
+      <c r="E13" s="129"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B15" s="120" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="121">
+        <v>37988259515</v>
+      </c>
+      <c r="D15" s="129">
+        <f t="shared" si="0"/>
+        <v>37.988259515000003</v>
+      </c>
+      <c r="E15" s="129"/>
+      <c r="F15" s="120" t="s">
+        <v>176</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B16" s="120" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="121">
+        <v>849689324</v>
+      </c>
+      <c r="D16" s="129">
+        <f t="shared" si="0"/>
+        <v>0.84968932399999997</v>
+      </c>
+      <c r="E16" s="129"/>
+      <c r="F16" s="120" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="11">
-        <v>40.130000000000003</v>
-      </c>
-      <c r="D7">
-        <v>34.4</v>
-      </c>
-      <c r="E7" s="12">
-        <f>D7/C7</f>
-        <v>0.85721405432344866</v>
-      </c>
-      <c r="F7" s="11">
-        <v>41.59</v>
-      </c>
-      <c r="G7" s="12">
-        <f>F7/C7</f>
-        <v>1.0363817592823323</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="11">
-        <v>11.58</v>
-      </c>
-      <c r="D8" s="11">
-        <v>8.69</v>
-      </c>
-      <c r="E8" s="12">
-        <f>D8/C8</f>
-        <v>0.75043177892918822</v>
-      </c>
-      <c r="F8" s="11">
-        <v>11.47</v>
-      </c>
-      <c r="G8" s="12">
-        <f>F8/C8</f>
-        <v>0.99050086355785838</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="M16" s="11">
+        <f>SUM(M7,M6,M8)</f>
+        <v>74.550000000000011</v>
+      </c>
+      <c r="N16" s="11">
+        <f>SUM(N7,N6,N8)</f>
+        <v>77.69</v>
+      </c>
+      <c r="O16" s="12">
+        <f>N16/M16</f>
+        <v>1.0421193829644533</v>
+      </c>
+      <c r="P16" s="11">
+        <v>76.12</v>
+      </c>
+      <c r="Q16" s="12">
+        <f>P16/M16</f>
+        <v>1.0210596914822265</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B17" s="120" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="121">
+        <v>2813575411</v>
+      </c>
+      <c r="D17" s="129">
+        <f t="shared" si="0"/>
+        <v>2.813575411</v>
+      </c>
+      <c r="E17" s="129"/>
+      <c r="F17" s="120" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B19" s="120" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="121">
+        <f>SUM(C10:C13)</f>
+        <v>44110716380</v>
+      </c>
+      <c r="D19" s="129">
+        <f t="shared" si="0"/>
+        <v>44.11071638</v>
+      </c>
+      <c r="E19" s="129"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B20" s="120" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="127">
+        <f>SUM(C15:C17)</f>
+        <v>41651524250</v>
+      </c>
+      <c r="D20" s="129">
+        <f t="shared" si="0"/>
+        <v>41.651524250000001</v>
+      </c>
+      <c r="E20" s="129"/>
+      <c r="L20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="11">
+        <v>67.38</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="12">
+        <f>N20/M20</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="12">
+        <f>P20/M20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
+      <c r="L21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="11">
-        <f>C7-C8</f>
-        <v>28.550000000000004</v>
-      </c>
-      <c r="D9" s="11">
-        <v>25.73</v>
-      </c>
-      <c r="E9" s="12">
-        <f>D9/C9</f>
-        <v>0.90122591943957953</v>
-      </c>
-      <c r="F9" s="11">
-        <v>30.12</v>
-      </c>
-      <c r="G9" s="12">
-        <f>F9/C9</f>
-        <v>1.0549912434325743</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="11">
-        <v>42.24</v>
-      </c>
-      <c r="D10" s="11">
-        <v>48.16</v>
-      </c>
-      <c r="E10" s="12">
-        <f>D10/C10</f>
-        <v>1.1401515151515149</v>
-      </c>
-      <c r="F10" s="11">
-        <v>46.15</v>
-      </c>
-      <c r="G10" s="12">
-        <f>F10/C10</f>
-        <v>1.0925662878787878</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="11">
-        <v>3.76</v>
-      </c>
-      <c r="D11" s="11">
-        <v>3.8</v>
-      </c>
-      <c r="E11" s="12">
-        <f>D11/C11</f>
-        <v>1.0106382978723405</v>
-      </c>
-      <c r="F11" s="11">
-        <v>3.8</v>
-      </c>
-      <c r="G11" s="12">
-        <f>F11/C11</f>
-        <v>1.0106382978723405</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="11">
-        <f>SUM(C9,C10,C11)</f>
-        <v>74.550000000000011</v>
-      </c>
-      <c r="D14" s="11">
-        <f>SUM(D9,D10,D11)</f>
-        <v>77.69</v>
-      </c>
-      <c r="E14" s="12">
-        <f>D14/C14</f>
-        <v>1.0421193829644533</v>
-      </c>
-      <c r="F14" s="11">
-        <v>76.12</v>
-      </c>
-      <c r="G14" s="12">
-        <f>F14/C14</f>
-        <v>1.0210596914822265</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="11">
-        <v>67.38</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="12">
-        <f>D16/C16</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12">
-        <f>F16/C16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="M21" s="11">
         <v>64.25</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12">
-        <f>D17/C17</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12">
-        <f>F17/C17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="11">
-        <f>C14-C16</f>
+      <c r="N21" s="11"/>
+      <c r="O21" s="12">
+        <f>N21/M21</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="12">
+        <f>P21/M21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B22" s="120" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="121">
+        <f>SUM(C19:C20)</f>
+        <v>85762240630</v>
+      </c>
+      <c r="D22" s="129">
+        <f t="shared" si="0"/>
+        <v>85.762240629999994</v>
+      </c>
+      <c r="E22" s="129"/>
+      <c r="L22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" s="11">
+        <f>M16-M20</f>
         <v>7.1700000000000159</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12">
-        <f>D18/C18</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12">
-        <f>F18/C18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="N22" s="11"/>
+      <c r="O22" s="12">
+        <f>N22/M22</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="12">
+        <f>P22/M22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="12"/>
+    </row>
+    <row r="24" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B24" s="120" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="125">
+        <v>23738166660</v>
+      </c>
+      <c r="D24" s="129">
+        <f t="shared" si="0"/>
+        <v>23.738166660000001</v>
+      </c>
+      <c r="E24" s="129"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B25" s="120" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" s="128">
+        <f>SUM(C24,C11,C12,C13,C20)</f>
+        <v>69964411998</v>
+      </c>
+      <c r="D25" s="129">
+        <f t="shared" si="0"/>
+        <v>69.964411998000003</v>
+      </c>
+      <c r="E25" s="129"/>
+      <c r="F25" s="120" t="s">
+        <v>265</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" s="14">
         <f>11.582186/111.581756</f>
         <v>0.10379999755515588</v>
       </c>
-      <c r="D21" s="14">
+      <c r="N25" s="14">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="E21" s="12">
-        <f>D21/C21</f>
+      <c r="O25" s="12">
+        <f>N25/M25</f>
         <v>0.74181119280937113</v>
       </c>
-      <c r="F21" s="14">
+      <c r="P25" s="14">
         <v>9.5699999999999993E-2</v>
       </c>
-      <c r="G21" s="12">
-        <f>F21/C21</f>
+      <c r="Q25" s="12">
+        <f>P25/M25</f>
         <v>0.92196533963450411</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
+    <row r="26" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="12"/>
+    </row>
+    <row r="27" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B27" s="120" t="s">
+        <v>270</v>
+      </c>
+      <c r="C27" s="121">
+        <v>3954653723</v>
+      </c>
+      <c r="D27" s="129">
+        <f t="shared" si="0"/>
+        <v>3.9546537229999998</v>
+      </c>
+      <c r="E27" s="129"/>
+      <c r="G27" t="s">
+        <v>274</v>
+      </c>
+      <c r="L27" s="8"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="12"/>
+    </row>
+    <row r="28" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="L28" s="8"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="12"/>
+    </row>
+    <row r="29" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B29" s="120" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" s="121">
+        <v>173696000</v>
+      </c>
+      <c r="F29" s="120" t="s">
+        <v>278</v>
+      </c>
+      <c r="G29" t="s">
+        <v>277</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="6">
+      <c r="M29" s="14">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N29" s="15">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="O29" s="12">
+        <f>N29/M29</f>
+        <v>1.1453333333333335</v>
+      </c>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="12">
+        <f>P29/M29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B30" s="120" t="s">
+        <v>267</v>
+      </c>
+      <c r="C30" s="121">
+        <v>1172161054</v>
+      </c>
+      <c r="G30" t="s">
+        <v>274</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M30" s="6">
+        <v>6</v>
+      </c>
+      <c r="N30" s="6">
+        <v>6</v>
+      </c>
+      <c r="O30" s="12">
+        <f>N30/M30</f>
+        <v>1</v>
+      </c>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="12">
+        <f>P30/M30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B31" s="120" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" s="121">
+        <v>2663071096</v>
+      </c>
+      <c r="G31" t="s">
+        <v>274</v>
+      </c>
+      <c r="L31" s="8"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="7"/>
+    </row>
+    <row r="32" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B32" s="120" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" s="121">
+        <v>3889709927</v>
+      </c>
+      <c r="F32" s="120" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" t="s">
+        <v>274</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M32" s="11">
+        <v>4.343</v>
+      </c>
+      <c r="N32" s="6">
+        <v>4.32</v>
+      </c>
+      <c r="O32" s="12">
+        <f>N32/M32</f>
+        <v>0.99470412157494825</v>
+      </c>
+      <c r="P32" s="11">
+        <v>4.34</v>
+      </c>
+      <c r="Q32" s="12">
+        <f>P32/M32</f>
+        <v>0.9993092332489063</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="L33" s="10"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="12"/>
+    </row>
+    <row r="34" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B34" s="120" t="s">
+        <v>272</v>
+      </c>
+      <c r="C34" s="121">
+        <v>9224267647</v>
+      </c>
+      <c r="G34" t="s">
+        <v>274</v>
+      </c>
+      <c r="L34" s="10"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="12"/>
+    </row>
+    <row r="35" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="L35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M35" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="N35" s="11"/>
+      <c r="O35" s="12">
+        <f>N35/M35</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="6">
+        <v>13.49</v>
+      </c>
+      <c r="Q35" s="12">
+        <f>P35/M35</f>
+        <v>0.99925925925925929</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B36" s="120" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="121">
+        <v>43629545000</v>
+      </c>
+      <c r="L36" s="8"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="12"/>
+    </row>
+    <row r="37" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B37" s="120" t="s">
+        <v>271</v>
+      </c>
+      <c r="C37" s="121">
+        <v>41015087000</v>
+      </c>
+      <c r="L37" s="8"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="12"/>
+    </row>
+    <row r="38" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B38" s="120" t="s">
+        <v>276</v>
+      </c>
+      <c r="C38" s="130">
+        <f>C36/C25</f>
+        <v>0.62359625063735535</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="6">
         <v>1.07</v>
       </c>
-      <c r="D22" s="6">
+      <c r="N38" s="6">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E22" s="12">
-        <f>D22/C22</f>
+      <c r="O38" s="12">
+        <f>N38/M38</f>
         <v>1.0747663551401867</v>
       </c>
-      <c r="F22" s="6">
+      <c r="P38" s="6">
         <v>1.135</v>
       </c>
-      <c r="G22" s="12">
-        <f>F22/C22</f>
+      <c r="Q38" s="12">
+        <f>P38/M38</f>
         <v>1.0607476635514017</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="14">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D23" s="15">
-        <v>8.5900000000000004E-2</v>
-      </c>
-      <c r="E23" s="12">
-        <f>D23/C23</f>
-        <v>1.1453333333333335</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="12">
-        <f>F23/C23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="6">
-        <v>6</v>
-      </c>
-      <c r="D24" s="6">
-        <v>6</v>
-      </c>
-      <c r="E24" s="12">
-        <f>D24/C24</f>
-        <v>1</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="12">
-        <f>F24/C24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="11">
-        <v>4.343</v>
-      </c>
-      <c r="D26" s="6">
-        <v>4.32</v>
-      </c>
-      <c r="E26" s="12">
-        <f>D26/C26</f>
-        <v>0.99470412157494825</v>
-      </c>
-      <c r="F26" s="11">
-        <v>4.34</v>
-      </c>
-      <c r="G26" s="12">
-        <f>F26/C26</f>
-        <v>0.9993092332489063</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="6">
-        <v>13.5</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12">
-        <f>D27/C27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>13.49</v>
-      </c>
-      <c r="G27" s="12">
-        <f>F27/C27</f>
-        <v>0.99925925925925929</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="6">
+    <row r="39" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B39" s="120" t="s">
+        <v>275</v>
+      </c>
+      <c r="C39" s="130">
+        <f>C37/C25</f>
+        <v>0.58622785254269638</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M39" s="6">
         <v>14.28</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="12">
-        <f>D28/C28</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="12">
-        <f>F28/C28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <f>C16-C17</f>
-        <v>3.1299999999999955</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C39">
-        <f>303/579</f>
-        <v>0.52331606217616577</v>
-      </c>
-      <c r="H39">
-        <v>67376892466</v>
-      </c>
-      <c r="I39">
-        <v>74547855025</v>
-      </c>
-      <c r="J39">
-        <f>H39/I39</f>
-        <v>0.90380725834975151</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H40">
-        <v>64246523614</v>
-      </c>
-      <c r="I40">
-        <v>74547855025</v>
-      </c>
-      <c r="J40">
-        <f>H40/I40</f>
-        <v>0.86181585764546287</v>
-      </c>
+      <c r="N39" s="6"/>
+      <c r="O39" s="12">
+        <f>N39/M39</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="12">
+        <f>P39/M39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="L40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M40" s="5"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Present Value of Benefits for prior fiscal year to nearest dollar" sqref="C3" xr:uid="{0C484914-9289-4819-B8E7-1810480011A8}">
+      <formula1>-1000000000000</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="D3 D4:D27" unlockedFormula="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B508DC0-69AE-4068-9149-A87C403CFFD6}">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="1.85546875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="46" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="9" style="46" customWidth="1"/>
+    <col min="6" max="6" width="22" style="46" customWidth="1"/>
+    <col min="7" max="7" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="256" width="9.140625" style="46"/>
+    <col min="257" max="257" width="1.85546875" style="46" customWidth="1"/>
+    <col min="258" max="258" width="33.28515625" style="46" customWidth="1"/>
+    <col min="259" max="260" width="20.7109375" style="46" customWidth="1"/>
+    <col min="261" max="261" width="9" style="46" customWidth="1"/>
+    <col min="262" max="262" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="265" max="512" width="9.140625" style="46"/>
+    <col min="513" max="513" width="1.85546875" style="46" customWidth="1"/>
+    <col min="514" max="514" width="33.28515625" style="46" customWidth="1"/>
+    <col min="515" max="516" width="20.7109375" style="46" customWidth="1"/>
+    <col min="517" max="517" width="9" style="46" customWidth="1"/>
+    <col min="518" max="518" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="521" max="768" width="9.140625" style="46"/>
+    <col min="769" max="769" width="1.85546875" style="46" customWidth="1"/>
+    <col min="770" max="770" width="33.28515625" style="46" customWidth="1"/>
+    <col min="771" max="772" width="20.7109375" style="46" customWidth="1"/>
+    <col min="773" max="773" width="9" style="46" customWidth="1"/>
+    <col min="774" max="774" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="777" max="1024" width="9.140625" style="46"/>
+    <col min="1025" max="1025" width="1.85546875" style="46" customWidth="1"/>
+    <col min="1026" max="1026" width="33.28515625" style="46" customWidth="1"/>
+    <col min="1027" max="1028" width="20.7109375" style="46" customWidth="1"/>
+    <col min="1029" max="1029" width="9" style="46" customWidth="1"/>
+    <col min="1030" max="1030" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1280" width="9.140625" style="46"/>
+    <col min="1281" max="1281" width="1.85546875" style="46" customWidth="1"/>
+    <col min="1282" max="1282" width="33.28515625" style="46" customWidth="1"/>
+    <col min="1283" max="1284" width="20.7109375" style="46" customWidth="1"/>
+    <col min="1285" max="1285" width="9" style="46" customWidth="1"/>
+    <col min="1286" max="1286" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1536" width="9.140625" style="46"/>
+    <col min="1537" max="1537" width="1.85546875" style="46" customWidth="1"/>
+    <col min="1538" max="1538" width="33.28515625" style="46" customWidth="1"/>
+    <col min="1539" max="1540" width="20.7109375" style="46" customWidth="1"/>
+    <col min="1541" max="1541" width="9" style="46" customWidth="1"/>
+    <col min="1542" max="1542" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1792" width="9.140625" style="46"/>
+    <col min="1793" max="1793" width="1.85546875" style="46" customWidth="1"/>
+    <col min="1794" max="1794" width="33.28515625" style="46" customWidth="1"/>
+    <col min="1795" max="1796" width="20.7109375" style="46" customWidth="1"/>
+    <col min="1797" max="1797" width="9" style="46" customWidth="1"/>
+    <col min="1798" max="1798" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="1801" max="2048" width="9.140625" style="46"/>
+    <col min="2049" max="2049" width="1.85546875" style="46" customWidth="1"/>
+    <col min="2050" max="2050" width="33.28515625" style="46" customWidth="1"/>
+    <col min="2051" max="2052" width="20.7109375" style="46" customWidth="1"/>
+    <col min="2053" max="2053" width="9" style="46" customWidth="1"/>
+    <col min="2054" max="2054" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2304" width="9.140625" style="46"/>
+    <col min="2305" max="2305" width="1.85546875" style="46" customWidth="1"/>
+    <col min="2306" max="2306" width="33.28515625" style="46" customWidth="1"/>
+    <col min="2307" max="2308" width="20.7109375" style="46" customWidth="1"/>
+    <col min="2309" max="2309" width="9" style="46" customWidth="1"/>
+    <col min="2310" max="2310" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2560" width="9.140625" style="46"/>
+    <col min="2561" max="2561" width="1.85546875" style="46" customWidth="1"/>
+    <col min="2562" max="2562" width="33.28515625" style="46" customWidth="1"/>
+    <col min="2563" max="2564" width="20.7109375" style="46" customWidth="1"/>
+    <col min="2565" max="2565" width="9" style="46" customWidth="1"/>
+    <col min="2566" max="2566" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2816" width="9.140625" style="46"/>
+    <col min="2817" max="2817" width="1.85546875" style="46" customWidth="1"/>
+    <col min="2818" max="2818" width="33.28515625" style="46" customWidth="1"/>
+    <col min="2819" max="2820" width="20.7109375" style="46" customWidth="1"/>
+    <col min="2821" max="2821" width="9" style="46" customWidth="1"/>
+    <col min="2822" max="2822" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="2825" max="3072" width="9.140625" style="46"/>
+    <col min="3073" max="3073" width="1.85546875" style="46" customWidth="1"/>
+    <col min="3074" max="3074" width="33.28515625" style="46" customWidth="1"/>
+    <col min="3075" max="3076" width="20.7109375" style="46" customWidth="1"/>
+    <col min="3077" max="3077" width="9" style="46" customWidth="1"/>
+    <col min="3078" max="3078" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3328" width="9.140625" style="46"/>
+    <col min="3329" max="3329" width="1.85546875" style="46" customWidth="1"/>
+    <col min="3330" max="3330" width="33.28515625" style="46" customWidth="1"/>
+    <col min="3331" max="3332" width="20.7109375" style="46" customWidth="1"/>
+    <col min="3333" max="3333" width="9" style="46" customWidth="1"/>
+    <col min="3334" max="3334" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3584" width="9.140625" style="46"/>
+    <col min="3585" max="3585" width="1.85546875" style="46" customWidth="1"/>
+    <col min="3586" max="3586" width="33.28515625" style="46" customWidth="1"/>
+    <col min="3587" max="3588" width="20.7109375" style="46" customWidth="1"/>
+    <col min="3589" max="3589" width="9" style="46" customWidth="1"/>
+    <col min="3590" max="3590" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3840" width="9.140625" style="46"/>
+    <col min="3841" max="3841" width="1.85546875" style="46" customWidth="1"/>
+    <col min="3842" max="3842" width="33.28515625" style="46" customWidth="1"/>
+    <col min="3843" max="3844" width="20.7109375" style="46" customWidth="1"/>
+    <col min="3845" max="3845" width="9" style="46" customWidth="1"/>
+    <col min="3846" max="3846" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="3849" max="4096" width="9.140625" style="46"/>
+    <col min="4097" max="4097" width="1.85546875" style="46" customWidth="1"/>
+    <col min="4098" max="4098" width="33.28515625" style="46" customWidth="1"/>
+    <col min="4099" max="4100" width="20.7109375" style="46" customWidth="1"/>
+    <col min="4101" max="4101" width="9" style="46" customWidth="1"/>
+    <col min="4102" max="4102" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4352" width="9.140625" style="46"/>
+    <col min="4353" max="4353" width="1.85546875" style="46" customWidth="1"/>
+    <col min="4354" max="4354" width="33.28515625" style="46" customWidth="1"/>
+    <col min="4355" max="4356" width="20.7109375" style="46" customWidth="1"/>
+    <col min="4357" max="4357" width="9" style="46" customWidth="1"/>
+    <col min="4358" max="4358" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4608" width="9.140625" style="46"/>
+    <col min="4609" max="4609" width="1.85546875" style="46" customWidth="1"/>
+    <col min="4610" max="4610" width="33.28515625" style="46" customWidth="1"/>
+    <col min="4611" max="4612" width="20.7109375" style="46" customWidth="1"/>
+    <col min="4613" max="4613" width="9" style="46" customWidth="1"/>
+    <col min="4614" max="4614" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4864" width="9.140625" style="46"/>
+    <col min="4865" max="4865" width="1.85546875" style="46" customWidth="1"/>
+    <col min="4866" max="4866" width="33.28515625" style="46" customWidth="1"/>
+    <col min="4867" max="4868" width="20.7109375" style="46" customWidth="1"/>
+    <col min="4869" max="4869" width="9" style="46" customWidth="1"/>
+    <col min="4870" max="4870" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4873" max="5120" width="9.140625" style="46"/>
+    <col min="5121" max="5121" width="1.85546875" style="46" customWidth="1"/>
+    <col min="5122" max="5122" width="33.28515625" style="46" customWidth="1"/>
+    <col min="5123" max="5124" width="20.7109375" style="46" customWidth="1"/>
+    <col min="5125" max="5125" width="9" style="46" customWidth="1"/>
+    <col min="5126" max="5126" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5376" width="9.140625" style="46"/>
+    <col min="5377" max="5377" width="1.85546875" style="46" customWidth="1"/>
+    <col min="5378" max="5378" width="33.28515625" style="46" customWidth="1"/>
+    <col min="5379" max="5380" width="20.7109375" style="46" customWidth="1"/>
+    <col min="5381" max="5381" width="9" style="46" customWidth="1"/>
+    <col min="5382" max="5382" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5632" width="9.140625" style="46"/>
+    <col min="5633" max="5633" width="1.85546875" style="46" customWidth="1"/>
+    <col min="5634" max="5634" width="33.28515625" style="46" customWidth="1"/>
+    <col min="5635" max="5636" width="20.7109375" style="46" customWidth="1"/>
+    <col min="5637" max="5637" width="9" style="46" customWidth="1"/>
+    <col min="5638" max="5638" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5888" width="9.140625" style="46"/>
+    <col min="5889" max="5889" width="1.85546875" style="46" customWidth="1"/>
+    <col min="5890" max="5890" width="33.28515625" style="46" customWidth="1"/>
+    <col min="5891" max="5892" width="20.7109375" style="46" customWidth="1"/>
+    <col min="5893" max="5893" width="9" style="46" customWidth="1"/>
+    <col min="5894" max="5894" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="5897" max="6144" width="9.140625" style="46"/>
+    <col min="6145" max="6145" width="1.85546875" style="46" customWidth="1"/>
+    <col min="6146" max="6146" width="33.28515625" style="46" customWidth="1"/>
+    <col min="6147" max="6148" width="20.7109375" style="46" customWidth="1"/>
+    <col min="6149" max="6149" width="9" style="46" customWidth="1"/>
+    <col min="6150" max="6150" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6400" width="9.140625" style="46"/>
+    <col min="6401" max="6401" width="1.85546875" style="46" customWidth="1"/>
+    <col min="6402" max="6402" width="33.28515625" style="46" customWidth="1"/>
+    <col min="6403" max="6404" width="20.7109375" style="46" customWidth="1"/>
+    <col min="6405" max="6405" width="9" style="46" customWidth="1"/>
+    <col min="6406" max="6406" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6656" width="9.140625" style="46"/>
+    <col min="6657" max="6657" width="1.85546875" style="46" customWidth="1"/>
+    <col min="6658" max="6658" width="33.28515625" style="46" customWidth="1"/>
+    <col min="6659" max="6660" width="20.7109375" style="46" customWidth="1"/>
+    <col min="6661" max="6661" width="9" style="46" customWidth="1"/>
+    <col min="6662" max="6662" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6912" width="9.140625" style="46"/>
+    <col min="6913" max="6913" width="1.85546875" style="46" customWidth="1"/>
+    <col min="6914" max="6914" width="33.28515625" style="46" customWidth="1"/>
+    <col min="6915" max="6916" width="20.7109375" style="46" customWidth="1"/>
+    <col min="6917" max="6917" width="9" style="46" customWidth="1"/>
+    <col min="6918" max="6918" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="6921" max="7168" width="9.140625" style="46"/>
+    <col min="7169" max="7169" width="1.85546875" style="46" customWidth="1"/>
+    <col min="7170" max="7170" width="33.28515625" style="46" customWidth="1"/>
+    <col min="7171" max="7172" width="20.7109375" style="46" customWidth="1"/>
+    <col min="7173" max="7173" width="9" style="46" customWidth="1"/>
+    <col min="7174" max="7174" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7424" width="9.140625" style="46"/>
+    <col min="7425" max="7425" width="1.85546875" style="46" customWidth="1"/>
+    <col min="7426" max="7426" width="33.28515625" style="46" customWidth="1"/>
+    <col min="7427" max="7428" width="20.7109375" style="46" customWidth="1"/>
+    <col min="7429" max="7429" width="9" style="46" customWidth="1"/>
+    <col min="7430" max="7430" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7680" width="9.140625" style="46"/>
+    <col min="7681" max="7681" width="1.85546875" style="46" customWidth="1"/>
+    <col min="7682" max="7682" width="33.28515625" style="46" customWidth="1"/>
+    <col min="7683" max="7684" width="20.7109375" style="46" customWidth="1"/>
+    <col min="7685" max="7685" width="9" style="46" customWidth="1"/>
+    <col min="7686" max="7686" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7936" width="9.140625" style="46"/>
+    <col min="7937" max="7937" width="1.85546875" style="46" customWidth="1"/>
+    <col min="7938" max="7938" width="33.28515625" style="46" customWidth="1"/>
+    <col min="7939" max="7940" width="20.7109375" style="46" customWidth="1"/>
+    <col min="7941" max="7941" width="9" style="46" customWidth="1"/>
+    <col min="7942" max="7942" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="7945" max="8192" width="9.140625" style="46"/>
+    <col min="8193" max="8193" width="1.85546875" style="46" customWidth="1"/>
+    <col min="8194" max="8194" width="33.28515625" style="46" customWidth="1"/>
+    <col min="8195" max="8196" width="20.7109375" style="46" customWidth="1"/>
+    <col min="8197" max="8197" width="9" style="46" customWidth="1"/>
+    <col min="8198" max="8198" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8448" width="9.140625" style="46"/>
+    <col min="8449" max="8449" width="1.85546875" style="46" customWidth="1"/>
+    <col min="8450" max="8450" width="33.28515625" style="46" customWidth="1"/>
+    <col min="8451" max="8452" width="20.7109375" style="46" customWidth="1"/>
+    <col min="8453" max="8453" width="9" style="46" customWidth="1"/>
+    <col min="8454" max="8454" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8704" width="9.140625" style="46"/>
+    <col min="8705" max="8705" width="1.85546875" style="46" customWidth="1"/>
+    <col min="8706" max="8706" width="33.28515625" style="46" customWidth="1"/>
+    <col min="8707" max="8708" width="20.7109375" style="46" customWidth="1"/>
+    <col min="8709" max="8709" width="9" style="46" customWidth="1"/>
+    <col min="8710" max="8710" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8960" width="9.140625" style="46"/>
+    <col min="8961" max="8961" width="1.85546875" style="46" customWidth="1"/>
+    <col min="8962" max="8962" width="33.28515625" style="46" customWidth="1"/>
+    <col min="8963" max="8964" width="20.7109375" style="46" customWidth="1"/>
+    <col min="8965" max="8965" width="9" style="46" customWidth="1"/>
+    <col min="8966" max="8966" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="8969" max="9216" width="9.140625" style="46"/>
+    <col min="9217" max="9217" width="1.85546875" style="46" customWidth="1"/>
+    <col min="9218" max="9218" width="33.28515625" style="46" customWidth="1"/>
+    <col min="9219" max="9220" width="20.7109375" style="46" customWidth="1"/>
+    <col min="9221" max="9221" width="9" style="46" customWidth="1"/>
+    <col min="9222" max="9222" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9472" width="9.140625" style="46"/>
+    <col min="9473" max="9473" width="1.85546875" style="46" customWidth="1"/>
+    <col min="9474" max="9474" width="33.28515625" style="46" customWidth="1"/>
+    <col min="9475" max="9476" width="20.7109375" style="46" customWidth="1"/>
+    <col min="9477" max="9477" width="9" style="46" customWidth="1"/>
+    <col min="9478" max="9478" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9728" width="9.140625" style="46"/>
+    <col min="9729" max="9729" width="1.85546875" style="46" customWidth="1"/>
+    <col min="9730" max="9730" width="33.28515625" style="46" customWidth="1"/>
+    <col min="9731" max="9732" width="20.7109375" style="46" customWidth="1"/>
+    <col min="9733" max="9733" width="9" style="46" customWidth="1"/>
+    <col min="9734" max="9734" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9984" width="9.140625" style="46"/>
+    <col min="9985" max="9985" width="1.85546875" style="46" customWidth="1"/>
+    <col min="9986" max="9986" width="33.28515625" style="46" customWidth="1"/>
+    <col min="9987" max="9988" width="20.7109375" style="46" customWidth="1"/>
+    <col min="9989" max="9989" width="9" style="46" customWidth="1"/>
+    <col min="9990" max="9990" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="9993" max="10240" width="9.140625" style="46"/>
+    <col min="10241" max="10241" width="1.85546875" style="46" customWidth="1"/>
+    <col min="10242" max="10242" width="33.28515625" style="46" customWidth="1"/>
+    <col min="10243" max="10244" width="20.7109375" style="46" customWidth="1"/>
+    <col min="10245" max="10245" width="9" style="46" customWidth="1"/>
+    <col min="10246" max="10246" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10496" width="9.140625" style="46"/>
+    <col min="10497" max="10497" width="1.85546875" style="46" customWidth="1"/>
+    <col min="10498" max="10498" width="33.28515625" style="46" customWidth="1"/>
+    <col min="10499" max="10500" width="20.7109375" style="46" customWidth="1"/>
+    <col min="10501" max="10501" width="9" style="46" customWidth="1"/>
+    <col min="10502" max="10502" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10752" width="9.140625" style="46"/>
+    <col min="10753" max="10753" width="1.85546875" style="46" customWidth="1"/>
+    <col min="10754" max="10754" width="33.28515625" style="46" customWidth="1"/>
+    <col min="10755" max="10756" width="20.7109375" style="46" customWidth="1"/>
+    <col min="10757" max="10757" width="9" style="46" customWidth="1"/>
+    <col min="10758" max="10758" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="10761" max="11008" width="9.140625" style="46"/>
+    <col min="11009" max="11009" width="1.85546875" style="46" customWidth="1"/>
+    <col min="11010" max="11010" width="33.28515625" style="46" customWidth="1"/>
+    <col min="11011" max="11012" width="20.7109375" style="46" customWidth="1"/>
+    <col min="11013" max="11013" width="9" style="46" customWidth="1"/>
+    <col min="11014" max="11014" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11264" width="9.140625" style="46"/>
+    <col min="11265" max="11265" width="1.85546875" style="46" customWidth="1"/>
+    <col min="11266" max="11266" width="33.28515625" style="46" customWidth="1"/>
+    <col min="11267" max="11268" width="20.7109375" style="46" customWidth="1"/>
+    <col min="11269" max="11269" width="9" style="46" customWidth="1"/>
+    <col min="11270" max="11270" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11520" width="9.140625" style="46"/>
+    <col min="11521" max="11521" width="1.85546875" style="46" customWidth="1"/>
+    <col min="11522" max="11522" width="33.28515625" style="46" customWidth="1"/>
+    <col min="11523" max="11524" width="20.7109375" style="46" customWidth="1"/>
+    <col min="11525" max="11525" width="9" style="46" customWidth="1"/>
+    <col min="11526" max="11526" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11776" width="9.140625" style="46"/>
+    <col min="11777" max="11777" width="1.85546875" style="46" customWidth="1"/>
+    <col min="11778" max="11778" width="33.28515625" style="46" customWidth="1"/>
+    <col min="11779" max="11780" width="20.7109375" style="46" customWidth="1"/>
+    <col min="11781" max="11781" width="9" style="46" customWidth="1"/>
+    <col min="11782" max="11782" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="11785" max="12032" width="9.140625" style="46"/>
+    <col min="12033" max="12033" width="1.85546875" style="46" customWidth="1"/>
+    <col min="12034" max="12034" width="33.28515625" style="46" customWidth="1"/>
+    <col min="12035" max="12036" width="20.7109375" style="46" customWidth="1"/>
+    <col min="12037" max="12037" width="9" style="46" customWidth="1"/>
+    <col min="12038" max="12038" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12288" width="9.140625" style="46"/>
+    <col min="12289" max="12289" width="1.85546875" style="46" customWidth="1"/>
+    <col min="12290" max="12290" width="33.28515625" style="46" customWidth="1"/>
+    <col min="12291" max="12292" width="20.7109375" style="46" customWidth="1"/>
+    <col min="12293" max="12293" width="9" style="46" customWidth="1"/>
+    <col min="12294" max="12294" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12544" width="9.140625" style="46"/>
+    <col min="12545" max="12545" width="1.85546875" style="46" customWidth="1"/>
+    <col min="12546" max="12546" width="33.28515625" style="46" customWidth="1"/>
+    <col min="12547" max="12548" width="20.7109375" style="46" customWidth="1"/>
+    <col min="12549" max="12549" width="9" style="46" customWidth="1"/>
+    <col min="12550" max="12550" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12800" width="9.140625" style="46"/>
+    <col min="12801" max="12801" width="1.85546875" style="46" customWidth="1"/>
+    <col min="12802" max="12802" width="33.28515625" style="46" customWidth="1"/>
+    <col min="12803" max="12804" width="20.7109375" style="46" customWidth="1"/>
+    <col min="12805" max="12805" width="9" style="46" customWidth="1"/>
+    <col min="12806" max="12806" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="12809" max="13056" width="9.140625" style="46"/>
+    <col min="13057" max="13057" width="1.85546875" style="46" customWidth="1"/>
+    <col min="13058" max="13058" width="33.28515625" style="46" customWidth="1"/>
+    <col min="13059" max="13060" width="20.7109375" style="46" customWidth="1"/>
+    <col min="13061" max="13061" width="9" style="46" customWidth="1"/>
+    <col min="13062" max="13062" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13312" width="9.140625" style="46"/>
+    <col min="13313" max="13313" width="1.85546875" style="46" customWidth="1"/>
+    <col min="13314" max="13314" width="33.28515625" style="46" customWidth="1"/>
+    <col min="13315" max="13316" width="20.7109375" style="46" customWidth="1"/>
+    <col min="13317" max="13317" width="9" style="46" customWidth="1"/>
+    <col min="13318" max="13318" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13568" width="9.140625" style="46"/>
+    <col min="13569" max="13569" width="1.85546875" style="46" customWidth="1"/>
+    <col min="13570" max="13570" width="33.28515625" style="46" customWidth="1"/>
+    <col min="13571" max="13572" width="20.7109375" style="46" customWidth="1"/>
+    <col min="13573" max="13573" width="9" style="46" customWidth="1"/>
+    <col min="13574" max="13574" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13824" width="9.140625" style="46"/>
+    <col min="13825" max="13825" width="1.85546875" style="46" customWidth="1"/>
+    <col min="13826" max="13826" width="33.28515625" style="46" customWidth="1"/>
+    <col min="13827" max="13828" width="20.7109375" style="46" customWidth="1"/>
+    <col min="13829" max="13829" width="9" style="46" customWidth="1"/>
+    <col min="13830" max="13830" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="13833" max="14080" width="9.140625" style="46"/>
+    <col min="14081" max="14081" width="1.85546875" style="46" customWidth="1"/>
+    <col min="14082" max="14082" width="33.28515625" style="46" customWidth="1"/>
+    <col min="14083" max="14084" width="20.7109375" style="46" customWidth="1"/>
+    <col min="14085" max="14085" width="9" style="46" customWidth="1"/>
+    <col min="14086" max="14086" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14336" width="9.140625" style="46"/>
+    <col min="14337" max="14337" width="1.85546875" style="46" customWidth="1"/>
+    <col min="14338" max="14338" width="33.28515625" style="46" customWidth="1"/>
+    <col min="14339" max="14340" width="20.7109375" style="46" customWidth="1"/>
+    <col min="14341" max="14341" width="9" style="46" customWidth="1"/>
+    <col min="14342" max="14342" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14592" width="9.140625" style="46"/>
+    <col min="14593" max="14593" width="1.85546875" style="46" customWidth="1"/>
+    <col min="14594" max="14594" width="33.28515625" style="46" customWidth="1"/>
+    <col min="14595" max="14596" width="20.7109375" style="46" customWidth="1"/>
+    <col min="14597" max="14597" width="9" style="46" customWidth="1"/>
+    <col min="14598" max="14598" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14848" width="9.140625" style="46"/>
+    <col min="14849" max="14849" width="1.85546875" style="46" customWidth="1"/>
+    <col min="14850" max="14850" width="33.28515625" style="46" customWidth="1"/>
+    <col min="14851" max="14852" width="20.7109375" style="46" customWidth="1"/>
+    <col min="14853" max="14853" width="9" style="46" customWidth="1"/>
+    <col min="14854" max="14854" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="14857" max="15104" width="9.140625" style="46"/>
+    <col min="15105" max="15105" width="1.85546875" style="46" customWidth="1"/>
+    <col min="15106" max="15106" width="33.28515625" style="46" customWidth="1"/>
+    <col min="15107" max="15108" width="20.7109375" style="46" customWidth="1"/>
+    <col min="15109" max="15109" width="9" style="46" customWidth="1"/>
+    <col min="15110" max="15110" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15360" width="9.140625" style="46"/>
+    <col min="15361" max="15361" width="1.85546875" style="46" customWidth="1"/>
+    <col min="15362" max="15362" width="33.28515625" style="46" customWidth="1"/>
+    <col min="15363" max="15364" width="20.7109375" style="46" customWidth="1"/>
+    <col min="15365" max="15365" width="9" style="46" customWidth="1"/>
+    <col min="15366" max="15366" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15616" width="9.140625" style="46"/>
+    <col min="15617" max="15617" width="1.85546875" style="46" customWidth="1"/>
+    <col min="15618" max="15618" width="33.28515625" style="46" customWidth="1"/>
+    <col min="15619" max="15620" width="20.7109375" style="46" customWidth="1"/>
+    <col min="15621" max="15621" width="9" style="46" customWidth="1"/>
+    <col min="15622" max="15622" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15872" width="9.140625" style="46"/>
+    <col min="15873" max="15873" width="1.85546875" style="46" customWidth="1"/>
+    <col min="15874" max="15874" width="33.28515625" style="46" customWidth="1"/>
+    <col min="15875" max="15876" width="20.7109375" style="46" customWidth="1"/>
+    <col min="15877" max="15877" width="9" style="46" customWidth="1"/>
+    <col min="15878" max="15878" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="15881" max="16128" width="9.140625" style="46"/>
+    <col min="16129" max="16129" width="1.85546875" style="46" customWidth="1"/>
+    <col min="16130" max="16130" width="33.28515625" style="46" customWidth="1"/>
+    <col min="16131" max="16132" width="20.7109375" style="46" customWidth="1"/>
+    <col min="16133" max="16133" width="9" style="46" customWidth="1"/>
+    <col min="16134" max="16134" width="16" style="46" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="16.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16384" width="9.140625" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="14.25">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+    </row>
+    <row r="2" spans="2:11" ht="14.25">
+      <c r="B2" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+    </row>
+    <row r="3" spans="2:11" ht="25.5">
+      <c r="C3" s="48">
+        <v>42185</v>
+      </c>
+      <c r="D3" s="48">
+        <v>42551</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="14.25">
+      <c r="B4" s="50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="52">
+        <v>36363205000</v>
+      </c>
+      <c r="D5" s="52">
+        <v>37667162029</v>
+      </c>
+      <c r="E5" s="53">
+        <v>3.5859243677778041E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="54">
+        <v>791692212</v>
+      </c>
+      <c r="D6" s="54">
+        <v>828167983</v>
+      </c>
+      <c r="E6" s="53">
+        <v>4.607317142586731E-2</v>
+      </c>
+      <c r="F6" s="119">
+        <f>D6+D7</f>
+        <v>1062059552</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="54">
+        <v>222925307</v>
+      </c>
+      <c r="D7" s="54">
+        <v>233891569</v>
+      </c>
+      <c r="E7" s="53">
+        <v>4.9192539633914345E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="54">
+        <v>381834663</v>
+      </c>
+      <c r="D8" s="54">
+        <v>405896494</v>
+      </c>
+      <c r="E8" s="53">
+        <v>6.3016361089249795E-2</v>
+      </c>
+      <c r="G8" s="50"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="54">
+        <v>0</v>
+      </c>
+      <c r="D9" s="54">
+        <v>0</v>
+      </c>
+      <c r="E9" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="15.75">
+      <c r="B10" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="54">
+        <v>101001212</v>
+      </c>
+      <c r="D10" s="54">
+        <v>125975786</v>
+      </c>
+      <c r="E10" s="53">
+        <v>0.24727004266047814</v>
+      </c>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="54">
+        <v>2084837233</v>
+      </c>
+      <c r="D11" s="54">
+        <v>2190015114</v>
+      </c>
+      <c r="E11" s="53">
+        <v>5.0448965192670281E-2</v>
+      </c>
+      <c r="H11" s="50"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.75">
+      <c r="B12" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="54">
+        <v>2741017949</v>
+      </c>
+      <c r="D12" s="54">
+        <v>2659607405</v>
+      </c>
+      <c r="E12" s="53">
+        <v>-2.9700843086306938E-2</v>
+      </c>
+      <c r="H12" s="55"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.75">
+      <c r="B13" s="51"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="55"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75">
+      <c r="B14" s="51"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" s="55"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75">
+      <c r="B15" s="51"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="55"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75">
+      <c r="B16" s="51"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="55"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.75">
+      <c r="B17" s="51"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="55"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.75">
+      <c r="B18" s="51"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" s="50"/>
+      <c r="H18" s="55"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.75">
+      <c r="B19" s="51"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="50"/>
+      <c r="H19" s="55"/>
+    </row>
+    <row r="20" spans="2:9" ht="15.75">
+      <c r="B20" s="51"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" s="57"/>
+      <c r="H20" s="55"/>
+    </row>
+    <row r="21" spans="2:9" ht="15.75">
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="60"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="55"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="62">
+        <v>42686513576</v>
+      </c>
+      <c r="D22" s="62">
+        <v>44110716380</v>
+      </c>
+      <c r="E22" s="63">
+        <v>3.336423344727657E-2</v>
+      </c>
+      <c r="G22" s="57"/>
+    </row>
+    <row r="23" spans="2:9" ht="14.25">
+      <c r="B23" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" s="57"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="52">
+        <v>37425037260</v>
+      </c>
+      <c r="D24" s="52">
+        <v>36908685919</v>
+      </c>
+      <c r="E24" s="53">
+        <v>-1.3796949283251037E-2</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="G24" s="118">
+        <f>D24+D26</f>
+        <v>37988259515</v>
+      </c>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="54">
+        <v>558470005</v>
+      </c>
+      <c r="D25" s="54">
+        <v>562967821</v>
+      </c>
+      <c r="E25" s="53">
+        <v>8.0538183962091114E-3</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" s="119">
+        <f>D25+D27</f>
+        <v>849689324</v>
+      </c>
+      <c r="H25" s="57"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="54">
+        <v>1034456272</v>
+      </c>
+      <c r="D26" s="54">
+        <v>1079573596</v>
+      </c>
+      <c r="E26" s="53">
+        <v>4.3614529894792975E-2</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="G26" s="72">
+        <f>SUM(D29:D30)</f>
+        <v>2813575411</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="54">
+        <v>288995259</v>
+      </c>
+      <c r="D27" s="54">
+        <v>286721503</v>
+      </c>
+      <c r="E27" s="53">
+        <v>-7.8677968900521256E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="54">
+        <v>0</v>
+      </c>
+      <c r="D28" s="54">
+        <v>0</v>
+      </c>
+      <c r="E28" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="54">
+        <v>2749677436</v>
+      </c>
+      <c r="D29" s="54">
+        <v>2776517792</v>
+      </c>
+      <c r="E29" s="53">
+        <v>9.7612744129889073E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15">
+      <c r="B30" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="54">
+        <v>38472799</v>
+      </c>
+      <c r="D30" s="54">
+        <v>37057619</v>
+      </c>
+      <c r="E30" s="53">
+        <v>-3.6783910627349981E-2</v>
+      </c>
+      <c r="H30" s="66"/>
+    </row>
+    <row r="31" spans="2:9" ht="15">
+      <c r="B31" s="51"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="66"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="51"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="B33" s="51"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="67" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="62">
+        <v>42095109031</v>
+      </c>
+      <c r="D34" s="68">
+        <v>41651524250</v>
+      </c>
+      <c r="E34" s="67">
+        <v>-1.0537679821029378E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" s="69" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="62">
+        <v>84781622607</v>
+      </c>
+      <c r="D35" s="62">
+        <v>85762240630</v>
+      </c>
+      <c r="E35" s="67">
+        <v>1.1566398387367505E-2</v>
+      </c>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.25">
+      <c r="B36" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="70">
+        <v>2939042895</v>
+      </c>
+      <c r="D36" s="70">
+        <v>3083988637</v>
+      </c>
+      <c r="E36" s="71">
+        <v>4.9317327843900083E-2</v>
+      </c>
+      <c r="H36" s="72"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="73">
+        <v>1</v>
+      </c>
+      <c r="B38" s="74" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="73">
+        <v>2</v>
+      </c>
+      <c r="B39" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="73">
+        <v>3</v>
+      </c>
+      <c r="B40" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+    </row>
+    <row r="41" spans="1:8" ht="13.5">
+      <c r="A41" s="76">
+        <v>4</v>
+      </c>
+      <c r="B41" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H24:I24"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E4:E22 E24:E36">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>ISERROR(E4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Benefit type; e.g., Service Retirement, Ordinary Disability" sqref="B5 IX5 ST5 ACP5 AML5 AWH5 BGD5 BPZ5 BZV5 CJR5 CTN5 DDJ5 DNF5 DXB5 EGX5 EQT5 FAP5 FKL5 FUH5 GED5 GNZ5 GXV5 HHR5 HRN5 IBJ5 ILF5 IVB5 JEX5 JOT5 JYP5 KIL5 KSH5 LCD5 LLZ5 LVV5 MFR5 MPN5 MZJ5 NJF5 NTB5 OCX5 OMT5 OWP5 PGL5 PQH5 QAD5 QJZ5 QTV5 RDR5 RNN5 RXJ5 SHF5 SRB5 TAX5 TKT5 TUP5 UEL5 UOH5 UYD5 VHZ5 VRV5 WBR5 WLN5 WVJ5 B65541 IX65541 ST65541 ACP65541 AML65541 AWH65541 BGD65541 BPZ65541 BZV65541 CJR65541 CTN65541 DDJ65541 DNF65541 DXB65541 EGX65541 EQT65541 FAP65541 FKL65541 FUH65541 GED65541 GNZ65541 GXV65541 HHR65541 HRN65541 IBJ65541 ILF65541 IVB65541 JEX65541 JOT65541 JYP65541 KIL65541 KSH65541 LCD65541 LLZ65541 LVV65541 MFR65541 MPN65541 MZJ65541 NJF65541 NTB65541 OCX65541 OMT65541 OWP65541 PGL65541 PQH65541 QAD65541 QJZ65541 QTV65541 RDR65541 RNN65541 RXJ65541 SHF65541 SRB65541 TAX65541 TKT65541 TUP65541 UEL65541 UOH65541 UYD65541 VHZ65541 VRV65541 WBR65541 WLN65541 WVJ65541 B131077 IX131077 ST131077 ACP131077 AML131077 AWH131077 BGD131077 BPZ131077 BZV131077 CJR131077 CTN131077 DDJ131077 DNF131077 DXB131077 EGX131077 EQT131077 FAP131077 FKL131077 FUH131077 GED131077 GNZ131077 GXV131077 HHR131077 HRN131077 IBJ131077 ILF131077 IVB131077 JEX131077 JOT131077 JYP131077 KIL131077 KSH131077 LCD131077 LLZ131077 LVV131077 MFR131077 MPN131077 MZJ131077 NJF131077 NTB131077 OCX131077 OMT131077 OWP131077 PGL131077 PQH131077 QAD131077 QJZ131077 QTV131077 RDR131077 RNN131077 RXJ131077 SHF131077 SRB131077 TAX131077 TKT131077 TUP131077 UEL131077 UOH131077 UYD131077 VHZ131077 VRV131077 WBR131077 WLN131077 WVJ131077 B196613 IX196613 ST196613 ACP196613 AML196613 AWH196613 BGD196613 BPZ196613 BZV196613 CJR196613 CTN196613 DDJ196613 DNF196613 DXB196613 EGX196613 EQT196613 FAP196613 FKL196613 FUH196613 GED196613 GNZ196613 GXV196613 HHR196613 HRN196613 IBJ196613 ILF196613 IVB196613 JEX196613 JOT196613 JYP196613 KIL196613 KSH196613 LCD196613 LLZ196613 LVV196613 MFR196613 MPN196613 MZJ196613 NJF196613 NTB196613 OCX196613 OMT196613 OWP196613 PGL196613 PQH196613 QAD196613 QJZ196613 QTV196613 RDR196613 RNN196613 RXJ196613 SHF196613 SRB196613 TAX196613 TKT196613 TUP196613 UEL196613 UOH196613 UYD196613 VHZ196613 VRV196613 WBR196613 WLN196613 WVJ196613 B262149 IX262149 ST262149 ACP262149 AML262149 AWH262149 BGD262149 BPZ262149 BZV262149 CJR262149 CTN262149 DDJ262149 DNF262149 DXB262149 EGX262149 EQT262149 FAP262149 FKL262149 FUH262149 GED262149 GNZ262149 GXV262149 HHR262149 HRN262149 IBJ262149 ILF262149 IVB262149 JEX262149 JOT262149 JYP262149 KIL262149 KSH262149 LCD262149 LLZ262149 LVV262149 MFR262149 MPN262149 MZJ262149 NJF262149 NTB262149 OCX262149 OMT262149 OWP262149 PGL262149 PQH262149 QAD262149 QJZ262149 QTV262149 RDR262149 RNN262149 RXJ262149 SHF262149 SRB262149 TAX262149 TKT262149 TUP262149 UEL262149 UOH262149 UYD262149 VHZ262149 VRV262149 WBR262149 WLN262149 WVJ262149 B327685 IX327685 ST327685 ACP327685 AML327685 AWH327685 BGD327685 BPZ327685 BZV327685 CJR327685 CTN327685 DDJ327685 DNF327685 DXB327685 EGX327685 EQT327685 FAP327685 FKL327685 FUH327685 GED327685 GNZ327685 GXV327685 HHR327685 HRN327685 IBJ327685 ILF327685 IVB327685 JEX327685 JOT327685 JYP327685 KIL327685 KSH327685 LCD327685 LLZ327685 LVV327685 MFR327685 MPN327685 MZJ327685 NJF327685 NTB327685 OCX327685 OMT327685 OWP327685 PGL327685 PQH327685 QAD327685 QJZ327685 QTV327685 RDR327685 RNN327685 RXJ327685 SHF327685 SRB327685 TAX327685 TKT327685 TUP327685 UEL327685 UOH327685 UYD327685 VHZ327685 VRV327685 WBR327685 WLN327685 WVJ327685 B393221 IX393221 ST393221 ACP393221 AML393221 AWH393221 BGD393221 BPZ393221 BZV393221 CJR393221 CTN393221 DDJ393221 DNF393221 DXB393221 EGX393221 EQT393221 FAP393221 FKL393221 FUH393221 GED393221 GNZ393221 GXV393221 HHR393221 HRN393221 IBJ393221 ILF393221 IVB393221 JEX393221 JOT393221 JYP393221 KIL393221 KSH393221 LCD393221 LLZ393221 LVV393221 MFR393221 MPN393221 MZJ393221 NJF393221 NTB393221 OCX393221 OMT393221 OWP393221 PGL393221 PQH393221 QAD393221 QJZ393221 QTV393221 RDR393221 RNN393221 RXJ393221 SHF393221 SRB393221 TAX393221 TKT393221 TUP393221 UEL393221 UOH393221 UYD393221 VHZ393221 VRV393221 WBR393221 WLN393221 WVJ393221 B458757 IX458757 ST458757 ACP458757 AML458757 AWH458757 BGD458757 BPZ458757 BZV458757 CJR458757 CTN458757 DDJ458757 DNF458757 DXB458757 EGX458757 EQT458757 FAP458757 FKL458757 FUH458757 GED458757 GNZ458757 GXV458757 HHR458757 HRN458757 IBJ458757 ILF458757 IVB458757 JEX458757 JOT458757 JYP458757 KIL458757 KSH458757 LCD458757 LLZ458757 LVV458757 MFR458757 MPN458757 MZJ458757 NJF458757 NTB458757 OCX458757 OMT458757 OWP458757 PGL458757 PQH458757 QAD458757 QJZ458757 QTV458757 RDR458757 RNN458757 RXJ458757 SHF458757 SRB458757 TAX458757 TKT458757 TUP458757 UEL458757 UOH458757 UYD458757 VHZ458757 VRV458757 WBR458757 WLN458757 WVJ458757 B524293 IX524293 ST524293 ACP524293 AML524293 AWH524293 BGD524293 BPZ524293 BZV524293 CJR524293 CTN524293 DDJ524293 DNF524293 DXB524293 EGX524293 EQT524293 FAP524293 FKL524293 FUH524293 GED524293 GNZ524293 GXV524293 HHR524293 HRN524293 IBJ524293 ILF524293 IVB524293 JEX524293 JOT524293 JYP524293 KIL524293 KSH524293 LCD524293 LLZ524293 LVV524293 MFR524293 MPN524293 MZJ524293 NJF524293 NTB524293 OCX524293 OMT524293 OWP524293 PGL524293 PQH524293 QAD524293 QJZ524293 QTV524293 RDR524293 RNN524293 RXJ524293 SHF524293 SRB524293 TAX524293 TKT524293 TUP524293 UEL524293 UOH524293 UYD524293 VHZ524293 VRV524293 WBR524293 WLN524293 WVJ524293 B589829 IX589829 ST589829 ACP589829 AML589829 AWH589829 BGD589829 BPZ589829 BZV589829 CJR589829 CTN589829 DDJ589829 DNF589829 DXB589829 EGX589829 EQT589829 FAP589829 FKL589829 FUH589829 GED589829 GNZ589829 GXV589829 HHR589829 HRN589829 IBJ589829 ILF589829 IVB589829 JEX589829 JOT589829 JYP589829 KIL589829 KSH589829 LCD589829 LLZ589829 LVV589829 MFR589829 MPN589829 MZJ589829 NJF589829 NTB589829 OCX589829 OMT589829 OWP589829 PGL589829 PQH589829 QAD589829 QJZ589829 QTV589829 RDR589829 RNN589829 RXJ589829 SHF589829 SRB589829 TAX589829 TKT589829 TUP589829 UEL589829 UOH589829 UYD589829 VHZ589829 VRV589829 WBR589829 WLN589829 WVJ589829 B655365 IX655365 ST655365 ACP655365 AML655365 AWH655365 BGD655365 BPZ655365 BZV655365 CJR655365 CTN655365 DDJ655365 DNF655365 DXB655365 EGX655365 EQT655365 FAP655365 FKL655365 FUH655365 GED655365 GNZ655365 GXV655365 HHR655365 HRN655365 IBJ655365 ILF655365 IVB655365 JEX655365 JOT655365 JYP655365 KIL655365 KSH655365 LCD655365 LLZ655365 LVV655365 MFR655365 MPN655365 MZJ655365 NJF655365 NTB655365 OCX655365 OMT655365 OWP655365 PGL655365 PQH655365 QAD655365 QJZ655365 QTV655365 RDR655365 RNN655365 RXJ655365 SHF655365 SRB655365 TAX655365 TKT655365 TUP655365 UEL655365 UOH655365 UYD655365 VHZ655365 VRV655365 WBR655365 WLN655365 WVJ655365 B720901 IX720901 ST720901 ACP720901 AML720901 AWH720901 BGD720901 BPZ720901 BZV720901 CJR720901 CTN720901 DDJ720901 DNF720901 DXB720901 EGX720901 EQT720901 FAP720901 FKL720901 FUH720901 GED720901 GNZ720901 GXV720901 HHR720901 HRN720901 IBJ720901 ILF720901 IVB720901 JEX720901 JOT720901 JYP720901 KIL720901 KSH720901 LCD720901 LLZ720901 LVV720901 MFR720901 MPN720901 MZJ720901 NJF720901 NTB720901 OCX720901 OMT720901 OWP720901 PGL720901 PQH720901 QAD720901 QJZ720901 QTV720901 RDR720901 RNN720901 RXJ720901 SHF720901 SRB720901 TAX720901 TKT720901 TUP720901 UEL720901 UOH720901 UYD720901 VHZ720901 VRV720901 WBR720901 WLN720901 WVJ720901 B786437 IX786437 ST786437 ACP786437 AML786437 AWH786437 BGD786437 BPZ786437 BZV786437 CJR786437 CTN786437 DDJ786437 DNF786437 DXB786437 EGX786437 EQT786437 FAP786437 FKL786437 FUH786437 GED786437 GNZ786437 GXV786437 HHR786437 HRN786437 IBJ786437 ILF786437 IVB786437 JEX786437 JOT786437 JYP786437 KIL786437 KSH786437 LCD786437 LLZ786437 LVV786437 MFR786437 MPN786437 MZJ786437 NJF786437 NTB786437 OCX786437 OMT786437 OWP786437 PGL786437 PQH786437 QAD786437 QJZ786437 QTV786437 RDR786437 RNN786437 RXJ786437 SHF786437 SRB786437 TAX786437 TKT786437 TUP786437 UEL786437 UOH786437 UYD786437 VHZ786437 VRV786437 WBR786437 WLN786437 WVJ786437 B851973 IX851973 ST851973 ACP851973 AML851973 AWH851973 BGD851973 BPZ851973 BZV851973 CJR851973 CTN851973 DDJ851973 DNF851973 DXB851973 EGX851973 EQT851973 FAP851973 FKL851973 FUH851973 GED851973 GNZ851973 GXV851973 HHR851973 HRN851973 IBJ851973 ILF851973 IVB851973 JEX851973 JOT851973 JYP851973 KIL851973 KSH851973 LCD851973 LLZ851973 LVV851973 MFR851973 MPN851973 MZJ851973 NJF851973 NTB851973 OCX851973 OMT851973 OWP851973 PGL851973 PQH851973 QAD851973 QJZ851973 QTV851973 RDR851973 RNN851973 RXJ851973 SHF851973 SRB851973 TAX851973 TKT851973 TUP851973 UEL851973 UOH851973 UYD851973 VHZ851973 VRV851973 WBR851973 WLN851973 WVJ851973 B917509 IX917509 ST917509 ACP917509 AML917509 AWH917509 BGD917509 BPZ917509 BZV917509 CJR917509 CTN917509 DDJ917509 DNF917509 DXB917509 EGX917509 EQT917509 FAP917509 FKL917509 FUH917509 GED917509 GNZ917509 GXV917509 HHR917509 HRN917509 IBJ917509 ILF917509 IVB917509 JEX917509 JOT917509 JYP917509 KIL917509 KSH917509 LCD917509 LLZ917509 LVV917509 MFR917509 MPN917509 MZJ917509 NJF917509 NTB917509 OCX917509 OMT917509 OWP917509 PGL917509 PQH917509 QAD917509 QJZ917509 QTV917509 RDR917509 RNN917509 RXJ917509 SHF917509 SRB917509 TAX917509 TKT917509 TUP917509 UEL917509 UOH917509 UYD917509 VHZ917509 VRV917509 WBR917509 WLN917509 WVJ917509 B983045 IX983045 ST983045 ACP983045 AML983045 AWH983045 BGD983045 BPZ983045 BZV983045 CJR983045 CTN983045 DDJ983045 DNF983045 DXB983045 EGX983045 EQT983045 FAP983045 FKL983045 FUH983045 GED983045 GNZ983045 GXV983045 HHR983045 HRN983045 IBJ983045 ILF983045 IVB983045 JEX983045 JOT983045 JYP983045 KIL983045 KSH983045 LCD983045 LLZ983045 LVV983045 MFR983045 MPN983045 MZJ983045 NJF983045 NTB983045 OCX983045 OMT983045 OWP983045 PGL983045 PQH983045 QAD983045 QJZ983045 QTV983045 RDR983045 RNN983045 RXJ983045 SHF983045 SRB983045 TAX983045 TKT983045 TUP983045 UEL983045 UOH983045 UYD983045 VHZ983045 VRV983045 WBR983045 WLN983045 WVJ983045" xr:uid="{411B6AD8-C140-4F7B-9718-373BA02B0C91}"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Present Value of Benefits for prior fiscal year to nearest dollar" sqref="C5:D5 IY5:IZ5 SU5:SV5 ACQ5:ACR5 AMM5:AMN5 AWI5:AWJ5 BGE5:BGF5 BQA5:BQB5 BZW5:BZX5 CJS5:CJT5 CTO5:CTP5 DDK5:DDL5 DNG5:DNH5 DXC5:DXD5 EGY5:EGZ5 EQU5:EQV5 FAQ5:FAR5 FKM5:FKN5 FUI5:FUJ5 GEE5:GEF5 GOA5:GOB5 GXW5:GXX5 HHS5:HHT5 HRO5:HRP5 IBK5:IBL5 ILG5:ILH5 IVC5:IVD5 JEY5:JEZ5 JOU5:JOV5 JYQ5:JYR5 KIM5:KIN5 KSI5:KSJ5 LCE5:LCF5 LMA5:LMB5 LVW5:LVX5 MFS5:MFT5 MPO5:MPP5 MZK5:MZL5 NJG5:NJH5 NTC5:NTD5 OCY5:OCZ5 OMU5:OMV5 OWQ5:OWR5 PGM5:PGN5 PQI5:PQJ5 QAE5:QAF5 QKA5:QKB5 QTW5:QTX5 RDS5:RDT5 RNO5:RNP5 RXK5:RXL5 SHG5:SHH5 SRC5:SRD5 TAY5:TAZ5 TKU5:TKV5 TUQ5:TUR5 UEM5:UEN5 UOI5:UOJ5 UYE5:UYF5 VIA5:VIB5 VRW5:VRX5 WBS5:WBT5 WLO5:WLP5 WVK5:WVL5 C65541:D65541 IY65541:IZ65541 SU65541:SV65541 ACQ65541:ACR65541 AMM65541:AMN65541 AWI65541:AWJ65541 BGE65541:BGF65541 BQA65541:BQB65541 BZW65541:BZX65541 CJS65541:CJT65541 CTO65541:CTP65541 DDK65541:DDL65541 DNG65541:DNH65541 DXC65541:DXD65541 EGY65541:EGZ65541 EQU65541:EQV65541 FAQ65541:FAR65541 FKM65541:FKN65541 FUI65541:FUJ65541 GEE65541:GEF65541 GOA65541:GOB65541 GXW65541:GXX65541 HHS65541:HHT65541 HRO65541:HRP65541 IBK65541:IBL65541 ILG65541:ILH65541 IVC65541:IVD65541 JEY65541:JEZ65541 JOU65541:JOV65541 JYQ65541:JYR65541 KIM65541:KIN65541 KSI65541:KSJ65541 LCE65541:LCF65541 LMA65541:LMB65541 LVW65541:LVX65541 MFS65541:MFT65541 MPO65541:MPP65541 MZK65541:MZL65541 NJG65541:NJH65541 NTC65541:NTD65541 OCY65541:OCZ65541 OMU65541:OMV65541 OWQ65541:OWR65541 PGM65541:PGN65541 PQI65541:PQJ65541 QAE65541:QAF65541 QKA65541:QKB65541 QTW65541:QTX65541 RDS65541:RDT65541 RNO65541:RNP65541 RXK65541:RXL65541 SHG65541:SHH65541 SRC65541:SRD65541 TAY65541:TAZ65541 TKU65541:TKV65541 TUQ65541:TUR65541 UEM65541:UEN65541 UOI65541:UOJ65541 UYE65541:UYF65541 VIA65541:VIB65541 VRW65541:VRX65541 WBS65541:WBT65541 WLO65541:WLP65541 WVK65541:WVL65541 C131077:D131077 IY131077:IZ131077 SU131077:SV131077 ACQ131077:ACR131077 AMM131077:AMN131077 AWI131077:AWJ131077 BGE131077:BGF131077 BQA131077:BQB131077 BZW131077:BZX131077 CJS131077:CJT131077 CTO131077:CTP131077 DDK131077:DDL131077 DNG131077:DNH131077 DXC131077:DXD131077 EGY131077:EGZ131077 EQU131077:EQV131077 FAQ131077:FAR131077 FKM131077:FKN131077 FUI131077:FUJ131077 GEE131077:GEF131077 GOA131077:GOB131077 GXW131077:GXX131077 HHS131077:HHT131077 HRO131077:HRP131077 IBK131077:IBL131077 ILG131077:ILH131077 IVC131077:IVD131077 JEY131077:JEZ131077 JOU131077:JOV131077 JYQ131077:JYR131077 KIM131077:KIN131077 KSI131077:KSJ131077 LCE131077:LCF131077 LMA131077:LMB131077 LVW131077:LVX131077 MFS131077:MFT131077 MPO131077:MPP131077 MZK131077:MZL131077 NJG131077:NJH131077 NTC131077:NTD131077 OCY131077:OCZ131077 OMU131077:OMV131077 OWQ131077:OWR131077 PGM131077:PGN131077 PQI131077:PQJ131077 QAE131077:QAF131077 QKA131077:QKB131077 QTW131077:QTX131077 RDS131077:RDT131077 RNO131077:RNP131077 RXK131077:RXL131077 SHG131077:SHH131077 SRC131077:SRD131077 TAY131077:TAZ131077 TKU131077:TKV131077 TUQ131077:TUR131077 UEM131077:UEN131077 UOI131077:UOJ131077 UYE131077:UYF131077 VIA131077:VIB131077 VRW131077:VRX131077 WBS131077:WBT131077 WLO131077:WLP131077 WVK131077:WVL131077 C196613:D196613 IY196613:IZ196613 SU196613:SV196613 ACQ196613:ACR196613 AMM196613:AMN196613 AWI196613:AWJ196613 BGE196613:BGF196613 BQA196613:BQB196613 BZW196613:BZX196613 CJS196613:CJT196613 CTO196613:CTP196613 DDK196613:DDL196613 DNG196613:DNH196613 DXC196613:DXD196613 EGY196613:EGZ196613 EQU196613:EQV196613 FAQ196613:FAR196613 FKM196613:FKN196613 FUI196613:FUJ196613 GEE196613:GEF196613 GOA196613:GOB196613 GXW196613:GXX196613 HHS196613:HHT196613 HRO196613:HRP196613 IBK196613:IBL196613 ILG196613:ILH196613 IVC196613:IVD196613 JEY196613:JEZ196613 JOU196613:JOV196613 JYQ196613:JYR196613 KIM196613:KIN196613 KSI196613:KSJ196613 LCE196613:LCF196613 LMA196613:LMB196613 LVW196613:LVX196613 MFS196613:MFT196613 MPO196613:MPP196613 MZK196613:MZL196613 NJG196613:NJH196613 NTC196613:NTD196613 OCY196613:OCZ196613 OMU196613:OMV196613 OWQ196613:OWR196613 PGM196613:PGN196613 PQI196613:PQJ196613 QAE196613:QAF196613 QKA196613:QKB196613 QTW196613:QTX196613 RDS196613:RDT196613 RNO196613:RNP196613 RXK196613:RXL196613 SHG196613:SHH196613 SRC196613:SRD196613 TAY196613:TAZ196613 TKU196613:TKV196613 TUQ196613:TUR196613 UEM196613:UEN196613 UOI196613:UOJ196613 UYE196613:UYF196613 VIA196613:VIB196613 VRW196613:VRX196613 WBS196613:WBT196613 WLO196613:WLP196613 WVK196613:WVL196613 C262149:D262149 IY262149:IZ262149 SU262149:SV262149 ACQ262149:ACR262149 AMM262149:AMN262149 AWI262149:AWJ262149 BGE262149:BGF262149 BQA262149:BQB262149 BZW262149:BZX262149 CJS262149:CJT262149 CTO262149:CTP262149 DDK262149:DDL262149 DNG262149:DNH262149 DXC262149:DXD262149 EGY262149:EGZ262149 EQU262149:EQV262149 FAQ262149:FAR262149 FKM262149:FKN262149 FUI262149:FUJ262149 GEE262149:GEF262149 GOA262149:GOB262149 GXW262149:GXX262149 HHS262149:HHT262149 HRO262149:HRP262149 IBK262149:IBL262149 ILG262149:ILH262149 IVC262149:IVD262149 JEY262149:JEZ262149 JOU262149:JOV262149 JYQ262149:JYR262149 KIM262149:KIN262149 KSI262149:KSJ262149 LCE262149:LCF262149 LMA262149:LMB262149 LVW262149:LVX262149 MFS262149:MFT262149 MPO262149:MPP262149 MZK262149:MZL262149 NJG262149:NJH262149 NTC262149:NTD262149 OCY262149:OCZ262149 OMU262149:OMV262149 OWQ262149:OWR262149 PGM262149:PGN262149 PQI262149:PQJ262149 QAE262149:QAF262149 QKA262149:QKB262149 QTW262149:QTX262149 RDS262149:RDT262149 RNO262149:RNP262149 RXK262149:RXL262149 SHG262149:SHH262149 SRC262149:SRD262149 TAY262149:TAZ262149 TKU262149:TKV262149 TUQ262149:TUR262149 UEM262149:UEN262149 UOI262149:UOJ262149 UYE262149:UYF262149 VIA262149:VIB262149 VRW262149:VRX262149 WBS262149:WBT262149 WLO262149:WLP262149 WVK262149:WVL262149 C327685:D327685 IY327685:IZ327685 SU327685:SV327685 ACQ327685:ACR327685 AMM327685:AMN327685 AWI327685:AWJ327685 BGE327685:BGF327685 BQA327685:BQB327685 BZW327685:BZX327685 CJS327685:CJT327685 CTO327685:CTP327685 DDK327685:DDL327685 DNG327685:DNH327685 DXC327685:DXD327685 EGY327685:EGZ327685 EQU327685:EQV327685 FAQ327685:FAR327685 FKM327685:FKN327685 FUI327685:FUJ327685 GEE327685:GEF327685 GOA327685:GOB327685 GXW327685:GXX327685 HHS327685:HHT327685 HRO327685:HRP327685 IBK327685:IBL327685 ILG327685:ILH327685 IVC327685:IVD327685 JEY327685:JEZ327685 JOU327685:JOV327685 JYQ327685:JYR327685 KIM327685:KIN327685 KSI327685:KSJ327685 LCE327685:LCF327685 LMA327685:LMB327685 LVW327685:LVX327685 MFS327685:MFT327685 MPO327685:MPP327685 MZK327685:MZL327685 NJG327685:NJH327685 NTC327685:NTD327685 OCY327685:OCZ327685 OMU327685:OMV327685 OWQ327685:OWR327685 PGM327685:PGN327685 PQI327685:PQJ327685 QAE327685:QAF327685 QKA327685:QKB327685 QTW327685:QTX327685 RDS327685:RDT327685 RNO327685:RNP327685 RXK327685:RXL327685 SHG327685:SHH327685 SRC327685:SRD327685 TAY327685:TAZ327685 TKU327685:TKV327685 TUQ327685:TUR327685 UEM327685:UEN327685 UOI327685:UOJ327685 UYE327685:UYF327685 VIA327685:VIB327685 VRW327685:VRX327685 WBS327685:WBT327685 WLO327685:WLP327685 WVK327685:WVL327685 C393221:D393221 IY393221:IZ393221 SU393221:SV393221 ACQ393221:ACR393221 AMM393221:AMN393221 AWI393221:AWJ393221 BGE393221:BGF393221 BQA393221:BQB393221 BZW393221:BZX393221 CJS393221:CJT393221 CTO393221:CTP393221 DDK393221:DDL393221 DNG393221:DNH393221 DXC393221:DXD393221 EGY393221:EGZ393221 EQU393221:EQV393221 FAQ393221:FAR393221 FKM393221:FKN393221 FUI393221:FUJ393221 GEE393221:GEF393221 GOA393221:GOB393221 GXW393221:GXX393221 HHS393221:HHT393221 HRO393221:HRP393221 IBK393221:IBL393221 ILG393221:ILH393221 IVC393221:IVD393221 JEY393221:JEZ393221 JOU393221:JOV393221 JYQ393221:JYR393221 KIM393221:KIN393221 KSI393221:KSJ393221 LCE393221:LCF393221 LMA393221:LMB393221 LVW393221:LVX393221 MFS393221:MFT393221 MPO393221:MPP393221 MZK393221:MZL393221 NJG393221:NJH393221 NTC393221:NTD393221 OCY393221:OCZ393221 OMU393221:OMV393221 OWQ393221:OWR393221 PGM393221:PGN393221 PQI393221:PQJ393221 QAE393221:QAF393221 QKA393221:QKB393221 QTW393221:QTX393221 RDS393221:RDT393221 RNO393221:RNP393221 RXK393221:RXL393221 SHG393221:SHH393221 SRC393221:SRD393221 TAY393221:TAZ393221 TKU393221:TKV393221 TUQ393221:TUR393221 UEM393221:UEN393221 UOI393221:UOJ393221 UYE393221:UYF393221 VIA393221:VIB393221 VRW393221:VRX393221 WBS393221:WBT393221 WLO393221:WLP393221 WVK393221:WVL393221 C458757:D458757 IY458757:IZ458757 SU458757:SV458757 ACQ458757:ACR458757 AMM458757:AMN458757 AWI458757:AWJ458757 BGE458757:BGF458757 BQA458757:BQB458757 BZW458757:BZX458757 CJS458757:CJT458757 CTO458757:CTP458757 DDK458757:DDL458757 DNG458757:DNH458757 DXC458757:DXD458757 EGY458757:EGZ458757 EQU458757:EQV458757 FAQ458757:FAR458757 FKM458757:FKN458757 FUI458757:FUJ458757 GEE458757:GEF458757 GOA458757:GOB458757 GXW458757:GXX458757 HHS458757:HHT458757 HRO458757:HRP458757 IBK458757:IBL458757 ILG458757:ILH458757 IVC458757:IVD458757 JEY458757:JEZ458757 JOU458757:JOV458757 JYQ458757:JYR458757 KIM458757:KIN458757 KSI458757:KSJ458757 LCE458757:LCF458757 LMA458757:LMB458757 LVW458757:LVX458757 MFS458757:MFT458757 MPO458757:MPP458757 MZK458757:MZL458757 NJG458757:NJH458757 NTC458757:NTD458757 OCY458757:OCZ458757 OMU458757:OMV458757 OWQ458757:OWR458757 PGM458757:PGN458757 PQI458757:PQJ458757 QAE458757:QAF458757 QKA458757:QKB458757 QTW458757:QTX458757 RDS458757:RDT458757 RNO458757:RNP458757 RXK458757:RXL458757 SHG458757:SHH458757 SRC458757:SRD458757 TAY458757:TAZ458757 TKU458757:TKV458757 TUQ458757:TUR458757 UEM458757:UEN458757 UOI458757:UOJ458757 UYE458757:UYF458757 VIA458757:VIB458757 VRW458757:VRX458757 WBS458757:WBT458757 WLO458757:WLP458757 WVK458757:WVL458757 C524293:D524293 IY524293:IZ524293 SU524293:SV524293 ACQ524293:ACR524293 AMM524293:AMN524293 AWI524293:AWJ524293 BGE524293:BGF524293 BQA524293:BQB524293 BZW524293:BZX524293 CJS524293:CJT524293 CTO524293:CTP524293 DDK524293:DDL524293 DNG524293:DNH524293 DXC524293:DXD524293 EGY524293:EGZ524293 EQU524293:EQV524293 FAQ524293:FAR524293 FKM524293:FKN524293 FUI524293:FUJ524293 GEE524293:GEF524293 GOA524293:GOB524293 GXW524293:GXX524293 HHS524293:HHT524293 HRO524293:HRP524293 IBK524293:IBL524293 ILG524293:ILH524293 IVC524293:IVD524293 JEY524293:JEZ524293 JOU524293:JOV524293 JYQ524293:JYR524293 KIM524293:KIN524293 KSI524293:KSJ524293 LCE524293:LCF524293 LMA524293:LMB524293 LVW524293:LVX524293 MFS524293:MFT524293 MPO524293:MPP524293 MZK524293:MZL524293 NJG524293:NJH524293 NTC524293:NTD524293 OCY524293:OCZ524293 OMU524293:OMV524293 OWQ524293:OWR524293 PGM524293:PGN524293 PQI524293:PQJ524293 QAE524293:QAF524293 QKA524293:QKB524293 QTW524293:QTX524293 RDS524293:RDT524293 RNO524293:RNP524293 RXK524293:RXL524293 SHG524293:SHH524293 SRC524293:SRD524293 TAY524293:TAZ524293 TKU524293:TKV524293 TUQ524293:TUR524293 UEM524293:UEN524293 UOI524293:UOJ524293 UYE524293:UYF524293 VIA524293:VIB524293 VRW524293:VRX524293 WBS524293:WBT524293 WLO524293:WLP524293 WVK524293:WVL524293 C589829:D589829 IY589829:IZ589829 SU589829:SV589829 ACQ589829:ACR589829 AMM589829:AMN589829 AWI589829:AWJ589829 BGE589829:BGF589829 BQA589829:BQB589829 BZW589829:BZX589829 CJS589829:CJT589829 CTO589829:CTP589829 DDK589829:DDL589829 DNG589829:DNH589829 DXC589829:DXD589829 EGY589829:EGZ589829 EQU589829:EQV589829 FAQ589829:FAR589829 FKM589829:FKN589829 FUI589829:FUJ589829 GEE589829:GEF589829 GOA589829:GOB589829 GXW589829:GXX589829 HHS589829:HHT589829 HRO589829:HRP589829 IBK589829:IBL589829 ILG589829:ILH589829 IVC589829:IVD589829 JEY589829:JEZ589829 JOU589829:JOV589829 JYQ589829:JYR589829 KIM589829:KIN589829 KSI589829:KSJ589829 LCE589829:LCF589829 LMA589829:LMB589829 LVW589829:LVX589829 MFS589829:MFT589829 MPO589829:MPP589829 MZK589829:MZL589829 NJG589829:NJH589829 NTC589829:NTD589829 OCY589829:OCZ589829 OMU589829:OMV589829 OWQ589829:OWR589829 PGM589829:PGN589829 PQI589829:PQJ589829 QAE589829:QAF589829 QKA589829:QKB589829 QTW589829:QTX589829 RDS589829:RDT589829 RNO589829:RNP589829 RXK589829:RXL589829 SHG589829:SHH589829 SRC589829:SRD589829 TAY589829:TAZ589829 TKU589829:TKV589829 TUQ589829:TUR589829 UEM589829:UEN589829 UOI589829:UOJ589829 UYE589829:UYF589829 VIA589829:VIB589829 VRW589829:VRX589829 WBS589829:WBT589829 WLO589829:WLP589829 WVK589829:WVL589829 C655365:D655365 IY655365:IZ655365 SU655365:SV655365 ACQ655365:ACR655365 AMM655365:AMN655365 AWI655365:AWJ655365 BGE655365:BGF655365 BQA655365:BQB655365 BZW655365:BZX655365 CJS655365:CJT655365 CTO655365:CTP655365 DDK655365:DDL655365 DNG655365:DNH655365 DXC655365:DXD655365 EGY655365:EGZ655365 EQU655365:EQV655365 FAQ655365:FAR655365 FKM655365:FKN655365 FUI655365:FUJ655365 GEE655365:GEF655365 GOA655365:GOB655365 GXW655365:GXX655365 HHS655365:HHT655365 HRO655365:HRP655365 IBK655365:IBL655365 ILG655365:ILH655365 IVC655365:IVD655365 JEY655365:JEZ655365 JOU655365:JOV655365 JYQ655365:JYR655365 KIM655365:KIN655365 KSI655365:KSJ655365 LCE655365:LCF655365 LMA655365:LMB655365 LVW655365:LVX655365 MFS655365:MFT655365 MPO655365:MPP655365 MZK655365:MZL655365 NJG655365:NJH655365 NTC655365:NTD655365 OCY655365:OCZ655365 OMU655365:OMV655365 OWQ655365:OWR655365 PGM655365:PGN655365 PQI655365:PQJ655365 QAE655365:QAF655365 QKA655365:QKB655365 QTW655365:QTX655365 RDS655365:RDT655365 RNO655365:RNP655365 RXK655365:RXL655365 SHG655365:SHH655365 SRC655365:SRD655365 TAY655365:TAZ655365 TKU655365:TKV655365 TUQ655365:TUR655365 UEM655365:UEN655365 UOI655365:UOJ655365 UYE655365:UYF655365 VIA655365:VIB655365 VRW655365:VRX655365 WBS655365:WBT655365 WLO655365:WLP655365 WVK655365:WVL655365 C720901:D720901 IY720901:IZ720901 SU720901:SV720901 ACQ720901:ACR720901 AMM720901:AMN720901 AWI720901:AWJ720901 BGE720901:BGF720901 BQA720901:BQB720901 BZW720901:BZX720901 CJS720901:CJT720901 CTO720901:CTP720901 DDK720901:DDL720901 DNG720901:DNH720901 DXC720901:DXD720901 EGY720901:EGZ720901 EQU720901:EQV720901 FAQ720901:FAR720901 FKM720901:FKN720901 FUI720901:FUJ720901 GEE720901:GEF720901 GOA720901:GOB720901 GXW720901:GXX720901 HHS720901:HHT720901 HRO720901:HRP720901 IBK720901:IBL720901 ILG720901:ILH720901 IVC720901:IVD720901 JEY720901:JEZ720901 JOU720901:JOV720901 JYQ720901:JYR720901 KIM720901:KIN720901 KSI720901:KSJ720901 LCE720901:LCF720901 LMA720901:LMB720901 LVW720901:LVX720901 MFS720901:MFT720901 MPO720901:MPP720901 MZK720901:MZL720901 NJG720901:NJH720901 NTC720901:NTD720901 OCY720901:OCZ720901 OMU720901:OMV720901 OWQ720901:OWR720901 PGM720901:PGN720901 PQI720901:PQJ720901 QAE720901:QAF720901 QKA720901:QKB720901 QTW720901:QTX720901 RDS720901:RDT720901 RNO720901:RNP720901 RXK720901:RXL720901 SHG720901:SHH720901 SRC720901:SRD720901 TAY720901:TAZ720901 TKU720901:TKV720901 TUQ720901:TUR720901 UEM720901:UEN720901 UOI720901:UOJ720901 UYE720901:UYF720901 VIA720901:VIB720901 VRW720901:VRX720901 WBS720901:WBT720901 WLO720901:WLP720901 WVK720901:WVL720901 C786437:D786437 IY786437:IZ786437 SU786437:SV786437 ACQ786437:ACR786437 AMM786437:AMN786437 AWI786437:AWJ786437 BGE786437:BGF786437 BQA786437:BQB786437 BZW786437:BZX786437 CJS786437:CJT786437 CTO786437:CTP786437 DDK786437:DDL786437 DNG786437:DNH786437 DXC786437:DXD786437 EGY786437:EGZ786437 EQU786437:EQV786437 FAQ786437:FAR786437 FKM786437:FKN786437 FUI786437:FUJ786437 GEE786437:GEF786437 GOA786437:GOB786437 GXW786437:GXX786437 HHS786437:HHT786437 HRO786437:HRP786437 IBK786437:IBL786437 ILG786437:ILH786437 IVC786437:IVD786437 JEY786437:JEZ786437 JOU786437:JOV786437 JYQ786437:JYR786437 KIM786437:KIN786437 KSI786437:KSJ786437 LCE786437:LCF786437 LMA786437:LMB786437 LVW786437:LVX786437 MFS786437:MFT786437 MPO786437:MPP786437 MZK786437:MZL786437 NJG786437:NJH786437 NTC786437:NTD786437 OCY786437:OCZ786437 OMU786437:OMV786437 OWQ786437:OWR786437 PGM786437:PGN786437 PQI786437:PQJ786437 QAE786437:QAF786437 QKA786437:QKB786437 QTW786437:QTX786437 RDS786437:RDT786437 RNO786437:RNP786437 RXK786437:RXL786437 SHG786437:SHH786437 SRC786437:SRD786437 TAY786437:TAZ786437 TKU786437:TKV786437 TUQ786437:TUR786437 UEM786437:UEN786437 UOI786437:UOJ786437 UYE786437:UYF786437 VIA786437:VIB786437 VRW786437:VRX786437 WBS786437:WBT786437 WLO786437:WLP786437 WVK786437:WVL786437 C851973:D851973 IY851973:IZ851973 SU851973:SV851973 ACQ851973:ACR851973 AMM851973:AMN851973 AWI851973:AWJ851973 BGE851973:BGF851973 BQA851973:BQB851973 BZW851973:BZX851973 CJS851973:CJT851973 CTO851973:CTP851973 DDK851973:DDL851973 DNG851973:DNH851973 DXC851973:DXD851973 EGY851973:EGZ851973 EQU851973:EQV851973 FAQ851973:FAR851973 FKM851973:FKN851973 FUI851973:FUJ851973 GEE851973:GEF851973 GOA851973:GOB851973 GXW851973:GXX851973 HHS851973:HHT851973 HRO851973:HRP851973 IBK851973:IBL851973 ILG851973:ILH851973 IVC851973:IVD851973 JEY851973:JEZ851973 JOU851973:JOV851973 JYQ851973:JYR851973 KIM851973:KIN851973 KSI851973:KSJ851973 LCE851973:LCF851973 LMA851973:LMB851973 LVW851973:LVX851973 MFS851973:MFT851973 MPO851973:MPP851973 MZK851973:MZL851973 NJG851973:NJH851973 NTC851973:NTD851973 OCY851973:OCZ851973 OMU851973:OMV851973 OWQ851973:OWR851973 PGM851973:PGN851973 PQI851973:PQJ851973 QAE851973:QAF851973 QKA851973:QKB851973 QTW851973:QTX851973 RDS851973:RDT851973 RNO851973:RNP851973 RXK851973:RXL851973 SHG851973:SHH851973 SRC851973:SRD851973 TAY851973:TAZ851973 TKU851973:TKV851973 TUQ851973:TUR851973 UEM851973:UEN851973 UOI851973:UOJ851973 UYE851973:UYF851973 VIA851973:VIB851973 VRW851973:VRX851973 WBS851973:WBT851973 WLO851973:WLP851973 WVK851973:WVL851973 C917509:D917509 IY917509:IZ917509 SU917509:SV917509 ACQ917509:ACR917509 AMM917509:AMN917509 AWI917509:AWJ917509 BGE917509:BGF917509 BQA917509:BQB917509 BZW917509:BZX917509 CJS917509:CJT917509 CTO917509:CTP917509 DDK917509:DDL917509 DNG917509:DNH917509 DXC917509:DXD917509 EGY917509:EGZ917509 EQU917509:EQV917509 FAQ917509:FAR917509 FKM917509:FKN917509 FUI917509:FUJ917509 GEE917509:GEF917509 GOA917509:GOB917509 GXW917509:GXX917509 HHS917509:HHT917509 HRO917509:HRP917509 IBK917509:IBL917509 ILG917509:ILH917509 IVC917509:IVD917509 JEY917509:JEZ917509 JOU917509:JOV917509 JYQ917509:JYR917509 KIM917509:KIN917509 KSI917509:KSJ917509 LCE917509:LCF917509 LMA917509:LMB917509 LVW917509:LVX917509 MFS917509:MFT917509 MPO917509:MPP917509 MZK917509:MZL917509 NJG917509:NJH917509 NTC917509:NTD917509 OCY917509:OCZ917509 OMU917509:OMV917509 OWQ917509:OWR917509 PGM917509:PGN917509 PQI917509:PQJ917509 QAE917509:QAF917509 QKA917509:QKB917509 QTW917509:QTX917509 RDS917509:RDT917509 RNO917509:RNP917509 RXK917509:RXL917509 SHG917509:SHH917509 SRC917509:SRD917509 TAY917509:TAZ917509 TKU917509:TKV917509 TUQ917509:TUR917509 UEM917509:UEN917509 UOI917509:UOJ917509 UYE917509:UYF917509 VIA917509:VIB917509 VRW917509:VRX917509 WBS917509:WBT917509 WLO917509:WLP917509 WVK917509:WVL917509 C983045:D983045 IY983045:IZ983045 SU983045:SV983045 ACQ983045:ACR983045 AMM983045:AMN983045 AWI983045:AWJ983045 BGE983045:BGF983045 BQA983045:BQB983045 BZW983045:BZX983045 CJS983045:CJT983045 CTO983045:CTP983045 DDK983045:DDL983045 DNG983045:DNH983045 DXC983045:DXD983045 EGY983045:EGZ983045 EQU983045:EQV983045 FAQ983045:FAR983045 FKM983045:FKN983045 FUI983045:FUJ983045 GEE983045:GEF983045 GOA983045:GOB983045 GXW983045:GXX983045 HHS983045:HHT983045 HRO983045:HRP983045 IBK983045:IBL983045 ILG983045:ILH983045 IVC983045:IVD983045 JEY983045:JEZ983045 JOU983045:JOV983045 JYQ983045:JYR983045 KIM983045:KIN983045 KSI983045:KSJ983045 LCE983045:LCF983045 LMA983045:LMB983045 LVW983045:LVX983045 MFS983045:MFT983045 MPO983045:MPP983045 MZK983045:MZL983045 NJG983045:NJH983045 NTC983045:NTD983045 OCY983045:OCZ983045 OMU983045:OMV983045 OWQ983045:OWR983045 PGM983045:PGN983045 PQI983045:PQJ983045 QAE983045:QAF983045 QKA983045:QKB983045 QTW983045:QTX983045 RDS983045:RDT983045 RNO983045:RNP983045 RXK983045:RXL983045 SHG983045:SHH983045 SRC983045:SRD983045 TAY983045:TAZ983045 TKU983045:TKV983045 TUQ983045:TUR983045 UEM983045:UEN983045 UOI983045:UOJ983045 UYE983045:UYF983045 VIA983045:VIB983045 VRW983045:VRX983045 WBS983045:WBT983045 WLO983045:WLP983045 WVK983045:WVL983045" xr:uid="{2B34A66B-305E-4FF8-BADB-18EB1025AC7F}">
+      <formula1>-1000000000000</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76452C8F-5FF9-4994-944A-956040440E81}">
+  <dimension ref="A1:K165"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="79" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="79" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" style="79" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="79" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="79"/>
+    <col min="8" max="8" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="79" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="79" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="79" bestFit="1" customWidth="1"/>
+    <col min="12" max="249" width="9.140625" style="79"/>
+    <col min="250" max="250" width="6.7109375" style="79" customWidth="1"/>
+    <col min="251" max="251" width="10.140625" style="79" customWidth="1"/>
+    <col min="252" max="252" width="45.140625" style="79" customWidth="1"/>
+    <col min="253" max="259" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="260" max="260" width="31.5703125" style="79" customWidth="1"/>
+    <col min="261" max="261" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="262" max="263" width="9.140625" style="79"/>
+    <col min="264" max="264" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="265" max="505" width="9.140625" style="79"/>
+    <col min="506" max="506" width="6.7109375" style="79" customWidth="1"/>
+    <col min="507" max="507" width="10.140625" style="79" customWidth="1"/>
+    <col min="508" max="508" width="45.140625" style="79" customWidth="1"/>
+    <col min="509" max="515" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="516" max="516" width="31.5703125" style="79" customWidth="1"/>
+    <col min="517" max="517" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="518" max="519" width="9.140625" style="79"/>
+    <col min="520" max="520" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="521" max="761" width="9.140625" style="79"/>
+    <col min="762" max="762" width="6.7109375" style="79" customWidth="1"/>
+    <col min="763" max="763" width="10.140625" style="79" customWidth="1"/>
+    <col min="764" max="764" width="45.140625" style="79" customWidth="1"/>
+    <col min="765" max="771" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="772" max="772" width="31.5703125" style="79" customWidth="1"/>
+    <col min="773" max="773" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="774" max="775" width="9.140625" style="79"/>
+    <col min="776" max="776" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="777" max="1017" width="9.140625" style="79"/>
+    <col min="1018" max="1018" width="6.7109375" style="79" customWidth="1"/>
+    <col min="1019" max="1019" width="10.140625" style="79" customWidth="1"/>
+    <col min="1020" max="1020" width="45.140625" style="79" customWidth="1"/>
+    <col min="1021" max="1027" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="1028" max="1028" width="31.5703125" style="79" customWidth="1"/>
+    <col min="1029" max="1029" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1031" width="9.140625" style="79"/>
+    <col min="1032" max="1032" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1273" width="9.140625" style="79"/>
+    <col min="1274" max="1274" width="6.7109375" style="79" customWidth="1"/>
+    <col min="1275" max="1275" width="10.140625" style="79" customWidth="1"/>
+    <col min="1276" max="1276" width="45.140625" style="79" customWidth="1"/>
+    <col min="1277" max="1283" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="1284" max="1284" width="31.5703125" style="79" customWidth="1"/>
+    <col min="1285" max="1285" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1287" width="9.140625" style="79"/>
+    <col min="1288" max="1288" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1529" width="9.140625" style="79"/>
+    <col min="1530" max="1530" width="6.7109375" style="79" customWidth="1"/>
+    <col min="1531" max="1531" width="10.140625" style="79" customWidth="1"/>
+    <col min="1532" max="1532" width="45.140625" style="79" customWidth="1"/>
+    <col min="1533" max="1539" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="1540" max="1540" width="31.5703125" style="79" customWidth="1"/>
+    <col min="1541" max="1541" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1543" width="9.140625" style="79"/>
+    <col min="1544" max="1544" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1785" width="9.140625" style="79"/>
+    <col min="1786" max="1786" width="6.7109375" style="79" customWidth="1"/>
+    <col min="1787" max="1787" width="10.140625" style="79" customWidth="1"/>
+    <col min="1788" max="1788" width="45.140625" style="79" customWidth="1"/>
+    <col min="1789" max="1795" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="1796" max="1796" width="31.5703125" style="79" customWidth="1"/>
+    <col min="1797" max="1797" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1799" width="9.140625" style="79"/>
+    <col min="1800" max="1800" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="1801" max="2041" width="9.140625" style="79"/>
+    <col min="2042" max="2042" width="6.7109375" style="79" customWidth="1"/>
+    <col min="2043" max="2043" width="10.140625" style="79" customWidth="1"/>
+    <col min="2044" max="2044" width="45.140625" style="79" customWidth="1"/>
+    <col min="2045" max="2051" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="2052" max="2052" width="31.5703125" style="79" customWidth="1"/>
+    <col min="2053" max="2053" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2055" width="9.140625" style="79"/>
+    <col min="2056" max="2056" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2297" width="9.140625" style="79"/>
+    <col min="2298" max="2298" width="6.7109375" style="79" customWidth="1"/>
+    <col min="2299" max="2299" width="10.140625" style="79" customWidth="1"/>
+    <col min="2300" max="2300" width="45.140625" style="79" customWidth="1"/>
+    <col min="2301" max="2307" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="2308" max="2308" width="31.5703125" style="79" customWidth="1"/>
+    <col min="2309" max="2309" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2311" width="9.140625" style="79"/>
+    <col min="2312" max="2312" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2553" width="9.140625" style="79"/>
+    <col min="2554" max="2554" width="6.7109375" style="79" customWidth="1"/>
+    <col min="2555" max="2555" width="10.140625" style="79" customWidth="1"/>
+    <col min="2556" max="2556" width="45.140625" style="79" customWidth="1"/>
+    <col min="2557" max="2563" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="2564" max="2564" width="31.5703125" style="79" customWidth="1"/>
+    <col min="2565" max="2565" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2567" width="9.140625" style="79"/>
+    <col min="2568" max="2568" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2809" width="9.140625" style="79"/>
+    <col min="2810" max="2810" width="6.7109375" style="79" customWidth="1"/>
+    <col min="2811" max="2811" width="10.140625" style="79" customWidth="1"/>
+    <col min="2812" max="2812" width="45.140625" style="79" customWidth="1"/>
+    <col min="2813" max="2819" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="2820" max="2820" width="31.5703125" style="79" customWidth="1"/>
+    <col min="2821" max="2821" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2823" width="9.140625" style="79"/>
+    <col min="2824" max="2824" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="2825" max="3065" width="9.140625" style="79"/>
+    <col min="3066" max="3066" width="6.7109375" style="79" customWidth="1"/>
+    <col min="3067" max="3067" width="10.140625" style="79" customWidth="1"/>
+    <col min="3068" max="3068" width="45.140625" style="79" customWidth="1"/>
+    <col min="3069" max="3075" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="3076" max="3076" width="31.5703125" style="79" customWidth="1"/>
+    <col min="3077" max="3077" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3079" width="9.140625" style="79"/>
+    <col min="3080" max="3080" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3321" width="9.140625" style="79"/>
+    <col min="3322" max="3322" width="6.7109375" style="79" customWidth="1"/>
+    <col min="3323" max="3323" width="10.140625" style="79" customWidth="1"/>
+    <col min="3324" max="3324" width="45.140625" style="79" customWidth="1"/>
+    <col min="3325" max="3331" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="3332" max="3332" width="31.5703125" style="79" customWidth="1"/>
+    <col min="3333" max="3333" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3335" width="9.140625" style="79"/>
+    <col min="3336" max="3336" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3577" width="9.140625" style="79"/>
+    <col min="3578" max="3578" width="6.7109375" style="79" customWidth="1"/>
+    <col min="3579" max="3579" width="10.140625" style="79" customWidth="1"/>
+    <col min="3580" max="3580" width="45.140625" style="79" customWidth="1"/>
+    <col min="3581" max="3587" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="3588" max="3588" width="31.5703125" style="79" customWidth="1"/>
+    <col min="3589" max="3589" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3591" width="9.140625" style="79"/>
+    <col min="3592" max="3592" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3833" width="9.140625" style="79"/>
+    <col min="3834" max="3834" width="6.7109375" style="79" customWidth="1"/>
+    <col min="3835" max="3835" width="10.140625" style="79" customWidth="1"/>
+    <col min="3836" max="3836" width="45.140625" style="79" customWidth="1"/>
+    <col min="3837" max="3843" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="3844" max="3844" width="31.5703125" style="79" customWidth="1"/>
+    <col min="3845" max="3845" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3847" width="9.140625" style="79"/>
+    <col min="3848" max="3848" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="3849" max="4089" width="9.140625" style="79"/>
+    <col min="4090" max="4090" width="6.7109375" style="79" customWidth="1"/>
+    <col min="4091" max="4091" width="10.140625" style="79" customWidth="1"/>
+    <col min="4092" max="4092" width="45.140625" style="79" customWidth="1"/>
+    <col min="4093" max="4099" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="4100" max="4100" width="31.5703125" style="79" customWidth="1"/>
+    <col min="4101" max="4101" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4103" width="9.140625" style="79"/>
+    <col min="4104" max="4104" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4345" width="9.140625" style="79"/>
+    <col min="4346" max="4346" width="6.7109375" style="79" customWidth="1"/>
+    <col min="4347" max="4347" width="10.140625" style="79" customWidth="1"/>
+    <col min="4348" max="4348" width="45.140625" style="79" customWidth="1"/>
+    <col min="4349" max="4355" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="4356" max="4356" width="31.5703125" style="79" customWidth="1"/>
+    <col min="4357" max="4357" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4359" width="9.140625" style="79"/>
+    <col min="4360" max="4360" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4601" width="9.140625" style="79"/>
+    <col min="4602" max="4602" width="6.7109375" style="79" customWidth="1"/>
+    <col min="4603" max="4603" width="10.140625" style="79" customWidth="1"/>
+    <col min="4604" max="4604" width="45.140625" style="79" customWidth="1"/>
+    <col min="4605" max="4611" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="4612" max="4612" width="31.5703125" style="79" customWidth="1"/>
+    <col min="4613" max="4613" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4615" width="9.140625" style="79"/>
+    <col min="4616" max="4616" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4857" width="9.140625" style="79"/>
+    <col min="4858" max="4858" width="6.7109375" style="79" customWidth="1"/>
+    <col min="4859" max="4859" width="10.140625" style="79" customWidth="1"/>
+    <col min="4860" max="4860" width="45.140625" style="79" customWidth="1"/>
+    <col min="4861" max="4867" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="4868" max="4868" width="31.5703125" style="79" customWidth="1"/>
+    <col min="4869" max="4869" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4871" width="9.140625" style="79"/>
+    <col min="4872" max="4872" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="4873" max="5113" width="9.140625" style="79"/>
+    <col min="5114" max="5114" width="6.7109375" style="79" customWidth="1"/>
+    <col min="5115" max="5115" width="10.140625" style="79" customWidth="1"/>
+    <col min="5116" max="5116" width="45.140625" style="79" customWidth="1"/>
+    <col min="5117" max="5123" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="5124" max="5124" width="31.5703125" style="79" customWidth="1"/>
+    <col min="5125" max="5125" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5127" width="9.140625" style="79"/>
+    <col min="5128" max="5128" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5369" width="9.140625" style="79"/>
+    <col min="5370" max="5370" width="6.7109375" style="79" customWidth="1"/>
+    <col min="5371" max="5371" width="10.140625" style="79" customWidth="1"/>
+    <col min="5372" max="5372" width="45.140625" style="79" customWidth="1"/>
+    <col min="5373" max="5379" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="5380" max="5380" width="31.5703125" style="79" customWidth="1"/>
+    <col min="5381" max="5381" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5383" width="9.140625" style="79"/>
+    <col min="5384" max="5384" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5625" width="9.140625" style="79"/>
+    <col min="5626" max="5626" width="6.7109375" style="79" customWidth="1"/>
+    <col min="5627" max="5627" width="10.140625" style="79" customWidth="1"/>
+    <col min="5628" max="5628" width="45.140625" style="79" customWidth="1"/>
+    <col min="5629" max="5635" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="5636" max="5636" width="31.5703125" style="79" customWidth="1"/>
+    <col min="5637" max="5637" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5639" width="9.140625" style="79"/>
+    <col min="5640" max="5640" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5881" width="9.140625" style="79"/>
+    <col min="5882" max="5882" width="6.7109375" style="79" customWidth="1"/>
+    <col min="5883" max="5883" width="10.140625" style="79" customWidth="1"/>
+    <col min="5884" max="5884" width="45.140625" style="79" customWidth="1"/>
+    <col min="5885" max="5891" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="5892" max="5892" width="31.5703125" style="79" customWidth="1"/>
+    <col min="5893" max="5893" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5895" width="9.140625" style="79"/>
+    <col min="5896" max="5896" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="5897" max="6137" width="9.140625" style="79"/>
+    <col min="6138" max="6138" width="6.7109375" style="79" customWidth="1"/>
+    <col min="6139" max="6139" width="10.140625" style="79" customWidth="1"/>
+    <col min="6140" max="6140" width="45.140625" style="79" customWidth="1"/>
+    <col min="6141" max="6147" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="6148" max="6148" width="31.5703125" style="79" customWidth="1"/>
+    <col min="6149" max="6149" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6151" width="9.140625" style="79"/>
+    <col min="6152" max="6152" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6393" width="9.140625" style="79"/>
+    <col min="6394" max="6394" width="6.7109375" style="79" customWidth="1"/>
+    <col min="6395" max="6395" width="10.140625" style="79" customWidth="1"/>
+    <col min="6396" max="6396" width="45.140625" style="79" customWidth="1"/>
+    <col min="6397" max="6403" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="6404" max="6404" width="31.5703125" style="79" customWidth="1"/>
+    <col min="6405" max="6405" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6407" width="9.140625" style="79"/>
+    <col min="6408" max="6408" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6649" width="9.140625" style="79"/>
+    <col min="6650" max="6650" width="6.7109375" style="79" customWidth="1"/>
+    <col min="6651" max="6651" width="10.140625" style="79" customWidth="1"/>
+    <col min="6652" max="6652" width="45.140625" style="79" customWidth="1"/>
+    <col min="6653" max="6659" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="6660" max="6660" width="31.5703125" style="79" customWidth="1"/>
+    <col min="6661" max="6661" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6663" width="9.140625" style="79"/>
+    <col min="6664" max="6664" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6905" width="9.140625" style="79"/>
+    <col min="6906" max="6906" width="6.7109375" style="79" customWidth="1"/>
+    <col min="6907" max="6907" width="10.140625" style="79" customWidth="1"/>
+    <col min="6908" max="6908" width="45.140625" style="79" customWidth="1"/>
+    <col min="6909" max="6915" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="6916" max="6916" width="31.5703125" style="79" customWidth="1"/>
+    <col min="6917" max="6917" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6919" width="9.140625" style="79"/>
+    <col min="6920" max="6920" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="6921" max="7161" width="9.140625" style="79"/>
+    <col min="7162" max="7162" width="6.7109375" style="79" customWidth="1"/>
+    <col min="7163" max="7163" width="10.140625" style="79" customWidth="1"/>
+    <col min="7164" max="7164" width="45.140625" style="79" customWidth="1"/>
+    <col min="7165" max="7171" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="7172" max="7172" width="31.5703125" style="79" customWidth="1"/>
+    <col min="7173" max="7173" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7175" width="9.140625" style="79"/>
+    <col min="7176" max="7176" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7417" width="9.140625" style="79"/>
+    <col min="7418" max="7418" width="6.7109375" style="79" customWidth="1"/>
+    <col min="7419" max="7419" width="10.140625" style="79" customWidth="1"/>
+    <col min="7420" max="7420" width="45.140625" style="79" customWidth="1"/>
+    <col min="7421" max="7427" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="7428" max="7428" width="31.5703125" style="79" customWidth="1"/>
+    <col min="7429" max="7429" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7431" width="9.140625" style="79"/>
+    <col min="7432" max="7432" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7673" width="9.140625" style="79"/>
+    <col min="7674" max="7674" width="6.7109375" style="79" customWidth="1"/>
+    <col min="7675" max="7675" width="10.140625" style="79" customWidth="1"/>
+    <col min="7676" max="7676" width="45.140625" style="79" customWidth="1"/>
+    <col min="7677" max="7683" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="7684" max="7684" width="31.5703125" style="79" customWidth="1"/>
+    <col min="7685" max="7685" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7687" width="9.140625" style="79"/>
+    <col min="7688" max="7688" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7929" width="9.140625" style="79"/>
+    <col min="7930" max="7930" width="6.7109375" style="79" customWidth="1"/>
+    <col min="7931" max="7931" width="10.140625" style="79" customWidth="1"/>
+    <col min="7932" max="7932" width="45.140625" style="79" customWidth="1"/>
+    <col min="7933" max="7939" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="7940" max="7940" width="31.5703125" style="79" customWidth="1"/>
+    <col min="7941" max="7941" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7943" width="9.140625" style="79"/>
+    <col min="7944" max="7944" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="7945" max="8185" width="9.140625" style="79"/>
+    <col min="8186" max="8186" width="6.7109375" style="79" customWidth="1"/>
+    <col min="8187" max="8187" width="10.140625" style="79" customWidth="1"/>
+    <col min="8188" max="8188" width="45.140625" style="79" customWidth="1"/>
+    <col min="8189" max="8195" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="8196" max="8196" width="31.5703125" style="79" customWidth="1"/>
+    <col min="8197" max="8197" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8199" width="9.140625" style="79"/>
+    <col min="8200" max="8200" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8441" width="9.140625" style="79"/>
+    <col min="8442" max="8442" width="6.7109375" style="79" customWidth="1"/>
+    <col min="8443" max="8443" width="10.140625" style="79" customWidth="1"/>
+    <col min="8444" max="8444" width="45.140625" style="79" customWidth="1"/>
+    <col min="8445" max="8451" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="8452" max="8452" width="31.5703125" style="79" customWidth="1"/>
+    <col min="8453" max="8453" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8455" width="9.140625" style="79"/>
+    <col min="8456" max="8456" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8697" width="9.140625" style="79"/>
+    <col min="8698" max="8698" width="6.7109375" style="79" customWidth="1"/>
+    <col min="8699" max="8699" width="10.140625" style="79" customWidth="1"/>
+    <col min="8700" max="8700" width="45.140625" style="79" customWidth="1"/>
+    <col min="8701" max="8707" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="8708" max="8708" width="31.5703125" style="79" customWidth="1"/>
+    <col min="8709" max="8709" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8711" width="9.140625" style="79"/>
+    <col min="8712" max="8712" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8953" width="9.140625" style="79"/>
+    <col min="8954" max="8954" width="6.7109375" style="79" customWidth="1"/>
+    <col min="8955" max="8955" width="10.140625" style="79" customWidth="1"/>
+    <col min="8956" max="8956" width="45.140625" style="79" customWidth="1"/>
+    <col min="8957" max="8963" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="8964" max="8964" width="31.5703125" style="79" customWidth="1"/>
+    <col min="8965" max="8965" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8967" width="9.140625" style="79"/>
+    <col min="8968" max="8968" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="8969" max="9209" width="9.140625" style="79"/>
+    <col min="9210" max="9210" width="6.7109375" style="79" customWidth="1"/>
+    <col min="9211" max="9211" width="10.140625" style="79" customWidth="1"/>
+    <col min="9212" max="9212" width="45.140625" style="79" customWidth="1"/>
+    <col min="9213" max="9219" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="9220" max="9220" width="31.5703125" style="79" customWidth="1"/>
+    <col min="9221" max="9221" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9223" width="9.140625" style="79"/>
+    <col min="9224" max="9224" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9465" width="9.140625" style="79"/>
+    <col min="9466" max="9466" width="6.7109375" style="79" customWidth="1"/>
+    <col min="9467" max="9467" width="10.140625" style="79" customWidth="1"/>
+    <col min="9468" max="9468" width="45.140625" style="79" customWidth="1"/>
+    <col min="9469" max="9475" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="9476" max="9476" width="31.5703125" style="79" customWidth="1"/>
+    <col min="9477" max="9477" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9479" width="9.140625" style="79"/>
+    <col min="9480" max="9480" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9721" width="9.140625" style="79"/>
+    <col min="9722" max="9722" width="6.7109375" style="79" customWidth="1"/>
+    <col min="9723" max="9723" width="10.140625" style="79" customWidth="1"/>
+    <col min="9724" max="9724" width="45.140625" style="79" customWidth="1"/>
+    <col min="9725" max="9731" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="9732" max="9732" width="31.5703125" style="79" customWidth="1"/>
+    <col min="9733" max="9733" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9735" width="9.140625" style="79"/>
+    <col min="9736" max="9736" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9977" width="9.140625" style="79"/>
+    <col min="9978" max="9978" width="6.7109375" style="79" customWidth="1"/>
+    <col min="9979" max="9979" width="10.140625" style="79" customWidth="1"/>
+    <col min="9980" max="9980" width="45.140625" style="79" customWidth="1"/>
+    <col min="9981" max="9987" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="9988" max="9988" width="31.5703125" style="79" customWidth="1"/>
+    <col min="9989" max="9989" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9991" width="9.140625" style="79"/>
+    <col min="9992" max="9992" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="9993" max="10233" width="9.140625" style="79"/>
+    <col min="10234" max="10234" width="6.7109375" style="79" customWidth="1"/>
+    <col min="10235" max="10235" width="10.140625" style="79" customWidth="1"/>
+    <col min="10236" max="10236" width="45.140625" style="79" customWidth="1"/>
+    <col min="10237" max="10243" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="10244" max="10244" width="31.5703125" style="79" customWidth="1"/>
+    <col min="10245" max="10245" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10247" width="9.140625" style="79"/>
+    <col min="10248" max="10248" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10489" width="9.140625" style="79"/>
+    <col min="10490" max="10490" width="6.7109375" style="79" customWidth="1"/>
+    <col min="10491" max="10491" width="10.140625" style="79" customWidth="1"/>
+    <col min="10492" max="10492" width="45.140625" style="79" customWidth="1"/>
+    <col min="10493" max="10499" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="10500" max="10500" width="31.5703125" style="79" customWidth="1"/>
+    <col min="10501" max="10501" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10503" width="9.140625" style="79"/>
+    <col min="10504" max="10504" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10745" width="9.140625" style="79"/>
+    <col min="10746" max="10746" width="6.7109375" style="79" customWidth="1"/>
+    <col min="10747" max="10747" width="10.140625" style="79" customWidth="1"/>
+    <col min="10748" max="10748" width="45.140625" style="79" customWidth="1"/>
+    <col min="10749" max="10755" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="10756" max="10756" width="31.5703125" style="79" customWidth="1"/>
+    <col min="10757" max="10757" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10759" width="9.140625" style="79"/>
+    <col min="10760" max="10760" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="10761" max="11001" width="9.140625" style="79"/>
+    <col min="11002" max="11002" width="6.7109375" style="79" customWidth="1"/>
+    <col min="11003" max="11003" width="10.140625" style="79" customWidth="1"/>
+    <col min="11004" max="11004" width="45.140625" style="79" customWidth="1"/>
+    <col min="11005" max="11011" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="11012" max="11012" width="31.5703125" style="79" customWidth="1"/>
+    <col min="11013" max="11013" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11015" width="9.140625" style="79"/>
+    <col min="11016" max="11016" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11257" width="9.140625" style="79"/>
+    <col min="11258" max="11258" width="6.7109375" style="79" customWidth="1"/>
+    <col min="11259" max="11259" width="10.140625" style="79" customWidth="1"/>
+    <col min="11260" max="11260" width="45.140625" style="79" customWidth="1"/>
+    <col min="11261" max="11267" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="11268" max="11268" width="31.5703125" style="79" customWidth="1"/>
+    <col min="11269" max="11269" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11271" width="9.140625" style="79"/>
+    <col min="11272" max="11272" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11513" width="9.140625" style="79"/>
+    <col min="11514" max="11514" width="6.7109375" style="79" customWidth="1"/>
+    <col min="11515" max="11515" width="10.140625" style="79" customWidth="1"/>
+    <col min="11516" max="11516" width="45.140625" style="79" customWidth="1"/>
+    <col min="11517" max="11523" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="11524" max="11524" width="31.5703125" style="79" customWidth="1"/>
+    <col min="11525" max="11525" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11527" width="9.140625" style="79"/>
+    <col min="11528" max="11528" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11769" width="9.140625" style="79"/>
+    <col min="11770" max="11770" width="6.7109375" style="79" customWidth="1"/>
+    <col min="11771" max="11771" width="10.140625" style="79" customWidth="1"/>
+    <col min="11772" max="11772" width="45.140625" style="79" customWidth="1"/>
+    <col min="11773" max="11779" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="11780" max="11780" width="31.5703125" style="79" customWidth="1"/>
+    <col min="11781" max="11781" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11783" width="9.140625" style="79"/>
+    <col min="11784" max="11784" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="11785" max="12025" width="9.140625" style="79"/>
+    <col min="12026" max="12026" width="6.7109375" style="79" customWidth="1"/>
+    <col min="12027" max="12027" width="10.140625" style="79" customWidth="1"/>
+    <col min="12028" max="12028" width="45.140625" style="79" customWidth="1"/>
+    <col min="12029" max="12035" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="12036" max="12036" width="31.5703125" style="79" customWidth="1"/>
+    <col min="12037" max="12037" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12039" width="9.140625" style="79"/>
+    <col min="12040" max="12040" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12281" width="9.140625" style="79"/>
+    <col min="12282" max="12282" width="6.7109375" style="79" customWidth="1"/>
+    <col min="12283" max="12283" width="10.140625" style="79" customWidth="1"/>
+    <col min="12284" max="12284" width="45.140625" style="79" customWidth="1"/>
+    <col min="12285" max="12291" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="12292" max="12292" width="31.5703125" style="79" customWidth="1"/>
+    <col min="12293" max="12293" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12295" width="9.140625" style="79"/>
+    <col min="12296" max="12296" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12537" width="9.140625" style="79"/>
+    <col min="12538" max="12538" width="6.7109375" style="79" customWidth="1"/>
+    <col min="12539" max="12539" width="10.140625" style="79" customWidth="1"/>
+    <col min="12540" max="12540" width="45.140625" style="79" customWidth="1"/>
+    <col min="12541" max="12547" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="12548" max="12548" width="31.5703125" style="79" customWidth="1"/>
+    <col min="12549" max="12549" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12551" width="9.140625" style="79"/>
+    <col min="12552" max="12552" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12793" width="9.140625" style="79"/>
+    <col min="12794" max="12794" width="6.7109375" style="79" customWidth="1"/>
+    <col min="12795" max="12795" width="10.140625" style="79" customWidth="1"/>
+    <col min="12796" max="12796" width="45.140625" style="79" customWidth="1"/>
+    <col min="12797" max="12803" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="12804" max="12804" width="31.5703125" style="79" customWidth="1"/>
+    <col min="12805" max="12805" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12807" width="9.140625" style="79"/>
+    <col min="12808" max="12808" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="12809" max="13049" width="9.140625" style="79"/>
+    <col min="13050" max="13050" width="6.7109375" style="79" customWidth="1"/>
+    <col min="13051" max="13051" width="10.140625" style="79" customWidth="1"/>
+    <col min="13052" max="13052" width="45.140625" style="79" customWidth="1"/>
+    <col min="13053" max="13059" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="13060" max="13060" width="31.5703125" style="79" customWidth="1"/>
+    <col min="13061" max="13061" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13063" width="9.140625" style="79"/>
+    <col min="13064" max="13064" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13305" width="9.140625" style="79"/>
+    <col min="13306" max="13306" width="6.7109375" style="79" customWidth="1"/>
+    <col min="13307" max="13307" width="10.140625" style="79" customWidth="1"/>
+    <col min="13308" max="13308" width="45.140625" style="79" customWidth="1"/>
+    <col min="13309" max="13315" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="13316" max="13316" width="31.5703125" style="79" customWidth="1"/>
+    <col min="13317" max="13317" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13319" width="9.140625" style="79"/>
+    <col min="13320" max="13320" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13561" width="9.140625" style="79"/>
+    <col min="13562" max="13562" width="6.7109375" style="79" customWidth="1"/>
+    <col min="13563" max="13563" width="10.140625" style="79" customWidth="1"/>
+    <col min="13564" max="13564" width="45.140625" style="79" customWidth="1"/>
+    <col min="13565" max="13571" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="13572" max="13572" width="31.5703125" style="79" customWidth="1"/>
+    <col min="13573" max="13573" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13575" width="9.140625" style="79"/>
+    <col min="13576" max="13576" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13817" width="9.140625" style="79"/>
+    <col min="13818" max="13818" width="6.7109375" style="79" customWidth="1"/>
+    <col min="13819" max="13819" width="10.140625" style="79" customWidth="1"/>
+    <col min="13820" max="13820" width="45.140625" style="79" customWidth="1"/>
+    <col min="13821" max="13827" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="13828" max="13828" width="31.5703125" style="79" customWidth="1"/>
+    <col min="13829" max="13829" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13831" width="9.140625" style="79"/>
+    <col min="13832" max="13832" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="13833" max="14073" width="9.140625" style="79"/>
+    <col min="14074" max="14074" width="6.7109375" style="79" customWidth="1"/>
+    <col min="14075" max="14075" width="10.140625" style="79" customWidth="1"/>
+    <col min="14076" max="14076" width="45.140625" style="79" customWidth="1"/>
+    <col min="14077" max="14083" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="14084" max="14084" width="31.5703125" style="79" customWidth="1"/>
+    <col min="14085" max="14085" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14087" width="9.140625" style="79"/>
+    <col min="14088" max="14088" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14329" width="9.140625" style="79"/>
+    <col min="14330" max="14330" width="6.7109375" style="79" customWidth="1"/>
+    <col min="14331" max="14331" width="10.140625" style="79" customWidth="1"/>
+    <col min="14332" max="14332" width="45.140625" style="79" customWidth="1"/>
+    <col min="14333" max="14339" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="14340" max="14340" width="31.5703125" style="79" customWidth="1"/>
+    <col min="14341" max="14341" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14343" width="9.140625" style="79"/>
+    <col min="14344" max="14344" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14585" width="9.140625" style="79"/>
+    <col min="14586" max="14586" width="6.7109375" style="79" customWidth="1"/>
+    <col min="14587" max="14587" width="10.140625" style="79" customWidth="1"/>
+    <col min="14588" max="14588" width="45.140625" style="79" customWidth="1"/>
+    <col min="14589" max="14595" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="14596" max="14596" width="31.5703125" style="79" customWidth="1"/>
+    <col min="14597" max="14597" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14599" width="9.140625" style="79"/>
+    <col min="14600" max="14600" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14841" width="9.140625" style="79"/>
+    <col min="14842" max="14842" width="6.7109375" style="79" customWidth="1"/>
+    <col min="14843" max="14843" width="10.140625" style="79" customWidth="1"/>
+    <col min="14844" max="14844" width="45.140625" style="79" customWidth="1"/>
+    <col min="14845" max="14851" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="14852" max="14852" width="31.5703125" style="79" customWidth="1"/>
+    <col min="14853" max="14853" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14855" width="9.140625" style="79"/>
+    <col min="14856" max="14856" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="14857" max="15097" width="9.140625" style="79"/>
+    <col min="15098" max="15098" width="6.7109375" style="79" customWidth="1"/>
+    <col min="15099" max="15099" width="10.140625" style="79" customWidth="1"/>
+    <col min="15100" max="15100" width="45.140625" style="79" customWidth="1"/>
+    <col min="15101" max="15107" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="15108" max="15108" width="31.5703125" style="79" customWidth="1"/>
+    <col min="15109" max="15109" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15111" width="9.140625" style="79"/>
+    <col min="15112" max="15112" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15353" width="9.140625" style="79"/>
+    <col min="15354" max="15354" width="6.7109375" style="79" customWidth="1"/>
+    <col min="15355" max="15355" width="10.140625" style="79" customWidth="1"/>
+    <col min="15356" max="15356" width="45.140625" style="79" customWidth="1"/>
+    <col min="15357" max="15363" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="15364" max="15364" width="31.5703125" style="79" customWidth="1"/>
+    <col min="15365" max="15365" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15367" width="9.140625" style="79"/>
+    <col min="15368" max="15368" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15609" width="9.140625" style="79"/>
+    <col min="15610" max="15610" width="6.7109375" style="79" customWidth="1"/>
+    <col min="15611" max="15611" width="10.140625" style="79" customWidth="1"/>
+    <col min="15612" max="15612" width="45.140625" style="79" customWidth="1"/>
+    <col min="15613" max="15619" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="15620" max="15620" width="31.5703125" style="79" customWidth="1"/>
+    <col min="15621" max="15621" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15623" width="9.140625" style="79"/>
+    <col min="15624" max="15624" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15865" width="9.140625" style="79"/>
+    <col min="15866" max="15866" width="6.7109375" style="79" customWidth="1"/>
+    <col min="15867" max="15867" width="10.140625" style="79" customWidth="1"/>
+    <col min="15868" max="15868" width="45.140625" style="79" customWidth="1"/>
+    <col min="15869" max="15875" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="15876" max="15876" width="31.5703125" style="79" customWidth="1"/>
+    <col min="15877" max="15877" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15879" width="9.140625" style="79"/>
+    <col min="15880" max="15880" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="15881" max="16121" width="9.140625" style="79"/>
+    <col min="16122" max="16122" width="6.7109375" style="79" customWidth="1"/>
+    <col min="16123" max="16123" width="10.140625" style="79" customWidth="1"/>
+    <col min="16124" max="16124" width="45.140625" style="79" customWidth="1"/>
+    <col min="16125" max="16131" width="0" style="79" hidden="1" customWidth="1"/>
+    <col min="16132" max="16132" width="31.5703125" style="79" customWidth="1"/>
+    <col min="16133" max="16133" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16135" width="9.140625" style="79"/>
+    <col min="16136" max="16136" width="22.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16384" width="9.140625" style="79"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75">
+      <c r="A1" s="78" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
+      <c r="A3" s="78" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4" s="78" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75">
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75">
+      <c r="D7" s="81" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75">
+      <c r="A8" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84">
+        <v>42551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75">
+      <c r="A9" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="82"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75">
+      <c r="A11" s="87" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="88" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="79" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75">
+      <c r="B14" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="90">
+        <v>118201</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75">
+      <c r="B15" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="90">
+        <v>9224267647</v>
+      </c>
+      <c r="I15" s="50"/>
+      <c r="J15"/>
+      <c r="K15"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="90">
+        <v>78038.829172342026</v>
+      </c>
+      <c r="I16" s="91"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75">
+      <c r="B17" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="92">
+        <v>43.99</v>
+      </c>
+      <c r="I17" s="93"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75">
+      <c r="B18" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="92">
+        <v>11.24</v>
+      </c>
+      <c r="I18" s="93"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75">
+      <c r="B19" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="94">
+        <v>9178822199</v>
+      </c>
+      <c r="I19" s="93"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75">
+      <c r="B20" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="79" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="94">
+        <v>9200179606</v>
+      </c>
+      <c r="I20" s="93"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75">
+      <c r="B21" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" s="94">
+        <v>9221537012</v>
+      </c>
+      <c r="I21" s="93"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="D22" s="90"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="88" t="s">
+        <v>234</v>
+      </c>
+      <c r="B23" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="90"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="B24" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="90">
+        <v>7401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="B25" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="94">
+        <v>483536463</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="79" t="s">
+        <v>223</v>
+      </c>
+      <c r="D26" s="90">
+        <v>65333.93635995136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="B27" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="79" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="95">
+        <v>41.18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="B28" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" s="79" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="95">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="D29" s="96"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="88" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" s="79" t="s">
+        <v>237</v>
+      </c>
+      <c r="D30" s="96"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="83">
+        <v>14393</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="D32" s="83">
+        <v>870729599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="B33" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="79" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="90">
+        <v>60496.741402070453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="B34" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="79" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" s="97">
+        <v>47.63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" s="79" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="97">
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="D36" s="96"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="88" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="79" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" s="98"/>
+      <c r="D37" s="96"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" s="83">
+        <v>84093</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" s="79" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="97">
+        <v>73.38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="79" t="s">
+        <v>240</v>
+      </c>
+      <c r="D40" s="83">
+        <v>3954653723</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41" s="89"/>
+      <c r="D41" s="96"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="88" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" s="98" t="s">
+        <v>242</v>
+      </c>
+      <c r="D42" s="96"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="D43" s="90">
+        <v>224088</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="C44" s="99"/>
+      <c r="D44" s="100"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75">
+      <c r="A45" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="100"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="D46" s="100"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="88" t="s">
+        <v>216</v>
+      </c>
+      <c r="B47" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="100"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="89"/>
+      <c r="B48" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="D48" s="94">
+        <v>39535995292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="89"/>
+      <c r="B49" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="C49" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="D49" s="94">
+        <v>535870232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="89"/>
+      <c r="B50" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="C50" s="79" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50" s="90">
+        <v>972023664</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="89"/>
+      <c r="B51" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="C51" s="79" t="s">
+        <v>239</v>
+      </c>
+      <c r="D51" s="90">
+        <v>41614466631</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="89"/>
+      <c r="B52" s="89" t="s">
+        <v>244</v>
+      </c>
+      <c r="C52" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="D52" s="90">
+        <v>37057619</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="89"/>
+      <c r="B53" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="C53" s="79" t="s">
+        <v>246</v>
+      </c>
+      <c r="D53" s="90">
+        <v>3066827192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="89"/>
+      <c r="B54" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="C54" s="79" t="s">
+        <v>242</v>
+      </c>
+      <c r="D54" s="90">
+        <v>85762240630</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="89"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="90"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="88">
+        <v>2</v>
+      </c>
+      <c r="B56" s="79" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="D57" s="44">
+        <v>23738166660</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="89"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="90"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="89"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="89"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="B62" s="89"/>
+      <c r="D62" s="44"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="B63" s="89"/>
+      <c r="D63" s="44"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="B64" s="89"/>
+      <c r="D64" s="44"/>
+    </row>
+    <row r="65" spans="1:4" ht="17.25">
+      <c r="B65" s="89"/>
+      <c r="D65" s="102"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="B66" s="89"/>
+      <c r="D66" s="44"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="B67" s="89"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="88"/>
+      <c r="B68" s="89"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="88"/>
+      <c r="B69" s="89"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="89"/>
+      <c r="B70" s="89"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="89"/>
+      <c r="B71" s="89"/>
+      <c r="D71" s="103"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="89"/>
+      <c r="B72" s="89"/>
+      <c r="D72" s="44"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="89"/>
+      <c r="B73" s="89"/>
+      <c r="D73" s="96"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="88"/>
+      <c r="C74" s="89"/>
+      <c r="D74" s="96"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="88"/>
+      <c r="B75" s="89"/>
+      <c r="D75" s="96"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="88"/>
+      <c r="B76" s="89"/>
+      <c r="C76" s="101"/>
+      <c r="D76" s="104"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="88"/>
+      <c r="B77" s="89"/>
+      <c r="C77" s="101"/>
+      <c r="D77" s="104"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="88"/>
+      <c r="B78" s="89"/>
+      <c r="D78" s="83"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="88"/>
+      <c r="B79" s="89"/>
+      <c r="D79" s="105"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="88"/>
+      <c r="B80" s="89"/>
+      <c r="D80" s="105"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="89"/>
+      <c r="B81" s="89"/>
+      <c r="D81" s="105"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="89"/>
+      <c r="B82" s="89"/>
+      <c r="D82" s="103"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="89"/>
+      <c r="B83" s="89"/>
+      <c r="D83" s="44"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="89"/>
+      <c r="B84" s="89"/>
+      <c r="C84" s="89"/>
+      <c r="D84" s="96"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="88"/>
+      <c r="D85" s="96"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="89"/>
+      <c r="B86" s="89"/>
+      <c r="D86" s="106"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="89"/>
+      <c r="B87" s="89"/>
+      <c r="D87" s="105"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="89"/>
+      <c r="B88" s="89"/>
+      <c r="D88" s="105"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="89"/>
+      <c r="B89" s="89"/>
+      <c r="D89" s="105"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="89"/>
+      <c r="B90" s="89"/>
+      <c r="D90" s="103"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="89"/>
+      <c r="B91" s="89"/>
+      <c r="D91" s="44"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="B101" s="89"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="88"/>
+      <c r="B102" s="98"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="B103" s="89"/>
+      <c r="D103" s="44"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="B104" s="89"/>
+      <c r="D104" s="44"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="B105" s="89"/>
+      <c r="D105" s="44"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="B106" s="89"/>
+      <c r="D106" s="44"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="B107" s="89"/>
+      <c r="D107" s="107"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="B108" s="89"/>
+      <c r="D108" s="44"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="B109" s="89"/>
+      <c r="D109" s="44"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="B110" s="89"/>
+      <c r="D110" s="44"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="B111" s="89"/>
+      <c r="D111" s="44"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="B112" s="89"/>
+      <c r="D112" s="96"/>
+    </row>
+    <row r="113" spans="1:4" ht="15.75">
+      <c r="A113" s="87"/>
+      <c r="B113" s="89"/>
+      <c r="D113" s="96"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="B114" s="89"/>
+      <c r="C114" s="98"/>
+      <c r="D114" s="96"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="88"/>
+      <c r="B115" s="98"/>
+      <c r="C115" s="89"/>
+      <c r="D115" s="96"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="88"/>
+      <c r="B116" s="89"/>
+      <c r="C116" s="98"/>
+      <c r="D116" s="104"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="88"/>
+      <c r="B117" s="89"/>
+      <c r="C117" s="98"/>
+      <c r="D117" s="104"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="88"/>
+      <c r="B118" s="89"/>
+      <c r="C118" s="98"/>
+      <c r="D118" s="90"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="88"/>
+      <c r="B119" s="89"/>
+      <c r="C119" s="98"/>
+      <c r="D119" s="104"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="88"/>
+      <c r="B120" s="89"/>
+      <c r="D120" s="104"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="88"/>
+      <c r="B121" s="89"/>
+      <c r="C121" s="98"/>
+      <c r="D121" s="90"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="88"/>
+      <c r="B122" s="89"/>
+      <c r="C122" s="98"/>
+      <c r="D122" s="90"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="88"/>
+      <c r="B123" s="89"/>
+      <c r="C123" s="98"/>
+      <c r="D123" s="90"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="88"/>
+      <c r="B124" s="89"/>
+      <c r="C124" s="98"/>
+      <c r="D124" s="104"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="88"/>
+      <c r="B125" s="89"/>
+      <c r="C125" s="98"/>
+      <c r="D125" s="90"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="88"/>
+      <c r="B126" s="89"/>
+      <c r="C126" s="98"/>
+      <c r="D126" s="96"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="108"/>
+      <c r="B127" s="109"/>
+      <c r="C127" s="110"/>
+      <c r="D127" s="96"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="108"/>
+      <c r="B128" s="111"/>
+      <c r="C128" s="110"/>
+      <c r="D128" s="112"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="108"/>
+      <c r="B129" s="111"/>
+      <c r="C129" s="110"/>
+      <c r="D129" s="112"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="108"/>
+      <c r="B130" s="111"/>
+      <c r="C130" s="110"/>
+      <c r="D130" s="112"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="108"/>
+      <c r="B131" s="111"/>
+      <c r="C131" s="110"/>
+      <c r="D131" s="112"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="108"/>
+      <c r="B132" s="111"/>
+      <c r="C132" s="110"/>
+      <c r="D132" s="112"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="108"/>
+      <c r="B133" s="111"/>
+      <c r="C133" s="110"/>
+      <c r="D133" s="112"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="108"/>
+      <c r="B134" s="111"/>
+      <c r="C134" s="110"/>
+      <c r="D134" s="112"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="108"/>
+      <c r="B135" s="111"/>
+      <c r="C135" s="110"/>
+      <c r="D135" s="112"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="108"/>
+      <c r="B136" s="111"/>
+      <c r="C136" s="110"/>
+      <c r="D136" s="112"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="108"/>
+      <c r="B137" s="111"/>
+      <c r="C137" s="110"/>
+      <c r="D137" s="113"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="108"/>
+      <c r="B138" s="111"/>
+      <c r="C138" s="109"/>
+      <c r="D138" s="90"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="108"/>
+      <c r="B139" s="111"/>
+      <c r="C139" s="110"/>
+      <c r="D139" s="96"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="108"/>
+      <c r="B140" s="109"/>
+      <c r="C140" s="110"/>
+      <c r="D140" s="96"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="108"/>
+      <c r="B141" s="111"/>
+      <c r="C141" s="110"/>
+      <c r="D141" s="96"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="108"/>
+      <c r="B142" s="111"/>
+      <c r="C142" s="110"/>
+      <c r="D142" s="96"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="108"/>
+      <c r="B143" s="111"/>
+      <c r="C143" s="110"/>
+      <c r="D143" s="96"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="108"/>
+      <c r="B144" s="111"/>
+      <c r="C144" s="110"/>
+      <c r="D144" s="96"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="108"/>
+      <c r="B145" s="111"/>
+      <c r="C145" s="110"/>
+      <c r="D145" s="96"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="108"/>
+      <c r="B146" s="111"/>
+      <c r="C146" s="110"/>
+      <c r="D146" s="96"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="108"/>
+      <c r="B147" s="111"/>
+      <c r="C147" s="110"/>
+      <c r="D147" s="96"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="108"/>
+      <c r="B148" s="111"/>
+      <c r="C148" s="110"/>
+      <c r="D148" s="90"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="108"/>
+      <c r="B149" s="111"/>
+      <c r="C149" s="110"/>
+      <c r="D149" s="90"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="108"/>
+      <c r="B150" s="111"/>
+      <c r="C150" s="110"/>
+      <c r="D150" s="113"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="108"/>
+      <c r="B151" s="111"/>
+      <c r="C151" s="109"/>
+      <c r="D151" s="114"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="108"/>
+      <c r="B152" s="111"/>
+      <c r="C152" s="109"/>
+      <c r="D152" s="96"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="108"/>
+      <c r="B153" s="111"/>
+      <c r="C153" s="110"/>
+      <c r="D153" s="96"/>
+    </row>
+    <row r="154" spans="1:4" ht="15.75">
+      <c r="A154" s="115"/>
+      <c r="B154" s="89"/>
+      <c r="C154" s="98"/>
+      <c r="D154" s="96"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="88"/>
+      <c r="B155" s="98"/>
+      <c r="C155" s="98"/>
+      <c r="D155" s="96"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="88"/>
+      <c r="B156" s="98"/>
+      <c r="C156" s="98"/>
+      <c r="D156" s="96"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="B157" s="89"/>
+      <c r="D157" s="90"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="89"/>
+      <c r="B158" s="89"/>
+      <c r="D158" s="90"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="89"/>
+      <c r="B159" s="89"/>
+      <c r="D159" s="90"/>
+    </row>
+    <row r="160" spans="1:4" ht="17.25">
+      <c r="A160" s="89"/>
+      <c r="B160" s="89"/>
+      <c r="D160" s="116"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="89"/>
+      <c r="B161" s="88"/>
+      <c r="D161" s="117"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="89"/>
+      <c r="B162" s="89"/>
+      <c r="D162" s="96"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="88"/>
+      <c r="D163" s="96"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="88"/>
+      <c r="D164" s="107"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="88"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Benefit type; e.g., Service Retirement, Ordinary Disability" sqref="I16" xr:uid="{0040780E-CB97-41FF-A91F-D9E8714962C3}"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Present Value of Benefits for prior fiscal year to nearest dollar" sqref="J16:K16" xr:uid="{FF641ED1-57A9-4036-BD14-2DD89613336B}">
+      <formula1>-1000000000000</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4FDDF8-106A-47EA-BD4C-5B4A1371B873}">
   <dimension ref="B2:I6"/>
   <sheetViews>
@@ -7721,7 +11609,7 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
@@ -7730,31 +11618,31 @@
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9">
       <c r="B2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" t="s">
-        <v>122</v>
-      </c>
       <c r="G3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C4" s="36">
         <v>70000777</v>
@@ -7770,9 +11658,9 @@
         <v>0.46511447689862456</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9">
       <c r="B5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C5" s="36">
         <v>73323430</v>
@@ -7784,7 +11672,7 @@
         <v>22004183</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9">
       <c r="C6" s="37"/>
     </row>
   </sheetData>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF6B50E-5D63-4D66-9663-5AA81181757D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1749E4-FDE8-4B1D-A196-D0D46595BBEA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1530" windowWidth="29040" windowHeight="15840" tabRatio="524" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
     <sheet name="GlobalParams" sheetId="3" r:id="rId2"/>
     <sheet name="returns" sheetId="2" r:id="rId3"/>
     <sheet name="Calibration_AV2016lag" sheetId="10" r:id="rId4"/>
-    <sheet name="PVB 1" sheetId="12" r:id="rId5"/>
-    <sheet name="PVB 2" sheetId="13" r:id="rId6"/>
-    <sheet name="First3Years" sheetId="14" r:id="rId7"/>
-    <sheet name="DetectiveWork" sheetId="11" r:id="rId8"/>
+    <sheet name="Calibration_AV2016lag (2)" sheetId="15" r:id="rId5"/>
+    <sheet name="PVB 1" sheetId="12" r:id="rId6"/>
+    <sheet name="PVB 2" sheetId="13" r:id="rId7"/>
+    <sheet name="First3Years" sheetId="14" r:id="rId8"/>
+    <sheet name="DetectiveWork" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -205,6 +206,40 @@
     <author>Author</author>
   </authors>
   <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{1126C6A6-A9F8-4231-A650-77C050A872C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+adj because using tier results not obl results</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
     <comment ref="C5" authorId="0" shapeId="0" xr:uid="{DDF1CF52-8DCF-4669-8381-8CDAA6ABBE43}">
       <text>
         <r>
@@ -257,7 +292,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -296,7 +331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="284">
   <si>
     <t>runname</t>
   </si>
@@ -1175,12 +1210,30 @@
   <si>
     <t>ERC_PR</t>
   </si>
+  <si>
+    <t>Diff %</t>
+  </si>
+  <si>
+    <t>PVFB_servRet+other</t>
+  </si>
+  <si>
+    <t>Target ($B)</t>
+  </si>
+  <si>
+    <t>Model ($B)</t>
+  </si>
+  <si>
+    <t>PVFB_inactives+terminated</t>
+  </si>
+  <si>
+    <t>EEC (received in FY2016)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="13">
+  <numFmts count="14">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1194,8 +1247,9 @@
     <numFmt numFmtId="171" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="172" formatCode="0.000%"/>
     <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="174" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1346,6 +1400,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1530,7 +1590,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1782,6 +1842,26 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2119,10 +2199,10 @@
   <dimension ref="A3:BG46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="Y14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AE38" sqref="AE38"/>
+      <selection pane="bottomRight" activeCell="AY16" sqref="AY16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2575,10 +2655,10 @@
         <v>32</v>
       </c>
       <c r="AW5">
-        <v>0.623</v>
+        <v>0.624</v>
       </c>
       <c r="AX5">
-        <v>0.57999999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="BA5" t="b">
         <v>1</v>
@@ -2744,10 +2824,10 @@
         <v>32</v>
       </c>
       <c r="AW7">
-        <v>0.623</v>
+        <v>0.624</v>
       </c>
       <c r="AX7">
-        <v>0.57999999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="BA7" t="b">
         <v>1</v>
@@ -2908,10 +2988,10 @@
         <v>32</v>
       </c>
       <c r="AW8">
-        <v>0.623</v>
+        <v>0.624</v>
       </c>
       <c r="AX8">
-        <v>0.57999999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="BA8" t="b">
         <v>1</v>
@@ -3077,10 +3157,10 @@
         <v>32</v>
       </c>
       <c r="AW10">
-        <v>0.623</v>
+        <v>0.624</v>
       </c>
       <c r="AX10">
-        <v>0.57999999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="BA10" t="b">
         <v>1</v>
@@ -3112,7 +3192,7 @@
         <v>130</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0.3</v>
@@ -3241,10 +3321,10 @@
         <v>32</v>
       </c>
       <c r="AW11">
-        <v>0.623</v>
+        <v>0.624</v>
       </c>
       <c r="AX11">
-        <v>0.57999999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="BA11" t="b">
         <v>1</v>
@@ -3410,10 +3490,10 @@
         <v>32</v>
       </c>
       <c r="AW13">
-        <v>0.623</v>
+        <v>0.624</v>
       </c>
       <c r="AX13">
-        <v>0.57999999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="BA13" t="b">
         <v>1</v>
@@ -3574,10 +3654,10 @@
         <v>32</v>
       </c>
       <c r="AW14">
-        <v>0.623</v>
+        <v>0.624</v>
       </c>
       <c r="AX14">
-        <v>0.57999999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="BA14" t="b">
         <v>1</v>
@@ -3614,7 +3694,7 @@
         <v>115</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0.3</v>
@@ -3743,10 +3823,10 @@
         <v>145</v>
       </c>
       <c r="AW16">
-        <v>0.623</v>
+        <v>0.624</v>
       </c>
       <c r="AX16">
-        <v>0.57999999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="BA16" t="b">
         <v>1</v>
@@ -3778,7 +3858,7 @@
         <v>115</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0.3</v>
@@ -3907,10 +3987,10 @@
         <v>32</v>
       </c>
       <c r="AW17">
-        <v>0.623</v>
+        <v>0.624</v>
       </c>
       <c r="AX17">
-        <v>0.57999999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="BA17" t="b">
         <v>1</v>
@@ -3942,7 +4022,7 @@
         <v>115</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0.3</v>
@@ -4071,10 +4151,10 @@
         <v>32</v>
       </c>
       <c r="AW18">
-        <v>0.623</v>
+        <v>0.624</v>
       </c>
       <c r="AX18">
-        <v>0.57999999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="BA18" t="b">
         <v>1</v>
@@ -4106,7 +4186,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0.3</v>
@@ -4235,10 +4315,10 @@
         <v>32</v>
       </c>
       <c r="AW19">
-        <v>0.623</v>
+        <v>0.624</v>
       </c>
       <c r="AX19">
-        <v>0.57999999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="BA19" t="b">
         <v>1</v>
@@ -4270,7 +4350,7 @@
         <v>115</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>0.3</v>
@@ -4399,10 +4479,10 @@
         <v>32</v>
       </c>
       <c r="AW20">
-        <v>0.623</v>
+        <v>0.624</v>
       </c>
       <c r="AX20">
-        <v>0.57999999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="BA20" t="b">
         <v>1</v>
@@ -4434,7 +4514,7 @@
         <v>114</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0.3</v>
@@ -4563,10 +4643,10 @@
         <v>32</v>
       </c>
       <c r="AW21">
-        <v>0.623</v>
+        <v>0.624</v>
       </c>
       <c r="AX21">
-        <v>0.57999999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="BA21" t="b">
         <v>1</v>
@@ -4602,7 +4682,7 @@
         <v>114</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>0.3</v>
@@ -4731,10 +4811,10 @@
         <v>32</v>
       </c>
       <c r="AW23">
-        <v>0.623</v>
+        <v>0.624</v>
       </c>
       <c r="AX23">
-        <v>0.57999999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="BA23" t="b">
         <v>1</v>
@@ -4766,7 +4846,7 @@
         <v>130</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0.3</v>
@@ -4895,10 +4975,10 @@
         <v>32</v>
       </c>
       <c r="AW24">
-        <v>0.623</v>
+        <v>0.624</v>
       </c>
       <c r="AX24">
-        <v>0.57999999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="BA24" t="b">
         <v>1</v>
@@ -5058,10 +5138,10 @@
         <v>32</v>
       </c>
       <c r="AW26">
-        <v>0.623</v>
+        <v>0.624</v>
       </c>
       <c r="AX26">
-        <v>0.57999999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="BA26" t="b">
         <v>1</v>
@@ -5216,10 +5296,10 @@
         <v>32</v>
       </c>
       <c r="AW27">
-        <v>0.623</v>
+        <v>0.624</v>
       </c>
       <c r="AX27">
-        <v>0.57999999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="BA27" t="b">
         <v>1</v>
@@ -5379,10 +5459,10 @@
         <v>32</v>
       </c>
       <c r="AW29">
-        <v>0.623</v>
+        <v>0.624</v>
       </c>
       <c r="AX29">
-        <v>0.57999999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="BA29" t="b">
         <v>1</v>
@@ -5537,10 +5617,10 @@
         <v>32</v>
       </c>
       <c r="AW30">
-        <v>0.623</v>
+        <v>0.624</v>
       </c>
       <c r="AX30">
-        <v>0.57999999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="BA30" t="b">
         <v>1</v>
@@ -7851,8 +7931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8295,11 +8375,665 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6BF394-4CD7-4BCB-B328-ED95773294C9}">
+  <dimension ref="B2:H43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="28.28515625" style="105" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="106" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="106" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="106" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="106" customWidth="1"/>
+    <col min="7" max="7" width="36" style="105" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="20.25" customHeight="1">
+      <c r="D2" s="106" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="106" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" s="106" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="105" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B3" s="121" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="107">
+        <v>37667162029</v>
+      </c>
+      <c r="D3" s="114">
+        <f>C3/1000000000</f>
+        <v>37.667162029000004</v>
+      </c>
+      <c r="E3" s="114">
+        <v>37.090000000000003</v>
+      </c>
+      <c r="F3" s="122">
+        <f>E3/D3 -1</f>
+        <v>-1.5322684213789239E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B4" s="121" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="108">
+        <v>1062059552</v>
+      </c>
+      <c r="D4" s="114">
+        <f t="shared" ref="D4:D39" si="0">C4/1000000000</f>
+        <v>1.062059552</v>
+      </c>
+      <c r="E4" s="126">
+        <v>0.98</v>
+      </c>
+      <c r="F4" s="127">
+        <f t="shared" ref="F4:F39" si="1">E4/D4 -1</f>
+        <v>-7.7264548720898829E-2</v>
+      </c>
+      <c r="G4" s="105" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B5" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="109">
+        <v>405896494</v>
+      </c>
+      <c r="D5" s="114">
+        <f t="shared" si="0"/>
+        <v>0.405896494</v>
+      </c>
+      <c r="E5" s="114">
+        <v>0.41</v>
+      </c>
+      <c r="F5" s="122">
+        <f t="shared" si="1"/>
+        <v>1.0109735020278343E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B6" s="105" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="109">
+        <v>2190015114</v>
+      </c>
+      <c r="D6" s="114">
+        <f t="shared" si="0"/>
+        <v>2.1900151139999999</v>
+      </c>
+      <c r="E6" s="114"/>
+      <c r="F6" s="122"/>
+      <c r="H6" s="28">
+        <f>C6+C7-C11-C12</f>
+        <v>808097004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B7" s="105" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="109">
+        <v>125975786</v>
+      </c>
+      <c r="D7" s="114">
+        <f t="shared" si="0"/>
+        <v>0.12597578600000001</v>
+      </c>
+      <c r="E7" s="114"/>
+      <c r="F7" s="122"/>
+    </row>
+    <row r="8" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B8" s="105" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="109">
+        <v>2659607405</v>
+      </c>
+      <c r="D8" s="114">
+        <f t="shared" si="0"/>
+        <v>2.659607405</v>
+      </c>
+      <c r="E8" s="114"/>
+      <c r="F8" s="122"/>
+    </row>
+    <row r="9" spans="2:8" ht="20.25" customHeight="1">
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="122"/>
+    </row>
+    <row r="10" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B10" s="121" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="106">
+        <v>39535995292</v>
+      </c>
+      <c r="D10" s="114">
+        <f t="shared" si="0"/>
+        <v>39.535995292000003</v>
+      </c>
+      <c r="E10" s="114">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="F10" s="122">
+        <f t="shared" si="1"/>
+        <v>-8.4984655000701625E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B11" s="105" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="111">
+        <v>535870232</v>
+      </c>
+      <c r="D11" s="114">
+        <f t="shared" si="0"/>
+        <v>0.53587023199999995</v>
+      </c>
+      <c r="E11" s="114"/>
+      <c r="F11" s="122"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B12" s="105" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="110">
+        <v>972023664</v>
+      </c>
+      <c r="D12" s="114">
+        <f t="shared" si="0"/>
+        <v>0.97202366399999995</v>
+      </c>
+      <c r="E12" s="114"/>
+      <c r="F12" s="122"/>
+    </row>
+    <row r="13" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B13" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" s="110">
+        <f>SUM(C11:C12)</f>
+        <v>1507893896</v>
+      </c>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="122"/>
+    </row>
+    <row r="14" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B14" s="125" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="110">
+        <v>3066827192</v>
+      </c>
+      <c r="D14" s="114">
+        <f t="shared" si="0"/>
+        <v>3.0668271919999999</v>
+      </c>
+      <c r="E14" s="114"/>
+      <c r="F14" s="122"/>
+    </row>
+    <row r="15" spans="2:8" ht="20.25" customHeight="1">
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="122"/>
+    </row>
+    <row r="16" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B16" s="105" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="106">
+        <v>37988259515</v>
+      </c>
+      <c r="D16" s="114">
+        <f t="shared" si="0"/>
+        <v>37.988259515000003</v>
+      </c>
+      <c r="E16" s="114"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="105" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B17" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="106">
+        <v>2813575411</v>
+      </c>
+      <c r="D17" s="114">
+        <f t="shared" si="0"/>
+        <v>2.813575411</v>
+      </c>
+      <c r="E17" s="114"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="105" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B18" s="121" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="106">
+        <v>849689324</v>
+      </c>
+      <c r="D18" s="114">
+        <f>C18/1000000000</f>
+        <v>0.84968932399999997</v>
+      </c>
+      <c r="E18" s="114">
+        <v>1.03</v>
+      </c>
+      <c r="F18" s="127">
+        <f t="shared" si="1"/>
+        <v>0.21220776924814011</v>
+      </c>
+      <c r="G18" s="105" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B19" s="121" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" s="106">
+        <f>C17+C16</f>
+        <v>40801834926</v>
+      </c>
+      <c r="D19" s="114">
+        <f>C19/1000000000</f>
+        <v>40.801834925999998</v>
+      </c>
+      <c r="E19" s="114">
+        <v>41.6</v>
+      </c>
+      <c r="F19" s="122">
+        <f t="shared" si="1"/>
+        <v>1.9561989686189163E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="20.25" customHeight="1">
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="122"/>
+    </row>
+    <row r="21" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B21" s="121" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="106">
+        <f>SUM(C10,C11,C12,C14)</f>
+        <v>44110716380</v>
+      </c>
+      <c r="D21" s="114">
+        <f t="shared" si="0"/>
+        <v>44.11071638</v>
+      </c>
+      <c r="E21" s="114">
+        <v>43.86</v>
+      </c>
+      <c r="F21" s="122">
+        <f t="shared" si="1"/>
+        <v>-5.6837975117011164E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B22" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="112">
+        <f>SUM(C16,C17,C18)</f>
+        <v>41651524250</v>
+      </c>
+      <c r="D22" s="114">
+        <f t="shared" si="0"/>
+        <v>41.651524250000001</v>
+      </c>
+      <c r="E22" s="114">
+        <v>42.6</v>
+      </c>
+      <c r="F22" s="122">
+        <f t="shared" si="1"/>
+        <v>2.2771693643360402E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="20.25" customHeight="1">
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="122"/>
+    </row>
+    <row r="24" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B24" s="121" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="106">
+        <f>SUM(C21:C22)</f>
+        <v>85762240630</v>
+      </c>
+      <c r="D24" s="114">
+        <f t="shared" si="0"/>
+        <v>85.762240629999994</v>
+      </c>
+      <c r="E24" s="114">
+        <v>86.5</v>
+      </c>
+      <c r="F24" s="122">
+        <f t="shared" si="1"/>
+        <v>8.6023798419969655E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="20.25" customHeight="1">
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="122"/>
+    </row>
+    <row r="26" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B26" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="110">
+        <v>23738166660</v>
+      </c>
+      <c r="D26" s="114">
+        <f t="shared" si="0"/>
+        <v>23.738166660000001</v>
+      </c>
+      <c r="E26" s="114">
+        <v>21.5</v>
+      </c>
+      <c r="F26" s="127">
+        <f t="shared" si="1"/>
+        <v>-9.4285573610510709E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B27" s="121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" s="113">
+        <f>SUM(C26,C11,C12,C14,C22)</f>
+        <v>69964411998</v>
+      </c>
+      <c r="D27" s="114">
+        <f t="shared" si="0"/>
+        <v>69.964411998000003</v>
+      </c>
+      <c r="E27" s="114">
+        <v>68.7</v>
+      </c>
+      <c r="F27" s="122">
+        <f t="shared" si="1"/>
+        <v>-1.807221645822088E-2</v>
+      </c>
+      <c r="G27" s="105" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="20.25" customHeight="1">
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="122"/>
+    </row>
+    <row r="29" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B29" s="121" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" s="106">
+        <v>3954653723</v>
+      </c>
+      <c r="D29" s="114">
+        <f t="shared" si="0"/>
+        <v>3.9546537229999998</v>
+      </c>
+      <c r="E29" s="114">
+        <v>3.95</v>
+      </c>
+      <c r="F29" s="122">
+        <f t="shared" si="1"/>
+        <v>-1.1767712993261403E-3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="20.25" customHeight="1">
+      <c r="D30" s="114"/>
+      <c r="F30" s="122"/>
+    </row>
+    <row r="31" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B31" s="121" t="s">
+        <v>283</v>
+      </c>
+      <c r="C31" s="106">
+        <v>173696000</v>
+      </c>
+      <c r="D31" s="128">
+        <f>C31/1000000000</f>
+        <v>0.17369599999999999</v>
+      </c>
+      <c r="E31" s="124">
+        <v>0.19</v>
+      </c>
+      <c r="F31" s="122">
+        <f t="shared" si="1"/>
+        <v>9.3865143699336961E-2</v>
+      </c>
+      <c r="G31" s="105" t="s">
+        <v>257</v>
+      </c>
+      <c r="H31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B32" s="121" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" s="106">
+        <v>1172161054</v>
+      </c>
+      <c r="D32" s="114">
+        <f t="shared" si="0"/>
+        <v>1.172161054</v>
+      </c>
+      <c r="E32" s="124">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F32" s="122">
+        <f t="shared" si="1"/>
+        <v>-1.8906151099608248E-2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B33" s="121" t="s">
+        <v>248</v>
+      </c>
+      <c r="C33" s="106">
+        <v>2663071096</v>
+      </c>
+      <c r="D33" s="114">
+        <f t="shared" si="0"/>
+        <v>2.6630710959999999</v>
+      </c>
+      <c r="E33" s="106">
+        <v>2.67</v>
+      </c>
+      <c r="F33" s="122">
+        <f t="shared" si="1"/>
+        <v>2.6018471720141712E-3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B34" s="121" t="s">
+        <v>276</v>
+      </c>
+      <c r="C34" s="106">
+        <v>3889709927</v>
+      </c>
+      <c r="D34" s="114">
+        <f t="shared" si="0"/>
+        <v>3.8897099270000002</v>
+      </c>
+      <c r="E34" s="123">
+        <v>3.82</v>
+      </c>
+      <c r="F34" s="122">
+        <f t="shared" si="1"/>
+        <v>-1.7921626113072464E-2</v>
+      </c>
+      <c r="G34" s="105" t="s">
+        <v>252</v>
+      </c>
+      <c r="H34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="20.25" customHeight="1">
+      <c r="D35" s="114"/>
+      <c r="F35" s="122"/>
+    </row>
+    <row r="36" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B36" s="121" t="s">
+        <v>251</v>
+      </c>
+      <c r="C36" s="106">
+        <v>9224267647</v>
+      </c>
+      <c r="D36" s="114">
+        <f t="shared" si="0"/>
+        <v>9.2242676469999996</v>
+      </c>
+      <c r="E36" s="123">
+        <v>9.14</v>
+      </c>
+      <c r="F36" s="122">
+        <f t="shared" si="1"/>
+        <v>-9.1354295240343442E-3</v>
+      </c>
+      <c r="H36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="20.25" customHeight="1">
+      <c r="D37" s="114"/>
+      <c r="F37" s="122"/>
+    </row>
+    <row r="38" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B38" s="121" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="106">
+        <v>43629545000</v>
+      </c>
+      <c r="D38" s="114">
+        <f t="shared" si="0"/>
+        <v>43.629545</v>
+      </c>
+      <c r="E38" s="106">
+        <v>42.8</v>
+      </c>
+      <c r="F38" s="122">
+        <f t="shared" si="1"/>
+        <v>-1.901337728825736E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B39" s="121" t="s">
+        <v>250</v>
+      </c>
+      <c r="C39" s="106">
+        <v>41015087000</v>
+      </c>
+      <c r="D39" s="114">
+        <f t="shared" si="0"/>
+        <v>41.015087000000001</v>
+      </c>
+      <c r="E39" s="106">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="F39" s="122">
+        <f t="shared" si="1"/>
+        <v>-2.9625366880240978E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B40" s="105" t="s">
+        <v>255</v>
+      </c>
+      <c r="C40" s="115">
+        <f>C38/C27</f>
+        <v>0.62359625063735535</v>
+      </c>
+      <c r="F40" s="122"/>
+    </row>
+    <row r="41" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B41" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="C41" s="115">
+        <f>C39/C27</f>
+        <v>0.58622785254269638</v>
+      </c>
+      <c r="F41" s="122"/>
+    </row>
+    <row r="42" spans="2:8" ht="20.25" customHeight="1">
+      <c r="F42" s="122"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="121" t="s">
+        <v>277</v>
+      </c>
+      <c r="C43" s="115">
+        <f>C34/C36</f>
+        <v>0.42168224902548734</v>
+      </c>
+      <c r="F43" s="122"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Present Value of Benefits for prior fiscal year to nearest dollar" sqref="C3" xr:uid="{F752BF23-4F7C-4806-883E-41E73DE81EE7}">
+      <formula1>-1000000000000</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B508DC0-69AE-4068-9149-A87C403CFFD6}">
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8986,7 +9720,10 @@
     <row r="14" spans="2:11" ht="15.75">
       <c r="B14" s="39"/>
       <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
+      <c r="D14" s="42">
+        <f>SUM(D8,D12)</f>
+        <v>3065503899</v>
+      </c>
       <c r="E14" s="41" t="e">
         <v>#DIV/0!</v>
       </c>
@@ -9337,12 +10074,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76452C8F-5FF9-4994-944A-956040440E81}">
   <dimension ref="A1:K165"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="D48" sqref="D48:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10983,7 +11720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12C2C70-1D38-4C9C-8A29-A9ED22FEC02C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10997,7 +11734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4FDDF8-106A-47EA-BD4C-5B4A1371B873}">
   <dimension ref="B2:I6"/>
   <sheetViews>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1749E4-FDE8-4B1D-A196-D0D46595BBEA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1926FD-9D54-4763-BE10-92C262244AD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1530" windowWidth="16440" windowHeight="28440" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,11 @@
     <sheet name="Calibration_AV2016lag (2)" sheetId="15" r:id="rId5"/>
     <sheet name="PVB 1" sheetId="12" r:id="rId6"/>
     <sheet name="PVB 2" sheetId="13" r:id="rId7"/>
-    <sheet name="First3Years" sheetId="14" r:id="rId8"/>
-    <sheet name="DetectiveWork" sheetId="11" r:id="rId9"/>
+    <sheet name="PVB 1 (2)" sheetId="16" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId9"/>
+    <sheet name="First3Years" sheetId="14" r:id="rId10"/>
+    <sheet name="DetectiveWork" sheetId="11" r:id="rId11"/>
+    <sheet name="Variable fund" sheetId="18" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -330,8 +333,42 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{873586C9-0526-4EF8-8986-7703F1DD56A1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+adj because using tier results not obl results</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="322">
   <si>
     <t>runname</t>
   </si>
@@ -1223,17 +1260,132 @@
     <t>Model ($B)</t>
   </si>
   <si>
-    <t>PVFB_inactives+terminated</t>
-  </si>
-  <si>
     <t>EEC (received in FY2016)</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Max Allowance at age 60</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>COLA Increase</t>
+  </si>
+  <si>
+    <t>accumlative COLA</t>
+  </si>
+  <si>
+    <t>PV at 60</t>
+  </si>
+  <si>
+    <t>Diff in PV</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>PVFB_actives1_term estimated</t>
+  </si>
+  <si>
+    <t>calibrated benefit downward to match the target</t>
+  </si>
+  <si>
+    <t>Diversified Equity fund</t>
+  </si>
+  <si>
+    <t>short-term investment</t>
+  </si>
+  <si>
+    <t>Equity Securities</t>
+  </si>
+  <si>
+    <t>Debt Securities</t>
+  </si>
+  <si>
+    <t>Corporate bonds</t>
+  </si>
+  <si>
+    <t>Short-term investments</t>
+  </si>
+  <si>
+    <t>Equity Security</t>
+  </si>
+  <si>
+    <t>International equity</t>
+  </si>
+  <si>
+    <t>Collateral form Securities lending</t>
+  </si>
+  <si>
+    <t>Balanced fund</t>
+  </si>
+  <si>
+    <t>International Equity</t>
+  </si>
+  <si>
+    <t>Inflation Protected</t>
+  </si>
+  <si>
+    <t>Socially Responsible Equity Fund</t>
+  </si>
+  <si>
+    <t>Fixed Return Fund</t>
+  </si>
+  <si>
+    <t>commercial paper</t>
+  </si>
+  <si>
+    <t>short-term investment fund</t>
+  </si>
+  <si>
+    <t>Discount notes</t>
+  </si>
+  <si>
+    <t>Debt securities</t>
+  </si>
+  <si>
+    <t>U.S. Government</t>
+  </si>
+  <si>
+    <t>Corportate and Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equtiy security </t>
+  </si>
+  <si>
+    <t>Alternative</t>
+  </si>
+  <si>
+    <t>Collective Trust Funds</t>
+  </si>
+  <si>
+    <t>Mortgage debt security</t>
+  </si>
+  <si>
+    <t>TIPS</t>
+  </si>
+  <si>
+    <t>Fixed Income</t>
+  </si>
+  <si>
+    <t>Collateral from Security lending</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="14">
+  <numFmts count="15">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1249,7 +1401,7 @@
     <numFmt numFmtId="173" formatCode="0.0"/>
     <numFmt numFmtId="174" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1409,8 +1561,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1513,6 +1671,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1590,7 +1754,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1827,22 +1991,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1861,6 +2009,113 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="7" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="18" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="18" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="18" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2198,11 +2453,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:BG46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AY16" sqref="AY16"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3192,7 +3447,7 @@
         <v>130</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0.3</v>
@@ -3694,7 +3949,7 @@
         <v>115</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0.3</v>
@@ -3858,7 +4113,7 @@
         <v>115</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0.3</v>
@@ -4022,7 +4277,7 @@
         <v>115</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0.3</v>
@@ -4186,7 +4441,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0.3</v>
@@ -4350,7 +4605,7 @@
         <v>115</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0.3</v>
@@ -4514,7 +4769,7 @@
         <v>114</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0.3</v>
@@ -4682,7 +4937,7 @@
         <v>114</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0.3</v>
@@ -4846,7 +5101,7 @@
         <v>130</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0.3</v>
@@ -7019,6 +7274,828 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12C2C70-1D38-4C9C-8A29-A9ED22FEC02C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4FDDF8-106A-47EA-BD4C-5B4A1371B873}">
+  <dimension ref="B2:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="27">
+        <v>70000777</v>
+      </c>
+      <c r="D4" s="27">
+        <v>43629545</v>
+      </c>
+      <c r="G4">
+        <v>20292733</v>
+      </c>
+      <c r="I4" s="29">
+        <f>G4/D4</f>
+        <v>0.46511447689862456</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="27">
+        <v>73323430</v>
+      </c>
+      <c r="D5" s="27">
+        <v>50095723</v>
+      </c>
+      <c r="G5">
+        <v>22004183</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="C6" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587985C1-19B7-4168-A948-80D126BFDABB}">
+  <dimension ref="B2:I57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="24.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="9" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="D2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2015</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2014</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="C4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" s="27">
+        <v>135558</v>
+      </c>
+      <c r="E4" s="27">
+        <v>65825</v>
+      </c>
+      <c r="F4" s="27">
+        <v>29570</v>
+      </c>
+      <c r="G4" s="27">
+        <v>33499</v>
+      </c>
+      <c r="H4" s="27">
+        <v>37417</v>
+      </c>
+      <c r="I4" s="27">
+        <v>30565</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="C5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="27">
+        <v>6125780</v>
+      </c>
+      <c r="E5" s="27">
+        <v>6031258</v>
+      </c>
+      <c r="F5" s="27">
+        <v>2206416</v>
+      </c>
+      <c r="G5" s="27">
+        <v>2798742</v>
+      </c>
+      <c r="H5" s="27">
+        <v>3257181</v>
+      </c>
+      <c r="I5" s="27">
+        <v>3104060</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="C6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="27">
+        <v>127150</v>
+      </c>
+      <c r="E6" s="27">
+        <v>106307</v>
+      </c>
+      <c r="F6" s="27">
+        <v>50541</v>
+      </c>
+      <c r="G6" s="27">
+        <v>62026</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="C7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27">
+        <v>0</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0</v>
+      </c>
+      <c r="H7" s="27">
+        <v>72911</v>
+      </c>
+      <c r="I7" s="27">
+        <v>134980</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="C10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D10" s="27">
+        <v>849</v>
+      </c>
+      <c r="E10" s="27">
+        <v>3576</v>
+      </c>
+      <c r="F10" s="27">
+        <v>432</v>
+      </c>
+      <c r="G10" s="27">
+        <v>673</v>
+      </c>
+      <c r="H10" s="27">
+        <v>1011</v>
+      </c>
+      <c r="I10" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="C11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" s="27">
+        <v>70562</v>
+      </c>
+      <c r="E11" s="27">
+        <v>83333</v>
+      </c>
+      <c r="F11" s="27">
+        <v>24393</v>
+      </c>
+      <c r="G11" s="27">
+        <v>35113</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="C12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27">
+        <v>0</v>
+      </c>
+      <c r="G12" s="27">
+        <v>0</v>
+      </c>
+      <c r="H12" s="27">
+        <v>50232</v>
+      </c>
+      <c r="I12" s="27">
+        <v>66118</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="C13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="C16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="27">
+        <v>80</v>
+      </c>
+      <c r="E16" s="27">
+        <v>53</v>
+      </c>
+      <c r="F16" s="27">
+        <v>75</v>
+      </c>
+      <c r="G16" s="27">
+        <v>124</v>
+      </c>
+      <c r="H16" s="27">
+        <v>139</v>
+      </c>
+      <c r="I16" s="27">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="C17" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" s="27">
+        <v>12076</v>
+      </c>
+      <c r="E17" s="27">
+        <v>12436</v>
+      </c>
+      <c r="F17" s="27">
+        <v>8012</v>
+      </c>
+      <c r="G17" s="27">
+        <v>10669</v>
+      </c>
+      <c r="H17" s="27">
+        <v>12639</v>
+      </c>
+      <c r="I17" s="27">
+        <v>11895</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="C20" t="s">
+        <v>300</v>
+      </c>
+      <c r="D20" s="27">
+        <v>3</v>
+      </c>
+      <c r="E20" s="27">
+        <v>23</v>
+      </c>
+      <c r="F20" s="27">
+        <v>12</v>
+      </c>
+      <c r="G20" s="27">
+        <v>10</v>
+      </c>
+      <c r="H20" s="27">
+        <v>11</v>
+      </c>
+      <c r="I20" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="C21" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" s="27">
+        <v>4596</v>
+      </c>
+      <c r="E21" s="27">
+        <v>4761</v>
+      </c>
+      <c r="F21" s="27">
+        <v>3960</v>
+      </c>
+      <c r="G21" s="27">
+        <v>4791</v>
+      </c>
+      <c r="H21" s="27">
+        <v>5723</v>
+      </c>
+      <c r="I21" s="27">
+        <v>5923</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="C24" t="s">
+        <v>300</v>
+      </c>
+      <c r="D24" s="27">
+        <v>453</v>
+      </c>
+      <c r="E24" s="27">
+        <v>662</v>
+      </c>
+      <c r="F24" s="27">
+        <v>24</v>
+      </c>
+      <c r="G24" s="27">
+        <v>461</v>
+      </c>
+      <c r="H24" s="27">
+        <v>532</v>
+      </c>
+      <c r="I24" s="27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="C25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" s="27">
+        <v>11654</v>
+      </c>
+      <c r="E25" s="27">
+        <v>11320</v>
+      </c>
+      <c r="F25" s="27">
+        <v>7650</v>
+      </c>
+      <c r="G25" s="27">
+        <v>7576</v>
+      </c>
+      <c r="H25" s="27">
+        <v>7413</v>
+      </c>
+      <c r="I25" s="27">
+        <v>6268</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="C26" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" s="27">
+        <v>717</v>
+      </c>
+      <c r="E26" s="27">
+        <v>516</v>
+      </c>
+      <c r="F26" s="27">
+        <v>158</v>
+      </c>
+      <c r="G26" s="27">
+        <v>233</v>
+      </c>
+      <c r="H26" s="27">
+        <v>301</v>
+      </c>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D27" s="27">
+        <v>69204</v>
+      </c>
+      <c r="E27" s="27">
+        <v>80011</v>
+      </c>
+      <c r="F27" s="27">
+        <v>84226</v>
+      </c>
+      <c r="G27" s="27">
+        <v>200212</v>
+      </c>
+      <c r="H27" s="27">
+        <v>138606</v>
+      </c>
+      <c r="I27" s="27">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" s="27">
+        <f t="shared" ref="D29:I29" si="0">SUM(D4:D27)</f>
+        <v>6558682</v>
+      </c>
+      <c r="E29" s="163">
+        <f t="shared" si="0"/>
+        <v>6400081</v>
+      </c>
+      <c r="F29" s="163">
+        <f t="shared" si="0"/>
+        <v>2415469</v>
+      </c>
+      <c r="G29" s="163">
+        <f t="shared" si="0"/>
+        <v>3154129</v>
+      </c>
+      <c r="H29" s="163">
+        <f t="shared" si="0"/>
+        <v>3584116</v>
+      </c>
+      <c r="I29" s="163">
+        <f t="shared" si="0"/>
+        <v>3361415</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="D30" s="27"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="D31" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2015</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2014</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D32" s="27"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C33" t="s">
+        <v>309</v>
+      </c>
+      <c r="E33" s="27">
+        <v>230093</v>
+      </c>
+      <c r="F33" s="27">
+        <v>1070574</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="C34" t="s">
+        <v>310</v>
+      </c>
+      <c r="E34" s="27">
+        <v>557945</v>
+      </c>
+      <c r="F34" s="27">
+        <v>1025446</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="C35" t="s">
+        <v>311</v>
+      </c>
+      <c r="E35" s="27">
+        <v>282248</v>
+      </c>
+      <c r="F35" s="27">
+        <v>83294</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C37" t="s">
+        <v>313</v>
+      </c>
+      <c r="E37" s="27">
+        <v>7947669</v>
+      </c>
+      <c r="F37" s="27">
+        <v>5924318</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="C38" t="s">
+        <v>314</v>
+      </c>
+      <c r="E38" s="27">
+        <v>7753224</v>
+      </c>
+      <c r="F38" s="27">
+        <v>8730691</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E40" s="27">
+        <v>21086002</v>
+      </c>
+      <c r="F40" s="27">
+        <v>22284583</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E42" s="27">
+        <v>7523885</v>
+      </c>
+      <c r="F42" s="27">
+        <v>6872850</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C44" t="s">
+        <v>302</v>
+      </c>
+      <c r="E44" s="27">
+        <v>15734149</v>
+      </c>
+      <c r="F44" s="27">
+        <v>11507149</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="C45" t="s">
+        <v>318</v>
+      </c>
+      <c r="E45" s="27">
+        <v>495540</v>
+      </c>
+      <c r="F45" s="27">
+        <v>485191</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="C46" t="s">
+        <v>319</v>
+      </c>
+      <c r="E46" s="27">
+        <v>2682432</v>
+      </c>
+      <c r="F46" s="27">
+        <v>2399270</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="C47" t="s">
+        <v>320</v>
+      </c>
+      <c r="E47" s="27">
+        <v>1791033</v>
+      </c>
+      <c r="F47" s="27">
+        <v>1691577</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E49" s="27">
+        <v>1530310</v>
+      </c>
+      <c r="F49" s="27">
+        <v>1774456</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E50" s="28">
+        <f>SUM(E33:E49)</f>
+        <v>67614530</v>
+      </c>
+      <c r="F50" s="28">
+        <f>SUM(F33:F49)</f>
+        <v>63849399</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="E51" s="164">
+        <f>E50/F50-1</f>
+        <v>5.8968934069371537E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="E53" s="27">
+        <v>50095723</v>
+      </c>
+      <c r="F53" s="27">
+        <v>43629545</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="E54">
+        <f>E53/F53</f>
+        <v>1.148206404627873</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="E57">
+        <f>82961/74494</f>
+        <v>1.1136601605498428</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7160,11 +8237,11 @@
         <v>1</v>
       </c>
       <c r="E2" s="4">
-        <f>F2</f>
+        <f t="shared" ref="E2:E25" si="0">F2</f>
         <v>0.13</v>
       </c>
       <c r="F2" s="6">
-        <f t="shared" ref="F2:F5" si="0">B2 - C2^2/2</f>
+        <f t="shared" ref="F2:F10" si="1">B2 - C2^2/2</f>
         <v>0.13</v>
       </c>
       <c r="G2" t="s">
@@ -7185,11 +8262,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E5" si="1">F3</f>
+        <f t="shared" si="0"/>
         <v>0.128</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.128</v>
       </c>
       <c r="G3" t="s">
@@ -7210,11 +8287,11 @@
         <v>1</v>
       </c>
       <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="6">
         <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="G4" t="s">
@@ -7235,11 +8312,11 @@
         <v>30</v>
       </c>
       <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F5" s="6">
         <f t="shared" si="1"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G5" t="s">
@@ -7260,11 +8337,11 @@
         <v>1</v>
       </c>
       <c r="E6" s="4">
-        <f>F6</f>
+        <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" ref="F6:F9" si="2">B6 - C6^2/2</f>
+        <f t="shared" si="1"/>
         <v>0.13</v>
       </c>
       <c r="G6" t="s">
@@ -7285,11 +8362,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" ref="E7:E9" si="3">F7</f>
+        <f t="shared" si="0"/>
         <v>0.128</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.128</v>
       </c>
       <c r="G7" t="s">
@@ -7310,11 +8387,11 @@
         <v>1</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="G8" t="s">
@@ -7335,11 +8412,11 @@
         <v>10</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="G9" t="s">
@@ -7360,11 +8437,11 @@
         <v>5</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10" si="4">F10</f>
+        <f t="shared" si="0"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" ref="F10" si="5">B10 - C10^2/2</f>
+        <f t="shared" si="1"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="G10" t="s">
@@ -7385,11 +8462,11 @@
         <v>15</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" ref="E11" si="6">F11</f>
+        <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" ref="F11:F20" si="7">B11 - C11^2/2</f>
+        <f t="shared" ref="F11:F20" si="2">B11 - C11^2/2</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G11" t="s">
@@ -7410,11 +8487,11 @@
         <v>1</v>
       </c>
       <c r="E12" s="4">
-        <f>F12</f>
+        <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.13</v>
       </c>
       <c r="G12" t="s">
@@ -7435,11 +8512,11 @@
         <v>1</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" ref="E13:E16" si="8">F13</f>
+        <f t="shared" si="0"/>
         <v>0.128</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.128</v>
       </c>
       <c r="G13" t="s">
@@ -7460,11 +8537,11 @@
         <v>1</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="G14" t="s">
@@ -7485,11 +8562,11 @@
         <v>10</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
       <c r="G15" t="s">
@@ -7510,11 +8587,11 @@
         <v>20</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="G16" t="s">
@@ -7535,11 +8612,11 @@
         <v>1</v>
       </c>
       <c r="E17" s="4">
-        <f>F17</f>
+        <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.13</v>
       </c>
       <c r="G17" t="s">
@@ -7560,11 +8637,11 @@
         <v>1</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" ref="E18:E20" si="9">F18</f>
+        <f t="shared" si="0"/>
         <v>0.128</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.128</v>
       </c>
       <c r="G18" t="s">
@@ -7585,11 +8662,11 @@
         <v>1</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="G19" t="s">
@@ -7610,11 +8687,11 @@
         <v>1</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>-0.24</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>-0.24</v>
       </c>
       <c r="G20" t="s">
@@ -7635,11 +8712,11 @@
         <v>1</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" ref="E21:E24" si="10">F21</f>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" ref="F21:F28" si="11">B21 - C21^2/2</f>
+        <f t="shared" ref="F21:F28" si="3">B21 - C21^2/2</f>
         <v>0.12</v>
       </c>
       <c r="G21" t="s">
@@ -7660,11 +8737,11 @@
         <v>1</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0.13</v>
       </c>
       <c r="G22" t="s">
@@ -7685,11 +8762,11 @@
         <v>1</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.11</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0.11</v>
       </c>
       <c r="G23" t="s">
@@ -7710,11 +8787,11 @@
         <v>26</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="G24" t="s">
@@ -7735,11 +8812,11 @@
         <v>1</v>
       </c>
       <c r="E25" s="4">
-        <f>F25</f>
+        <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0.13</v>
       </c>
       <c r="G25" t="s">
@@ -7760,11 +8837,11 @@
         <v>1</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" ref="E26:E32" si="12">F26</f>
+        <f t="shared" ref="E26:E32" si="4">F26</f>
         <v>0.128</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0.128</v>
       </c>
       <c r="G26" t="s">
@@ -7785,11 +8862,11 @@
         <v>1</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0.02</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
       <c r="G27" t="s">
@@ -7810,11 +8887,11 @@
         <v>1</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>-0.24</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>-0.24</v>
       </c>
       <c r="G28" t="s">
@@ -7835,11 +8912,11 @@
         <v>1</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" ref="F29:F32" si="13">B29 - C29^2/2</f>
+        <f>B29 - C29^2/2</f>
         <v>0.12</v>
       </c>
       <c r="G29" t="s">
@@ -7860,11 +8937,11 @@
         <v>1</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0.13</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="13"/>
+        <f>B30 - C30^2/2</f>
         <v>0.13</v>
       </c>
       <c r="G30" t="s">
@@ -7885,11 +8962,11 @@
         <v>1</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0.11</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="13"/>
+        <f>B31 - C31^2/2</f>
         <v>0.11</v>
       </c>
       <c r="G31" t="s">
@@ -7910,11 +8987,11 @@
         <v>26</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="13"/>
+        <f>B32 - C32^2/2</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G32" t="s">
@@ -8376,20 +9453,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6BF394-4CD7-4BCB-B328-ED95773294C9}">
-  <dimension ref="B2:H43"/>
+  <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" style="105" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="105" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="106" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="106" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="106" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="106" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" style="106" customWidth="1"/>
-    <col min="7" max="7" width="36" style="105" customWidth="1"/>
+    <col min="7" max="7" width="45.140625" style="105" customWidth="1"/>
     <col min="8" max="8" width="28.85546875" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -8409,7 +9486,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="116" t="s">
         <v>233</v>
       </c>
       <c r="C3" s="107">
@@ -8422,27 +9499,27 @@
       <c r="E3" s="114">
         <v>37.090000000000003</v>
       </c>
-      <c r="F3" s="122">
+      <c r="F3" s="117">
         <f>E3/D3 -1</f>
         <v>-1.5322684213789239E-2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="116" t="s">
         <v>234</v>
       </c>
       <c r="C4" s="108">
         <v>1062059552</v>
       </c>
       <c r="D4" s="114">
-        <f t="shared" ref="D4:D39" si="0">C4/1000000000</f>
+        <f t="shared" ref="D4:D40" si="0">C4/1000000000</f>
         <v>1.062059552</v>
       </c>
-      <c r="E4" s="126">
+      <c r="E4" s="121">
         <v>0.98</v>
       </c>
-      <c r="F4" s="127">
-        <f t="shared" ref="F4:F39" si="1">E4/D4 -1</f>
+      <c r="F4" s="122">
+        <f t="shared" ref="F4:F40" si="1">E4/D4 -1</f>
         <v>-7.7264548720898829E-2</v>
       </c>
       <c r="G4" s="105" t="s">
@@ -8450,7 +9527,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="116" t="s">
         <v>235</v>
       </c>
       <c r="C5" s="109">
@@ -8463,559 +9540,581 @@
       <c r="E5" s="114">
         <v>0.41</v>
       </c>
-      <c r="F5" s="122">
+      <c r="F5" s="117">
         <f t="shared" si="1"/>
         <v>1.0109735020278343E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B6" s="105" t="s">
-        <v>236</v>
+      <c r="B6" s="116" t="s">
+        <v>293</v>
       </c>
       <c r="C6" s="109">
-        <v>2190015114</v>
+        <f>C7+C8-C14</f>
+        <v>1343967236</v>
       </c>
       <c r="D6" s="114">
         <f t="shared" si="0"/>
-        <v>2.1900151139999999</v>
+        <v>1.3439672359999999</v>
       </c>
       <c r="E6" s="114"/>
-      <c r="F6" s="122"/>
-      <c r="H6" s="28">
-        <f>C6+C7-C11-C12</f>
-        <v>808097004</v>
+      <c r="F6" s="117"/>
+      <c r="G6" s="105" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="20.25" customHeight="1">
       <c r="B7" s="105" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C7" s="109">
-        <v>125975786</v>
+        <v>2190015114</v>
       </c>
       <c r="D7" s="114">
         <f t="shared" si="0"/>
-        <v>0.12597578600000001</v>
+        <v>2.1900151139999999</v>
       </c>
       <c r="E7" s="114"/>
-      <c r="F7" s="122"/>
+      <c r="F7" s="117"/>
+      <c r="H7" s="28">
+        <f>C7+C8-C13-C14</f>
+        <v>808097004</v>
+      </c>
     </row>
     <row r="8" spans="2:8" ht="20.25" customHeight="1">
       <c r="B8" s="105" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C8" s="109">
-        <v>2659607405</v>
+        <v>125975786</v>
       </c>
       <c r="D8" s="114">
         <f t="shared" si="0"/>
+        <v>0.12597578600000001</v>
+      </c>
+      <c r="E8" s="114"/>
+      <c r="F8" s="117"/>
+    </row>
+    <row r="9" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B9" s="105" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="109">
+        <v>2659607405</v>
+      </c>
+      <c r="D9" s="114">
+        <f t="shared" si="0"/>
         <v>2.659607405</v>
       </c>
-      <c r="E8" s="114"/>
-      <c r="F8" s="122"/>
-    </row>
-    <row r="9" spans="2:8" ht="20.25" customHeight="1">
-      <c r="D9" s="114"/>
       <c r="E9" s="114"/>
-      <c r="F9" s="122"/>
+      <c r="F9" s="117"/>
     </row>
     <row r="10" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B10" s="121" t="s">
+      <c r="C10" s="162"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="117"/>
+    </row>
+    <row r="11" spans="2:8" ht="20.25" customHeight="1">
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="117"/>
+    </row>
+    <row r="12" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B12" s="116" t="s">
         <v>240</v>
       </c>
-      <c r="C10" s="106">
+      <c r="C12" s="106">
         <v>39535995292</v>
       </c>
-      <c r="D10" s="114">
+      <c r="D12" s="114">
         <f t="shared" si="0"/>
         <v>39.535995292000003</v>
       </c>
-      <c r="E10" s="114">
+      <c r="E12" s="114">
         <v>39.200000000000003</v>
       </c>
-      <c r="F10" s="122">
+      <c r="F12" s="117">
         <f t="shared" si="1"/>
         <v>-8.4984655000701625E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B11" s="105" t="s">
+    <row r="13" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B13" s="105" t="s">
         <v>241</v>
       </c>
-      <c r="C11" s="111">
+      <c r="C13" s="111">
         <v>535870232</v>
       </c>
-      <c r="D11" s="114">
+      <c r="D13" s="114">
         <f t="shared" si="0"/>
         <v>0.53587023199999995</v>
       </c>
-      <c r="E11" s="114"/>
-      <c r="F11" s="122"/>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="12" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B12" s="105" t="s">
+      <c r="E13" s="114"/>
+      <c r="F13" s="117"/>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B14" s="105" t="s">
         <v>242</v>
       </c>
-      <c r="C12" s="110">
+      <c r="C14" s="110">
         <v>972023664</v>
       </c>
-      <c r="D12" s="114">
+      <c r="D14" s="114">
         <f t="shared" si="0"/>
         <v>0.97202366399999995</v>
       </c>
-      <c r="E12" s="114"/>
-      <c r="F12" s="122"/>
-    </row>
-    <row r="13" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B13" s="121" t="s">
-        <v>282</v>
-      </c>
-      <c r="C13" s="110">
-        <f>SUM(C11:C12)</f>
-        <v>1507893896</v>
-      </c>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="122"/>
-    </row>
-    <row r="14" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B14" s="125" t="s">
+      <c r="E14" s="114"/>
+      <c r="F14" s="117"/>
+    </row>
+    <row r="15" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B15" s="120" t="s">
         <v>243</v>
       </c>
-      <c r="C14" s="110">
+      <c r="C15" s="110">
         <v>3066827192</v>
       </c>
-      <c r="D14" s="114">
+      <c r="D15" s="114">
         <f t="shared" si="0"/>
         <v>3.0668271919999999</v>
       </c>
-      <c r="E14" s="114"/>
-      <c r="F14" s="122"/>
-    </row>
-    <row r="15" spans="2:8" ht="20.25" customHeight="1">
-      <c r="D15" s="114"/>
       <c r="E15" s="114"/>
-      <c r="F15" s="122"/>
+      <c r="F15" s="117"/>
     </row>
     <row r="16" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B16" s="105" t="s">
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="117"/>
+    </row>
+    <row r="17" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B17" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="106">
+      <c r="C17" s="106">
         <v>37988259515</v>
       </c>
-      <c r="D16" s="114">
+      <c r="D17" s="114">
         <f t="shared" si="0"/>
         <v>37.988259515000003</v>
       </c>
-      <c r="E16" s="114"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="105" t="s">
+      <c r="E17" s="114"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="105" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B17" s="105" t="s">
+    <row r="18" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B18" s="105" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="106">
+      <c r="C18" s="106">
         <v>2813575411</v>
       </c>
-      <c r="D17" s="114">
+      <c r="D18" s="114">
         <f t="shared" si="0"/>
         <v>2.813575411</v>
       </c>
-      <c r="E17" s="114"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="105" t="s">
+      <c r="E18" s="114"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="105" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B18" s="121" t="s">
+    <row r="19" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B19" s="116" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="106">
+      <c r="C19" s="106">
         <v>849689324</v>
       </c>
-      <c r="D18" s="114">
-        <f>C18/1000000000</f>
+      <c r="D19" s="114">
+        <f>C19/1000000000</f>
         <v>0.84968932399999997</v>
       </c>
-      <c r="E18" s="114">
+      <c r="E19" s="114">
         <v>1.03</v>
       </c>
-      <c r="F18" s="127">
+      <c r="F19" s="122">
         <f t="shared" si="1"/>
         <v>0.21220776924814011</v>
       </c>
-      <c r="G18" s="105" t="s">
+      <c r="G19" s="105" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B19" s="121" t="s">
+    <row r="20" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B20" s="116" t="s">
         <v>279</v>
       </c>
-      <c r="C19" s="106">
-        <f>C17+C16</f>
+      <c r="C20" s="106">
+        <f>C18+C17</f>
         <v>40801834926</v>
       </c>
-      <c r="D19" s="114">
-        <f>C19/1000000000</f>
+      <c r="D20" s="114">
+        <f>C20/1000000000</f>
         <v>40.801834925999998</v>
       </c>
-      <c r="E19" s="114">
+      <c r="E20" s="114">
         <v>41.6</v>
       </c>
-      <c r="F19" s="122">
+      <c r="F20" s="117">
         <f t="shared" si="1"/>
         <v>1.9561989686189163E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="20.25" customHeight="1">
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="122"/>
-    </row>
     <row r="21" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B21" s="121" t="s">
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="117"/>
+    </row>
+    <row r="22" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B22" s="116" t="s">
         <v>239</v>
       </c>
-      <c r="C21" s="106">
-        <f>SUM(C10,C11,C12,C14)</f>
+      <c r="C22" s="106">
+        <f>SUM(C12,C13,C14,C15)</f>
         <v>44110716380</v>
       </c>
-      <c r="D21" s="114">
+      <c r="D22" s="114">
         <f t="shared" si="0"/>
         <v>44.11071638</v>
       </c>
-      <c r="E21" s="114">
+      <c r="E22" s="114">
         <v>43.86</v>
       </c>
-      <c r="F21" s="122">
+      <c r="F22" s="117">
         <f t="shared" si="1"/>
         <v>-5.6837975117011164E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B22" s="121" t="s">
+    <row r="23" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B23" s="116" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="112">
-        <f>SUM(C16,C17,C18)</f>
+      <c r="C23" s="112">
+        <f>SUM(C17,C18,C19)</f>
         <v>41651524250</v>
       </c>
-      <c r="D22" s="114">
+      <c r="D23" s="114">
         <f t="shared" si="0"/>
         <v>41.651524250000001</v>
       </c>
-      <c r="E22" s="114">
+      <c r="E23" s="114">
         <v>42.6</v>
       </c>
-      <c r="F22" s="122">
+      <c r="F23" s="117">
         <f t="shared" si="1"/>
         <v>2.2771693643360402E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="20.25" customHeight="1">
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="122"/>
-    </row>
     <row r="24" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B24" s="121" t="s">
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="117"/>
+    </row>
+    <row r="25" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B25" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C24" s="106">
-        <f>SUM(C21:C22)</f>
+      <c r="C25" s="106">
+        <f>SUM(C22:C23)</f>
         <v>85762240630</v>
       </c>
-      <c r="D24" s="114">
+      <c r="D25" s="114">
         <f t="shared" si="0"/>
         <v>85.762240629999994</v>
       </c>
-      <c r="E24" s="114">
+      <c r="E25" s="114">
         <v>86.5</v>
       </c>
-      <c r="F24" s="122">
+      <c r="F25" s="117">
         <f t="shared" si="1"/>
         <v>8.6023798419969655E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="20.25" customHeight="1">
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="122"/>
-    </row>
     <row r="26" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B26" s="125" t="s">
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="117"/>
+    </row>
+    <row r="27" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B27" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="C26" s="110">
+      <c r="C27" s="110">
         <v>23738166660</v>
       </c>
-      <c r="D26" s="114">
+      <c r="D27" s="114">
         <f t="shared" si="0"/>
         <v>23.738166660000001</v>
       </c>
-      <c r="E26" s="114">
+      <c r="E27" s="114">
         <v>21.5</v>
       </c>
-      <c r="F26" s="127">
+      <c r="F27" s="122">
         <f t="shared" si="1"/>
         <v>-9.4285573610510709E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B27" s="121" t="s">
+    <row r="28" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B28" s="116" t="s">
         <v>244</v>
       </c>
-      <c r="C27" s="113">
-        <f>SUM(C26,C11,C12,C14,C22)</f>
+      <c r="C28" s="113">
+        <f>SUM(C27,C13,C14,C15,C23)</f>
         <v>69964411998</v>
       </c>
-      <c r="D27" s="114">
+      <c r="D28" s="114">
         <f t="shared" si="0"/>
         <v>69.964411998000003</v>
       </c>
-      <c r="E27" s="114">
+      <c r="E28" s="114">
         <v>68.7</v>
       </c>
-      <c r="F27" s="122">
+      <c r="F28" s="117">
         <f t="shared" si="1"/>
         <v>-1.807221645822088E-2</v>
       </c>
-      <c r="G27" s="105" t="s">
+      <c r="G28" s="105" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="20.25" customHeight="1">
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="122"/>
-    </row>
     <row r="29" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B29" s="121" t="s">
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="117"/>
+    </row>
+    <row r="30" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B30" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="C29" s="106">
+      <c r="C30" s="106">
         <v>3954653723</v>
       </c>
-      <c r="D29" s="114">
+      <c r="D30" s="114">
         <f t="shared" si="0"/>
         <v>3.9546537229999998</v>
       </c>
-      <c r="E29" s="114">
+      <c r="E30" s="114">
         <v>3.95</v>
       </c>
-      <c r="F29" s="122">
+      <c r="F30" s="117">
         <f t="shared" si="1"/>
         <v>-1.1767712993261403E-3</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="20.25" customHeight="1">
-      <c r="D30" s="114"/>
-      <c r="F30" s="122"/>
-    </row>
     <row r="31" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B31" s="121" t="s">
-        <v>283</v>
-      </c>
-      <c r="C31" s="106">
+      <c r="D31" s="114"/>
+      <c r="F31" s="117"/>
+    </row>
+    <row r="32" spans="2:8" ht="20.25" customHeight="1">
+      <c r="B32" s="116" t="s">
+        <v>282</v>
+      </c>
+      <c r="C32" s="106">
         <v>173696000</v>
       </c>
-      <c r="D31" s="128">
-        <f>C31/1000000000</f>
+      <c r="D32" s="123">
+        <f>C32/1000000000</f>
         <v>0.17369599999999999</v>
       </c>
-      <c r="E31" s="124">
+      <c r="E32" s="119">
         <v>0.19</v>
       </c>
-      <c r="F31" s="122">
+      <c r="F32" s="117">
         <f t="shared" si="1"/>
         <v>9.3865143699336961E-2</v>
       </c>
-      <c r="G31" s="105" t="s">
+      <c r="G32" s="105" t="s">
         <v>257</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H32" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B32" s="121" t="s">
+    <row r="33" spans="2:13" ht="20.25" customHeight="1">
+      <c r="B33" s="116" t="s">
         <v>247</v>
       </c>
-      <c r="C32" s="106">
+      <c r="C33" s="106">
         <v>1172161054</v>
       </c>
-      <c r="D32" s="114">
+      <c r="D33" s="114">
         <f t="shared" si="0"/>
         <v>1.172161054</v>
       </c>
-      <c r="E32" s="124">
+      <c r="E33" s="119">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F32" s="122">
+      <c r="F33" s="117">
         <f t="shared" si="1"/>
         <v>-1.8906151099608248E-2</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H33" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B33" s="121" t="s">
+      <c r="K33">
+        <v>13.5</v>
+      </c>
+      <c r="L33">
+        <v>12.8</v>
+      </c>
+      <c r="M33">
+        <f>L33/K33</f>
+        <v>0.94814814814814818</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="20.25" customHeight="1">
+      <c r="B34" s="116" t="s">
         <v>248</v>
       </c>
-      <c r="C33" s="106">
+      <c r="C34" s="106">
         <v>2663071096</v>
       </c>
-      <c r="D33" s="114">
+      <c r="D34" s="114">
         <f t="shared" si="0"/>
         <v>2.6630710959999999</v>
       </c>
-      <c r="E33" s="106">
+      <c r="E34" s="106">
         <v>2.67</v>
       </c>
-      <c r="F33" s="122">
+      <c r="F34" s="117">
         <f t="shared" si="1"/>
         <v>2.6018471720141712E-3</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H34" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B34" s="121" t="s">
+    <row r="35" spans="2:13" ht="20.25" customHeight="1">
+      <c r="B35" s="116" t="s">
         <v>276</v>
       </c>
-      <c r="C34" s="106">
+      <c r="C35" s="106">
         <v>3889709927</v>
       </c>
-      <c r="D34" s="114">
+      <c r="D35" s="114">
         <f t="shared" si="0"/>
         <v>3.8897099270000002</v>
       </c>
-      <c r="E34" s="123">
+      <c r="E35" s="118">
         <v>3.82</v>
       </c>
-      <c r="F34" s="122">
+      <c r="F35" s="117">
         <f t="shared" si="1"/>
         <v>-1.7921626113072464E-2</v>
       </c>
-      <c r="G34" s="105" t="s">
+      <c r="G35" s="105" t="s">
         <v>252</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="20.25" customHeight="1">
-      <c r="D35" s="114"/>
-      <c r="F35" s="122"/>
-    </row>
-    <row r="36" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B36" s="121" t="s">
+    <row r="36" spans="2:13" ht="20.25" customHeight="1">
+      <c r="D36" s="114"/>
+      <c r="F36" s="117"/>
+    </row>
+    <row r="37" spans="2:13" ht="20.25" customHeight="1">
+      <c r="B37" s="116" t="s">
         <v>251</v>
       </c>
-      <c r="C36" s="106">
+      <c r="C37" s="106">
         <v>9224267647</v>
       </c>
-      <c r="D36" s="114">
+      <c r="D37" s="114">
         <f t="shared" si="0"/>
         <v>9.2242676469999996</v>
       </c>
-      <c r="E36" s="123">
+      <c r="E37" s="118">
         <v>9.14</v>
       </c>
-      <c r="F36" s="122">
+      <c r="F37" s="117">
         <f t="shared" si="1"/>
         <v>-9.1354295240343442E-3</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H37" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="20.25" customHeight="1">
-      <c r="D37" s="114"/>
-      <c r="F37" s="122"/>
-    </row>
-    <row r="38" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B38" s="121" t="s">
+    <row r="38" spans="2:13" ht="20.25" customHeight="1">
+      <c r="D38" s="114"/>
+      <c r="F38" s="117"/>
+    </row>
+    <row r="39" spans="2:13" ht="20.25" customHeight="1">
+      <c r="B39" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="106">
+      <c r="C39" s="106">
         <v>43629545000</v>
       </c>
-      <c r="D38" s="114">
+      <c r="D39" s="114">
         <f t="shared" si="0"/>
         <v>43.629545</v>
       </c>
-      <c r="E38" s="106">
+      <c r="E39" s="106">
         <v>42.8</v>
       </c>
-      <c r="F38" s="122">
+      <c r="F39" s="117">
         <f t="shared" si="1"/>
         <v>-1.901337728825736E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B39" s="121" t="s">
+    <row r="40" spans="2:13" ht="20.25" customHeight="1">
+      <c r="B40" s="116" t="s">
         <v>250</v>
       </c>
-      <c r="C39" s="106">
+      <c r="C40" s="106">
         <v>41015087000</v>
       </c>
-      <c r="D39" s="114">
+      <c r="D40" s="114">
         <f t="shared" si="0"/>
         <v>41.015087000000001</v>
       </c>
-      <c r="E39" s="106">
+      <c r="E40" s="106">
         <v>39.799999999999997</v>
       </c>
-      <c r="F39" s="122">
+      <c r="F40" s="117">
         <f t="shared" si="1"/>
         <v>-2.9625366880240978E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B40" s="105" t="s">
+    <row r="41" spans="2:13" ht="20.25" customHeight="1">
+      <c r="B41" s="105" t="s">
         <v>255</v>
       </c>
-      <c r="C40" s="115">
-        <f>C38/C27</f>
+      <c r="C41" s="115">
+        <f>C39/C28</f>
         <v>0.62359625063735535</v>
       </c>
-      <c r="F40" s="122"/>
-    </row>
-    <row r="41" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B41" s="105" t="s">
+      <c r="F41" s="117"/>
+    </row>
+    <row r="42" spans="2:13" ht="20.25" customHeight="1">
+      <c r="B42" s="105" t="s">
         <v>254</v>
       </c>
-      <c r="C41" s="115">
-        <f>C39/C27</f>
+      <c r="C42" s="115">
+        <f>C40/C28</f>
         <v>0.58622785254269638</v>
       </c>
-      <c r="F41" s="122"/>
-    </row>
-    <row r="42" spans="2:8" ht="20.25" customHeight="1">
-      <c r="F42" s="122"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="121" t="s">
+      <c r="F42" s="117"/>
+    </row>
+    <row r="43" spans="2:13" ht="20.25" customHeight="1">
+      <c r="F43" s="117"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="116" t="s">
         <v>277</v>
       </c>
-      <c r="C43" s="115">
-        <f>C34/C36</f>
+      <c r="C44" s="115">
+        <f>C35/C37</f>
         <v>0.42168224902548734</v>
       </c>
-      <c r="F43" s="122"/>
+      <c r="F44" s="117"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -9033,7 +10132,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9553,18 +10652,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="14.25">
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
     </row>
     <row r="2" spans="2:11" ht="14.25">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="166" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
     </row>
     <row r="3" spans="2:11" ht="25.5">
       <c r="C3" s="36">
@@ -9835,8 +10934,8 @@
         <f>D24+D26</f>
         <v>37988259515</v>
       </c>
-      <c r="H24" s="118"/>
-      <c r="I24" s="119"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="168"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="39" t="s">
@@ -10079,7 +11178,7 @@
   <dimension ref="A1:K165"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48:D50"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10665,36 +11764,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="169" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="169" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
     </row>
     <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="169" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
     </row>
     <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="169" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
     </row>
     <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="64"/>
@@ -10965,7 +12064,7 @@
         <v>870729599</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:6">
       <c r="B33" s="74" t="s">
         <v>204</v>
       </c>
@@ -10976,7 +12075,7 @@
         <v>60496.741402070453</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:6">
       <c r="B34" s="74" t="s">
         <v>206</v>
       </c>
@@ -10987,7 +12086,7 @@
         <v>47.63</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:6">
       <c r="B35" s="74" t="s">
         <v>208</v>
       </c>
@@ -10998,10 +12097,10 @@
         <v>9.14</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:6">
       <c r="D36" s="81"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:6">
       <c r="A37" s="73" t="s">
         <v>220</v>
       </c>
@@ -11011,7 +12110,7 @@
       <c r="C37" s="83"/>
       <c r="D37" s="81"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:6">
       <c r="B38" s="74" t="s">
         <v>200</v>
       </c>
@@ -11022,7 +12121,7 @@
         <v>84093</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:6">
       <c r="B39" s="74" t="s">
         <v>202</v>
       </c>
@@ -11033,7 +12132,7 @@
         <v>73.38</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:6">
       <c r="B40" s="74" t="s">
         <v>204</v>
       </c>
@@ -11043,12 +12142,16 @@
       <c r="D40" s="68">
         <v>3954653723</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="F40" s="65">
+        <f>D40/D38</f>
+        <v>47027.145220172904</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="B41" s="74"/>
       <c r="D41" s="81"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:6">
       <c r="A42" s="73" t="s">
         <v>223</v>
       </c>
@@ -11057,7 +12160,7 @@
       </c>
       <c r="D42" s="81"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:6">
       <c r="B43" s="74" t="s">
         <v>200</v>
       </c>
@@ -11068,136 +12171,143 @@
         <v>224088</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:6">
       <c r="C44" s="84"/>
       <c r="D44" s="85"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75">
-      <c r="A45" s="72" t="s">
+    <row r="45" spans="1:6" ht="15.75">
+      <c r="A45" s="126" t="s">
         <v>225</v>
       </c>
-      <c r="B45" s="72"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="85"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="D46" s="85"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="73" t="s">
+      <c r="B45" s="126"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="127"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="128"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="127"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="129" t="s">
         <v>198</v>
       </c>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="D47" s="85"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="74"/>
-      <c r="B48" s="74" t="s">
+      <c r="C47" s="128"/>
+      <c r="D47" s="127"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="130"/>
+      <c r="B48" s="130" t="s">
         <v>200</v>
       </c>
-      <c r="C48" s="65" t="s">
+      <c r="C48" s="128" t="s">
         <v>199</v>
       </c>
-      <c r="D48" s="79">
+      <c r="D48" s="131">
         <v>39535995292</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="74"/>
-      <c r="B49" s="74" t="s">
+      <c r="A49" s="130"/>
+      <c r="B49" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="128" t="s">
         <v>217</v>
       </c>
-      <c r="D49" s="79">
+      <c r="D49" s="131">
         <v>535870232</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="74"/>
-      <c r="B50" s="74" t="s">
+      <c r="A50" s="130"/>
+      <c r="B50" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="C50" s="65" t="s">
+      <c r="C50" s="128" t="s">
         <v>219</v>
       </c>
-      <c r="D50" s="75">
+      <c r="D50" s="132">
         <v>972023664</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="74"/>
-      <c r="B51" s="74" t="s">
+      <c r="A51" s="130"/>
+      <c r="B51" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="C51" s="65" t="s">
+      <c r="C51" s="128" t="s">
         <v>221</v>
       </c>
-      <c r="D51" s="75">
+      <c r="D51" s="132">
         <v>41614466631</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="74"/>
-      <c r="B52" s="74" t="s">
+      <c r="A52" s="130"/>
+      <c r="B52" s="130" t="s">
         <v>226</v>
       </c>
-      <c r="C52" s="65" t="s">
+      <c r="C52" s="128" t="s">
         <v>227</v>
       </c>
-      <c r="D52" s="75">
+      <c r="D52" s="132">
         <v>37057619</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="74"/>
-      <c r="B53" s="74" t="s">
+      <c r="A53" s="130"/>
+      <c r="B53" s="130" t="s">
         <v>208</v>
       </c>
-      <c r="C53" s="65" t="s">
+      <c r="C53" s="128" t="s">
         <v>228</v>
       </c>
-      <c r="D53" s="75">
+      <c r="D53" s="132">
         <v>3066827192</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="74"/>
-      <c r="B54" s="74" t="s">
+      <c r="A54" s="130"/>
+      <c r="B54" s="130" t="s">
         <v>210</v>
       </c>
-      <c r="C54" s="65" t="s">
+      <c r="C54" s="128" t="s">
         <v>224</v>
       </c>
-      <c r="D54" s="75">
+      <c r="D54" s="132">
         <v>85762240630</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="74"/>
-      <c r="B55" s="74"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="75"/>
+      <c r="A55" s="130"/>
+      <c r="B55" s="130"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="132"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="73">
+      <c r="A56" s="129">
         <v>2</v>
       </c>
-      <c r="B56" s="65" t="s">
+      <c r="B56" s="128" t="s">
         <v>229</v>
       </c>
+      <c r="C56" s="128"/>
+      <c r="D56" s="128"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="B57" s="74" t="s">
+      <c r="A57" s="128"/>
+      <c r="B57" s="130" t="s">
         <v>200</v>
       </c>
-      <c r="C57" s="65" t="s">
+      <c r="C57" s="128" t="s">
         <v>199</v>
       </c>
-      <c r="D57" s="34">
+      <c r="D57" s="134">
         <v>23738166660</v>
       </c>
     </row>
@@ -11721,93 +12831,1868 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12C2C70-1D38-4C9C-8A29-A9ED22FEC02C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E4CC7C-9A87-438B-90E6-BB7D13EC56BB}">
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="1.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="3" style="35" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="35" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="35"/>
+    <col min="10" max="10" width="15.42578125" style="35" customWidth="1"/>
+    <col min="11" max="252" width="9.140625" style="35"/>
+    <col min="253" max="253" width="1.85546875" style="35" customWidth="1"/>
+    <col min="254" max="254" width="33.28515625" style="35" customWidth="1"/>
+    <col min="255" max="256" width="20.7109375" style="35" customWidth="1"/>
+    <col min="257" max="257" width="9" style="35" customWidth="1"/>
+    <col min="258" max="258" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="261" max="508" width="9.140625" style="35"/>
+    <col min="509" max="509" width="1.85546875" style="35" customWidth="1"/>
+    <col min="510" max="510" width="33.28515625" style="35" customWidth="1"/>
+    <col min="511" max="512" width="20.7109375" style="35" customWidth="1"/>
+    <col min="513" max="513" width="9" style="35" customWidth="1"/>
+    <col min="514" max="514" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="517" max="764" width="9.140625" style="35"/>
+    <col min="765" max="765" width="1.85546875" style="35" customWidth="1"/>
+    <col min="766" max="766" width="33.28515625" style="35" customWidth="1"/>
+    <col min="767" max="768" width="20.7109375" style="35" customWidth="1"/>
+    <col min="769" max="769" width="9" style="35" customWidth="1"/>
+    <col min="770" max="770" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="773" max="1020" width="9.140625" style="35"/>
+    <col min="1021" max="1021" width="1.85546875" style="35" customWidth="1"/>
+    <col min="1022" max="1022" width="33.28515625" style="35" customWidth="1"/>
+    <col min="1023" max="1024" width="20.7109375" style="35" customWidth="1"/>
+    <col min="1025" max="1025" width="9" style="35" customWidth="1"/>
+    <col min="1026" max="1026" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1276" width="9.140625" style="35"/>
+    <col min="1277" max="1277" width="1.85546875" style="35" customWidth="1"/>
+    <col min="1278" max="1278" width="33.28515625" style="35" customWidth="1"/>
+    <col min="1279" max="1280" width="20.7109375" style="35" customWidth="1"/>
+    <col min="1281" max="1281" width="9" style="35" customWidth="1"/>
+    <col min="1282" max="1282" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1532" width="9.140625" style="35"/>
+    <col min="1533" max="1533" width="1.85546875" style="35" customWidth="1"/>
+    <col min="1534" max="1534" width="33.28515625" style="35" customWidth="1"/>
+    <col min="1535" max="1536" width="20.7109375" style="35" customWidth="1"/>
+    <col min="1537" max="1537" width="9" style="35" customWidth="1"/>
+    <col min="1538" max="1538" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1788" width="9.140625" style="35"/>
+    <col min="1789" max="1789" width="1.85546875" style="35" customWidth="1"/>
+    <col min="1790" max="1790" width="33.28515625" style="35" customWidth="1"/>
+    <col min="1791" max="1792" width="20.7109375" style="35" customWidth="1"/>
+    <col min="1793" max="1793" width="9" style="35" customWidth="1"/>
+    <col min="1794" max="1794" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="1797" max="2044" width="9.140625" style="35"/>
+    <col min="2045" max="2045" width="1.85546875" style="35" customWidth="1"/>
+    <col min="2046" max="2046" width="33.28515625" style="35" customWidth="1"/>
+    <col min="2047" max="2048" width="20.7109375" style="35" customWidth="1"/>
+    <col min="2049" max="2049" width="9" style="35" customWidth="1"/>
+    <col min="2050" max="2050" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2300" width="9.140625" style="35"/>
+    <col min="2301" max="2301" width="1.85546875" style="35" customWidth="1"/>
+    <col min="2302" max="2302" width="33.28515625" style="35" customWidth="1"/>
+    <col min="2303" max="2304" width="20.7109375" style="35" customWidth="1"/>
+    <col min="2305" max="2305" width="9" style="35" customWidth="1"/>
+    <col min="2306" max="2306" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2556" width="9.140625" style="35"/>
+    <col min="2557" max="2557" width="1.85546875" style="35" customWidth="1"/>
+    <col min="2558" max="2558" width="33.28515625" style="35" customWidth="1"/>
+    <col min="2559" max="2560" width="20.7109375" style="35" customWidth="1"/>
+    <col min="2561" max="2561" width="9" style="35" customWidth="1"/>
+    <col min="2562" max="2562" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2812" width="9.140625" style="35"/>
+    <col min="2813" max="2813" width="1.85546875" style="35" customWidth="1"/>
+    <col min="2814" max="2814" width="33.28515625" style="35" customWidth="1"/>
+    <col min="2815" max="2816" width="20.7109375" style="35" customWidth="1"/>
+    <col min="2817" max="2817" width="9" style="35" customWidth="1"/>
+    <col min="2818" max="2818" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="2821" max="3068" width="9.140625" style="35"/>
+    <col min="3069" max="3069" width="1.85546875" style="35" customWidth="1"/>
+    <col min="3070" max="3070" width="33.28515625" style="35" customWidth="1"/>
+    <col min="3071" max="3072" width="20.7109375" style="35" customWidth="1"/>
+    <col min="3073" max="3073" width="9" style="35" customWidth="1"/>
+    <col min="3074" max="3074" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3324" width="9.140625" style="35"/>
+    <col min="3325" max="3325" width="1.85546875" style="35" customWidth="1"/>
+    <col min="3326" max="3326" width="33.28515625" style="35" customWidth="1"/>
+    <col min="3327" max="3328" width="20.7109375" style="35" customWidth="1"/>
+    <col min="3329" max="3329" width="9" style="35" customWidth="1"/>
+    <col min="3330" max="3330" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3580" width="9.140625" style="35"/>
+    <col min="3581" max="3581" width="1.85546875" style="35" customWidth="1"/>
+    <col min="3582" max="3582" width="33.28515625" style="35" customWidth="1"/>
+    <col min="3583" max="3584" width="20.7109375" style="35" customWidth="1"/>
+    <col min="3585" max="3585" width="9" style="35" customWidth="1"/>
+    <col min="3586" max="3586" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3836" width="9.140625" style="35"/>
+    <col min="3837" max="3837" width="1.85546875" style="35" customWidth="1"/>
+    <col min="3838" max="3838" width="33.28515625" style="35" customWidth="1"/>
+    <col min="3839" max="3840" width="20.7109375" style="35" customWidth="1"/>
+    <col min="3841" max="3841" width="9" style="35" customWidth="1"/>
+    <col min="3842" max="3842" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3845" max="4092" width="9.140625" style="35"/>
+    <col min="4093" max="4093" width="1.85546875" style="35" customWidth="1"/>
+    <col min="4094" max="4094" width="33.28515625" style="35" customWidth="1"/>
+    <col min="4095" max="4096" width="20.7109375" style="35" customWidth="1"/>
+    <col min="4097" max="4097" width="9" style="35" customWidth="1"/>
+    <col min="4098" max="4098" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4348" width="9.140625" style="35"/>
+    <col min="4349" max="4349" width="1.85546875" style="35" customWidth="1"/>
+    <col min="4350" max="4350" width="33.28515625" style="35" customWidth="1"/>
+    <col min="4351" max="4352" width="20.7109375" style="35" customWidth="1"/>
+    <col min="4353" max="4353" width="9" style="35" customWidth="1"/>
+    <col min="4354" max="4354" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4604" width="9.140625" style="35"/>
+    <col min="4605" max="4605" width="1.85546875" style="35" customWidth="1"/>
+    <col min="4606" max="4606" width="33.28515625" style="35" customWidth="1"/>
+    <col min="4607" max="4608" width="20.7109375" style="35" customWidth="1"/>
+    <col min="4609" max="4609" width="9" style="35" customWidth="1"/>
+    <col min="4610" max="4610" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4860" width="9.140625" style="35"/>
+    <col min="4861" max="4861" width="1.85546875" style="35" customWidth="1"/>
+    <col min="4862" max="4862" width="33.28515625" style="35" customWidth="1"/>
+    <col min="4863" max="4864" width="20.7109375" style="35" customWidth="1"/>
+    <col min="4865" max="4865" width="9" style="35" customWidth="1"/>
+    <col min="4866" max="4866" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="4869" max="5116" width="9.140625" style="35"/>
+    <col min="5117" max="5117" width="1.85546875" style="35" customWidth="1"/>
+    <col min="5118" max="5118" width="33.28515625" style="35" customWidth="1"/>
+    <col min="5119" max="5120" width="20.7109375" style="35" customWidth="1"/>
+    <col min="5121" max="5121" width="9" style="35" customWidth="1"/>
+    <col min="5122" max="5122" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5372" width="9.140625" style="35"/>
+    <col min="5373" max="5373" width="1.85546875" style="35" customWidth="1"/>
+    <col min="5374" max="5374" width="33.28515625" style="35" customWidth="1"/>
+    <col min="5375" max="5376" width="20.7109375" style="35" customWidth="1"/>
+    <col min="5377" max="5377" width="9" style="35" customWidth="1"/>
+    <col min="5378" max="5378" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5628" width="9.140625" style="35"/>
+    <col min="5629" max="5629" width="1.85546875" style="35" customWidth="1"/>
+    <col min="5630" max="5630" width="33.28515625" style="35" customWidth="1"/>
+    <col min="5631" max="5632" width="20.7109375" style="35" customWidth="1"/>
+    <col min="5633" max="5633" width="9" style="35" customWidth="1"/>
+    <col min="5634" max="5634" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5884" width="9.140625" style="35"/>
+    <col min="5885" max="5885" width="1.85546875" style="35" customWidth="1"/>
+    <col min="5886" max="5886" width="33.28515625" style="35" customWidth="1"/>
+    <col min="5887" max="5888" width="20.7109375" style="35" customWidth="1"/>
+    <col min="5889" max="5889" width="9" style="35" customWidth="1"/>
+    <col min="5890" max="5890" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="5893" max="6140" width="9.140625" style="35"/>
+    <col min="6141" max="6141" width="1.85546875" style="35" customWidth="1"/>
+    <col min="6142" max="6142" width="33.28515625" style="35" customWidth="1"/>
+    <col min="6143" max="6144" width="20.7109375" style="35" customWidth="1"/>
+    <col min="6145" max="6145" width="9" style="35" customWidth="1"/>
+    <col min="6146" max="6146" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6396" width="9.140625" style="35"/>
+    <col min="6397" max="6397" width="1.85546875" style="35" customWidth="1"/>
+    <col min="6398" max="6398" width="33.28515625" style="35" customWidth="1"/>
+    <col min="6399" max="6400" width="20.7109375" style="35" customWidth="1"/>
+    <col min="6401" max="6401" width="9" style="35" customWidth="1"/>
+    <col min="6402" max="6402" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6652" width="9.140625" style="35"/>
+    <col min="6653" max="6653" width="1.85546875" style="35" customWidth="1"/>
+    <col min="6654" max="6654" width="33.28515625" style="35" customWidth="1"/>
+    <col min="6655" max="6656" width="20.7109375" style="35" customWidth="1"/>
+    <col min="6657" max="6657" width="9" style="35" customWidth="1"/>
+    <col min="6658" max="6658" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6908" width="9.140625" style="35"/>
+    <col min="6909" max="6909" width="1.85546875" style="35" customWidth="1"/>
+    <col min="6910" max="6910" width="33.28515625" style="35" customWidth="1"/>
+    <col min="6911" max="6912" width="20.7109375" style="35" customWidth="1"/>
+    <col min="6913" max="6913" width="9" style="35" customWidth="1"/>
+    <col min="6914" max="6914" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="6917" max="7164" width="9.140625" style="35"/>
+    <col min="7165" max="7165" width="1.85546875" style="35" customWidth="1"/>
+    <col min="7166" max="7166" width="33.28515625" style="35" customWidth="1"/>
+    <col min="7167" max="7168" width="20.7109375" style="35" customWidth="1"/>
+    <col min="7169" max="7169" width="9" style="35" customWidth="1"/>
+    <col min="7170" max="7170" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7420" width="9.140625" style="35"/>
+    <col min="7421" max="7421" width="1.85546875" style="35" customWidth="1"/>
+    <col min="7422" max="7422" width="33.28515625" style="35" customWidth="1"/>
+    <col min="7423" max="7424" width="20.7109375" style="35" customWidth="1"/>
+    <col min="7425" max="7425" width="9" style="35" customWidth="1"/>
+    <col min="7426" max="7426" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7676" width="9.140625" style="35"/>
+    <col min="7677" max="7677" width="1.85546875" style="35" customWidth="1"/>
+    <col min="7678" max="7678" width="33.28515625" style="35" customWidth="1"/>
+    <col min="7679" max="7680" width="20.7109375" style="35" customWidth="1"/>
+    <col min="7681" max="7681" width="9" style="35" customWidth="1"/>
+    <col min="7682" max="7682" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7932" width="9.140625" style="35"/>
+    <col min="7933" max="7933" width="1.85546875" style="35" customWidth="1"/>
+    <col min="7934" max="7934" width="33.28515625" style="35" customWidth="1"/>
+    <col min="7935" max="7936" width="20.7109375" style="35" customWidth="1"/>
+    <col min="7937" max="7937" width="9" style="35" customWidth="1"/>
+    <col min="7938" max="7938" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="7941" max="8188" width="9.140625" style="35"/>
+    <col min="8189" max="8189" width="1.85546875" style="35" customWidth="1"/>
+    <col min="8190" max="8190" width="33.28515625" style="35" customWidth="1"/>
+    <col min="8191" max="8192" width="20.7109375" style="35" customWidth="1"/>
+    <col min="8193" max="8193" width="9" style="35" customWidth="1"/>
+    <col min="8194" max="8194" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8444" width="9.140625" style="35"/>
+    <col min="8445" max="8445" width="1.85546875" style="35" customWidth="1"/>
+    <col min="8446" max="8446" width="33.28515625" style="35" customWidth="1"/>
+    <col min="8447" max="8448" width="20.7109375" style="35" customWidth="1"/>
+    <col min="8449" max="8449" width="9" style="35" customWidth="1"/>
+    <col min="8450" max="8450" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8700" width="9.140625" style="35"/>
+    <col min="8701" max="8701" width="1.85546875" style="35" customWidth="1"/>
+    <col min="8702" max="8702" width="33.28515625" style="35" customWidth="1"/>
+    <col min="8703" max="8704" width="20.7109375" style="35" customWidth="1"/>
+    <col min="8705" max="8705" width="9" style="35" customWidth="1"/>
+    <col min="8706" max="8706" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8956" width="9.140625" style="35"/>
+    <col min="8957" max="8957" width="1.85546875" style="35" customWidth="1"/>
+    <col min="8958" max="8958" width="33.28515625" style="35" customWidth="1"/>
+    <col min="8959" max="8960" width="20.7109375" style="35" customWidth="1"/>
+    <col min="8961" max="8961" width="9" style="35" customWidth="1"/>
+    <col min="8962" max="8962" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8965" max="9212" width="9.140625" style="35"/>
+    <col min="9213" max="9213" width="1.85546875" style="35" customWidth="1"/>
+    <col min="9214" max="9214" width="33.28515625" style="35" customWidth="1"/>
+    <col min="9215" max="9216" width="20.7109375" style="35" customWidth="1"/>
+    <col min="9217" max="9217" width="9" style="35" customWidth="1"/>
+    <col min="9218" max="9218" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9468" width="9.140625" style="35"/>
+    <col min="9469" max="9469" width="1.85546875" style="35" customWidth="1"/>
+    <col min="9470" max="9470" width="33.28515625" style="35" customWidth="1"/>
+    <col min="9471" max="9472" width="20.7109375" style="35" customWidth="1"/>
+    <col min="9473" max="9473" width="9" style="35" customWidth="1"/>
+    <col min="9474" max="9474" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9724" width="9.140625" style="35"/>
+    <col min="9725" max="9725" width="1.85546875" style="35" customWidth="1"/>
+    <col min="9726" max="9726" width="33.28515625" style="35" customWidth="1"/>
+    <col min="9727" max="9728" width="20.7109375" style="35" customWidth="1"/>
+    <col min="9729" max="9729" width="9" style="35" customWidth="1"/>
+    <col min="9730" max="9730" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9980" width="9.140625" style="35"/>
+    <col min="9981" max="9981" width="1.85546875" style="35" customWidth="1"/>
+    <col min="9982" max="9982" width="33.28515625" style="35" customWidth="1"/>
+    <col min="9983" max="9984" width="20.7109375" style="35" customWidth="1"/>
+    <col min="9985" max="9985" width="9" style="35" customWidth="1"/>
+    <col min="9986" max="9986" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="9989" max="10236" width="9.140625" style="35"/>
+    <col min="10237" max="10237" width="1.85546875" style="35" customWidth="1"/>
+    <col min="10238" max="10238" width="33.28515625" style="35" customWidth="1"/>
+    <col min="10239" max="10240" width="20.7109375" style="35" customWidth="1"/>
+    <col min="10241" max="10241" width="9" style="35" customWidth="1"/>
+    <col min="10242" max="10242" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10492" width="9.140625" style="35"/>
+    <col min="10493" max="10493" width="1.85546875" style="35" customWidth="1"/>
+    <col min="10494" max="10494" width="33.28515625" style="35" customWidth="1"/>
+    <col min="10495" max="10496" width="20.7109375" style="35" customWidth="1"/>
+    <col min="10497" max="10497" width="9" style="35" customWidth="1"/>
+    <col min="10498" max="10498" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10748" width="9.140625" style="35"/>
+    <col min="10749" max="10749" width="1.85546875" style="35" customWidth="1"/>
+    <col min="10750" max="10750" width="33.28515625" style="35" customWidth="1"/>
+    <col min="10751" max="10752" width="20.7109375" style="35" customWidth="1"/>
+    <col min="10753" max="10753" width="9" style="35" customWidth="1"/>
+    <col min="10754" max="10754" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10757" max="11004" width="9.140625" style="35"/>
+    <col min="11005" max="11005" width="1.85546875" style="35" customWidth="1"/>
+    <col min="11006" max="11006" width="33.28515625" style="35" customWidth="1"/>
+    <col min="11007" max="11008" width="20.7109375" style="35" customWidth="1"/>
+    <col min="11009" max="11009" width="9" style="35" customWidth="1"/>
+    <col min="11010" max="11010" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11260" width="9.140625" style="35"/>
+    <col min="11261" max="11261" width="1.85546875" style="35" customWidth="1"/>
+    <col min="11262" max="11262" width="33.28515625" style="35" customWidth="1"/>
+    <col min="11263" max="11264" width="20.7109375" style="35" customWidth="1"/>
+    <col min="11265" max="11265" width="9" style="35" customWidth="1"/>
+    <col min="11266" max="11266" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11516" width="9.140625" style="35"/>
+    <col min="11517" max="11517" width="1.85546875" style="35" customWidth="1"/>
+    <col min="11518" max="11518" width="33.28515625" style="35" customWidth="1"/>
+    <col min="11519" max="11520" width="20.7109375" style="35" customWidth="1"/>
+    <col min="11521" max="11521" width="9" style="35" customWidth="1"/>
+    <col min="11522" max="11522" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11772" width="9.140625" style="35"/>
+    <col min="11773" max="11773" width="1.85546875" style="35" customWidth="1"/>
+    <col min="11774" max="11774" width="33.28515625" style="35" customWidth="1"/>
+    <col min="11775" max="11776" width="20.7109375" style="35" customWidth="1"/>
+    <col min="11777" max="11777" width="9" style="35" customWidth="1"/>
+    <col min="11778" max="11778" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="11781" max="12028" width="9.140625" style="35"/>
+    <col min="12029" max="12029" width="1.85546875" style="35" customWidth="1"/>
+    <col min="12030" max="12030" width="33.28515625" style="35" customWidth="1"/>
+    <col min="12031" max="12032" width="20.7109375" style="35" customWidth="1"/>
+    <col min="12033" max="12033" width="9" style="35" customWidth="1"/>
+    <col min="12034" max="12034" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12284" width="9.140625" style="35"/>
+    <col min="12285" max="12285" width="1.85546875" style="35" customWidth="1"/>
+    <col min="12286" max="12286" width="33.28515625" style="35" customWidth="1"/>
+    <col min="12287" max="12288" width="20.7109375" style="35" customWidth="1"/>
+    <col min="12289" max="12289" width="9" style="35" customWidth="1"/>
+    <col min="12290" max="12290" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12540" width="9.140625" style="35"/>
+    <col min="12541" max="12541" width="1.85546875" style="35" customWidth="1"/>
+    <col min="12542" max="12542" width="33.28515625" style="35" customWidth="1"/>
+    <col min="12543" max="12544" width="20.7109375" style="35" customWidth="1"/>
+    <col min="12545" max="12545" width="9" style="35" customWidth="1"/>
+    <col min="12546" max="12546" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12796" width="9.140625" style="35"/>
+    <col min="12797" max="12797" width="1.85546875" style="35" customWidth="1"/>
+    <col min="12798" max="12798" width="33.28515625" style="35" customWidth="1"/>
+    <col min="12799" max="12800" width="20.7109375" style="35" customWidth="1"/>
+    <col min="12801" max="12801" width="9" style="35" customWidth="1"/>
+    <col min="12802" max="12802" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="12805" max="13052" width="9.140625" style="35"/>
+    <col min="13053" max="13053" width="1.85546875" style="35" customWidth="1"/>
+    <col min="13054" max="13054" width="33.28515625" style="35" customWidth="1"/>
+    <col min="13055" max="13056" width="20.7109375" style="35" customWidth="1"/>
+    <col min="13057" max="13057" width="9" style="35" customWidth="1"/>
+    <col min="13058" max="13058" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13308" width="9.140625" style="35"/>
+    <col min="13309" max="13309" width="1.85546875" style="35" customWidth="1"/>
+    <col min="13310" max="13310" width="33.28515625" style="35" customWidth="1"/>
+    <col min="13311" max="13312" width="20.7109375" style="35" customWidth="1"/>
+    <col min="13313" max="13313" width="9" style="35" customWidth="1"/>
+    <col min="13314" max="13314" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13564" width="9.140625" style="35"/>
+    <col min="13565" max="13565" width="1.85546875" style="35" customWidth="1"/>
+    <col min="13566" max="13566" width="33.28515625" style="35" customWidth="1"/>
+    <col min="13567" max="13568" width="20.7109375" style="35" customWidth="1"/>
+    <col min="13569" max="13569" width="9" style="35" customWidth="1"/>
+    <col min="13570" max="13570" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13820" width="9.140625" style="35"/>
+    <col min="13821" max="13821" width="1.85546875" style="35" customWidth="1"/>
+    <col min="13822" max="13822" width="33.28515625" style="35" customWidth="1"/>
+    <col min="13823" max="13824" width="20.7109375" style="35" customWidth="1"/>
+    <col min="13825" max="13825" width="9" style="35" customWidth="1"/>
+    <col min="13826" max="13826" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="13829" max="14076" width="9.140625" style="35"/>
+    <col min="14077" max="14077" width="1.85546875" style="35" customWidth="1"/>
+    <col min="14078" max="14078" width="33.28515625" style="35" customWidth="1"/>
+    <col min="14079" max="14080" width="20.7109375" style="35" customWidth="1"/>
+    <col min="14081" max="14081" width="9" style="35" customWidth="1"/>
+    <col min="14082" max="14082" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14332" width="9.140625" style="35"/>
+    <col min="14333" max="14333" width="1.85546875" style="35" customWidth="1"/>
+    <col min="14334" max="14334" width="33.28515625" style="35" customWidth="1"/>
+    <col min="14335" max="14336" width="20.7109375" style="35" customWidth="1"/>
+    <col min="14337" max="14337" width="9" style="35" customWidth="1"/>
+    <col min="14338" max="14338" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14588" width="9.140625" style="35"/>
+    <col min="14589" max="14589" width="1.85546875" style="35" customWidth="1"/>
+    <col min="14590" max="14590" width="33.28515625" style="35" customWidth="1"/>
+    <col min="14591" max="14592" width="20.7109375" style="35" customWidth="1"/>
+    <col min="14593" max="14593" width="9" style="35" customWidth="1"/>
+    <col min="14594" max="14594" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14844" width="9.140625" style="35"/>
+    <col min="14845" max="14845" width="1.85546875" style="35" customWidth="1"/>
+    <col min="14846" max="14846" width="33.28515625" style="35" customWidth="1"/>
+    <col min="14847" max="14848" width="20.7109375" style="35" customWidth="1"/>
+    <col min="14849" max="14849" width="9" style="35" customWidth="1"/>
+    <col min="14850" max="14850" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="14853" max="15100" width="9.140625" style="35"/>
+    <col min="15101" max="15101" width="1.85546875" style="35" customWidth="1"/>
+    <col min="15102" max="15102" width="33.28515625" style="35" customWidth="1"/>
+    <col min="15103" max="15104" width="20.7109375" style="35" customWidth="1"/>
+    <col min="15105" max="15105" width="9" style="35" customWidth="1"/>
+    <col min="15106" max="15106" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15356" width="9.140625" style="35"/>
+    <col min="15357" max="15357" width="1.85546875" style="35" customWidth="1"/>
+    <col min="15358" max="15358" width="33.28515625" style="35" customWidth="1"/>
+    <col min="15359" max="15360" width="20.7109375" style="35" customWidth="1"/>
+    <col min="15361" max="15361" width="9" style="35" customWidth="1"/>
+    <col min="15362" max="15362" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15612" width="9.140625" style="35"/>
+    <col min="15613" max="15613" width="1.85546875" style="35" customWidth="1"/>
+    <col min="15614" max="15614" width="33.28515625" style="35" customWidth="1"/>
+    <col min="15615" max="15616" width="20.7109375" style="35" customWidth="1"/>
+    <col min="15617" max="15617" width="9" style="35" customWidth="1"/>
+    <col min="15618" max="15618" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15868" width="9.140625" style="35"/>
+    <col min="15869" max="15869" width="1.85546875" style="35" customWidth="1"/>
+    <col min="15870" max="15870" width="33.28515625" style="35" customWidth="1"/>
+    <col min="15871" max="15872" width="20.7109375" style="35" customWidth="1"/>
+    <col min="15873" max="15873" width="9" style="35" customWidth="1"/>
+    <col min="15874" max="15874" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="15877" max="16124" width="9.140625" style="35"/>
+    <col min="16125" max="16125" width="1.85546875" style="35" customWidth="1"/>
+    <col min="16126" max="16126" width="33.28515625" style="35" customWidth="1"/>
+    <col min="16127" max="16128" width="20.7109375" style="35" customWidth="1"/>
+    <col min="16129" max="16129" width="9" style="35" customWidth="1"/>
+    <col min="16130" max="16130" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="15.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16384" width="9.140625" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="14.25">
+      <c r="B1" s="170" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="170"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="150" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" s="149"/>
+    </row>
+    <row r="2" spans="2:10" ht="15.75">
+      <c r="B2" s="171" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="171"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="152"/>
+    </row>
+    <row r="3" spans="2:10" ht="15">
+      <c r="B3" s="135"/>
+      <c r="C3" s="136">
+        <v>42551</v>
+      </c>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="152"/>
+    </row>
+    <row r="4" spans="2:10" ht="15">
+      <c r="B4" s="137" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="135"/>
+      <c r="E4" s="153" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="153"/>
+      <c r="G4" s="152"/>
+    </row>
+    <row r="5" spans="2:10" ht="15">
+      <c r="B5" s="138" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="139">
+        <v>37667162029</v>
+      </c>
+      <c r="E5" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="153" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="155">
+        <v>39535995292</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15">
+      <c r="B6" s="138" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="140">
+        <v>828167983</v>
+      </c>
+      <c r="E6" s="154" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="153" t="s">
+        <v>217</v>
+      </c>
+      <c r="G6" s="155">
+        <v>535870232</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15">
+      <c r="B7" s="138" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="140">
+        <v>233891569</v>
+      </c>
+      <c r="E7" s="154" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="153" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7" s="156">
+        <v>972023664</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15">
+      <c r="B8" s="138" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="140">
+        <v>405896494</v>
+      </c>
+      <c r="E8" s="154" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="153" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8" s="156">
+        <v>41614466631</v>
+      </c>
+      <c r="J8" s="140">
+        <v>125975786</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15">
+      <c r="B9" s="138" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="140">
+        <v>0</v>
+      </c>
+      <c r="E9" s="154" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="153" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" s="156">
+        <v>37057619</v>
+      </c>
+      <c r="J9" s="140">
+        <v>2190015114</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15.75">
+      <c r="B10" s="138" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="140">
+        <v>125975786</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="154" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="153" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="156">
+        <v>3066827192</v>
+      </c>
+      <c r="J10" s="156">
+        <v>972023664</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15">
+      <c r="B11" s="138" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="140">
+        <v>2190015114</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="154" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="153" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="156">
+        <v>85762240630</v>
+      </c>
+      <c r="J11" s="159">
+        <f>J8+J9-J10</f>
+        <v>1343967236</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="15.75">
+      <c r="B12" s="138" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="140">
+        <v>2659607405</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="156"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.75">
+      <c r="B13" s="138"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="153" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+    </row>
+    <row r="14" spans="2:10" ht="15">
+      <c r="B14" s="141" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="142">
+        <v>44110716380</v>
+      </c>
+      <c r="E14" s="154" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="153" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="158">
+        <v>23738166660</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="141"/>
+      <c r="C15" s="142"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="141"/>
+      <c r="C16" s="142"/>
+    </row>
+    <row r="17" spans="1:5" ht="14.25">
+      <c r="B17" s="137" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="135"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" s="138" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="139">
+        <v>36908685919</v>
+      </c>
+      <c r="D18" s="124"/>
+      <c r="E18" s="125"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="138" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="140">
+        <v>562967821</v>
+      </c>
+      <c r="D19" s="45"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="138" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="140">
+        <v>1079573596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="138" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="140">
+        <v>286721503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="138" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="138" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="140">
+        <v>2776517792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15">
+      <c r="B24" s="138" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="140">
+        <v>37057619</v>
+      </c>
+      <c r="D24" s="52"/>
+    </row>
+    <row r="25" spans="1:5" ht="15">
+      <c r="B25" s="138"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="52"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="138"/>
+      <c r="C26" s="140"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="138"/>
+      <c r="C27" s="140"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="141" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="143">
+        <v>41651524250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="144" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="142">
+        <v>85762240630</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.25">
+      <c r="B30" s="137" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="145">
+        <v>3083988637</v>
+      </c>
+      <c r="D30" s="58"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="59">
+        <v>1</v>
+      </c>
+      <c r="B32" s="146" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="147"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="59">
+        <v>2</v>
+      </c>
+      <c r="B33" s="146" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="147"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="59">
+        <v>3</v>
+      </c>
+      <c r="B34" s="146" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="147"/>
+    </row>
+    <row r="35" spans="1:3" ht="13.5">
+      <c r="A35" s="62">
+        <v>4</v>
+      </c>
+      <c r="B35" s="146" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="148"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Present Value of Benefits for prior fiscal year to nearest dollar" sqref="IU5:IV5 SQ5:SR5 ACM5:ACN5 AMI5:AMJ5 AWE5:AWF5 BGA5:BGB5 BPW5:BPX5 BZS5:BZT5 CJO5:CJP5 CTK5:CTL5 DDG5:DDH5 DNC5:DND5 DWY5:DWZ5 EGU5:EGV5 EQQ5:EQR5 FAM5:FAN5 FKI5:FKJ5 FUE5:FUF5 GEA5:GEB5 GNW5:GNX5 GXS5:GXT5 HHO5:HHP5 HRK5:HRL5 IBG5:IBH5 ILC5:ILD5 IUY5:IUZ5 JEU5:JEV5 JOQ5:JOR5 JYM5:JYN5 KII5:KIJ5 KSE5:KSF5 LCA5:LCB5 LLW5:LLX5 LVS5:LVT5 MFO5:MFP5 MPK5:MPL5 MZG5:MZH5 NJC5:NJD5 NSY5:NSZ5 OCU5:OCV5 OMQ5:OMR5 OWM5:OWN5 PGI5:PGJ5 PQE5:PQF5 QAA5:QAB5 QJW5:QJX5 QTS5:QTT5 RDO5:RDP5 RNK5:RNL5 RXG5:RXH5 SHC5:SHD5 SQY5:SQZ5 TAU5:TAV5 TKQ5:TKR5 TUM5:TUN5 UEI5:UEJ5 UOE5:UOF5 UYA5:UYB5 VHW5:VHX5 VRS5:VRT5 WBO5:WBP5 WLK5:WLL5 WVG5:WVH5 IU65535:IV65535 SQ65535:SR65535 ACM65535:ACN65535 AMI65535:AMJ65535 AWE65535:AWF65535 BGA65535:BGB65535 BPW65535:BPX65535 BZS65535:BZT65535 CJO65535:CJP65535 CTK65535:CTL65535 DDG65535:DDH65535 DNC65535:DND65535 DWY65535:DWZ65535 EGU65535:EGV65535 EQQ65535:EQR65535 FAM65535:FAN65535 FKI65535:FKJ65535 FUE65535:FUF65535 GEA65535:GEB65535 GNW65535:GNX65535 GXS65535:GXT65535 HHO65535:HHP65535 HRK65535:HRL65535 IBG65535:IBH65535 ILC65535:ILD65535 IUY65535:IUZ65535 JEU65535:JEV65535 JOQ65535:JOR65535 JYM65535:JYN65535 KII65535:KIJ65535 KSE65535:KSF65535 LCA65535:LCB65535 LLW65535:LLX65535 LVS65535:LVT65535 MFO65535:MFP65535 MPK65535:MPL65535 MZG65535:MZH65535 NJC65535:NJD65535 NSY65535:NSZ65535 OCU65535:OCV65535 OMQ65535:OMR65535 OWM65535:OWN65535 PGI65535:PGJ65535 PQE65535:PQF65535 QAA65535:QAB65535 QJW65535:QJX65535 QTS65535:QTT65535 RDO65535:RDP65535 RNK65535:RNL65535 RXG65535:RXH65535 SHC65535:SHD65535 SQY65535:SQZ65535 TAU65535:TAV65535 TKQ65535:TKR65535 TUM65535:TUN65535 UEI65535:UEJ65535 UOE65535:UOF65535 UYA65535:UYB65535 VHW65535:VHX65535 VRS65535:VRT65535 WBO65535:WBP65535 WLK65535:WLL65535 WVG65535:WVH65535 IU131071:IV131071 SQ131071:SR131071 ACM131071:ACN131071 AMI131071:AMJ131071 AWE131071:AWF131071 BGA131071:BGB131071 BPW131071:BPX131071 BZS131071:BZT131071 CJO131071:CJP131071 CTK131071:CTL131071 DDG131071:DDH131071 DNC131071:DND131071 DWY131071:DWZ131071 EGU131071:EGV131071 EQQ131071:EQR131071 FAM131071:FAN131071 FKI131071:FKJ131071 FUE131071:FUF131071 GEA131071:GEB131071 GNW131071:GNX131071 GXS131071:GXT131071 HHO131071:HHP131071 HRK131071:HRL131071 IBG131071:IBH131071 ILC131071:ILD131071 IUY131071:IUZ131071 JEU131071:JEV131071 JOQ131071:JOR131071 JYM131071:JYN131071 KII131071:KIJ131071 KSE131071:KSF131071 LCA131071:LCB131071 LLW131071:LLX131071 LVS131071:LVT131071 MFO131071:MFP131071 MPK131071:MPL131071 MZG131071:MZH131071 NJC131071:NJD131071 NSY131071:NSZ131071 OCU131071:OCV131071 OMQ131071:OMR131071 OWM131071:OWN131071 PGI131071:PGJ131071 PQE131071:PQF131071 QAA131071:QAB131071 QJW131071:QJX131071 QTS131071:QTT131071 RDO131071:RDP131071 RNK131071:RNL131071 RXG131071:RXH131071 SHC131071:SHD131071 SQY131071:SQZ131071 TAU131071:TAV131071 TKQ131071:TKR131071 TUM131071:TUN131071 UEI131071:UEJ131071 UOE131071:UOF131071 UYA131071:UYB131071 VHW131071:VHX131071 VRS131071:VRT131071 WBO131071:WBP131071 WLK131071:WLL131071 WVG131071:WVH131071 IU196607:IV196607 SQ196607:SR196607 ACM196607:ACN196607 AMI196607:AMJ196607 AWE196607:AWF196607 BGA196607:BGB196607 BPW196607:BPX196607 BZS196607:BZT196607 CJO196607:CJP196607 CTK196607:CTL196607 DDG196607:DDH196607 DNC196607:DND196607 DWY196607:DWZ196607 EGU196607:EGV196607 EQQ196607:EQR196607 FAM196607:FAN196607 FKI196607:FKJ196607 FUE196607:FUF196607 GEA196607:GEB196607 GNW196607:GNX196607 GXS196607:GXT196607 HHO196607:HHP196607 HRK196607:HRL196607 IBG196607:IBH196607 ILC196607:ILD196607 IUY196607:IUZ196607 JEU196607:JEV196607 JOQ196607:JOR196607 JYM196607:JYN196607 KII196607:KIJ196607 KSE196607:KSF196607 LCA196607:LCB196607 LLW196607:LLX196607 LVS196607:LVT196607 MFO196607:MFP196607 MPK196607:MPL196607 MZG196607:MZH196607 NJC196607:NJD196607 NSY196607:NSZ196607 OCU196607:OCV196607 OMQ196607:OMR196607 OWM196607:OWN196607 PGI196607:PGJ196607 PQE196607:PQF196607 QAA196607:QAB196607 QJW196607:QJX196607 QTS196607:QTT196607 RDO196607:RDP196607 RNK196607:RNL196607 RXG196607:RXH196607 SHC196607:SHD196607 SQY196607:SQZ196607 TAU196607:TAV196607 TKQ196607:TKR196607 TUM196607:TUN196607 UEI196607:UEJ196607 UOE196607:UOF196607 UYA196607:UYB196607 VHW196607:VHX196607 VRS196607:VRT196607 WBO196607:WBP196607 WLK196607:WLL196607 WVG196607:WVH196607 IU262143:IV262143 SQ262143:SR262143 ACM262143:ACN262143 AMI262143:AMJ262143 AWE262143:AWF262143 BGA262143:BGB262143 BPW262143:BPX262143 BZS262143:BZT262143 CJO262143:CJP262143 CTK262143:CTL262143 DDG262143:DDH262143 DNC262143:DND262143 DWY262143:DWZ262143 EGU262143:EGV262143 EQQ262143:EQR262143 FAM262143:FAN262143 FKI262143:FKJ262143 FUE262143:FUF262143 GEA262143:GEB262143 GNW262143:GNX262143 GXS262143:GXT262143 HHO262143:HHP262143 HRK262143:HRL262143 IBG262143:IBH262143 ILC262143:ILD262143 IUY262143:IUZ262143 JEU262143:JEV262143 JOQ262143:JOR262143 JYM262143:JYN262143 KII262143:KIJ262143 KSE262143:KSF262143 LCA262143:LCB262143 LLW262143:LLX262143 LVS262143:LVT262143 MFO262143:MFP262143 MPK262143:MPL262143 MZG262143:MZH262143 NJC262143:NJD262143 NSY262143:NSZ262143 OCU262143:OCV262143 OMQ262143:OMR262143 OWM262143:OWN262143 PGI262143:PGJ262143 PQE262143:PQF262143 QAA262143:QAB262143 QJW262143:QJX262143 QTS262143:QTT262143 RDO262143:RDP262143 RNK262143:RNL262143 RXG262143:RXH262143 SHC262143:SHD262143 SQY262143:SQZ262143 TAU262143:TAV262143 TKQ262143:TKR262143 TUM262143:TUN262143 UEI262143:UEJ262143 UOE262143:UOF262143 UYA262143:UYB262143 VHW262143:VHX262143 VRS262143:VRT262143 WBO262143:WBP262143 WLK262143:WLL262143 WVG262143:WVH262143 IU327679:IV327679 SQ327679:SR327679 ACM327679:ACN327679 AMI327679:AMJ327679 AWE327679:AWF327679 BGA327679:BGB327679 BPW327679:BPX327679 BZS327679:BZT327679 CJO327679:CJP327679 CTK327679:CTL327679 DDG327679:DDH327679 DNC327679:DND327679 DWY327679:DWZ327679 EGU327679:EGV327679 EQQ327679:EQR327679 FAM327679:FAN327679 FKI327679:FKJ327679 FUE327679:FUF327679 GEA327679:GEB327679 GNW327679:GNX327679 GXS327679:GXT327679 HHO327679:HHP327679 HRK327679:HRL327679 IBG327679:IBH327679 ILC327679:ILD327679 IUY327679:IUZ327679 JEU327679:JEV327679 JOQ327679:JOR327679 JYM327679:JYN327679 KII327679:KIJ327679 KSE327679:KSF327679 LCA327679:LCB327679 LLW327679:LLX327679 LVS327679:LVT327679 MFO327679:MFP327679 MPK327679:MPL327679 MZG327679:MZH327679 NJC327679:NJD327679 NSY327679:NSZ327679 OCU327679:OCV327679 OMQ327679:OMR327679 OWM327679:OWN327679 PGI327679:PGJ327679 PQE327679:PQF327679 QAA327679:QAB327679 QJW327679:QJX327679 QTS327679:QTT327679 RDO327679:RDP327679 RNK327679:RNL327679 RXG327679:RXH327679 SHC327679:SHD327679 SQY327679:SQZ327679 TAU327679:TAV327679 TKQ327679:TKR327679 TUM327679:TUN327679 UEI327679:UEJ327679 UOE327679:UOF327679 UYA327679:UYB327679 VHW327679:VHX327679 VRS327679:VRT327679 WBO327679:WBP327679 WLK327679:WLL327679 WVG327679:WVH327679 IU393215:IV393215 SQ393215:SR393215 ACM393215:ACN393215 AMI393215:AMJ393215 AWE393215:AWF393215 BGA393215:BGB393215 BPW393215:BPX393215 BZS393215:BZT393215 CJO393215:CJP393215 CTK393215:CTL393215 DDG393215:DDH393215 DNC393215:DND393215 DWY393215:DWZ393215 EGU393215:EGV393215 EQQ393215:EQR393215 FAM393215:FAN393215 FKI393215:FKJ393215 FUE393215:FUF393215 GEA393215:GEB393215 GNW393215:GNX393215 GXS393215:GXT393215 HHO393215:HHP393215 HRK393215:HRL393215 IBG393215:IBH393215 ILC393215:ILD393215 IUY393215:IUZ393215 JEU393215:JEV393215 JOQ393215:JOR393215 JYM393215:JYN393215 KII393215:KIJ393215 KSE393215:KSF393215 LCA393215:LCB393215 LLW393215:LLX393215 LVS393215:LVT393215 MFO393215:MFP393215 MPK393215:MPL393215 MZG393215:MZH393215 NJC393215:NJD393215 NSY393215:NSZ393215 OCU393215:OCV393215 OMQ393215:OMR393215 OWM393215:OWN393215 PGI393215:PGJ393215 PQE393215:PQF393215 QAA393215:QAB393215 QJW393215:QJX393215 QTS393215:QTT393215 RDO393215:RDP393215 RNK393215:RNL393215 RXG393215:RXH393215 SHC393215:SHD393215 SQY393215:SQZ393215 TAU393215:TAV393215 TKQ393215:TKR393215 TUM393215:TUN393215 UEI393215:UEJ393215 UOE393215:UOF393215 UYA393215:UYB393215 VHW393215:VHX393215 VRS393215:VRT393215 WBO393215:WBP393215 WLK393215:WLL393215 WVG393215:WVH393215 IU458751:IV458751 SQ458751:SR458751 ACM458751:ACN458751 AMI458751:AMJ458751 AWE458751:AWF458751 BGA458751:BGB458751 BPW458751:BPX458751 BZS458751:BZT458751 CJO458751:CJP458751 CTK458751:CTL458751 DDG458751:DDH458751 DNC458751:DND458751 DWY458751:DWZ458751 EGU458751:EGV458751 EQQ458751:EQR458751 FAM458751:FAN458751 FKI458751:FKJ458751 FUE458751:FUF458751 GEA458751:GEB458751 GNW458751:GNX458751 GXS458751:GXT458751 HHO458751:HHP458751 HRK458751:HRL458751 IBG458751:IBH458751 ILC458751:ILD458751 IUY458751:IUZ458751 JEU458751:JEV458751 JOQ458751:JOR458751 JYM458751:JYN458751 KII458751:KIJ458751 KSE458751:KSF458751 LCA458751:LCB458751 LLW458751:LLX458751 LVS458751:LVT458751 MFO458751:MFP458751 MPK458751:MPL458751 MZG458751:MZH458751 NJC458751:NJD458751 NSY458751:NSZ458751 OCU458751:OCV458751 OMQ458751:OMR458751 OWM458751:OWN458751 PGI458751:PGJ458751 PQE458751:PQF458751 QAA458751:QAB458751 QJW458751:QJX458751 QTS458751:QTT458751 RDO458751:RDP458751 RNK458751:RNL458751 RXG458751:RXH458751 SHC458751:SHD458751 SQY458751:SQZ458751 TAU458751:TAV458751 TKQ458751:TKR458751 TUM458751:TUN458751 UEI458751:UEJ458751 UOE458751:UOF458751 UYA458751:UYB458751 VHW458751:VHX458751 VRS458751:VRT458751 WBO458751:WBP458751 WLK458751:WLL458751 WVG458751:WVH458751 IU524287:IV524287 SQ524287:SR524287 ACM524287:ACN524287 AMI524287:AMJ524287 AWE524287:AWF524287 BGA524287:BGB524287 BPW524287:BPX524287 BZS524287:BZT524287 CJO524287:CJP524287 CTK524287:CTL524287 DDG524287:DDH524287 DNC524287:DND524287 DWY524287:DWZ524287 EGU524287:EGV524287 EQQ524287:EQR524287 FAM524287:FAN524287 FKI524287:FKJ524287 FUE524287:FUF524287 GEA524287:GEB524287 GNW524287:GNX524287 GXS524287:GXT524287 HHO524287:HHP524287 HRK524287:HRL524287 IBG524287:IBH524287 ILC524287:ILD524287 IUY524287:IUZ524287 JEU524287:JEV524287 JOQ524287:JOR524287 JYM524287:JYN524287 KII524287:KIJ524287 KSE524287:KSF524287 LCA524287:LCB524287 LLW524287:LLX524287 LVS524287:LVT524287 MFO524287:MFP524287 MPK524287:MPL524287 MZG524287:MZH524287 NJC524287:NJD524287 NSY524287:NSZ524287 OCU524287:OCV524287 OMQ524287:OMR524287 OWM524287:OWN524287 PGI524287:PGJ524287 PQE524287:PQF524287 QAA524287:QAB524287 QJW524287:QJX524287 QTS524287:QTT524287 RDO524287:RDP524287 RNK524287:RNL524287 RXG524287:RXH524287 SHC524287:SHD524287 SQY524287:SQZ524287 TAU524287:TAV524287 TKQ524287:TKR524287 TUM524287:TUN524287 UEI524287:UEJ524287 UOE524287:UOF524287 UYA524287:UYB524287 VHW524287:VHX524287 VRS524287:VRT524287 WBO524287:WBP524287 WLK524287:WLL524287 WVG524287:WVH524287 IU589823:IV589823 SQ589823:SR589823 ACM589823:ACN589823 AMI589823:AMJ589823 AWE589823:AWF589823 BGA589823:BGB589823 BPW589823:BPX589823 BZS589823:BZT589823 CJO589823:CJP589823 CTK589823:CTL589823 DDG589823:DDH589823 DNC589823:DND589823 DWY589823:DWZ589823 EGU589823:EGV589823 EQQ589823:EQR589823 FAM589823:FAN589823 FKI589823:FKJ589823 FUE589823:FUF589823 GEA589823:GEB589823 GNW589823:GNX589823 GXS589823:GXT589823 HHO589823:HHP589823 HRK589823:HRL589823 IBG589823:IBH589823 ILC589823:ILD589823 IUY589823:IUZ589823 JEU589823:JEV589823 JOQ589823:JOR589823 JYM589823:JYN589823 KII589823:KIJ589823 KSE589823:KSF589823 LCA589823:LCB589823 LLW589823:LLX589823 LVS589823:LVT589823 MFO589823:MFP589823 MPK589823:MPL589823 MZG589823:MZH589823 NJC589823:NJD589823 NSY589823:NSZ589823 OCU589823:OCV589823 OMQ589823:OMR589823 OWM589823:OWN589823 PGI589823:PGJ589823 PQE589823:PQF589823 QAA589823:QAB589823 QJW589823:QJX589823 QTS589823:QTT589823 RDO589823:RDP589823 RNK589823:RNL589823 RXG589823:RXH589823 SHC589823:SHD589823 SQY589823:SQZ589823 TAU589823:TAV589823 TKQ589823:TKR589823 TUM589823:TUN589823 UEI589823:UEJ589823 UOE589823:UOF589823 UYA589823:UYB589823 VHW589823:VHX589823 VRS589823:VRT589823 WBO589823:WBP589823 WLK589823:WLL589823 WVG589823:WVH589823 IU655359:IV655359 SQ655359:SR655359 ACM655359:ACN655359 AMI655359:AMJ655359 AWE655359:AWF655359 BGA655359:BGB655359 BPW655359:BPX655359 BZS655359:BZT655359 CJO655359:CJP655359 CTK655359:CTL655359 DDG655359:DDH655359 DNC655359:DND655359 DWY655359:DWZ655359 EGU655359:EGV655359 EQQ655359:EQR655359 FAM655359:FAN655359 FKI655359:FKJ655359 FUE655359:FUF655359 GEA655359:GEB655359 GNW655359:GNX655359 GXS655359:GXT655359 HHO655359:HHP655359 HRK655359:HRL655359 IBG655359:IBH655359 ILC655359:ILD655359 IUY655359:IUZ655359 JEU655359:JEV655359 JOQ655359:JOR655359 JYM655359:JYN655359 KII655359:KIJ655359 KSE655359:KSF655359 LCA655359:LCB655359 LLW655359:LLX655359 LVS655359:LVT655359 MFO655359:MFP655359 MPK655359:MPL655359 MZG655359:MZH655359 NJC655359:NJD655359 NSY655359:NSZ655359 OCU655359:OCV655359 OMQ655359:OMR655359 OWM655359:OWN655359 PGI655359:PGJ655359 PQE655359:PQF655359 QAA655359:QAB655359 QJW655359:QJX655359 QTS655359:QTT655359 RDO655359:RDP655359 RNK655359:RNL655359 RXG655359:RXH655359 SHC655359:SHD655359 SQY655359:SQZ655359 TAU655359:TAV655359 TKQ655359:TKR655359 TUM655359:TUN655359 UEI655359:UEJ655359 UOE655359:UOF655359 UYA655359:UYB655359 VHW655359:VHX655359 VRS655359:VRT655359 WBO655359:WBP655359 WLK655359:WLL655359 WVG655359:WVH655359 IU720895:IV720895 SQ720895:SR720895 ACM720895:ACN720895 AMI720895:AMJ720895 AWE720895:AWF720895 BGA720895:BGB720895 BPW720895:BPX720895 BZS720895:BZT720895 CJO720895:CJP720895 CTK720895:CTL720895 DDG720895:DDH720895 DNC720895:DND720895 DWY720895:DWZ720895 EGU720895:EGV720895 EQQ720895:EQR720895 FAM720895:FAN720895 FKI720895:FKJ720895 FUE720895:FUF720895 GEA720895:GEB720895 GNW720895:GNX720895 GXS720895:GXT720895 HHO720895:HHP720895 HRK720895:HRL720895 IBG720895:IBH720895 ILC720895:ILD720895 IUY720895:IUZ720895 JEU720895:JEV720895 JOQ720895:JOR720895 JYM720895:JYN720895 KII720895:KIJ720895 KSE720895:KSF720895 LCA720895:LCB720895 LLW720895:LLX720895 LVS720895:LVT720895 MFO720895:MFP720895 MPK720895:MPL720895 MZG720895:MZH720895 NJC720895:NJD720895 NSY720895:NSZ720895 OCU720895:OCV720895 OMQ720895:OMR720895 OWM720895:OWN720895 PGI720895:PGJ720895 PQE720895:PQF720895 QAA720895:QAB720895 QJW720895:QJX720895 QTS720895:QTT720895 RDO720895:RDP720895 RNK720895:RNL720895 RXG720895:RXH720895 SHC720895:SHD720895 SQY720895:SQZ720895 TAU720895:TAV720895 TKQ720895:TKR720895 TUM720895:TUN720895 UEI720895:UEJ720895 UOE720895:UOF720895 UYA720895:UYB720895 VHW720895:VHX720895 VRS720895:VRT720895 WBO720895:WBP720895 WLK720895:WLL720895 WVG720895:WVH720895 IU786431:IV786431 SQ786431:SR786431 ACM786431:ACN786431 AMI786431:AMJ786431 AWE786431:AWF786431 BGA786431:BGB786431 BPW786431:BPX786431 BZS786431:BZT786431 CJO786431:CJP786431 CTK786431:CTL786431 DDG786431:DDH786431 DNC786431:DND786431 DWY786431:DWZ786431 EGU786431:EGV786431 EQQ786431:EQR786431 FAM786431:FAN786431 FKI786431:FKJ786431 FUE786431:FUF786431 GEA786431:GEB786431 GNW786431:GNX786431 GXS786431:GXT786431 HHO786431:HHP786431 HRK786431:HRL786431 IBG786431:IBH786431 ILC786431:ILD786431 IUY786431:IUZ786431 JEU786431:JEV786431 JOQ786431:JOR786431 JYM786431:JYN786431 KII786431:KIJ786431 KSE786431:KSF786431 LCA786431:LCB786431 LLW786431:LLX786431 LVS786431:LVT786431 MFO786431:MFP786431 MPK786431:MPL786431 MZG786431:MZH786431 NJC786431:NJD786431 NSY786431:NSZ786431 OCU786431:OCV786431 OMQ786431:OMR786431 OWM786431:OWN786431 PGI786431:PGJ786431 PQE786431:PQF786431 QAA786431:QAB786431 QJW786431:QJX786431 QTS786431:QTT786431 RDO786431:RDP786431 RNK786431:RNL786431 RXG786431:RXH786431 SHC786431:SHD786431 SQY786431:SQZ786431 TAU786431:TAV786431 TKQ786431:TKR786431 TUM786431:TUN786431 UEI786431:UEJ786431 UOE786431:UOF786431 UYA786431:UYB786431 VHW786431:VHX786431 VRS786431:VRT786431 WBO786431:WBP786431 WLK786431:WLL786431 WVG786431:WVH786431 IU851967:IV851967 SQ851967:SR851967 ACM851967:ACN851967 AMI851967:AMJ851967 AWE851967:AWF851967 BGA851967:BGB851967 BPW851967:BPX851967 BZS851967:BZT851967 CJO851967:CJP851967 CTK851967:CTL851967 DDG851967:DDH851967 DNC851967:DND851967 DWY851967:DWZ851967 EGU851967:EGV851967 EQQ851967:EQR851967 FAM851967:FAN851967 FKI851967:FKJ851967 FUE851967:FUF851967 GEA851967:GEB851967 GNW851967:GNX851967 GXS851967:GXT851967 HHO851967:HHP851967 HRK851967:HRL851967 IBG851967:IBH851967 ILC851967:ILD851967 IUY851967:IUZ851967 JEU851967:JEV851967 JOQ851967:JOR851967 JYM851967:JYN851967 KII851967:KIJ851967 KSE851967:KSF851967 LCA851967:LCB851967 LLW851967:LLX851967 LVS851967:LVT851967 MFO851967:MFP851967 MPK851967:MPL851967 MZG851967:MZH851967 NJC851967:NJD851967 NSY851967:NSZ851967 OCU851967:OCV851967 OMQ851967:OMR851967 OWM851967:OWN851967 PGI851967:PGJ851967 PQE851967:PQF851967 QAA851967:QAB851967 QJW851967:QJX851967 QTS851967:QTT851967 RDO851967:RDP851967 RNK851967:RNL851967 RXG851967:RXH851967 SHC851967:SHD851967 SQY851967:SQZ851967 TAU851967:TAV851967 TKQ851967:TKR851967 TUM851967:TUN851967 UEI851967:UEJ851967 UOE851967:UOF851967 UYA851967:UYB851967 VHW851967:VHX851967 VRS851967:VRT851967 WBO851967:WBP851967 WLK851967:WLL851967 WVG851967:WVH851967 IU917503:IV917503 SQ917503:SR917503 ACM917503:ACN917503 AMI917503:AMJ917503 AWE917503:AWF917503 BGA917503:BGB917503 BPW917503:BPX917503 BZS917503:BZT917503 CJO917503:CJP917503 CTK917503:CTL917503 DDG917503:DDH917503 DNC917503:DND917503 DWY917503:DWZ917503 EGU917503:EGV917503 EQQ917503:EQR917503 FAM917503:FAN917503 FKI917503:FKJ917503 FUE917503:FUF917503 GEA917503:GEB917503 GNW917503:GNX917503 GXS917503:GXT917503 HHO917503:HHP917503 HRK917503:HRL917503 IBG917503:IBH917503 ILC917503:ILD917503 IUY917503:IUZ917503 JEU917503:JEV917503 JOQ917503:JOR917503 JYM917503:JYN917503 KII917503:KIJ917503 KSE917503:KSF917503 LCA917503:LCB917503 LLW917503:LLX917503 LVS917503:LVT917503 MFO917503:MFP917503 MPK917503:MPL917503 MZG917503:MZH917503 NJC917503:NJD917503 NSY917503:NSZ917503 OCU917503:OCV917503 OMQ917503:OMR917503 OWM917503:OWN917503 PGI917503:PGJ917503 PQE917503:PQF917503 QAA917503:QAB917503 QJW917503:QJX917503 QTS917503:QTT917503 RDO917503:RDP917503 RNK917503:RNL917503 RXG917503:RXH917503 SHC917503:SHD917503 SQY917503:SQZ917503 TAU917503:TAV917503 TKQ917503:TKR917503 TUM917503:TUN917503 UEI917503:UEJ917503 UOE917503:UOF917503 UYA917503:UYB917503 VHW917503:VHX917503 VRS917503:VRT917503 WBO917503:WBP917503 WLK917503:WLL917503 WVG917503:WVH917503 IU983039:IV983039 SQ983039:SR983039 ACM983039:ACN983039 AMI983039:AMJ983039 AWE983039:AWF983039 BGA983039:BGB983039 BPW983039:BPX983039 BZS983039:BZT983039 CJO983039:CJP983039 CTK983039:CTL983039 DDG983039:DDH983039 DNC983039:DND983039 DWY983039:DWZ983039 EGU983039:EGV983039 EQQ983039:EQR983039 FAM983039:FAN983039 FKI983039:FKJ983039 FUE983039:FUF983039 GEA983039:GEB983039 GNW983039:GNX983039 GXS983039:GXT983039 HHO983039:HHP983039 HRK983039:HRL983039 IBG983039:IBH983039 ILC983039:ILD983039 IUY983039:IUZ983039 JEU983039:JEV983039 JOQ983039:JOR983039 JYM983039:JYN983039 KII983039:KIJ983039 KSE983039:KSF983039 LCA983039:LCB983039 LLW983039:LLX983039 LVS983039:LVT983039 MFO983039:MFP983039 MPK983039:MPL983039 MZG983039:MZH983039 NJC983039:NJD983039 NSY983039:NSZ983039 OCU983039:OCV983039 OMQ983039:OMR983039 OWM983039:OWN983039 PGI983039:PGJ983039 PQE983039:PQF983039 QAA983039:QAB983039 QJW983039:QJX983039 QTS983039:QTT983039 RDO983039:RDP983039 RNK983039:RNL983039 RXG983039:RXH983039 SHC983039:SHD983039 SQY983039:SQZ983039 TAU983039:TAV983039 TKQ983039:TKR983039 TUM983039:TUN983039 UEI983039:UEJ983039 UOE983039:UOF983039 UYA983039:UYB983039 VHW983039:VHX983039 VRS983039:VRT983039 WBO983039:WBP983039 WLK983039:WLL983039 WVG983039:WVH983039 C983039 C917503 C851967 C786431 C720895 C655359 C589823 C524287 C458751 C393215 C327679 C262143 C196607 C131071 C65535 C5" xr:uid="{FC8C5A74-6D93-453B-B734-4B441F9815E5}">
+      <formula1>-1000000000000</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Benefit type; e.g., Service Retirement, Ordinary Disability" sqref="B5 IT5 SP5 ACL5 AMH5 AWD5 BFZ5 BPV5 BZR5 CJN5 CTJ5 DDF5 DNB5 DWX5 EGT5 EQP5 FAL5 FKH5 FUD5 GDZ5 GNV5 GXR5 HHN5 HRJ5 IBF5 ILB5 IUX5 JET5 JOP5 JYL5 KIH5 KSD5 LBZ5 LLV5 LVR5 MFN5 MPJ5 MZF5 NJB5 NSX5 OCT5 OMP5 OWL5 PGH5 PQD5 PZZ5 QJV5 QTR5 RDN5 RNJ5 RXF5 SHB5 SQX5 TAT5 TKP5 TUL5 UEH5 UOD5 UXZ5 VHV5 VRR5 WBN5 WLJ5 WVF5 B65535 IT65535 SP65535 ACL65535 AMH65535 AWD65535 BFZ65535 BPV65535 BZR65535 CJN65535 CTJ65535 DDF65535 DNB65535 DWX65535 EGT65535 EQP65535 FAL65535 FKH65535 FUD65535 GDZ65535 GNV65535 GXR65535 HHN65535 HRJ65535 IBF65535 ILB65535 IUX65535 JET65535 JOP65535 JYL65535 KIH65535 KSD65535 LBZ65535 LLV65535 LVR65535 MFN65535 MPJ65535 MZF65535 NJB65535 NSX65535 OCT65535 OMP65535 OWL65535 PGH65535 PQD65535 PZZ65535 QJV65535 QTR65535 RDN65535 RNJ65535 RXF65535 SHB65535 SQX65535 TAT65535 TKP65535 TUL65535 UEH65535 UOD65535 UXZ65535 VHV65535 VRR65535 WBN65535 WLJ65535 WVF65535 B131071 IT131071 SP131071 ACL131071 AMH131071 AWD131071 BFZ131071 BPV131071 BZR131071 CJN131071 CTJ131071 DDF131071 DNB131071 DWX131071 EGT131071 EQP131071 FAL131071 FKH131071 FUD131071 GDZ131071 GNV131071 GXR131071 HHN131071 HRJ131071 IBF131071 ILB131071 IUX131071 JET131071 JOP131071 JYL131071 KIH131071 KSD131071 LBZ131071 LLV131071 LVR131071 MFN131071 MPJ131071 MZF131071 NJB131071 NSX131071 OCT131071 OMP131071 OWL131071 PGH131071 PQD131071 PZZ131071 QJV131071 QTR131071 RDN131071 RNJ131071 RXF131071 SHB131071 SQX131071 TAT131071 TKP131071 TUL131071 UEH131071 UOD131071 UXZ131071 VHV131071 VRR131071 WBN131071 WLJ131071 WVF131071 B196607 IT196607 SP196607 ACL196607 AMH196607 AWD196607 BFZ196607 BPV196607 BZR196607 CJN196607 CTJ196607 DDF196607 DNB196607 DWX196607 EGT196607 EQP196607 FAL196607 FKH196607 FUD196607 GDZ196607 GNV196607 GXR196607 HHN196607 HRJ196607 IBF196607 ILB196607 IUX196607 JET196607 JOP196607 JYL196607 KIH196607 KSD196607 LBZ196607 LLV196607 LVR196607 MFN196607 MPJ196607 MZF196607 NJB196607 NSX196607 OCT196607 OMP196607 OWL196607 PGH196607 PQD196607 PZZ196607 QJV196607 QTR196607 RDN196607 RNJ196607 RXF196607 SHB196607 SQX196607 TAT196607 TKP196607 TUL196607 UEH196607 UOD196607 UXZ196607 VHV196607 VRR196607 WBN196607 WLJ196607 WVF196607 B262143 IT262143 SP262143 ACL262143 AMH262143 AWD262143 BFZ262143 BPV262143 BZR262143 CJN262143 CTJ262143 DDF262143 DNB262143 DWX262143 EGT262143 EQP262143 FAL262143 FKH262143 FUD262143 GDZ262143 GNV262143 GXR262143 HHN262143 HRJ262143 IBF262143 ILB262143 IUX262143 JET262143 JOP262143 JYL262143 KIH262143 KSD262143 LBZ262143 LLV262143 LVR262143 MFN262143 MPJ262143 MZF262143 NJB262143 NSX262143 OCT262143 OMP262143 OWL262143 PGH262143 PQD262143 PZZ262143 QJV262143 QTR262143 RDN262143 RNJ262143 RXF262143 SHB262143 SQX262143 TAT262143 TKP262143 TUL262143 UEH262143 UOD262143 UXZ262143 VHV262143 VRR262143 WBN262143 WLJ262143 WVF262143 B327679 IT327679 SP327679 ACL327679 AMH327679 AWD327679 BFZ327679 BPV327679 BZR327679 CJN327679 CTJ327679 DDF327679 DNB327679 DWX327679 EGT327679 EQP327679 FAL327679 FKH327679 FUD327679 GDZ327679 GNV327679 GXR327679 HHN327679 HRJ327679 IBF327679 ILB327679 IUX327679 JET327679 JOP327679 JYL327679 KIH327679 KSD327679 LBZ327679 LLV327679 LVR327679 MFN327679 MPJ327679 MZF327679 NJB327679 NSX327679 OCT327679 OMP327679 OWL327679 PGH327679 PQD327679 PZZ327679 QJV327679 QTR327679 RDN327679 RNJ327679 RXF327679 SHB327679 SQX327679 TAT327679 TKP327679 TUL327679 UEH327679 UOD327679 UXZ327679 VHV327679 VRR327679 WBN327679 WLJ327679 WVF327679 B393215 IT393215 SP393215 ACL393215 AMH393215 AWD393215 BFZ393215 BPV393215 BZR393215 CJN393215 CTJ393215 DDF393215 DNB393215 DWX393215 EGT393215 EQP393215 FAL393215 FKH393215 FUD393215 GDZ393215 GNV393215 GXR393215 HHN393215 HRJ393215 IBF393215 ILB393215 IUX393215 JET393215 JOP393215 JYL393215 KIH393215 KSD393215 LBZ393215 LLV393215 LVR393215 MFN393215 MPJ393215 MZF393215 NJB393215 NSX393215 OCT393215 OMP393215 OWL393215 PGH393215 PQD393215 PZZ393215 QJV393215 QTR393215 RDN393215 RNJ393215 RXF393215 SHB393215 SQX393215 TAT393215 TKP393215 TUL393215 UEH393215 UOD393215 UXZ393215 VHV393215 VRR393215 WBN393215 WLJ393215 WVF393215 B458751 IT458751 SP458751 ACL458751 AMH458751 AWD458751 BFZ458751 BPV458751 BZR458751 CJN458751 CTJ458751 DDF458751 DNB458751 DWX458751 EGT458751 EQP458751 FAL458751 FKH458751 FUD458751 GDZ458751 GNV458751 GXR458751 HHN458751 HRJ458751 IBF458751 ILB458751 IUX458751 JET458751 JOP458751 JYL458751 KIH458751 KSD458751 LBZ458751 LLV458751 LVR458751 MFN458751 MPJ458751 MZF458751 NJB458751 NSX458751 OCT458751 OMP458751 OWL458751 PGH458751 PQD458751 PZZ458751 QJV458751 QTR458751 RDN458751 RNJ458751 RXF458751 SHB458751 SQX458751 TAT458751 TKP458751 TUL458751 UEH458751 UOD458751 UXZ458751 VHV458751 VRR458751 WBN458751 WLJ458751 WVF458751 B524287 IT524287 SP524287 ACL524287 AMH524287 AWD524287 BFZ524287 BPV524287 BZR524287 CJN524287 CTJ524287 DDF524287 DNB524287 DWX524287 EGT524287 EQP524287 FAL524287 FKH524287 FUD524287 GDZ524287 GNV524287 GXR524287 HHN524287 HRJ524287 IBF524287 ILB524287 IUX524287 JET524287 JOP524287 JYL524287 KIH524287 KSD524287 LBZ524287 LLV524287 LVR524287 MFN524287 MPJ524287 MZF524287 NJB524287 NSX524287 OCT524287 OMP524287 OWL524287 PGH524287 PQD524287 PZZ524287 QJV524287 QTR524287 RDN524287 RNJ524287 RXF524287 SHB524287 SQX524287 TAT524287 TKP524287 TUL524287 UEH524287 UOD524287 UXZ524287 VHV524287 VRR524287 WBN524287 WLJ524287 WVF524287 B589823 IT589823 SP589823 ACL589823 AMH589823 AWD589823 BFZ589823 BPV589823 BZR589823 CJN589823 CTJ589823 DDF589823 DNB589823 DWX589823 EGT589823 EQP589823 FAL589823 FKH589823 FUD589823 GDZ589823 GNV589823 GXR589823 HHN589823 HRJ589823 IBF589823 ILB589823 IUX589823 JET589823 JOP589823 JYL589823 KIH589823 KSD589823 LBZ589823 LLV589823 LVR589823 MFN589823 MPJ589823 MZF589823 NJB589823 NSX589823 OCT589823 OMP589823 OWL589823 PGH589823 PQD589823 PZZ589823 QJV589823 QTR589823 RDN589823 RNJ589823 RXF589823 SHB589823 SQX589823 TAT589823 TKP589823 TUL589823 UEH589823 UOD589823 UXZ589823 VHV589823 VRR589823 WBN589823 WLJ589823 WVF589823 B655359 IT655359 SP655359 ACL655359 AMH655359 AWD655359 BFZ655359 BPV655359 BZR655359 CJN655359 CTJ655359 DDF655359 DNB655359 DWX655359 EGT655359 EQP655359 FAL655359 FKH655359 FUD655359 GDZ655359 GNV655359 GXR655359 HHN655359 HRJ655359 IBF655359 ILB655359 IUX655359 JET655359 JOP655359 JYL655359 KIH655359 KSD655359 LBZ655359 LLV655359 LVR655359 MFN655359 MPJ655359 MZF655359 NJB655359 NSX655359 OCT655359 OMP655359 OWL655359 PGH655359 PQD655359 PZZ655359 QJV655359 QTR655359 RDN655359 RNJ655359 RXF655359 SHB655359 SQX655359 TAT655359 TKP655359 TUL655359 UEH655359 UOD655359 UXZ655359 VHV655359 VRR655359 WBN655359 WLJ655359 WVF655359 B720895 IT720895 SP720895 ACL720895 AMH720895 AWD720895 BFZ720895 BPV720895 BZR720895 CJN720895 CTJ720895 DDF720895 DNB720895 DWX720895 EGT720895 EQP720895 FAL720895 FKH720895 FUD720895 GDZ720895 GNV720895 GXR720895 HHN720895 HRJ720895 IBF720895 ILB720895 IUX720895 JET720895 JOP720895 JYL720895 KIH720895 KSD720895 LBZ720895 LLV720895 LVR720895 MFN720895 MPJ720895 MZF720895 NJB720895 NSX720895 OCT720895 OMP720895 OWL720895 PGH720895 PQD720895 PZZ720895 QJV720895 QTR720895 RDN720895 RNJ720895 RXF720895 SHB720895 SQX720895 TAT720895 TKP720895 TUL720895 UEH720895 UOD720895 UXZ720895 VHV720895 VRR720895 WBN720895 WLJ720895 WVF720895 B786431 IT786431 SP786431 ACL786431 AMH786431 AWD786431 BFZ786431 BPV786431 BZR786431 CJN786431 CTJ786431 DDF786431 DNB786431 DWX786431 EGT786431 EQP786431 FAL786431 FKH786431 FUD786431 GDZ786431 GNV786431 GXR786431 HHN786431 HRJ786431 IBF786431 ILB786431 IUX786431 JET786431 JOP786431 JYL786431 KIH786431 KSD786431 LBZ786431 LLV786431 LVR786431 MFN786431 MPJ786431 MZF786431 NJB786431 NSX786431 OCT786431 OMP786431 OWL786431 PGH786431 PQD786431 PZZ786431 QJV786431 QTR786431 RDN786431 RNJ786431 RXF786431 SHB786431 SQX786431 TAT786431 TKP786431 TUL786431 UEH786431 UOD786431 UXZ786431 VHV786431 VRR786431 WBN786431 WLJ786431 WVF786431 B851967 IT851967 SP851967 ACL851967 AMH851967 AWD851967 BFZ851967 BPV851967 BZR851967 CJN851967 CTJ851967 DDF851967 DNB851967 DWX851967 EGT851967 EQP851967 FAL851967 FKH851967 FUD851967 GDZ851967 GNV851967 GXR851967 HHN851967 HRJ851967 IBF851967 ILB851967 IUX851967 JET851967 JOP851967 JYL851967 KIH851967 KSD851967 LBZ851967 LLV851967 LVR851967 MFN851967 MPJ851967 MZF851967 NJB851967 NSX851967 OCT851967 OMP851967 OWL851967 PGH851967 PQD851967 PZZ851967 QJV851967 QTR851967 RDN851967 RNJ851967 RXF851967 SHB851967 SQX851967 TAT851967 TKP851967 TUL851967 UEH851967 UOD851967 UXZ851967 VHV851967 VRR851967 WBN851967 WLJ851967 WVF851967 B917503 IT917503 SP917503 ACL917503 AMH917503 AWD917503 BFZ917503 BPV917503 BZR917503 CJN917503 CTJ917503 DDF917503 DNB917503 DWX917503 EGT917503 EQP917503 FAL917503 FKH917503 FUD917503 GDZ917503 GNV917503 GXR917503 HHN917503 HRJ917503 IBF917503 ILB917503 IUX917503 JET917503 JOP917503 JYL917503 KIH917503 KSD917503 LBZ917503 LLV917503 LVR917503 MFN917503 MPJ917503 MZF917503 NJB917503 NSX917503 OCT917503 OMP917503 OWL917503 PGH917503 PQD917503 PZZ917503 QJV917503 QTR917503 RDN917503 RNJ917503 RXF917503 SHB917503 SQX917503 TAT917503 TKP917503 TUL917503 UEH917503 UOD917503 UXZ917503 VHV917503 VRR917503 WBN917503 WLJ917503 WVF917503 B983039 IT983039 SP983039 ACL983039 AMH983039 AWD983039 BFZ983039 BPV983039 BZR983039 CJN983039 CTJ983039 DDF983039 DNB983039 DWX983039 EGT983039 EQP983039 FAL983039 FKH983039 FUD983039 GDZ983039 GNV983039 GXR983039 HHN983039 HRJ983039 IBF983039 ILB983039 IUX983039 JET983039 JOP983039 JYL983039 KIH983039 KSD983039 LBZ983039 LLV983039 LVR983039 MFN983039 MPJ983039 MZF983039 NJB983039 NSX983039 OCT983039 OMP983039 OWL983039 PGH983039 PQD983039 PZZ983039 QJV983039 QTR983039 RDN983039 RNJ983039 RXF983039 SHB983039 SQX983039 TAT983039 TKP983039 TUL983039 UEH983039 UOD983039 UXZ983039 VHV983039 VRR983039 WBN983039 WLJ983039 WVF983039" xr:uid="{EFAD6EF3-883A-4668-AAC1-A42340E2A7BF}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4FDDF8-106A-47EA-BD4C-5B4A1371B873}">
-  <dimension ref="B2:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E10804-3FBF-4684-9424-690AFBFFB981}">
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="8" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="C3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="27">
-        <v>70000777</v>
-      </c>
-      <c r="D4" s="27">
-        <v>43629545</v>
-      </c>
-      <c r="G4">
-        <v>20292733</v>
-      </c>
-      <c r="I4" s="29">
-        <f>G4/D4</f>
-        <v>0.46511447689862456</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="27">
-        <v>73323430</v>
-      </c>
-      <c r="D5" s="27">
-        <v>50095723</v>
+        <v>285</v>
+      </c>
+      <c r="C4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H4" t="s">
+        <v>288</v>
+      </c>
+      <c r="I4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <f>B1</f>
+        <v>47000</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>SUM(D4:D$5)</f>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>22004183</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="C6" s="28"/>
+        <f>$B$1</f>
+        <v>47000</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>SUM(H4:H$5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6">
+        <v>61</v>
+      </c>
+      <c r="C6" s="160">
+        <f t="shared" ref="C6:C14" si="0">C5+D5</f>
+        <v>47000</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>SUM(D$5:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="160">
+        <f t="shared" ref="G6:G14" si="1">G5+H5</f>
+        <v>47000</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>SUM(H$5:H5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7">
+        <v>62</v>
+      </c>
+      <c r="C7" s="160">
+        <f t="shared" si="0"/>
+        <v>47000</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>SUM(D$5:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="160">
+        <f t="shared" si="1"/>
+        <v>47000</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>SUM(H$5:H6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8">
+        <v>63</v>
+      </c>
+      <c r="C8" s="160">
+        <f t="shared" si="0"/>
+        <v>47000</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>SUM(D$5:D7)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="160">
+        <f t="shared" si="1"/>
+        <v>47000</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>SUM(H$5:H7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9">
+        <v>64</v>
+      </c>
+      <c r="C9" s="160">
+        <f t="shared" si="0"/>
+        <v>47000</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>SUM(D$5:D8)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="160">
+        <f t="shared" si="1"/>
+        <v>47000</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>SUM(H$5:H8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10">
+        <v>65</v>
+      </c>
+      <c r="C10" s="160">
+        <f t="shared" si="0"/>
+        <v>47000</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>SUM(D$5:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="160">
+        <f t="shared" si="1"/>
+        <v>47000</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>SUM(H$5:H9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11">
+        <v>66</v>
+      </c>
+      <c r="C11" s="160">
+        <f t="shared" si="0"/>
+        <v>47000</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>SUM(D$5:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="160">
+        <f t="shared" si="1"/>
+        <v>47000</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>SUM(H$5:H10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12">
+        <v>67</v>
+      </c>
+      <c r="C12" s="160">
+        <f t="shared" si="0"/>
+        <v>47000</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>SUM(D$5:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="160">
+        <f t="shared" si="1"/>
+        <v>47000</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>SUM(H$5:H11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13">
+        <v>68</v>
+      </c>
+      <c r="C13" s="160">
+        <f t="shared" si="0"/>
+        <v>47000</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>SUM(D$5:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="160">
+        <f t="shared" si="1"/>
+        <v>47000</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>SUM(H$5:H12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14">
+        <v>69</v>
+      </c>
+      <c r="C14" s="160">
+        <f t="shared" si="0"/>
+        <v>47000</v>
+      </c>
+      <c r="D14">
+        <f>(MIN($B$1, $B$2) +E14) *(0.015)</f>
+        <v>270</v>
+      </c>
+      <c r="E14">
+        <f>SUM(D$5:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="160">
+        <f t="shared" si="1"/>
+        <v>47000</v>
+      </c>
+      <c r="H14">
+        <f>MIN($B$1, $B$2)  *(0.015)</f>
+        <v>270</v>
+      </c>
+      <c r="I14">
+        <f>SUM(H$5:H13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15">
+        <v>70</v>
+      </c>
+      <c r="C15" s="160">
+        <f>C14+D14</f>
+        <v>47270</v>
+      </c>
+      <c r="D15" s="160">
+        <f>(MIN($B$1, $B$2) +E15) *(0.015)</f>
+        <v>274.05</v>
+      </c>
+      <c r="E15" s="160">
+        <f>SUM(D$5:D14)</f>
+        <v>270</v>
+      </c>
+      <c r="G15" s="160">
+        <f>G14+H14</f>
+        <v>47270</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H35" si="2">MIN($B$1, $B$2)  *(0.015)</f>
+        <v>270</v>
+      </c>
+      <c r="I15" s="160">
+        <f>SUM(H$5:H14)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16">
+        <v>71</v>
+      </c>
+      <c r="C16" s="160">
+        <f t="shared" ref="C16:C35" si="3">C15+D15</f>
+        <v>47544.05</v>
+      </c>
+      <c r="D16" s="160">
+        <f t="shared" ref="D16:D35" si="4">(MIN($B$1, $B$2) +E16) *(0.015)</f>
+        <v>278.16074999999995</v>
+      </c>
+      <c r="E16" s="160">
+        <f>SUM(D$5:D15)</f>
+        <v>544.04999999999995</v>
+      </c>
+      <c r="G16" s="160">
+        <f t="shared" ref="G16:G35" si="5">G15+H15</f>
+        <v>47540</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="I16" s="160">
+        <f>SUM(H$5:H15)</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17">
+        <v>72</v>
+      </c>
+      <c r="C17" s="160">
+        <f t="shared" si="3"/>
+        <v>47822.210750000006</v>
+      </c>
+      <c r="D17" s="160">
+        <f t="shared" si="4"/>
+        <v>282.33316124999999</v>
+      </c>
+      <c r="E17" s="160">
+        <f>SUM(D$5:D16)</f>
+        <v>822.21074999999996</v>
+      </c>
+      <c r="G17" s="160">
+        <f t="shared" si="5"/>
+        <v>47810</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="I17" s="160">
+        <f>SUM(H$5:H16)</f>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18">
+        <v>73</v>
+      </c>
+      <c r="C18" s="160">
+        <f t="shared" si="3"/>
+        <v>48104.543911250003</v>
+      </c>
+      <c r="D18" s="160">
+        <f t="shared" si="4"/>
+        <v>286.56815866874996</v>
+      </c>
+      <c r="E18" s="160">
+        <f>SUM(D$5:D17)</f>
+        <v>1104.5439112499998</v>
+      </c>
+      <c r="G18" s="160">
+        <f t="shared" si="5"/>
+        <v>48080</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="I18" s="160">
+        <f>SUM(H$5:H17)</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19">
+        <v>74</v>
+      </c>
+      <c r="C19" s="160">
+        <f t="shared" si="3"/>
+        <v>48391.112069918752</v>
+      </c>
+      <c r="D19" s="160">
+        <f t="shared" si="4"/>
+        <v>290.86668104878123</v>
+      </c>
+      <c r="E19" s="160">
+        <f>SUM(D$5:D18)</f>
+        <v>1391.1120699187497</v>
+      </c>
+      <c r="G19" s="160">
+        <f t="shared" si="5"/>
+        <v>48350</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="I19" s="160">
+        <f>SUM(H$5:H18)</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20">
+        <v>75</v>
+      </c>
+      <c r="C20" s="160">
+        <f t="shared" si="3"/>
+        <v>48681.978750967537</v>
+      </c>
+      <c r="D20" s="160">
+        <f t="shared" si="4"/>
+        <v>295.22968126451292</v>
+      </c>
+      <c r="E20" s="160">
+        <f>SUM(D$5:D19)</f>
+        <v>1681.9787509675309</v>
+      </c>
+      <c r="G20" s="160">
+        <f t="shared" si="5"/>
+        <v>48620</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="I20" s="160">
+        <f>SUM(H$5:H19)</f>
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21">
+        <v>76</v>
+      </c>
+      <c r="C21" s="160">
+        <f t="shared" si="3"/>
+        <v>48977.208432232052</v>
+      </c>
+      <c r="D21" s="160">
+        <f t="shared" si="4"/>
+        <v>299.65812648348066</v>
+      </c>
+      <c r="E21" s="160">
+        <f>SUM(D$5:D20)</f>
+        <v>1977.2084322320438</v>
+      </c>
+      <c r="G21" s="160">
+        <f t="shared" si="5"/>
+        <v>48890</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="I21" s="160">
+        <f>SUM(H$5:H20)</f>
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22">
+        <v>77</v>
+      </c>
+      <c r="C22" s="160">
+        <f t="shared" si="3"/>
+        <v>49276.866558715534</v>
+      </c>
+      <c r="D22" s="160">
+        <f t="shared" si="4"/>
+        <v>304.15299838073287</v>
+      </c>
+      <c r="E22" s="160">
+        <f>SUM(D$5:D21)</f>
+        <v>2276.8665587155247</v>
+      </c>
+      <c r="G22" s="160">
+        <f t="shared" si="5"/>
+        <v>49160</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="I22" s="160">
+        <f>SUM(H$5:H21)</f>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23">
+        <v>78</v>
+      </c>
+      <c r="C23" s="160">
+        <f t="shared" si="3"/>
+        <v>49581.019557096268</v>
+      </c>
+      <c r="D23" s="160">
+        <f t="shared" si="4"/>
+        <v>308.71529335644385</v>
+      </c>
+      <c r="E23" s="160">
+        <f>SUM(D$5:D22)</f>
+        <v>2581.0195570962574</v>
+      </c>
+      <c r="G23" s="160">
+        <f t="shared" si="5"/>
+        <v>49430</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="I23" s="160">
+        <f>SUM(H$5:H22)</f>
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24">
+        <v>79</v>
+      </c>
+      <c r="C24" s="160">
+        <f t="shared" si="3"/>
+        <v>49889.734850452711</v>
+      </c>
+      <c r="D24" s="160">
+        <f t="shared" si="4"/>
+        <v>313.34602275679049</v>
+      </c>
+      <c r="E24" s="160">
+        <f>SUM(D$5:D23)</f>
+        <v>2889.7348504527013</v>
+      </c>
+      <c r="G24" s="160">
+        <f t="shared" si="5"/>
+        <v>49700</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="I24" s="160">
+        <f>SUM(H$5:H23)</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25">
+        <v>80</v>
+      </c>
+      <c r="C25" s="160">
+        <f t="shared" si="3"/>
+        <v>50203.080873209503</v>
+      </c>
+      <c r="D25" s="160">
+        <f t="shared" si="4"/>
+        <v>318.04621309814235</v>
+      </c>
+      <c r="E25" s="160">
+        <f>SUM(D$5:D24)</f>
+        <v>3203.080873209492</v>
+      </c>
+      <c r="G25" s="160">
+        <f t="shared" si="5"/>
+        <v>49970</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="I25" s="160">
+        <f>SUM(H$5:H24)</f>
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26">
+        <v>81</v>
+      </c>
+      <c r="C26" s="160">
+        <f t="shared" si="3"/>
+        <v>50521.127086307642</v>
+      </c>
+      <c r="D26" s="160">
+        <f t="shared" si="4"/>
+        <v>322.81690629461451</v>
+      </c>
+      <c r="E26" s="160">
+        <f>SUM(D$5:D25)</f>
+        <v>3521.1270863076343</v>
+      </c>
+      <c r="G26" s="160">
+        <f t="shared" si="5"/>
+        <v>50240</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="I26" s="160">
+        <f>SUM(H$5:H25)</f>
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27">
+        <v>82</v>
+      </c>
+      <c r="C27" s="160">
+        <f t="shared" si="3"/>
+        <v>50843.943992602261</v>
+      </c>
+      <c r="D27" s="160">
+        <f t="shared" si="4"/>
+        <v>327.65915988903373</v>
+      </c>
+      <c r="E27" s="160">
+        <f>SUM(D$5:D26)</f>
+        <v>3843.9439926022487</v>
+      </c>
+      <c r="G27" s="160">
+        <f t="shared" si="5"/>
+        <v>50510</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="I27" s="160">
+        <f>SUM(H$5:H26)</f>
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28">
+        <v>83</v>
+      </c>
+      <c r="C28" s="160">
+        <f t="shared" si="3"/>
+        <v>51171.603152491298</v>
+      </c>
+      <c r="D28" s="160">
+        <f t="shared" si="4"/>
+        <v>332.57404728736924</v>
+      </c>
+      <c r="E28" s="160">
+        <f>SUM(D$5:D27)</f>
+        <v>4171.6031524912823</v>
+      </c>
+      <c r="G28" s="160">
+        <f t="shared" si="5"/>
+        <v>50780</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="I28" s="160">
+        <f>SUM(H$5:H27)</f>
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29">
+        <v>84</v>
+      </c>
+      <c r="C29" s="160">
+        <f t="shared" si="3"/>
+        <v>51504.177199778664</v>
+      </c>
+      <c r="D29" s="160">
+        <f t="shared" si="4"/>
+        <v>337.56265799667977</v>
+      </c>
+      <c r="E29" s="160">
+        <f>SUM(D$5:D28)</f>
+        <v>4504.1771997786518</v>
+      </c>
+      <c r="G29" s="160">
+        <f t="shared" si="5"/>
+        <v>51050</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="I29" s="160">
+        <f>SUM(H$5:H28)</f>
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30">
+        <v>85</v>
+      </c>
+      <c r="C30" s="160">
+        <f t="shared" si="3"/>
+        <v>51841.739857775341</v>
+      </c>
+      <c r="D30" s="160">
+        <f t="shared" si="4"/>
+        <v>342.62609786663</v>
+      </c>
+      <c r="E30" s="160">
+        <f>SUM(D$5:D29)</f>
+        <v>4841.739857775332</v>
+      </c>
+      <c r="G30" s="160">
+        <f t="shared" si="5"/>
+        <v>51320</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="I30" s="160">
+        <f>SUM(H$5:H29)</f>
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31">
+        <v>86</v>
+      </c>
+      <c r="C31" s="160">
+        <f t="shared" si="3"/>
+        <v>52184.365955641973</v>
+      </c>
+      <c r="D31" s="160">
+        <f t="shared" si="4"/>
+        <v>347.76548933462942</v>
+      </c>
+      <c r="E31" s="160">
+        <f>SUM(D$5:D30)</f>
+        <v>5184.3659556419616</v>
+      </c>
+      <c r="G31" s="160">
+        <f t="shared" si="5"/>
+        <v>51590</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="I31" s="160">
+        <f>SUM(H$5:H30)</f>
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32">
+        <v>87</v>
+      </c>
+      <c r="C32" s="160">
+        <f t="shared" si="3"/>
+        <v>52532.1314449766</v>
+      </c>
+      <c r="D32" s="160">
+        <f t="shared" si="4"/>
+        <v>352.98197167464889</v>
+      </c>
+      <c r="E32" s="160">
+        <f>SUM(D$5:D31)</f>
+        <v>5532.1314449765914</v>
+      </c>
+      <c r="G32" s="160">
+        <f t="shared" si="5"/>
+        <v>51860</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="I32" s="160">
+        <f>SUM(H$5:H31)</f>
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33">
+        <v>88</v>
+      </c>
+      <c r="C33" s="160">
+        <f t="shared" si="3"/>
+        <v>52885.113416651249</v>
+      </c>
+      <c r="D33" s="160">
+        <f t="shared" si="4"/>
+        <v>358.27670124976862</v>
+      </c>
+      <c r="E33" s="160">
+        <f>SUM(D$5:D32)</f>
+        <v>5885.1134166512402</v>
+      </c>
+      <c r="G33" s="160">
+        <f t="shared" si="5"/>
+        <v>52130</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="I33" s="160">
+        <f>SUM(H$5:H32)</f>
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34">
+        <v>89</v>
+      </c>
+      <c r="C34" s="160">
+        <f t="shared" si="3"/>
+        <v>53243.390117901021</v>
+      </c>
+      <c r="D34" s="160">
+        <f t="shared" si="4"/>
+        <v>363.65085176851511</v>
+      </c>
+      <c r="E34" s="160">
+        <f>SUM(D$5:D33)</f>
+        <v>6243.390117901009</v>
+      </c>
+      <c r="G34" s="160">
+        <f t="shared" si="5"/>
+        <v>52400</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="I34" s="160">
+        <f>SUM(H$5:H33)</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35">
+        <v>90</v>
+      </c>
+      <c r="C35" s="160">
+        <f t="shared" si="3"/>
+        <v>53607.040969669535</v>
+      </c>
+      <c r="D35" s="160">
+        <f t="shared" si="4"/>
+        <v>369.10561454504284</v>
+      </c>
+      <c r="E35" s="160">
+        <f>SUM(D$5:D34)</f>
+        <v>6607.0409696695242</v>
+      </c>
+      <c r="G35" s="160">
+        <f t="shared" si="5"/>
+        <v>52670</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="I35" s="160">
+        <f>SUM(H$5:H34)</f>
+        <v>5670</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C37" s="161">
+        <f>NPV(0.07,C5:C35)</f>
+        <v>602958.80571988749</v>
+      </c>
+      <c r="G37" s="161">
+        <f>NPV(0.07,G5:G35)</f>
+        <v>601783.9164313064</v>
+      </c>
+      <c r="J37" t="s">
+        <v>291</v>
+      </c>
+      <c r="K37" s="6">
+        <f>C37/G37 - 1</f>
+        <v>1.9523441163871169E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1926FD-9D54-4763-BE10-92C262244AD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE5A881-16B3-45FC-B85F-AB0B86058833}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1530" windowWidth="16440" windowHeight="28440" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5190" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Variable fund" sheetId="18" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -116,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK4" authorId="0" shapeId="0" xr:uid="{D91F68BF-928B-4B3B-9F98-4B2FFAC0BBBC}">
+    <comment ref="AL4" authorId="0" shapeId="0" xr:uid="{D91F68BF-928B-4B3B-9F98-4B2FFAC0BBBC}">
       <text>
         <r>
           <rPr>
@@ -141,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV4" authorId="0" shapeId="0" xr:uid="{D8DF56B1-E0DB-40EC-9DAC-B2E600541C22}">
+    <comment ref="AW4" authorId="0" shapeId="0" xr:uid="{D8DF56B1-E0DB-40EC-9DAC-B2E600541C22}">
       <text>
         <r>
           <rPr>
@@ -368,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="324">
   <si>
     <t>runname</t>
   </si>
@@ -1378,6 +1379,12 @@
   </si>
   <si>
     <t>Collateral from Security lending</t>
+  </si>
+  <si>
+    <t>Variable Fund</t>
+  </si>
+  <si>
+    <t>nyear_loads</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1761,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2118,6 +2125,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2451,13 +2460,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:BG46"/>
+  <dimension ref="A3:BH46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2484,34 +2493,35 @@
     <col min="20" max="20" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.85546875" customWidth="1"/>
-    <col min="23" max="26" width="14.28515625" customWidth="1"/>
-    <col min="27" max="29" width="19.7109375" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.85546875" customWidth="1"/>
-    <col min="33" max="33" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.7109375" customWidth="1"/>
-    <col min="39" max="39" width="14" customWidth="1"/>
-    <col min="40" max="40" width="13.42578125" customWidth="1"/>
-    <col min="41" max="41" width="12.5703125" customWidth="1"/>
-    <col min="42" max="42" width="14.85546875" customWidth="1"/>
-    <col min="47" max="47" width="12" customWidth="1"/>
-    <col min="48" max="48" width="13.7109375" customWidth="1"/>
-    <col min="51" max="51" width="15.140625" customWidth="1"/>
-    <col min="52" max="53" width="16.5703125" customWidth="1"/>
-    <col min="54" max="54" width="12" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.28515625" customWidth="1"/>
-    <col min="58" max="58" width="11.42578125" customWidth="1"/>
-    <col min="59" max="59" width="14.28515625" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" customWidth="1"/>
+    <col min="24" max="27" width="14.28515625" customWidth="1"/>
+    <col min="28" max="30" width="19.7109375" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.85546875" customWidth="1"/>
+    <col min="34" max="34" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.7109375" customWidth="1"/>
+    <col min="40" max="40" width="14" customWidth="1"/>
+    <col min="41" max="41" width="13.42578125" customWidth="1"/>
+    <col min="42" max="42" width="12.5703125" customWidth="1"/>
+    <col min="43" max="43" width="14.85546875" customWidth="1"/>
+    <col min="48" max="48" width="12" customWidth="1"/>
+    <col min="49" max="49" width="13.7109375" customWidth="1"/>
+    <col min="52" max="52" width="15.140625" customWidth="1"/>
+    <col min="53" max="54" width="16.5703125" customWidth="1"/>
+    <col min="55" max="55" width="12" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.28515625" customWidth="1"/>
+    <col min="59" max="59" width="11.42578125" customWidth="1"/>
+    <col min="60" max="60" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:59" s="25" customFormat="1" ht="18.75">
+    <row r="3" spans="1:60" s="25" customFormat="1" ht="18.75">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2542,61 +2552,64 @@
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
-      <c r="W3" s="18" t="s">
+      <c r="W3" s="172" t="s">
+        <v>322</v>
+      </c>
+      <c r="X3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
       <c r="Z3" s="18"/>
-      <c r="AA3" s="19" t="s">
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AB3" s="19"/>
       <c r="AC3" s="19"/>
-      <c r="AD3" s="20" t="s">
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AE3" s="20"/>
       <c r="AF3" s="20"/>
       <c r="AG3" s="20"/>
-      <c r="AH3" s="21" t="s">
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AI3" s="21"/>
       <c r="AJ3" s="21"/>
       <c r="AK3" s="21"/>
       <c r="AL3" s="21"/>
-      <c r="AM3" s="22" t="s">
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AN3" s="22"/>
-      <c r="AO3" s="23" t="s">
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AP3" s="23"/>
       <c r="AQ3" s="23"/>
       <c r="AR3" s="23"/>
       <c r="AS3" s="23"/>
       <c r="AT3" s="23"/>
-      <c r="AU3" s="19" t="s">
+      <c r="AU3" s="23"/>
+      <c r="AV3" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="AV3" s="19"/>
       <c r="AW3" s="19"/>
       <c r="AX3" s="19"/>
       <c r="AY3" s="19"/>
       <c r="AZ3" s="19"/>
-      <c r="BA3" s="24" t="s">
+      <c r="BA3" s="19"/>
+      <c r="BB3" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="BB3" s="24"/>
       <c r="BC3" s="24"/>
       <c r="BD3" s="24"/>
       <c r="BE3" s="24"/>
       <c r="BF3" s="24"/>
       <c r="BG3" s="24"/>
-    </row>
-    <row r="4" spans="1:59" s="1" customFormat="1">
+      <c r="BH3" s="24"/>
+    </row>
+    <row r="4" spans="1:60" s="1" customFormat="1">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
@@ -2663,117 +2676,120 @@
       <c r="V4" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="W4" s="173" t="s">
+        <v>323</v>
+      </c>
+      <c r="X4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="Y4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Z4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="7" t="s">
+      <c r="AA4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AB4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="11" t="s">
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AF4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AG4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AH4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AH4" s="10" t="s">
+      <c r="AI4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AI4" s="10" t="s">
+      <c r="AJ4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AJ4" s="10" t="s">
+      <c r="AK4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AK4" s="10" t="s">
+      <c r="AL4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AL4" s="10" t="s">
+      <c r="AM4" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AM4" s="14" t="s">
+      <c r="AN4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AN4" s="14" t="s">
+      <c r="AO4" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AO4" s="8" t="s">
+      <c r="AP4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AP4" s="8" t="s">
+      <c r="AQ4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AQ4" s="8" t="s">
+      <c r="AR4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AR4" s="8" t="s">
+      <c r="AS4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AS4" s="8" t="s">
+      <c r="AT4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AT4" s="8" t="s">
+      <c r="AU4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AU4" s="9" t="s">
+      <c r="AV4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AV4" s="9" t="s">
+      <c r="AW4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AW4" s="9" t="s">
+      <c r="AX4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AX4" s="9" t="s">
+      <c r="AY4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AY4" s="9" t="s">
+      <c r="AZ4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AZ4" s="9" t="s">
+      <c r="BA4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="BA4" s="13" t="s">
+      <c r="BB4" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="BB4" s="13" t="s">
+      <c r="BC4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BC4" s="13" t="s">
+      <c r="BD4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="BD4" s="13" t="s">
+      <c r="BE4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="BE4" s="13" t="s">
+      <c r="BF4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="BF4" s="13" t="s">
+      <c r="BG4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="BG4" s="13" t="s">
+      <c r="BH4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:60">
       <c r="A5" t="s">
         <v>258</v>
       </c>
@@ -2835,114 +2851,117 @@
         <v>0.15</v>
       </c>
       <c r="W5">
+        <v>40</v>
+      </c>
+      <c r="X5">
         <v>3</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>62</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>5</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>144</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>0.03</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>37</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>15</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>0.03</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>6</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>1.2</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>0.8</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>63</v>
       </c>
-      <c r="AL5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="s">
+      <c r="AM5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="s">
         <v>151</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>21</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS5" s="3">
+      <c r="AT5" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT5" s="5">
+      <c r="AU5" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>32</v>
       </c>
       <c r="AV5" t="s">
         <v>32</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX5">
         <v>0.624</v>
       </c>
-      <c r="AX5">
+      <c r="AY5">
         <v>0.58599999999999997</v>
       </c>
-      <c r="BA5" t="b">
-        <v>1</v>
-      </c>
       <c r="BB5" t="b">
         <v>1</v>
       </c>
       <c r="BC5" t="b">
         <v>1</v>
       </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="s">
+      <c r="BD5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="s">
         <v>4</v>
       </c>
-      <c r="BF5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG5" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:59">
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="5"/>
-      <c r="BG6" s="26"/>
-    </row>
-    <row r="7" spans="1:59">
+      <c r="BG5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60">
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="5"/>
+      <c r="BH6" s="26"/>
+    </row>
+    <row r="7" spans="1:60">
       <c r="A7" t="s">
         <v>259</v>
       </c>
@@ -3004,109 +3023,112 @@
         <v>0.15</v>
       </c>
       <c r="W7">
+        <v>40</v>
+      </c>
+      <c r="X7">
         <v>3</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>62</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>5</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>144</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>0.03</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>38</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>37</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>15</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>0.03</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>6</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>1.2</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>0.8</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>63</v>
       </c>
-      <c r="AL7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="s">
+      <c r="AM7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="s">
         <v>105</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AQ7" t="s">
         <v>21</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS7" s="3">
+      <c r="AT7" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT7" s="5">
+      <c r="AU7" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>32</v>
       </c>
       <c r="AV7" t="s">
         <v>32</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX7">
         <v>0.624</v>
       </c>
-      <c r="AX7">
+      <c r="AY7">
         <v>0.58599999999999997</v>
       </c>
-      <c r="BA7" t="b">
-        <v>1</v>
-      </c>
       <c r="BB7" t="b">
         <v>1</v>
       </c>
       <c r="BC7" t="b">
         <v>1</v>
       </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7" t="s">
+      <c r="BD7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="s">
         <v>4</v>
       </c>
-      <c r="BF7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG7" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59">
+      <c r="BG7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60">
       <c r="A8" t="s">
         <v>260</v>
       </c>
@@ -3168,114 +3190,117 @@
         <v>0.15</v>
       </c>
       <c r="W8">
+        <v>40</v>
+      </c>
+      <c r="X8">
         <v>3</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>62</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>5</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>144</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>0.03</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>38</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>37</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>15</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>0.03</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>6</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>1.2</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>0.8</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>63</v>
       </c>
-      <c r="AL8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="s">
+      <c r="AM8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="s">
         <v>105</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AQ8" t="s">
         <v>21</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS8" s="3">
+      <c r="AT8" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT8" s="5">
+      <c r="AU8" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>32</v>
       </c>
       <c r="AV8" t="s">
         <v>32</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX8">
         <v>0.624</v>
       </c>
-      <c r="AX8">
+      <c r="AY8">
         <v>0.58599999999999997</v>
       </c>
-      <c r="BA8" t="b">
-        <v>1</v>
-      </c>
       <c r="BB8" t="b">
         <v>1</v>
       </c>
       <c r="BC8" t="b">
         <v>1</v>
       </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="s">
+      <c r="BD8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="s">
         <v>4</v>
       </c>
-      <c r="BF8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG8" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:59">
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="5"/>
-      <c r="BG9" s="26"/>
-    </row>
-    <row r="10" spans="1:59">
+      <c r="BG8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH8" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60">
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="5"/>
+      <c r="BH9" s="26"/>
+    </row>
+    <row r="10" spans="1:60">
       <c r="A10" t="s">
         <v>261</v>
       </c>
@@ -3337,109 +3362,112 @@
         <v>0.15</v>
       </c>
       <c r="W10">
+        <v>40</v>
+      </c>
+      <c r="X10">
         <v>3</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>62</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>5</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>144</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>0.03</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>38</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>37</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>15</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>0.03</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>6</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>1.2</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>0.8</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
         <v>63</v>
       </c>
-      <c r="AL10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="s">
+      <c r="AM10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="s">
         <v>105</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AQ10" t="s">
         <v>21</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS10" s="3">
+      <c r="AT10" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT10" s="5">
+      <c r="AU10" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>32</v>
       </c>
       <c r="AV10" t="s">
         <v>32</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX10">
         <v>0.624</v>
       </c>
-      <c r="AX10">
+      <c r="AY10">
         <v>0.58599999999999997</v>
       </c>
-      <c r="BA10" t="b">
-        <v>1</v>
-      </c>
       <c r="BB10" t="b">
         <v>1</v>
       </c>
       <c r="BC10" t="b">
         <v>1</v>
       </c>
-      <c r="BD10">
-        <v>0</v>
-      </c>
-      <c r="BE10" t="s">
+      <c r="BD10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="s">
         <v>4</v>
       </c>
-      <c r="BF10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG10" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:59">
+      <c r="BG10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH10" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60">
       <c r="A11" t="s">
         <v>258</v>
       </c>
@@ -3501,114 +3529,117 @@
         <v>0.15</v>
       </c>
       <c r="W11">
+        <v>40</v>
+      </c>
+      <c r="X11">
         <v>3</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>62</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>5</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>144</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>0.03</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>38</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>37</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>15</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>0.03</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>6</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>1.2</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>0.8</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
         <v>63</v>
       </c>
-      <c r="AL11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="s">
+      <c r="AM11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="s">
         <v>105</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AQ11" t="s">
         <v>21</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR11">
+      <c r="AS11">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS11" s="3">
+      <c r="AT11" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT11" s="5">
+      <c r="AU11" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>32</v>
       </c>
       <c r="AV11" t="s">
         <v>32</v>
       </c>
-      <c r="AW11">
+      <c r="AW11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX11">
         <v>0.624</v>
       </c>
-      <c r="AX11">
+      <c r="AY11">
         <v>0.58599999999999997</v>
       </c>
-      <c r="BA11" t="b">
-        <v>1</v>
-      </c>
       <c r="BB11" t="b">
         <v>1</v>
       </c>
       <c r="BC11" t="b">
         <v>1</v>
       </c>
-      <c r="BD11">
-        <v>0</v>
-      </c>
-      <c r="BE11" t="s">
+      <c r="BD11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="s">
         <v>4</v>
       </c>
-      <c r="BF11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG11" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:59">
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="5"/>
-      <c r="BG12" s="26"/>
-    </row>
-    <row r="13" spans="1:59">
+      <c r="BG11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60">
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="5"/>
+      <c r="BH12" s="26"/>
+    </row>
+    <row r="13" spans="1:60">
       <c r="A13" t="s">
         <v>262</v>
       </c>
@@ -3670,109 +3701,112 @@
         <v>0.15</v>
       </c>
       <c r="W13">
+        <v>40</v>
+      </c>
+      <c r="X13">
         <v>3</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>62</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>5</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>144</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>0.03</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>38</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>37</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>14</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>0.03</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>6</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>1.2</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>0.8</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AL13" t="s">
         <v>63</v>
       </c>
-      <c r="AL13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="s">
+      <c r="AM13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="s">
         <v>105</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AQ13" t="s">
         <v>121</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR13">
+      <c r="AS13">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS13" s="3">
+      <c r="AT13" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT13" s="5">
+      <c r="AU13" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>32</v>
       </c>
       <c r="AV13" t="s">
         <v>32</v>
       </c>
-      <c r="AW13">
+      <c r="AW13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX13">
         <v>0.624</v>
       </c>
-      <c r="AX13">
+      <c r="AY13">
         <v>0.58599999999999997</v>
       </c>
-      <c r="BA13" t="b">
-        <v>1</v>
-      </c>
       <c r="BB13" t="b">
         <v>1</v>
       </c>
       <c r="BC13" t="b">
         <v>1</v>
       </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13" t="s">
+      <c r="BD13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="s">
         <v>4</v>
       </c>
-      <c r="BF13" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG13" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:59">
+      <c r="BG13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH13" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60">
       <c r="A14" t="s">
         <v>263</v>
       </c>
@@ -3834,114 +3868,117 @@
         <v>0.15</v>
       </c>
       <c r="W14">
+        <v>40</v>
+      </c>
+      <c r="X14">
         <v>3</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>62</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>5</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>144</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>0.03</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>38</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>37</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>14</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>0.03</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>6</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1.2</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>0.8</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AL14" t="s">
         <v>63</v>
       </c>
-      <c r="AL14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="s">
+      <c r="AM14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="s">
         <v>105</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AQ14" t="s">
         <v>121</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR14">
+      <c r="AS14">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS14" s="3">
+      <c r="AT14" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT14" s="5">
+      <c r="AU14" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>32</v>
       </c>
       <c r="AV14" t="s">
         <v>32</v>
       </c>
-      <c r="AW14">
+      <c r="AW14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX14">
         <v>0.624</v>
       </c>
-      <c r="AX14">
+      <c r="AY14">
         <v>0.58599999999999997</v>
       </c>
-      <c r="BA14" t="b">
-        <v>1</v>
-      </c>
       <c r="BB14" t="b">
         <v>1</v>
       </c>
       <c r="BC14" t="b">
         <v>1</v>
       </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
-      <c r="BE14" t="s">
+      <c r="BD14" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="s">
         <v>4</v>
       </c>
-      <c r="BF14" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG14" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:59">
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="5"/>
-      <c r="BG15" s="26"/>
-    </row>
-    <row r="16" spans="1:59">
+      <c r="BG14" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH14" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60">
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="5"/>
+      <c r="BH15" s="26"/>
+    </row>
+    <row r="16" spans="1:60">
       <c r="A16" t="s">
         <v>264</v>
       </c>
@@ -4003,109 +4040,112 @@
         <v>0.15</v>
       </c>
       <c r="W16">
+        <v>40</v>
+      </c>
+      <c r="X16">
         <v>3</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>62</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>5</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>144</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>0.03</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>38</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>37</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>15</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>0.03</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>6</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>1.2</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>0.8</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AL16" t="s">
         <v>117</v>
       </c>
-      <c r="AL16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="s">
+      <c r="AM16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="s">
         <v>105</v>
       </c>
-      <c r="AP16" t="s">
+      <c r="AQ16" t="s">
         <v>21</v>
       </c>
-      <c r="AQ16">
+      <c r="AR16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR16">
+      <c r="AS16">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS16" s="3">
+      <c r="AT16" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT16" s="5">
+      <c r="AU16" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AU16" t="s">
+      <c r="AV16" t="s">
         <v>32</v>
       </c>
-      <c r="AV16" t="s">
+      <c r="AW16" t="s">
         <v>145</v>
       </c>
-      <c r="AW16">
+      <c r="AX16">
         <v>0.624</v>
       </c>
-      <c r="AX16">
+      <c r="AY16">
         <v>0.58599999999999997</v>
       </c>
-      <c r="BA16" t="b">
-        <v>1</v>
-      </c>
       <c r="BB16" t="b">
         <v>1</v>
       </c>
       <c r="BC16" t="b">
         <v>1</v>
       </c>
-      <c r="BD16">
-        <v>0</v>
-      </c>
-      <c r="BE16" t="s">
+      <c r="BD16" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="s">
         <v>4</v>
       </c>
-      <c r="BF16" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG16" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:59" ht="13.5" customHeight="1">
+      <c r="BG16" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH16" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60" ht="13.5" customHeight="1">
       <c r="A17" t="s">
         <v>265</v>
       </c>
@@ -4167,109 +4207,112 @@
         <v>0.15</v>
       </c>
       <c r="W17">
+        <v>40</v>
+      </c>
+      <c r="X17">
         <v>3</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>62</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>5</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>144</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>0.03</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>38</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>37</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>15</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>0.03</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>6</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>1.2</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>0.8</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AL17" t="s">
         <v>63</v>
       </c>
-      <c r="AL17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="s">
+      <c r="AM17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="s">
         <v>105</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AQ17" t="s">
         <v>21</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR17">
+      <c r="AS17">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS17" s="3">
+      <c r="AT17" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT17" s="5">
+      <c r="AU17" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>32</v>
       </c>
       <c r="AV17" t="s">
         <v>32</v>
       </c>
-      <c r="AW17">
+      <c r="AW17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX17">
         <v>0.624</v>
       </c>
-      <c r="AX17">
+      <c r="AY17">
         <v>0.58599999999999997</v>
       </c>
-      <c r="BA17" t="b">
-        <v>1</v>
-      </c>
       <c r="BB17" t="b">
         <v>1</v>
       </c>
       <c r="BC17" t="b">
         <v>1</v>
       </c>
-      <c r="BD17">
-        <v>0</v>
-      </c>
-      <c r="BE17" t="s">
+      <c r="BD17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="s">
         <v>4</v>
       </c>
-      <c r="BF17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG17" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:59">
+      <c r="BG17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH17" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:60">
       <c r="A18" t="s">
         <v>266</v>
       </c>
@@ -4331,109 +4374,112 @@
         <v>0.15</v>
       </c>
       <c r="W18">
+        <v>40</v>
+      </c>
+      <c r="X18">
         <v>3</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>62</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>5</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>144</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>0.03</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>38</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>119</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>15</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0.03</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>6</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>1.2</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>0.8</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AL18" t="s">
         <v>63</v>
       </c>
-      <c r="AL18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="s">
+      <c r="AM18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="s">
         <v>105</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AQ18" t="s">
         <v>21</v>
       </c>
-      <c r="AQ18">
+      <c r="AR18">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR18">
+      <c r="AS18">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS18" s="3">
+      <c r="AT18" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT18" s="5">
+      <c r="AU18" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>32</v>
       </c>
       <c r="AV18" t="s">
         <v>32</v>
       </c>
-      <c r="AW18">
+      <c r="AW18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX18">
         <v>0.624</v>
       </c>
-      <c r="AX18">
+      <c r="AY18">
         <v>0.58599999999999997</v>
       </c>
-      <c r="BA18" t="b">
-        <v>1</v>
-      </c>
       <c r="BB18" t="b">
         <v>1</v>
       </c>
       <c r="BC18" t="b">
         <v>1</v>
       </c>
-      <c r="BD18">
-        <v>0</v>
-      </c>
-      <c r="BE18" t="s">
+      <c r="BD18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="s">
         <v>4</v>
       </c>
-      <c r="BF18" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG18" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:59">
+      <c r="BG18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH18" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:60">
       <c r="A19" t="s">
         <v>267</v>
       </c>
@@ -4495,109 +4541,112 @@
         <v>0.15</v>
       </c>
       <c r="W19">
+        <v>40</v>
+      </c>
+      <c r="X19">
         <v>3</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>62</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>5</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>144</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>0.03</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>118</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>119</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>15</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0.03</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>6</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>1.2</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>0.8</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AL19" t="s">
         <v>63</v>
       </c>
-      <c r="AL19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="s">
+      <c r="AM19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="s">
         <v>105</v>
       </c>
-      <c r="AP19" t="s">
+      <c r="AQ19" t="s">
         <v>21</v>
       </c>
-      <c r="AQ19">
+      <c r="AR19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR19">
+      <c r="AS19">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS19" s="3">
+      <c r="AT19" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT19" s="5">
+      <c r="AU19" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>32</v>
       </c>
       <c r="AV19" t="s">
         <v>32</v>
       </c>
-      <c r="AW19">
+      <c r="AW19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX19">
         <v>0.624</v>
       </c>
-      <c r="AX19">
+      <c r="AY19">
         <v>0.58599999999999997</v>
       </c>
-      <c r="BA19" t="b">
-        <v>1</v>
-      </c>
       <c r="BB19" t="b">
         <v>1</v>
       </c>
       <c r="BC19" t="b">
         <v>1</v>
       </c>
-      <c r="BD19">
-        <v>0</v>
-      </c>
-      <c r="BE19" t="s">
+      <c r="BD19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="s">
         <v>4</v>
       </c>
-      <c r="BF19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG19" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:59">
+      <c r="BG19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH19" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:60">
       <c r="A20" t="s">
         <v>268</v>
       </c>
@@ -4659,109 +4708,112 @@
         <v>0.15</v>
       </c>
       <c r="W20">
+        <v>40</v>
+      </c>
+      <c r="X20">
         <v>3</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>62</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>5</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>144</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.03</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>118</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>119</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>30</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.03</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>6</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>1.2</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.8</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AL20" t="s">
         <v>63</v>
       </c>
-      <c r="AL20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="s">
+      <c r="AM20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="s">
         <v>105</v>
       </c>
-      <c r="AP20" t="s">
+      <c r="AQ20" t="s">
         <v>21</v>
       </c>
-      <c r="AQ20">
+      <c r="AR20">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR20">
+      <c r="AS20">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS20" s="3">
+      <c r="AT20" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT20" s="5">
+      <c r="AU20" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>32</v>
       </c>
       <c r="AV20" t="s">
         <v>32</v>
       </c>
-      <c r="AW20">
+      <c r="AW20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX20">
         <v>0.624</v>
       </c>
-      <c r="AX20">
+      <c r="AY20">
         <v>0.58599999999999997</v>
       </c>
-      <c r="BA20" t="b">
-        <v>1</v>
-      </c>
       <c r="BB20" t="b">
         <v>1</v>
       </c>
       <c r="BC20" t="b">
         <v>1</v>
       </c>
-      <c r="BD20">
-        <v>0</v>
-      </c>
-      <c r="BE20" t="s">
+      <c r="BD20" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="s">
         <v>4</v>
       </c>
-      <c r="BF20" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG20" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:59">
+      <c r="BG20" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH20" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:60">
       <c r="A21" t="s">
         <v>269</v>
       </c>
@@ -4823,113 +4875,116 @@
         <v>0.15</v>
       </c>
       <c r="W21">
+        <v>40</v>
+      </c>
+      <c r="X21">
         <v>3</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>62</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>5</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>144</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.03</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>118</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>119</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>30</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.03</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>6</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>1.2</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.8</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AL21" t="s">
         <v>63</v>
       </c>
-      <c r="AL21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="s">
+      <c r="AM21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="s">
         <v>105</v>
       </c>
-      <c r="AP21" t="s">
+      <c r="AQ21" t="s">
         <v>21</v>
       </c>
-      <c r="AQ21">
+      <c r="AR21">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR21">
+      <c r="AS21">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS21" s="3">
+      <c r="AT21" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT21" s="5">
+      <c r="AU21" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>32</v>
       </c>
       <c r="AV21" t="s">
         <v>32</v>
       </c>
-      <c r="AW21">
+      <c r="AW21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX21">
         <v>0.624</v>
       </c>
-      <c r="AX21">
+      <c r="AY21">
         <v>0.58599999999999997</v>
       </c>
-      <c r="BA21" t="b">
-        <v>1</v>
-      </c>
       <c r="BB21" t="b">
         <v>1</v>
       </c>
       <c r="BC21" t="b">
         <v>1</v>
       </c>
-      <c r="BD21">
-        <v>0</v>
-      </c>
-      <c r="BE21" t="s">
+      <c r="BD21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="s">
         <v>4</v>
       </c>
-      <c r="BF21" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG21" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:59">
-      <c r="AS22" s="3"/>
+      <c r="BG21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH21" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:60">
       <c r="AT22" s="3"/>
-    </row>
-    <row r="23" spans="1:59">
+      <c r="AU22" s="3"/>
+    </row>
+    <row r="23" spans="1:60">
       <c r="A23" t="s">
         <v>270</v>
       </c>
@@ -4991,109 +5046,112 @@
         <v>0.15</v>
       </c>
       <c r="W23">
+        <v>40</v>
+      </c>
+      <c r="X23">
         <v>3</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>62</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>5</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>144</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.03</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>38</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>37</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>14</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.03</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>6</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>1.2</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.8</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AL23" t="s">
         <v>63</v>
       </c>
-      <c r="AL23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="s">
+      <c r="AM23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="s">
         <v>105</v>
       </c>
-      <c r="AP23" t="s">
+      <c r="AQ23" t="s">
         <v>137</v>
       </c>
-      <c r="AQ23">
+      <c r="AR23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR23">
+      <c r="AS23">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS23" s="3">
+      <c r="AT23" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT23" s="5">
+      <c r="AU23" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>32</v>
       </c>
       <c r="AV23" t="s">
         <v>32</v>
       </c>
-      <c r="AW23">
+      <c r="AW23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX23">
         <v>0.624</v>
       </c>
-      <c r="AX23">
+      <c r="AY23">
         <v>0.58599999999999997</v>
       </c>
-      <c r="BA23" t="b">
-        <v>1</v>
-      </c>
       <c r="BB23" t="b">
         <v>1</v>
       </c>
       <c r="BC23" t="b">
         <v>1</v>
       </c>
-      <c r="BD23">
-        <v>0</v>
-      </c>
-      <c r="BE23" t="s">
+      <c r="BD23" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="s">
         <v>4</v>
       </c>
-      <c r="BF23" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG23" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:59">
+      <c r="BG23" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH23" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:60">
       <c r="A24" t="s">
         <v>271</v>
       </c>
@@ -5155,114 +5213,117 @@
         <v>0.15</v>
       </c>
       <c r="W24">
+        <v>40</v>
+      </c>
+      <c r="X24">
         <v>3</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>62</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>5</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>144</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>0.03</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>38</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>37</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>14</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.03</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>6</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>1.2</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>0.8</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AL24" t="s">
         <v>63</v>
       </c>
-      <c r="AL24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="s">
+      <c r="AM24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="s">
         <v>105</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AQ24" t="s">
         <v>137</v>
       </c>
-      <c r="AQ24">
+      <c r="AR24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR24">
+      <c r="AS24">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS24" s="3">
+      <c r="AT24" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT24" s="5">
+      <c r="AU24" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU24" t="s">
-        <v>32</v>
       </c>
       <c r="AV24" t="s">
         <v>32</v>
       </c>
-      <c r="AW24">
+      <c r="AW24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX24">
         <v>0.624</v>
       </c>
-      <c r="AX24">
+      <c r="AY24">
         <v>0.58599999999999997</v>
       </c>
-      <c r="BA24" t="b">
-        <v>1</v>
-      </c>
       <c r="BB24" t="b">
         <v>1</v>
       </c>
       <c r="BC24" t="b">
         <v>1</v>
       </c>
-      <c r="BD24">
-        <v>0</v>
-      </c>
-      <c r="BE24" t="s">
+      <c r="BD24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="s">
         <v>4</v>
       </c>
-      <c r="BF24" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG24" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:59">
-      <c r="AS25" s="3"/>
-      <c r="AT25" s="5"/>
-      <c r="BG25" s="26"/>
-    </row>
-    <row r="26" spans="1:59">
+      <c r="BG24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH24" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60">
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="5"/>
+      <c r="BH25" s="26"/>
+    </row>
+    <row r="26" spans="1:60">
       <c r="A26" t="s">
         <v>272</v>
       </c>
@@ -5318,109 +5379,112 @@
         <v>0.15</v>
       </c>
       <c r="W26">
+        <v>40</v>
+      </c>
+      <c r="X26">
         <v>3</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>62</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>5</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>144</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>0.03</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>38</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>37</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>30</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>0.03</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>6</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>1.2</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>0.8</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AL26" t="s">
         <v>63</v>
       </c>
-      <c r="AL26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="s">
+      <c r="AM26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="s">
         <v>105</v>
       </c>
-      <c r="AP26" t="s">
+      <c r="AQ26" t="s">
         <v>21</v>
       </c>
-      <c r="AQ26">
+      <c r="AR26">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR26">
+      <c r="AS26">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS26" s="3">
+      <c r="AT26" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT26" s="5">
+      <c r="AU26" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>32</v>
       </c>
       <c r="AV26" t="s">
         <v>32</v>
       </c>
-      <c r="AW26">
+      <c r="AW26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX26">
         <v>0.624</v>
       </c>
-      <c r="AX26">
+      <c r="AY26">
         <v>0.58599999999999997</v>
       </c>
-      <c r="BA26" t="b">
-        <v>1</v>
-      </c>
       <c r="BB26" t="b">
         <v>1</v>
       </c>
       <c r="BC26" t="b">
         <v>1</v>
       </c>
-      <c r="BD26">
-        <v>0</v>
-      </c>
-      <c r="BE26" t="s">
+      <c r="BD26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="s">
         <v>4</v>
       </c>
-      <c r="BF26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG26" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:59">
+      <c r="BG26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH26" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60">
       <c r="A27" t="s">
         <v>273</v>
       </c>
@@ -5476,114 +5540,117 @@
         <v>0.15</v>
       </c>
       <c r="W27">
+        <v>40</v>
+      </c>
+      <c r="X27">
         <v>3</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>62</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>5</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>144</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>0.03</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>118</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>37</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>15</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>0.03</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>6</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>1.2</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>0.8</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AL27" t="s">
         <v>63</v>
       </c>
-      <c r="AL27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO27" t="s">
+      <c r="AM27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="s">
         <v>105</v>
       </c>
-      <c r="AP27" t="s">
+      <c r="AQ27" t="s">
         <v>21</v>
       </c>
-      <c r="AQ27">
+      <c r="AR27">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR27">
+      <c r="AS27">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS27" s="3">
+      <c r="AT27" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT27" s="5">
+      <c r="AU27" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU27" t="s">
-        <v>32</v>
       </c>
       <c r="AV27" t="s">
         <v>32</v>
       </c>
-      <c r="AW27">
+      <c r="AW27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX27">
         <v>0.624</v>
       </c>
-      <c r="AX27">
+      <c r="AY27">
         <v>0.58599999999999997</v>
       </c>
-      <c r="BA27" t="b">
-        <v>1</v>
-      </c>
       <c r="BB27" t="b">
         <v>1</v>
       </c>
       <c r="BC27" t="b">
         <v>1</v>
       </c>
-      <c r="BD27">
-        <v>0</v>
-      </c>
-      <c r="BE27" t="s">
+      <c r="BD27" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="s">
         <v>4</v>
       </c>
-      <c r="BF27" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG27" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:59">
-      <c r="AS28" s="3"/>
-      <c r="AT28" s="5"/>
-      <c r="BG28" s="26"/>
-    </row>
-    <row r="29" spans="1:59">
+      <c r="BG27" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH27" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:60">
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="5"/>
+      <c r="BH28" s="26"/>
+    </row>
+    <row r="29" spans="1:60">
       <c r="A29" t="s">
         <v>274</v>
       </c>
@@ -5639,109 +5706,112 @@
         <v>0.15</v>
       </c>
       <c r="W29">
+        <v>40</v>
+      </c>
+      <c r="X29">
         <v>3</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>62</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>5</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
         <v>144</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>0.03</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>38</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AF29" t="s">
         <v>37</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>14</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>0.03</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>6</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>1.2</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>0.8</v>
       </c>
-      <c r="AK29" t="s">
+      <c r="AL29" t="s">
         <v>63</v>
       </c>
-      <c r="AL29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO29" t="s">
+      <c r="AM29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="s">
         <v>105</v>
       </c>
-      <c r="AP29" t="s">
+      <c r="AQ29" t="s">
         <v>124</v>
       </c>
-      <c r="AQ29">
+      <c r="AR29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR29">
+      <c r="AS29">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS29" s="3">
+      <c r="AT29" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT29" s="5">
+      <c r="AU29" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU29" t="s">
-        <v>32</v>
       </c>
       <c r="AV29" t="s">
         <v>32</v>
       </c>
-      <c r="AW29">
+      <c r="AW29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX29">
         <v>0.624</v>
       </c>
-      <c r="AX29">
+      <c r="AY29">
         <v>0.58599999999999997</v>
       </c>
-      <c r="BA29" t="b">
-        <v>1</v>
-      </c>
       <c r="BB29" t="b">
         <v>1</v>
       </c>
       <c r="BC29" t="b">
         <v>1</v>
       </c>
-      <c r="BD29">
-        <v>0</v>
-      </c>
-      <c r="BE29" t="s">
+      <c r="BD29" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29" t="s">
         <v>4</v>
       </c>
-      <c r="BF29" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG29" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:59">
+      <c r="BG29" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH29" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:60">
       <c r="A30" t="s">
         <v>275</v>
       </c>
@@ -5797,119 +5867,122 @@
         <v>0.15</v>
       </c>
       <c r="W30">
+        <v>40</v>
+      </c>
+      <c r="X30">
         <v>3</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>62</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>5</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AB30" t="s">
         <v>144</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.03</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AE30" t="s">
         <v>38</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AF30" t="s">
         <v>37</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>14</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.03</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>6</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>1.2</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.8</v>
       </c>
-      <c r="AK30" t="s">
+      <c r="AL30" t="s">
         <v>63</v>
       </c>
-      <c r="AL30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM30">
-        <v>0</v>
-      </c>
-      <c r="AN30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO30" t="s">
+      <c r="AM30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP30" t="s">
         <v>105</v>
       </c>
-      <c r="AP30" t="s">
+      <c r="AQ30" t="s">
         <v>124</v>
       </c>
-      <c r="AQ30">
+      <c r="AR30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR30">
+      <c r="AS30">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS30" s="3">
+      <c r="AT30" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT30" s="5">
+      <c r="AU30" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU30" t="s">
-        <v>32</v>
       </c>
       <c r="AV30" t="s">
         <v>32</v>
       </c>
-      <c r="AW30">
+      <c r="AW30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX30">
         <v>0.624</v>
       </c>
-      <c r="AX30">
+      <c r="AY30">
         <v>0.58599999999999997</v>
       </c>
-      <c r="BA30" t="b">
-        <v>1</v>
-      </c>
       <c r="BB30" t="b">
         <v>1</v>
       </c>
       <c r="BC30" t="b">
         <v>1</v>
       </c>
-      <c r="BD30">
-        <v>0</v>
-      </c>
-      <c r="BE30" t="s">
+      <c r="BD30" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="s">
         <v>4</v>
       </c>
-      <c r="BF30" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG30" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:59">
-      <c r="AS31" s="3"/>
-      <c r="AT31" s="5"/>
-      <c r="BG31" s="26"/>
-    </row>
-    <row r="32" spans="1:59">
-      <c r="AS32" s="3"/>
-      <c r="AT32" s="5"/>
-      <c r="BG32" s="26"/>
-    </row>
-    <row r="33" spans="1:59">
+      <c r="BG30" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH30" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:60">
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="5"/>
+      <c r="BH31" s="26"/>
+    </row>
+    <row r="32" spans="1:60">
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="5"/>
+      <c r="BH32" s="26"/>
+    </row>
+    <row r="33" spans="1:60">
       <c r="A33" s="33" t="s">
         <v>139</v>
       </c>
@@ -5958,107 +6031,107 @@
       <c r="U33">
         <v>0</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>3</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>62</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>5</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="AB33" t="s">
         <v>56</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>0.03</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AE33" t="s">
         <v>38</v>
       </c>
-      <c r="AE33" t="s">
+      <c r="AF33" t="s">
         <v>37</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>14</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>0.03</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>6</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>1.2</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>0.8</v>
       </c>
-      <c r="AK33" t="s">
+      <c r="AL33" t="s">
         <v>63</v>
       </c>
-      <c r="AM33">
-        <v>0</v>
-      </c>
-      <c r="AN33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO33" t="s">
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP33" t="s">
         <v>105</v>
       </c>
-      <c r="AP33" t="s">
+      <c r="AQ33" t="s">
         <v>138</v>
       </c>
-      <c r="AQ33">
+      <c r="AR33">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR33">
+      <c r="AS33">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS33" s="3">
+      <c r="AT33" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT33" s="5">
+      <c r="AU33" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>32</v>
       </c>
       <c r="AV33" t="s">
         <v>32</v>
       </c>
-      <c r="AW33">
+      <c r="AW33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX33">
         <v>0.623</v>
       </c>
-      <c r="AX33">
+      <c r="AY33">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BA33" t="b">
-        <v>1</v>
-      </c>
       <c r="BB33" t="b">
         <v>1</v>
       </c>
       <c r="BC33" t="b">
         <v>1</v>
       </c>
-      <c r="BD33">
-        <v>0</v>
-      </c>
-      <c r="BE33" t="s">
+      <c r="BD33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="s">
         <v>4</v>
       </c>
-      <c r="BF33" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG33" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:59">
+      <c r="BG33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH33" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:60">
       <c r="A34" s="33" t="s">
         <v>140</v>
       </c>
@@ -6107,116 +6180,116 @@
       <c r="U34">
         <v>0</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>3</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>62</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>5</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AB34" t="s">
         <v>56</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.03</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AE34" t="s">
         <v>38</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AF34" t="s">
         <v>37</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>14</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.03</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>6</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>1.2</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.8</v>
       </c>
-      <c r="AK34" t="s">
+      <c r="AL34" t="s">
         <v>63</v>
       </c>
-      <c r="AM34">
-        <v>0</v>
-      </c>
-      <c r="AN34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO34" t="s">
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP34" t="s">
         <v>105</v>
       </c>
-      <c r="AP34" t="s">
+      <c r="AQ34" t="s">
         <v>138</v>
       </c>
-      <c r="AQ34">
+      <c r="AR34">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR34">
+      <c r="AS34">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS34" s="3">
+      <c r="AT34" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT34" s="5">
+      <c r="AU34" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>32</v>
       </c>
       <c r="AV34" t="s">
         <v>32</v>
       </c>
-      <c r="AW34">
+      <c r="AW34" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX34">
         <v>0.623</v>
       </c>
-      <c r="AX34">
+      <c r="AY34">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BA34" t="b">
-        <v>1</v>
-      </c>
       <c r="BB34" t="b">
         <v>1</v>
       </c>
       <c r="BC34" t="b">
         <v>1</v>
       </c>
-      <c r="BD34">
-        <v>0</v>
-      </c>
-      <c r="BE34" t="s">
+      <c r="BD34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34" t="s">
         <v>4</v>
       </c>
-      <c r="BF34" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG34" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:59">
-      <c r="AS35" s="3"/>
-      <c r="AT35" s="5"/>
-      <c r="BG35" s="26"/>
-    </row>
-    <row r="36" spans="1:59">
-      <c r="AS36" s="3"/>
+      <c r="BG34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH34" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:60">
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="5"/>
+      <c r="BH35" s="26"/>
+    </row>
+    <row r="36" spans="1:60">
       <c r="AT36" s="3"/>
-    </row>
-    <row r="37" spans="1:59">
+      <c r="AU36" s="3"/>
+    </row>
+    <row r="37" spans="1:60">
       <c r="A37" s="31" t="s">
         <v>80</v>
       </c>
@@ -6265,107 +6338,107 @@
       <c r="U37">
         <v>0</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>3</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>62</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>5</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="AB37" t="s">
         <v>56</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>0.03</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AE37" t="s">
         <v>38</v>
       </c>
-      <c r="AE37" t="s">
+      <c r="AF37" t="s">
         <v>37</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>14</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>0.03</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>6</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>1.2</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>0.8</v>
       </c>
-      <c r="AK37" t="s">
+      <c r="AL37" t="s">
         <v>63</v>
       </c>
-      <c r="AM37">
-        <v>0</v>
-      </c>
-      <c r="AN37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO37" t="s">
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP37" t="s">
         <v>105</v>
       </c>
-      <c r="AP37" t="s">
+      <c r="AQ37" t="s">
         <v>21</v>
       </c>
-      <c r="AQ37">
+      <c r="AR37">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR37">
+      <c r="AS37">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS37" s="3">
+      <c r="AT37" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT37" s="5">
+      <c r="AU37" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU37" t="s">
-        <v>32</v>
       </c>
       <c r="AV37" t="s">
         <v>32</v>
       </c>
-      <c r="AW37">
+      <c r="AW37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX37">
         <v>0.623</v>
       </c>
-      <c r="AX37">
+      <c r="AY37">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BA37" t="b">
-        <v>1</v>
-      </c>
       <c r="BB37" t="b">
         <v>1</v>
       </c>
       <c r="BC37" t="b">
         <v>1</v>
       </c>
-      <c r="BD37">
-        <v>0</v>
-      </c>
-      <c r="BE37" t="s">
+      <c r="BD37" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BF37" t="s">
         <v>4</v>
       </c>
-      <c r="BF37" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG37" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:59">
+      <c r="BG37" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH37" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:60">
       <c r="A38" s="31" t="s">
         <v>81</v>
       </c>
@@ -6414,110 +6487,110 @@
       <c r="U38">
         <v>0</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>3</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>62</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>5</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AB38" t="s">
         <v>56</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>0.03</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AE38" t="s">
         <v>38</v>
       </c>
-      <c r="AE38" t="s">
+      <c r="AF38" t="s">
         <v>37</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>14</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>0.03</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>6</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>1.2</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>0.8</v>
       </c>
-      <c r="AK38" t="s">
+      <c r="AL38" t="s">
         <v>63</v>
       </c>
-      <c r="AM38">
-        <v>0</v>
-      </c>
-      <c r="AN38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO38" t="s">
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP38" t="s">
         <v>105</v>
       </c>
-      <c r="AP38" t="s">
+      <c r="AQ38" t="s">
         <v>21</v>
       </c>
-      <c r="AQ38">
+      <c r="AR38">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR38">
+      <c r="AS38">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS38" s="3">
+      <c r="AT38" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT38" s="5">
+      <c r="AU38" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU38" t="s">
-        <v>32</v>
       </c>
       <c r="AV38" t="s">
         <v>32</v>
       </c>
-      <c r="AW38">
+      <c r="AW38" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX38">
         <v>0.623</v>
       </c>
-      <c r="AX38">
+      <c r="AY38">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BA38" t="b">
-        <v>1</v>
-      </c>
       <c r="BB38" t="b">
         <v>1</v>
       </c>
       <c r="BC38" t="b">
         <v>1</v>
       </c>
-      <c r="BD38">
-        <v>0</v>
-      </c>
-      <c r="BE38" t="s">
+      <c r="BD38" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE38">
+        <v>0</v>
+      </c>
+      <c r="BF38" t="s">
         <v>4</v>
       </c>
-      <c r="BF38" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG38" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:59">
+      <c r="BG38" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH38" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:60">
       <c r="A39" s="32"/>
     </row>
-    <row r="40" spans="1:59">
+    <row r="40" spans="1:60">
       <c r="A40" s="31" t="s">
         <v>82</v>
       </c>
@@ -6566,107 +6639,107 @@
       <c r="U40">
         <v>0</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>3</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>62</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>5</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>56</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>0.03</v>
       </c>
-      <c r="AD40" t="s">
+      <c r="AE40" t="s">
         <v>38</v>
       </c>
-      <c r="AE40" t="s">
+      <c r="AF40" t="s">
         <v>37</v>
       </c>
-      <c r="AF40">
+      <c r="AG40">
         <v>14</v>
       </c>
-      <c r="AG40">
+      <c r="AH40">
         <v>0.03</v>
       </c>
-      <c r="AH40">
+      <c r="AI40">
         <v>6</v>
       </c>
-      <c r="AI40">
+      <c r="AJ40">
         <v>1.2</v>
       </c>
-      <c r="AJ40">
+      <c r="AK40">
         <v>0.8</v>
       </c>
-      <c r="AK40" t="s">
+      <c r="AL40" t="s">
         <v>63</v>
       </c>
-      <c r="AM40">
-        <v>0</v>
-      </c>
-      <c r="AN40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO40" t="s">
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP40" t="s">
         <v>105</v>
       </c>
-      <c r="AP40" t="s">
+      <c r="AQ40" t="s">
         <v>21</v>
       </c>
-      <c r="AQ40">
+      <c r="AR40">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR40">
+      <c r="AS40">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS40" s="3">
+      <c r="AT40" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT40" s="5">
+      <c r="AU40" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU40" t="s">
-        <v>32</v>
       </c>
       <c r="AV40" t="s">
         <v>32</v>
       </c>
-      <c r="AW40">
+      <c r="AW40" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX40">
         <v>0.623</v>
       </c>
-      <c r="AX40">
+      <c r="AY40">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BA40" t="b">
-        <v>1</v>
-      </c>
       <c r="BB40" t="b">
         <v>1</v>
       </c>
       <c r="BC40" t="b">
         <v>1</v>
       </c>
-      <c r="BD40">
-        <v>0</v>
-      </c>
-      <c r="BE40" t="s">
+      <c r="BD40" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40" t="s">
         <v>4</v>
       </c>
-      <c r="BF40" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG40" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:59">
+      <c r="BG40" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH40" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:60">
       <c r="A41" s="31" t="s">
         <v>83</v>
       </c>
@@ -6715,107 +6788,107 @@
       <c r="U41">
         <v>0</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>3</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>62</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>5</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>56</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>0.03</v>
       </c>
-      <c r="AD41" t="s">
+      <c r="AE41" t="s">
         <v>38</v>
       </c>
-      <c r="AE41" t="s">
+      <c r="AF41" t="s">
         <v>37</v>
       </c>
-      <c r="AF41">
+      <c r="AG41">
         <v>14</v>
       </c>
-      <c r="AG41">
+      <c r="AH41">
         <v>0.03</v>
       </c>
-      <c r="AH41">
+      <c r="AI41">
         <v>6</v>
       </c>
-      <c r="AI41">
+      <c r="AJ41">
         <v>1.2</v>
       </c>
-      <c r="AJ41">
+      <c r="AK41">
         <v>0.8</v>
       </c>
-      <c r="AK41" t="s">
+      <c r="AL41" t="s">
         <v>63</v>
       </c>
-      <c r="AM41">
-        <v>0</v>
-      </c>
-      <c r="AN41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO41" t="s">
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="s">
         <v>105</v>
       </c>
-      <c r="AP41" t="s">
+      <c r="AQ41" t="s">
         <v>21</v>
       </c>
-      <c r="AQ41">
+      <c r="AR41">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR41">
+      <c r="AS41">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS41" s="3">
+      <c r="AT41" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT41" s="5">
+      <c r="AU41" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU41" t="s">
-        <v>32</v>
       </c>
       <c r="AV41" t="s">
         <v>32</v>
       </c>
-      <c r="AW41">
+      <c r="AW41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX41">
         <v>0.623</v>
       </c>
-      <c r="AX41">
+      <c r="AY41">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BA41" t="b">
-        <v>1</v>
-      </c>
       <c r="BB41" t="b">
         <v>1</v>
       </c>
       <c r="BC41" t="b">
         <v>1</v>
       </c>
-      <c r="BD41">
-        <v>0</v>
-      </c>
-      <c r="BE41" t="s">
+      <c r="BD41" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE41">
+        <v>0</v>
+      </c>
+      <c r="BF41" t="s">
         <v>4</v>
       </c>
-      <c r="BF41" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG41" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:59">
+      <c r="BG41" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH41" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:60">
       <c r="A44" s="30" t="s">
         <v>111</v>
       </c>
@@ -6864,107 +6937,107 @@
       <c r="U44">
         <v>0</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>3</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>62</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>5</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>56</v>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <v>0.03</v>
       </c>
-      <c r="AD44" t="s">
+      <c r="AE44" t="s">
         <v>38</v>
       </c>
-      <c r="AE44" t="s">
+      <c r="AF44" t="s">
         <v>37</v>
       </c>
-      <c r="AF44">
+      <c r="AG44">
         <v>14</v>
       </c>
-      <c r="AG44">
+      <c r="AH44">
         <v>0.03</v>
       </c>
-      <c r="AH44">
+      <c r="AI44">
         <v>6</v>
       </c>
-      <c r="AI44">
+      <c r="AJ44">
         <v>1.2</v>
       </c>
-      <c r="AJ44">
+      <c r="AK44">
         <v>0.8</v>
       </c>
-      <c r="AK44" t="s">
+      <c r="AL44" t="s">
         <v>63</v>
       </c>
-      <c r="AM44">
-        <v>0</v>
-      </c>
-      <c r="AN44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO44" t="s">
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="s">
         <v>105</v>
       </c>
-      <c r="AP44" t="s">
+      <c r="AQ44" t="s">
         <v>21</v>
       </c>
-      <c r="AQ44">
+      <c r="AR44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR44">
+      <c r="AS44">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS44" s="3">
+      <c r="AT44" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT44" s="5">
+      <c r="AU44" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU44" t="s">
-        <v>32</v>
       </c>
       <c r="AV44" t="s">
         <v>32</v>
       </c>
-      <c r="AW44">
+      <c r="AW44" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX44">
         <v>0.623</v>
       </c>
-      <c r="AX44">
+      <c r="AY44">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BA44" t="b">
-        <v>1</v>
-      </c>
       <c r="BB44" t="b">
         <v>1</v>
       </c>
       <c r="BC44" t="b">
         <v>1</v>
       </c>
-      <c r="BD44">
-        <v>0</v>
-      </c>
-      <c r="BE44" t="s">
+      <c r="BD44" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE44">
+        <v>0</v>
+      </c>
+      <c r="BF44" t="s">
         <v>4</v>
       </c>
-      <c r="BF44" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG44" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:59">
+      <c r="BG44" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH44" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:60">
       <c r="A45" s="30" t="s">
         <v>132</v>
       </c>
@@ -7013,107 +7086,107 @@
       <c r="U45">
         <v>0</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>3</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>62</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>5</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>56</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <v>0.03</v>
       </c>
-      <c r="AD45" t="s">
+      <c r="AE45" t="s">
         <v>38</v>
       </c>
-      <c r="AE45" t="s">
+      <c r="AF45" t="s">
         <v>37</v>
       </c>
-      <c r="AF45">
+      <c r="AG45">
         <v>14</v>
       </c>
-      <c r="AG45">
+      <c r="AH45">
         <v>0.03</v>
       </c>
-      <c r="AH45">
+      <c r="AI45">
         <v>6</v>
       </c>
-      <c r="AI45">
+      <c r="AJ45">
         <v>1.2</v>
       </c>
-      <c r="AJ45">
+      <c r="AK45">
         <v>0.8</v>
       </c>
-      <c r="AK45" t="s">
+      <c r="AL45" t="s">
         <v>63</v>
       </c>
-      <c r="AM45">
-        <v>0</v>
-      </c>
-      <c r="AN45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO45" t="s">
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP45" t="s">
         <v>105</v>
       </c>
-      <c r="AP45" t="s">
+      <c r="AQ45" t="s">
         <v>21</v>
       </c>
-      <c r="AQ45">
+      <c r="AR45">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR45">
+      <c r="AS45">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS45" s="3">
+      <c r="AT45" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT45" s="5">
+      <c r="AU45" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU45" t="s">
-        <v>32</v>
       </c>
       <c r="AV45" t="s">
         <v>32</v>
       </c>
-      <c r="AW45">
+      <c r="AW45" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX45">
         <v>0.623</v>
       </c>
-      <c r="AX45">
+      <c r="AY45">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BA45" t="b">
-        <v>1</v>
-      </c>
       <c r="BB45" t="b">
         <v>1</v>
       </c>
       <c r="BC45" t="b">
         <v>1</v>
       </c>
-      <c r="BD45">
-        <v>0</v>
-      </c>
-      <c r="BE45" t="s">
+      <c r="BD45" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE45">
+        <v>0</v>
+      </c>
+      <c r="BF45" t="s">
         <v>4</v>
       </c>
-      <c r="BF45" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG45" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:59">
+      <c r="BG45" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH45" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:60">
       <c r="A46" s="30" t="s">
         <v>110</v>
       </c>
@@ -7162,112 +7235,112 @@
       <c r="U46">
         <v>0</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>3</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>62</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>5</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>56</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>0.03</v>
       </c>
-      <c r="AD46" t="s">
+      <c r="AE46" t="s">
         <v>38</v>
       </c>
-      <c r="AE46" t="s">
+      <c r="AF46" t="s">
         <v>37</v>
       </c>
-      <c r="AF46">
+      <c r="AG46">
         <v>14</v>
       </c>
-      <c r="AG46">
+      <c r="AH46">
         <v>0.03</v>
       </c>
-      <c r="AH46">
+      <c r="AI46">
         <v>6</v>
       </c>
-      <c r="AI46">
+      <c r="AJ46">
         <v>1.2</v>
       </c>
-      <c r="AJ46">
+      <c r="AK46">
         <v>0.8</v>
       </c>
-      <c r="AK46" t="s">
+      <c r="AL46" t="s">
         <v>63</v>
       </c>
-      <c r="AM46">
-        <v>0</v>
-      </c>
-      <c r="AN46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO46" t="s">
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP46" t="s">
         <v>105</v>
       </c>
-      <c r="AP46" t="s">
+      <c r="AQ46" t="s">
         <v>21</v>
       </c>
-      <c r="AQ46">
+      <c r="AR46">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR46">
+      <c r="AS46">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AS46" s="3">
+      <c r="AT46" s="3">
         <v>0.12</v>
       </c>
-      <c r="AT46" s="5">
+      <c r="AU46" s="5">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AU46" t="s">
-        <v>32</v>
       </c>
       <c r="AV46" t="s">
         <v>32</v>
       </c>
-      <c r="AW46">
+      <c r="AW46" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX46">
         <v>0.623</v>
       </c>
-      <c r="AX46">
+      <c r="AY46">
         <v>0.57999999999999996</v>
       </c>
-      <c r="BA46" t="b">
-        <v>1</v>
-      </c>
       <c r="BB46" t="b">
         <v>1</v>
       </c>
       <c r="BC46" t="b">
         <v>1</v>
       </c>
-      <c r="BD46">
-        <v>0</v>
-      </c>
-      <c r="BE46" t="s">
+      <c r="BD46" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE46">
+        <v>0</v>
+      </c>
+      <c r="BF46" t="s">
         <v>4</v>
       </c>
-      <c r="BF46" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG46" s="26" t="b">
+      <c r="BG46" t="b">
+        <v>1</v>
+      </c>
+      <c r="BH46" s="26" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB40:BC41 N40:N41 E44:E46 BB44:BC46 L44:N46 L33:M41 N33:N38 BB5:BC38 L5:N35 E5:E41" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC40:BD41 N40:N41 E44:E46 BC44:BD46 L44:N46 L33:M41 N33:N38 BC5:BD38 L5:N35 E5:E41" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO40:AO41 AO44:AO46 AO5:AO38" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP40:AP41 AP44:AP46 AP5:AP38" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8104,7 +8177,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE5A881-16B3-45FC-B85F-AB0B86058833}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36281236-8B6A-443B-AB14-AEB31FB23958}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5190" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Variable fund" sheetId="18" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2102,6 +2101,8 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2125,8 +2126,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2463,10 +2462,10 @@
   <dimension ref="A3:BH46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2552,7 +2551,7 @@
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
-      <c r="W3" s="172" t="s">
+      <c r="W3" s="165" t="s">
         <v>322</v>
       </c>
       <c r="X3" s="18" t="s">
@@ -2676,7 +2675,7 @@
       <c r="V4" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="W4" s="173" t="s">
+      <c r="W4" s="166" t="s">
         <v>323</v>
       </c>
       <c r="X4" s="7" t="s">
@@ -3475,7 +3474,7 @@
         <v>130</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0.3</v>
@@ -10725,18 +10724,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="14.25">
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
     </row>
     <row r="2" spans="2:11" ht="14.25">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="168" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
     </row>
     <row r="3" spans="2:11" ht="25.5">
       <c r="C3" s="36">
@@ -11007,8 +11006,8 @@
         <f>D24+D26</f>
         <v>37988259515</v>
       </c>
-      <c r="H24" s="167"/>
-      <c r="I24" s="168"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="170"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="39" t="s">
@@ -11837,36 +11836,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="171" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="171" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
     </row>
     <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="171" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
     </row>
     <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="171" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
     </row>
     <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="64"/>
@@ -13430,10 +13429,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="14.25">
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="172" t="s">
         <v>283</v>
       </c>
-      <c r="C1" s="170"/>
+      <c r="C1" s="172"/>
       <c r="E1" s="149"/>
       <c r="F1" s="150" t="s">
         <v>284</v>
@@ -13441,10 +13440,10 @@
       <c r="G1" s="149"/>
     </row>
     <row r="2" spans="2:10" ht="15.75">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="173" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="171"/>
+      <c r="C2" s="173"/>
       <c r="E2" s="151"/>
       <c r="F2" s="151"/>
       <c r="G2" s="152"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6BFA98-EF50-4033-B508-BA1482AA768F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F87502-8A9F-4810-889B-C21779F7083B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1530" windowWidth="29040" windowHeight="15840" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -52,7 +52,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Skip the year-1 amort. payment for new amortization basis. 
@@ -69,7 +69,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -78,7 +78,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 20292733/43629545 = 46.5%</t>
@@ -118,7 +118,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -127,7 +127,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 AL_pct; AA0, noSmoothing</t>
@@ -747,7 +747,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,19 +790,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1467,11 +1454,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:BE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,7 +1769,7 @@
         <v>138</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0.3</v>
@@ -2261,7 +2248,7 @@
         <v>161</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0.3</v>
@@ -6030,7 +6017,7 @@
   <dimension ref="A3:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6079,7 +6066,7 @@
         <v>2000</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -6112,8 +6099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6235,7 +6222,7 @@
         <v>0.12</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36281236-8B6A-443B-AB14-AEB31FB23958}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A923CFE-CF6E-4C4A-BE64-95A32BC5A9D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2462,10 +2462,10 @@
   <dimension ref="A3:BH46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="AQ8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="AW16" sqref="AW16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3985,7 +3985,7 @@
         <v>115</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0.3</v>
@@ -4152,7 +4152,7 @@
         <v>115</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0.3</v>
@@ -4319,7 +4319,7 @@
         <v>115</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0.3</v>
@@ -4486,7 +4486,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0.3</v>
@@ -4653,7 +4653,7 @@
         <v>115</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>0.3</v>
@@ -4820,7 +4820,7 @@
         <v>114</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0.3</v>
@@ -8259,7 +8259,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8313,7 +8313,7 @@
         <v>0.13</v>
       </c>
       <c r="F2" s="6">
-        <f t="shared" ref="F2:F10" si="1">B2 - C2^2/2</f>
+        <f t="shared" ref="F2:F3" si="1">B2 - C2^2/2</f>
         <v>0.13</v>
       </c>
       <c r="G2" t="s">
@@ -8363,7 +8363,6 @@
         <v>0.02</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="G4" t="s">
@@ -8388,7 +8387,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F2:F10" si="2">B5 - C5^2/2</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G5" t="s">
@@ -8413,7 +8412,7 @@
         <v>0.13</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13</v>
       </c>
       <c r="G6" t="s">
@@ -8438,7 +8437,7 @@
         <v>0.128</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.128</v>
       </c>
       <c r="G7" t="s">
@@ -8463,7 +8462,6 @@
         <v>0.02</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="G8" t="s">
@@ -8488,7 +8486,7 @@
         <v>0.05</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
       <c r="G9" t="s">
@@ -8513,7 +8511,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="G10" t="s">
@@ -8538,7 +8536,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" ref="F11:F20" si="2">B11 - C11^2/2</f>
+        <f t="shared" ref="F11:F20" si="3">B11 - C11^2/2</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G11" t="s">
@@ -8563,7 +8561,7 @@
         <v>0.13</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13</v>
       </c>
       <c r="G12" t="s">
@@ -8588,7 +8586,7 @@
         <v>0.128</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.128</v>
       </c>
       <c r="G13" t="s">
@@ -8613,7 +8611,6 @@
         <v>0.02</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="G14" t="s">
@@ -8638,7 +8635,7 @@
         <v>0.05</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="G15" t="s">
@@ -8663,7 +8660,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="G16" t="s">
@@ -8688,7 +8685,7 @@
         <v>0.13</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13</v>
       </c>
       <c r="G17" t="s">
@@ -8713,7 +8710,7 @@
         <v>0.128</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.128</v>
       </c>
       <c r="G18" t="s">
@@ -8738,7 +8735,6 @@
         <v>0.02</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="G19" t="s">
@@ -8763,7 +8759,7 @@
         <v>-0.24</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.24</v>
       </c>
       <c r="G20" t="s">
@@ -8788,7 +8784,7 @@
         <v>0.12</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" ref="F21:F28" si="3">B21 - C21^2/2</f>
+        <f t="shared" ref="F21:F28" si="4">B21 - C21^2/2</f>
         <v>0.12</v>
       </c>
       <c r="G21" t="s">
@@ -8813,7 +8809,7 @@
         <v>0.13</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13</v>
       </c>
       <c r="G22" t="s">
@@ -8838,7 +8834,7 @@
         <v>0.11</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11</v>
       </c>
       <c r="G23" t="s">
@@ -8863,7 +8859,7 @@
         <v>0.05</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
       <c r="G24" t="s">
@@ -8888,7 +8884,7 @@
         <v>0.13</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13</v>
       </c>
       <c r="G25" t="s">
@@ -8909,11 +8905,11 @@
         <v>1</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" ref="E26:E32" si="4">F26</f>
+        <f t="shared" ref="E26:E32" si="5">F26</f>
         <v>0.128</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.128</v>
       </c>
       <c r="G26" t="s">
@@ -8934,11 +8930,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
       <c r="G27" t="s">
@@ -8959,11 +8954,11 @@
         <v>1</v>
       </c>
       <c r="E28" s="4">
+        <f t="shared" si="5"/>
+        <v>-0.24</v>
+      </c>
+      <c r="F28" s="6">
         <f t="shared" si="4"/>
-        <v>-0.24</v>
-      </c>
-      <c r="F28" s="6">
-        <f t="shared" si="3"/>
         <v>-0.24</v>
       </c>
       <c r="G28" t="s">
@@ -8984,7 +8979,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
       <c r="F29" s="6">
@@ -9009,7 +9004,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13</v>
       </c>
       <c r="F30" s="6">
@@ -9034,7 +9029,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11</v>
       </c>
       <c r="F31" s="6">
@@ -9059,7 +9054,7 @@
         <v>26</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F32" s="6">

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A76C143-9B11-4833-834C-7C5F61EC19D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E783E53E-53AC-4BE4-A0B8-553A2C53560E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="524" xr2:uid="{